--- a/haawks-indicator-shortlist.xlsx
+++ b/haawks-indicator-shortlist.xlsx
@@ -1580,8 +1580,12 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1589,7 +1593,7 @@
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1616,6632 +1620,6634 @@
   </sheetPr>
   <dimension ref="A1:Y88"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="I6" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="V9" activeCellId="0" sqref="V9"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="L60" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="T66" activeCellId="0" sqref="T66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16384" min="16226" style="0" width="11.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="28.93"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="33.23"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16384" min="16226" style="1" width="11.53"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="P1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="Q1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="R1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="S1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="T1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="U1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="V1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="W1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="X1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Y1" s="2" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="C2" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="D2" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E2" s="0" t="n">
+      <c r="E2" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="F2" s="0" t="s">
+      <c r="F2" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="G2" s="0" t="s">
+      <c r="G2" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="H2" s="0" t="s">
+      <c r="H2" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="I2" s="0" t="s">
+      <c r="I2" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="J2" s="0" t="n">
+      <c r="J2" s="1" t="n">
         <v>30000</v>
       </c>
-      <c r="K2" s="0" t="n">
+      <c r="K2" s="1" t="n">
         <v>44031</v>
       </c>
-      <c r="L2" s="0" t="s">
+      <c r="L2" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="M2" s="0" t="s">
+      <c r="M2" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="N2" s="0" t="n">
+      <c r="N2" s="1" t="n">
         <v>75</v>
       </c>
-      <c r="O2" s="0" t="s">
+      <c r="O2" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="P2" s="0" t="n">
+      <c r="P2" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="Q2" s="0" t="s">
+      <c r="Q2" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="R2" s="0" t="s">
+      <c r="R2" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="S2" s="2" t="s">
+      <c r="S2" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="T2" s="0" t="s">
+      <c r="T2" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="U2" s="0" t="s">
+      <c r="U2" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="V2" s="0" t="n">
+      <c r="V2" s="1" t="n">
         <v>1.139</v>
       </c>
-      <c r="W2" s="0" t="n">
+      <c r="W2" s="1" t="n">
         <v>2.353</v>
       </c>
-      <c r="X2" s="0" t="n">
+      <c r="X2" s="1" t="n">
         <v>3.672</v>
       </c>
-      <c r="Y2" s="0" t="n">
+      <c r="Y2" s="1" t="n">
         <v>5.908</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="A3" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="C3" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="D3" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E3" s="0" t="n">
+      <c r="E3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="F3" s="0" t="s">
+      <c r="F3" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="G3" s="0" t="s">
+      <c r="G3" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="H3" s="0" t="s">
+      <c r="H3" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="I3" s="0" t="s">
+      <c r="I3" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="J3" s="0" t="n">
+      <c r="J3" s="1" t="n">
         <v>30001</v>
       </c>
-      <c r="K3" s="0" t="n">
+      <c r="K3" s="1" t="n">
         <v>44031</v>
       </c>
-      <c r="L3" s="0" t="s">
+      <c r="L3" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="M3" s="0" t="s">
+      <c r="M3" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="N3" s="0" t="n">
+      <c r="N3" s="1" t="n">
         <v>485</v>
       </c>
-      <c r="O3" s="0" t="s">
+      <c r="O3" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="P3" s="0" t="n">
+      <c r="P3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="Q3" s="0" t="s">
+      <c r="Q3" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="R3" s="0" t="s">
+      <c r="R3" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="S3" s="2" t="s">
+      <c r="S3" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="T3" s="0" t="s">
+      <c r="T3" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="U3" s="0" t="s">
+      <c r="U3" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="V3" s="0" t="n">
+      <c r="V3" s="1" t="n">
         <v>0.584</v>
       </c>
-      <c r="W3" s="0" t="n">
+      <c r="W3" s="1" t="n">
         <v>1.284</v>
       </c>
-      <c r="X3" s="0" t="n">
+      <c r="X3" s="1" t="n">
         <v>2.173</v>
       </c>
-      <c r="Y3" s="0" t="n">
+      <c r="Y3" s="1" t="n">
         <v>3.271</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+      <c r="A4" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="C4" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D4" s="0" t="s">
+      <c r="D4" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E4" s="0" t="n">
+      <c r="E4" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="F4" s="0" t="s">
+      <c r="F4" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="G4" s="0" t="s">
+      <c r="G4" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="H4" s="0" t="s">
+      <c r="H4" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="I4" s="0" t="s">
+      <c r="I4" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="J4" s="0" t="n">
+      <c r="J4" s="1" t="n">
         <v>30002</v>
       </c>
-      <c r="K4" s="0" t="n">
+      <c r="K4" s="1" t="n">
         <v>44031</v>
       </c>
-      <c r="L4" s="0" t="s">
+      <c r="L4" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="M4" s="0" t="s">
+      <c r="M4" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="N4" s="0" t="n">
+      <c r="N4" s="1" t="n">
         <v>1660</v>
       </c>
-      <c r="O4" s="0" t="s">
+      <c r="O4" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="P4" s="0" t="n">
+      <c r="P4" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="Q4" s="0" t="s">
+      <c r="Q4" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="R4" s="0" t="s">
+      <c r="R4" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="S4" s="0" t="s">
+      <c r="S4" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="T4" s="0" t="s">
+      <c r="T4" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="U4" s="0" t="s">
+      <c r="U4" s="1" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+      <c r="A5" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="B5" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="0" t="s">
+      <c r="C5" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D5" s="0" t="s">
+      <c r="D5" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E5" s="0" t="n">
+      <c r="E5" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="F5" s="0" t="s">
+      <c r="F5" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="G5" s="0" t="s">
+      <c r="G5" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="H5" s="0" t="s">
+      <c r="H5" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="I5" s="3" t="n">
+      <c r="I5" s="4" t="n">
         <v>6.4375</v>
       </c>
-      <c r="J5" s="0" t="n">
+      <c r="J5" s="1" t="n">
         <v>30008</v>
       </c>
-      <c r="K5" s="0" t="n">
+      <c r="K5" s="1" t="n">
         <v>44031</v>
       </c>
-      <c r="L5" s="0" t="s">
+      <c r="L5" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="M5" s="0" t="s">
+      <c r="M5" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="N5" s="0" t="n">
+      <c r="N5" s="1" t="n">
         <v>1657</v>
       </c>
-      <c r="O5" s="0" t="s">
+      <c r="O5" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="P5" s="0" t="n">
+      <c r="P5" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="Q5" s="0" t="s">
+      <c r="Q5" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="R5" s="0" t="s">
+      <c r="R5" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="S5" s="0" t="s">
+      <c r="S5" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="T5" s="0" t="s">
+      <c r="T5" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="U5" s="0" t="s">
+      <c r="U5" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="V5" s="0" t="n">
+      <c r="V5" s="1" t="n">
         <v>0.187</v>
       </c>
-      <c r="W5" s="0" t="n">
+      <c r="W5" s="1" t="n">
         <v>0.395</v>
       </c>
-      <c r="X5" s="0" t="n">
+      <c r="X5" s="1" t="n">
         <v>0.621</v>
       </c>
-      <c r="Y5" s="0" t="n">
+      <c r="Y5" s="1" t="n">
         <v>1.017</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+      <c r="A6" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B6" s="0" t="s">
+      <c r="B6" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="0" t="s">
+      <c r="C6" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D6" s="0" t="s">
+      <c r="D6" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E6" s="0" t="n">
+      <c r="E6" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="F6" s="0" t="s">
+      <c r="F6" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="G6" s="0" t="s">
+      <c r="G6" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="H6" s="0" t="s">
+      <c r="H6" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="I6" s="0" t="s">
+      <c r="I6" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="J6" s="0" t="n">
+      <c r="J6" s="1" t="n">
         <v>30010</v>
       </c>
-      <c r="K6" s="0" t="n">
+      <c r="K6" s="1" t="n">
         <v>44031</v>
       </c>
-      <c r="L6" s="0" t="s">
+      <c r="L6" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="M6" s="0" t="s">
+      <c r="M6" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="N6" s="0" t="n">
+      <c r="N6" s="1" t="n">
         <v>386</v>
       </c>
-      <c r="O6" s="0" t="s">
+      <c r="O6" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="P6" s="0" t="n">
+      <c r="P6" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="Q6" s="0" t="s">
+      <c r="Q6" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="R6" s="0" t="s">
+      <c r="R6" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="S6" s="2" t="s">
+      <c r="S6" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="T6" s="0" t="s">
+      <c r="T6" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="U6" s="0" t="s">
+      <c r="U6" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="V6" s="0" t="n">
+      <c r="V6" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="W6" s="0" t="n">
+      <c r="W6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="X6" s="0" t="n">
+      <c r="X6" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="Y6" s="0" t="n">
+      <c r="Y6" s="1" t="n">
         <v>11</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+      <c r="A7" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B7" s="0" t="s">
+      <c r="B7" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C7" s="0" t="s">
+      <c r="C7" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D7" s="0" t="s">
+      <c r="D7" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="E7" s="0" t="n">
+      <c r="E7" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="F7" s="0" t="s">
+      <c r="F7" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="G7" s="0" t="s">
+      <c r="G7" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="H7" s="0" t="s">
+      <c r="H7" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="I7" s="0" t="s">
+      <c r="I7" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="J7" s="0" t="n">
+      <c r="J7" s="1" t="n">
         <v>10000</v>
       </c>
-      <c r="K7" s="0" t="n">
+      <c r="K7" s="1" t="n">
         <v>44011</v>
       </c>
-      <c r="L7" s="0" t="s">
+      <c r="L7" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="M7" s="0" t="s">
+      <c r="M7" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="N7" s="0" t="n">
+      <c r="N7" s="1" t="n">
         <v>227</v>
       </c>
-      <c r="O7" s="0" t="s">
+      <c r="O7" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="P7" s="0" t="n">
+      <c r="P7" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="Q7" s="0" t="s">
+      <c r="Q7" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="R7" s="0" t="s">
+      <c r="R7" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="S7" s="2" t="s">
+      <c r="S7" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="T7" s="0" t="s">
+      <c r="T7" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="U7" s="0" t="s">
+      <c r="U7" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="V7" s="0" t="n">
+      <c r="V7" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="W7" s="0" t="n">
+      <c r="W7" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="X7" s="0" t="n">
+      <c r="X7" s="1" t="n">
         <v>90</v>
       </c>
-      <c r="Y7" s="0" t="n">
+      <c r="Y7" s="1" t="n">
         <v>200</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
+      <c r="A8" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="B8" s="0" t="s">
+      <c r="B8" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C8" s="0" t="s">
+      <c r="C8" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D8" s="0" t="s">
+      <c r="D8" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="E8" s="0" t="n">
+      <c r="E8" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="F8" s="0" t="s">
+      <c r="F8" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="G8" s="0" t="s">
+      <c r="G8" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="H8" s="0" t="s">
+      <c r="H8" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="I8" s="3" t="n">
+      <c r="I8" s="4" t="n">
         <v>1.35416666666667</v>
       </c>
-      <c r="J8" s="0" t="n">
+      <c r="J8" s="1" t="n">
         <v>10005</v>
       </c>
-      <c r="K8" s="0" t="n">
+      <c r="K8" s="1" t="n">
         <v>44011</v>
       </c>
-      <c r="L8" s="0" t="s">
+      <c r="L8" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="M8" s="0" t="s">
+      <c r="M8" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="N8" s="0" t="n">
+      <c r="N8" s="1" t="n">
         <v>300</v>
       </c>
-      <c r="O8" s="0" t="s">
+      <c r="O8" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="P8" s="0" t="n">
+      <c r="P8" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="Q8" s="0" t="s">
+      <c r="Q8" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="R8" s="0" t="s">
+      <c r="R8" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="S8" s="2" t="s">
+      <c r="S8" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="T8" s="0" t="s">
+      <c r="T8" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="U8" s="0" t="s">
+      <c r="U8" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="V8" s="0" t="n">
+      <c r="V8" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="W8" s="0" t="n">
+      <c r="W8" s="1" t="n">
         <v>0.1</v>
       </c>
-      <c r="X8" s="0" t="n">
+      <c r="X8" s="1" t="n">
         <v>0.1</v>
       </c>
-      <c r="Y8" s="0" t="n">
+      <c r="Y8" s="1" t="n">
         <v>0.2</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
+      <c r="A9" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="B9" s="0" t="s">
+      <c r="B9" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C9" s="0" t="s">
+      <c r="C9" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D9" s="0" t="s">
+      <c r="D9" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="E9" s="0" t="n">
+      <c r="E9" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="F9" s="0" t="s">
+      <c r="F9" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="G9" s="0" t="s">
+      <c r="G9" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="H9" s="0" t="s">
+      <c r="H9" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="I9" s="0" t="s">
+      <c r="I9" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="J9" s="0" t="n">
+      <c r="J9" s="1" t="n">
         <v>10010</v>
       </c>
-      <c r="K9" s="0" t="n">
+      <c r="K9" s="1" t="n">
         <v>44011</v>
       </c>
-      <c r="L9" s="0" t="s">
+      <c r="L9" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="M9" s="0" t="s">
+      <c r="M9" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="N9" s="0" t="n">
+      <c r="N9" s="1" t="n">
         <v>238</v>
       </c>
-      <c r="O9" s="0" t="s">
+      <c r="O9" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="P9" s="0" t="n">
+      <c r="P9" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="Q9" s="0" t="s">
+      <c r="Q9" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="R9" s="0" t="s">
+      <c r="R9" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="S9" s="2" t="s">
+      <c r="S9" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="T9" s="0" t="s">
+      <c r="T9" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="U9" s="0" t="s">
+      <c r="U9" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="V9" s="0" t="n">
+      <c r="V9" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="W9" s="0" t="n">
+      <c r="W9" s="1" t="n">
         <v>0.1</v>
       </c>
-      <c r="X9" s="0" t="n">
+      <c r="X9" s="1" t="n">
         <v>0.2</v>
       </c>
-      <c r="Y9" s="0" t="n">
+      <c r="Y9" s="1" t="n">
         <v>0.3</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
+      <c r="A10" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="B10" s="0" t="s">
+      <c r="B10" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C10" s="0" t="s">
+      <c r="C10" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D10" s="0" t="s">
+      <c r="D10" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="E10" s="0" t="n">
+      <c r="E10" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="F10" s="0" t="s">
+      <c r="F10" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="G10" s="0" t="s">
+      <c r="G10" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="H10" s="0" t="s">
+      <c r="H10" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="I10" s="3" t="n">
+      <c r="I10" s="4" t="n">
         <v>1.35416666666667</v>
       </c>
-      <c r="J10" s="0" t="n">
+      <c r="J10" s="1" t="n">
         <v>10011</v>
       </c>
-      <c r="K10" s="0" t="n">
+      <c r="K10" s="1" t="n">
         <v>44011</v>
       </c>
-      <c r="L10" s="0" t="s">
+      <c r="L10" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="M10" s="0" t="s">
+      <c r="M10" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="N10" s="0" t="n">
+      <c r="N10" s="1" t="n">
         <v>734</v>
       </c>
-      <c r="O10" s="0" t="s">
+      <c r="O10" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="P10" s="0" t="n">
+      <c r="P10" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="Q10" s="0" t="s">
+      <c r="Q10" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="R10" s="0" t="s">
+      <c r="R10" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="S10" s="2" t="s">
+      <c r="S10" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="T10" s="0" t="s">
+      <c r="T10" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="U10" s="0" t="s">
+      <c r="U10" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="V10" s="0" t="n">
+      <c r="V10" s="1" t="n">
         <v>0.1</v>
       </c>
-      <c r="W10" s="0" t="n">
+      <c r="W10" s="1" t="n">
         <v>0.1</v>
       </c>
-      <c r="X10" s="0" t="n">
+      <c r="X10" s="1" t="n">
         <v>0.3</v>
       </c>
-      <c r="Y10" s="0" t="n">
+      <c r="Y10" s="1" t="n">
         <v>0.4</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
+      <c r="A11" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="B11" s="0" t="s">
+      <c r="B11" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C11" s="0" t="s">
+      <c r="C11" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D11" s="0" t="s">
+      <c r="D11" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="E11" s="0" t="n">
+      <c r="E11" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="F11" s="0" t="s">
+      <c r="F11" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="G11" s="0" t="s">
+      <c r="G11" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="H11" s="0" t="s">
+      <c r="H11" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="I11" s="3" t="n">
+      <c r="I11" s="4" t="n">
         <v>2.35416666666667</v>
       </c>
-      <c r="J11" s="0" t="n">
+      <c r="J11" s="1" t="n">
         <v>10012</v>
       </c>
-      <c r="K11" s="0" t="n">
+      <c r="K11" s="1" t="n">
         <v>44011</v>
       </c>
-      <c r="L11" s="0" t="s">
+      <c r="L11" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="M11" s="0" t="s">
+      <c r="M11" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="N11" s="0" t="n">
+      <c r="N11" s="1" t="n">
         <v>62</v>
       </c>
-      <c r="O11" s="0" t="s">
+      <c r="O11" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="P11" s="0" t="n">
+      <c r="P11" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="Q11" s="0" t="s">
+      <c r="Q11" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="R11" s="0" t="s">
+      <c r="R11" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="S11" s="2" t="s">
+      <c r="S11" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="T11" s="0" t="s">
+      <c r="T11" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="U11" s="0" t="s">
+      <c r="U11" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="V11" s="0" t="n">
+      <c r="V11" s="1" t="n">
         <v>0.1</v>
       </c>
-      <c r="W11" s="0" t="n">
+      <c r="W11" s="1" t="n">
         <v>0.1</v>
       </c>
-      <c r="X11" s="0" t="n">
+      <c r="X11" s="1" t="n">
         <v>0.2</v>
       </c>
-      <c r="Y11" s="0" t="n">
+      <c r="Y11" s="1" t="n">
         <v>0.3</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
+      <c r="A12" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="B12" s="0" t="s">
+      <c r="B12" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C12" s="0" t="s">
+      <c r="C12" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D12" s="0" t="s">
+      <c r="D12" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="E12" s="0" t="n">
+      <c r="E12" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="F12" s="0" t="s">
+      <c r="F12" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="G12" s="0" t="s">
+      <c r="G12" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="H12" s="0" t="s">
+      <c r="H12" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="I12" s="3" t="n">
+      <c r="I12" s="4" t="n">
         <v>3.35416666666667</v>
       </c>
-      <c r="J12" s="0" t="n">
+      <c r="J12" s="1" t="n">
         <v>10013</v>
       </c>
-      <c r="K12" s="0" t="n">
+      <c r="K12" s="1" t="n">
         <v>44011</v>
       </c>
-      <c r="L12" s="0" t="s">
+      <c r="L12" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="M12" s="0" t="s">
+      <c r="M12" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="N12" s="0" t="n">
+      <c r="N12" s="1" t="n">
         <v>735</v>
       </c>
-      <c r="O12" s="0" t="s">
+      <c r="O12" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="P12" s="0" t="n">
+      <c r="P12" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="Q12" s="0" t="s">
+      <c r="Q12" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="R12" s="0" t="s">
+      <c r="R12" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="S12" s="2" t="s">
+      <c r="S12" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="T12" s="0" t="s">
+      <c r="T12" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="U12" s="0" t="s">
+      <c r="U12" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="V12" s="0" t="n">
+      <c r="V12" s="1" t="n">
         <v>0.1</v>
       </c>
-      <c r="W12" s="0" t="n">
+      <c r="W12" s="1" t="n">
         <v>0.1</v>
       </c>
-      <c r="X12" s="0" t="n">
+      <c r="X12" s="1" t="n">
         <v>0.2</v>
       </c>
-      <c r="Y12" s="0" t="n">
+      <c r="Y12" s="1" t="n">
         <v>0.3</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
+      <c r="A13" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="B13" s="0" t="s">
+      <c r="B13" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C13" s="0" t="s">
+      <c r="C13" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D13" s="0" t="s">
+      <c r="D13" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="E13" s="0" t="n">
+      <c r="E13" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="F13" s="0" t="s">
+      <c r="F13" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="G13" s="0" t="s">
+      <c r="G13" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="H13" s="0" t="s">
+      <c r="H13" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="I13" s="3" t="n">
+      <c r="I13" s="4" t="n">
         <v>3.35416666666667</v>
       </c>
-      <c r="J13" s="0" t="n">
+      <c r="J13" s="1" t="n">
         <v>10020</v>
       </c>
-      <c r="K13" s="0" t="n">
+      <c r="K13" s="1" t="n">
         <v>44011</v>
       </c>
-      <c r="L13" s="0" t="s">
+      <c r="L13" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="M13" s="0" t="s">
+      <c r="M13" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="N13" s="0" t="n">
+      <c r="N13" s="1" t="n">
         <v>153</v>
       </c>
-      <c r="O13" s="0" t="s">
+      <c r="O13" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="P13" s="0" t="n">
+      <c r="P13" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="Q13" s="0" t="s">
+      <c r="Q13" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="R13" s="0" t="s">
+      <c r="R13" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="S13" s="2" t="s">
+      <c r="S13" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="T13" s="0" t="s">
+      <c r="T13" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="U13" s="0" t="s">
+      <c r="U13" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="V13" s="0" t="n">
+      <c r="V13" s="1" t="n">
         <v>0.1</v>
       </c>
-      <c r="W13" s="0" t="n">
+      <c r="W13" s="1" t="n">
         <v>0.2</v>
       </c>
-      <c r="X13" s="0" t="n">
+      <c r="X13" s="1" t="n">
         <v>0.3</v>
       </c>
-      <c r="Y13" s="0" t="n">
+      <c r="Y13" s="1" t="n">
         <v>0.4</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
+      <c r="A14" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="B14" s="0" t="s">
+      <c r="B14" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C14" s="0" t="s">
+      <c r="C14" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D14" s="0" t="s">
+      <c r="D14" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="E14" s="0" t="n">
+      <c r="E14" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="F14" s="0" t="s">
+      <c r="F14" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="G14" s="0" t="s">
+      <c r="G14" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="H14" s="0" t="s">
+      <c r="H14" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="I14" s="3" t="n">
+      <c r="I14" s="4" t="n">
         <v>3.35416666666667</v>
       </c>
-      <c r="J14" s="0" t="n">
+      <c r="J14" s="1" t="n">
         <v>10022</v>
       </c>
-      <c r="K14" s="0" t="n">
+      <c r="K14" s="1" t="n">
         <v>44011</v>
       </c>
-      <c r="L14" s="0" t="s">
+      <c r="L14" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="M14" s="0" t="s">
+      <c r="M14" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="N14" s="0" t="n">
+      <c r="N14" s="1" t="n">
         <v>892</v>
       </c>
-      <c r="O14" s="0" t="s">
+      <c r="O14" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="P14" s="0" t="n">
+      <c r="P14" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="Q14" s="0" t="s">
+      <c r="Q14" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="R14" s="0" t="s">
+      <c r="R14" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="S14" s="0" t="s">
+      <c r="S14" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="T14" s="0" t="s">
+      <c r="T14" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="U14" s="0" t="s">
+      <c r="U14" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="V14" s="0" t="n">
+      <c r="V14" s="1" t="n">
         <v>0.1</v>
       </c>
-      <c r="W14" s="0" t="n">
+      <c r="W14" s="1" t="n">
         <v>0.3</v>
       </c>
-      <c r="X14" s="0" t="n">
+      <c r="X14" s="1" t="n">
         <v>0.5</v>
       </c>
-      <c r="Y14" s="0" t="n">
+      <c r="Y14" s="1" t="n">
         <v>0.8</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
+      <c r="A15" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="B15" s="0" t="s">
+      <c r="B15" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C15" s="0" t="s">
+      <c r="C15" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D15" s="0" t="s">
+      <c r="D15" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="E15" s="0" t="n">
+      <c r="E15" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="F15" s="0" t="s">
+      <c r="F15" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="G15" s="0" t="s">
+      <c r="G15" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="H15" s="0" t="s">
+      <c r="H15" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="I15" s="3" t="n">
+      <c r="I15" s="4" t="n">
         <v>3.35416666666667</v>
       </c>
-      <c r="J15" s="0" t="n">
+      <c r="J15" s="1" t="n">
         <v>10030</v>
       </c>
-      <c r="K15" s="0" t="n">
+      <c r="K15" s="1" t="n">
         <v>44011</v>
       </c>
-      <c r="L15" s="0" t="s">
+      <c r="L15" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="M15" s="0" t="s">
+      <c r="M15" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="N15" s="0" t="n">
+      <c r="N15" s="1" t="n">
         <v>69</v>
       </c>
-      <c r="O15" s="0" t="s">
+      <c r="O15" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="P15" s="0" t="n">
+      <c r="P15" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="Q15" s="0" t="s">
+      <c r="Q15" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="R15" s="0" t="s">
+      <c r="R15" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="S15" s="2" t="s">
+      <c r="S15" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="T15" s="0" t="s">
+      <c r="T15" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="U15" s="0" t="s">
+      <c r="U15" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="V15" s="0" t="n">
+      <c r="V15" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="W15" s="0" t="n">
+      <c r="W15" s="1" t="n">
         <v>0.1</v>
       </c>
-      <c r="X15" s="0" t="n">
+      <c r="X15" s="1" t="n">
         <v>0.1</v>
       </c>
-      <c r="Y15" s="0" t="n">
+      <c r="Y15" s="1" t="n">
         <v>0.2</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
+      <c r="A16" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="B16" s="0" t="s">
+      <c r="B16" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C16" s="0" t="s">
+      <c r="C16" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D16" s="0" t="s">
+      <c r="D16" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="E16" s="0" t="n">
+      <c r="E16" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="F16" s="0" t="s">
+      <c r="F16" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="G16" s="0" t="s">
+      <c r="G16" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="H16" s="0" t="s">
+      <c r="H16" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="I16" s="3" t="n">
+      <c r="I16" s="4" t="n">
         <v>3.35416666666667</v>
       </c>
-      <c r="J16" s="0" t="n">
+      <c r="J16" s="1" t="n">
         <v>10031</v>
       </c>
-      <c r="K16" s="0" t="n">
+      <c r="K16" s="1" t="n">
         <v>44011</v>
       </c>
-      <c r="L16" s="0" t="s">
+      <c r="L16" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="M16" s="0" t="s">
+      <c r="M16" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="N16" s="0" t="n">
+      <c r="N16" s="1" t="n">
         <v>733</v>
       </c>
-      <c r="O16" s="0" t="s">
+      <c r="O16" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="P16" s="0" t="n">
+      <c r="P16" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="Q16" s="0" t="s">
+      <c r="Q16" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="R16" s="0" t="s">
+      <c r="R16" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="S16" s="2" t="s">
+      <c r="S16" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="T16" s="0" t="s">
+      <c r="T16" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="U16" s="0" t="s">
+      <c r="U16" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="V16" s="0" t="n">
+      <c r="V16" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="W16" s="0" t="n">
+      <c r="W16" s="1" t="n">
         <v>0.1</v>
       </c>
-      <c r="X16" s="0" t="n">
+      <c r="X16" s="1" t="n">
         <v>0.1</v>
       </c>
-      <c r="Y16" s="0" t="n">
+      <c r="Y16" s="1" t="n">
         <v>0.2</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="s">
+      <c r="A17" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="B17" s="0" t="s">
+      <c r="B17" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C17" s="0" t="s">
+      <c r="C17" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D17" s="0" t="s">
+      <c r="D17" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="E17" s="0" t="n">
+      <c r="E17" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="F17" s="0" t="s">
+      <c r="F17" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="G17" s="0" t="s">
+      <c r="G17" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="H17" s="0" t="s">
+      <c r="H17" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="I17" s="3" t="n">
+      <c r="I17" s="4" t="n">
         <v>3.35416666666667</v>
       </c>
-      <c r="J17" s="0" t="n">
+      <c r="J17" s="1" t="n">
         <v>10032</v>
       </c>
-      <c r="K17" s="0" t="n">
+      <c r="K17" s="1" t="n">
         <v>44011</v>
       </c>
-      <c r="L17" s="0" t="s">
+      <c r="L17" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="M17" s="0" t="s">
+      <c r="M17" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="N17" s="0" t="n">
+      <c r="N17" s="1" t="n">
         <v>56</v>
       </c>
-      <c r="O17" s="0" t="s">
+      <c r="O17" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="P17" s="0" t="n">
+      <c r="P17" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="Q17" s="0" t="s">
+      <c r="Q17" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="R17" s="0" t="s">
+      <c r="R17" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="S17" s="2" t="s">
+      <c r="S17" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="T17" s="0" t="s">
+      <c r="T17" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="U17" s="0" t="s">
+      <c r="U17" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="V17" s="0" t="n">
+      <c r="V17" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="W17" s="0" t="n">
+      <c r="W17" s="1" t="n">
         <v>0.1</v>
       </c>
-      <c r="X17" s="0" t="n">
+      <c r="X17" s="1" t="n">
         <v>0.1</v>
       </c>
-      <c r="Y17" s="0" t="n">
+      <c r="Y17" s="1" t="n">
         <v>0.2</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="s">
+      <c r="A18" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="B18" s="0" t="s">
+      <c r="B18" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C18" s="0" t="s">
+      <c r="C18" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D18" s="0" t="s">
+      <c r="D18" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="E18" s="0" t="n">
+      <c r="E18" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="F18" s="0" t="s">
+      <c r="F18" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="G18" s="0" t="s">
+      <c r="G18" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="H18" s="0" t="s">
+      <c r="H18" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="I18" s="3" t="n">
+      <c r="I18" s="4" t="n">
         <v>3.35416666666667</v>
       </c>
-      <c r="J18" s="0" t="n">
+      <c r="J18" s="1" t="n">
         <v>10033</v>
       </c>
-      <c r="K18" s="0" t="n">
+      <c r="K18" s="1" t="n">
         <v>44011</v>
       </c>
-      <c r="L18" s="0" t="s">
+      <c r="L18" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="M18" s="0" t="s">
+      <c r="M18" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="N18" s="0" t="n">
+      <c r="N18" s="1" t="n">
         <v>736</v>
       </c>
-      <c r="O18" s="0" t="s">
+      <c r="O18" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="P18" s="0" t="n">
+      <c r="P18" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="Q18" s="0" t="s">
+      <c r="Q18" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="R18" s="0" t="s">
+      <c r="R18" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="S18" s="2" t="s">
+      <c r="S18" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="T18" s="0" t="s">
+      <c r="T18" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="U18" s="0" t="s">
+      <c r="U18" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="V18" s="0" t="n">
+      <c r="V18" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="W18" s="0" t="n">
+      <c r="W18" s="1" t="n">
         <v>0.1</v>
       </c>
-      <c r="X18" s="0" t="n">
+      <c r="X18" s="1" t="n">
         <v>0.1</v>
       </c>
-      <c r="Y18" s="0" t="n">
+      <c r="Y18" s="1" t="n">
         <v>0.2</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="s">
+      <c r="A19" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="B19" s="0" t="s">
+      <c r="B19" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C19" s="0" t="s">
+      <c r="C19" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D19" s="0" t="s">
+      <c r="D19" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="E19" s="0" t="n">
+      <c r="E19" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="F19" s="0" t="s">
+      <c r="F19" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="G19" s="0" t="s">
+      <c r="G19" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="H19" s="0" t="s">
+      <c r="H19" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="I19" s="3" t="n">
+      <c r="I19" s="4" t="n">
         <v>3.35416666666667</v>
       </c>
-      <c r="J19" s="0" t="n">
+      <c r="J19" s="1" t="n">
         <v>10034</v>
       </c>
-      <c r="K19" s="0" t="n">
+      <c r="K19" s="1" t="n">
         <v>44011</v>
       </c>
-      <c r="L19" s="0" t="s">
+      <c r="L19" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="M19" s="0" t="s">
+      <c r="M19" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="N19" s="0" t="n">
+      <c r="N19" s="1" t="n">
         <v>1549</v>
       </c>
-      <c r="O19" s="0" t="s">
+      <c r="O19" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="P19" s="0" t="n">
+      <c r="P19" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="Q19" s="0" t="s">
+      <c r="Q19" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="R19" s="0" t="s">
+      <c r="R19" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="S19" s="0" t="s">
+      <c r="S19" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="U19" s="0" t="s">
+      <c r="U19" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="V19" s="0" t="n">
+      <c r="V19" s="1" t="n">
         <v>0.07</v>
       </c>
-      <c r="W19" s="0" t="n">
+      <c r="W19" s="1" t="n">
         <v>0.12</v>
       </c>
-      <c r="X19" s="0" t="n">
+      <c r="X19" s="1" t="n">
         <v>0.19</v>
       </c>
-      <c r="Y19" s="0" t="n">
+      <c r="Y19" s="1" t="n">
         <v>0.4</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="s">
+      <c r="A20" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="B20" s="0" t="s">
+      <c r="B20" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C20" s="0" t="s">
+      <c r="C20" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D20" s="0" t="s">
+      <c r="D20" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="E20" s="0" t="n">
+      <c r="E20" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="F20" s="0" t="s">
+      <c r="F20" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="G20" s="0" t="s">
+      <c r="G20" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="H20" s="0" t="s">
+      <c r="H20" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="I20" s="3" t="n">
+      <c r="I20" s="4" t="n">
         <v>3.35416666666667</v>
       </c>
-      <c r="J20" s="0" t="n">
+      <c r="J20" s="1" t="n">
         <v>10037</v>
       </c>
-      <c r="K20" s="0" t="n">
+      <c r="K20" s="1" t="n">
         <v>44011</v>
       </c>
-      <c r="L20" s="0" t="s">
+      <c r="L20" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="M20" s="0" t="s">
+      <c r="M20" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="N20" s="0" t="n">
+      <c r="N20" s="1" t="n">
         <v>1226</v>
       </c>
-      <c r="O20" s="0" t="s">
+      <c r="O20" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="P20" s="0" t="n">
+      <c r="P20" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="Q20" s="0" t="s">
+      <c r="Q20" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="R20" s="0" t="s">
+      <c r="R20" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="S20" s="0" t="s">
+      <c r="S20" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="U20" s="0" t="s">
+      <c r="U20" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="V20" s="0" t="n">
+      <c r="V20" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="W20" s="0" t="n">
+      <c r="W20" s="1" t="n">
         <v>0.15</v>
       </c>
-      <c r="X20" s="0" t="n">
+      <c r="X20" s="1" t="n">
         <v>0.2</v>
       </c>
-      <c r="Y20" s="0" t="n">
+      <c r="Y20" s="1" t="n">
         <v>0.25</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="s">
+      <c r="A21" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="B21" s="0" t="s">
+      <c r="B21" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C21" s="0" t="s">
+      <c r="C21" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D21" s="0" t="s">
+      <c r="D21" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="E21" s="0" t="n">
+      <c r="E21" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="F21" s="0" t="s">
+      <c r="F21" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="G21" s="0" t="s">
+      <c r="G21" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="H21" s="0" t="s">
+      <c r="H21" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="I21" s="0" t="s">
+      <c r="I21" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="J21" s="0" t="n">
+      <c r="J21" s="1" t="n">
         <v>10040</v>
       </c>
-      <c r="K21" s="0" t="n">
+      <c r="K21" s="1" t="n">
         <v>44011</v>
       </c>
-      <c r="L21" s="0" t="s">
+      <c r="L21" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="M21" s="0" t="s">
+      <c r="M21" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="N21" s="0" t="n">
+      <c r="N21" s="1" t="n">
         <v>161</v>
       </c>
-      <c r="O21" s="0" t="s">
+      <c r="O21" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="P21" s="0" t="n">
+      <c r="P21" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="Q21" s="0" t="s">
+      <c r="Q21" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="R21" s="0" t="s">
+      <c r="R21" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="S21" s="2" t="s">
+      <c r="S21" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="T21" s="0" t="s">
+      <c r="T21" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="U21" s="0" t="s">
+      <c r="U21" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="V21" s="0" t="n">
+      <c r="V21" s="1" t="n">
         <v>0.1</v>
       </c>
-      <c r="W21" s="0" t="n">
+      <c r="W21" s="1" t="n">
         <v>0.2</v>
       </c>
-      <c r="X21" s="0" t="n">
+      <c r="X21" s="1" t="n">
         <v>0.3</v>
       </c>
-      <c r="Y21" s="0" t="n">
+      <c r="Y21" s="1" t="n">
         <v>0.6</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="s">
+      <c r="A22" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="B22" s="0" t="s">
+      <c r="B22" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C22" s="0" t="s">
+      <c r="C22" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D22" s="0" t="s">
+      <c r="D22" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="E22" s="0" t="n">
+      <c r="E22" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="F22" s="0" t="s">
+      <c r="F22" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="G22" s="0" t="s">
+      <c r="G22" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="H22" s="0" t="s">
+      <c r="H22" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="I22" s="0" t="s">
+      <c r="I22" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="J22" s="0" t="n">
+      <c r="J22" s="1" t="n">
         <v>10041</v>
       </c>
-      <c r="K22" s="0" t="n">
+      <c r="K22" s="1" t="n">
         <v>44011</v>
       </c>
-      <c r="L22" s="0" t="s">
+      <c r="L22" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="M22" s="0" t="s">
+      <c r="M22" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="N22" s="0" t="n">
+      <c r="N22" s="1" t="n">
         <v>1755</v>
       </c>
-      <c r="O22" s="0" t="s">
+      <c r="O22" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="P22" s="0" t="n">
+      <c r="P22" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="Q22" s="0" t="s">
+      <c r="Q22" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="R22" s="0" t="s">
+      <c r="R22" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="S22" s="0" t="s">
+      <c r="S22" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="T22" s="0" t="s">
+      <c r="T22" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="U22" s="0" t="s">
+      <c r="U22" s="1" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="s">
+      <c r="A23" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="B23" s="0" t="s">
+      <c r="B23" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C23" s="0" t="s">
+      <c r="C23" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D23" s="0" t="s">
+      <c r="D23" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="E23" s="0" t="n">
+      <c r="E23" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="F23" s="0" t="s">
+      <c r="F23" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="G23" s="0" t="s">
+      <c r="G23" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="H23" s="0" t="s">
+      <c r="H23" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="I23" s="0" t="s">
+      <c r="I23" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="J23" s="0" t="n">
+      <c r="J23" s="1" t="n">
         <v>10042</v>
       </c>
-      <c r="K23" s="0" t="n">
+      <c r="K23" s="1" t="n">
         <v>44011</v>
       </c>
-      <c r="L23" s="0" t="s">
+      <c r="L23" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="M23" s="0" t="s">
+      <c r="M23" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="N23" s="0" t="n">
+      <c r="N23" s="1" t="n">
         <v>31</v>
       </c>
-      <c r="O23" s="0" t="s">
+      <c r="O23" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="P23" s="0" t="n">
+      <c r="P23" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="Q23" s="0" t="s">
+      <c r="Q23" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="R23" s="0" t="s">
+      <c r="R23" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="S23" s="2" t="s">
+      <c r="S23" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="T23" s="0" t="s">
+      <c r="T23" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="U23" s="0" t="s">
+      <c r="U23" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="V23" s="0" t="n">
+      <c r="V23" s="1" t="n">
         <v>0.1</v>
       </c>
-      <c r="W23" s="0" t="n">
+      <c r="W23" s="1" t="n">
         <v>0.2</v>
       </c>
-      <c r="X23" s="0" t="n">
+      <c r="X23" s="1" t="n">
         <v>0.4</v>
       </c>
-      <c r="Y23" s="0" t="n">
+      <c r="Y23" s="1" t="n">
         <v>0.7</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="s">
+      <c r="A24" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="B24" s="0" t="s">
+      <c r="B24" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C24" s="0" t="s">
+      <c r="C24" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D24" s="0" t="s">
+      <c r="D24" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="E24" s="0" t="n">
+      <c r="E24" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="F24" s="0" t="s">
+      <c r="F24" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="G24" s="0" t="s">
+      <c r="G24" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="H24" s="0" t="s">
+      <c r="H24" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="I24" s="3" t="n">
+      <c r="I24" s="4" t="n">
         <v>1.38541666666667</v>
       </c>
-      <c r="J24" s="0" t="n">
+      <c r="J24" s="1" t="n">
         <v>10044</v>
       </c>
-      <c r="K24" s="0" t="n">
+      <c r="K24" s="1" t="n">
         <v>44011</v>
       </c>
-      <c r="L24" s="0" t="s">
+      <c r="L24" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="M24" s="0" t="s">
+      <c r="M24" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="N24" s="0" t="n">
+      <c r="N24" s="1" t="n">
         <v>1307</v>
       </c>
-      <c r="O24" s="0" t="s">
+      <c r="O24" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="P24" s="0" t="n">
+      <c r="P24" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="Q24" s="0" t="s">
+      <c r="Q24" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="R24" s="0" t="s">
+      <c r="R24" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="S24" s="2" t="s">
+      <c r="S24" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="T24" s="0" t="s">
+      <c r="T24" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="U24" s="0" t="s">
+      <c r="U24" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="V24" s="0" t="n">
+      <c r="V24" s="1" t="n">
         <v>0.1</v>
       </c>
-      <c r="W24" s="0" t="n">
+      <c r="W24" s="1" t="n">
         <v>0.3</v>
       </c>
-      <c r="X24" s="0" t="n">
+      <c r="X24" s="1" t="n">
         <v>0.4</v>
       </c>
-      <c r="Y24" s="0" t="n">
+      <c r="Y24" s="1" t="n">
         <v>0.7</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0" t="s">
+      <c r="A25" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="B25" s="0" t="s">
+      <c r="B25" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C25" s="0" t="s">
+      <c r="C25" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D25" s="0" t="s">
+      <c r="D25" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="E25" s="0" t="n">
+      <c r="E25" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="F25" s="0" t="s">
+      <c r="F25" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="G25" s="0" t="s">
+      <c r="G25" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="H25" s="0" t="s">
+      <c r="H25" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="I25" s="3" t="n">
+      <c r="I25" s="4" t="n">
         <v>1.35416666666667</v>
       </c>
-      <c r="J25" s="0" t="n">
+      <c r="J25" s="1" t="n">
         <v>10060</v>
       </c>
-      <c r="K25" s="0" t="n">
+      <c r="K25" s="1" t="n">
         <v>44011</v>
       </c>
-      <c r="L25" s="0" t="s">
+      <c r="L25" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="M25" s="0" t="s">
+      <c r="M25" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="N25" s="0" t="n">
+      <c r="N25" s="1" t="n">
         <v>375</v>
       </c>
-      <c r="O25" s="0" t="s">
+      <c r="O25" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="P25" s="0" t="n">
+      <c r="P25" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="Q25" s="0" t="s">
+      <c r="Q25" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="R25" s="0" t="s">
+      <c r="R25" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="S25" s="2" t="s">
+      <c r="S25" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="T25" s="0" t="s">
+      <c r="T25" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="U25" s="0" t="s">
+      <c r="U25" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="V25" s="0" t="n">
+      <c r="V25" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="W25" s="0" t="n">
+      <c r="W25" s="1" t="n">
         <v>0.1</v>
       </c>
-      <c r="X25" s="0" t="n">
+      <c r="X25" s="1" t="n">
         <v>0.2</v>
       </c>
-      <c r="Y25" s="0" t="n">
+      <c r="Y25" s="1" t="n">
         <v>0.3</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0" t="s">
+      <c r="A26" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="B26" s="0" t="s">
+      <c r="B26" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C26" s="0" t="s">
+      <c r="C26" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D26" s="0" t="s">
+      <c r="D26" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="E26" s="0" t="n">
+      <c r="E26" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="F26" s="0" t="s">
+      <c r="F26" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="G26" s="0" t="s">
+      <c r="G26" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="H26" s="0" t="s">
+      <c r="H26" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="I26" s="3" t="n">
+      <c r="I26" s="4" t="n">
         <v>2.35416666666667</v>
       </c>
-      <c r="J26" s="0" t="n">
+      <c r="J26" s="1" t="n">
         <v>10061</v>
       </c>
-      <c r="K26" s="0" t="n">
+      <c r="K26" s="1" t="n">
         <v>44011</v>
       </c>
-      <c r="L26" s="0" t="s">
+      <c r="L26" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="M26" s="0" t="s">
+      <c r="M26" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="N26" s="0" t="n">
+      <c r="N26" s="1" t="n">
         <v>343</v>
       </c>
-      <c r="O26" s="0" t="s">
+      <c r="O26" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="P26" s="0" t="n">
+      <c r="P26" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="Q26" s="0" t="s">
+      <c r="Q26" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="R26" s="0" t="s">
+      <c r="R26" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="S26" s="2" t="s">
+      <c r="S26" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="T26" s="0" t="s">
+      <c r="T26" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="U26" s="0" t="s">
+      <c r="U26" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="V26" s="0" t="n">
+      <c r="V26" s="1" t="n">
         <v>0.1</v>
       </c>
-      <c r="W26" s="0" t="n">
+      <c r="W26" s="1" t="n">
         <v>0.1</v>
       </c>
-      <c r="X26" s="0" t="n">
+      <c r="X26" s="1" t="n">
         <v>0.2</v>
       </c>
-      <c r="Y26" s="0" t="n">
+      <c r="Y26" s="1" t="n">
         <v>0.4</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0" t="s">
+      <c r="A27" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="B27" s="0" t="s">
+      <c r="B27" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C27" s="0" t="s">
+      <c r="C27" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D27" s="0" t="s">
+      <c r="D27" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="E27" s="0" t="n">
+      <c r="E27" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="F27" s="0" t="s">
+      <c r="F27" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="G27" s="0" t="s">
+      <c r="G27" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="H27" s="0" t="s">
+      <c r="H27" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="I27" s="3" t="n">
+      <c r="I27" s="4" t="n">
         <v>3.35416666666667</v>
       </c>
-      <c r="J27" s="0" t="n">
+      <c r="J27" s="1" t="n">
         <v>10070</v>
       </c>
-      <c r="K27" s="0" t="n">
+      <c r="K27" s="1" t="n">
         <v>44011</v>
       </c>
-      <c r="L27" s="0" t="s">
+      <c r="L27" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="M27" s="0" t="s">
+      <c r="M27" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="N27" s="0" t="n">
+      <c r="N27" s="1" t="n">
         <v>235</v>
       </c>
-      <c r="O27" s="0" t="s">
+      <c r="O27" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="P27" s="0" t="n">
+      <c r="P27" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="Q27" s="0" t="s">
+      <c r="Q27" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="R27" s="0" t="s">
+      <c r="R27" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="S27" s="2" t="s">
+      <c r="S27" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="T27" s="0" t="s">
+      <c r="T27" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="U27" s="0" t="s">
+      <c r="U27" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="V27" s="0" t="n">
+      <c r="V27" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="W27" s="0" t="n">
+      <c r="W27" s="1" t="n">
         <v>0.1</v>
       </c>
-      <c r="X27" s="0" t="n">
+      <c r="X27" s="1" t="n">
         <v>0.2</v>
       </c>
-      <c r="Y27" s="0" t="n">
+      <c r="Y27" s="1" t="n">
         <v>0.3</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0" t="s">
+      <c r="A28" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="B28" s="0" t="s">
+      <c r="B28" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C28" s="0" t="s">
+      <c r="C28" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D28" s="0" t="s">
+      <c r="D28" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="E28" s="0" t="n">
+      <c r="E28" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="F28" s="0" t="s">
+      <c r="F28" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="G28" s="0" t="s">
+      <c r="G28" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="H28" s="0" t="s">
+      <c r="H28" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="I28" s="3" t="n">
+      <c r="I28" s="4" t="n">
         <v>4.35416666666667</v>
       </c>
-      <c r="J28" s="0" t="n">
+      <c r="J28" s="1" t="n">
         <v>10071</v>
       </c>
-      <c r="K28" s="0" t="n">
+      <c r="K28" s="1" t="n">
         <v>44011</v>
       </c>
-      <c r="L28" s="0" t="s">
+      <c r="L28" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="M28" s="0" t="s">
+      <c r="M28" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="N28" s="0" t="n">
+      <c r="N28" s="1" t="n">
         <v>61</v>
       </c>
-      <c r="O28" s="0" t="s">
+      <c r="O28" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="P28" s="0" t="n">
+      <c r="P28" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="Q28" s="0" t="s">
+      <c r="Q28" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="R28" s="0" t="s">
+      <c r="R28" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="S28" s="2" t="s">
+      <c r="S28" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="T28" s="0" t="s">
+      <c r="T28" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="U28" s="0" t="s">
+      <c r="U28" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="V28" s="0" t="n">
+      <c r="V28" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="W28" s="0" t="n">
+      <c r="W28" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="X28" s="0" t="n">
+      <c r="X28" s="1" t="n">
         <v>0.1</v>
       </c>
-      <c r="Y28" s="0" t="n">
+      <c r="Y28" s="1" t="n">
         <v>0.1</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="0" t="s">
+      <c r="A29" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="B29" s="0" t="s">
+      <c r="B29" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C29" s="0" t="s">
+      <c r="C29" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D29" s="0" t="s">
+      <c r="D29" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="E29" s="0" t="n">
+      <c r="E29" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="F29" s="0" t="s">
+      <c r="F29" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="G29" s="0" t="s">
+      <c r="G29" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="H29" s="0" t="s">
+      <c r="H29" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="I29" s="3" t="n">
+      <c r="I29" s="4" t="n">
         <v>5.35416666666667</v>
       </c>
-      <c r="J29" s="0" t="n">
+      <c r="J29" s="1" t="n">
         <v>10072</v>
       </c>
-      <c r="K29" s="0" t="n">
+      <c r="K29" s="1" t="n">
         <v>44011</v>
       </c>
-      <c r="L29" s="0" t="s">
+      <c r="L29" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="M29" s="0" t="s">
+      <c r="M29" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="N29" s="0" t="n">
+      <c r="N29" s="1" t="n">
         <v>905</v>
       </c>
-      <c r="O29" s="0" t="s">
+      <c r="O29" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="P29" s="0" t="n">
+      <c r="P29" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="Q29" s="0" t="s">
+      <c r="Q29" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="R29" s="0" t="s">
+      <c r="R29" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="S29" s="0" t="s">
+      <c r="S29" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="T29" s="0" t="s">
+      <c r="T29" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="U29" s="0" t="s">
+      <c r="U29" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="V29" s="0" t="n">
+      <c r="V29" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="W29" s="0" t="n">
+      <c r="W29" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="X29" s="0" t="n">
+      <c r="X29" s="1" t="n">
         <v>0.1</v>
       </c>
-      <c r="Y29" s="0" t="n">
+      <c r="Y29" s="1" t="n">
         <v>0.1</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="0" t="s">
+      <c r="A30" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="B30" s="0" t="s">
+      <c r="B30" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C30" s="0" t="s">
+      <c r="C30" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D30" s="0" t="s">
+      <c r="D30" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="E30" s="0" t="n">
+      <c r="E30" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="F30" s="0" t="s">
+      <c r="F30" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="G30" s="0" t="s">
+      <c r="G30" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="H30" s="0" t="s">
+      <c r="H30" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="I30" s="3" t="n">
+      <c r="I30" s="4" t="n">
         <v>6.35416666666667</v>
       </c>
-      <c r="J30" s="0" t="n">
+      <c r="J30" s="1" t="n">
         <v>10073</v>
       </c>
-      <c r="K30" s="0" t="n">
+      <c r="K30" s="1" t="n">
         <v>44011</v>
       </c>
-      <c r="L30" s="0" t="s">
+      <c r="L30" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="M30" s="0" t="s">
+      <c r="M30" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="N30" s="0" t="n">
+      <c r="N30" s="1" t="n">
         <v>904</v>
       </c>
-      <c r="O30" s="0" t="s">
+      <c r="O30" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="P30" s="0" t="n">
+      <c r="P30" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="Q30" s="0" t="s">
+      <c r="Q30" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="R30" s="0" t="s">
+      <c r="R30" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="S30" s="0" t="s">
+      <c r="S30" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="T30" s="0" t="s">
+      <c r="T30" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="U30" s="0" t="s">
+      <c r="U30" s="1" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="0" t="s">
+      <c r="A31" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="B31" s="0" t="s">
+      <c r="B31" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C31" s="0" t="s">
+      <c r="C31" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D31" s="0" t="s">
+      <c r="D31" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="E31" s="0" t="n">
+      <c r="E31" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="F31" s="0" t="s">
+      <c r="F31" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="G31" s="0" t="s">
+      <c r="G31" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="H31" s="0" t="s">
+      <c r="H31" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="I31" s="3" t="n">
+      <c r="I31" s="4" t="n">
         <v>7.35416666666667</v>
       </c>
-      <c r="J31" s="0" t="n">
+      <c r="J31" s="1" t="n">
         <v>10074</v>
       </c>
-      <c r="K31" s="0" t="n">
+      <c r="K31" s="1" t="n">
         <v>44011</v>
       </c>
-      <c r="L31" s="0" t="s">
+      <c r="L31" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="M31" s="0" t="s">
+      <c r="M31" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="N31" s="0" t="n">
+      <c r="N31" s="1" t="n">
         <v>906</v>
       </c>
-      <c r="O31" s="0" t="s">
+      <c r="O31" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="P31" s="0" t="n">
+      <c r="P31" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="Q31" s="0" t="s">
+      <c r="Q31" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="R31" s="0" t="s">
+      <c r="R31" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="S31" s="0" t="s">
+      <c r="S31" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="T31" s="0" t="s">
+      <c r="T31" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="U31" s="0" t="s">
+      <c r="U31" s="1" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="0" t="s">
+      <c r="A32" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="B32" s="0" t="s">
+      <c r="B32" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C32" s="0" t="s">
+      <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="0" t="s">
+      <c r="D32" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="E32" s="0" t="n">
+      <c r="E32" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="F32" s="0" t="s">
+      <c r="F32" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="G32" s="0" t="s">
+      <c r="G32" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="H32" s="0" t="s">
+      <c r="H32" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="I32" s="3" t="n">
+      <c r="I32" s="4" t="n">
         <v>8.35416666666667</v>
       </c>
-      <c r="J32" s="0" t="n">
+      <c r="J32" s="1" t="n">
         <v>10075</v>
       </c>
-      <c r="K32" s="0" t="n">
+      <c r="K32" s="1" t="n">
         <v>44011</v>
       </c>
-      <c r="L32" s="0" t="s">
+      <c r="L32" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="M32" s="0" t="s">
+      <c r="M32" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="N32" s="0" t="n">
+      <c r="N32" s="1" t="n">
         <v>234</v>
       </c>
-      <c r="O32" s="0" t="s">
+      <c r="O32" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="P32" s="0" t="n">
+      <c r="P32" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="Q32" s="0" t="s">
+      <c r="Q32" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="R32" s="0" t="s">
+      <c r="R32" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="S32" s="2" t="s">
+      <c r="S32" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="T32" s="0" t="s">
+      <c r="T32" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="U32" s="0" t="s">
+      <c r="U32" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="V32" s="0" t="n">
+      <c r="V32" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="W32" s="0" t="n">
+      <c r="W32" s="1" t="n">
         <v>0.1</v>
       </c>
-      <c r="X32" s="0" t="n">
+      <c r="X32" s="1" t="n">
         <v>0.2</v>
       </c>
-      <c r="Y32" s="0" t="n">
+      <c r="Y32" s="1" t="n">
         <v>0.5</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="0" t="s">
+      <c r="A33" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="B33" s="0" t="s">
+      <c r="B33" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C33" s="0" t="s">
+      <c r="C33" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D33" s="0" t="s">
+      <c r="D33" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="E33" s="0" t="n">
+      <c r="E33" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="F33" s="0" t="s">
+      <c r="F33" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="G33" s="0" t="s">
+      <c r="G33" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="H33" s="0" t="s">
+      <c r="H33" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="I33" s="3" t="n">
+      <c r="I33" s="4" t="n">
         <v>8.35416666666667</v>
       </c>
-      <c r="J33" s="0" t="n">
+      <c r="J33" s="1" t="n">
         <v>10076</v>
       </c>
-      <c r="K33" s="0" t="n">
+      <c r="K33" s="1" t="n">
         <v>44011</v>
       </c>
-      <c r="L33" s="0" t="s">
+      <c r="L33" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="M33" s="0" t="s">
+      <c r="M33" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="N33" s="0" t="n">
+      <c r="N33" s="1" t="n">
         <v>895</v>
       </c>
-      <c r="O33" s="0" t="s">
+      <c r="O33" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="P33" s="0" t="n">
+      <c r="P33" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="Q33" s="0" t="s">
+      <c r="Q33" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="R33" s="0" t="s">
+      <c r="R33" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="S33" s="0" t="s">
+      <c r="S33" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="T33" s="0" t="s">
+      <c r="T33" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="U33" s="0" t="s">
+      <c r="U33" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="V33" s="0" t="n">
+      <c r="V33" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="W33" s="0" t="n">
+      <c r="W33" s="1" t="n">
         <v>0.1</v>
       </c>
-      <c r="X33" s="0" t="n">
+      <c r="X33" s="1" t="n">
         <v>0.1</v>
       </c>
-      <c r="Y33" s="0" t="n">
+      <c r="Y33" s="1" t="n">
         <v>0.2</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="0" t="s">
+      <c r="A34" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="B34" s="0" t="s">
+      <c r="B34" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C34" s="0" t="s">
+      <c r="C34" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D34" s="0" t="s">
+      <c r="D34" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="E34" s="0" t="n">
+      <c r="E34" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="F34" s="0" t="s">
+      <c r="F34" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="G34" s="0" t="s">
+      <c r="G34" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="H34" s="0" t="s">
+      <c r="H34" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="I34" s="0" t="s">
+      <c r="I34" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="J34" s="0" t="n">
+      <c r="J34" s="1" t="n">
         <v>10080</v>
       </c>
-      <c r="K34" s="0" t="n">
+      <c r="K34" s="1" t="n">
         <v>44011</v>
       </c>
-      <c r="L34" s="0" t="s">
+      <c r="L34" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="M34" s="0" t="s">
+      <c r="M34" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="N34" s="0" t="n">
+      <c r="N34" s="1" t="n">
         <v>1057</v>
       </c>
-      <c r="O34" s="0" t="s">
+      <c r="O34" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="P34" s="0" t="n">
+      <c r="P34" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="Q34" s="0" t="s">
+      <c r="Q34" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="R34" s="0" t="s">
+      <c r="R34" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="S34" s="2" t="s">
+      <c r="S34" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="T34" s="0" t="s">
+      <c r="T34" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="U34" s="0" t="s">
+      <c r="U34" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="V34" s="0" t="n">
+      <c r="V34" s="1" t="n">
         <v>0.078</v>
       </c>
-      <c r="W34" s="0" t="n">
+      <c r="W34" s="1" t="n">
         <v>0.176</v>
       </c>
-      <c r="X34" s="0" t="n">
+      <c r="X34" s="1" t="n">
         <v>0.338</v>
       </c>
-      <c r="Y34" s="0" t="n">
+      <c r="Y34" s="1" t="n">
         <v>0.547</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="0" t="s">
+      <c r="A35" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="B35" s="0" t="s">
+      <c r="B35" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C35" s="0" t="s">
+      <c r="C35" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D35" s="0" t="s">
+      <c r="D35" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="E35" s="0" t="n">
+      <c r="E35" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="F35" s="0" t="s">
+      <c r="F35" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="G35" s="0" t="s">
+      <c r="G35" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="H35" s="0" t="s">
+      <c r="H35" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="I35" s="0" t="s">
+      <c r="I35" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="J35" s="0" t="n">
+      <c r="J35" s="1" t="n">
         <v>10090</v>
       </c>
-      <c r="K35" s="0" t="n">
+      <c r="K35" s="1" t="n">
         <v>44011</v>
       </c>
-      <c r="L35" s="0" t="s">
+      <c r="L35" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="M35" s="0" t="s">
+      <c r="M35" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="N35" s="0" t="n">
+      <c r="N35" s="1" t="n">
         <v>320</v>
       </c>
-      <c r="O35" s="0" t="s">
+      <c r="O35" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="P35" s="0" t="n">
+      <c r="P35" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="Q35" s="0" t="s">
+      <c r="Q35" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="R35" s="0" t="s">
+      <c r="R35" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="S35" s="2" t="s">
+      <c r="S35" s="3" t="s">
         <v>216</v>
       </c>
-      <c r="U35" s="0" t="s">
+      <c r="U35" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="V35" s="0" t="n">
+      <c r="V35" s="1" t="n">
         <v>0.4</v>
       </c>
-      <c r="W35" s="0" t="n">
+      <c r="W35" s="1" t="n">
         <v>0.7</v>
       </c>
-      <c r="X35" s="0" t="n">
+      <c r="X35" s="1" t="n">
         <v>1.4</v>
       </c>
-      <c r="Y35" s="0" t="n">
+      <c r="Y35" s="1" t="n">
         <v>3.3</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="0" t="s">
+      <c r="A36" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="B36" s="0" t="s">
+      <c r="B36" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C36" s="0" t="s">
+      <c r="C36" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D36" s="0" t="s">
+      <c r="D36" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="E36" s="0" t="n">
+      <c r="E36" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="F36" s="0" t="s">
+      <c r="F36" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="G36" s="0" t="s">
+      <c r="G36" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="H36" s="0" t="s">
+      <c r="H36" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="I36" s="0" t="s">
+      <c r="I36" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="J36" s="0" t="n">
+      <c r="J36" s="1" t="n">
         <v>10091</v>
       </c>
-      <c r="K36" s="0" t="n">
+      <c r="K36" s="1" t="n">
         <v>44011</v>
       </c>
-      <c r="L36" s="0" t="s">
+      <c r="L36" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="M36" s="0" t="s">
+      <c r="M36" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="N36" s="0" t="n">
+      <c r="N36" s="1" t="n">
         <v>389</v>
       </c>
-      <c r="O36" s="0" t="s">
+      <c r="O36" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="P36" s="0" t="n">
+      <c r="P36" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="Q36" s="0" t="s">
+      <c r="Q36" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="R36" s="0" t="s">
+      <c r="R36" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="S36" s="2" t="s">
+      <c r="S36" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="T36" s="0" t="s">
+      <c r="T36" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="U36" s="0" t="s">
+      <c r="U36" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="V36" s="0" t="n">
+      <c r="V36" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="W36" s="0" t="n">
+      <c r="W36" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="X36" s="0" t="n">
+      <c r="X36" s="1" t="n">
         <v>0.1</v>
       </c>
-      <c r="Y36" s="0" t="n">
+      <c r="Y36" s="1" t="n">
         <v>0.2</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="0" t="s">
+      <c r="A37" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="B37" s="0" t="s">
+      <c r="B37" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C37" s="0" t="s">
+      <c r="C37" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D37" s="0" t="s">
+      <c r="D37" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="E37" s="0" t="n">
+      <c r="E37" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="F37" s="0" t="s">
+      <c r="F37" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="G37" s="0" t="s">
+      <c r="G37" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="H37" s="0" t="s">
+      <c r="H37" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="I37" s="0" t="s">
+      <c r="I37" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="J37" s="0" t="n">
+      <c r="J37" s="1" t="n">
         <v>10092</v>
       </c>
-      <c r="K37" s="0" t="n">
+      <c r="K37" s="1" t="n">
         <v>44011</v>
       </c>
-      <c r="L37" s="0" t="s">
+      <c r="L37" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="M37" s="0" t="s">
+      <c r="M37" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="N37" s="0" t="n">
+      <c r="N37" s="1" t="n">
         <v>901</v>
       </c>
-      <c r="O37" s="0" t="s">
+      <c r="O37" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="P37" s="0" t="n">
+      <c r="P37" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="Q37" s="0" t="s">
+      <c r="Q37" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="R37" s="0" t="s">
+      <c r="R37" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="S37" s="0" t="s">
+      <c r="S37" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="U37" s="0" t="s">
+      <c r="U37" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="V37" s="0" t="n">
+      <c r="V37" s="1" t="n">
         <v>0.4</v>
       </c>
-      <c r="W37" s="0" t="n">
+      <c r="W37" s="1" t="n">
         <v>1.2</v>
       </c>
-      <c r="X37" s="0" t="n">
+      <c r="X37" s="1" t="n">
         <v>2.1</v>
       </c>
-      <c r="Y37" s="0" t="n">
+      <c r="Y37" s="1" t="n">
         <v>3.6</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="0" t="s">
+      <c r="A38" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="B38" s="0" t="s">
+      <c r="B38" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C38" s="0" t="s">
+      <c r="C38" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D38" s="0" t="s">
+      <c r="D38" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="E38" s="0" t="n">
+      <c r="E38" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="F38" s="0" t="s">
+      <c r="F38" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="G38" s="0" t="s">
+      <c r="G38" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="H38" s="0" t="s">
+      <c r="H38" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="I38" s="3" t="n">
+      <c r="I38" s="4" t="n">
         <v>5.35416666666667</v>
       </c>
-      <c r="J38" s="0" t="n">
+      <c r="J38" s="1" t="n">
         <v>10100</v>
       </c>
-      <c r="K38" s="0" t="n">
+      <c r="K38" s="1" t="n">
         <v>44011</v>
       </c>
-      <c r="L38" s="0" t="s">
+      <c r="L38" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="M38" s="0" t="s">
+      <c r="M38" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="N38" s="0" t="n">
+      <c r="N38" s="1" t="n">
         <v>286</v>
       </c>
-      <c r="O38" s="0" t="s">
+      <c r="O38" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="P38" s="0" t="n">
+      <c r="P38" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="Q38" s="0" t="s">
+      <c r="Q38" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="R38" s="0" t="s">
+      <c r="R38" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="S38" s="2" t="s">
+      <c r="S38" s="3" t="s">
         <v>231</v>
       </c>
-      <c r="T38" s="0" t="s">
+      <c r="T38" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="U38" s="0" t="s">
+      <c r="U38" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="V38" s="0" t="n">
+      <c r="V38" s="1" t="n">
         <v>0.3</v>
       </c>
-      <c r="W38" s="0" t="n">
+      <c r="W38" s="1" t="n">
         <v>0.6</v>
       </c>
-      <c r="X38" s="0" t="n">
+      <c r="X38" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="Y38" s="0" t="n">
+      <c r="Y38" s="1" t="n">
         <v>2.4</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="0" t="s">
+      <c r="A39" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="B39" s="0" t="s">
+      <c r="B39" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C39" s="0" t="s">
+      <c r="C39" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D39" s="0" t="s">
+      <c r="D39" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="E39" s="0" t="n">
+      <c r="E39" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="F39" s="0" t="s">
+      <c r="F39" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="G39" s="0" t="s">
+      <c r="G39" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="H39" s="0" t="s">
+      <c r="H39" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="I39" s="0" t="s">
+      <c r="I39" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="J39" s="0" t="n">
+      <c r="J39" s="1" t="n">
         <v>10110</v>
       </c>
-      <c r="K39" s="0" t="n">
+      <c r="K39" s="1" t="n">
         <v>44011</v>
       </c>
-      <c r="L39" s="0" t="s">
+      <c r="L39" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="M39" s="0" t="s">
+      <c r="M39" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="N39" s="0" t="n">
+      <c r="N39" s="1" t="n">
         <v>100</v>
       </c>
-      <c r="O39" s="0" t="s">
+      <c r="O39" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="P39" s="0" t="n">
+      <c r="P39" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="Q39" s="0" t="s">
+      <c r="Q39" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="R39" s="0" t="s">
+      <c r="R39" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="S39" s="2" t="s">
+      <c r="S39" s="3" t="s">
         <v>238</v>
       </c>
-      <c r="T39" s="0" t="s">
+      <c r="T39" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="U39" s="0" t="s">
+      <c r="U39" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="V39" s="0" t="n">
+      <c r="V39" s="1" t="n">
         <v>0.1</v>
       </c>
-      <c r="W39" s="0" t="n">
+      <c r="W39" s="1" t="n">
         <v>0.2</v>
       </c>
-      <c r="X39" s="0" t="n">
+      <c r="X39" s="1" t="n">
         <v>0.3</v>
       </c>
-      <c r="Y39" s="0" t="n">
+      <c r="Y39" s="1" t="n">
         <v>0.6</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="0" t="s">
+      <c r="A40" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="B40" s="0" t="s">
+      <c r="B40" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C40" s="0" t="s">
+      <c r="C40" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D40" s="0" t="s">
+      <c r="D40" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="E40" s="0" t="n">
+      <c r="E40" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="F40" s="0" t="s">
+      <c r="F40" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="G40" s="0" t="s">
+      <c r="G40" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="H40" s="0" t="s">
+      <c r="H40" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="I40" s="3" t="n">
+      <c r="I40" s="4" t="n">
         <v>1.41666666666667</v>
       </c>
-      <c r="J40" s="0" t="n">
+      <c r="J40" s="1" t="n">
         <v>10120</v>
       </c>
-      <c r="K40" s="0" t="n">
+      <c r="K40" s="1" t="n">
         <v>44011</v>
       </c>
-      <c r="L40" s="0" t="s">
+      <c r="L40" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="M40" s="0" t="s">
+      <c r="M40" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="N40" s="0" t="n">
+      <c r="N40" s="1" t="n">
         <v>305</v>
       </c>
-      <c r="O40" s="0" t="s">
+      <c r="O40" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="P40" s="0" t="n">
+      <c r="P40" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="Q40" s="0" t="s">
+      <c r="Q40" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="R40" s="0" t="s">
+      <c r="R40" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="S40" s="2" t="s">
+      <c r="S40" s="3" t="s">
         <v>243</v>
       </c>
-      <c r="T40" s="0" t="s">
+      <c r="T40" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="U40" s="0" t="s">
+      <c r="U40" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="V40" s="0" t="n">
+      <c r="V40" s="1" t="n">
         <v>0.1</v>
       </c>
-      <c r="W40" s="0" t="n">
+      <c r="W40" s="1" t="n">
         <v>0.2</v>
       </c>
-      <c r="X40" s="0" t="n">
+      <c r="X40" s="1" t="n">
         <v>0.2</v>
       </c>
-      <c r="Y40" s="0" t="n">
+      <c r="Y40" s="1" t="n">
         <v>0.5</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="0" t="s">
+      <c r="A41" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="B41" s="0" t="s">
+      <c r="B41" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C41" s="0" t="s">
+      <c r="C41" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D41" s="0" t="s">
+      <c r="D41" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="E41" s="0" t="n">
+      <c r="E41" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="F41" s="0" t="s">
+      <c r="F41" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="G41" s="0" t="s">
+      <c r="G41" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="H41" s="0" t="s">
+      <c r="H41" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="I41" s="0" t="s">
+      <c r="I41" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="J41" s="0" t="n">
+      <c r="J41" s="1" t="n">
         <v>10130</v>
       </c>
-      <c r="K41" s="0" t="n">
+      <c r="K41" s="1" t="n">
         <v>44011</v>
       </c>
-      <c r="L41" s="0" t="s">
+      <c r="L41" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="M41" s="0" t="s">
+      <c r="M41" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="N41" s="0" t="n">
+      <c r="N41" s="1" t="n">
         <v>256</v>
       </c>
-      <c r="O41" s="0" t="s">
+      <c r="O41" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="P41" s="0" t="n">
+      <c r="P41" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="Q41" s="0" t="s">
+      <c r="Q41" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="R41" s="0" t="s">
+      <c r="R41" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="S41" s="2" t="s">
+      <c r="S41" s="3" t="s">
         <v>249</v>
       </c>
-      <c r="T41" s="0" t="s">
+      <c r="T41" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="U41" s="0" t="s">
+      <c r="U41" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="V41" s="0" t="n">
+      <c r="V41" s="1" t="n">
         <v>0.1</v>
       </c>
-      <c r="W41" s="0" t="n">
+      <c r="W41" s="1" t="n">
         <v>0.3</v>
       </c>
-      <c r="X41" s="0" t="n">
+      <c r="X41" s="1" t="n">
         <v>0.5</v>
       </c>
-      <c r="Y41" s="0" t="n">
+      <c r="Y41" s="1" t="n">
         <v>0.9</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="0" t="s">
+      <c r="A42" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="B42" s="0" t="s">
+      <c r="B42" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C42" s="0" t="s">
+      <c r="C42" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D42" s="0" t="s">
+      <c r="D42" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="E42" s="0" t="n">
+      <c r="E42" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="F42" s="0" t="s">
+      <c r="F42" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="G42" s="0" t="s">
+      <c r="G42" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="H42" s="0" t="s">
+      <c r="H42" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="I42" s="0" t="s">
+      <c r="I42" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="J42" s="0" t="n">
+      <c r="J42" s="1" t="n">
         <v>10132</v>
       </c>
-      <c r="K42" s="0" t="n">
+      <c r="K42" s="1" t="n">
         <v>44011</v>
       </c>
-      <c r="L42" s="0" t="s">
+      <c r="L42" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="M42" s="0" t="s">
+      <c r="M42" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="N42" s="0" t="n">
+      <c r="N42" s="1" t="n">
         <v>63</v>
       </c>
-      <c r="O42" s="0" t="s">
+      <c r="O42" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="P42" s="0" t="n">
+      <c r="P42" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="Q42" s="0" t="s">
+      <c r="Q42" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="R42" s="0" t="s">
+      <c r="R42" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="S42" s="2" t="s">
+      <c r="S42" s="3" t="s">
         <v>253</v>
       </c>
-      <c r="T42" s="0" t="s">
+      <c r="T42" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="U42" s="0" t="s">
+      <c r="U42" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="V42" s="0" t="n">
+      <c r="V42" s="1" t="n">
         <v>0.2</v>
       </c>
-      <c r="W42" s="0" t="n">
+      <c r="W42" s="1" t="n">
         <v>0.3</v>
       </c>
-      <c r="X42" s="0" t="n">
+      <c r="X42" s="1" t="n">
         <v>0.5</v>
       </c>
-      <c r="Y42" s="0" t="n">
+      <c r="Y42" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="0" t="s">
+      <c r="A43" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="B43" s="0" t="s">
+      <c r="B43" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C43" s="0" t="s">
+      <c r="C43" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D43" s="0" t="s">
+      <c r="D43" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="E43" s="0" t="n">
+      <c r="E43" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="F43" s="0" t="s">
+      <c r="F43" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="G43" s="0" t="s">
+      <c r="G43" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="H43" s="0" t="s">
+      <c r="H43" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="I43" s="0" t="s">
+      <c r="I43" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="J43" s="0" t="n">
+      <c r="J43" s="1" t="n">
         <v>10140</v>
       </c>
-      <c r="K43" s="0" t="n">
+      <c r="K43" s="1" t="n">
         <v>44011</v>
       </c>
-      <c r="L43" s="0" t="s">
+      <c r="L43" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="M43" s="0" t="s">
+      <c r="M43" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="N43" s="0" t="n">
+      <c r="N43" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="O43" s="0" t="s">
+      <c r="O43" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="P43" s="0" t="n">
+      <c r="P43" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="Q43" s="0" t="s">
+      <c r="Q43" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="R43" s="0" t="s">
+      <c r="R43" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="S43" s="2" t="s">
+      <c r="S43" s="3" t="s">
         <v>258</v>
       </c>
-      <c r="T43" s="0" t="s">
+      <c r="T43" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="U43" s="0" t="s">
+      <c r="U43" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="V43" s="0" t="n">
+      <c r="V43" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="W43" s="0" t="n">
+      <c r="W43" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="X43" s="0" t="n">
+      <c r="X43" s="1" t="n">
         <v>0.1</v>
       </c>
-      <c r="Y43" s="0" t="n">
+      <c r="Y43" s="1" t="n">
         <v>0.1</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="0" t="s">
+      <c r="A44" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="B44" s="0" t="s">
+      <c r="B44" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C44" s="0" t="s">
+      <c r="C44" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D44" s="0" t="s">
+      <c r="D44" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="E44" s="0" t="n">
+      <c r="E44" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="F44" s="0" t="s">
+      <c r="F44" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="G44" s="0" t="s">
+      <c r="G44" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="H44" s="0" t="s">
+      <c r="H44" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="I44" s="0" t="s">
+      <c r="I44" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="J44" s="0" t="n">
+      <c r="J44" s="1" t="n">
         <v>10150</v>
       </c>
-      <c r="K44" s="0" t="n">
+      <c r="K44" s="1" t="n">
         <v>44011</v>
       </c>
-      <c r="L44" s="0" t="s">
+      <c r="L44" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="M44" s="0" t="s">
+      <c r="M44" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="N44" s="0" t="n">
+      <c r="N44" s="1" t="n">
         <v>898</v>
       </c>
-      <c r="O44" s="0" t="s">
+      <c r="O44" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="P44" s="0" t="n">
+      <c r="P44" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="Q44" s="0" t="s">
+      <c r="Q44" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="R44" s="0" t="s">
+      <c r="R44" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="S44" s="0" t="s">
+      <c r="S44" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="T44" s="0" t="s">
+      <c r="T44" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="U44" s="0" t="s">
+      <c r="U44" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="V44" s="0" t="n">
+      <c r="V44" s="1" t="n">
         <v>1.6</v>
       </c>
-      <c r="W44" s="0" t="n">
+      <c r="W44" s="1" t="n">
         <v>3.4</v>
       </c>
-      <c r="X44" s="0" t="n">
+      <c r="X44" s="1" t="n">
         <v>6.3</v>
       </c>
-      <c r="Y44" s="0" t="n">
+      <c r="Y44" s="1" t="n">
         <v>8.7</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="0" t="s">
+      <c r="A45" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="B45" s="0" t="s">
+      <c r="B45" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C45" s="0" t="s">
+      <c r="C45" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D45" s="0" t="s">
+      <c r="D45" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="E45" s="0" t="n">
+      <c r="E45" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="F45" s="0" t="s">
+      <c r="F45" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="G45" s="0" t="s">
+      <c r="G45" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="H45" s="0" t="s">
+      <c r="H45" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="I45" s="0" t="s">
+      <c r="I45" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="J45" s="0" t="n">
+      <c r="J45" s="1" t="n">
         <v>10152</v>
       </c>
-      <c r="K45" s="0" t="n">
+      <c r="K45" s="1" t="n">
         <v>44011</v>
       </c>
-      <c r="L45" s="0" t="s">
+      <c r="L45" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="M45" s="0" t="s">
+      <c r="M45" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="N45" s="0" t="n">
+      <c r="N45" s="1" t="n">
         <v>151</v>
       </c>
-      <c r="O45" s="0" t="s">
+      <c r="O45" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="P45" s="0" t="n">
+      <c r="P45" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="Q45" s="0" t="s">
+      <c r="Q45" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="R45" s="0" t="s">
+      <c r="R45" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="S45" s="2" t="s">
+      <c r="S45" s="3" t="s">
         <v>268</v>
       </c>
-      <c r="T45" s="0" t="s">
+      <c r="T45" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="U45" s="0" t="s">
+      <c r="U45" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="V45" s="0" t="n">
+      <c r="V45" s="1" t="n">
         <v>0.027</v>
       </c>
-      <c r="W45" s="0" t="n">
+      <c r="W45" s="1" t="n">
         <v>0.049</v>
       </c>
-      <c r="X45" s="0" t="n">
+      <c r="X45" s="1" t="n">
         <v>0.066</v>
       </c>
-      <c r="Y45" s="0" t="n">
+      <c r="Y45" s="1" t="n">
         <v>0.111</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="0" t="s">
+      <c r="A46" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="B46" s="0" t="s">
+      <c r="B46" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C46" s="0" t="s">
+      <c r="C46" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D46" s="0" t="s">
+      <c r="D46" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="E46" s="0" t="n">
+      <c r="E46" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="F46" s="0" t="s">
+      <c r="F46" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="G46" s="0" t="s">
+      <c r="G46" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="H46" s="0" t="s">
+      <c r="H46" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="I46" s="0" t="s">
+      <c r="I46" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="J46" s="0" t="n">
+      <c r="J46" s="1" t="n">
         <v>10154</v>
       </c>
-      <c r="K46" s="0" t="n">
+      <c r="K46" s="1" t="n">
         <v>44011</v>
       </c>
-      <c r="L46" s="0" t="s">
+      <c r="L46" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="M46" s="0" t="s">
+      <c r="M46" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="N46" s="0" t="n">
+      <c r="N46" s="1" t="n">
         <v>885</v>
       </c>
-      <c r="O46" s="0" t="s">
+      <c r="O46" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="P46" s="0" t="n">
+      <c r="P46" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="Q46" s="0" t="s">
+      <c r="Q46" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="R46" s="0" t="s">
+      <c r="R46" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="S46" s="0" t="s">
+      <c r="S46" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="T46" s="0" t="s">
+      <c r="T46" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="U46" s="0" t="s">
+      <c r="U46" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="V46" s="0" t="n">
+      <c r="V46" s="1" t="n">
         <v>0.8</v>
       </c>
-      <c r="W46" s="0" t="n">
+      <c r="W46" s="1" t="n">
         <v>2.1</v>
       </c>
-      <c r="X46" s="0" t="n">
+      <c r="X46" s="1" t="n">
         <v>3.9</v>
       </c>
-      <c r="Y46" s="0" t="n">
+      <c r="Y46" s="1" t="n">
         <v>5.4</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="0" t="s">
+      <c r="A47" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="B47" s="0" t="s">
+      <c r="B47" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C47" s="0" t="s">
+      <c r="C47" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D47" s="0" t="s">
+      <c r="D47" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="E47" s="0" t="n">
+      <c r="E47" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="F47" s="0" t="s">
+      <c r="F47" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="G47" s="0" t="s">
+      <c r="G47" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="H47" s="0" t="s">
+      <c r="H47" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="I47" s="0" t="s">
+      <c r="I47" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="J47" s="0" t="n">
+      <c r="J47" s="1" t="n">
         <v>10156</v>
       </c>
-      <c r="K47" s="0" t="n">
+      <c r="K47" s="1" t="n">
         <v>44011</v>
       </c>
-      <c r="L47" s="0" t="s">
+      <c r="L47" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="M47" s="0" t="s">
+      <c r="M47" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="N47" s="0" t="n">
+      <c r="N47" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="O47" s="0" t="s">
+      <c r="O47" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="P47" s="0" t="n">
+      <c r="P47" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="Q47" s="0" t="s">
+      <c r="Q47" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="R47" s="0" t="s">
+      <c r="R47" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="S47" s="2" t="s">
+      <c r="S47" s="3" t="s">
         <v>276</v>
       </c>
-      <c r="T47" s="0" t="s">
+      <c r="T47" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="U47" s="0" t="s">
+      <c r="U47" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="V47" s="0" t="n">
+      <c r="V47" s="1" t="n">
         <v>0.015</v>
       </c>
-      <c r="W47" s="0" t="n">
+      <c r="W47" s="1" t="n">
         <v>0.036</v>
       </c>
-      <c r="X47" s="0" t="n">
+      <c r="X47" s="1" t="n">
         <v>0.054</v>
       </c>
-      <c r="Y47" s="0" t="n">
+      <c r="Y47" s="1" t="n">
         <v>0.09</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="0" t="s">
+      <c r="A48" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="B48" s="0" t="s">
+      <c r="B48" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C48" s="0" t="s">
+      <c r="C48" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D48" s="0" t="s">
+      <c r="D48" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="E48" s="0" t="n">
+      <c r="E48" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="F48" s="0" t="s">
+      <c r="F48" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="G48" s="0" t="s">
+      <c r="G48" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="H48" s="0" t="s">
+      <c r="H48" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="I48" s="0" t="s">
+      <c r="I48" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="J48" s="0" t="n">
+      <c r="J48" s="1" t="n">
         <v>10160</v>
       </c>
-      <c r="K48" s="0" t="n">
+      <c r="K48" s="1" t="n">
         <v>44011</v>
       </c>
-      <c r="L48" s="0" t="s">
+      <c r="L48" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="M48" s="0" t="s">
+      <c r="M48" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="N48" s="0" t="n">
+      <c r="N48" s="1" t="n">
         <v>896</v>
       </c>
-      <c r="O48" s="0" t="s">
+      <c r="O48" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="P48" s="0" t="n">
+      <c r="P48" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="Q48" s="0" t="s">
+      <c r="Q48" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="R48" s="0" t="s">
+      <c r="R48" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="S48" s="0" t="s">
+      <c r="S48" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="T48" s="0" t="s">
+      <c r="T48" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="U48" s="0" t="s">
+      <c r="U48" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="V48" s="0" t="n">
+      <c r="V48" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="W48" s="0" t="n">
+      <c r="W48" s="1" t="n">
         <v>4.1</v>
       </c>
-      <c r="X48" s="0" t="n">
+      <c r="X48" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="Y48" s="0" t="n">
+      <c r="Y48" s="1" t="n">
         <v>11.7</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="0" t="s">
+      <c r="A49" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="B49" s="0" t="s">
+      <c r="B49" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C49" s="0" t="s">
+      <c r="C49" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D49" s="0" t="s">
+      <c r="D49" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="E49" s="0" t="n">
+      <c r="E49" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="F49" s="0" t="s">
+      <c r="F49" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="G49" s="0" t="s">
+      <c r="G49" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="H49" s="0" t="s">
+      <c r="H49" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="I49" s="0" t="s">
+      <c r="I49" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="J49" s="0" t="n">
+      <c r="J49" s="1" t="n">
         <v>10162</v>
       </c>
-      <c r="K49" s="0" t="n">
+      <c r="K49" s="1" t="n">
         <v>44011</v>
       </c>
-      <c r="L49" s="0" t="s">
+      <c r="L49" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="M49" s="0" t="s">
+      <c r="M49" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="N49" s="0" t="n">
+      <c r="N49" s="1" t="n">
         <v>222</v>
       </c>
-      <c r="O49" s="0" t="s">
+      <c r="O49" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="P49" s="0" t="n">
+      <c r="P49" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="Q49" s="0" t="s">
+      <c r="Q49" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="R49" s="0" t="s">
+      <c r="R49" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="S49" s="2" t="s">
+      <c r="S49" s="3" t="s">
         <v>285</v>
       </c>
-      <c r="T49" s="0" t="s">
+      <c r="T49" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="U49" s="0" t="s">
+      <c r="U49" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="V49" s="0" t="n">
+      <c r="V49" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="W49" s="0" t="n">
+      <c r="W49" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="X49" s="0" t="n">
+      <c r="X49" s="1" t="n">
         <v>53</v>
       </c>
-      <c r="Y49" s="0" t="n">
+      <c r="Y49" s="1" t="n">
         <v>97</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="0" t="s">
+      <c r="A50" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="B50" s="0" t="s">
+      <c r="B50" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C50" s="0" t="s">
+      <c r="C50" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D50" s="0" t="s">
+      <c r="D50" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="E50" s="0" t="n">
+      <c r="E50" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="F50" s="0" t="s">
+      <c r="F50" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="G50" s="0" t="s">
+      <c r="G50" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="H50" s="0" t="s">
+      <c r="H50" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="I50" s="3" t="n">
+      <c r="I50" s="4" t="n">
         <v>6.35416666666667</v>
       </c>
-      <c r="J50" s="0" t="n">
+      <c r="J50" s="1" t="n">
         <v>10170</v>
       </c>
-      <c r="K50" s="0" t="n">
+      <c r="K50" s="1" t="n">
         <v>44011</v>
       </c>
-      <c r="L50" s="0" t="s">
+      <c r="L50" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="M50" s="0" t="s">
+      <c r="M50" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="N50" s="0" t="n">
+      <c r="N50" s="1" t="n">
         <v>86</v>
       </c>
-      <c r="O50" s="0" t="s">
+      <c r="O50" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="P50" s="0" t="n">
+      <c r="P50" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="Q50" s="0" t="s">
+      <c r="Q50" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="R50" s="0" t="s">
+      <c r="R50" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="S50" s="2" t="s">
+      <c r="S50" s="3" t="s">
         <v>290</v>
       </c>
-      <c r="T50" s="0" t="s">
+      <c r="T50" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="U50" s="0" t="s">
+      <c r="U50" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="V50" s="0" t="n">
+      <c r="V50" s="1" t="n">
         <v>0.4</v>
       </c>
-      <c r="W50" s="0" t="n">
+      <c r="W50" s="1" t="n">
         <v>0.7</v>
       </c>
-      <c r="X50" s="0" t="n">
+      <c r="X50" s="1" t="n">
         <v>1.3</v>
       </c>
-      <c r="Y50" s="0" t="n">
+      <c r="Y50" s="1" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="0" t="s">
+      <c r="A51" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="B51" s="0" t="s">
+      <c r="B51" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C51" s="0" t="s">
+      <c r="C51" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D51" s="0" t="s">
+      <c r="D51" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="E51" s="0" t="n">
+      <c r="E51" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="F51" s="0" t="s">
+      <c r="F51" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="G51" s="0" t="s">
+      <c r="G51" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="H51" s="0" t="s">
+      <c r="H51" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="I51" s="3" t="n">
+      <c r="I51" s="4" t="n">
         <v>8.35416666666667</v>
       </c>
-      <c r="J51" s="0" t="n">
+      <c r="J51" s="1" t="n">
         <v>10172</v>
       </c>
-      <c r="K51" s="0" t="n">
+      <c r="K51" s="1" t="n">
         <v>44011</v>
       </c>
-      <c r="L51" s="0" t="s">
+      <c r="L51" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="M51" s="0" t="s">
+      <c r="M51" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="N51" s="0" t="n">
+      <c r="N51" s="1" t="n">
         <v>59</v>
       </c>
-      <c r="O51" s="0" t="s">
+      <c r="O51" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="P51" s="0" t="n">
+      <c r="P51" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="Q51" s="0" t="s">
+      <c r="Q51" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="R51" s="0" t="s">
+      <c r="R51" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="S51" s="2" t="s">
+      <c r="S51" s="3" t="s">
         <v>294</v>
       </c>
-      <c r="T51" s="0" t="s">
+      <c r="T51" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="U51" s="0" t="s">
+      <c r="U51" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="V51" s="0" t="n">
+      <c r="V51" s="1" t="n">
         <v>0.1</v>
       </c>
-      <c r="W51" s="0" t="n">
+      <c r="W51" s="1" t="n">
         <v>0.2</v>
       </c>
-      <c r="X51" s="0" t="n">
+      <c r="X51" s="1" t="n">
         <v>0.4</v>
       </c>
-      <c r="Y51" s="0" t="n">
+      <c r="Y51" s="1" t="n">
         <v>0.7</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="0" t="s">
+      <c r="A52" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="B52" s="0" t="s">
+      <c r="B52" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C52" s="0" t="s">
+      <c r="C52" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D52" s="0" t="s">
+      <c r="D52" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="E52" s="0" t="n">
+      <c r="E52" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="F52" s="0" t="s">
+      <c r="F52" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="G52" s="0" t="s">
+      <c r="G52" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="H52" s="0" t="s">
+      <c r="H52" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="I52" s="3" t="n">
+      <c r="I52" s="4" t="n">
         <v>8.35416666666667</v>
       </c>
-      <c r="J52" s="0" t="n">
+      <c r="J52" s="1" t="n">
         <v>10180</v>
       </c>
-      <c r="K52" s="0" t="n">
+      <c r="K52" s="1" t="n">
         <v>44011</v>
       </c>
-      <c r="L52" s="0" t="s">
+      <c r="L52" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="M52" s="0" t="s">
+      <c r="M52" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="N52" s="0" t="n">
+      <c r="N52" s="1" t="n">
         <v>1887</v>
       </c>
-      <c r="O52" s="0" t="s">
+      <c r="O52" s="1" t="s">
         <v>298</v>
       </c>
-      <c r="P52" s="0" t="n">
+      <c r="P52" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="Q52" s="0" t="s">
+      <c r="Q52" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="R52" s="0" t="s">
+      <c r="R52" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="S52" s="0" t="s">
+      <c r="S52" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="T52" s="0" t="s">
+      <c r="T52" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="U52" s="0" t="s">
+      <c r="U52" s="1" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="0" t="s">
+      <c r="A53" s="1" t="s">
         <v>299</v>
       </c>
-      <c r="B53" s="0" t="s">
+      <c r="B53" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C53" s="0" t="s">
+      <c r="C53" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D53" s="0" t="s">
+      <c r="D53" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="E53" s="0" t="n">
+      <c r="E53" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="F53" s="0" t="s">
+      <c r="F53" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="G53" s="0" t="s">
+      <c r="G53" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="H53" s="0" t="s">
+      <c r="H53" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="I53" s="3" t="n">
+      <c r="I53" s="4" t="n">
         <v>8.35416666666667</v>
       </c>
-      <c r="J53" s="0" t="n">
+      <c r="J53" s="1" t="n">
         <v>10190</v>
       </c>
-      <c r="K53" s="0" t="n">
+      <c r="K53" s="1" t="n">
         <v>44011</v>
       </c>
-      <c r="L53" s="0" t="s">
+      <c r="L53" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="M53" s="0" t="s">
+      <c r="M53" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="N53" s="0" t="n">
+      <c r="N53" s="1" t="n">
         <v>1650</v>
       </c>
-      <c r="O53" s="0" t="s">
+      <c r="O53" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="P53" s="0" t="n">
+      <c r="P53" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="Q53" s="0" t="s">
+      <c r="Q53" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="R53" s="0" t="s">
+      <c r="R53" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="S53" s="0" t="s">
+      <c r="S53" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="T53" s="0" t="s">
+      <c r="T53" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="U53" s="0" t="s">
+      <c r="U53" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="V53" s="0" t="n">
+      <c r="V53" s="1" t="n">
         <v>1.14</v>
       </c>
-      <c r="W53" s="0" t="n">
+      <c r="W53" s="1" t="n">
         <v>2.06</v>
       </c>
-      <c r="X53" s="0" t="n">
+      <c r="X53" s="1" t="n">
         <v>3.6</v>
       </c>
-      <c r="Y53" s="0" t="n">
+      <c r="Y53" s="1" t="n">
         <v>5.56</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="0" t="s">
+      <c r="A54" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="B54" s="0" t="s">
+      <c r="B54" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C54" s="0" t="s">
+      <c r="C54" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D54" s="0" t="s">
+      <c r="D54" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="E54" s="0" t="n">
+      <c r="E54" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="F54" s="0" t="s">
+      <c r="F54" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="G54" s="0" t="s">
+      <c r="G54" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="H54" s="0" t="s">
+      <c r="H54" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="I54" s="3" t="n">
+      <c r="I54" s="4" t="n">
         <v>8.35416666666667</v>
       </c>
-      <c r="J54" s="0" t="n">
+      <c r="J54" s="1" t="n">
         <v>10200</v>
       </c>
-      <c r="K54" s="0" t="n">
+      <c r="K54" s="1" t="n">
         <v>44011</v>
       </c>
-      <c r="L54" s="0" t="s">
+      <c r="L54" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="M54" s="0" t="s">
+      <c r="M54" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="N54" s="0" t="n">
+      <c r="N54" s="1" t="n">
         <v>305</v>
       </c>
-      <c r="O54" s="0" t="s">
+      <c r="O54" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="P54" s="0" t="n">
+      <c r="P54" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="Q54" s="0" t="s">
+      <c r="Q54" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="R54" s="0" t="s">
+      <c r="R54" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="S54" s="2" t="s">
+      <c r="S54" s="3" t="s">
         <v>243</v>
       </c>
-      <c r="T54" s="0" t="s">
+      <c r="T54" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="U54" s="0" t="s">
+      <c r="U54" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="V54" s="0" t="n">
+      <c r="V54" s="1" t="n">
         <v>0.1</v>
       </c>
-      <c r="W54" s="0" t="n">
+      <c r="W54" s="1" t="n">
         <v>0.2</v>
       </c>
-      <c r="X54" s="0" t="n">
+      <c r="X54" s="1" t="n">
         <v>0.2</v>
       </c>
-      <c r="Y54" s="0" t="n">
+      <c r="Y54" s="1" t="n">
         <v>0.5</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="0" t="s">
+      <c r="A55" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="B55" s="0" t="s">
+      <c r="B55" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C55" s="0" t="s">
+      <c r="C55" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D55" s="0" t="s">
+      <c r="D55" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="E55" s="0" t="n">
+      <c r="E55" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="F55" s="0" t="s">
+      <c r="F55" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="G55" s="0" t="s">
+      <c r="G55" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="H55" s="0" t="s">
+      <c r="H55" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="I55" s="3" t="n">
+      <c r="I55" s="4" t="n">
         <v>1.41666666666667</v>
       </c>
-      <c r="J55" s="0" t="n">
+      <c r="J55" s="1" t="n">
         <v>10210</v>
       </c>
-      <c r="K55" s="0" t="n">
+      <c r="K55" s="1" t="n">
         <v>44011</v>
       </c>
-      <c r="L55" s="0" t="s">
+      <c r="L55" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="M55" s="0" t="s">
+      <c r="M55" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="N55" s="0" t="n">
+      <c r="N55" s="1" t="n">
         <v>45</v>
       </c>
-      <c r="O55" s="0" t="s">
+      <c r="O55" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="P55" s="0" t="n">
+      <c r="P55" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="Q55" s="0" t="s">
+      <c r="Q55" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="R55" s="0" t="s">
+      <c r="R55" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="S55" s="2" t="s">
+      <c r="S55" s="3" t="s">
         <v>311</v>
       </c>
-      <c r="T55" s="0" t="s">
+      <c r="T55" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="U55" s="0" t="s">
+      <c r="U55" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="V55" s="0" t="n">
+      <c r="V55" s="1" t="n">
         <v>0.3</v>
       </c>
-      <c r="W55" s="0" t="n">
+      <c r="W55" s="1" t="n">
         <v>0.4</v>
       </c>
-      <c r="X55" s="0" t="n">
+      <c r="X55" s="1" t="n">
         <v>0.7</v>
       </c>
-      <c r="Y55" s="0" t="n">
+      <c r="Y55" s="1" t="n">
         <v>1.2</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="0" t="s">
+      <c r="A56" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="B56" s="0" t="s">
+      <c r="B56" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C56" s="0" t="s">
+      <c r="C56" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D56" s="0" t="s">
+      <c r="D56" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="E56" s="0" t="n">
+      <c r="E56" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="F56" s="0" t="s">
+      <c r="F56" s="1" t="s">
         <v>313</v>
       </c>
-      <c r="G56" s="0" t="s">
+      <c r="G56" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="H56" s="0" t="s">
+      <c r="H56" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="I56" s="3" t="n">
+      <c r="I56" s="4" t="n">
         <v>6.35416666666667</v>
       </c>
-      <c r="J56" s="0" t="n">
+      <c r="J56" s="1" t="n">
         <v>10220</v>
       </c>
-      <c r="K56" s="0" t="n">
+      <c r="K56" s="1" t="n">
         <v>44011</v>
       </c>
-      <c r="L56" s="0" t="s">
+      <c r="L56" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="M56" s="0" t="s">
+      <c r="M56" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="N56" s="0" t="n">
+      <c r="N56" s="1" t="n">
         <v>331</v>
       </c>
-      <c r="O56" s="0" t="s">
+      <c r="O56" s="1" t="s">
         <v>317</v>
       </c>
-      <c r="P56" s="0" t="n">
+      <c r="P56" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="Q56" s="0" t="s">
+      <c r="Q56" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="R56" s="0" t="s">
+      <c r="R56" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="S56" s="2" t="s">
+      <c r="S56" s="3" t="s">
         <v>318</v>
       </c>
-      <c r="T56" s="0" t="s">
+      <c r="T56" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="U56" s="0" t="s">
+      <c r="U56" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="V56" s="0" t="n">
+      <c r="V56" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="W56" s="0" t="n">
+      <c r="W56" s="1" t="n">
         <v>0.1</v>
       </c>
-      <c r="X56" s="0" t="n">
+      <c r="X56" s="1" t="n">
         <v>0.1</v>
       </c>
-      <c r="Y56" s="0" t="n">
+      <c r="Y56" s="1" t="n">
         <v>0.2</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="0" t="s">
+      <c r="A57" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="B57" s="0" t="s">
+      <c r="B57" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C57" s="0" t="s">
+      <c r="C57" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D57" s="0" t="s">
+      <c r="D57" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="E57" s="0" t="n">
+      <c r="E57" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="F57" s="0" t="s">
+      <c r="F57" s="1" t="s">
         <v>321</v>
       </c>
-      <c r="G57" s="0" t="s">
+      <c r="G57" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="H57" s="0" t="s">
+      <c r="H57" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="I57" s="0" t="s">
+      <c r="I57" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="J57" s="0" t="n">
+      <c r="J57" s="1" t="n">
         <v>10230</v>
       </c>
-      <c r="K57" s="0" t="n">
+      <c r="K57" s="1" t="n">
         <v>44011</v>
       </c>
-      <c r="L57" s="0" t="s">
+      <c r="L57" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="M57" s="0" t="s">
+      <c r="M57" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="N57" s="0" t="n">
+      <c r="N57" s="1" t="n">
         <v>294</v>
       </c>
-      <c r="O57" s="0" t="s">
+      <c r="O57" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="P57" s="0" t="n">
+      <c r="P57" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="Q57" s="0" t="s">
+      <c r="Q57" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="R57" s="0" t="s">
+      <c r="R57" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="S57" s="2" t="s">
+      <c r="S57" s="3" t="s">
         <v>325</v>
       </c>
-      <c r="T57" s="0" t="s">
+      <c r="T57" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="U57" s="0" t="s">
+      <c r="U57" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="V57" s="0" t="n">
+      <c r="V57" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="W57" s="0" t="n">
+      <c r="W57" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="X57" s="0" t="n">
+      <c r="X57" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="Y57" s="0" t="n">
+      <c r="Y57" s="1" t="n">
         <v>26</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="0" t="s">
+      <c r="A58" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="B58" s="0" t="s">
+      <c r="B58" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C58" s="0" t="s">
+      <c r="C58" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D58" s="0" t="s">
+      <c r="D58" s="1" t="s">
         <v>327</v>
       </c>
-      <c r="E58" s="0" t="n">
+      <c r="E58" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="F58" s="0" t="s">
+      <c r="F58" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="G58" s="0" t="s">
+      <c r="G58" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="H58" s="0" t="s">
+      <c r="H58" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="I58" s="0" t="s">
+      <c r="I58" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="J58" s="0" t="n">
+      <c r="J58" s="1" t="n">
         <v>10240</v>
       </c>
-      <c r="K58" s="0" t="n">
+      <c r="K58" s="1" t="n">
         <v>44011</v>
       </c>
-      <c r="L58" s="0" t="s">
+      <c r="L58" s="1" t="s">
         <v>331</v>
       </c>
-      <c r="M58" s="0" t="s">
+      <c r="M58" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="N58" s="0" t="n">
+      <c r="N58" s="1" t="n">
         <v>168</v>
       </c>
-      <c r="O58" s="0" t="s">
+      <c r="O58" s="1" t="s">
         <v>333</v>
       </c>
-      <c r="P58" s="0" t="n">
+      <c r="P58" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="Q58" s="0" t="s">
+      <c r="Q58" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="R58" s="0" t="s">
+      <c r="R58" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="S58" s="2" t="s">
+      <c r="S58" s="3" t="s">
         <v>334</v>
       </c>
-      <c r="T58" s="0" t="s">
+      <c r="T58" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="U58" s="0" t="s">
+      <c r="U58" s="1" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="0" t="s">
+      <c r="A59" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="B59" s="0" t="s">
+      <c r="B59" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C59" s="0" t="s">
+      <c r="C59" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D59" s="0" t="s">
+      <c r="D59" s="1" t="s">
         <v>327</v>
       </c>
-      <c r="E59" s="0" t="n">
+      <c r="E59" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="F59" s="0" t="s">
+      <c r="F59" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="G59" s="0" t="s">
+      <c r="G59" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="H59" s="0" t="s">
+      <c r="H59" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="I59" s="0" t="s">
+      <c r="I59" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="J59" s="0" t="n">
+      <c r="J59" s="1" t="n">
         <v>10242</v>
       </c>
-      <c r="K59" s="0" t="n">
+      <c r="K59" s="1" t="n">
         <v>44011</v>
       </c>
-      <c r="L59" s="0" t="s">
+      <c r="L59" s="1" t="s">
         <v>336</v>
       </c>
-      <c r="M59" s="0" t="s">
+      <c r="M59" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="N59" s="0" t="n">
+      <c r="N59" s="1" t="n">
         <v>398</v>
       </c>
-      <c r="O59" s="0" t="s">
+      <c r="O59" s="1" t="s">
         <v>338</v>
       </c>
-      <c r="P59" s="0" t="n">
+      <c r="P59" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="Q59" s="0" t="s">
+      <c r="Q59" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="R59" s="0" t="s">
+      <c r="R59" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="S59" s="2" t="s">
+      <c r="S59" s="3" t="s">
         <v>339</v>
       </c>
-      <c r="T59" s="0" t="s">
+      <c r="T59" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="U59" s="0" t="s">
+      <c r="U59" s="1" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="0" t="s">
+      <c r="A60" s="1" t="s">
         <v>340</v>
       </c>
-      <c r="B60" s="0" t="s">
+      <c r="B60" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C60" s="0" t="s">
+      <c r="C60" s="1" t="s">
         <v>341</v>
       </c>
-      <c r="D60" s="0" t="s">
+      <c r="D60" s="1" t="s">
         <v>342</v>
       </c>
-      <c r="E60" s="0" t="n">
+      <c r="E60" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="F60" s="0" t="s">
+      <c r="F60" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="G60" s="0" t="s">
+      <c r="G60" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="H60" s="0" t="s">
+      <c r="H60" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="I60" s="0" t="s">
+      <c r="I60" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="J60" s="0" t="n">
+      <c r="J60" s="1" t="n">
         <v>10250</v>
       </c>
-      <c r="K60" s="0" t="n">
+      <c r="K60" s="1" t="n">
         <v>44012</v>
       </c>
-      <c r="L60" s="0" t="s">
+      <c r="L60" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="M60" s="0" t="s">
+      <c r="M60" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="N60" s="0" t="n">
+      <c r="N60" s="1" t="n">
         <v>70</v>
       </c>
-      <c r="O60" s="0" t="s">
+      <c r="O60" s="1" t="s">
         <v>344</v>
       </c>
-      <c r="P60" s="0" t="n">
+      <c r="P60" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="Q60" s="0" t="s">
+      <c r="Q60" s="1" t="s">
         <v>345</v>
       </c>
-      <c r="R60" s="0" t="s">
+      <c r="R60" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="S60" s="2" t="s">
+      <c r="S60" s="3" t="s">
         <v>347</v>
       </c>
-      <c r="T60" s="0" t="s">
+      <c r="T60" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="U60" s="0" t="s">
+      <c r="U60" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="V60" s="0" t="n">
+      <c r="V60" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="W60" s="0" t="n">
+      <c r="W60" s="1" t="n">
         <v>0.1</v>
       </c>
-      <c r="X60" s="0" t="n">
+      <c r="X60" s="1" t="n">
         <v>0.1</v>
       </c>
-      <c r="Y60" s="0" t="n">
+      <c r="Y60" s="1" t="n">
         <v>0.3</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="0" t="s">
+      <c r="A61" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="B61" s="0" t="s">
+      <c r="B61" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C61" s="0" t="s">
+      <c r="C61" s="1" t="s">
         <v>341</v>
       </c>
-      <c r="D61" s="0" t="s">
+      <c r="D61" s="1" t="s">
         <v>342</v>
       </c>
-      <c r="E61" s="0" t="n">
+      <c r="E61" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="F61" s="0" t="s">
+      <c r="F61" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="G61" s="0" t="s">
+      <c r="G61" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="H61" s="0" t="s">
+      <c r="H61" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="I61" s="0" t="s">
+      <c r="I61" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="J61" s="0" t="n">
+      <c r="J61" s="1" t="n">
         <v>10251</v>
       </c>
-      <c r="K61" s="0" t="n">
+      <c r="K61" s="1" t="n">
         <v>44012</v>
       </c>
-      <c r="L61" s="0" t="s">
+      <c r="L61" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="M61" s="0" t="s">
+      <c r="M61" s="1" t="s">
         <v>349</v>
       </c>
-      <c r="N61" s="0" t="n">
+      <c r="N61" s="1" t="n">
         <v>741</v>
       </c>
-      <c r="O61" s="0" t="s">
+      <c r="O61" s="1" t="s">
         <v>350</v>
       </c>
-      <c r="P61" s="0" t="n">
+      <c r="P61" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="Q61" s="0" t="s">
+      <c r="Q61" s="1" t="s">
         <v>345</v>
       </c>
-      <c r="R61" s="0" t="s">
+      <c r="R61" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="S61" s="2" t="s">
+      <c r="S61" s="3" t="s">
         <v>347</v>
       </c>
-      <c r="T61" s="0" t="s">
+      <c r="T61" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="U61" s="0" t="s">
+      <c r="U61" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="V61" s="0" t="n">
+      <c r="V61" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="W61" s="0" t="n">
+      <c r="W61" s="1" t="n">
         <v>0.1</v>
       </c>
-      <c r="X61" s="0" t="n">
+      <c r="X61" s="1" t="n">
         <v>0.2</v>
       </c>
-      <c r="Y61" s="0" t="n">
+      <c r="Y61" s="1" t="n">
         <v>0.3</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="0" t="s">
+      <c r="A62" s="1" t="s">
         <v>351</v>
       </c>
-      <c r="B62" s="0" t="s">
+      <c r="B62" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C62" s="0" t="s">
+      <c r="C62" s="1" t="s">
         <v>341</v>
       </c>
-      <c r="D62" s="0" t="s">
+      <c r="D62" s="1" t="s">
         <v>342</v>
       </c>
-      <c r="E62" s="0" t="n">
+      <c r="E62" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="F62" s="0" t="s">
+      <c r="F62" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="G62" s="0" t="s">
+      <c r="G62" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="H62" s="0" t="s">
+      <c r="H62" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="I62" s="0" t="s">
+      <c r="I62" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="J62" s="0" t="n">
+      <c r="J62" s="1" t="n">
         <v>10252</v>
       </c>
-      <c r="K62" s="0" t="n">
+      <c r="K62" s="1" t="n">
         <v>44012</v>
       </c>
-      <c r="L62" s="0" t="s">
+      <c r="L62" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="M62" s="0" t="s">
+      <c r="M62" s="1" t="s">
         <v>352</v>
       </c>
-      <c r="N62" s="0" t="n">
+      <c r="N62" s="1" t="n">
         <v>57</v>
       </c>
-      <c r="O62" s="0" t="s">
+      <c r="O62" s="1" t="s">
         <v>353</v>
       </c>
-      <c r="P62" s="0" t="n">
+      <c r="P62" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="Q62" s="0" t="s">
+      <c r="Q62" s="1" t="s">
         <v>345</v>
       </c>
-      <c r="R62" s="0" t="s">
+      <c r="R62" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="S62" s="2" t="s">
+      <c r="S62" s="3" t="s">
         <v>354</v>
       </c>
-      <c r="T62" s="0" t="s">
+      <c r="T62" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="U62" s="0" t="s">
+      <c r="U62" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="V62" s="0" t="n">
+      <c r="V62" s="1" t="n">
         <v>0.1</v>
       </c>
-      <c r="W62" s="0" t="n">
+      <c r="W62" s="1" t="n">
         <v>0.2</v>
       </c>
-      <c r="X62" s="0" t="n">
+      <c r="X62" s="1" t="n">
         <v>0.4</v>
       </c>
-      <c r="Y62" s="0" t="n">
+      <c r="Y62" s="1" t="n">
         <v>0.5</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="0" t="s">
+      <c r="A63" s="1" t="s">
         <v>355</v>
       </c>
-      <c r="B63" s="0" t="s">
+      <c r="B63" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C63" s="0" t="s">
+      <c r="C63" s="1" t="s">
         <v>341</v>
       </c>
-      <c r="D63" s="0" t="s">
+      <c r="D63" s="1" t="s">
         <v>342</v>
       </c>
-      <c r="E63" s="0" t="n">
+      <c r="E63" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="F63" s="0" t="s">
+      <c r="F63" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="G63" s="0" t="s">
+      <c r="G63" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="H63" s="0" t="s">
+      <c r="H63" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="I63" s="0" t="s">
+      <c r="I63" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="J63" s="0" t="n">
+      <c r="J63" s="1" t="n">
         <v>10253</v>
       </c>
-      <c r="K63" s="0" t="n">
+      <c r="K63" s="1" t="n">
         <v>44012</v>
       </c>
-      <c r="L63" s="0" t="s">
+      <c r="L63" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="M63" s="0" t="s">
+      <c r="M63" s="1" t="s">
         <v>356</v>
       </c>
-      <c r="N63" s="0" t="n">
+      <c r="N63" s="1" t="n">
         <v>1020</v>
       </c>
-      <c r="O63" s="0" t="s">
+      <c r="O63" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="P63" s="0" t="n">
+      <c r="P63" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="Q63" s="0" t="s">
+      <c r="Q63" s="1" t="s">
         <v>345</v>
       </c>
-      <c r="R63" s="0" t="s">
+      <c r="R63" s="1" t="s">
         <v>358</v>
       </c>
-      <c r="S63" s="0" t="s">
+      <c r="S63" s="1" t="s">
         <v>359</v>
       </c>
-      <c r="T63" s="0" t="s">
+      <c r="T63" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="U63" s="0" t="s">
+      <c r="U63" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="V63" s="0" t="n">
+      <c r="V63" s="1" t="n">
         <v>0.1</v>
       </c>
-      <c r="W63" s="0" t="n">
+      <c r="W63" s="1" t="n">
         <v>0.2</v>
       </c>
-      <c r="X63" s="0" t="n">
+      <c r="X63" s="1" t="n">
         <v>0.3</v>
       </c>
-      <c r="Y63" s="0" t="n">
+      <c r="Y63" s="1" t="n">
         <v>0.5</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="0" t="s">
+      <c r="A64" s="1" t="s">
         <v>360</v>
       </c>
-      <c r="B64" s="0" t="s">
+      <c r="B64" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C64" s="0" t="s">
+      <c r="C64" s="1" t="s">
         <v>341</v>
       </c>
-      <c r="D64" s="0" t="s">
+      <c r="D64" s="1" t="s">
         <v>342</v>
       </c>
-      <c r="E64" s="0" t="n">
+      <c r="E64" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="F64" s="0" t="s">
+      <c r="F64" s="1" t="s">
         <v>361</v>
       </c>
-      <c r="G64" s="0" t="s">
+      <c r="G64" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="H64" s="0" t="s">
+      <c r="H64" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="I64" s="0" t="s">
+      <c r="I64" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="J64" s="0" t="n">
+      <c r="J64" s="1" t="n">
         <v>10260</v>
       </c>
-      <c r="K64" s="0" t="n">
+      <c r="K64" s="1" t="n">
         <v>44012</v>
       </c>
-      <c r="L64" s="0" t="s">
+      <c r="L64" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="M64" s="0" t="s">
+      <c r="M64" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="N64" s="0" t="n">
+      <c r="N64" s="1" t="n">
         <v>65</v>
       </c>
-      <c r="O64" s="0" t="s">
+      <c r="O64" s="1" t="s">
         <v>363</v>
       </c>
-      <c r="P64" s="0" t="n">
+      <c r="P64" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="Q64" s="0" t="s">
+      <c r="Q64" s="1" t="s">
         <v>345</v>
       </c>
-      <c r="R64" s="0" t="s">
+      <c r="R64" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="S64" s="2" t="s">
+      <c r="S64" s="3" t="s">
         <v>364</v>
       </c>
-      <c r="T64" s="0" t="s">
+      <c r="T64" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="U64" s="0" t="s">
+      <c r="U64" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="V64" s="0" t="n">
+      <c r="V64" s="1" t="n">
         <v>0.2</v>
       </c>
-      <c r="W64" s="0" t="n">
+      <c r="W64" s="1" t="n">
         <v>0.3</v>
       </c>
-      <c r="X64" s="0" t="n">
+      <c r="X64" s="1" t="n">
         <v>0.6</v>
       </c>
-      <c r="Y64" s="0" t="n">
+      <c r="Y64" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="0" t="s">
+      <c r="A65" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="B65" s="0" t="s">
+      <c r="B65" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C65" s="0" t="s">
+      <c r="C65" s="1" t="s">
         <v>341</v>
       </c>
-      <c r="D65" s="0" t="s">
+      <c r="D65" s="1" t="s">
         <v>342</v>
       </c>
-      <c r="E65" s="0" t="n">
+      <c r="E65" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="F65" s="0" t="s">
+      <c r="F65" s="1" t="s">
         <v>361</v>
       </c>
-      <c r="G65" s="0" t="s">
+      <c r="G65" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="H65" s="0" t="s">
+      <c r="H65" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="I65" s="0" t="s">
+      <c r="I65" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="J65" s="0" t="n">
+      <c r="J65" s="1" t="n">
         <v>10261</v>
       </c>
-      <c r="K65" s="0" t="n">
+      <c r="K65" s="1" t="n">
         <v>44012</v>
       </c>
-      <c r="L65" s="0" t="s">
+      <c r="L65" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="M65" s="0" t="s">
+      <c r="M65" s="1" t="s">
         <v>366</v>
       </c>
-      <c r="N65" s="0" t="n">
+      <c r="N65" s="1" t="n">
         <v>260</v>
       </c>
-      <c r="O65" s="0" t="s">
+      <c r="O65" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="P65" s="0" t="n">
+      <c r="P65" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="Q65" s="0" t="s">
+      <c r="Q65" s="1" t="s">
         <v>345</v>
       </c>
-      <c r="R65" s="0" t="s">
+      <c r="R65" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="S65" s="2" t="s">
+      <c r="S65" s="3" t="s">
         <v>368</v>
       </c>
-      <c r="T65" s="0" t="s">
+      <c r="T65" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="U65" s="0" t="s">
+      <c r="U65" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="V65" s="0" t="n">
+      <c r="V65" s="1" t="n">
         <v>0.1</v>
       </c>
-      <c r="W65" s="0" t="n">
+      <c r="W65" s="1" t="n">
         <v>0.4</v>
       </c>
-      <c r="X65" s="0" t="n">
+      <c r="X65" s="1" t="n">
         <v>0.6</v>
       </c>
-      <c r="Y65" s="0" t="n">
+      <c r="Y65" s="1" t="n">
         <v>0.9</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="0" t="s">
+      <c r="A66" s="1" t="s">
         <v>369</v>
       </c>
-      <c r="B66" s="0" t="s">
+      <c r="B66" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C66" s="0" t="s">
+      <c r="C66" s="1" t="s">
         <v>341</v>
       </c>
-      <c r="D66" s="0" t="s">
+      <c r="D66" s="1" t="s">
         <v>342</v>
       </c>
-      <c r="E66" s="0" t="n">
+      <c r="E66" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="F66" s="0" t="s">
+      <c r="F66" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="G66" s="0" t="s">
+      <c r="G66" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="H66" s="0" t="s">
+      <c r="H66" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="I66" s="0" t="s">
+      <c r="I66" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="J66" s="0" t="n">
+      <c r="J66" s="1" t="n">
         <v>10270</v>
       </c>
-      <c r="K66" s="0" t="n">
+      <c r="K66" s="1" t="n">
         <v>44012</v>
       </c>
-      <c r="L66" s="0" t="s">
+      <c r="L66" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="M66" s="0" t="s">
+      <c r="M66" s="1" t="s">
         <v>370</v>
       </c>
-      <c r="N66" s="0" t="n">
+      <c r="N66" s="1" t="n">
         <v>123</v>
       </c>
-      <c r="O66" s="0" t="s">
+      <c r="O66" s="1" t="s">
         <v>371</v>
       </c>
-      <c r="P66" s="0" t="n">
+      <c r="P66" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="Q66" s="0" t="s">
+      <c r="Q66" s="1" t="s">
         <v>345</v>
       </c>
-      <c r="R66" s="0" t="s">
+      <c r="R66" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="S66" s="2" t="s">
+      <c r="S66" s="3" t="s">
         <v>372</v>
       </c>
-      <c r="T66" s="0" t="s">
+      <c r="T66" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="U66" s="0" t="s">
+      <c r="U66" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="V66" s="0" t="n">
+      <c r="V66" s="1" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="W66" s="1" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="X66" s="1" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="Y66" s="1" t="n">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="E67" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="F67" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="G67" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="H67" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="I67" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="J67" s="1" t="n">
+        <v>10272</v>
+      </c>
+      <c r="K67" s="1" t="n">
+        <v>44012</v>
+      </c>
+      <c r="L67" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="M67" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="N67" s="1" t="n">
+        <v>1758</v>
+      </c>
+      <c r="O67" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="P67" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q67" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="R67" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="S67" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="T67" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="U67" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="V67" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="W66" s="0" t="n">
+      <c r="W67" s="1" t="n">
         <v>0.1</v>
       </c>
-      <c r="X66" s="0" t="n">
+      <c r="X67" s="1" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="Y67" s="1" t="n">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="E68" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="F68" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="G68" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="H68" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="I68" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="J68" s="1" t="n">
+        <v>10280</v>
+      </c>
+      <c r="K68" s="1" t="n">
+        <v>44012</v>
+      </c>
+      <c r="L68" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="M68" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="N68" s="1" t="n">
+        <v>285</v>
+      </c>
+      <c r="O68" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="P68" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q68" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="R68" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="S68" s="3" t="s">
+        <v>380</v>
+      </c>
+      <c r="T68" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="U68" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="V68" s="1" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="W68" s="1" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="X68" s="1" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="Y68" s="1" t="n">
+        <v>1.83</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="E69" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="F69" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="G69" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="H69" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="I69" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="J69" s="1" t="n">
+        <v>10281</v>
+      </c>
+      <c r="K69" s="1" t="n">
+        <v>44012</v>
+      </c>
+      <c r="L69" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="M69" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="N69" s="1" t="n">
+        <v>1023</v>
+      </c>
+      <c r="O69" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="P69" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q69" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="R69" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="S69" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="T69" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="U69" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="V69" s="1" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="W69" s="1" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="X69" s="1" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="Y69" s="1" t="n">
+        <v>2.55</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="E70" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="F70" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="G70" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="H70" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="I70" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="J70" s="1" t="n">
+        <v>10282</v>
+      </c>
+      <c r="K70" s="1" t="n">
+        <v>44012</v>
+      </c>
+      <c r="L70" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="M70" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="N70" s="1" t="n">
+        <v>1026</v>
+      </c>
+      <c r="O70" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="P70" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q70" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="R70" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="S70" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="T70" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="U70" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="V70" s="1" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="W70" s="1" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="X70" s="1" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="Y70" s="1" t="n">
+        <v>3.03</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="E71" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="F71" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="G71" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="H71" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="I71" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="J71" s="1" t="n">
+        <v>10290</v>
+      </c>
+      <c r="K71" s="1" t="n">
+        <v>44012</v>
+      </c>
+      <c r="L71" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="M71" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="N71" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="O71" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="P71" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q71" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="R71" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="S71" s="3" t="s">
+        <v>394</v>
+      </c>
+      <c r="T71" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="U71" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="V71" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="W71" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="X71" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="Y71" s="1" t="n">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="E72" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="F72" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="G72" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="H72" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="I72" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="J72" s="1" t="n">
+        <v>10291</v>
+      </c>
+      <c r="K72" s="1" t="n">
+        <v>44012</v>
+      </c>
+      <c r="L72" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="M72" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="N72" s="1" t="n">
+        <v>301</v>
+      </c>
+      <c r="O72" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="P72" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q72" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="R72" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="S72" s="3" t="s">
+        <v>397</v>
+      </c>
+      <c r="T72" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="U72" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="V72" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W72" s="1" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="X72" s="1" t="n">
         <v>0.2</v>
       </c>
-      <c r="Y66" s="0" t="n">
+      <c r="Y72" s="1" t="n">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="E73" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="F73" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="G73" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="H73" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="I73" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="J73" s="1" t="n">
+        <v>10292</v>
+      </c>
+      <c r="K73" s="1" t="n">
+        <v>44012</v>
+      </c>
+      <c r="L73" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="M73" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="N73" s="1" t="n">
+        <v>1021</v>
+      </c>
+      <c r="O73" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="P73" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q73" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="R73" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="S73" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="T73" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="U73" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="E74" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="F74" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="G74" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="H74" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="I74" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="J74" s="1" t="n">
+        <v>10293</v>
+      </c>
+      <c r="K74" s="1" t="n">
+        <v>44012</v>
+      </c>
+      <c r="L74" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="M74" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="N74" s="1" t="n">
+        <v>1022</v>
+      </c>
+      <c r="O74" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="P74" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q74" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="R74" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="S74" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="T74" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="U74" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="E75" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="F75" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="G75" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="H75" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="I75" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="J75" s="1" t="n">
+        <v>10294</v>
+      </c>
+      <c r="K75" s="1" t="n">
+        <v>44012</v>
+      </c>
+      <c r="L75" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="M75" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="N75" s="1" t="n">
+        <v>670</v>
+      </c>
+      <c r="O75" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="P75" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q75" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="R75" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="S75" s="3" t="s">
+        <v>409</v>
+      </c>
+      <c r="T75" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="U75" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="V75" s="1" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="W75" s="1" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="X75" s="1" t="n">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="0" t="s">
-        <v>373</v>
-      </c>
-      <c r="B67" s="0" t="s">
+      <c r="Y75" s="1" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="B76" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C67" s="0" t="s">
+      <c r="C76" s="1" t="s">
         <v>341</v>
       </c>
-      <c r="D67" s="0" t="s">
+      <c r="D76" s="1" t="s">
         <v>342</v>
       </c>
-      <c r="E67" s="0" t="n">
-        <v>30</v>
-      </c>
-      <c r="F67" s="0" t="s">
-        <v>160</v>
-      </c>
-      <c r="G67" s="0" t="s">
+      <c r="E76" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="F76" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="G76" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="H67" s="0" t="s">
+      <c r="H76" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="I76" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="J76" s="1" t="n">
+        <v>10300</v>
+      </c>
+      <c r="K76" s="1" t="n">
+        <v>44012</v>
+      </c>
+      <c r="L76" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="M76" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="N76" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="O76" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="P76" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q76" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="R76" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="S76" s="3" t="s">
+        <v>412</v>
+      </c>
+      <c r="T76" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="U76" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="V76" s="1" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="W76" s="1" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="X76" s="1" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="Y76" s="1" t="n">
+        <v>7.3</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="E77" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="F77" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="G77" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="H77" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="I77" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="J77" s="1" t="n">
+        <v>10310</v>
+      </c>
+      <c r="K77" s="1" t="n">
+        <v>44012</v>
+      </c>
+      <c r="L77" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="M77" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="N77" s="1" t="n">
+        <v>223</v>
+      </c>
+      <c r="O77" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="P77" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q77" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="R77" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="S77" s="3" t="s">
+        <v>417</v>
+      </c>
+      <c r="T77" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="U77" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="V77" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W77" s="1" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="X77" s="1" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="Y77" s="1" t="n">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="E78" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="F78" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="G78" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="H78" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="I78" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="J78" s="1" t="n">
+        <v>10320</v>
+      </c>
+      <c r="K78" s="1" t="n">
+        <v>44012</v>
+      </c>
+      <c r="L78" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="M78" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="N78" s="1" t="n">
+        <v>207</v>
+      </c>
+      <c r="O78" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="P78" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q78" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="R78" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="S78" s="3" t="s">
+        <v>422</v>
+      </c>
+      <c r="T78" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="U78" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="V78" s="1" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="W78" s="1" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="X78" s="1" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="Y78" s="1" t="n">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="E79" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="F79" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="G79" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="H79" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="I79" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="J79" s="1" t="n">
+        <v>10330</v>
+      </c>
+      <c r="K79" s="1" t="n">
+        <v>44012</v>
+      </c>
+      <c r="L79" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="M79" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="N79" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="O79" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="P79" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q79" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="R79" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="S79" s="3" t="s">
+        <v>427</v>
+      </c>
+      <c r="T79" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="U79" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="V79" s="1" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="W79" s="1" t="n">
+        <v>6.65</v>
+      </c>
+      <c r="X79" s="1" t="n">
+        <v>15.13</v>
+      </c>
+      <c r="Y79" s="1" t="n">
+        <v>24.37</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="E80" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="F80" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="G80" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="H80" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="I80" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="J80" s="1" t="n">
+        <v>10331</v>
+      </c>
+      <c r="K80" s="1" t="n">
+        <v>44012</v>
+      </c>
+      <c r="L80" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="M80" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="N80" s="1" t="n">
+        <v>1028</v>
+      </c>
+      <c r="O80" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="P80" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q80" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="R80" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="S80" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="T80" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="U80" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="E81" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="F81" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="G81" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="H81" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="I81" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="J81" s="1" t="n">
+        <v>10340</v>
+      </c>
+      <c r="K81" s="1" t="n">
+        <v>44012</v>
+      </c>
+      <c r="L81" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="M81" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="N81" s="1" t="n">
+        <v>306</v>
+      </c>
+      <c r="O81" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="P81" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q81" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="R81" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="S81" s="3" t="s">
+        <v>436</v>
+      </c>
+      <c r="T81" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="U81" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="V81" s="1" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="W81" s="1" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="X81" s="1" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="Y81" s="1" t="n">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="E82" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="F82" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="G82" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="H82" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="I82" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="J82" s="1" t="n">
+        <v>10350</v>
+      </c>
+      <c r="K82" s="1" t="n">
+        <v>44012</v>
+      </c>
+      <c r="L82" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="M82" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="N82" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="O82" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="P82" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q82" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="R82" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="S82" s="3" t="s">
+        <v>442</v>
+      </c>
+      <c r="T82" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="U82" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="V82" s="1" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="W82" s="1" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="X82" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="Y82" s="1" t="n">
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="E83" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="F83" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="G83" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="H83" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="I67" s="0" t="s">
+      <c r="I83" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="J67" s="0" t="n">
-        <v>10272</v>
-      </c>
-      <c r="K67" s="0" t="n">
+      <c r="J83" s="1" t="n">
+        <v>10360</v>
+      </c>
+      <c r="K83" s="1" t="n">
         <v>44012</v>
       </c>
-      <c r="L67" s="0" t="s">
+      <c r="L83" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="M67" s="0" t="s">
-        <v>374</v>
-      </c>
-      <c r="N67" s="0" t="n">
-        <v>1758</v>
-      </c>
-      <c r="O67" s="0" t="s">
-        <v>375</v>
-      </c>
-      <c r="P67" s="0" t="n">
+      <c r="M83" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="N83" s="1" t="n">
+        <v>172</v>
+      </c>
+      <c r="O83" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="P83" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q83" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="R83" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="S83" s="3" t="s">
+        <v>447</v>
+      </c>
+      <c r="T83" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="U83" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="V83" s="1" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="W83" s="1" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="X83" s="1" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="Y83" s="1" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="E84" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="F84" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="G84" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="H84" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="I84" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="J84" s="1" t="n">
+        <v>10361</v>
+      </c>
+      <c r="K84" s="1" t="n">
+        <v>44012</v>
+      </c>
+      <c r="L84" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="M84" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="N84" s="1" t="n">
+        <v>742</v>
+      </c>
+      <c r="O84" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="P84" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q84" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="R84" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="S84" s="3" t="s">
+        <v>447</v>
+      </c>
+      <c r="T84" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="U84" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="E85" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="F85" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="G85" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="H85" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="I85" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="J85" s="1" t="n">
+        <v>10370</v>
+      </c>
+      <c r="K85" s="1" t="n">
+        <v>44012</v>
+      </c>
+      <c r="L85" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="M85" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="N85" s="1" t="n">
+        <v>266</v>
+      </c>
+      <c r="O85" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="P85" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="Q67" s="0" t="s">
+      <c r="Q85" s="1" t="s">
         <v>345</v>
       </c>
-      <c r="R67" s="0" t="s">
+      <c r="R85" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="S67" s="0" t="s">
-        <v>376</v>
-      </c>
-      <c r="T67" s="0" t="s">
+      <c r="S85" s="3" t="s">
+        <v>454</v>
+      </c>
+      <c r="T85" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="U67" s="0" t="s">
+      <c r="U85" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="V67" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="W67" s="0" t="n">
+      <c r="V85" s="1" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="W85" s="1" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="X85" s="1" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="Y85" s="1" t="n">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="E86" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="F86" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="G86" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="H86" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="I86" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="J86" s="1" t="n">
+        <v>10371</v>
+      </c>
+      <c r="K86" s="1" t="n">
+        <v>44012</v>
+      </c>
+      <c r="L86" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="M86" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="N86" s="1" t="n">
+        <v>1030</v>
+      </c>
+      <c r="O86" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="P86" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q86" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="R86" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="S86" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="T86" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="U86" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="E87" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="F87" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="G87" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="H87" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="I87" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="J87" s="1" t="n">
+        <v>10380</v>
+      </c>
+      <c r="K87" s="1" t="n">
+        <v>44012</v>
+      </c>
+      <c r="L87" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="M87" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="N87" s="1" t="n">
+        <v>189</v>
+      </c>
+      <c r="O87" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="P87" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q87" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="R87" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="S87" s="3" t="s">
+        <v>463</v>
+      </c>
+      <c r="T87" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="U87" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="V87" s="1" t="n">
         <v>0.1</v>
       </c>
-      <c r="X67" s="0" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="Y67" s="0" t="n">
+      <c r="W87" s="1" t="n">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="68" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="0" t="s">
-        <v>226</v>
-      </c>
-      <c r="B68" s="0" t="s">
+      <c r="X87" s="1" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="Y87" s="1" t="n">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="B88" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C68" s="0" t="s">
+      <c r="C88" s="1" t="s">
         <v>341</v>
       </c>
-      <c r="D68" s="0" t="s">
+      <c r="D88" s="1" t="s">
         <v>342</v>
       </c>
-      <c r="E68" s="0" t="n">
-        <v>31</v>
-      </c>
-      <c r="F68" s="0" t="s">
-        <v>377</v>
-      </c>
-      <c r="G68" s="0" t="s">
-        <v>66</v>
-      </c>
-      <c r="H68" s="0" t="s">
-        <v>202</v>
-      </c>
-      <c r="I68" s="0" t="s">
+      <c r="E88" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="F88" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="G88" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="H88" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="I88" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="J68" s="0" t="n">
-        <v>10280</v>
-      </c>
-      <c r="K68" s="0" t="n">
+      <c r="J88" s="1" t="n">
+        <v>10390</v>
+      </c>
+      <c r="K88" s="1" t="n">
         <v>44012</v>
       </c>
-      <c r="L68" s="0" t="s">
-        <v>228</v>
-      </c>
-      <c r="M68" s="0" t="s">
-        <v>378</v>
-      </c>
-      <c r="N68" s="0" t="n">
-        <v>285</v>
-      </c>
-      <c r="O68" s="0" t="s">
-        <v>379</v>
-      </c>
-      <c r="P68" s="0" t="n">
+      <c r="L88" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="M88" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="N88" s="1" t="n">
+        <v>1025</v>
+      </c>
+      <c r="O88" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="P88" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="Q68" s="0" t="s">
+      <c r="Q88" s="1" t="s">
         <v>345</v>
       </c>
-      <c r="R68" s="0" t="s">
-        <v>346</v>
-      </c>
-      <c r="S68" s="2" t="s">
-        <v>380</v>
-      </c>
-      <c r="T68" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="U68" s="0" t="s">
-        <v>75</v>
-      </c>
-      <c r="V68" s="0" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="W68" s="0" t="n">
+      <c r="R88" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="S88" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="T88" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="U88" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="V88" s="1" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="W88" s="1" t="n">
         <v>0.6</v>
       </c>
-      <c r="X68" s="0" t="n">
-        <v>0.89</v>
-      </c>
-      <c r="Y68" s="0" t="n">
-        <v>1.83</v>
-      </c>
-    </row>
-    <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="0" t="s">
-        <v>381</v>
-      </c>
-      <c r="B69" s="0" t="s">
-        <v>63</v>
-      </c>
-      <c r="C69" s="0" t="s">
-        <v>341</v>
-      </c>
-      <c r="D69" s="0" t="s">
-        <v>342</v>
-      </c>
-      <c r="E69" s="0" t="n">
-        <v>31</v>
-      </c>
-      <c r="F69" s="0" t="s">
-        <v>377</v>
-      </c>
-      <c r="G69" s="0" t="s">
-        <v>66</v>
-      </c>
-      <c r="H69" s="0" t="s">
-        <v>202</v>
-      </c>
-      <c r="I69" s="0" t="s">
-        <v>68</v>
-      </c>
-      <c r="J69" s="0" t="n">
-        <v>10281</v>
-      </c>
-      <c r="K69" s="0" t="n">
-        <v>44012</v>
-      </c>
-      <c r="L69" s="0" t="s">
-        <v>228</v>
-      </c>
-      <c r="M69" s="0" t="s">
-        <v>382</v>
-      </c>
-      <c r="N69" s="0" t="n">
-        <v>1023</v>
-      </c>
-      <c r="O69" s="0" t="s">
-        <v>383</v>
-      </c>
-      <c r="P69" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q69" s="0" t="s">
-        <v>345</v>
-      </c>
-      <c r="R69" s="0" t="s">
-        <v>384</v>
-      </c>
-      <c r="S69" s="0" t="s">
-        <v>385</v>
-      </c>
-      <c r="T69" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="U69" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="V69" s="0" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="W69" s="0" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="X69" s="0" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="Y69" s="0" t="n">
-        <v>2.55</v>
-      </c>
-    </row>
-    <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="0" t="s">
-        <v>386</v>
-      </c>
-      <c r="B70" s="0" t="s">
-        <v>63</v>
-      </c>
-      <c r="C70" s="0" t="s">
-        <v>341</v>
-      </c>
-      <c r="D70" s="0" t="s">
-        <v>342</v>
-      </c>
-      <c r="E70" s="0" t="n">
-        <v>31</v>
-      </c>
-      <c r="F70" s="0" t="s">
-        <v>377</v>
-      </c>
-      <c r="G70" s="0" t="s">
-        <v>66</v>
-      </c>
-      <c r="H70" s="0" t="s">
-        <v>202</v>
-      </c>
-      <c r="I70" s="0" t="s">
-        <v>68</v>
-      </c>
-      <c r="J70" s="0" t="n">
-        <v>10282</v>
-      </c>
-      <c r="K70" s="0" t="n">
-        <v>44012</v>
-      </c>
-      <c r="L70" s="0" t="s">
-        <v>228</v>
-      </c>
-      <c r="M70" s="0" t="s">
-        <v>387</v>
-      </c>
-      <c r="N70" s="0" t="n">
-        <v>1026</v>
-      </c>
-      <c r="O70" s="0" t="s">
-        <v>388</v>
-      </c>
-      <c r="P70" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q70" s="0" t="s">
-        <v>345</v>
-      </c>
-      <c r="R70" s="0" t="s">
-        <v>384</v>
-      </c>
-      <c r="S70" s="0" t="s">
-        <v>389</v>
-      </c>
-      <c r="T70" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="U70" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="V70" s="0" t="n">
-        <v>0.63</v>
-      </c>
-      <c r="W70" s="0" t="n">
-        <v>0.89</v>
-      </c>
-      <c r="X70" s="0" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="Y70" s="0" t="n">
-        <v>3.03</v>
-      </c>
-    </row>
-    <row r="71" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="0" t="s">
-        <v>390</v>
-      </c>
-      <c r="B71" s="0" t="s">
-        <v>63</v>
-      </c>
-      <c r="C71" s="0" t="s">
-        <v>341</v>
-      </c>
-      <c r="D71" s="0" t="s">
-        <v>342</v>
-      </c>
-      <c r="E71" s="0" t="n">
-        <v>32</v>
-      </c>
-      <c r="F71" s="0" t="s">
-        <v>391</v>
-      </c>
-      <c r="G71" s="0" t="s">
-        <v>66</v>
-      </c>
-      <c r="H71" s="0" t="s">
-        <v>202</v>
-      </c>
-      <c r="I71" s="0" t="s">
-        <v>68</v>
-      </c>
-      <c r="J71" s="0" t="n">
-        <v>10290</v>
-      </c>
-      <c r="K71" s="0" t="n">
-        <v>44012</v>
-      </c>
-      <c r="L71" s="0" t="s">
-        <v>69</v>
-      </c>
-      <c r="M71" s="0" t="s">
-        <v>392</v>
-      </c>
-      <c r="N71" s="0" t="n">
-        <v>95</v>
-      </c>
-      <c r="O71" s="0" t="s">
-        <v>393</v>
-      </c>
-      <c r="P71" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q71" s="0" t="s">
-        <v>345</v>
-      </c>
-      <c r="R71" s="0" t="s">
-        <v>346</v>
-      </c>
-      <c r="S71" s="2" t="s">
-        <v>394</v>
-      </c>
-      <c r="T71" s="0" t="s">
-        <v>74</v>
-      </c>
-      <c r="U71" s="0" t="s">
-        <v>75</v>
-      </c>
-      <c r="V71" s="0" t="n">
-        <v>10.2</v>
-      </c>
-      <c r="W71" s="0" t="n">
-        <v>27.2</v>
-      </c>
-      <c r="X71" s="0" t="n">
-        <v>53.3</v>
-      </c>
-      <c r="Y71" s="0" t="n">
-        <v>92.1</v>
-      </c>
-    </row>
-    <row r="72" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="0" t="s">
-        <v>76</v>
-      </c>
-      <c r="B72" s="0" t="s">
-        <v>63</v>
-      </c>
-      <c r="C72" s="0" t="s">
-        <v>341</v>
-      </c>
-      <c r="D72" s="0" t="s">
-        <v>342</v>
-      </c>
-      <c r="E72" s="0" t="n">
-        <v>32</v>
-      </c>
-      <c r="F72" s="0" t="s">
-        <v>391</v>
-      </c>
-      <c r="G72" s="0" t="s">
-        <v>66</v>
-      </c>
-      <c r="H72" s="0" t="s">
-        <v>202</v>
-      </c>
-      <c r="I72" s="0" t="s">
-        <v>68</v>
-      </c>
-      <c r="J72" s="0" t="n">
-        <v>10291</v>
-      </c>
-      <c r="K72" s="0" t="n">
-        <v>44012</v>
-      </c>
-      <c r="L72" s="0" t="s">
-        <v>331</v>
-      </c>
-      <c r="M72" s="0" t="s">
-        <v>395</v>
-      </c>
-      <c r="N72" s="0" t="n">
-        <v>301</v>
-      </c>
-      <c r="O72" s="0" t="s">
-        <v>396</v>
-      </c>
-      <c r="P72" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q72" s="0" t="s">
-        <v>345</v>
-      </c>
-      <c r="R72" s="0" t="s">
-        <v>346</v>
-      </c>
-      <c r="S72" s="2" t="s">
-        <v>397</v>
-      </c>
-      <c r="T72" s="0" t="s">
-        <v>81</v>
-      </c>
-      <c r="U72" s="0" t="s">
-        <v>82</v>
-      </c>
-      <c r="V72" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="W72" s="0" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="X72" s="0" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="Y72" s="0" t="n">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="0" t="s">
-        <v>398</v>
-      </c>
-      <c r="B73" s="0" t="s">
-        <v>63</v>
-      </c>
-      <c r="C73" s="0" t="s">
-        <v>341</v>
-      </c>
-      <c r="D73" s="0" t="s">
-        <v>342</v>
-      </c>
-      <c r="E73" s="0" t="n">
-        <v>32</v>
-      </c>
-      <c r="F73" s="0" t="s">
-        <v>391</v>
-      </c>
-      <c r="G73" s="0" t="s">
-        <v>66</v>
-      </c>
-      <c r="H73" s="0" t="s">
-        <v>202</v>
-      </c>
-      <c r="I73" s="0" t="s">
-        <v>68</v>
-      </c>
-      <c r="J73" s="0" t="n">
-        <v>10292</v>
-      </c>
-      <c r="K73" s="0" t="n">
-        <v>44012</v>
-      </c>
-      <c r="L73" s="0" t="s">
-        <v>69</v>
-      </c>
-      <c r="M73" s="0" t="s">
-        <v>399</v>
-      </c>
-      <c r="N73" s="0" t="n">
-        <v>1021</v>
-      </c>
-      <c r="O73" s="0" t="s">
-        <v>400</v>
-      </c>
-      <c r="P73" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q73" s="0" t="s">
-        <v>345</v>
-      </c>
-      <c r="R73" s="0" t="s">
-        <v>384</v>
-      </c>
-      <c r="S73" s="0" t="s">
-        <v>401</v>
-      </c>
-      <c r="T73" s="0" t="s">
-        <v>74</v>
-      </c>
-      <c r="U73" s="0" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="0" t="s">
-        <v>402</v>
-      </c>
-      <c r="B74" s="0" t="s">
-        <v>63</v>
-      </c>
-      <c r="C74" s="0" t="s">
-        <v>341</v>
-      </c>
-      <c r="D74" s="0" t="s">
-        <v>342</v>
-      </c>
-      <c r="E74" s="0" t="n">
-        <v>32</v>
-      </c>
-      <c r="F74" s="0" t="s">
-        <v>391</v>
-      </c>
-      <c r="G74" s="0" t="s">
-        <v>66</v>
-      </c>
-      <c r="H74" s="0" t="s">
-        <v>202</v>
-      </c>
-      <c r="I74" s="0" t="s">
-        <v>68</v>
-      </c>
-      <c r="J74" s="0" t="n">
-        <v>10293</v>
-      </c>
-      <c r="K74" s="0" t="n">
-        <v>44012</v>
-      </c>
-      <c r="L74" s="0" t="s">
-        <v>69</v>
-      </c>
-      <c r="M74" s="0" t="s">
-        <v>403</v>
-      </c>
-      <c r="N74" s="0" t="n">
-        <v>1022</v>
-      </c>
-      <c r="O74" s="0" t="s">
-        <v>404</v>
-      </c>
-      <c r="P74" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q74" s="0" t="s">
-        <v>345</v>
-      </c>
-      <c r="R74" s="0" t="s">
-        <v>384</v>
-      </c>
-      <c r="S74" s="0" t="s">
-        <v>405</v>
-      </c>
-      <c r="T74" s="0" t="s">
-        <v>74</v>
-      </c>
-      <c r="U74" s="0" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="75" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="0" t="s">
-        <v>406</v>
-      </c>
-      <c r="B75" s="0" t="s">
-        <v>63</v>
-      </c>
-      <c r="C75" s="0" t="s">
-        <v>341</v>
-      </c>
-      <c r="D75" s="0" t="s">
-        <v>342</v>
-      </c>
-      <c r="E75" s="0" t="n">
-        <v>32</v>
-      </c>
-      <c r="F75" s="0" t="s">
-        <v>391</v>
-      </c>
-      <c r="G75" s="0" t="s">
-        <v>66</v>
-      </c>
-      <c r="H75" s="0" t="s">
-        <v>202</v>
-      </c>
-      <c r="I75" s="0" t="s">
-        <v>68</v>
-      </c>
-      <c r="J75" s="0" t="n">
-        <v>10294</v>
-      </c>
-      <c r="K75" s="0" t="n">
-        <v>44012</v>
-      </c>
-      <c r="L75" s="0" t="s">
-        <v>331</v>
-      </c>
-      <c r="M75" s="0" t="s">
-        <v>407</v>
-      </c>
-      <c r="N75" s="0" t="n">
-        <v>670</v>
-      </c>
-      <c r="O75" s="0" t="s">
-        <v>408</v>
-      </c>
-      <c r="P75" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q75" s="0" t="s">
-        <v>345</v>
-      </c>
-      <c r="R75" s="0" t="s">
-        <v>384</v>
-      </c>
-      <c r="S75" s="2" t="s">
-        <v>409</v>
-      </c>
-      <c r="T75" s="0" t="s">
-        <v>81</v>
-      </c>
-      <c r="U75" s="0" t="s">
-        <v>75</v>
-      </c>
-      <c r="V75" s="0" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="W75" s="0" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="X75" s="0" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="Y75" s="0" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="76" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="0" t="s">
-        <v>269</v>
-      </c>
-      <c r="B76" s="0" t="s">
-        <v>63</v>
-      </c>
-      <c r="C76" s="0" t="s">
-        <v>341</v>
-      </c>
-      <c r="D76" s="0" t="s">
-        <v>342</v>
-      </c>
-      <c r="E76" s="0" t="n">
-        <v>33</v>
-      </c>
-      <c r="F76" s="0" t="s">
-        <v>273</v>
-      </c>
-      <c r="G76" s="0" t="s">
-        <v>66</v>
-      </c>
-      <c r="H76" s="0" t="s">
-        <v>202</v>
-      </c>
-      <c r="I76" s="0" t="s">
-        <v>68</v>
-      </c>
-      <c r="J76" s="0" t="n">
-        <v>10300</v>
-      </c>
-      <c r="K76" s="0" t="n">
-        <v>44012</v>
-      </c>
-      <c r="L76" s="0" t="s">
-        <v>86</v>
-      </c>
-      <c r="M76" s="0" t="s">
-        <v>410</v>
-      </c>
-      <c r="N76" s="0" t="n">
-        <v>24</v>
-      </c>
-      <c r="O76" s="0" t="s">
-        <v>411</v>
-      </c>
-      <c r="P76" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q76" s="0" t="s">
-        <v>345</v>
-      </c>
-      <c r="R76" s="0" t="s">
-        <v>346</v>
-      </c>
-      <c r="S76" s="2" t="s">
-        <v>412</v>
-      </c>
-      <c r="T76" s="0" t="s">
-        <v>81</v>
-      </c>
-      <c r="U76" s="0" t="s">
-        <v>75</v>
-      </c>
-      <c r="V76" s="0" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="W76" s="0" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="X76" s="0" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="Y76" s="0" t="n">
-        <v>7.3</v>
-      </c>
-    </row>
-    <row r="77" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="0" t="s">
-        <v>413</v>
-      </c>
-      <c r="B77" s="0" t="s">
-        <v>63</v>
-      </c>
-      <c r="C77" s="0" t="s">
-        <v>341</v>
-      </c>
-      <c r="D77" s="0" t="s">
-        <v>342</v>
-      </c>
-      <c r="E77" s="0" t="n">
-        <v>34</v>
-      </c>
-      <c r="F77" s="0" t="s">
-        <v>414</v>
-      </c>
-      <c r="G77" s="0" t="s">
-        <v>66</v>
-      </c>
-      <c r="H77" s="0" t="s">
-        <v>85</v>
-      </c>
-      <c r="I77" s="0" t="s">
-        <v>68</v>
-      </c>
-      <c r="J77" s="0" t="n">
-        <v>10310</v>
-      </c>
-      <c r="K77" s="0" t="n">
-        <v>44012</v>
-      </c>
-      <c r="L77" s="0" t="s">
-        <v>86</v>
-      </c>
-      <c r="M77" s="0" t="s">
-        <v>415</v>
-      </c>
-      <c r="N77" s="0" t="n">
-        <v>223</v>
-      </c>
-      <c r="O77" s="0" t="s">
-        <v>416</v>
-      </c>
-      <c r="P77" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q77" s="0" t="s">
-        <v>345</v>
-      </c>
-      <c r="R77" s="0" t="s">
-        <v>346</v>
-      </c>
-      <c r="S77" s="2" t="s">
-        <v>417</v>
-      </c>
-      <c r="T77" s="0" t="s">
-        <v>81</v>
-      </c>
-      <c r="U77" s="0" t="s">
-        <v>75</v>
-      </c>
-      <c r="V77" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="W77" s="0" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="X77" s="0" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="Y77" s="0" t="n">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="78" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="0" t="s">
-        <v>418</v>
-      </c>
-      <c r="B78" s="0" t="s">
-        <v>63</v>
-      </c>
-      <c r="C78" s="0" t="s">
-        <v>341</v>
-      </c>
-      <c r="D78" s="0" t="s">
-        <v>342</v>
-      </c>
-      <c r="E78" s="0" t="n">
-        <v>35</v>
-      </c>
-      <c r="F78" s="0" t="s">
-        <v>419</v>
-      </c>
-      <c r="G78" s="0" t="s">
-        <v>66</v>
-      </c>
-      <c r="H78" s="0" t="s">
-        <v>85</v>
-      </c>
-      <c r="I78" s="0" t="s">
-        <v>68</v>
-      </c>
-      <c r="J78" s="0" t="n">
-        <v>10320</v>
-      </c>
-      <c r="K78" s="0" t="n">
-        <v>44012</v>
-      </c>
-      <c r="L78" s="0" t="s">
-        <v>86</v>
-      </c>
-      <c r="M78" s="0" t="s">
-        <v>420</v>
-      </c>
-      <c r="N78" s="0" t="n">
-        <v>207</v>
-      </c>
-      <c r="O78" s="0" t="s">
-        <v>421</v>
-      </c>
-      <c r="P78" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q78" s="0" t="s">
-        <v>345</v>
-      </c>
-      <c r="R78" s="0" t="s">
-        <v>346</v>
-      </c>
-      <c r="S78" s="2" t="s">
-        <v>422</v>
-      </c>
-      <c r="T78" s="0" t="s">
-        <v>81</v>
-      </c>
-      <c r="U78" s="0" t="s">
-        <v>75</v>
-      </c>
-      <c r="V78" s="0" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="W78" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="X78" s="0" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="Y78" s="0" t="n">
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="79" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="0" t="s">
-        <v>423</v>
-      </c>
-      <c r="B79" s="0" t="s">
-        <v>63</v>
-      </c>
-      <c r="C79" s="0" t="s">
-        <v>341</v>
-      </c>
-      <c r="D79" s="0" t="s">
-        <v>342</v>
-      </c>
-      <c r="E79" s="0" t="n">
-        <v>36</v>
-      </c>
-      <c r="F79" s="0" t="s">
-        <v>424</v>
-      </c>
-      <c r="G79" s="0" t="s">
-        <v>66</v>
-      </c>
-      <c r="H79" s="0" t="s">
-        <v>85</v>
-      </c>
-      <c r="I79" s="0" t="s">
-        <v>68</v>
-      </c>
-      <c r="J79" s="0" t="n">
-        <v>10330</v>
-      </c>
-      <c r="K79" s="0" t="n">
-        <v>44012</v>
-      </c>
-      <c r="L79" s="0" t="s">
-        <v>228</v>
-      </c>
-      <c r="M79" s="0" t="s">
-        <v>425</v>
-      </c>
-      <c r="N79" s="0" t="n">
-        <v>109</v>
-      </c>
-      <c r="O79" s="0" t="s">
-        <v>426</v>
-      </c>
-      <c r="P79" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q79" s="0" t="s">
-        <v>345</v>
-      </c>
-      <c r="R79" s="0" t="s">
-        <v>346</v>
-      </c>
-      <c r="S79" s="2" t="s">
-        <v>427</v>
-      </c>
-      <c r="T79" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="U79" s="0" t="s">
-        <v>75</v>
-      </c>
-      <c r="V79" s="0" t="n">
-        <v>3.28</v>
-      </c>
-      <c r="W79" s="0" t="n">
-        <v>6.65</v>
-      </c>
-      <c r="X79" s="0" t="n">
-        <v>15.13</v>
-      </c>
-      <c r="Y79" s="0" t="n">
-        <v>24.37</v>
-      </c>
-    </row>
-    <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="0" t="s">
-        <v>428</v>
-      </c>
-      <c r="B80" s="0" t="s">
-        <v>63</v>
-      </c>
-      <c r="C80" s="0" t="s">
-        <v>341</v>
-      </c>
-      <c r="D80" s="0" t="s">
-        <v>342</v>
-      </c>
-      <c r="E80" s="0" t="n">
-        <v>36</v>
-      </c>
-      <c r="F80" s="0" t="s">
-        <v>424</v>
-      </c>
-      <c r="G80" s="0" t="s">
-        <v>66</v>
-      </c>
-      <c r="H80" s="0" t="s">
-        <v>85</v>
-      </c>
-      <c r="I80" s="0" t="s">
-        <v>68</v>
-      </c>
-      <c r="J80" s="0" t="n">
-        <v>10331</v>
-      </c>
-      <c r="K80" s="0" t="n">
-        <v>44012</v>
-      </c>
-      <c r="L80" s="0" t="s">
-        <v>228</v>
-      </c>
-      <c r="M80" s="0" t="s">
-        <v>429</v>
-      </c>
-      <c r="N80" s="0" t="n">
-        <v>1028</v>
-      </c>
-      <c r="O80" s="0" t="s">
-        <v>430</v>
-      </c>
-      <c r="P80" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q80" s="0" t="s">
-        <v>345</v>
-      </c>
-      <c r="R80" s="0" t="s">
-        <v>384</v>
-      </c>
-      <c r="S80" s="0" t="s">
-        <v>431</v>
-      </c>
-      <c r="T80" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="U80" s="0" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="81" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="0" t="s">
-        <v>432</v>
-      </c>
-      <c r="B81" s="0" t="s">
-        <v>63</v>
-      </c>
-      <c r="C81" s="0" t="s">
-        <v>341</v>
-      </c>
-      <c r="D81" s="0" t="s">
-        <v>342</v>
-      </c>
-      <c r="E81" s="0" t="n">
-        <v>37</v>
-      </c>
-      <c r="F81" s="0" t="s">
-        <v>433</v>
-      </c>
-      <c r="G81" s="0" t="s">
-        <v>66</v>
-      </c>
-      <c r="H81" s="0" t="s">
-        <v>85</v>
-      </c>
-      <c r="I81" s="0" t="s">
-        <v>68</v>
-      </c>
-      <c r="J81" s="0" t="n">
-        <v>10340</v>
-      </c>
-      <c r="K81" s="0" t="n">
-        <v>44012</v>
-      </c>
-      <c r="L81" s="0" t="s">
-        <v>86</v>
-      </c>
-      <c r="M81" s="0" t="s">
-        <v>434</v>
-      </c>
-      <c r="N81" s="0" t="n">
-        <v>306</v>
-      </c>
-      <c r="O81" s="0" t="s">
-        <v>435</v>
-      </c>
-      <c r="P81" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q81" s="0" t="s">
-        <v>345</v>
-      </c>
-      <c r="R81" s="0" t="s">
-        <v>346</v>
-      </c>
-      <c r="S81" s="2" t="s">
-        <v>436</v>
-      </c>
-      <c r="T81" s="0" t="s">
-        <v>81</v>
-      </c>
-      <c r="U81" s="0" t="s">
-        <v>75</v>
-      </c>
-      <c r="V81" s="0" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="W81" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="X81" s="0" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="Y81" s="0" t="n">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="82" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="0" t="s">
-        <v>437</v>
-      </c>
-      <c r="B82" s="0" t="s">
-        <v>63</v>
-      </c>
-      <c r="C82" s="0" t="s">
-        <v>341</v>
-      </c>
-      <c r="D82" s="0" t="s">
-        <v>342</v>
-      </c>
-      <c r="E82" s="0" t="n">
-        <v>38</v>
-      </c>
-      <c r="F82" s="0" t="s">
-        <v>438</v>
-      </c>
-      <c r="G82" s="0" t="s">
-        <v>314</v>
-      </c>
-      <c r="H82" s="0" t="s">
-        <v>439</v>
-      </c>
-      <c r="I82" s="0" t="s">
-        <v>68</v>
-      </c>
-      <c r="J82" s="0" t="n">
-        <v>10350</v>
-      </c>
-      <c r="K82" s="0" t="n">
-        <v>44012</v>
-      </c>
-      <c r="L82" s="0" t="s">
-        <v>228</v>
-      </c>
-      <c r="M82" s="0" t="s">
-        <v>440</v>
-      </c>
-      <c r="N82" s="0" t="n">
-        <v>79</v>
-      </c>
-      <c r="O82" s="0" t="s">
-        <v>441</v>
-      </c>
-      <c r="P82" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q82" s="0" t="s">
-        <v>345</v>
-      </c>
-      <c r="R82" s="0" t="s">
-        <v>346</v>
-      </c>
-      <c r="S82" s="2" t="s">
-        <v>442</v>
-      </c>
-      <c r="T82" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="U82" s="0" t="s">
-        <v>75</v>
-      </c>
-      <c r="V82" s="0" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="W82" s="0" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="X82" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="Y82" s="0" t="n">
-        <v>3.9</v>
-      </c>
-    </row>
-    <row r="83" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="0" t="s">
-        <v>443</v>
-      </c>
-      <c r="B83" s="0" t="s">
-        <v>63</v>
-      </c>
-      <c r="C83" s="0" t="s">
-        <v>341</v>
-      </c>
-      <c r="D83" s="0" t="s">
-        <v>342</v>
-      </c>
-      <c r="E83" s="0" t="n">
-        <v>39</v>
-      </c>
-      <c r="F83" s="0" t="s">
-        <v>444</v>
-      </c>
-      <c r="G83" s="0" t="s">
-        <v>66</v>
-      </c>
-      <c r="H83" s="0" t="s">
-        <v>161</v>
-      </c>
-      <c r="I83" s="0" t="s">
-        <v>68</v>
-      </c>
-      <c r="J83" s="0" t="n">
-        <v>10360</v>
-      </c>
-      <c r="K83" s="0" t="n">
-        <v>44012</v>
-      </c>
-      <c r="L83" s="0" t="s">
-        <v>86</v>
-      </c>
-      <c r="M83" s="0" t="s">
-        <v>445</v>
-      </c>
-      <c r="N83" s="0" t="n">
-        <v>172</v>
-      </c>
-      <c r="O83" s="0" t="s">
-        <v>446</v>
-      </c>
-      <c r="P83" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q83" s="0" t="s">
-        <v>345</v>
-      </c>
-      <c r="R83" s="0" t="s">
-        <v>346</v>
-      </c>
-      <c r="S83" s="2" t="s">
-        <v>447</v>
-      </c>
-      <c r="T83" s="0" t="s">
-        <v>81</v>
-      </c>
-      <c r="U83" s="0" t="s">
-        <v>75</v>
-      </c>
-      <c r="V83" s="0" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="W83" s="0" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="X83" s="0" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="Y83" s="0" t="n">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="84" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="0" t="s">
-        <v>448</v>
-      </c>
-      <c r="B84" s="0" t="s">
-        <v>63</v>
-      </c>
-      <c r="C84" s="0" t="s">
-        <v>341</v>
-      </c>
-      <c r="D84" s="0" t="s">
-        <v>342</v>
-      </c>
-      <c r="E84" s="0" t="n">
-        <v>39</v>
-      </c>
-      <c r="F84" s="0" t="s">
-        <v>444</v>
-      </c>
-      <c r="G84" s="0" t="s">
-        <v>66</v>
-      </c>
-      <c r="H84" s="0" t="s">
-        <v>161</v>
-      </c>
-      <c r="I84" s="0" t="s">
-        <v>68</v>
-      </c>
-      <c r="J84" s="0" t="n">
-        <v>10361</v>
-      </c>
-      <c r="K84" s="0" t="n">
-        <v>44012</v>
-      </c>
-      <c r="L84" s="0" t="s">
-        <v>86</v>
-      </c>
-      <c r="M84" s="0" t="s">
-        <v>449</v>
-      </c>
-      <c r="N84" s="0" t="n">
-        <v>742</v>
-      </c>
-      <c r="O84" s="0" t="s">
-        <v>450</v>
-      </c>
-      <c r="P84" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q84" s="0" t="s">
-        <v>345</v>
-      </c>
-      <c r="R84" s="0" t="s">
-        <v>346</v>
-      </c>
-      <c r="S84" s="2" t="s">
-        <v>447</v>
-      </c>
-      <c r="T84" s="0" t="s">
-        <v>81</v>
-      </c>
-      <c r="U84" s="0" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="85" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="0" t="s">
-        <v>451</v>
-      </c>
-      <c r="B85" s="0" t="s">
-        <v>63</v>
-      </c>
-      <c r="C85" s="0" t="s">
-        <v>341</v>
-      </c>
-      <c r="D85" s="0" t="s">
-        <v>342</v>
-      </c>
-      <c r="E85" s="0" t="n">
-        <v>40</v>
-      </c>
-      <c r="F85" s="0" t="s">
-        <v>444</v>
-      </c>
-      <c r="G85" s="0" t="s">
-        <v>66</v>
-      </c>
-      <c r="H85" s="0" t="s">
-        <v>161</v>
-      </c>
-      <c r="I85" s="0" t="s">
-        <v>68</v>
-      </c>
-      <c r="J85" s="0" t="n">
-        <v>10370</v>
-      </c>
-      <c r="K85" s="0" t="n">
-        <v>44012</v>
-      </c>
-      <c r="L85" s="0" t="s">
-        <v>86</v>
-      </c>
-      <c r="M85" s="0" t="s">
-        <v>452</v>
-      </c>
-      <c r="N85" s="0" t="n">
-        <v>266</v>
-      </c>
-      <c r="O85" s="0" t="s">
-        <v>453</v>
-      </c>
-      <c r="P85" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q85" s="0" t="s">
-        <v>345</v>
-      </c>
-      <c r="R85" s="0" t="s">
-        <v>346</v>
-      </c>
-      <c r="S85" s="2" t="s">
-        <v>454</v>
-      </c>
-      <c r="T85" s="0" t="s">
-        <v>81</v>
-      </c>
-      <c r="U85" s="0" t="s">
-        <v>75</v>
-      </c>
-      <c r="V85" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="W85" s="0" t="n">
+      <c r="X88" s="1" t="n">
         <v>1.1</v>
       </c>
-      <c r="X85" s="0" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="Y85" s="0" t="n">
-        <v>3.1</v>
-      </c>
-    </row>
-    <row r="86" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="0" t="s">
-        <v>455</v>
-      </c>
-      <c r="B86" s="0" t="s">
-        <v>63</v>
-      </c>
-      <c r="C86" s="0" t="s">
-        <v>341</v>
-      </c>
-      <c r="D86" s="0" t="s">
-        <v>342</v>
-      </c>
-      <c r="E86" s="0" t="n">
-        <v>40</v>
-      </c>
-      <c r="F86" s="0" t="s">
-        <v>444</v>
-      </c>
-      <c r="G86" s="0" t="s">
-        <v>66</v>
-      </c>
-      <c r="H86" s="0" t="s">
-        <v>161</v>
-      </c>
-      <c r="I86" s="0" t="s">
-        <v>68</v>
-      </c>
-      <c r="J86" s="0" t="n">
-        <v>10371</v>
-      </c>
-      <c r="K86" s="0" t="n">
-        <v>44012</v>
-      </c>
-      <c r="L86" s="0" t="s">
-        <v>86</v>
-      </c>
-      <c r="M86" s="0" t="s">
-        <v>456</v>
-      </c>
-      <c r="N86" s="0" t="n">
-        <v>1030</v>
-      </c>
-      <c r="O86" s="0" t="s">
-        <v>457</v>
-      </c>
-      <c r="P86" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q86" s="0" t="s">
-        <v>345</v>
-      </c>
-      <c r="R86" s="0" t="s">
-        <v>384</v>
-      </c>
-      <c r="S86" s="0" t="s">
-        <v>458</v>
-      </c>
-      <c r="T86" s="0" t="s">
-        <v>81</v>
-      </c>
-      <c r="U86" s="0" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="87" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="0" t="s">
-        <v>459</v>
-      </c>
-      <c r="B87" s="0" t="s">
-        <v>63</v>
-      </c>
-      <c r="C87" s="0" t="s">
-        <v>341</v>
-      </c>
-      <c r="D87" s="0" t="s">
-        <v>342</v>
-      </c>
-      <c r="E87" s="0" t="n">
-        <v>41</v>
-      </c>
-      <c r="F87" s="0" t="s">
-        <v>460</v>
-      </c>
-      <c r="G87" s="0" t="s">
-        <v>314</v>
-      </c>
-      <c r="H87" s="0" t="s">
-        <v>439</v>
-      </c>
-      <c r="I87" s="0" t="s">
-        <v>68</v>
-      </c>
-      <c r="J87" s="0" t="n">
-        <v>10380</v>
-      </c>
-      <c r="K87" s="0" t="n">
-        <v>44012</v>
-      </c>
-      <c r="L87" s="0" t="s">
-        <v>86</v>
-      </c>
-      <c r="M87" s="0" t="s">
-        <v>461</v>
-      </c>
-      <c r="N87" s="0" t="n">
-        <v>189</v>
-      </c>
-      <c r="O87" s="0" t="s">
-        <v>462</v>
-      </c>
-      <c r="P87" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q87" s="0" t="s">
-        <v>345</v>
-      </c>
-      <c r="R87" s="0" t="s">
-        <v>346</v>
-      </c>
-      <c r="S87" s="2" t="s">
-        <v>463</v>
-      </c>
-      <c r="T87" s="0" t="s">
-        <v>81</v>
-      </c>
-      <c r="U87" s="0" t="s">
-        <v>75</v>
-      </c>
-      <c r="V87" s="0" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="W87" s="0" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="X87" s="0" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="Y87" s="0" t="n">
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="0" t="s">
-        <v>464</v>
-      </c>
-      <c r="B88" s="0" t="s">
-        <v>63</v>
-      </c>
-      <c r="C88" s="0" t="s">
-        <v>341</v>
-      </c>
-      <c r="D88" s="0" t="s">
-        <v>342</v>
-      </c>
-      <c r="E88" s="0" t="n">
-        <v>42</v>
-      </c>
-      <c r="F88" s="0" t="s">
-        <v>465</v>
-      </c>
-      <c r="G88" s="0" t="s">
-        <v>314</v>
-      </c>
-      <c r="H88" s="0" t="s">
-        <v>439</v>
-      </c>
-      <c r="I88" s="0" t="s">
-        <v>68</v>
-      </c>
-      <c r="J88" s="0" t="n">
-        <v>10390</v>
-      </c>
-      <c r="K88" s="0" t="n">
-        <v>44012</v>
-      </c>
-      <c r="L88" s="0" t="s">
-        <v>86</v>
-      </c>
-      <c r="M88" s="0" t="s">
-        <v>466</v>
-      </c>
-      <c r="N88" s="0" t="n">
-        <v>1025</v>
-      </c>
-      <c r="O88" s="0" t="s">
-        <v>467</v>
-      </c>
-      <c r="P88" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q88" s="0" t="s">
-        <v>345</v>
-      </c>
-      <c r="R88" s="0" t="s">
-        <v>384</v>
-      </c>
-      <c r="S88" s="0" t="s">
-        <v>468</v>
-      </c>
-      <c r="T88" s="0" t="s">
-        <v>81</v>
-      </c>
-      <c r="U88" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="V88" s="0" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="W88" s="0" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="X88" s="0" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="Y88" s="0" t="n">
+      <c r="Y88" s="1" t="n">
         <v>2.3</v>
       </c>
     </row>

--- a/haawks-indicator-shortlist.xlsx
+++ b/haawks-indicator-shortlist.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1381" uniqueCount="469">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1604" uniqueCount="567">
   <si>
     <t xml:space="preserve">Indicator</t>
   </si>
@@ -1491,14 +1491,321 @@
   <si>
     <t xml:space="preserve">Gross Domestic Product (GDP) measures the annualized change in the inflation-adjusted value of all goods and services produced by the economy. It is the broadest measure of economic activity and the primary indicator of the economy''s health. A stronger than expected number should be taken as positive for the CAD and a lower than expected number as negative to the CAD.</t>
   </si>
+  <si>
+    <t xml:space="preserve">Norway GDP QoQ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Norway</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00091;0.7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Norway Gross Domestic Product (GDP) QoQ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NOK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Statistisk Sentralbyra</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gross Domestic Product (GDP) measures the annualized change in the inflation-adjusted value of all goods and services produced by the economy. It is the broadest measure of economic activity and the primary indicator of the economy's health.
+A higher than expected reading should be taken as positive/bullish for the NOK, while a lower than expected reading should be taken as negative/bearish for the NOK.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Norway GDP Mainland QoQ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00092;0.7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Norway Gross Domestic Product (GDP) Mainland QoQ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Statistics Norway</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GDP measures summary value of goods and services generated in a relevant country or region. A region's gross domestic product, or GDP, is one of the ways for measuring the size of its economy. Expenditure approach - Total expenditures on all finished goods and services produced within the economy. Calculation: GDP using the expenditure approach is derived as the sum of all final expenditures, changes in inventories and exports of goods and services less imports of goods and services. Market influence of GDP: Unexpectedly high quarterly GDP growth is perceived to be potentially inflationary if the economy is close to full capacity; this, in turn, causes bond prices to drop and yields and interest rates to rise. Where the stock market is concerned on one side higher than expected growth leads to higher profits and that's good for the stock market. On the other, it may increase expected inflation and lead to higher interest rates that are bad for the stock market.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Norway Core Retail Sales MoM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00047;0.1 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Retail sales data represents total consumer purchase from retail stores. It provides valuable information about consumer spending which makes up the consumption part of GDP.
+A higher than expected reading should be taken as positive/bullish for the NOK , while a lower than expected reading should be taken as negative/bearish for the NOK.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Norway Unemployment Rate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00049;3.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LFS- Labour Force Survey. Three-months moving average. Employed persons are persons aged 16-74 who performed work for pay or profit for at least one hour in the survey week, or who were temporarily absent from work because of illness,holidays etc. Conscripts are classified as employed persons. Persons engaged by government measures to promote employment are also included if they receive wages. Unemployed persons are persons who were not employed in the survey week,but who had been seeking work during the preceding four weeks, and were available for work within the next two weeks. Persons in the labour force are either employed or unemployed. The remaining group of persons is labelled not in the labour force. Unemployed persons and persons not in the labour force constitute the group non-employed persons.
+A higher than expected reading should be taken as negative/bearish for the NOK , while a lower than expected reading should be taken as positive/bullish for the NOK.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Norway CPI MoM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00041;1.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Norway Consumer Price Index (CPI) MoM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The consumer price index (CPI) is a measure of change over a specified period of time in the general level of prices of goods and services that a given population acquires, uses or pays for consumption. It compares a household's cost for a specific basket of finished goods and services with the cost of the same basket during an earlier benchmark period.
+A higher than expected reading should be taken as positive/bullish for the NOK , while a lower than expected reading should be taken as negative/bearish for the NOK.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Norway CPI YoY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00042;6.9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Norway Consumer Price Index (CPI) YoY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Norges Bank Interest Rate Decision</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00017;1.75</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Norway Interest Rate Decision</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Norges Bank</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Norges Bank Monetary Policy Committee's decision on where to set the overnight deposit rate. Traders watch interest rate changes closely as short term interest rates are the primary factor in currency valuation.
+A higher than expected rate is positive/bullish for the NOK, while a lower than expected rate is negative/bearish for the NOK.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sweden GDP QoQ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sweden</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SCB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00071;0.7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sweden Gross Domestic Product (GDP) QoQ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SEK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Statistiska Centralbyran</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gross Domestic Product (GDP) measures the annualized change in the inflation-adjusted value of all goods and services produced by the economy. It is the broadest measure of economic activity and the primary indicator of the economy's health. The quarterly change measures the seasonally adjusted change in percentage compared to the previous quarter. A higher than expected reading should be taken as positive/bullish for the SEK, while a lower than expected reading should be taken as negative/bearish for the SEK.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sweden GDP YoY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00072;2.6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sweden Gross Domestic Product (GDP) YoY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gross Domestic Product (GDP) measures the annualized change in the inflation-adjusted value of all goods and services produced by the economy. It is the broadest measure of economic activity and the primary indicator of the economy's health. The year-on-year change measures the seasonally adjusted change in percentage during a quarter compared to the equivalent period during the previous year. A higher than expected reading should be taken as positive/bullish for the SEK, while a lower than expected reading should be taken as negative/bearish for the SEK.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sweden Retail Sales MoM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00057;-0.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SCB - Statistics Sweden</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Retail trade excluding motor vehicles; including repair shops for personal and household goods.Adjusted for irregularity of the calendar.Retail sales data represents total consumer purchase from retail stores. It provides valuable information about consumer spending which makes up the consumption part of GDP.
+A higher than expected reading should be taken as positive/bullish for the SEK , while a lower than expected reading should be taken as negative/bearish for the SEK.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sweden Retail Sales YoY</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 00058;-5.1 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sweden Unemployment Rate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00059;6.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The definition for an unemployed person is: Persons (16-65 years) who were available for work (except for temporary illness) but did not work during the survey week, and who made specific efforts to find a job within the previous 4 weeks by going to an employment agency, by applying directly to an employer, by answering a job ad, or being on a union or professional register. The percentage number is calculated unemployed / (employed + unemployed).
+A higher than expected reading should be taken as negative/bearish for the SEK , while a lower than expected reading should be taken as positive/bullish for the SEK.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sweden CPI MoM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00051;1.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sweden Consumer Price Index (CPI) MoM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Consumer Price Index (CPI) measures the change in the price of goods and services from the perspective of the consumer. It is a key way to measure changes in purchasing trends and inflation.
+A higher than expected reading should be taken as positive/bullish for the SEK, while a lower than expected reading should be taken as negative/bearish for the SEK.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sweden CPI YoY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00052;10.8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sweden Consumer Price Index (CPI) YoY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sweden CPIF MoM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00053;1.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sweden Consumer Price Index at Constant Interest Rates (CPIF) MoM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sweden, Consumer Prices, By Commodity, Special Indexes, Underlying inflation CPIF, Index. The Underlying Inflation Rate according to CPIF (CPI at constant interest rates) differs from CPI by keeping interest rate for households mortgage interest payment at a constant rate. CPIF is calculated on request fromSveriges Riksbank (the Swedish central bank).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sweden CPIF YoY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00054;9.7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sweden Consumer Price Index at Constant Interest Rates (CPIF) YoY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Poland Interest Rate Decision</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Poland</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NBP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00141;6.75</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PLN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Narodowy Bank Polski</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The National Bank of Poland (NBP) Monetary Policy Committee's decision on where to set the benchmark interest rate. Traders watch interest rate changes closely as short term interest rates are the primary factor in currency valuation.
+A higher than expected rate is positive/bullish for the PLN, while a lower than expected rate is negative/bearish for the PLN.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bank of Russia Interest Rate Decision</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Russia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CBR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00003;7.50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Russia Interest Rate Decision</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RUB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Central Bank of Russia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Bank Rossii decision on short term interest rate. The decision on where to set interest rates depends mostly on growth outlook and inflation. The primary objective of the central bank is to achieve price stability. High interest rates attract foreigners looking for the best "risk-free" return on their money, which can dramatically increases demand for the nation's currency.
+A higher than expected rate is positive/bullish for the RUB, while a lower than expected rate is negative/bearish for the RUB.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ECB Main Refinancing Operations Rate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">European Union</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ECB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00021;1.25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eurozone Interest Rate Decision</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EUR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">European Central Bank</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The six members of the European Central Bank (ECB) Executive Board and the 16 governors of the euro area central banks vote on where to set the rate. Traders watch interest rate changes closely as short term interest rates are the primary factor in currency valuation.
+A higher than expected rate is positive/bullish for the EUR, while a lower than expected rate is negative/bearish for the EUR.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Turkey One-Week Repo Rate (policy rate)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Turkey</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TCMB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00013;10.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Turkey One-Week Repo Rate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TRY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Central Bank of the Republic of Turkey</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Central Bank of the Republic of Turkey's (CBRT) Monetary Policy Committee votes on where to set the overnight interest rate. Traders watch interest rate changes closely as short term interest rates are the primary factor in currency valuation.
+A higher than expected rate is positive/bullish for the TRY, while a lower than expected rate is negative/bearish for the TRY.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+    <numFmt numFmtId="166" formatCode="00000"/>
   </numFmts>
   <fonts count="5">
     <font>
@@ -1580,7 +1887,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1601,6 +1908,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1618,16 +1929,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Y88"/>
+  <dimension ref="A1:Y1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="L60" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="T66" activeCellId="0" sqref="T66"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="K1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="Z2" activeCellId="0" sqref="Z2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="28.93"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="33.23"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="28.93"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="33.23"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16384" min="16226" style="1" width="11.53"/>
   </cols>
   <sheetData>
@@ -1773,16 +2084,16 @@
         <v>40</v>
       </c>
       <c r="V2" s="1" t="n">
-        <v>1.139</v>
+        <v>1</v>
       </c>
       <c r="W2" s="1" t="n">
-        <v>2.353</v>
+        <v>2</v>
       </c>
       <c r="X2" s="1" t="n">
-        <v>3.672</v>
+        <v>3</v>
       </c>
       <c r="Y2" s="1" t="n">
-        <v>5.908</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1850,16 +2161,16 @@
         <v>40</v>
       </c>
       <c r="V3" s="1" t="n">
-        <v>0.584</v>
+        <v>0.5</v>
       </c>
       <c r="W3" s="1" t="n">
-        <v>1.284</v>
+        <v>1</v>
       </c>
       <c r="X3" s="1" t="n">
-        <v>2.173</v>
+        <v>2</v>
       </c>
       <c r="Y3" s="1" t="n">
-        <v>3.271</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1992,16 +2303,16 @@
         <v>40</v>
       </c>
       <c r="V5" s="1" t="n">
-        <v>0.187</v>
+        <v>0.2</v>
       </c>
       <c r="W5" s="1" t="n">
-        <v>0.395</v>
+        <v>0.4</v>
       </c>
       <c r="X5" s="1" t="n">
-        <v>0.621</v>
+        <v>0.6</v>
       </c>
       <c r="Y5" s="1" t="n">
-        <v>1.017</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8251,6 +8562,1291 @@
         <v>2.3</v>
       </c>
     </row>
+    <row r="89" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A89" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="G89" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="J89" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="K89" s="1" t="n">
+        <v>44008</v>
+      </c>
+      <c r="M89" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="N89" s="1" t="n">
+        <v>443</v>
+      </c>
+      <c r="O89" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="P89" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q89" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="R89" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="S89" s="3" t="s">
+        <v>476</v>
+      </c>
+      <c r="T89" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="U89" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="V89" s="1" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="W89" s="1" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="X89" s="1" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="Y89" s="1" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A90" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="G90" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="J90" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="K90" s="1" t="n">
+        <v>44008</v>
+      </c>
+      <c r="M90" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="N90" s="1" t="n">
+        <v>1257</v>
+      </c>
+      <c r="O90" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="P90" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q90" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="R90" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="S90" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="T90" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="U90" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="V90" s="1" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="W90" s="1" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="X90" s="1" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="Y90" s="1" t="n">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="91" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A91" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="D91" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="G91" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="J91" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="K91" s="1" t="n">
+        <v>44008</v>
+      </c>
+      <c r="M91" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="N91" s="1" t="n">
+        <v>640</v>
+      </c>
+      <c r="O91" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="P91" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q91" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="R91" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="S91" s="3" t="s">
+        <v>484</v>
+      </c>
+      <c r="T91" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="U91" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="V91" s="1" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="W91" s="1" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="X91" s="1" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="Y91" s="1" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="92" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A92" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="J92" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="K92" s="1" t="n">
+        <v>44008</v>
+      </c>
+      <c r="M92" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="N92" s="1" t="n">
+        <v>638</v>
+      </c>
+      <c r="O92" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="P92" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q92" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="R92" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="S92" s="3" t="s">
+        <v>487</v>
+      </c>
+      <c r="T92" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="U92" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="V92" s="1" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="W92" s="1" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="X92" s="1" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="Y92" s="1" t="n">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="93" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A93" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="D93" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="J93" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="K93" s="1" t="n">
+        <v>44008</v>
+      </c>
+      <c r="M93" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="N93" s="1" t="n">
+        <v>637</v>
+      </c>
+      <c r="O93" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="P93" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q93" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="R93" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="S93" s="3" t="s">
+        <v>491</v>
+      </c>
+      <c r="T93" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="U93" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="V93" s="1" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="W93" s="1" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="X93" s="1" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="Y93" s="1" t="n">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="94" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A94" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="D94" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="J94" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="K94" s="1" t="n">
+        <v>44008</v>
+      </c>
+      <c r="M94" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="N94" s="1" t="n">
+        <v>1179</v>
+      </c>
+      <c r="O94" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="P94" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q94" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="R94" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="S94" s="3" t="s">
+        <v>491</v>
+      </c>
+      <c r="T94" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="U94" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="V94" s="1" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="W94" s="1" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="X94" s="1" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="Y94" s="1" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="95" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A95" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="D95" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="J95" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="K95" s="1" t="n">
+        <v>44008</v>
+      </c>
+      <c r="M95" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="N95" s="1" t="n">
+        <v>444</v>
+      </c>
+      <c r="O95" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="P95" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q95" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="R95" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="S95" s="3" t="s">
+        <v>500</v>
+      </c>
+      <c r="T95" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="U95" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="V95" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W95" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X95" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y95" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A96" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="D96" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="J96" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="K96" s="1" t="n">
+        <v>44008</v>
+      </c>
+      <c r="M96" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="N96" s="1" t="n">
+        <v>426</v>
+      </c>
+      <c r="O96" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="P96" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q96" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="R96" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="S96" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="T96" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="U96" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="V96" s="1" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="W96" s="1" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="X96" s="1" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="Y96" s="1" t="n">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A97" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="D97" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="J97" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="K97" s="1" t="n">
+        <v>44008</v>
+      </c>
+      <c r="M97" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="N97" s="1" t="n">
+        <v>1186</v>
+      </c>
+      <c r="O97" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="P97" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q97" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="R97" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="S97" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="T97" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="U97" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="V97" s="1" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="W97" s="1" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="X97" s="1" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="Y97" s="1" t="n">
+        <v>1.1</v>
+      </c>
+    </row>
+    <row r="98" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A98" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="D98" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="J98" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="K98" s="1" t="n">
+        <v>44008</v>
+      </c>
+      <c r="M98" s="1" t="s">
+        <v>514</v>
+      </c>
+      <c r="N98" s="1" t="n">
+        <v>626</v>
+      </c>
+      <c r="O98" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="P98" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q98" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="R98" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="S98" s="3" t="s">
+        <v>516</v>
+      </c>
+      <c r="T98" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="U98" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="V98" s="1" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="W98" s="1" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="X98" s="1" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="Y98" s="1" t="n">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="99" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A99" s="1" t="s">
+        <v>517</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="D99" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="J99" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="K99" s="1" t="n">
+        <v>44008</v>
+      </c>
+      <c r="M99" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="N99" s="1" t="n">
+        <v>1189</v>
+      </c>
+      <c r="O99" s="1" t="s">
+        <v>517</v>
+      </c>
+      <c r="P99" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q99" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="R99" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="S99" s="3" t="s">
+        <v>516</v>
+      </c>
+      <c r="T99" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="U99" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="V99" s="1" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="W99" s="1" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="X99" s="1" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="Y99" s="1" t="n">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="100" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A100" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="D100" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="J100" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="K100" s="1" t="n">
+        <v>44008</v>
+      </c>
+      <c r="M100" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="N100" s="1" t="n">
+        <v>627</v>
+      </c>
+      <c r="O100" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="P100" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q100" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="R100" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="S100" s="3" t="s">
+        <v>521</v>
+      </c>
+      <c r="T100" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="U100" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="V100" s="1" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="W100" s="1" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="X100" s="1" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="Y100" s="1" t="n">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="101" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A101" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="D101" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="J101" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="K101" s="1" t="n">
+        <v>44008</v>
+      </c>
+      <c r="M101" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="N101" s="1" t="n">
+        <v>1185</v>
+      </c>
+      <c r="O101" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="P101" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q101" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="R101" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="S101" s="3" t="s">
+        <v>525</v>
+      </c>
+      <c r="T101" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="U101" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="V101" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W101" s="1" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="X101" s="1" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="Y101" s="1" t="n">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="102" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A102" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="D102" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="J102" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="K102" s="1" t="n">
+        <v>44008</v>
+      </c>
+      <c r="M102" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="N102" s="1" t="n">
+        <v>425</v>
+      </c>
+      <c r="O102" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="P102" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q102" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="R102" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="S102" s="3" t="s">
+        <v>525</v>
+      </c>
+      <c r="T102" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="U102" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="V102" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W102" s="1" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="X102" s="1" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="Y102" s="1" t="n">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A103" s="1" t="s">
+        <v>529</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="D103" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="J103" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="K103" s="1" t="n">
+        <v>44008</v>
+      </c>
+      <c r="M103" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="N103" s="1" t="n">
+        <v>1213</v>
+      </c>
+      <c r="O103" s="1" t="s">
+        <v>531</v>
+      </c>
+      <c r="P103" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q103" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="R103" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="S103" s="1" t="s">
+        <v>532</v>
+      </c>
+      <c r="T103" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="U103" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="V103" s="1" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="W103" s="1" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="X103" s="1" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="Y103" s="1" t="n">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A104" s="1" t="s">
+        <v>533</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="D104" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="J104" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="K104" s="1" t="n">
+        <v>44008</v>
+      </c>
+      <c r="M104" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="N104" s="1" t="n">
+        <v>1214</v>
+      </c>
+      <c r="O104" s="1" t="s">
+        <v>535</v>
+      </c>
+      <c r="P104" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q104" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="R104" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="S104" s="1" t="s">
+        <v>532</v>
+      </c>
+      <c r="T104" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="U104" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="V104" s="1" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="W104" s="1" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="X104" s="1" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="Y104" s="1" t="n">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="105" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A105" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>537</v>
+      </c>
+      <c r="D105" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="J105" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="K105" s="1" t="n">
+        <v>44008</v>
+      </c>
+      <c r="M105" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="N105" s="1" t="n">
+        <v>447</v>
+      </c>
+      <c r="O105" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="P105" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q105" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="R105" s="1" t="s">
+        <v>541</v>
+      </c>
+      <c r="S105" s="3" t="s">
+        <v>542</v>
+      </c>
+      <c r="T105" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="U105" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="V105" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W105" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X105" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y105" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A106" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="D106" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="J106" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="K106" s="1" t="n">
+        <v>44008</v>
+      </c>
+      <c r="M106" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="N106" s="1" t="n">
+        <v>554</v>
+      </c>
+      <c r="O106" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="P106" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q106" s="1" t="s">
+        <v>548</v>
+      </c>
+      <c r="R106" s="1" t="s">
+        <v>549</v>
+      </c>
+      <c r="S106" s="3" t="s">
+        <v>550</v>
+      </c>
+      <c r="T106" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="U106" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="V106" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W106" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X106" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y106" s="1" t="n">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="107" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A107" s="1" t="s">
+        <v>551</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>552</v>
+      </c>
+      <c r="D107" s="1" t="s">
+        <v>553</v>
+      </c>
+      <c r="J107" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="K107" s="1" t="n">
+        <v>44008</v>
+      </c>
+      <c r="M107" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="N107" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="O107" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="P107" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q107" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="R107" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="S107" s="3" t="s">
+        <v>558</v>
+      </c>
+      <c r="T107" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="U107" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="V107" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W107" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X107" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y107" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A108" s="1" t="s">
+        <v>559</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="D108" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="J108" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="K108" s="1" t="n">
+        <v>44008</v>
+      </c>
+      <c r="M108" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="N108" s="1" t="n">
+        <v>409</v>
+      </c>
+      <c r="O108" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="P108" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q108" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="R108" s="1" t="s">
+        <v>565</v>
+      </c>
+      <c r="S108" s="3" t="s">
+        <v>566</v>
+      </c>
+      <c r="T108" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="U108" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="V108" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W108" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X108" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y108" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J109" s="5"/>
+    </row>
+    <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J110" s="5"/>
+    </row>
+    <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J111" s="5"/>
+    </row>
+    <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J112" s="5"/>
+    </row>
+    <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J113" s="5"/>
+    </row>
+    <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J114" s="5"/>
+    </row>
+    <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J115" s="5"/>
+    </row>
+    <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J116" s="5"/>
+    </row>
+    <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J117" s="5"/>
+    </row>
+    <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J118" s="5"/>
+    </row>
+    <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J119" s="5"/>
+    </row>
+    <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J120" s="5"/>
+    </row>
+    <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J121" s="5"/>
+    </row>
+    <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J122" s="5"/>
+    </row>
+    <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J123" s="5"/>
+    </row>
+    <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J124" s="5"/>
+    </row>
+    <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J125" s="5"/>
+    </row>
+    <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J126" s="5"/>
+    </row>
+    <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J127" s="5"/>
+    </row>
+    <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J128" s="5"/>
+    </row>
+    <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J129" s="5"/>
+    </row>
+    <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J130" s="5"/>
+    </row>
+    <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J131" s="5"/>
+    </row>
+    <row r="132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J132" s="5"/>
+    </row>
+    <row r="1048553" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048554" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048555" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048556" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048557" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048558" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048559" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048560" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048561" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048562" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048563" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048564" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048565" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048566" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048567" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048568" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048569" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511811023622047" footer="0.511811023622047"/>

--- a/haawks-indicator-shortlist.xlsx
+++ b/haawks-indicator-shortlist.xlsx
@@ -1931,8 +1931,8 @@
   </sheetPr>
   <dimension ref="A1:Y1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="K1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="Z2" activeCellId="0" sqref="Z2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="J92" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="Z101" activeCellId="0" sqref="Z101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -8798,7 +8798,7 @@
         <v>0.1</v>
       </c>
       <c r="W92" s="1" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="X92" s="1" t="n">
         <v>0.3</v>
@@ -9326,16 +9326,16 @@
         <v>75</v>
       </c>
       <c r="V101" s="1" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="W101" s="1" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="X101" s="1" t="n">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="Y101" s="1" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/haawks-indicator-shortlist.xlsx
+++ b/haawks-indicator-shortlist.xlsx
@@ -1931,8 +1931,8 @@
   </sheetPr>
   <dimension ref="A1:Y1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="J92" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="Z101" activeCellId="0" sqref="Z101"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="I76" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="Z77" activeCellId="0" sqref="Z77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -7739,16 +7739,16 @@
         <v>75</v>
       </c>
       <c r="V77" s="1" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="W77" s="1" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="X77" s="1" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="Y77" s="1" t="n">
         <v>0</v>
-      </c>
-      <c r="W77" s="1" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="X77" s="1" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="Y77" s="1" t="n">
-        <v>0.3</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/haawks-indicator-shortlist.xlsx
+++ b/haawks-indicator-shortlist.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1604" uniqueCount="567">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1431" uniqueCount="518">
   <si>
     <t xml:space="preserve">Indicator</t>
   </si>
@@ -144,7 +144,7 @@
     <t xml:space="preserve">M</t>
   </si>
   <si>
-    <t xml:space="preserve">unknown</t>
+    <t xml:space="preserve">bearish</t>
   </si>
   <si>
     <t xml:space="preserve">Motor Gasoline Inventories WoW</t>
@@ -276,9 +276,6 @@
     <t xml:space="preserve">%</t>
   </si>
   <si>
-    <t xml:space="preserve">bearish</t>
-  </si>
-  <si>
     <t xml:space="preserve">PPI MoM</t>
   </si>
   <si>
@@ -466,18 +463,6 @@
   <si>
     <t xml:space="preserve">Industrial Production measures the change in the total inflation-adjusted value of output produced by manufacturers, mines, and utilities.
 A higher than expected reading should be taken as positive/bullish for the USD, while a lower than expected reading should be taken as negative/bearish for the USD.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Industrial Production YoY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10041;1.5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">U.S. Industrial Production YoY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Industrial Production measures the change in the total inflation-adjusted value of output produced by manufacturers, mines, and utilities. A higher than expected reading should be taken as positive/bullish for the USD, while a lower than expected reading should be taken as negative/bearish for the USD.</t>
   </si>
   <si>
     <t xml:space="preserve">Capacity Utilization Rate</t>
@@ -592,33 +577,6 @@
     <t xml:space="preserve">The Core PCE price Index is the less volatile measure of the PCE price index which excludes the more volatile and seasonal food and energy prices. The impact on the currency may go both ways, a rise in inflation may lead to a rise in interest rates and a rise in local currency, on the other hand, during recession, a rise in inflation may lead to a deepened recession and therefore a fall in local currency.</t>
   </si>
   <si>
-    <t xml:space="preserve">PCE Price Index MoM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10073;0.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">U.S. PCE price index</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US Department of Commerce</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The PCE price index, also referred to as the PCE deflator, is a United States-wide indicator of the average increase in prices for all domestic personal consumption. The impact on the currency may go both ways, a rise in inflation may lead to a rise in interest rates and a rise in local currency, on the other hand, during recession, a rise in inflation may lead to a deepened recession and therefore a fall in local currency.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PCE Price Index YoY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10074;1.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">U.S. PCE Price index YoY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The PCE price index, also referred to as the PCE deflator, is a United States-wide indicator of the average increase in prices for all domestic personal consumption. The impact on the currency may go both ways: a rise in CPI may lead to a rise in interest rates and a rise in local currency; on the other hand, during recession, a rise in CPI may lead to a deepened recession and therefore a fall in local currency.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Personal Income MoM</t>
   </si>
   <si>
@@ -639,6 +597,9 @@
   </si>
   <si>
     <t xml:space="preserve">U.S. Real Personal Consumption MoM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">US Department of Commerce</t>
   </si>
   <si>
     <t xml:space="preserve">Personal consumption adjusted for inflation, Personal consumption is divided into two key categories: goods and services. The category of "goods" is further broken down into "durable" goods, which are big-ticket items (refrigerators, television sets, cars, mobile phones, etc.) that will last more than three years, and "non-durable" goods that are more transitory (e.g., cosmetics, fuel, clothing, etc.). A higher than expected number should be taken as positive to the USD, while a lower than expected number as negative.</t>
@@ -947,18 +908,6 @@
 A higher than expected reading should be taken as positive/bullish for the USD, while a lower than expected reading should be taken as negative/bearish for the USD.</t>
   </si>
   <si>
-    <t xml:space="preserve">Retail Inventories MoM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Advance Monthly Retail Inventories</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10180;0.4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">U.S. Retail Inventories Excluding Auto</t>
-  </si>
-  <si>
     <t xml:space="preserve">Goods Trade Balance</t>
   </si>
   <si>
@@ -1043,50 +992,6 @@
 A higher than expected reading should be taken as negative/bearish for the USD, while a lower than expected reading should be taken as positive/bullish for the USD.</t>
   </si>
   <si>
-    <t xml:space="preserve">Federal Funds Rate Upper Bound</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FOMC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Federal Reserve Interest Rate Decision</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Every 6W</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14:00:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Percentage number</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10240;2.50</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fed Interest Rate Decision</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Federal Open Market Committee (FOMC) members vote on where to set the rate. Traders watch interest rate changes closely as short term interest rates are the primary factor in currency valuation.
-A higher than expected rate is positive/bullish for the USD, while a lower than expected rate is negative/bearish for the USD.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FOMC Statement</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Text</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10242;Information received since the Federal Open Market Committee met in November indicates that the labor market has continued to strengthen and that economic activity has been rising at a strong rate. Job gains have been strong, on average, in recent months, and the unemployment rate has remained low. Household spending has continued to grow strongly, while growth of business fixed investment has moderated from its rapid pace earlier in the year. On a 12-month basis, both overall inflation and inflation for items other than food and energy remain near 2 percent. Indicators of longer-term inflation expectations are little changed, on balance. Consistent with its statutory mandate, the Committee seeks to foster maximum employment and price stability. The Committee judges that some further gradual increases in the target range for the federal funds rate will be consistent with sustained expansion of economic activity, strong labor market conditions, and inflation near the Committee's symmetric 2 percent objective over the medium term. The Committee judges that risks to the economic outlook are roughly balanced, but will continue to monitor global economic and financial developments and assess their implications for the economic outlook. In view of realized and expected labor market conditions and inflation, the Committee decided to raise the target range for the federal funds rate to 2-1/4 to 2‑1/2 percent. In determining the timing and size of future adjustments to the target range for the federal funds rate, the Committee will assess realized and expected economic conditions relative to its maximum employment objective and its symmetric 2 percent inflation objective. This assessment will take into account a wide range of information, including measures of labor market conditions, indicators of inflation pressures and inflation expectations, and readings on financial and international developments. Voting for the FOMC monetary policy action were: Jerome H. Powell, Chairman; John C. Williams, Vice Chairman; Thomas I. Barkin; Raphael W. Bostic; Michelle W. Bowman; Lael Brainard; Richard H. Clarida; Mary C. Daly; Loretta J. Mester; and Randal K. Quarles. Implementation Note issued December 19, 2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">U.S. Federal Open Market Committee (FOMC) Statement</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The U.S. Federal Reserve's Federal Open Market Committee (FOMC) statement is the primary tool the panel uses to communicate with investors about monetary policy. It contains the outcome of the vote on interest rates, discusses the economic outlook and offers clues on the outcome of future votes.
-A more dovish than expected statement could be taken as negative/bearish for the USD, while a more hawkish than expected statement could be taken as positive/bullish for the USD.</t>
-  </si>
-  <si>
     <t xml:space="preserve">CPI MoM, n.s.a.</t>
   </si>
   <si>
@@ -1259,6 +1164,9 @@
 A higher than expected reading should be taken as positive/bullish for the CAD, while a lower than expected reading should be taken as negative/bearish for the CAD.</t>
   </si>
   <si>
+    <t xml:space="preserve">Percentage number</t>
+  </si>
+  <si>
     <t xml:space="preserve">10291;6.3</t>
   </si>
   <si>
@@ -1269,30 +1177,6 @@
 A higher than expected reading should be taken as negative/bearish for the CAD, while a lower than expected reading should be taken as positive/bullish for the CAD.</t>
   </si>
   <si>
-    <t xml:space="preserve">Full Employment Change</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10292;35.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Canada Full Employment Change</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Full Employment Change is the change in employment of full-time employees. A higher than expected number should be taken as positive for the CAD, while a lower than expected number is viewed as negative.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Part Time Employment Change</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10293;-24.3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Canada Part Time Employment Change</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Part Time Employment Change is the change in employment of part-time employees.A higher than expected number should be taken as positive to the AUD, while a lower than expected number as negative.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Participation Rate</t>
   </si>
   <si>
@@ -1364,18 +1248,6 @@
 A higher than expected reading should be taken as positive/bullish for the CAD, while a lower than expected reading should be taken as negative/bearish for the CAD.</t>
   </si>
   <si>
-    <t xml:space="preserve">Canadian investment in foreign securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10331;4.37</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Foreign Securities Purchases by Canadians</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Foreign Securities Purchases by Canadians is a set of accounts recording all economic transactions between the residents of the country and the rest of the world in a given period of time. A high number indicates currency outflow (residents buy foreign securities, therefore change their CADs to the foreign currecny), therefor a higher than expected number would be dovish for the CAD, while a lower than expected number would be bullish.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Wholesale Sales MoM (Current dollars)</t>
   </si>
   <si>
@@ -1427,15 +1299,6 @@
 &gt;A higher than expected reading should be taken as positive/bullish for the CAD, while a lower than expected reading should be taken as negative/bearish for the CAD.</t>
   </si>
   <si>
-    <t xml:space="preserve">Industrial Product Price Index (IPPI) YoY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10361;3.3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Canada Industrial Product Price Index (IPPI) YoY</t>
-  </si>
-  <si>
     <t xml:space="preserve">Raw Material Price Index (RMPI) MoM</t>
   </si>
   <si>
@@ -1447,18 +1310,6 @@
   <si>
     <t xml:space="preserve">The Raw Materials Price Index (RMPI) measures the change in the price of raw materials purchased by manufacturers. It is a leading indicator of consumer inflation, which accounts for a majority of overall inflation.
 A higher than expected reading should be taken as positive/bullish for the CAD, while a lower than expected reading should be taken as negative/bearish for the CAD.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Raw Material Price Index (RMPI) YoY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10371;2.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Canada Raw Materials Price Index (RMPI) YoY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Raw Materials Price Index reflects the prices paid by Canadian manufacturers for key raw materials. Unlike the industrial product price index, the RMPI includes goods that are not produced in Canada. The imapct on the CAD may go both ways.</t>
   </si>
   <si>
     <t xml:space="preserve">Labour Productivity QoQ</t>
@@ -1931,8 +1782,8 @@
   </sheetPr>
   <dimension ref="A1:Y1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="I76" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="Z77" activeCellId="0" sqref="Z77"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="O85" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="V97" activeCellId="0" sqref="V97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2531,24 +2382,24 @@
         <v>81</v>
       </c>
       <c r="U8" s="1" t="s">
-        <v>82</v>
+        <v>40</v>
       </c>
       <c r="V8" s="1" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="W8" s="1" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="X8" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="W8" s="1" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="X8" s="1" t="n">
-        <v>0.1</v>
-      </c>
       <c r="Y8" s="1" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>63</v>
@@ -2563,13 +2414,13 @@
         <v>4</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>66</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I9" s="1" t="s">
         <v>68</v>
@@ -2581,16 +2432,16 @@
         <v>44011</v>
       </c>
       <c r="L9" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="M9" s="1" t="s">
         <v>86</v>
-      </c>
-      <c r="M9" s="1" t="s">
-        <v>87</v>
       </c>
       <c r="N9" s="1" t="n">
         <v>238</v>
       </c>
       <c r="O9" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="P9" s="1" t="n">
         <v>3</v>
@@ -2599,10 +2450,10 @@
         <v>36</v>
       </c>
       <c r="R9" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="S9" s="3" t="s">
         <v>89</v>
-      </c>
-      <c r="S9" s="3" t="s">
-        <v>90</v>
       </c>
       <c r="T9" s="1" t="s">
         <v>81</v>
@@ -2611,21 +2462,21 @@
         <v>75</v>
       </c>
       <c r="V9" s="1" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="W9" s="1" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="X9" s="1" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="Y9" s="1" t="n">
         <v>0</v>
-      </c>
-      <c r="W9" s="1" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="X9" s="1" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="Y9" s="1" t="n">
-        <v>0.3</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>63</v>
@@ -2640,13 +2491,13 @@
         <v>4</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>66</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I10" s="4" t="n">
         <v>1.35416666666667</v>
@@ -2658,16 +2509,16 @@
         <v>44011</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N10" s="1" t="n">
         <v>734</v>
       </c>
       <c r="O10" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="P10" s="1" t="n">
         <v>1</v>
@@ -2676,10 +2527,10 @@
         <v>36</v>
       </c>
       <c r="R10" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="S10" s="3" t="s">
         <v>89</v>
-      </c>
-      <c r="S10" s="3" t="s">
-        <v>90</v>
       </c>
       <c r="T10" s="1" t="s">
         <v>81</v>
@@ -2691,7 +2542,7 @@
         <v>0.1</v>
       </c>
       <c r="W10" s="1" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="X10" s="1" t="n">
         <v>0.3</v>
@@ -2702,7 +2553,7 @@
     </row>
     <row r="11" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>63</v>
@@ -2717,13 +2568,13 @@
         <v>4</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>66</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I11" s="4" t="n">
         <v>2.35416666666667</v>
@@ -2735,16 +2586,16 @@
         <v>44011</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="N11" s="1" t="n">
         <v>62</v>
       </c>
       <c r="O11" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="P11" s="1" t="n">
         <v>2</v>
@@ -2753,10 +2604,10 @@
         <v>36</v>
       </c>
       <c r="R11" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="S11" s="3" t="s">
         <v>97</v>
-      </c>
-      <c r="S11" s="3" t="s">
-        <v>98</v>
       </c>
       <c r="T11" s="1" t="s">
         <v>81</v>
@@ -2768,18 +2619,18 @@
         <v>0.1</v>
       </c>
       <c r="W11" s="1" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="X11" s="1" t="n">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="Y11" s="1" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>63</v>
@@ -2794,13 +2645,13 @@
         <v>4</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>66</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I12" s="4" t="n">
         <v>3.35416666666667</v>
@@ -2812,16 +2663,16 @@
         <v>44011</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="N12" s="1" t="n">
         <v>735</v>
       </c>
       <c r="O12" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="P12" s="1" t="n">
         <v>1</v>
@@ -2830,10 +2681,10 @@
         <v>36</v>
       </c>
       <c r="R12" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="S12" s="3" t="s">
         <v>97</v>
-      </c>
-      <c r="S12" s="3" t="s">
-        <v>98</v>
       </c>
       <c r="T12" s="1" t="s">
         <v>81</v>
@@ -2845,18 +2696,18 @@
         <v>0.1</v>
       </c>
       <c r="W12" s="1" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="X12" s="1" t="n">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="Y12" s="1" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>63</v>
@@ -2871,13 +2722,13 @@
         <v>5</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>66</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I13" s="4" t="n">
         <v>3.35416666666667</v>
@@ -2889,16 +2740,16 @@
         <v>44011</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="N13" s="1" t="n">
         <v>153</v>
       </c>
       <c r="O13" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="P13" s="1" t="n">
         <v>2</v>
@@ -2907,10 +2758,10 @@
         <v>36</v>
       </c>
       <c r="R13" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="S13" s="3" t="s">
         <v>106</v>
-      </c>
-      <c r="S13" s="3" t="s">
-        <v>107</v>
       </c>
       <c r="T13" s="1" t="s">
         <v>81</v>
@@ -2933,7 +2784,7 @@
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>63</v>
@@ -2948,13 +2799,13 @@
         <v>5</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G14" s="1" t="s">
         <v>66</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I14" s="4" t="n">
         <v>3.35416666666667</v>
@@ -2966,16 +2817,16 @@
         <v>44011</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="N14" s="1" t="n">
         <v>892</v>
       </c>
       <c r="O14" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="P14" s="1" t="n">
         <v>2</v>
@@ -2984,16 +2835,16 @@
         <v>36</v>
       </c>
       <c r="R14" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="S14" s="1" t="s">
         <v>111</v>
-      </c>
-      <c r="S14" s="1" t="s">
-        <v>112</v>
       </c>
       <c r="T14" s="1" t="s">
         <v>81</v>
       </c>
       <c r="U14" s="1" t="s">
-        <v>40</v>
+        <v>75</v>
       </c>
       <c r="V14" s="1" t="n">
         <v>0.1</v>
@@ -3010,7 +2861,7 @@
     </row>
     <row r="15" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>63</v>
@@ -3025,13 +2876,13 @@
         <v>6</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G15" s="1" t="s">
         <v>66</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I15" s="4" t="n">
         <v>3.35416666666667</v>
@@ -3043,16 +2894,16 @@
         <v>44011</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="M15" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="N15" s="1" t="n">
         <v>69</v>
       </c>
       <c r="O15" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="P15" s="1" t="n">
         <v>3</v>
@@ -3061,10 +2912,10 @@
         <v>36</v>
       </c>
       <c r="R15" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="S15" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="T15" s="1" t="s">
         <v>81</v>
@@ -3073,21 +2924,21 @@
         <v>75</v>
       </c>
       <c r="V15" s="1" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="W15" s="1" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="X15" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="W15" s="1" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="X15" s="1" t="n">
-        <v>0.1</v>
-      </c>
       <c r="Y15" s="1" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>63</v>
@@ -3102,13 +2953,13 @@
         <v>6</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G16" s="1" t="s">
         <v>66</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I16" s="4" t="n">
         <v>3.35416666666667</v>
@@ -3120,16 +2971,16 @@
         <v>44011</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="M16" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="N16" s="1" t="n">
         <v>733</v>
       </c>
       <c r="O16" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="P16" s="1" t="n">
         <v>3</v>
@@ -3138,10 +2989,10 @@
         <v>36</v>
       </c>
       <c r="R16" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="S16" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="T16" s="1" t="s">
         <v>81</v>
@@ -3150,21 +3001,21 @@
         <v>75</v>
       </c>
       <c r="V16" s="1" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="W16" s="1" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="X16" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="W16" s="1" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="X16" s="1" t="n">
-        <v>0.1</v>
-      </c>
       <c r="Y16" s="1" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>63</v>
@@ -3179,13 +3030,13 @@
         <v>6</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G17" s="1" t="s">
         <v>66</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I17" s="4" t="n">
         <v>3.35416666666667</v>
@@ -3197,16 +3048,16 @@
         <v>44011</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="M17" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="N17" s="1" t="n">
         <v>56</v>
       </c>
       <c r="O17" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="P17" s="1" t="n">
         <v>3</v>
@@ -3215,10 +3066,10 @@
         <v>36</v>
       </c>
       <c r="R17" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="S17" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="T17" s="1" t="s">
         <v>81</v>
@@ -3227,21 +3078,21 @@
         <v>75</v>
       </c>
       <c r="V17" s="1" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="W17" s="1" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="X17" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="W17" s="1" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="X17" s="1" t="n">
-        <v>0.1</v>
-      </c>
       <c r="Y17" s="1" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>63</v>
@@ -3256,13 +3107,13 @@
         <v>6</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G18" s="1" t="s">
         <v>66</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I18" s="4" t="n">
         <v>3.35416666666667</v>
@@ -3274,16 +3125,16 @@
         <v>44011</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="M18" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="N18" s="1" t="n">
         <v>736</v>
       </c>
       <c r="O18" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="P18" s="1" t="n">
         <v>2</v>
@@ -3292,10 +3143,10 @@
         <v>36</v>
       </c>
       <c r="R18" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="S18" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="T18" s="1" t="s">
         <v>81</v>
@@ -3304,21 +3155,21 @@
         <v>75</v>
       </c>
       <c r="V18" s="1" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="W18" s="1" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="X18" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="W18" s="1" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="X18" s="1" t="n">
-        <v>0.1</v>
-      </c>
       <c r="Y18" s="1" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>63</v>
@@ -3333,13 +3184,13 @@
         <v>6</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G19" s="1" t="s">
         <v>66</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I19" s="4" t="n">
         <v>3.35416666666667</v>
@@ -3351,16 +3202,16 @@
         <v>44011</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="M19" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="N19" s="1" t="n">
         <v>1549</v>
       </c>
       <c r="O19" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="P19" s="1" t="n">
         <v>1</v>
@@ -3369,22 +3220,22 @@
         <v>36</v>
       </c>
       <c r="R19" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="S19" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="U19" s="1" t="s">
-        <v>40</v>
+        <v>75</v>
       </c>
       <c r="V19" s="1" t="n">
         <v>0.07</v>
       </c>
       <c r="W19" s="1" t="n">
-        <v>0.12</v>
+        <v>0.1</v>
       </c>
       <c r="X19" s="1" t="n">
-        <v>0.19</v>
+        <v>0.2</v>
       </c>
       <c r="Y19" s="1" t="n">
         <v>0.4</v>
@@ -3392,7 +3243,7 @@
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>63</v>
@@ -3407,13 +3258,13 @@
         <v>6</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G20" s="1" t="s">
         <v>66</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I20" s="4" t="n">
         <v>3.35416666666667</v>
@@ -3425,16 +3276,16 @@
         <v>44011</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="M20" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="N20" s="1" t="n">
         <v>1226</v>
       </c>
       <c r="O20" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="P20" s="1" t="n">
         <v>1</v>
@@ -3443,30 +3294,30 @@
         <v>36</v>
       </c>
       <c r="R20" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="S20" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="U20" s="1" t="s">
-        <v>40</v>
+        <v>75</v>
       </c>
       <c r="V20" s="1" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="W20" s="1" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="X20" s="1" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="Y20" s="1" t="n">
         <v>0</v>
-      </c>
-      <c r="W20" s="1" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="X20" s="1" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="Y20" s="1" t="n">
-        <v>0.25</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>63</v>
@@ -3475,22 +3326,22 @@
         <v>27</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E21" s="1" t="n">
         <v>7</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G21" s="1" t="s">
         <v>66</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="J21" s="1" t="n">
         <v>10040</v>
@@ -3499,16 +3350,16 @@
         <v>44011</v>
       </c>
       <c r="L21" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="M21" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="N21" s="1" t="n">
         <v>161</v>
       </c>
       <c r="O21" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="P21" s="1" t="n">
         <v>2</v>
@@ -3517,10 +3368,10 @@
         <v>36</v>
       </c>
       <c r="R21" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="S21" s="3" t="s">
         <v>142</v>
-      </c>
-      <c r="S21" s="3" t="s">
-        <v>143</v>
       </c>
       <c r="T21" s="1" t="s">
         <v>81</v>
@@ -3538,12 +3389,12 @@
         <v>0.3</v>
       </c>
       <c r="Y21" s="1" t="n">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>63</v>
@@ -3552,51 +3403,51 @@
         <v>27</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E22" s="1" t="n">
         <v>7</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G22" s="1" t="s">
         <v>66</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="J22" s="1" t="n">
-        <v>10041</v>
+        <v>10042</v>
       </c>
       <c r="K22" s="1" t="n">
         <v>44011</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>86</v>
+        <v>144</v>
       </c>
       <c r="M22" s="1" t="s">
         <v>145</v>
       </c>
       <c r="N22" s="1" t="n">
-        <v>1755</v>
+        <v>31</v>
       </c>
       <c r="O22" s="1" t="s">
         <v>146</v>
       </c>
       <c r="P22" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q22" s="1" t="s">
         <v>36</v>
       </c>
       <c r="R22" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="S22" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="S22" s="3" t="s">
         <v>147</v>
       </c>
       <c r="T22" s="1" t="s">
@@ -3605,8 +3456,20 @@
       <c r="U22" s="1" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="23" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="V22" s="1" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="W22" s="1" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="X22" s="1" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="Y22" s="1" t="n">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
         <v>148</v>
       </c>
@@ -3617,40 +3480,40 @@
         <v>27</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E23" s="1" t="n">
         <v>7</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G23" s="1" t="s">
         <v>66</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="I23" s="1" t="s">
-        <v>139</v>
+        <v>84</v>
+      </c>
+      <c r="I23" s="4" t="n">
+        <v>1.38541666666667</v>
       </c>
       <c r="J23" s="1" t="n">
-        <v>10042</v>
+        <v>10044</v>
       </c>
       <c r="K23" s="1" t="n">
         <v>44011</v>
       </c>
       <c r="L23" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="M23" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="M23" s="1" t="s">
+      <c r="N23" s="1" t="n">
+        <v>1307</v>
+      </c>
+      <c r="O23" s="1" t="s">
         <v>150</v>
-      </c>
-      <c r="N23" s="1" t="n">
-        <v>31</v>
-      </c>
-      <c r="O23" s="1" t="s">
-        <v>151</v>
       </c>
       <c r="P23" s="1" t="n">
         <v>1</v>
@@ -3659,7 +3522,7 @@
         <v>36</v>
       </c>
       <c r="R23" s="1" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="S23" s="3" t="s">
         <v>152</v>
@@ -3674,7 +3537,7 @@
         <v>0.1</v>
       </c>
       <c r="W23" s="1" t="n">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="X23" s="1" t="n">
         <v>0.4</v>
@@ -3683,7 +3546,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
         <v>153</v>
       </c>
@@ -3694,52 +3557,52 @@
         <v>27</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>137</v>
+        <v>154</v>
       </c>
       <c r="E24" s="1" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>138</v>
+        <v>155</v>
       </c>
       <c r="G24" s="1" t="s">
         <v>66</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>85</v>
+        <v>156</v>
       </c>
       <c r="I24" s="4" t="n">
-        <v>1.38541666666667</v>
+        <v>1.35416666666667</v>
       </c>
       <c r="J24" s="1" t="n">
-        <v>10044</v>
+        <v>10060</v>
       </c>
       <c r="K24" s="1" t="n">
         <v>44011</v>
       </c>
       <c r="L24" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="M24" s="1" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="N24" s="1" t="n">
-        <v>1307</v>
+        <v>375</v>
       </c>
       <c r="O24" s="1" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="P24" s="1" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q24" s="1" t="s">
         <v>36</v>
       </c>
       <c r="R24" s="1" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="S24" s="3" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="T24" s="1" t="s">
         <v>81</v>
@@ -3751,18 +3614,18 @@
         <v>0.1</v>
       </c>
       <c r="W24" s="1" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="X24" s="1" t="n">
         <v>0.3</v>
       </c>
-      <c r="X24" s="1" t="n">
-        <v>0.4</v>
-      </c>
       <c r="Y24" s="1" t="n">
-        <v>0.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>63</v>
@@ -3771,75 +3634,75 @@
         <v>27</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="E25" s="1" t="n">
         <v>9</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="G25" s="1" t="s">
         <v>66</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="I25" s="4" t="n">
-        <v>1.35416666666667</v>
+        <v>2.35416666666667</v>
       </c>
       <c r="J25" s="1" t="n">
-        <v>10060</v>
+        <v>10061</v>
       </c>
       <c r="K25" s="1" t="n">
         <v>44011</v>
       </c>
       <c r="L25" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="M25" s="1" t="s">
         <v>162</v>
       </c>
       <c r="N25" s="1" t="n">
-        <v>375</v>
+        <v>343</v>
       </c>
       <c r="O25" s="1" t="s">
         <v>163</v>
       </c>
       <c r="P25" s="1" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q25" s="1" t="s">
         <v>36</v>
       </c>
       <c r="R25" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="S25" s="3" t="s">
         <v>164</v>
-      </c>
-      <c r="S25" s="3" t="s">
-        <v>165</v>
       </c>
       <c r="T25" s="1" t="s">
         <v>81</v>
       </c>
       <c r="U25" s="1" t="s">
-        <v>40</v>
+        <v>75</v>
       </c>
       <c r="V25" s="1" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="W25" s="1" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="X25" s="1" t="n">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="Y25" s="1" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>63</v>
@@ -3848,37 +3711,37 @@
         <v>27</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="E26" s="1" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="G26" s="1" t="s">
         <v>66</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="I26" s="4" t="n">
-        <v>2.35416666666667</v>
+        <v>3.35416666666667</v>
       </c>
       <c r="J26" s="1" t="n">
-        <v>10061</v>
+        <v>10070</v>
       </c>
       <c r="K26" s="1" t="n">
         <v>44011</v>
       </c>
       <c r="L26" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="M26" s="1" t="s">
         <v>167</v>
       </c>
       <c r="N26" s="1" t="n">
-        <v>343</v>
+        <v>235</v>
       </c>
       <c r="O26" s="1" t="s">
         <v>168</v>
@@ -3890,7 +3753,7 @@
         <v>36</v>
       </c>
       <c r="R26" s="1" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="S26" s="3" t="s">
         <v>169</v>
@@ -3905,13 +3768,13 @@
         <v>0.1</v>
       </c>
       <c r="W26" s="1" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="X26" s="1" t="n">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="Y26" s="1" t="n">
-        <v>0.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3925,52 +3788,52 @@
         <v>27</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="E27" s="1" t="n">
         <v>10</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="G27" s="1" t="s">
         <v>66</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="I27" s="4" t="n">
-        <v>3.35416666666667</v>
+        <v>4.35416666666667</v>
       </c>
       <c r="J27" s="1" t="n">
-        <v>10070</v>
+        <v>10071</v>
       </c>
       <c r="K27" s="1" t="n">
         <v>44011</v>
       </c>
       <c r="L27" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="M27" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="N27" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="O27" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="N27" s="1" t="n">
-        <v>235</v>
-      </c>
-      <c r="O27" s="1" t="s">
-        <v>173</v>
-      </c>
       <c r="P27" s="1" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q27" s="1" t="s">
         <v>36</v>
       </c>
       <c r="R27" s="1" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="S27" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="T27" s="1" t="s">
         <v>81</v>
@@ -3979,21 +3842,21 @@
         <v>75</v>
       </c>
       <c r="V27" s="1" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="W27" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="W27" s="1" t="n">
-        <v>0.1</v>
-      </c>
       <c r="X27" s="1" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="Y27" s="1" t="n">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>63</v>
@@ -4002,52 +3865,52 @@
         <v>27</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="E28" s="1" t="n">
         <v>10</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="G28" s="1" t="s">
         <v>66</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="I28" s="4" t="n">
-        <v>4.35416666666667</v>
+        <v>5.35416666666667</v>
       </c>
       <c r="J28" s="1" t="n">
-        <v>10071</v>
+        <v>10072</v>
       </c>
       <c r="K28" s="1" t="n">
         <v>44011</v>
       </c>
       <c r="L28" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="M28" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="N28" s="1" t="n">
+        <v>905</v>
+      </c>
+      <c r="O28" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="N28" s="1" t="n">
-        <v>61</v>
-      </c>
-      <c r="O28" s="1" t="s">
-        <v>177</v>
-      </c>
       <c r="P28" s="1" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q28" s="1" t="s">
         <v>36</v>
       </c>
       <c r="R28" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="S28" s="3" t="s">
-        <v>178</v>
+        <v>159</v>
+      </c>
+      <c r="S28" s="1" t="s">
+        <v>177</v>
       </c>
       <c r="T28" s="1" t="s">
         <v>81</v>
@@ -4056,21 +3919,21 @@
         <v>75</v>
       </c>
       <c r="V28" s="1" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="W28" s="1" t="n">
         <v>0</v>
       </c>
       <c r="X28" s="1" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="Y28" s="1" t="n">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>63</v>
@@ -4079,75 +3942,75 @@
         <v>27</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="E29" s="1" t="n">
         <v>10</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="G29" s="1" t="s">
         <v>66</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="I29" s="4" t="n">
-        <v>5.35416666666667</v>
+        <v>8.35416666666667</v>
       </c>
       <c r="J29" s="1" t="n">
-        <v>10072</v>
+        <v>10075</v>
       </c>
       <c r="K29" s="1" t="n">
         <v>44011</v>
       </c>
       <c r="L29" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="M29" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="N29" s="1" t="n">
+        <v>234</v>
+      </c>
+      <c r="O29" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="N29" s="1" t="n">
-        <v>905</v>
-      </c>
-      <c r="O29" s="1" t="s">
-        <v>181</v>
-      </c>
       <c r="P29" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q29" s="1" t="s">
         <v>36</v>
       </c>
       <c r="R29" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="S29" s="1" t="s">
-        <v>182</v>
+        <v>159</v>
+      </c>
+      <c r="S29" s="3" t="s">
+        <v>181</v>
       </c>
       <c r="T29" s="1" t="s">
         <v>81</v>
       </c>
       <c r="U29" s="1" t="s">
-        <v>40</v>
+        <v>75</v>
       </c>
       <c r="V29" s="1" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="W29" s="1" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="X29" s="1" t="n">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="Y29" s="1" t="n">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>63</v>
@@ -4156,63 +4019,75 @@
         <v>27</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="E30" s="1" t="n">
         <v>10</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="G30" s="1" t="s">
         <v>66</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="I30" s="4" t="n">
-        <v>6.35416666666667</v>
+        <v>8.35416666666667</v>
       </c>
       <c r="J30" s="1" t="n">
-        <v>10073</v>
+        <v>10076</v>
       </c>
       <c r="K30" s="1" t="n">
         <v>44011</v>
       </c>
       <c r="L30" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="M30" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="N30" s="1" t="n">
+        <v>895</v>
+      </c>
+      <c r="O30" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="N30" s="1" t="n">
-        <v>904</v>
-      </c>
-      <c r="O30" s="1" t="s">
-        <v>185</v>
-      </c>
       <c r="P30" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q30" s="1" t="s">
         <v>36</v>
       </c>
       <c r="R30" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="S30" s="1" t="s">
         <v>186</v>
-      </c>
-      <c r="S30" s="1" t="s">
-        <v>187</v>
       </c>
       <c r="T30" s="1" t="s">
         <v>81</v>
       </c>
       <c r="U30" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>75</v>
+      </c>
+      <c r="V30" s="1" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="W30" s="1" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="X30" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y30" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>63</v>
@@ -4221,63 +4096,75 @@
         <v>27</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>159</v>
+        <v>64</v>
       </c>
       <c r="E31" s="1" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>171</v>
+        <v>188</v>
       </c>
       <c r="G31" s="1" t="s">
         <v>66</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="I31" s="4" t="n">
-        <v>7.35416666666667</v>
+        <v>189</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>190</v>
       </c>
       <c r="J31" s="1" t="n">
-        <v>10074</v>
+        <v>10080</v>
       </c>
       <c r="K31" s="1" t="n">
         <v>44011</v>
       </c>
       <c r="L31" s="1" t="s">
-        <v>86</v>
+        <v>69</v>
       </c>
       <c r="M31" s="1" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="N31" s="1" t="n">
-        <v>906</v>
+        <v>1057</v>
       </c>
       <c r="O31" s="1" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="P31" s="1" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q31" s="1" t="s">
         <v>36</v>
       </c>
       <c r="R31" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="S31" s="1" t="s">
-        <v>191</v>
+        <v>72</v>
+      </c>
+      <c r="S31" s="3" t="s">
+        <v>193</v>
       </c>
       <c r="T31" s="1" t="s">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="U31" s="1" t="s">
-        <v>40</v>
+        <v>75</v>
+      </c>
+      <c r="V31" s="1" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="W31" s="1" t="n">
+        <v>0.175</v>
+      </c>
+      <c r="X31" s="1" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="Y31" s="1" t="n">
+        <v>0.5</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>63</v>
@@ -4286,75 +4173,72 @@
         <v>27</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>159</v>
+        <v>195</v>
       </c>
       <c r="E32" s="1" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>171</v>
+        <v>196</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>66</v>
+        <v>197</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="I32" s="4" t="n">
-        <v>8.35416666666667</v>
+        <v>198</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>190</v>
       </c>
       <c r="J32" s="1" t="n">
-        <v>10075</v>
+        <v>10090</v>
       </c>
       <c r="K32" s="1" t="n">
         <v>44011</v>
       </c>
       <c r="L32" s="1" t="s">
-        <v>86</v>
+        <v>199</v>
       </c>
       <c r="M32" s="1" t="s">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="N32" s="1" t="n">
-        <v>234</v>
+        <v>320</v>
       </c>
       <c r="O32" s="1" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="P32" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q32" s="1" t="s">
         <v>36</v>
       </c>
       <c r="R32" s="1" t="s">
-        <v>164</v>
+        <v>202</v>
       </c>
       <c r="S32" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="T32" s="1" t="s">
-        <v>81</v>
+        <v>203</v>
       </c>
       <c r="U32" s="1" t="s">
         <v>75</v>
       </c>
       <c r="V32" s="1" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="W32" s="1" t="n">
-        <v>0.1</v>
+        <v>0.7</v>
       </c>
       <c r="X32" s="1" t="n">
-        <v>0.2</v>
+        <v>1.2</v>
       </c>
       <c r="Y32" s="1" t="n">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
-        <v>196</v>
+        <v>204</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>63</v>
@@ -4363,40 +4247,40 @@
         <v>27</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>159</v>
+        <v>195</v>
       </c>
       <c r="E33" s="1" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>171</v>
+        <v>196</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>66</v>
+        <v>197</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="I33" s="4" t="n">
-        <v>8.35416666666667</v>
+        <v>198</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>190</v>
       </c>
       <c r="J33" s="1" t="n">
-        <v>10076</v>
+        <v>10091</v>
       </c>
       <c r="K33" s="1" t="n">
         <v>44011</v>
       </c>
       <c r="L33" s="1" t="s">
-        <v>86</v>
+        <v>199</v>
       </c>
       <c r="M33" s="1" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
       <c r="N33" s="1" t="n">
-        <v>895</v>
+        <v>389</v>
       </c>
       <c r="O33" s="1" t="s">
-        <v>198</v>
+        <v>206</v>
       </c>
       <c r="P33" s="1" t="n">
         <v>1</v>
@@ -4405,33 +4289,33 @@
         <v>36</v>
       </c>
       <c r="R33" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="S33" s="1" t="s">
-        <v>199</v>
+        <v>202</v>
+      </c>
+      <c r="S33" s="3" t="s">
+        <v>207</v>
       </c>
       <c r="T33" s="1" t="s">
         <v>81</v>
       </c>
       <c r="U33" s="1" t="s">
-        <v>40</v>
+        <v>75</v>
       </c>
       <c r="V33" s="1" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="W33" s="1" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="X33" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="W33" s="1" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="X33" s="1" t="n">
-        <v>0.1</v>
-      </c>
       <c r="Y33" s="1" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
-        <v>200</v>
+        <v>208</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>63</v>
@@ -4440,75 +4324,72 @@
         <v>27</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>64</v>
+        <v>195</v>
       </c>
       <c r="E34" s="1" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>66</v>
+        <v>197</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>203</v>
+        <v>190</v>
       </c>
       <c r="J34" s="1" t="n">
-        <v>10080</v>
+        <v>10092</v>
       </c>
       <c r="K34" s="1" t="n">
         <v>44011</v>
       </c>
       <c r="L34" s="1" t="s">
-        <v>69</v>
+        <v>199</v>
       </c>
       <c r="M34" s="1" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="N34" s="1" t="n">
-        <v>1057</v>
+        <v>901</v>
       </c>
       <c r="O34" s="1" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="P34" s="1" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q34" s="1" t="s">
         <v>36</v>
       </c>
       <c r="R34" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="S34" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="T34" s="1" t="s">
-        <v>39</v>
+        <v>211</v>
+      </c>
+      <c r="S34" s="1" t="s">
+        <v>212</v>
       </c>
       <c r="U34" s="1" t="s">
-        <v>40</v>
+        <v>75</v>
       </c>
       <c r="V34" s="1" t="n">
-        <v>0.078</v>
+        <v>0.4</v>
       </c>
       <c r="W34" s="1" t="n">
-        <v>0.176</v>
+        <v>1.2</v>
       </c>
       <c r="X34" s="1" t="n">
-        <v>0.338</v>
+        <v>2</v>
       </c>
       <c r="Y34" s="1" t="n">
-        <v>0.547</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>63</v>
@@ -4517,40 +4398,40 @@
         <v>27</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>208</v>
+        <v>154</v>
       </c>
       <c r="E35" s="1" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>210</v>
+        <v>66</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="I35" s="1" t="s">
-        <v>203</v>
+        <v>189</v>
+      </c>
+      <c r="I35" s="4" t="n">
+        <v>5.35416666666667</v>
       </c>
       <c r="J35" s="1" t="n">
-        <v>10090</v>
+        <v>10100</v>
       </c>
       <c r="K35" s="1" t="n">
         <v>44011</v>
       </c>
       <c r="L35" s="1" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="M35" s="1" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="N35" s="1" t="n">
-        <v>320</v>
+        <v>286</v>
       </c>
       <c r="O35" s="1" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="P35" s="1" t="n">
         <v>2</v>
@@ -4559,30 +4440,33 @@
         <v>36</v>
       </c>
       <c r="R35" s="1" t="s">
-        <v>215</v>
+        <v>159</v>
       </c>
       <c r="S35" s="3" t="s">
-        <v>216</v>
+        <v>218</v>
+      </c>
+      <c r="T35" s="1" t="s">
+        <v>61</v>
       </c>
       <c r="U35" s="1" t="s">
         <v>75</v>
       </c>
       <c r="V35" s="1" t="n">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="W35" s="1" t="n">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="X35" s="1" t="n">
-        <v>1.4</v>
+        <v>1</v>
       </c>
       <c r="Y35" s="1" t="n">
-        <v>3.3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>63</v>
@@ -4591,52 +4475,52 @@
         <v>27</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>208</v>
+        <v>220</v>
       </c>
       <c r="E36" s="1" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>209</v>
+        <v>221</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>210</v>
+        <v>66</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>211</v>
+        <v>189</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>203</v>
+        <v>190</v>
       </c>
       <c r="J36" s="1" t="n">
-        <v>10091</v>
+        <v>10110</v>
       </c>
       <c r="K36" s="1" t="n">
         <v>44011</v>
       </c>
       <c r="L36" s="1" t="s">
-        <v>212</v>
+        <v>85</v>
       </c>
       <c r="M36" s="1" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="N36" s="1" t="n">
-        <v>389</v>
+        <v>100</v>
       </c>
       <c r="O36" s="1" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="P36" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q36" s="1" t="s">
         <v>36</v>
       </c>
       <c r="R36" s="1" t="s">
-        <v>215</v>
+        <v>224</v>
       </c>
       <c r="S36" s="3" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="T36" s="1" t="s">
         <v>81</v>
@@ -4645,21 +4529,21 @@
         <v>75</v>
       </c>
       <c r="V36" s="1" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="W36" s="1" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="X36" s="1" t="n">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="Y36" s="1" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>63</v>
@@ -4668,40 +4552,40 @@
         <v>27</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>208</v>
+        <v>220</v>
       </c>
       <c r="E37" s="1" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>209</v>
+        <v>227</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>210</v>
+        <v>66</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="I37" s="1" t="s">
-        <v>203</v>
+        <v>189</v>
+      </c>
+      <c r="I37" s="4" t="n">
+        <v>1.41666666666667</v>
       </c>
       <c r="J37" s="1" t="n">
-        <v>10092</v>
+        <v>10120</v>
       </c>
       <c r="K37" s="1" t="n">
         <v>44011</v>
       </c>
       <c r="L37" s="1" t="s">
-        <v>212</v>
+        <v>85</v>
       </c>
       <c r="M37" s="1" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="N37" s="1" t="n">
-        <v>901</v>
+        <v>305</v>
       </c>
       <c r="O37" s="1" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="P37" s="1" t="n">
         <v>1</v>
@@ -4712,28 +4596,31 @@
       <c r="R37" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="S37" s="1" t="s">
-        <v>225</v>
+      <c r="S37" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="T37" s="1" t="s">
+        <v>81</v>
       </c>
       <c r="U37" s="1" t="s">
         <v>40</v>
       </c>
       <c r="V37" s="1" t="n">
-        <v>0.4</v>
+        <v>0.1</v>
       </c>
       <c r="W37" s="1" t="n">
-        <v>1.2</v>
+        <v>0.2</v>
       </c>
       <c r="X37" s="1" t="n">
-        <v>2.1</v>
+        <v>0.3</v>
       </c>
       <c r="Y37" s="1" t="n">
-        <v>3.6</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>63</v>
@@ -4742,75 +4629,75 @@
         <v>27</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>159</v>
+        <v>220</v>
       </c>
       <c r="E38" s="1" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="G38" s="1" t="s">
         <v>66</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="I38" s="4" t="n">
-        <v>5.35416666666667</v>
+        <v>84</v>
+      </c>
+      <c r="I38" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="J38" s="1" t="n">
-        <v>10100</v>
+        <v>10130</v>
       </c>
       <c r="K38" s="1" t="n">
         <v>44011</v>
       </c>
       <c r="L38" s="1" t="s">
-        <v>228</v>
+        <v>85</v>
       </c>
       <c r="M38" s="1" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="N38" s="1" t="n">
-        <v>286</v>
+        <v>256</v>
       </c>
       <c r="O38" s="1" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="P38" s="1" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q38" s="1" t="s">
         <v>36</v>
       </c>
       <c r="R38" s="1" t="s">
-        <v>164</v>
+        <v>235</v>
       </c>
       <c r="S38" s="3" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="T38" s="1" t="s">
-        <v>61</v>
+        <v>81</v>
       </c>
       <c r="U38" s="1" t="s">
         <v>75</v>
       </c>
       <c r="V38" s="1" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="W38" s="1" t="n">
         <v>0.3</v>
       </c>
-      <c r="W38" s="1" t="n">
-        <v>0.6</v>
-      </c>
       <c r="X38" s="1" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="Y38" s="1" t="n">
-        <v>2.4</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>63</v>
@@ -4819,52 +4706,52 @@
         <v>27</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>233</v>
+        <v>220</v>
       </c>
       <c r="E39" s="1" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="G39" s="1" t="s">
         <v>66</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>202</v>
+        <v>84</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>203</v>
+        <v>68</v>
       </c>
       <c r="J39" s="1" t="n">
-        <v>10110</v>
+        <v>10132</v>
       </c>
       <c r="K39" s="1" t="n">
         <v>44011</v>
       </c>
       <c r="L39" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="M39" s="1" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="N39" s="1" t="n">
-        <v>100</v>
+        <v>63</v>
       </c>
       <c r="O39" s="1" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="P39" s="1" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q39" s="1" t="s">
         <v>36</v>
       </c>
       <c r="R39" s="1" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="S39" s="3" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="T39" s="1" t="s">
         <v>81</v>
@@ -4873,21 +4760,21 @@
         <v>75</v>
       </c>
       <c r="V39" s="1" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="W39" s="1" t="n">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="X39" s="1" t="n">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="Y39" s="1" t="n">
-        <v>0.6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>63</v>
@@ -4896,75 +4783,75 @@
         <v>27</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>233</v>
+        <v>220</v>
       </c>
       <c r="E40" s="1" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="G40" s="1" t="s">
         <v>66</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="I40" s="4" t="n">
-        <v>1.41666666666667</v>
+        <v>84</v>
+      </c>
+      <c r="I40" s="1" t="s">
+        <v>190</v>
       </c>
       <c r="J40" s="1" t="n">
-        <v>10120</v>
+        <v>10140</v>
       </c>
       <c r="K40" s="1" t="n">
         <v>44011</v>
       </c>
       <c r="L40" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="M40" s="1" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="N40" s="1" t="n">
-        <v>305</v>
+        <v>29</v>
       </c>
       <c r="O40" s="1" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="P40" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q40" s="1" t="s">
         <v>36</v>
       </c>
       <c r="R40" s="1" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="S40" s="3" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="T40" s="1" t="s">
         <v>81</v>
       </c>
       <c r="U40" s="1" t="s">
-        <v>82</v>
+        <v>40</v>
       </c>
       <c r="V40" s="1" t="n">
         <v>0.1</v>
       </c>
       <c r="W40" s="1" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="X40" s="1" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="Y40" s="1" t="n">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>63</v>
@@ -4973,52 +4860,52 @@
         <v>27</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>233</v>
+        <v>220</v>
       </c>
       <c r="E41" s="1" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="G41" s="1" t="s">
         <v>66</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I41" s="1" t="s">
         <v>68</v>
       </c>
       <c r="J41" s="1" t="n">
-        <v>10130</v>
+        <v>10150</v>
       </c>
       <c r="K41" s="1" t="n">
         <v>44011</v>
       </c>
       <c r="L41" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="M41" s="1" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="N41" s="1" t="n">
-        <v>256</v>
+        <v>898</v>
       </c>
       <c r="O41" s="1" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="P41" s="1" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q41" s="1" t="s">
         <v>36</v>
       </c>
       <c r="R41" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="S41" s="3" t="s">
-        <v>249</v>
+        <v>185</v>
+      </c>
+      <c r="S41" s="1" t="s">
+        <v>250</v>
       </c>
       <c r="T41" s="1" t="s">
         <v>81</v>
@@ -5027,21 +4914,21 @@
         <v>75</v>
       </c>
       <c r="V41" s="1" t="n">
-        <v>0.1</v>
+        <v>1.5</v>
       </c>
       <c r="W41" s="1" t="n">
-        <v>0.3</v>
+        <v>3</v>
       </c>
       <c r="X41" s="1" t="n">
-        <v>0.5</v>
+        <v>6</v>
       </c>
       <c r="Y41" s="1" t="n">
-        <v>0.9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>63</v>
@@ -5050,75 +4937,75 @@
         <v>27</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>233</v>
+        <v>220</v>
       </c>
       <c r="E42" s="1" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="G42" s="1" t="s">
         <v>66</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I42" s="1" t="s">
         <v>68</v>
       </c>
       <c r="J42" s="1" t="n">
-        <v>10132</v>
+        <v>10152</v>
       </c>
       <c r="K42" s="1" t="n">
         <v>44011</v>
       </c>
       <c r="L42" s="1" t="s">
-        <v>86</v>
+        <v>252</v>
       </c>
       <c r="M42" s="1" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="N42" s="1" t="n">
-        <v>63</v>
+        <v>151</v>
       </c>
       <c r="O42" s="1" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="P42" s="1" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q42" s="1" t="s">
         <v>36</v>
       </c>
       <c r="R42" s="1" t="s">
-        <v>248</v>
+        <v>235</v>
       </c>
       <c r="S42" s="3" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="T42" s="1" t="s">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="U42" s="1" t="s">
         <v>75</v>
       </c>
       <c r="V42" s="1" t="n">
-        <v>0.2</v>
+        <v>0.025</v>
       </c>
       <c r="W42" s="1" t="n">
-        <v>0.3</v>
+        <v>0.05</v>
       </c>
       <c r="X42" s="1" t="n">
-        <v>0.5</v>
+        <v>0.06</v>
       </c>
       <c r="Y42" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>63</v>
@@ -5127,40 +5014,40 @@
         <v>27</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>233</v>
+        <v>220</v>
       </c>
       <c r="E43" s="1" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="G43" s="1" t="s">
         <v>66</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>203</v>
+        <v>68</v>
       </c>
       <c r="J43" s="1" t="n">
-        <v>10140</v>
+        <v>10154</v>
       </c>
       <c r="K43" s="1" t="n">
         <v>44011</v>
       </c>
       <c r="L43" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="M43" s="1" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="N43" s="1" t="n">
-        <v>29</v>
+        <v>885</v>
       </c>
       <c r="O43" s="1" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="P43" s="1" t="n">
         <v>2</v>
@@ -5169,33 +5056,33 @@
         <v>36</v>
       </c>
       <c r="R43" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="S43" s="3" t="s">
-        <v>258</v>
+        <v>185</v>
+      </c>
+      <c r="S43" s="1" t="s">
+        <v>259</v>
       </c>
       <c r="T43" s="1" t="s">
         <v>81</v>
       </c>
       <c r="U43" s="1" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="V43" s="1" t="n">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="W43" s="1" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X43" s="1" t="n">
-        <v>0.1</v>
+        <v>4</v>
       </c>
       <c r="Y43" s="1" t="n">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>63</v>
@@ -5204,73 +5091,73 @@
         <v>27</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>233</v>
+        <v>220</v>
       </c>
       <c r="E44" s="1" t="n">
         <v>18</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>260</v>
+        <v>247</v>
       </c>
       <c r="G44" s="1" t="s">
         <v>66</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I44" s="1" t="s">
         <v>68</v>
       </c>
       <c r="J44" s="1" t="n">
-        <v>10150</v>
+        <v>10156</v>
       </c>
       <c r="K44" s="1" t="n">
         <v>44011</v>
       </c>
       <c r="L44" s="1" t="s">
-        <v>86</v>
+        <v>252</v>
       </c>
       <c r="M44" s="1" t="s">
         <v>261</v>
       </c>
       <c r="N44" s="1" t="n">
-        <v>898</v>
+        <v>25</v>
       </c>
       <c r="O44" s="1" t="s">
         <v>262</v>
       </c>
       <c r="P44" s="1" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q44" s="1" t="s">
         <v>36</v>
       </c>
       <c r="R44" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="S44" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="S44" s="3" t="s">
         <v>263</v>
       </c>
       <c r="T44" s="1" t="s">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="U44" s="1" t="s">
-        <v>40</v>
+        <v>75</v>
       </c>
       <c r="V44" s="1" t="n">
-        <v>1.6</v>
+        <v>0.015</v>
       </c>
       <c r="W44" s="1" t="n">
-        <v>3.4</v>
+        <v>0.03</v>
       </c>
       <c r="X44" s="1" t="n">
-        <v>6.3</v>
+        <v>0.05</v>
       </c>
       <c r="Y44" s="1" t="n">
-        <v>8.7</v>
-      </c>
-    </row>
-    <row r="45" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="s">
         <v>264</v>
       </c>
@@ -5281,37 +5168,37 @@
         <v>27</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>233</v>
+        <v>220</v>
       </c>
       <c r="E45" s="1" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="G45" s="1" t="s">
         <v>66</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>85</v>
+        <v>156</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>68</v>
+        <v>190</v>
       </c>
       <c r="J45" s="1" t="n">
-        <v>10152</v>
+        <v>10160</v>
       </c>
       <c r="K45" s="1" t="n">
         <v>44011</v>
       </c>
       <c r="L45" s="1" t="s">
-        <v>265</v>
+        <v>85</v>
       </c>
       <c r="M45" s="1" t="s">
         <v>266</v>
       </c>
       <c r="N45" s="1" t="n">
-        <v>151</v>
+        <v>896</v>
       </c>
       <c r="O45" s="1" t="s">
         <v>267</v>
@@ -5323,31 +5210,31 @@
         <v>36</v>
       </c>
       <c r="R45" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="S45" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="S45" s="1" t="s">
         <v>268</v>
       </c>
       <c r="T45" s="1" t="s">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="U45" s="1" t="s">
         <v>75</v>
       </c>
       <c r="V45" s="1" t="n">
-        <v>0.027</v>
+        <v>2</v>
       </c>
       <c r="W45" s="1" t="n">
-        <v>0.049</v>
+        <v>4</v>
       </c>
       <c r="X45" s="1" t="n">
-        <v>0.066</v>
+        <v>7</v>
       </c>
       <c r="Y45" s="1" t="n">
-        <v>0.111</v>
-      </c>
-    </row>
-    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="s">
         <v>269</v>
       </c>
@@ -5358,70 +5245,70 @@
         <v>27</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>233</v>
+        <v>220</v>
       </c>
       <c r="E46" s="1" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="G46" s="1" t="s">
         <v>66</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>85</v>
+        <v>156</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>68</v>
+        <v>190</v>
       </c>
       <c r="J46" s="1" t="n">
-        <v>10154</v>
+        <v>10162</v>
       </c>
       <c r="K46" s="1" t="n">
         <v>44011</v>
       </c>
       <c r="L46" s="1" t="s">
-        <v>86</v>
+        <v>69</v>
       </c>
       <c r="M46" s="1" t="s">
         <v>270</v>
       </c>
       <c r="N46" s="1" t="n">
-        <v>885</v>
+        <v>222</v>
       </c>
       <c r="O46" s="1" t="s">
         <v>271</v>
       </c>
       <c r="P46" s="1" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q46" s="1" t="s">
         <v>36</v>
       </c>
       <c r="R46" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="S46" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="S46" s="3" t="s">
         <v>272</v>
       </c>
       <c r="T46" s="1" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="U46" s="1" t="s">
-        <v>40</v>
+        <v>75</v>
       </c>
       <c r="V46" s="1" t="n">
-        <v>0.8</v>
+        <v>15</v>
       </c>
       <c r="W46" s="1" t="n">
-        <v>2.1</v>
+        <v>35</v>
       </c>
       <c r="X46" s="1" t="n">
-        <v>3.9</v>
+        <v>50</v>
       </c>
       <c r="Y46" s="1" t="n">
-        <v>5.4</v>
+        <v>100</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5435,75 +5322,75 @@
         <v>27</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>233</v>
+        <v>220</v>
       </c>
       <c r="E47" s="1" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>260</v>
+        <v>274</v>
       </c>
       <c r="G47" s="1" t="s">
         <v>66</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="I47" s="1" t="s">
-        <v>68</v>
+        <v>156</v>
+      </c>
+      <c r="I47" s="4" t="n">
+        <v>6.35416666666667</v>
       </c>
       <c r="J47" s="1" t="n">
-        <v>10156</v>
+        <v>10170</v>
       </c>
       <c r="K47" s="1" t="n">
         <v>44011</v>
       </c>
       <c r="L47" s="1" t="s">
-        <v>265</v>
+        <v>85</v>
       </c>
       <c r="M47" s="1" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="N47" s="1" t="n">
-        <v>25</v>
+        <v>86</v>
       </c>
       <c r="O47" s="1" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="P47" s="1" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q47" s="1" t="s">
         <v>36</v>
       </c>
       <c r="R47" s="1" t="s">
-        <v>248</v>
+        <v>235</v>
       </c>
       <c r="S47" s="3" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="T47" s="1" t="s">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="U47" s="1" t="s">
         <v>75</v>
       </c>
       <c r="V47" s="1" t="n">
-        <v>0.015</v>
+        <v>0.4</v>
       </c>
       <c r="W47" s="1" t="n">
-        <v>0.036</v>
+        <v>0.7</v>
       </c>
       <c r="X47" s="1" t="n">
-        <v>0.054</v>
+        <v>1.3</v>
       </c>
       <c r="Y47" s="1" t="n">
-        <v>0.09</v>
-      </c>
-    </row>
-    <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>63</v>
@@ -5512,73 +5399,73 @@
         <v>27</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>233</v>
+        <v>220</v>
       </c>
       <c r="E48" s="1" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="G48" s="1" t="s">
         <v>66</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="I48" s="1" t="s">
-        <v>203</v>
+        <v>156</v>
+      </c>
+      <c r="I48" s="4" t="n">
+        <v>8.35416666666667</v>
       </c>
       <c r="J48" s="1" t="n">
-        <v>10160</v>
+        <v>10172</v>
       </c>
       <c r="K48" s="1" t="n">
         <v>44011</v>
       </c>
       <c r="L48" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="M48" s="1" t="s">
         <v>279</v>
       </c>
       <c r="N48" s="1" t="n">
-        <v>896</v>
+        <v>59</v>
       </c>
       <c r="O48" s="1" t="s">
         <v>280</v>
       </c>
       <c r="P48" s="1" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q48" s="1" t="s">
         <v>36</v>
       </c>
       <c r="R48" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="S48" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="S48" s="3" t="s">
         <v>281</v>
       </c>
       <c r="T48" s="1" t="s">
         <v>81</v>
       </c>
       <c r="U48" s="1" t="s">
-        <v>40</v>
+        <v>75</v>
       </c>
       <c r="V48" s="1" t="n">
-        <v>2</v>
+        <v>0.1</v>
       </c>
       <c r="W48" s="1" t="n">
-        <v>4.1</v>
+        <v>0.2</v>
       </c>
       <c r="X48" s="1" t="n">
-        <v>7</v>
+        <v>0.4</v>
       </c>
       <c r="Y48" s="1" t="n">
-        <v>11.7</v>
-      </c>
-    </row>
-    <row r="49" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="s">
         <v>282</v>
       </c>
@@ -5589,75 +5476,75 @@
         <v>27</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>233</v>
+        <v>154</v>
       </c>
       <c r="E49" s="1" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="G49" s="1" t="s">
         <v>66</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="I49" s="1" t="s">
-        <v>203</v>
+        <v>156</v>
+      </c>
+      <c r="I49" s="4" t="n">
+        <v>8.35416666666667</v>
       </c>
       <c r="J49" s="1" t="n">
-        <v>10162</v>
+        <v>10190</v>
       </c>
       <c r="K49" s="1" t="n">
         <v>44011</v>
       </c>
       <c r="L49" s="1" t="s">
-        <v>69</v>
+        <v>215</v>
       </c>
       <c r="M49" s="1" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="N49" s="1" t="n">
-        <v>222</v>
+        <v>1650</v>
       </c>
       <c r="O49" s="1" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="P49" s="1" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q49" s="1" t="s">
         <v>36</v>
       </c>
       <c r="R49" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="S49" s="3" t="s">
-        <v>285</v>
+        <v>159</v>
+      </c>
+      <c r="S49" s="1" t="s">
+        <v>286</v>
       </c>
       <c r="T49" s="1" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="U49" s="1" t="s">
         <v>75</v>
       </c>
       <c r="V49" s="1" t="n">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="W49" s="1" t="n">
-        <v>36</v>
+        <v>2</v>
       </c>
       <c r="X49" s="1" t="n">
-        <v>53</v>
+        <v>3.5</v>
       </c>
       <c r="Y49" s="1" t="n">
-        <v>97</v>
+        <v>5</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="1" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>63</v>
@@ -5666,75 +5553,75 @@
         <v>27</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>233</v>
+        <v>220</v>
       </c>
       <c r="E50" s="1" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="G50" s="1" t="s">
         <v>66</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="I50" s="4" t="n">
-        <v>6.35416666666667</v>
+        <v>8.35416666666667</v>
       </c>
       <c r="J50" s="1" t="n">
-        <v>10170</v>
+        <v>10200</v>
       </c>
       <c r="K50" s="1" t="n">
         <v>44011</v>
       </c>
       <c r="L50" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="M50" s="1" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="N50" s="1" t="n">
-        <v>86</v>
+        <v>305</v>
       </c>
       <c r="O50" s="1" t="s">
-        <v>289</v>
+        <v>229</v>
       </c>
       <c r="P50" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q50" s="1" t="s">
         <v>36</v>
       </c>
       <c r="R50" s="1" t="s">
-        <v>248</v>
+        <v>224</v>
       </c>
       <c r="S50" s="3" t="s">
-        <v>290</v>
+        <v>230</v>
       </c>
       <c r="T50" s="1" t="s">
         <v>81</v>
       </c>
       <c r="U50" s="1" t="s">
-        <v>75</v>
+        <v>40</v>
       </c>
       <c r="V50" s="1" t="n">
-        <v>0.4</v>
+        <v>0.1</v>
       </c>
       <c r="W50" s="1" t="n">
-        <v>0.7</v>
+        <v>0.2</v>
       </c>
       <c r="X50" s="1" t="n">
-        <v>1.3</v>
+        <v>0.3</v>
       </c>
       <c r="Y50" s="1" t="n">
-        <v>2</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>63</v>
@@ -5743,49 +5630,49 @@
         <v>27</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>233</v>
+        <v>220</v>
       </c>
       <c r="E51" s="1" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="G51" s="1" t="s">
         <v>66</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>161</v>
+        <v>189</v>
       </c>
       <c r="I51" s="4" t="n">
-        <v>8.35416666666667</v>
+        <v>1.41666666666667</v>
       </c>
       <c r="J51" s="1" t="n">
-        <v>10172</v>
+        <v>10210</v>
       </c>
       <c r="K51" s="1" t="n">
         <v>44011</v>
       </c>
       <c r="L51" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="M51" s="1" t="s">
         <v>292</v>
       </c>
       <c r="N51" s="1" t="n">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="O51" s="1" t="s">
         <v>293</v>
       </c>
       <c r="P51" s="1" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q51" s="1" t="s">
         <v>36</v>
       </c>
       <c r="R51" s="1" t="s">
-        <v>248</v>
+        <v>235</v>
       </c>
       <c r="S51" s="3" t="s">
         <v>294</v>
@@ -5797,19 +5684,19 @@
         <v>75</v>
       </c>
       <c r="V51" s="1" t="n">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="W51" s="1" t="n">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="X51" s="1" t="n">
-        <v>0.4</v>
+        <v>0.7</v>
       </c>
       <c r="Y51" s="1" t="n">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="1" t="s">
         <v>295</v>
       </c>
@@ -5820,40 +5707,40 @@
         <v>27</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>233</v>
+        <v>64</v>
       </c>
       <c r="E52" s="1" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="F52" s="1" t="s">
         <v>296</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>66</v>
+        <v>297</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>161</v>
+        <v>298</v>
       </c>
       <c r="I52" s="4" t="n">
-        <v>8.35416666666667</v>
+        <v>6.35416666666667</v>
       </c>
       <c r="J52" s="1" t="n">
-        <v>10180</v>
+        <v>10220</v>
       </c>
       <c r="K52" s="1" t="n">
         <v>44011</v>
       </c>
       <c r="L52" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="M52" s="1" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="N52" s="1" t="n">
-        <v>1887</v>
+        <v>331</v>
       </c>
       <c r="O52" s="1" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="P52" s="1" t="n">
         <v>2</v>
@@ -5862,21 +5749,33 @@
         <v>36</v>
       </c>
       <c r="R52" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="S52" s="1" t="s">
-        <v>49</v>
+        <v>72</v>
+      </c>
+      <c r="S52" s="3" t="s">
+        <v>301</v>
       </c>
       <c r="T52" s="1" t="s">
         <v>81</v>
       </c>
       <c r="U52" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>75</v>
+      </c>
+      <c r="V52" s="1" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="W52" s="1" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="X52" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y52" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="1" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>63</v>
@@ -5885,135 +5784,135 @@
         <v>27</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>159</v>
+        <v>303</v>
       </c>
       <c r="E53" s="1" t="n">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>66</v>
+        <v>30</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="I53" s="4" t="n">
-        <v>8.35416666666667</v>
+        <v>56</v>
+      </c>
+      <c r="I53" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="J53" s="1" t="n">
-        <v>10190</v>
+        <v>10230</v>
       </c>
       <c r="K53" s="1" t="n">
         <v>44011</v>
       </c>
       <c r="L53" s="1" t="s">
-        <v>228</v>
+        <v>69</v>
       </c>
       <c r="M53" s="1" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="N53" s="1" t="n">
-        <v>1650</v>
+        <v>294</v>
       </c>
       <c r="O53" s="1" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="P53" s="1" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q53" s="1" t="s">
         <v>36</v>
       </c>
       <c r="R53" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="S53" s="1" t="s">
-        <v>303</v>
+        <v>307</v>
+      </c>
+      <c r="S53" s="3" t="s">
+        <v>308</v>
       </c>
       <c r="T53" s="1" t="s">
-        <v>61</v>
+        <v>74</v>
       </c>
       <c r="U53" s="1" t="s">
         <v>40</v>
       </c>
       <c r="V53" s="1" t="n">
-        <v>1.14</v>
+        <v>3</v>
       </c>
       <c r="W53" s="1" t="n">
-        <v>2.06</v>
+        <v>7</v>
       </c>
       <c r="X53" s="1" t="n">
-        <v>3.6</v>
+        <v>12</v>
       </c>
       <c r="Y53" s="1" t="n">
-        <v>5.56</v>
+        <v>25</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="1" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>63</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>27</v>
+        <v>310</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>233</v>
+        <v>311</v>
       </c>
       <c r="E54" s="1" t="n">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>305</v>
+        <v>113</v>
       </c>
       <c r="G54" s="1" t="s">
         <v>66</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="I54" s="4" t="n">
-        <v>8.35416666666667</v>
+        <v>84</v>
+      </c>
+      <c r="I54" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="J54" s="1" t="n">
-        <v>10200</v>
+        <v>10250</v>
       </c>
       <c r="K54" s="1" t="n">
-        <v>44011</v>
+        <v>44012</v>
       </c>
       <c r="L54" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="M54" s="1" t="s">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="N54" s="1" t="n">
-        <v>305</v>
+        <v>70</v>
       </c>
       <c r="O54" s="1" t="s">
-        <v>242</v>
+        <v>313</v>
       </c>
       <c r="P54" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q54" s="1" t="s">
-        <v>36</v>
+        <v>314</v>
       </c>
       <c r="R54" s="1" t="s">
-        <v>237</v>
+        <v>315</v>
       </c>
       <c r="S54" s="3" t="s">
-        <v>243</v>
+        <v>316</v>
       </c>
       <c r="T54" s="1" t="s">
         <v>81</v>
       </c>
       <c r="U54" s="1" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="V54" s="1" t="n">
         <v>0.1</v>
@@ -6022,69 +5921,69 @@
         <v>0.2</v>
       </c>
       <c r="X54" s="1" t="n">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="Y54" s="1" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="1" t="s">
-        <v>307</v>
+        <v>317</v>
       </c>
       <c r="B55" s="1" t="s">
         <v>63</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>27</v>
+        <v>310</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>233</v>
+        <v>311</v>
       </c>
       <c r="E55" s="1" t="n">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>308</v>
+        <v>113</v>
       </c>
       <c r="G55" s="1" t="s">
         <v>66</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="I55" s="4" t="n">
-        <v>1.41666666666667</v>
+        <v>84</v>
+      </c>
+      <c r="I55" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="J55" s="1" t="n">
-        <v>10210</v>
+        <v>10251</v>
       </c>
       <c r="K55" s="1" t="n">
-        <v>44011</v>
+        <v>44012</v>
       </c>
       <c r="L55" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="M55" s="1" t="s">
-        <v>309</v>
+        <v>318</v>
       </c>
       <c r="N55" s="1" t="n">
-        <v>45</v>
+        <v>741</v>
       </c>
       <c r="O55" s="1" t="s">
-        <v>310</v>
+        <v>319</v>
       </c>
       <c r="P55" s="1" t="n">
         <v>1</v>
       </c>
       <c r="Q55" s="1" t="s">
-        <v>36</v>
+        <v>314</v>
       </c>
       <c r="R55" s="1" t="s">
-        <v>248</v>
+        <v>315</v>
       </c>
       <c r="S55" s="3" t="s">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="T55" s="1" t="s">
         <v>81</v>
@@ -6093,75 +5992,75 @@
         <v>75</v>
       </c>
       <c r="V55" s="1" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="W55" s="1" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="X55" s="1" t="n">
         <v>0.3</v>
       </c>
-      <c r="W55" s="1" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="X55" s="1" t="n">
-        <v>0.7</v>
-      </c>
       <c r="Y55" s="1" t="n">
-        <v>1.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="1" t="s">
-        <v>312</v>
+        <v>320</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>63</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>27</v>
+        <v>310</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>64</v>
+        <v>311</v>
       </c>
       <c r="E56" s="1" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>313</v>
+        <v>113</v>
       </c>
       <c r="G56" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="H56" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I56" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="J56" s="1" t="n">
+        <v>10252</v>
+      </c>
+      <c r="K56" s="1" t="n">
+        <v>44012</v>
+      </c>
+      <c r="L56" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="M56" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="N56" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="O56" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="P56" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q56" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="H56" s="1" t="s">
+      <c r="R56" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="I56" s="4" t="n">
-        <v>6.35416666666667</v>
-      </c>
-      <c r="J56" s="1" t="n">
-        <v>10220</v>
-      </c>
-      <c r="K56" s="1" t="n">
-        <v>44011</v>
-      </c>
-      <c r="L56" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="M56" s="1" t="s">
-        <v>316</v>
-      </c>
-      <c r="N56" s="1" t="n">
-        <v>331</v>
-      </c>
-      <c r="O56" s="1" t="s">
-        <v>317</v>
-      </c>
-      <c r="P56" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q56" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="R56" s="1" t="s">
-        <v>72</v>
-      </c>
       <c r="S56" s="3" t="s">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="T56" s="1" t="s">
         <v>81</v>
@@ -6170,282 +6069,306 @@
         <v>75</v>
       </c>
       <c r="V56" s="1" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="W56" s="1" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="X56" s="1" t="n">
-        <v>0.1</v>
+        <v>0.4</v>
       </c>
       <c r="Y56" s="1" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="57" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="1" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>63</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>27</v>
+        <v>310</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="E57" s="1" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>321</v>
+        <v>113</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>30</v>
+        <v>66</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>56</v>
+        <v>84</v>
       </c>
       <c r="I57" s="1" t="s">
         <v>68</v>
       </c>
       <c r="J57" s="1" t="n">
-        <v>10230</v>
+        <v>10253</v>
       </c>
       <c r="K57" s="1" t="n">
-        <v>44011</v>
+        <v>44012</v>
       </c>
       <c r="L57" s="1" t="s">
-        <v>69</v>
+        <v>85</v>
       </c>
       <c r="M57" s="1" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="N57" s="1" t="n">
-        <v>294</v>
+        <v>1020</v>
       </c>
       <c r="O57" s="1" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="P57" s="1" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q57" s="1" t="s">
-        <v>36</v>
+        <v>314</v>
       </c>
       <c r="R57" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="S57" s="3" t="s">
-        <v>325</v>
+        <v>327</v>
+      </c>
+      <c r="S57" s="1" t="s">
+        <v>328</v>
       </c>
       <c r="T57" s="1" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="U57" s="1" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="V57" s="1" t="n">
-        <v>3</v>
+        <v>0.1</v>
       </c>
       <c r="W57" s="1" t="n">
-        <v>7</v>
+        <v>0.2</v>
       </c>
       <c r="X57" s="1" t="n">
-        <v>13</v>
+        <v>0.3</v>
       </c>
       <c r="Y57" s="1" t="n">
-        <v>26</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="1" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>63</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>27</v>
+        <v>310</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>327</v>
+        <v>311</v>
       </c>
       <c r="E58" s="1" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>329</v>
+        <v>66</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>31</v>
+        <v>84</v>
       </c>
       <c r="I58" s="1" t="s">
-        <v>330</v>
+        <v>68</v>
       </c>
       <c r="J58" s="1" t="n">
-        <v>10240</v>
+        <v>10260</v>
       </c>
       <c r="K58" s="1" t="n">
-        <v>44011</v>
+        <v>44012</v>
       </c>
       <c r="L58" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="M58" s="1" t="s">
         <v>331</v>
       </c>
-      <c r="M58" s="1" t="s">
+      <c r="N58" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="O58" s="1" t="s">
         <v>332</v>
-      </c>
-      <c r="N58" s="1" t="n">
-        <v>168</v>
-      </c>
-      <c r="O58" s="1" t="s">
-        <v>333</v>
       </c>
       <c r="P58" s="1" t="n">
         <v>3</v>
       </c>
       <c r="Q58" s="1" t="s">
-        <v>36</v>
+        <v>314</v>
       </c>
       <c r="R58" s="1" t="s">
-        <v>142</v>
+        <v>315</v>
       </c>
       <c r="S58" s="3" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="T58" s="1" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="U58" s="1" t="s">
-        <v>40</v>
+        <v>75</v>
+      </c>
+      <c r="V58" s="1" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="W58" s="1" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="X58" s="1" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="Y58" s="1" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="E59" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="G59" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="H59" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I59" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="J59" s="1" t="n">
+        <v>10261</v>
+      </c>
+      <c r="K59" s="1" t="n">
+        <v>44012</v>
+      </c>
+      <c r="L59" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="M59" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="B59" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D59" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="E59" s="1" t="n">
-        <v>27</v>
-      </c>
-      <c r="F59" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="G59" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="H59" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="I59" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="J59" s="1" t="n">
-        <v>10242</v>
-      </c>
-      <c r="K59" s="1" t="n">
-        <v>44011</v>
-      </c>
-      <c r="L59" s="1" t="s">
+      <c r="N59" s="1" t="n">
+        <v>260</v>
+      </c>
+      <c r="O59" s="1" t="s">
         <v>336</v>
       </c>
-      <c r="M59" s="1" t="s">
+      <c r="P59" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q59" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="R59" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="S59" s="3" t="s">
         <v>337</v>
       </c>
-      <c r="N59" s="1" t="n">
-        <v>398</v>
-      </c>
-      <c r="O59" s="1" t="s">
-        <v>338</v>
-      </c>
-      <c r="P59" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q59" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="R59" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="S59" s="3" t="s">
-        <v>339</v>
-      </c>
       <c r="T59" s="1" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="U59" s="1" t="s">
-        <v>40</v>
+        <v>75</v>
+      </c>
+      <c r="V59" s="1" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="W59" s="1" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="X59" s="1" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="Y59" s="1" t="n">
+        <v>0.9</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="1" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="B60" s="1" t="s">
         <v>63</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>341</v>
+        <v>310</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>342</v>
+        <v>311</v>
       </c>
       <c r="E60" s="1" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>114</v>
+        <v>155</v>
       </c>
       <c r="G60" s="1" t="s">
         <v>66</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>85</v>
+        <v>156</v>
       </c>
       <c r="I60" s="1" t="s">
         <v>68</v>
       </c>
       <c r="J60" s="1" t="n">
-        <v>10250</v>
+        <v>10270</v>
       </c>
       <c r="K60" s="1" t="n">
         <v>44012</v>
       </c>
       <c r="L60" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="M60" s="1" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="N60" s="1" t="n">
-        <v>70</v>
+        <v>123</v>
       </c>
       <c r="O60" s="1" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="P60" s="1" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q60" s="1" t="s">
-        <v>345</v>
+        <v>314</v>
       </c>
       <c r="R60" s="1" t="s">
-        <v>346</v>
+        <v>315</v>
       </c>
       <c r="S60" s="3" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="T60" s="1" t="s">
         <v>81</v>
@@ -6454,75 +6377,75 @@
         <v>75</v>
       </c>
       <c r="V60" s="1" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="W60" s="1" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="X60" s="1" t="n">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="Y60" s="1" t="n">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="61" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="1" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="B61" s="1" t="s">
         <v>63</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>341</v>
+        <v>310</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>342</v>
+        <v>311</v>
       </c>
       <c r="E61" s="1" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>114</v>
+        <v>155</v>
       </c>
       <c r="G61" s="1" t="s">
         <v>66</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>85</v>
+        <v>156</v>
       </c>
       <c r="I61" s="1" t="s">
         <v>68</v>
       </c>
       <c r="J61" s="1" t="n">
-        <v>10251</v>
+        <v>10272</v>
       </c>
       <c r="K61" s="1" t="n">
         <v>44012</v>
       </c>
       <c r="L61" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="M61" s="1" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="N61" s="1" t="n">
-        <v>741</v>
+        <v>1758</v>
       </c>
       <c r="O61" s="1" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="P61" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q61" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="R61" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="S61" s="1" t="s">
         <v>345</v>
-      </c>
-      <c r="R61" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="S61" s="3" t="s">
-        <v>347</v>
       </c>
       <c r="T61" s="1" t="s">
         <v>81</v>
@@ -6531,389 +6454,389 @@
         <v>75</v>
       </c>
       <c r="V61" s="1" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="W61" s="1" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="X61" s="1" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="Y61" s="1" t="n">
         <v>0</v>
-      </c>
-      <c r="W61" s="1" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="X61" s="1" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="Y61" s="1" t="n">
-        <v>0.3</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="1" t="s">
-        <v>351</v>
+        <v>213</v>
       </c>
       <c r="B62" s="1" t="s">
         <v>63</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>341</v>
+        <v>310</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>342</v>
+        <v>311</v>
       </c>
       <c r="E62" s="1" t="n">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>114</v>
+        <v>346</v>
       </c>
       <c r="G62" s="1" t="s">
         <v>66</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>85</v>
+        <v>189</v>
       </c>
       <c r="I62" s="1" t="s">
         <v>68</v>
       </c>
       <c r="J62" s="1" t="n">
-        <v>10252</v>
+        <v>10280</v>
       </c>
       <c r="K62" s="1" t="n">
         <v>44012</v>
       </c>
       <c r="L62" s="1" t="s">
-        <v>86</v>
+        <v>215</v>
       </c>
       <c r="M62" s="1" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="N62" s="1" t="n">
-        <v>57</v>
+        <v>285</v>
       </c>
       <c r="O62" s="1" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="P62" s="1" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q62" s="1" t="s">
-        <v>345</v>
+        <v>314</v>
       </c>
       <c r="R62" s="1" t="s">
-        <v>346</v>
+        <v>315</v>
       </c>
       <c r="S62" s="3" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="T62" s="1" t="s">
-        <v>81</v>
+        <v>61</v>
       </c>
       <c r="U62" s="1" t="s">
         <v>75</v>
       </c>
       <c r="V62" s="1" t="n">
-        <v>0.1</v>
+        <v>0.25</v>
       </c>
       <c r="W62" s="1" t="n">
-        <v>0.2</v>
+        <v>0.6</v>
       </c>
       <c r="X62" s="1" t="n">
-        <v>0.4</v>
+        <v>0.9</v>
       </c>
       <c r="Y62" s="1" t="n">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="1" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="B63" s="1" t="s">
         <v>63</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>341</v>
+        <v>310</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>342</v>
+        <v>311</v>
       </c>
       <c r="E63" s="1" t="n">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>114</v>
+        <v>346</v>
       </c>
       <c r="G63" s="1" t="s">
         <v>66</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>85</v>
+        <v>189</v>
       </c>
       <c r="I63" s="1" t="s">
         <v>68</v>
       </c>
       <c r="J63" s="1" t="n">
-        <v>10253</v>
+        <v>10281</v>
       </c>
       <c r="K63" s="1" t="n">
         <v>44012</v>
       </c>
       <c r="L63" s="1" t="s">
-        <v>86</v>
+        <v>215</v>
       </c>
       <c r="M63" s="1" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="N63" s="1" t="n">
-        <v>1020</v>
+        <v>1023</v>
       </c>
       <c r="O63" s="1" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="P63" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q63" s="1" t="s">
-        <v>345</v>
+        <v>314</v>
       </c>
       <c r="R63" s="1" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="S63" s="1" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="T63" s="1" t="s">
-        <v>81</v>
+        <v>61</v>
       </c>
       <c r="U63" s="1" t="s">
-        <v>40</v>
+        <v>75</v>
       </c>
       <c r="V63" s="1" t="n">
-        <v>0.1</v>
+        <v>0.6</v>
       </c>
       <c r="W63" s="1" t="n">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="X63" s="1" t="n">
-        <v>0.3</v>
+        <v>1.25</v>
       </c>
       <c r="Y63" s="1" t="n">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="64" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="1" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="B64" s="1" t="s">
         <v>63</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>341</v>
+        <v>310</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>342</v>
+        <v>311</v>
       </c>
       <c r="E64" s="1" t="n">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>361</v>
+        <v>346</v>
       </c>
       <c r="G64" s="1" t="s">
         <v>66</v>
       </c>
       <c r="H64" s="1" t="s">
-        <v>85</v>
+        <v>189</v>
       </c>
       <c r="I64" s="1" t="s">
         <v>68</v>
       </c>
       <c r="J64" s="1" t="n">
-        <v>10260</v>
+        <v>10282</v>
       </c>
       <c r="K64" s="1" t="n">
         <v>44012</v>
       </c>
       <c r="L64" s="1" t="s">
-        <v>86</v>
+        <v>215</v>
       </c>
       <c r="M64" s="1" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="N64" s="1" t="n">
-        <v>65</v>
+        <v>1026</v>
       </c>
       <c r="O64" s="1" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="P64" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q64" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="R64" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="S64" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="T64" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="U64" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="V64" s="1" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="W64" s="1" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="X64" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="Y64" s="1" t="n">
         <v>3</v>
-      </c>
-      <c r="Q64" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="R64" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="S64" s="3" t="s">
-        <v>364</v>
-      </c>
-      <c r="T64" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="U64" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="V64" s="1" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="W64" s="1" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="X64" s="1" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="Y64" s="1" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="1" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="B65" s="1" t="s">
         <v>63</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>341</v>
+        <v>310</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>342</v>
+        <v>311</v>
       </c>
       <c r="E65" s="1" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="G65" s="1" t="s">
         <v>66</v>
       </c>
       <c r="H65" s="1" t="s">
-        <v>85</v>
+        <v>189</v>
       </c>
       <c r="I65" s="1" t="s">
         <v>68</v>
       </c>
       <c r="J65" s="1" t="n">
-        <v>10261</v>
+        <v>10290</v>
       </c>
       <c r="K65" s="1" t="n">
         <v>44012</v>
       </c>
       <c r="L65" s="1" t="s">
-        <v>86</v>
+        <v>69</v>
       </c>
       <c r="M65" s="1" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="N65" s="1" t="n">
-        <v>260</v>
+        <v>95</v>
       </c>
       <c r="O65" s="1" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="P65" s="1" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q65" s="1" t="s">
-        <v>345</v>
+        <v>314</v>
       </c>
       <c r="R65" s="1" t="s">
-        <v>346</v>
+        <v>315</v>
       </c>
       <c r="S65" s="3" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="T65" s="1" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="U65" s="1" t="s">
         <v>75</v>
       </c>
       <c r="V65" s="1" t="n">
-        <v>0.1</v>
+        <v>10</v>
       </c>
       <c r="W65" s="1" t="n">
-        <v>0.4</v>
+        <v>25</v>
       </c>
       <c r="X65" s="1" t="n">
-        <v>0.6</v>
+        <v>50</v>
       </c>
       <c r="Y65" s="1" t="n">
-        <v>0.9</v>
+        <v>90</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="1" t="s">
-        <v>369</v>
+        <v>76</v>
       </c>
       <c r="B66" s="1" t="s">
         <v>63</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>341</v>
+        <v>310</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>342</v>
+        <v>311</v>
       </c>
       <c r="E66" s="1" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>160</v>
+        <v>360</v>
       </c>
       <c r="G66" s="1" t="s">
         <v>66</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>161</v>
+        <v>189</v>
       </c>
       <c r="I66" s="1" t="s">
         <v>68</v>
       </c>
       <c r="J66" s="1" t="n">
-        <v>10270</v>
+        <v>10291</v>
       </c>
       <c r="K66" s="1" t="n">
         <v>44012</v>
       </c>
       <c r="L66" s="1" t="s">
-        <v>86</v>
+        <v>364</v>
       </c>
       <c r="M66" s="1" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="N66" s="1" t="n">
-        <v>123</v>
+        <v>301</v>
       </c>
       <c r="O66" s="1" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="P66" s="1" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q66" s="1" t="s">
-        <v>345</v>
+        <v>314</v>
       </c>
       <c r="R66" s="1" t="s">
-        <v>346</v>
+        <v>315</v>
       </c>
       <c r="S66" s="3" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="T66" s="1" t="s">
         <v>81</v>
       </c>
       <c r="U66" s="1" t="s">
-        <v>75</v>
+        <v>40</v>
       </c>
       <c r="V66" s="1" t="n">
         <v>0.1</v>
@@ -6925,66 +6848,66 @@
         <v>0.3</v>
       </c>
       <c r="Y66" s="1" t="n">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="1" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="B67" s="1" t="s">
         <v>63</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>341</v>
+        <v>310</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>342</v>
+        <v>311</v>
       </c>
       <c r="E67" s="1" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>160</v>
+        <v>360</v>
       </c>
       <c r="G67" s="1" t="s">
         <v>66</v>
       </c>
       <c r="H67" s="1" t="s">
-        <v>161</v>
+        <v>189</v>
       </c>
       <c r="I67" s="1" t="s">
         <v>68</v>
       </c>
       <c r="J67" s="1" t="n">
-        <v>10272</v>
+        <v>10294</v>
       </c>
       <c r="K67" s="1" t="n">
         <v>44012</v>
       </c>
       <c r="L67" s="1" t="s">
-        <v>86</v>
+        <v>364</v>
       </c>
       <c r="M67" s="1" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="N67" s="1" t="n">
-        <v>1758</v>
+        <v>670</v>
       </c>
       <c r="O67" s="1" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="P67" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q67" s="1" t="s">
-        <v>345</v>
+        <v>314</v>
       </c>
       <c r="R67" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="S67" s="1" t="s">
-        <v>376</v>
+        <v>353</v>
+      </c>
+      <c r="S67" s="3" t="s">
+        <v>371</v>
       </c>
       <c r="T67" s="1" t="s">
         <v>81</v>
@@ -6993,341 +6916,341 @@
         <v>75</v>
       </c>
       <c r="V67" s="1" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="W67" s="1" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="X67" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="W67" s="1" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="X67" s="1" t="n">
-        <v>0.1</v>
-      </c>
       <c r="Y67" s="1" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="1" t="s">
-        <v>226</v>
+        <v>256</v>
       </c>
       <c r="B68" s="1" t="s">
         <v>63</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>341</v>
+        <v>310</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>342</v>
+        <v>311</v>
       </c>
       <c r="E68" s="1" t="n">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>377</v>
+        <v>260</v>
       </c>
       <c r="G68" s="1" t="s">
         <v>66</v>
       </c>
       <c r="H68" s="1" t="s">
-        <v>202</v>
+        <v>189</v>
       </c>
       <c r="I68" s="1" t="s">
         <v>68</v>
       </c>
       <c r="J68" s="1" t="n">
-        <v>10280</v>
+        <v>10300</v>
       </c>
       <c r="K68" s="1" t="n">
         <v>44012</v>
       </c>
       <c r="L68" s="1" t="s">
-        <v>228</v>
+        <v>85</v>
       </c>
       <c r="M68" s="1" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="N68" s="1" t="n">
-        <v>285</v>
+        <v>24</v>
       </c>
       <c r="O68" s="1" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="P68" s="1" t="n">
         <v>2</v>
       </c>
       <c r="Q68" s="1" t="s">
-        <v>345</v>
+        <v>314</v>
       </c>
       <c r="R68" s="1" t="s">
-        <v>346</v>
+        <v>315</v>
       </c>
       <c r="S68" s="3" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="T68" s="1" t="s">
-        <v>61</v>
+        <v>81</v>
       </c>
       <c r="U68" s="1" t="s">
         <v>75</v>
       </c>
       <c r="V68" s="1" t="n">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="W68" s="1" t="n">
-        <v>0.6</v>
+        <v>3</v>
       </c>
       <c r="X68" s="1" t="n">
-        <v>0.89</v>
+        <v>4.5</v>
       </c>
       <c r="Y68" s="1" t="n">
-        <v>1.83</v>
-      </c>
-    </row>
-    <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="1" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="B69" s="1" t="s">
         <v>63</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>341</v>
+        <v>310</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>342</v>
+        <v>311</v>
       </c>
       <c r="E69" s="1" t="n">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="G69" s="1" t="s">
         <v>66</v>
       </c>
       <c r="H69" s="1" t="s">
-        <v>202</v>
+        <v>84</v>
       </c>
       <c r="I69" s="1" t="s">
         <v>68</v>
       </c>
       <c r="J69" s="1" t="n">
-        <v>10281</v>
+        <v>10310</v>
       </c>
       <c r="K69" s="1" t="n">
         <v>44012</v>
       </c>
       <c r="L69" s="1" t="s">
-        <v>228</v>
+        <v>85</v>
       </c>
       <c r="M69" s="1" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="N69" s="1" t="n">
-        <v>1023</v>
+        <v>223</v>
       </c>
       <c r="O69" s="1" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="P69" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q69" s="1" t="s">
-        <v>345</v>
+        <v>314</v>
       </c>
       <c r="R69" s="1" t="s">
-        <v>384</v>
-      </c>
-      <c r="S69" s="1" t="s">
-        <v>385</v>
+        <v>315</v>
+      </c>
+      <c r="S69" s="3" t="s">
+        <v>379</v>
       </c>
       <c r="T69" s="1" t="s">
-        <v>61</v>
+        <v>81</v>
       </c>
       <c r="U69" s="1" t="s">
-        <v>40</v>
+        <v>75</v>
       </c>
       <c r="V69" s="1" t="n">
-        <v>0.61</v>
+        <v>0.1</v>
       </c>
       <c r="W69" s="1" t="n">
-        <v>1.01</v>
+        <v>0.2</v>
       </c>
       <c r="X69" s="1" t="n">
-        <v>1.22</v>
+        <v>0.3</v>
       </c>
       <c r="Y69" s="1" t="n">
-        <v>2.55</v>
-      </c>
-    </row>
-    <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="1" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="B70" s="1" t="s">
         <v>63</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>341</v>
+        <v>310</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>342</v>
+        <v>311</v>
       </c>
       <c r="E70" s="1" t="n">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="G70" s="1" t="s">
         <v>66</v>
       </c>
       <c r="H70" s="1" t="s">
-        <v>202</v>
+        <v>84</v>
       </c>
       <c r="I70" s="1" t="s">
         <v>68</v>
       </c>
       <c r="J70" s="1" t="n">
-        <v>10282</v>
+        <v>10320</v>
       </c>
       <c r="K70" s="1" t="n">
         <v>44012</v>
       </c>
       <c r="L70" s="1" t="s">
-        <v>228</v>
+        <v>85</v>
       </c>
       <c r="M70" s="1" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="N70" s="1" t="n">
-        <v>1026</v>
+        <v>207</v>
       </c>
       <c r="O70" s="1" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="P70" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q70" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="R70" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="S70" s="3" t="s">
+        <v>384</v>
+      </c>
+      <c r="T70" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="U70" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="V70" s="1" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="W70" s="1" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="X70" s="1" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="Y70" s="1" t="n">
         <v>1</v>
-      </c>
-      <c r="Q70" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="R70" s="1" t="s">
-        <v>384</v>
-      </c>
-      <c r="S70" s="1" t="s">
-        <v>389</v>
-      </c>
-      <c r="T70" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="U70" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="V70" s="1" t="n">
-        <v>0.63</v>
-      </c>
-      <c r="W70" s="1" t="n">
-        <v>0.89</v>
-      </c>
-      <c r="X70" s="1" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="Y70" s="1" t="n">
-        <v>3.03</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="1" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="B71" s="1" t="s">
         <v>63</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>341</v>
+        <v>310</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>342</v>
+        <v>311</v>
       </c>
       <c r="E71" s="1" t="n">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="G71" s="1" t="s">
         <v>66</v>
       </c>
       <c r="H71" s="1" t="s">
-        <v>202</v>
+        <v>84</v>
       </c>
       <c r="I71" s="1" t="s">
         <v>68</v>
       </c>
       <c r="J71" s="1" t="n">
-        <v>10290</v>
+        <v>10330</v>
       </c>
       <c r="K71" s="1" t="n">
         <v>44012</v>
       </c>
       <c r="L71" s="1" t="s">
-        <v>69</v>
+        <v>215</v>
       </c>
       <c r="M71" s="1" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="N71" s="1" t="n">
-        <v>95</v>
+        <v>109</v>
       </c>
       <c r="O71" s="1" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="P71" s="1" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q71" s="1" t="s">
-        <v>345</v>
+        <v>314</v>
       </c>
       <c r="R71" s="1" t="s">
-        <v>346</v>
+        <v>315</v>
       </c>
       <c r="S71" s="3" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="T71" s="1" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="U71" s="1" t="s">
         <v>75</v>
       </c>
       <c r="V71" s="1" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="W71" s="1" t="n">
-        <v>25</v>
+        <v>6.5</v>
       </c>
       <c r="X71" s="1" t="n">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="Y71" s="1" t="n">
-        <v>90</v>
+        <v>22</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="1" t="s">
-        <v>76</v>
+        <v>390</v>
       </c>
       <c r="B72" s="1" t="s">
         <v>63</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>341</v>
+        <v>310</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>342</v>
+        <v>311</v>
       </c>
       <c r="E72" s="1" t="n">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="F72" s="1" t="s">
         <v>391</v>
@@ -7336,167 +7259,179 @@
         <v>66</v>
       </c>
       <c r="H72" s="1" t="s">
-        <v>202</v>
+        <v>84</v>
       </c>
       <c r="I72" s="1" t="s">
         <v>68</v>
       </c>
       <c r="J72" s="1" t="n">
-        <v>10291</v>
+        <v>10340</v>
       </c>
       <c r="K72" s="1" t="n">
         <v>44012</v>
       </c>
       <c r="L72" s="1" t="s">
-        <v>331</v>
+        <v>85</v>
       </c>
       <c r="M72" s="1" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="N72" s="1" t="n">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="O72" s="1" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="P72" s="1" t="n">
         <v>2</v>
       </c>
       <c r="Q72" s="1" t="s">
-        <v>345</v>
+        <v>314</v>
       </c>
       <c r="R72" s="1" t="s">
-        <v>346</v>
+        <v>315</v>
       </c>
       <c r="S72" s="3" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="T72" s="1" t="s">
         <v>81</v>
       </c>
       <c r="U72" s="1" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="V72" s="1" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="W72" s="1" t="n">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="X72" s="1" t="n">
-        <v>0.2</v>
+        <v>0.9</v>
       </c>
       <c r="Y72" s="1" t="n">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="1" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="B73" s="1" t="s">
         <v>63</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>341</v>
+        <v>310</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>342</v>
+        <v>311</v>
       </c>
       <c r="E73" s="1" t="n">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>391</v>
+        <v>396</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>66</v>
+        <v>297</v>
       </c>
       <c r="H73" s="1" t="s">
-        <v>202</v>
+        <v>397</v>
       </c>
       <c r="I73" s="1" t="s">
         <v>68</v>
       </c>
       <c r="J73" s="1" t="n">
-        <v>10292</v>
+        <v>10350</v>
       </c>
       <c r="K73" s="1" t="n">
         <v>44012</v>
       </c>
       <c r="L73" s="1" t="s">
-        <v>69</v>
+        <v>215</v>
       </c>
       <c r="M73" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="N73" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="O73" s="1" t="s">
         <v>399</v>
       </c>
-      <c r="N73" s="1" t="n">
-        <v>1021</v>
-      </c>
-      <c r="O73" s="1" t="s">
+      <c r="P73" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q73" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="R73" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="S73" s="3" t="s">
         <v>400</v>
       </c>
-      <c r="P73" s="1" t="n">
+      <c r="T73" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="U73" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="V73" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="Q73" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="R73" s="1" t="s">
-        <v>384</v>
-      </c>
-      <c r="S73" s="1" t="s">
+      <c r="W73" s="1" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X73" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="Y73" s="1" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="1" t="s">
         <v>401</v>
       </c>
-      <c r="T73" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="U73" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="1" t="s">
+      <c r="B74" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="E74" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="F74" s="1" t="s">
         <v>402</v>
-      </c>
-      <c r="B74" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C74" s="1" t="s">
-        <v>341</v>
-      </c>
-      <c r="D74" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="E74" s="1" t="n">
-        <v>32</v>
-      </c>
-      <c r="F74" s="1" t="s">
-        <v>391</v>
       </c>
       <c r="G74" s="1" t="s">
         <v>66</v>
       </c>
       <c r="H74" s="1" t="s">
-        <v>202</v>
+        <v>156</v>
       </c>
       <c r="I74" s="1" t="s">
         <v>68</v>
       </c>
       <c r="J74" s="1" t="n">
-        <v>10293</v>
+        <v>10360</v>
       </c>
       <c r="K74" s="1" t="n">
         <v>44012</v>
       </c>
       <c r="L74" s="1" t="s">
-        <v>69</v>
+        <v>85</v>
       </c>
       <c r="M74" s="1" t="s">
         <v>403</v>
       </c>
       <c r="N74" s="1" t="n">
-        <v>1022</v>
+        <v>172</v>
       </c>
       <c r="O74" s="1" t="s">
         <v>404</v>
@@ -7505,22 +7440,34 @@
         <v>1</v>
       </c>
       <c r="Q74" s="1" t="s">
-        <v>345</v>
+        <v>314</v>
       </c>
       <c r="R74" s="1" t="s">
-        <v>384</v>
-      </c>
-      <c r="S74" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="S74" s="3" t="s">
         <v>405</v>
       </c>
       <c r="T74" s="1" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="U74" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="75" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>75</v>
+      </c>
+      <c r="V74" s="1" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="W74" s="1" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="X74" s="1" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="Y74" s="1" t="n">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="1" t="s">
         <v>406</v>
       </c>
@@ -7528,52 +7475,52 @@
         <v>63</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>341</v>
+        <v>310</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>342</v>
+        <v>311</v>
       </c>
       <c r="E75" s="1" t="n">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>391</v>
+        <v>402</v>
       </c>
       <c r="G75" s="1" t="s">
         <v>66</v>
       </c>
       <c r="H75" s="1" t="s">
-        <v>202</v>
+        <v>156</v>
       </c>
       <c r="I75" s="1" t="s">
         <v>68</v>
       </c>
       <c r="J75" s="1" t="n">
-        <v>10294</v>
+        <v>10370</v>
       </c>
       <c r="K75" s="1" t="n">
         <v>44012</v>
       </c>
       <c r="L75" s="1" t="s">
-        <v>331</v>
+        <v>85</v>
       </c>
       <c r="M75" s="1" t="s">
         <v>407</v>
       </c>
       <c r="N75" s="1" t="n">
-        <v>670</v>
+        <v>266</v>
       </c>
       <c r="O75" s="1" t="s">
         <v>408</v>
       </c>
       <c r="P75" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q75" s="1" t="s">
-        <v>345</v>
+        <v>314</v>
       </c>
       <c r="R75" s="1" t="s">
-        <v>384</v>
+        <v>315</v>
       </c>
       <c r="S75" s="3" t="s">
         <v>409</v>
@@ -7585,75 +7532,75 @@
         <v>75</v>
       </c>
       <c r="V75" s="1" t="n">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="W75" s="1" t="n">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="X75" s="1" t="n">
-        <v>0.2</v>
+        <v>1.8</v>
       </c>
       <c r="Y75" s="1" t="n">
-        <v>0.2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="1" t="s">
-        <v>269</v>
+        <v>410</v>
       </c>
       <c r="B76" s="1" t="s">
         <v>63</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>341</v>
+        <v>310</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>342</v>
+        <v>311</v>
       </c>
       <c r="E76" s="1" t="n">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>273</v>
+        <v>411</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>66</v>
+        <v>297</v>
       </c>
       <c r="H76" s="1" t="s">
-        <v>202</v>
+        <v>397</v>
       </c>
       <c r="I76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="J76" s="1" t="n">
-        <v>10300</v>
+        <v>10380</v>
       </c>
       <c r="K76" s="1" t="n">
         <v>44012</v>
       </c>
       <c r="L76" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="M76" s="1" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="N76" s="1" t="n">
-        <v>24</v>
+        <v>189</v>
       </c>
       <c r="O76" s="1" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="P76" s="1" t="n">
         <v>2</v>
       </c>
       <c r="Q76" s="1" t="s">
-        <v>345</v>
+        <v>314</v>
       </c>
       <c r="R76" s="1" t="s">
-        <v>346</v>
+        <v>315</v>
       </c>
       <c r="S76" s="3" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="T76" s="1" t="s">
         <v>81</v>
@@ -7662,75 +7609,75 @@
         <v>75</v>
       </c>
       <c r="V76" s="1" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="W76" s="1" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="X76" s="1" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="Y76" s="1" t="n">
         <v>1.2</v>
       </c>
-      <c r="W76" s="1" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="X76" s="1" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="Y76" s="1" t="n">
-        <v>7.3</v>
-      </c>
-    </row>
-    <row r="77" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="1" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="B77" s="1" t="s">
         <v>63</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>341</v>
+        <v>310</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>342</v>
+        <v>311</v>
       </c>
       <c r="E77" s="1" t="n">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>66</v>
+        <v>297</v>
       </c>
       <c r="H77" s="1" t="s">
-        <v>85</v>
+        <v>397</v>
       </c>
       <c r="I77" s="1" t="s">
         <v>68</v>
       </c>
       <c r="J77" s="1" t="n">
-        <v>10310</v>
+        <v>10390</v>
       </c>
       <c r="K77" s="1" t="n">
         <v>44012</v>
       </c>
       <c r="L77" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="M77" s="1" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="N77" s="1" t="n">
-        <v>223</v>
+        <v>1025</v>
       </c>
       <c r="O77" s="1" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="P77" s="1" t="n">
         <v>2</v>
       </c>
       <c r="Q77" s="1" t="s">
-        <v>345</v>
+        <v>314</v>
       </c>
       <c r="R77" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="S77" s="3" t="s">
-        <v>417</v>
+        <v>353</v>
+      </c>
+      <c r="S77" s="1" t="s">
+        <v>419</v>
       </c>
       <c r="T77" s="1" t="s">
         <v>81</v>
@@ -7739,75 +7686,60 @@
         <v>75</v>
       </c>
       <c r="V77" s="1" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="W77" s="1" t="n">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="X77" s="1" t="n">
-        <v>0.3</v>
+        <v>1</v>
       </c>
       <c r="Y77" s="1" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="1" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="B78" s="1" t="s">
         <v>63</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>341</v>
+        <v>421</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="E78" s="1" t="n">
-        <v>35</v>
-      </c>
-      <c r="F78" s="1" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="H78" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="I78" s="1" t="s">
-        <v>68</v>
+        <v>297</v>
       </c>
       <c r="J78" s="1" t="n">
-        <v>10320</v>
+        <v>91</v>
       </c>
       <c r="K78" s="1" t="n">
-        <v>44012</v>
-      </c>
-      <c r="L78" s="1" t="s">
-        <v>86</v>
+        <v>44008</v>
       </c>
       <c r="M78" s="1" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="N78" s="1" t="n">
-        <v>207</v>
+        <v>443</v>
       </c>
       <c r="O78" s="1" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="P78" s="1" t="n">
         <v>2</v>
       </c>
       <c r="Q78" s="1" t="s">
-        <v>345</v>
+        <v>425</v>
       </c>
       <c r="R78" s="1" t="s">
-        <v>346</v>
+        <v>426</v>
       </c>
       <c r="S78" s="3" t="s">
-        <v>422</v>
+        <v>427</v>
       </c>
       <c r="T78" s="1" t="s">
         <v>81</v>
@@ -7816,315 +7748,261 @@
         <v>75</v>
       </c>
       <c r="V78" s="1" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="W78" s="1" t="n">
         <v>0.2</v>
       </c>
-      <c r="W78" s="1" t="n">
-        <v>0.5</v>
-      </c>
       <c r="X78" s="1" t="n">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="Y78" s="1" t="n">
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="79" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="1" t="s">
-        <v>423</v>
+        <v>428</v>
       </c>
       <c r="B79" s="1" t="s">
         <v>63</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>341</v>
+        <v>421</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="E79" s="1" t="n">
-        <v>36</v>
-      </c>
-      <c r="F79" s="1" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="H79" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="I79" s="1" t="s">
-        <v>68</v>
+        <v>297</v>
       </c>
       <c r="J79" s="1" t="n">
-        <v>10330</v>
+        <v>92</v>
       </c>
       <c r="K79" s="1" t="n">
-        <v>44012</v>
-      </c>
-      <c r="L79" s="1" t="s">
-        <v>228</v>
+        <v>44008</v>
       </c>
       <c r="M79" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="N79" s="1" t="n">
+        <v>1257</v>
+      </c>
+      <c r="O79" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="P79" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q79" s="1" t="s">
         <v>425</v>
       </c>
-      <c r="N79" s="1" t="n">
-        <v>109</v>
-      </c>
-      <c r="O79" s="1" t="s">
-        <v>426</v>
-      </c>
-      <c r="P79" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q79" s="1" t="s">
-        <v>345</v>
-      </c>
       <c r="R79" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="S79" s="3" t="s">
-        <v>427</v>
+        <v>431</v>
+      </c>
+      <c r="S79" s="1" t="s">
+        <v>432</v>
       </c>
       <c r="T79" s="1" t="s">
-        <v>61</v>
+        <v>81</v>
       </c>
       <c r="U79" s="1" t="s">
         <v>75</v>
       </c>
       <c r="V79" s="1" t="n">
-        <v>3.28</v>
+        <v>0.1</v>
       </c>
       <c r="W79" s="1" t="n">
-        <v>6.65</v>
+        <v>0.2</v>
       </c>
       <c r="X79" s="1" t="n">
-        <v>15.13</v>
+        <v>0.3</v>
       </c>
       <c r="Y79" s="1" t="n">
-        <v>24.37</v>
-      </c>
-    </row>
-    <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="1" t="s">
-        <v>428</v>
+        <v>433</v>
       </c>
       <c r="B80" s="1" t="s">
         <v>63</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>341</v>
+        <v>421</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="E80" s="1" t="n">
-        <v>36</v>
-      </c>
-      <c r="F80" s="1" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="G80" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="H80" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="I80" s="1" t="s">
-        <v>68</v>
-      </c>
       <c r="J80" s="1" t="n">
-        <v>10331</v>
+        <v>47</v>
       </c>
       <c r="K80" s="1" t="n">
-        <v>44012</v>
-      </c>
-      <c r="L80" s="1" t="s">
-        <v>228</v>
+        <v>44008</v>
       </c>
       <c r="M80" s="1" t="s">
-        <v>429</v>
+        <v>434</v>
       </c>
       <c r="N80" s="1" t="n">
-        <v>1028</v>
+        <v>640</v>
       </c>
       <c r="O80" s="1" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="P80" s="1" t="n">
         <v>1</v>
       </c>
       <c r="Q80" s="1" t="s">
-        <v>345</v>
+        <v>425</v>
       </c>
       <c r="R80" s="1" t="s">
-        <v>384</v>
-      </c>
-      <c r="S80" s="1" t="s">
         <v>431</v>
       </c>
+      <c r="S80" s="3" t="s">
+        <v>435</v>
+      </c>
       <c r="T80" s="1" t="s">
-        <v>61</v>
+        <v>81</v>
       </c>
       <c r="U80" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="81" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>75</v>
+      </c>
+      <c r="V80" s="1" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="W80" s="1" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="X80" s="1" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="Y80" s="1" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="1" t="s">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="B81" s="1" t="s">
         <v>63</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>341</v>
+        <v>421</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="E81" s="1" t="n">
-        <v>37</v>
-      </c>
-      <c r="F81" s="1" t="s">
-        <v>433</v>
-      </c>
-      <c r="G81" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="H81" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="I81" s="1" t="s">
-        <v>68</v>
+        <v>422</v>
       </c>
       <c r="J81" s="1" t="n">
-        <v>10340</v>
+        <v>49</v>
       </c>
       <c r="K81" s="1" t="n">
-        <v>44012</v>
-      </c>
-      <c r="L81" s="1" t="s">
-        <v>86</v>
+        <v>44008</v>
       </c>
       <c r="M81" s="1" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="N81" s="1" t="n">
-        <v>306</v>
+        <v>638</v>
       </c>
       <c r="O81" s="1" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="P81" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q81" s="1" t="s">
-        <v>345</v>
+        <v>425</v>
       </c>
       <c r="R81" s="1" t="s">
-        <v>346</v>
+        <v>431</v>
       </c>
       <c r="S81" s="3" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="T81" s="1" t="s">
         <v>81</v>
       </c>
       <c r="U81" s="1" t="s">
-        <v>75</v>
+        <v>40</v>
       </c>
       <c r="V81" s="1" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="W81" s="1" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="X81" s="1" t="n">
         <v>0.3</v>
       </c>
-      <c r="W81" s="1" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="X81" s="1" t="n">
-        <v>0.9</v>
-      </c>
       <c r="Y81" s="1" t="n">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="82" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="1" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="B82" s="1" t="s">
         <v>63</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>341</v>
+        <v>421</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="E82" s="1" t="n">
-        <v>38</v>
-      </c>
-      <c r="F82" s="1" t="s">
-        <v>438</v>
-      </c>
-      <c r="G82" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="H82" s="1" t="s">
-        <v>439</v>
-      </c>
-      <c r="I82" s="1" t="s">
-        <v>68</v>
+        <v>422</v>
       </c>
       <c r="J82" s="1" t="n">
-        <v>10350</v>
+        <v>41</v>
       </c>
       <c r="K82" s="1" t="n">
-        <v>44012</v>
-      </c>
-      <c r="L82" s="1" t="s">
-        <v>228</v>
+        <v>44008</v>
       </c>
       <c r="M82" s="1" t="s">
         <v>440</v>
       </c>
       <c r="N82" s="1" t="n">
-        <v>79</v>
+        <v>637</v>
       </c>
       <c r="O82" s="1" t="s">
         <v>441</v>
       </c>
       <c r="P82" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q82" s="1" t="s">
-        <v>345</v>
+        <v>425</v>
       </c>
       <c r="R82" s="1" t="s">
-        <v>346</v>
+        <v>431</v>
       </c>
       <c r="S82" s="3" t="s">
         <v>442</v>
       </c>
       <c r="T82" s="1" t="s">
-        <v>61</v>
+        <v>81</v>
       </c>
       <c r="U82" s="1" t="s">
         <v>75</v>
       </c>
       <c r="V82" s="1" t="n">
-        <v>0.9</v>
+        <v>0.1</v>
       </c>
       <c r="W82" s="1" t="n">
-        <v>1.2</v>
+        <v>0.2</v>
       </c>
       <c r="X82" s="1" t="n">
-        <v>2</v>
+        <v>0.3</v>
       </c>
       <c r="Y82" s="1" t="n">
-        <v>3.9</v>
-      </c>
-    </row>
-    <row r="83" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="1" t="s">
         <v>443</v>
       </c>
@@ -8132,55 +8010,37 @@
         <v>63</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>341</v>
+        <v>421</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="E83" s="1" t="n">
-        <v>39</v>
-      </c>
-      <c r="F83" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="J83" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="K83" s="1" t="n">
+        <v>44008</v>
+      </c>
+      <c r="M83" s="1" t="s">
         <v>444</v>
       </c>
-      <c r="G83" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="H83" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="I83" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="J83" s="1" t="n">
-        <v>10360</v>
-      </c>
-      <c r="K83" s="1" t="n">
-        <v>44012</v>
-      </c>
-      <c r="L83" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="M83" s="1" t="s">
+      <c r="N83" s="1" t="n">
+        <v>1179</v>
+      </c>
+      <c r="O83" s="1" t="s">
         <v>445</v>
-      </c>
-      <c r="N83" s="1" t="n">
-        <v>172</v>
-      </c>
-      <c r="O83" s="1" t="s">
-        <v>446</v>
       </c>
       <c r="P83" s="1" t="n">
         <v>1</v>
       </c>
       <c r="Q83" s="1" t="s">
-        <v>345</v>
+        <v>425</v>
       </c>
       <c r="R83" s="1" t="s">
-        <v>346</v>
+        <v>431</v>
       </c>
       <c r="S83" s="3" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="T83" s="1" t="s">
         <v>81</v>
@@ -8195,69 +8055,51 @@
         <v>0.2</v>
       </c>
       <c r="X83" s="1" t="n">
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
       <c r="Y83" s="1" t="n">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="J84" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="K84" s="1" t="n">
+        <v>44008</v>
+      </c>
+      <c r="M84" s="1" t="s">
         <v>448</v>
       </c>
-      <c r="B84" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C84" s="1" t="s">
-        <v>341</v>
-      </c>
-      <c r="D84" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="E84" s="1" t="n">
-        <v>39</v>
-      </c>
-      <c r="F84" s="1" t="s">
+      <c r="N84" s="1" t="n">
         <v>444</v>
       </c>
-      <c r="G84" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="H84" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="I84" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="J84" s="1" t="n">
-        <v>10361</v>
-      </c>
-      <c r="K84" s="1" t="n">
-        <v>44012</v>
-      </c>
-      <c r="L84" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="M84" s="1" t="s">
+      <c r="O84" s="1" t="s">
         <v>449</v>
       </c>
-      <c r="N84" s="1" t="n">
-        <v>742</v>
-      </c>
-      <c r="O84" s="1" t="s">
+      <c r="P84" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q84" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="R84" s="1" t="s">
         <v>450</v>
       </c>
-      <c r="P84" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q84" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="R84" s="1" t="s">
-        <v>346</v>
-      </c>
       <c r="S84" s="3" t="s">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="T84" s="1" t="s">
         <v>81</v>
@@ -8265,64 +8107,58 @@
       <c r="U84" s="1" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="85" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="V84" s="1" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="W84" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X84" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y84" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="1" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="B85" s="1" t="s">
         <v>63</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>341</v>
+        <v>453</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="E85" s="1" t="n">
-        <v>40</v>
-      </c>
-      <c r="F85" s="1" t="s">
-        <v>444</v>
-      </c>
-      <c r="G85" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="H85" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="I85" s="1" t="s">
-        <v>68</v>
+        <v>454</v>
       </c>
       <c r="J85" s="1" t="n">
-        <v>10370</v>
+        <v>71</v>
       </c>
       <c r="K85" s="1" t="n">
-        <v>44012</v>
-      </c>
-      <c r="L85" s="1" t="s">
-        <v>86</v>
+        <v>44008</v>
       </c>
       <c r="M85" s="1" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="N85" s="1" t="n">
-        <v>266</v>
+        <v>426</v>
       </c>
       <c r="O85" s="1" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="P85" s="1" t="n">
         <v>2</v>
       </c>
       <c r="Q85" s="1" t="s">
-        <v>345</v>
+        <v>457</v>
       </c>
       <c r="R85" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="S85" s="3" t="s">
-        <v>454</v>
+        <v>458</v>
+      </c>
+      <c r="S85" s="1" t="s">
+        <v>459</v>
       </c>
       <c r="T85" s="1" t="s">
         <v>81</v>
@@ -8331,140 +8167,116 @@
         <v>75</v>
       </c>
       <c r="V85" s="1" t="n">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="W85" s="1" t="n">
-        <v>1.1</v>
+        <v>0.3</v>
       </c>
       <c r="X85" s="1" t="n">
-        <v>1.8</v>
+        <v>0.4</v>
       </c>
       <c r="Y85" s="1" t="n">
-        <v>3.1</v>
-      </c>
-    </row>
-    <row r="86" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="1" t="s">
-        <v>455</v>
+        <v>460</v>
       </c>
       <c r="B86" s="1" t="s">
         <v>63</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>341</v>
+        <v>453</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="E86" s="1" t="n">
-        <v>40</v>
-      </c>
-      <c r="F86" s="1" t="s">
-        <v>444</v>
-      </c>
-      <c r="G86" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="H86" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="I86" s="1" t="s">
-        <v>68</v>
+        <v>454</v>
       </c>
       <c r="J86" s="1" t="n">
-        <v>10371</v>
+        <v>72</v>
       </c>
       <c r="K86" s="1" t="n">
-        <v>44012</v>
-      </c>
-      <c r="L86" s="1" t="s">
-        <v>86</v>
+        <v>44008</v>
       </c>
       <c r="M86" s="1" t="s">
-        <v>456</v>
+        <v>461</v>
       </c>
       <c r="N86" s="1" t="n">
-        <v>1030</v>
+        <v>1186</v>
       </c>
       <c r="O86" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="P86" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q86" s="1" t="s">
         <v>457</v>
       </c>
-      <c r="P86" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q86" s="1" t="s">
-        <v>345</v>
-      </c>
       <c r="R86" s="1" t="s">
-        <v>384</v>
+        <v>458</v>
       </c>
       <c r="S86" s="1" t="s">
-        <v>458</v>
+        <v>463</v>
       </c>
       <c r="T86" s="1" t="s">
         <v>81</v>
       </c>
       <c r="U86" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="87" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>75</v>
+      </c>
+      <c r="V86" s="1" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="W86" s="1" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="X86" s="1" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="Y86" s="1" t="n">
+        <v>1.1</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="1" t="s">
-        <v>459</v>
+        <v>464</v>
       </c>
       <c r="B87" s="1" t="s">
         <v>63</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>341</v>
+        <v>453</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="E87" s="1" t="n">
-        <v>41</v>
-      </c>
-      <c r="F87" s="1" t="s">
-        <v>460</v>
-      </c>
-      <c r="G87" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="H87" s="1" t="s">
-        <v>439</v>
-      </c>
-      <c r="I87" s="1" t="s">
-        <v>68</v>
+        <v>454</v>
       </c>
       <c r="J87" s="1" t="n">
-        <v>10380</v>
+        <v>57</v>
       </c>
       <c r="K87" s="1" t="n">
-        <v>44012</v>
-      </c>
-      <c r="L87" s="1" t="s">
-        <v>86</v>
+        <v>44008</v>
       </c>
       <c r="M87" s="1" t="s">
-        <v>461</v>
+        <v>465</v>
       </c>
       <c r="N87" s="1" t="n">
-        <v>189</v>
+        <v>626</v>
       </c>
       <c r="O87" s="1" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="P87" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q87" s="1" t="s">
-        <v>345</v>
+        <v>457</v>
       </c>
       <c r="R87" s="1" t="s">
-        <v>346</v>
+        <v>466</v>
       </c>
       <c r="S87" s="3" t="s">
-        <v>463</v>
+        <v>467</v>
       </c>
       <c r="T87" s="1" t="s">
         <v>81</v>
@@ -8476,140 +8288,119 @@
         <v>0.1</v>
       </c>
       <c r="W87" s="1" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="X87" s="1" t="n">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="Y87" s="1" t="n">
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="1" t="s">
-        <v>464</v>
+        <v>468</v>
       </c>
       <c r="B88" s="1" t="s">
         <v>63</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>341</v>
+        <v>453</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="E88" s="1" t="n">
-        <v>42</v>
-      </c>
-      <c r="F88" s="1" t="s">
-        <v>465</v>
-      </c>
-      <c r="G88" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="H88" s="1" t="s">
-        <v>439</v>
-      </c>
-      <c r="I88" s="1" t="s">
-        <v>68</v>
+        <v>454</v>
       </c>
       <c r="J88" s="1" t="n">
-        <v>10390</v>
+        <v>58</v>
       </c>
       <c r="K88" s="1" t="n">
-        <v>44012</v>
-      </c>
-      <c r="L88" s="1" t="s">
-        <v>86</v>
+        <v>44008</v>
       </c>
       <c r="M88" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="N88" s="1" t="n">
+        <v>1189</v>
+      </c>
+      <c r="O88" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="P88" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q88" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="R88" s="1" t="s">
         <v>466</v>
       </c>
-      <c r="N88" s="1" t="n">
-        <v>1025</v>
-      </c>
-      <c r="O88" s="1" t="s">
+      <c r="S88" s="3" t="s">
         <v>467</v>
-      </c>
-      <c r="P88" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q88" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="R88" s="1" t="s">
-        <v>384</v>
-      </c>
-      <c r="S88" s="1" t="s">
-        <v>468</v>
       </c>
       <c r="T88" s="1" t="s">
         <v>81</v>
       </c>
       <c r="U88" s="1" t="s">
-        <v>40</v>
+        <v>75</v>
       </c>
       <c r="V88" s="1" t="n">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="W88" s="1" t="n">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="X88" s="1" t="n">
-        <v>1.1</v>
+        <v>0.9</v>
       </c>
       <c r="Y88" s="1" t="n">
-        <v>2.3</v>
-      </c>
-    </row>
-    <row r="89" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="89" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="1" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="B89" s="1" t="s">
         <v>63</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>470</v>
+        <v>453</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>471</v>
-      </c>
-      <c r="G89" s="1" t="s">
-        <v>314</v>
+        <v>454</v>
       </c>
       <c r="J89" s="1" t="n">
-        <v>91</v>
+        <v>59</v>
       </c>
       <c r="K89" s="1" t="n">
         <v>44008</v>
       </c>
       <c r="M89" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="N89" s="1" t="n">
+        <v>627</v>
+      </c>
+      <c r="O89" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="P89" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q89" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="R89" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="S89" s="3" t="s">
         <v>472</v>
-      </c>
-      <c r="N89" s="1" t="n">
-        <v>443</v>
-      </c>
-      <c r="O89" s="1" t="s">
-        <v>473</v>
-      </c>
-      <c r="P89" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q89" s="1" t="s">
-        <v>474</v>
-      </c>
-      <c r="R89" s="1" t="s">
-        <v>475</v>
-      </c>
-      <c r="S89" s="3" t="s">
-        <v>476</v>
       </c>
       <c r="T89" s="1" t="s">
         <v>81</v>
       </c>
       <c r="U89" s="1" t="s">
-        <v>75</v>
+        <v>40</v>
       </c>
       <c r="V89" s="1" t="n">
         <v>0.1</v>
@@ -8618,60 +8409,57 @@
         <v>0.2</v>
       </c>
       <c r="X89" s="1" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="Y89" s="1" t="n">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="1" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="B90" s="1" t="s">
         <v>63</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>470</v>
+        <v>453</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>471</v>
-      </c>
-      <c r="G90" s="1" t="s">
-        <v>314</v>
+        <v>454</v>
       </c>
       <c r="J90" s="1" t="n">
-        <v>92</v>
+        <v>51</v>
       </c>
       <c r="K90" s="1" t="n">
         <v>44008</v>
       </c>
       <c r="M90" s="1" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="N90" s="1" t="n">
-        <v>1257</v>
+        <v>1185</v>
       </c>
       <c r="O90" s="1" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="P90" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q90" s="1" t="s">
-        <v>474</v>
+        <v>457</v>
       </c>
       <c r="R90" s="1" t="s">
-        <v>480</v>
-      </c>
-      <c r="S90" s="1" t="s">
-        <v>481</v>
+        <v>458</v>
+      </c>
+      <c r="S90" s="3" t="s">
+        <v>476</v>
       </c>
       <c r="T90" s="1" t="s">
         <v>81</v>
       </c>
       <c r="U90" s="1" t="s">
-        <v>40</v>
+        <v>75</v>
       </c>
       <c r="V90" s="1" t="n">
         <v>0.1</v>
@@ -8686,48 +8474,45 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="91" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="91" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="1" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="B91" s="1" t="s">
         <v>63</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>470</v>
+        <v>453</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>471</v>
-      </c>
-      <c r="G91" s="1" t="s">
-        <v>66</v>
+        <v>454</v>
       </c>
       <c r="J91" s="1" t="n">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="K91" s="1" t="n">
         <v>44008</v>
       </c>
       <c r="M91" s="1" t="s">
-        <v>483</v>
+        <v>478</v>
       </c>
       <c r="N91" s="1" t="n">
-        <v>640</v>
+        <v>425</v>
       </c>
       <c r="O91" s="1" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="P91" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q91" s="1" t="s">
-        <v>474</v>
+        <v>457</v>
       </c>
       <c r="R91" s="1" t="s">
-        <v>480</v>
+        <v>458</v>
       </c>
       <c r="S91" s="3" t="s">
-        <v>484</v>
+        <v>476</v>
       </c>
       <c r="T91" s="1" t="s">
         <v>81</v>
@@ -8736,63 +8521,63 @@
         <v>75</v>
       </c>
       <c r="V91" s="1" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="W91" s="1" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="X91" s="1" t="n">
         <v>0.3</v>
       </c>
-      <c r="W91" s="1" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="X91" s="1" t="n">
-        <v>1.3</v>
-      </c>
       <c r="Y91" s="1" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="92" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="1" t="s">
-        <v>485</v>
+        <v>480</v>
       </c>
       <c r="B92" s="1" t="s">
         <v>63</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>470</v>
+        <v>453</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>471</v>
+        <v>454</v>
       </c>
       <c r="J92" s="1" t="n">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="K92" s="1" t="n">
         <v>44008</v>
       </c>
       <c r="M92" s="1" t="s">
-        <v>486</v>
+        <v>481</v>
       </c>
       <c r="N92" s="1" t="n">
-        <v>638</v>
+        <v>1213</v>
       </c>
       <c r="O92" s="1" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="P92" s="1" t="n">
         <v>1</v>
       </c>
       <c r="Q92" s="1" t="s">
-        <v>474</v>
+        <v>457</v>
       </c>
       <c r="R92" s="1" t="s">
-        <v>480</v>
-      </c>
-      <c r="S92" s="3" t="s">
-        <v>487</v>
+        <v>466</v>
+      </c>
+      <c r="S92" s="1" t="s">
+        <v>483</v>
       </c>
       <c r="T92" s="1" t="s">
         <v>81</v>
       </c>
       <c r="U92" s="1" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="V92" s="1" t="n">
         <v>0.1</v>
@@ -8804,48 +8589,48 @@
         <v>0.3</v>
       </c>
       <c r="Y92" s="1" t="n">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="93" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="1" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="B93" s="1" t="s">
         <v>63</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>470</v>
+        <v>453</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>471</v>
+        <v>454</v>
       </c>
       <c r="J93" s="1" t="n">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="K93" s="1" t="n">
         <v>44008</v>
       </c>
       <c r="M93" s="1" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="N93" s="1" t="n">
-        <v>637</v>
+        <v>1214</v>
       </c>
       <c r="O93" s="1" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="P93" s="1" t="n">
         <v>1</v>
       </c>
       <c r="Q93" s="1" t="s">
-        <v>474</v>
+        <v>457</v>
       </c>
       <c r="R93" s="1" t="s">
-        <v>480</v>
-      </c>
-      <c r="S93" s="3" t="s">
-        <v>491</v>
+        <v>466</v>
+      </c>
+      <c r="S93" s="1" t="s">
+        <v>483</v>
       </c>
       <c r="T93" s="1" t="s">
         <v>81</v>
@@ -8863,48 +8648,48 @@
         <v>0.3</v>
       </c>
       <c r="Y93" s="1" t="n">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="94" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="1" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="B94" s="1" t="s">
         <v>63</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>470</v>
+        <v>488</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>471</v>
+        <v>489</v>
       </c>
       <c r="J94" s="1" t="n">
-        <v>42</v>
+        <v>141</v>
       </c>
       <c r="K94" s="1" t="n">
         <v>44008</v>
       </c>
       <c r="M94" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="N94" s="1" t="n">
+        <v>447</v>
+      </c>
+      <c r="O94" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="P94" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q94" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="R94" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="S94" s="3" t="s">
         <v>493</v>
-      </c>
-      <c r="N94" s="1" t="n">
-        <v>1179</v>
-      </c>
-      <c r="O94" s="1" t="s">
-        <v>494</v>
-      </c>
-      <c r="P94" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q94" s="1" t="s">
-        <v>474</v>
-      </c>
-      <c r="R94" s="1" t="s">
-        <v>480</v>
-      </c>
-      <c r="S94" s="3" t="s">
-        <v>491</v>
       </c>
       <c r="T94" s="1" t="s">
         <v>81</v>
@@ -8916,30 +8701,30 @@
         <v>0.1</v>
       </c>
       <c r="W94" s="1" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="X94" s="1" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="Y94" s="1" t="n">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="95" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C95" s="1" t="s">
         <v>495</v>
-      </c>
-      <c r="B95" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C95" s="1" t="s">
-        <v>470</v>
       </c>
       <c r="D95" s="1" t="s">
         <v>496</v>
       </c>
       <c r="J95" s="1" t="n">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="K95" s="1" t="n">
         <v>44008</v>
@@ -8948,31 +8733,31 @@
         <v>497</v>
       </c>
       <c r="N95" s="1" t="n">
-        <v>444</v>
+        <v>554</v>
       </c>
       <c r="O95" s="1" t="s">
         <v>498</v>
       </c>
       <c r="P95" s="1" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q95" s="1" t="s">
-        <v>474</v>
+        <v>499</v>
       </c>
       <c r="R95" s="1" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="S95" s="3" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="T95" s="1" t="s">
         <v>81</v>
       </c>
       <c r="U95" s="1" t="s">
-        <v>40</v>
+        <v>75</v>
       </c>
       <c r="V95" s="1" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="W95" s="1" t="n">
         <v>0</v>
@@ -8984,45 +8769,45 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="96" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="1" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="B96" s="1" t="s">
         <v>63</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="J96" s="1" t="n">
-        <v>71</v>
+        <v>21</v>
       </c>
       <c r="K96" s="1" t="n">
         <v>44008</v>
       </c>
       <c r="M96" s="1" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="N96" s="1" t="n">
-        <v>426</v>
+        <v>164</v>
       </c>
       <c r="O96" s="1" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="P96" s="1" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q96" s="1" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="R96" s="1" t="s">
-        <v>507</v>
-      </c>
-      <c r="S96" s="1" t="s">
         <v>508</v>
+      </c>
+      <c r="S96" s="3" t="s">
+        <v>509</v>
       </c>
       <c r="T96" s="1" t="s">
         <v>81</v>
@@ -9034,54 +8819,54 @@
         <v>0.1</v>
       </c>
       <c r="W96" s="1" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="X96" s="1" t="n">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="Y96" s="1" t="n">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="1" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="B97" s="1" t="s">
         <v>63</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>502</v>
+        <v>511</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>503</v>
+        <v>512</v>
       </c>
       <c r="J97" s="1" t="n">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="K97" s="1" t="n">
         <v>44008</v>
       </c>
       <c r="M97" s="1" t="s">
-        <v>510</v>
+        <v>513</v>
       </c>
       <c r="N97" s="1" t="n">
-        <v>1186</v>
+        <v>409</v>
       </c>
       <c r="O97" s="1" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="P97" s="1" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q97" s="1" t="s">
-        <v>506</v>
+        <v>515</v>
       </c>
       <c r="R97" s="1" t="s">
-        <v>507</v>
-      </c>
-      <c r="S97" s="1" t="s">
-        <v>512</v>
+        <v>516</v>
+      </c>
+      <c r="S97" s="3" t="s">
+        <v>517</v>
       </c>
       <c r="T97" s="1" t="s">
         <v>81</v>
@@ -9090,666 +8875,50 @@
         <v>75</v>
       </c>
       <c r="V97" s="1" t="n">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="W97" s="1" t="n">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="X97" s="1" t="n">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="Y97" s="1" t="n">
-        <v>1.1</v>
-      </c>
-    </row>
-    <row r="98" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="1" t="s">
-        <v>513</v>
-      </c>
-      <c r="B98" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C98" s="1" t="s">
-        <v>502</v>
-      </c>
-      <c r="D98" s="1" t="s">
-        <v>503</v>
-      </c>
-      <c r="J98" s="1" t="n">
-        <v>57</v>
-      </c>
-      <c r="K98" s="1" t="n">
-        <v>44008</v>
-      </c>
-      <c r="M98" s="1" t="s">
-        <v>514</v>
-      </c>
-      <c r="N98" s="1" t="n">
-        <v>626</v>
-      </c>
-      <c r="O98" s="1" t="s">
-        <v>513</v>
-      </c>
-      <c r="P98" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q98" s="1" t="s">
-        <v>506</v>
-      </c>
-      <c r="R98" s="1" t="s">
-        <v>515</v>
-      </c>
-      <c r="S98" s="3" t="s">
-        <v>516</v>
-      </c>
-      <c r="T98" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="U98" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="V98" s="1" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="W98" s="1" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="X98" s="1" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="Y98" s="1" t="n">
-        <v>1.6</v>
-      </c>
-    </row>
-    <row r="99" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="1" t="s">
-        <v>517</v>
-      </c>
-      <c r="B99" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C99" s="1" t="s">
-        <v>502</v>
-      </c>
-      <c r="D99" s="1" t="s">
-        <v>503</v>
-      </c>
-      <c r="J99" s="1" t="n">
-        <v>58</v>
-      </c>
-      <c r="K99" s="1" t="n">
-        <v>44008</v>
-      </c>
-      <c r="M99" s="1" t="s">
-        <v>518</v>
-      </c>
-      <c r="N99" s="1" t="n">
-        <v>1189</v>
-      </c>
-      <c r="O99" s="1" t="s">
-        <v>517</v>
-      </c>
-      <c r="P99" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q99" s="1" t="s">
-        <v>506</v>
-      </c>
-      <c r="R99" s="1" t="s">
-        <v>515</v>
-      </c>
-      <c r="S99" s="3" t="s">
-        <v>516</v>
-      </c>
-      <c r="T99" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="U99" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="V99" s="1" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="W99" s="1" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="X99" s="1" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="Y99" s="1" t="n">
-        <v>1.7</v>
-      </c>
-    </row>
-    <row r="100" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="1" t="s">
-        <v>519</v>
-      </c>
-      <c r="B100" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C100" s="1" t="s">
-        <v>502</v>
-      </c>
-      <c r="D100" s="1" t="s">
-        <v>503</v>
-      </c>
-      <c r="J100" s="1" t="n">
-        <v>59</v>
-      </c>
-      <c r="K100" s="1" t="n">
-        <v>44008</v>
-      </c>
-      <c r="M100" s="1" t="s">
-        <v>520</v>
-      </c>
-      <c r="N100" s="1" t="n">
-        <v>627</v>
-      </c>
-      <c r="O100" s="1" t="s">
-        <v>519</v>
-      </c>
-      <c r="P100" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q100" s="1" t="s">
-        <v>506</v>
-      </c>
-      <c r="R100" s="1" t="s">
-        <v>515</v>
-      </c>
-      <c r="S100" s="3" t="s">
-        <v>521</v>
-      </c>
-      <c r="T100" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="U100" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="V100" s="1" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="W100" s="1" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="X100" s="1" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="Y100" s="1" t="n">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="101" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="1" t="s">
-        <v>522</v>
-      </c>
-      <c r="B101" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C101" s="1" t="s">
-        <v>502</v>
-      </c>
-      <c r="D101" s="1" t="s">
-        <v>503</v>
-      </c>
-      <c r="J101" s="1" t="n">
-        <v>51</v>
-      </c>
-      <c r="K101" s="1" t="n">
-        <v>44008</v>
-      </c>
-      <c r="M101" s="1" t="s">
-        <v>523</v>
-      </c>
-      <c r="N101" s="1" t="n">
-        <v>1185</v>
-      </c>
-      <c r="O101" s="1" t="s">
-        <v>524</v>
-      </c>
-      <c r="P101" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q101" s="1" t="s">
-        <v>506</v>
-      </c>
-      <c r="R101" s="1" t="s">
-        <v>507</v>
-      </c>
-      <c r="S101" s="3" t="s">
-        <v>525</v>
-      </c>
-      <c r="T101" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="U101" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="V101" s="1" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="W101" s="1" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="X101" s="1" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="Y101" s="1" t="n">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="102" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="1" t="s">
-        <v>526</v>
-      </c>
-      <c r="B102" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C102" s="1" t="s">
-        <v>502</v>
-      </c>
-      <c r="D102" s="1" t="s">
-        <v>503</v>
-      </c>
-      <c r="J102" s="1" t="n">
-        <v>52</v>
-      </c>
-      <c r="K102" s="1" t="n">
-        <v>44008</v>
-      </c>
-      <c r="M102" s="1" t="s">
-        <v>527</v>
-      </c>
-      <c r="N102" s="1" t="n">
-        <v>425</v>
-      </c>
-      <c r="O102" s="1" t="s">
-        <v>528</v>
-      </c>
-      <c r="P102" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q102" s="1" t="s">
-        <v>506</v>
-      </c>
-      <c r="R102" s="1" t="s">
-        <v>507</v>
-      </c>
-      <c r="S102" s="3" t="s">
-        <v>525</v>
-      </c>
-      <c r="T102" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="U102" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="V102" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="W102" s="1" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="X102" s="1" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="Y102" s="1" t="n">
-        <v>0.3</v>
-      </c>
+    </row>
+    <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J98" s="5"/>
+    </row>
+    <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J99" s="5"/>
+    </row>
+    <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J100" s="5"/>
+    </row>
+    <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J101" s="5"/>
+    </row>
+    <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J102" s="5"/>
     </row>
     <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="1" t="s">
-        <v>529</v>
-      </c>
-      <c r="B103" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C103" s="1" t="s">
-        <v>502</v>
-      </c>
-      <c r="D103" s="1" t="s">
-        <v>503</v>
-      </c>
-      <c r="J103" s="1" t="n">
-        <v>53</v>
-      </c>
-      <c r="K103" s="1" t="n">
-        <v>44008</v>
-      </c>
-      <c r="M103" s="1" t="s">
-        <v>530</v>
-      </c>
-      <c r="N103" s="1" t="n">
-        <v>1213</v>
-      </c>
-      <c r="O103" s="1" t="s">
-        <v>531</v>
-      </c>
-      <c r="P103" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q103" s="1" t="s">
-        <v>506</v>
-      </c>
-      <c r="R103" s="1" t="s">
-        <v>515</v>
-      </c>
-      <c r="S103" s="1" t="s">
-        <v>532</v>
-      </c>
-      <c r="T103" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="U103" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="V103" s="1" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="W103" s="1" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="X103" s="1" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="Y103" s="1" t="n">
-        <v>0.3</v>
-      </c>
+      <c r="J103" s="5"/>
     </row>
     <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="1" t="s">
-        <v>533</v>
-      </c>
-      <c r="B104" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C104" s="1" t="s">
-        <v>502</v>
-      </c>
-      <c r="D104" s="1" t="s">
-        <v>503</v>
-      </c>
-      <c r="J104" s="1" t="n">
-        <v>54</v>
-      </c>
-      <c r="K104" s="1" t="n">
-        <v>44008</v>
-      </c>
-      <c r="M104" s="1" t="s">
-        <v>534</v>
-      </c>
-      <c r="N104" s="1" t="n">
-        <v>1214</v>
-      </c>
-      <c r="O104" s="1" t="s">
-        <v>535</v>
-      </c>
-      <c r="P104" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q104" s="1" t="s">
-        <v>506</v>
-      </c>
-      <c r="R104" s="1" t="s">
-        <v>515</v>
-      </c>
-      <c r="S104" s="1" t="s">
-        <v>532</v>
-      </c>
-      <c r="T104" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="U104" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="V104" s="1" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="W104" s="1" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="X104" s="1" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="Y104" s="1" t="n">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="105" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A105" s="1" t="s">
-        <v>536</v>
-      </c>
-      <c r="B105" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C105" s="1" t="s">
-        <v>537</v>
-      </c>
-      <c r="D105" s="1" t="s">
-        <v>538</v>
-      </c>
-      <c r="J105" s="1" t="n">
-        <v>141</v>
-      </c>
-      <c r="K105" s="1" t="n">
-        <v>44008</v>
-      </c>
-      <c r="M105" s="1" t="s">
-        <v>539</v>
-      </c>
-      <c r="N105" s="1" t="n">
-        <v>447</v>
-      </c>
-      <c r="O105" s="1" t="s">
-        <v>536</v>
-      </c>
-      <c r="P105" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q105" s="1" t="s">
-        <v>540</v>
-      </c>
-      <c r="R105" s="1" t="s">
-        <v>541</v>
-      </c>
-      <c r="S105" s="3" t="s">
-        <v>542</v>
-      </c>
-      <c r="T105" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="U105" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="V105" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="W105" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="X105" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y105" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="106" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A106" s="1" t="s">
-        <v>543</v>
-      </c>
-      <c r="B106" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C106" s="1" t="s">
-        <v>544</v>
-      </c>
-      <c r="D106" s="1" t="s">
-        <v>545</v>
-      </c>
-      <c r="J106" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="K106" s="1" t="n">
-        <v>44008</v>
-      </c>
-      <c r="M106" s="1" t="s">
-        <v>546</v>
-      </c>
-      <c r="N106" s="1" t="n">
-        <v>554</v>
-      </c>
-      <c r="O106" s="1" t="s">
-        <v>547</v>
-      </c>
-      <c r="P106" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q106" s="1" t="s">
-        <v>548</v>
-      </c>
-      <c r="R106" s="1" t="s">
-        <v>549</v>
-      </c>
-      <c r="S106" s="3" t="s">
-        <v>550</v>
-      </c>
-      <c r="T106" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="U106" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="V106" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="W106" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="X106" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y106" s="1" t="n">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="107" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A107" s="1" t="s">
-        <v>551</v>
-      </c>
-      <c r="B107" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C107" s="1" t="s">
-        <v>552</v>
-      </c>
-      <c r="D107" s="1" t="s">
-        <v>553</v>
-      </c>
-      <c r="J107" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="K107" s="1" t="n">
-        <v>44008</v>
-      </c>
-      <c r="M107" s="1" t="s">
-        <v>554</v>
-      </c>
-      <c r="N107" s="1" t="n">
-        <v>164</v>
-      </c>
-      <c r="O107" s="1" t="s">
-        <v>555</v>
-      </c>
-      <c r="P107" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q107" s="1" t="s">
-        <v>556</v>
-      </c>
-      <c r="R107" s="1" t="s">
-        <v>557</v>
-      </c>
-      <c r="S107" s="3" t="s">
-        <v>558</v>
-      </c>
-      <c r="T107" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="U107" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="V107" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="W107" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="X107" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y107" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="108" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A108" s="1" t="s">
-        <v>559</v>
-      </c>
-      <c r="B108" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C108" s="1" t="s">
-        <v>560</v>
-      </c>
-      <c r="D108" s="1" t="s">
-        <v>561</v>
-      </c>
-      <c r="J108" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="K108" s="1" t="n">
-        <v>44008</v>
-      </c>
-      <c r="M108" s="1" t="s">
-        <v>562</v>
-      </c>
-      <c r="N108" s="1" t="n">
-        <v>409</v>
-      </c>
-      <c r="O108" s="1" t="s">
-        <v>563</v>
-      </c>
-      <c r="P108" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q108" s="1" t="s">
-        <v>564</v>
-      </c>
-      <c r="R108" s="1" t="s">
-        <v>565</v>
-      </c>
-      <c r="S108" s="3" t="s">
-        <v>566</v>
-      </c>
-      <c r="T108" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="U108" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="V108" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="W108" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="X108" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y108" s="1" t="n">
-        <v>1</v>
-      </c>
+      <c r="J104" s="5"/>
+    </row>
+    <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J105" s="5"/>
+    </row>
+    <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J106" s="5"/>
+    </row>
+    <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J107" s="5"/>
+    </row>
+    <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J108" s="5"/>
     </row>
     <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J109" s="5"/>
@@ -9790,39 +8959,17 @@
     <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J121" s="5"/>
     </row>
-    <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J122" s="5"/>
-    </row>
-    <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J123" s="5"/>
-    </row>
-    <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J124" s="5"/>
-    </row>
-    <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J125" s="5"/>
-    </row>
-    <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J126" s="5"/>
-    </row>
-    <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J127" s="5"/>
-    </row>
-    <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J128" s="5"/>
-    </row>
-    <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J129" s="5"/>
-    </row>
-    <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J130" s="5"/>
-    </row>
-    <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J131" s="5"/>
-    </row>
-    <row r="132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J132" s="5"/>
-    </row>
+    <row r="1048542" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048543" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048544" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048545" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048546" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048547" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048548" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048549" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048550" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048551" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048552" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048553" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048554" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048555" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>

--- a/haawks-indicator-shortlist.xlsx
+++ b/haawks-indicator-shortlist.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1431" uniqueCount="518">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1516" uniqueCount="518">
   <si>
     <t xml:space="preserve">Indicator</t>
   </si>
@@ -95,6 +95,9 @@
   </si>
   <si>
     <t xml:space="preserve">trigger_4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">default_symbol</t>
   </si>
   <si>
     <t xml:space="preserve">Crude Oil Inventories WoW</t>
@@ -145,6 +148,9 @@
   </si>
   <si>
     <t xml:space="preserve">bearish</t>
+  </si>
+  <si>
+    <t xml:space="preserve">USDJPY</t>
   </si>
   <si>
     <t xml:space="preserve">Motor Gasoline Inventories WoW</t>
@@ -1017,6 +1023,9 @@
 A higher than expected reading should be taken as positive/bullish for the CAD, while a lower than expected reading should be taken as negative/bearish for the CAD.</t>
   </si>
   <si>
+    <t xml:space="preserve">USDCAD</t>
+  </si>
+  <si>
     <t xml:space="preserve">CPI YoY, n.s.a.</t>
   </si>
   <si>
@@ -1368,6 +1377,9 @@
 A higher than expected reading should be taken as positive/bullish for the NOK, while a lower than expected reading should be taken as negative/bearish for the NOK.</t>
   </si>
   <si>
+    <t xml:space="preserve">USDNOK</t>
+  </si>
+  <si>
     <t xml:space="preserve">Norway GDP Mainland QoQ</t>
   </si>
   <si>
@@ -1468,6 +1480,9 @@
     <t xml:space="preserve">Gross Domestic Product (GDP) measures the annualized change in the inflation-adjusted value of all goods and services produced by the economy. It is the broadest measure of economic activity and the primary indicator of the economy's health. The quarterly change measures the seasonally adjusted change in percentage compared to the previous quarter. A higher than expected reading should be taken as positive/bullish for the SEK, while a lower than expected reading should be taken as negative/bearish for the SEK.</t>
   </si>
   <si>
+    <t xml:space="preserve">USDSEK</t>
+  </si>
+  <si>
     <t xml:space="preserve">Sweden GDP YoY</t>
   </si>
   <si>
@@ -1574,29 +1589,7 @@
 A higher than expected rate is positive/bullish for the PLN, while a lower than expected rate is negative/bearish for the PLN.</t>
   </si>
   <si>
-    <t xml:space="preserve">Bank of Russia Interest Rate Decision</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Russia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CBR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00003;7.50</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Russia Interest Rate Decision</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RUB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Central Bank of Russia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Bank Rossii decision on short term interest rate. The decision on where to set interest rates depends mostly on growth outlook and inflation. The primary objective of the central bank is to achieve price stability. High interest rates attract foreigners looking for the best "risk-free" return on their money, which can dramatically increases demand for the nation's currency.
-A higher than expected rate is positive/bullish for the RUB, while a lower than expected rate is negative/bearish for the RUB.</t>
+    <t xml:space="preserve">USDPLN</t>
   </si>
   <si>
     <t xml:space="preserve">ECB Main Refinancing Operations Rate</t>
@@ -1624,6 +1617,9 @@
 A higher than expected rate is positive/bullish for the EUR, while a lower than expected rate is negative/bearish for the EUR.</t>
   </si>
   <si>
+    <t xml:space="preserve">EURUSD</t>
+  </si>
+  <si>
     <t xml:space="preserve">Turkey One-Week Repo Rate (policy rate)</t>
   </si>
   <si>
@@ -1647,6 +1643,9 @@
   <si>
     <t xml:space="preserve">The Central Bank of the Republic of Turkey's (CBRT) Monetary Policy Committee votes on where to set the overnight interest rate. Traders watch interest rate changes closely as short term interest rates are the primary factor in currency valuation.
 A higher than expected rate is positive/bullish for the TRY, while a lower than expected rate is negative/bearish for the TRY.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">USDTRY</t>
   </si>
 </sst>
 </file>
@@ -1780,10 +1779,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Y1048576"/>
+  <dimension ref="A1:Z1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="O85" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="V97" activeCellId="0" sqref="V97"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="K91" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="T96" activeCellId="0" sqref="T96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1869,34 +1868,37 @@
       <c r="Y1" s="2" t="s">
         <v>24</v>
       </c>
+      <c r="Z1" s="2" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E2" s="1" t="n">
         <v>1</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="J2" s="1" t="n">
         <v>30000</v>
@@ -1905,34 +1907,34 @@
         <v>44031</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="N2" s="1" t="n">
         <v>75</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P2" s="1" t="n">
         <v>3</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="S2" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="T2" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="U2" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="V2" s="1" t="n">
         <v>1</v>
@@ -1946,34 +1948,37 @@
       <c r="Y2" s="1" t="n">
         <v>5</v>
       </c>
+      <c r="Z2" s="1" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="J3" s="1" t="n">
         <v>30001</v>
@@ -1982,34 +1987,34 @@
         <v>44031</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="N3" s="1" t="n">
         <v>485</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="P3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="R3" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="S3" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="T3" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="U3" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="V3" s="1" t="n">
         <v>0.5</v>
@@ -2023,34 +2028,37 @@
       <c r="Y3" s="1" t="n">
         <v>3</v>
       </c>
+      <c r="Z3" s="1" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E4" s="1" t="n">
         <v>1</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="J4" s="1" t="n">
         <v>30002</v>
@@ -2059,60 +2067,63 @@
         <v>44031</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="N4" s="1" t="n">
         <v>1660</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="P4" s="1" t="n">
         <v>1</v>
       </c>
       <c r="Q4" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="R4" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="S4" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="T4" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="U4" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
+      </c>
+      <c r="Z4" s="1" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E5" s="1" t="n">
         <v>1</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I5" s="4" t="n">
         <v>6.4375</v>
@@ -2124,34 +2135,34 @@
         <v>44031</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="N5" s="1" t="n">
         <v>1657</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="P5" s="1" t="n">
         <v>2</v>
       </c>
       <c r="Q5" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="R5" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="S5" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="T5" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="U5" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="V5" s="1" t="n">
         <v>0.2</v>
@@ -2165,34 +2176,37 @@
       <c r="Y5" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="Z5" s="1" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E6" s="1" t="n">
         <v>2</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="J6" s="1" t="n">
         <v>30010</v>
@@ -2201,34 +2215,34 @@
         <v>44031</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="N6" s="1" t="n">
         <v>386</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P6" s="1" t="n">
         <v>1</v>
       </c>
       <c r="Q6" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="R6" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="S6" s="3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="T6" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="U6" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="V6" s="1" t="n">
         <v>2</v>
@@ -2242,34 +2256,37 @@
       <c r="Y6" s="1" t="n">
         <v>11</v>
       </c>
+      <c r="Z6" s="1" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E7" s="1" t="n">
         <v>3</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="J7" s="1" t="n">
         <v>10000</v>
@@ -2278,34 +2295,34 @@
         <v>44011</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="N7" s="1" t="n">
         <v>227</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="P7" s="1" t="n">
         <v>3</v>
       </c>
       <c r="Q7" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="R7" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="S7" s="3" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="T7" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="U7" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="V7" s="1" t="n">
         <v>25</v>
@@ -2319,31 +2336,34 @@
       <c r="Y7" s="1" t="n">
         <v>200</v>
       </c>
+      <c r="Z7" s="1" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E8" s="1" t="n">
         <v>3</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="I8" s="4" t="n">
         <v>1.35416666666667</v>
@@ -2355,34 +2375,34 @@
         <v>44011</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="N8" s="1" t="n">
         <v>300</v>
       </c>
       <c r="O8" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="P8" s="1" t="n">
         <v>3</v>
       </c>
       <c r="Q8" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="R8" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="S8" s="3" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="T8" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="U8" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="V8" s="1" t="n">
         <v>0.1</v>
@@ -2396,34 +2416,37 @@
       <c r="Y8" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="Z8" s="1" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E9" s="1" t="n">
         <v>4</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="J9" s="1" t="n">
         <v>10010</v>
@@ -2432,34 +2455,34 @@
         <v>44011</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="N9" s="1" t="n">
         <v>238</v>
       </c>
       <c r="O9" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="P9" s="1" t="n">
         <v>3</v>
       </c>
       <c r="Q9" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="R9" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="S9" s="3" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="T9" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="U9" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="V9" s="1" t="n">
         <v>0.1</v>
@@ -2473,31 +2496,34 @@
       <c r="Y9" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="Z9" s="1" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E10" s="1" t="n">
         <v>4</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="I10" s="4" t="n">
         <v>1.35416666666667</v>
@@ -2509,34 +2535,34 @@
         <v>44011</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="N10" s="1" t="n">
         <v>734</v>
       </c>
       <c r="O10" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="P10" s="1" t="n">
         <v>1</v>
       </c>
       <c r="Q10" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="R10" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="S10" s="3" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="T10" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="U10" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="V10" s="1" t="n">
         <v>0.1</v>
@@ -2550,31 +2576,34 @@
       <c r="Y10" s="1" t="n">
         <v>0.4</v>
       </c>
+      <c r="Z10" s="1" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E11" s="1" t="n">
         <v>4</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="I11" s="4" t="n">
         <v>2.35416666666667</v>
@@ -2586,34 +2615,34 @@
         <v>44011</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="N11" s="1" t="n">
         <v>62</v>
       </c>
       <c r="O11" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="P11" s="1" t="n">
         <v>2</v>
       </c>
       <c r="Q11" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="R11" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="S11" s="3" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="T11" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="U11" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="V11" s="1" t="n">
         <v>0.1</v>
@@ -2627,31 +2656,34 @@
       <c r="Y11" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="Z11" s="1" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E12" s="1" t="n">
         <v>4</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="I12" s="4" t="n">
         <v>3.35416666666667</v>
@@ -2663,34 +2695,34 @@
         <v>44011</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="N12" s="1" t="n">
         <v>735</v>
       </c>
       <c r="O12" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="P12" s="1" t="n">
         <v>1</v>
       </c>
       <c r="Q12" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="R12" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="S12" s="3" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="T12" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="U12" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="V12" s="1" t="n">
         <v>0.1</v>
@@ -2704,31 +2736,34 @@
       <c r="Y12" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="Z12" s="1" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E13" s="1" t="n">
         <v>5</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="I13" s="4" t="n">
         <v>3.35416666666667</v>
@@ -2740,34 +2775,34 @@
         <v>44011</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="N13" s="1" t="n">
         <v>153</v>
       </c>
       <c r="O13" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="P13" s="1" t="n">
         <v>2</v>
       </c>
       <c r="Q13" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="R13" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="S13" s="3" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="T13" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="U13" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="V13" s="1" t="n">
         <v>0.1</v>
@@ -2781,31 +2816,34 @@
       <c r="Y13" s="1" t="n">
         <v>0.4</v>
       </c>
+      <c r="Z13" s="1" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E14" s="1" t="n">
         <v>5</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="I14" s="4" t="n">
         <v>3.35416666666667</v>
@@ -2817,34 +2855,34 @@
         <v>44011</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="N14" s="1" t="n">
         <v>892</v>
       </c>
       <c r="O14" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="P14" s="1" t="n">
         <v>2</v>
       </c>
       <c r="Q14" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="R14" s="1" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="S14" s="1" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="T14" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="U14" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="V14" s="1" t="n">
         <v>0.1</v>
@@ -2858,31 +2896,34 @@
       <c r="Y14" s="1" t="n">
         <v>0.8</v>
       </c>
+      <c r="Z14" s="1" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E15" s="1" t="n">
         <v>6</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="I15" s="4" t="n">
         <v>3.35416666666667</v>
@@ -2894,34 +2935,34 @@
         <v>44011</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="M15" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="N15" s="1" t="n">
         <v>69</v>
       </c>
       <c r="O15" s="1" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="P15" s="1" t="n">
         <v>3</v>
       </c>
       <c r="Q15" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="R15" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="S15" s="3" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="T15" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="U15" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="V15" s="1" t="n">
         <v>0.1</v>
@@ -2935,31 +2976,34 @@
       <c r="Y15" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="Z15" s="1" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E16" s="1" t="n">
         <v>6</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="I16" s="4" t="n">
         <v>3.35416666666667</v>
@@ -2971,34 +3015,34 @@
         <v>44011</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="M16" s="1" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="N16" s="1" t="n">
         <v>733</v>
       </c>
       <c r="O16" s="1" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="P16" s="1" t="n">
         <v>3</v>
       </c>
       <c r="Q16" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="R16" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="S16" s="3" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="T16" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="U16" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="V16" s="1" t="n">
         <v>0.1</v>
@@ -3012,31 +3056,34 @@
       <c r="Y16" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="Z16" s="1" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="17" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E17" s="1" t="n">
         <v>6</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="I17" s="4" t="n">
         <v>3.35416666666667</v>
@@ -3048,34 +3095,34 @@
         <v>44011</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="M17" s="1" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="N17" s="1" t="n">
         <v>56</v>
       </c>
       <c r="O17" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="P17" s="1" t="n">
         <v>3</v>
       </c>
       <c r="Q17" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="R17" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="S17" s="3" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="T17" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="U17" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="V17" s="1" t="n">
         <v>0.1</v>
@@ -3089,31 +3136,34 @@
       <c r="Y17" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="Z17" s="1" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E18" s="1" t="n">
         <v>6</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="I18" s="4" t="n">
         <v>3.35416666666667</v>
@@ -3125,34 +3175,34 @@
         <v>44011</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="M18" s="1" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="N18" s="1" t="n">
         <v>736</v>
       </c>
       <c r="O18" s="1" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="P18" s="1" t="n">
         <v>2</v>
       </c>
       <c r="Q18" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="R18" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="S18" s="3" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="T18" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="U18" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="V18" s="1" t="n">
         <v>0.1</v>
@@ -3166,31 +3216,34 @@
       <c r="Y18" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="Z18" s="1" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E19" s="1" t="n">
         <v>6</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="I19" s="4" t="n">
         <v>3.35416666666667</v>
@@ -3202,31 +3255,31 @@
         <v>44011</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="M19" s="1" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="N19" s="1" t="n">
         <v>1549</v>
       </c>
       <c r="O19" s="1" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="P19" s="1" t="n">
         <v>1</v>
       </c>
       <c r="Q19" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="R19" s="1" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="S19" s="1" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="U19" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="V19" s="1" t="n">
         <v>0.07</v>
@@ -3240,31 +3293,34 @@
       <c r="Y19" s="1" t="n">
         <v>0.4</v>
       </c>
+      <c r="Z19" s="1" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E20" s="1" t="n">
         <v>6</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="I20" s="4" t="n">
         <v>3.35416666666667</v>
@@ -3276,31 +3332,31 @@
         <v>44011</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="M20" s="1" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="N20" s="1" t="n">
         <v>1226</v>
       </c>
       <c r="O20" s="1" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="P20" s="1" t="n">
         <v>1</v>
       </c>
       <c r="Q20" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="R20" s="1" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="S20" s="1" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="U20" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="V20" s="1" t="n">
         <v>0.15</v>
@@ -3314,34 +3370,37 @@
       <c r="Y20" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="Z20" s="1" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="21" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E21" s="1" t="n">
         <v>7</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="J21" s="1" t="n">
         <v>10040</v>
@@ -3350,34 +3409,34 @@
         <v>44011</v>
       </c>
       <c r="L21" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="M21" s="1" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="N21" s="1" t="n">
         <v>161</v>
       </c>
       <c r="O21" s="1" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="P21" s="1" t="n">
         <v>2</v>
       </c>
       <c r="Q21" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="R21" s="1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="S21" s="3" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="T21" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="U21" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="V21" s="1" t="n">
         <v>0.1</v>
@@ -3391,34 +3450,37 @@
       <c r="Y21" s="1" t="n">
         <v>0.5</v>
       </c>
+      <c r="Z21" s="1" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="22" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E22" s="1" t="n">
         <v>7</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="J22" s="1" t="n">
         <v>10042</v>
@@ -3427,34 +3489,34 @@
         <v>44011</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="M22" s="1" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="N22" s="1" t="n">
         <v>31</v>
       </c>
       <c r="O22" s="1" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="P22" s="1" t="n">
         <v>1</v>
       </c>
       <c r="Q22" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="R22" s="1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="S22" s="3" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="T22" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="U22" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="V22" s="1" t="n">
         <v>0.1</v>
@@ -3468,31 +3530,34 @@
       <c r="Y22" s="1" t="n">
         <v>0.7</v>
       </c>
+      <c r="Z22" s="1" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="23" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E23" s="1" t="n">
         <v>7</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="I23" s="4" t="n">
         <v>1.38541666666667</v>
@@ -3504,34 +3569,34 @@
         <v>44011</v>
       </c>
       <c r="L23" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="M23" s="1" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="N23" s="1" t="n">
         <v>1307</v>
       </c>
       <c r="O23" s="1" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="P23" s="1" t="n">
         <v>1</v>
       </c>
       <c r="Q23" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="R23" s="1" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="S23" s="3" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="T23" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="U23" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="V23" s="1" t="n">
         <v>0.1</v>
@@ -3545,31 +3610,34 @@
       <c r="Y23" s="1" t="n">
         <v>0.7</v>
       </c>
+      <c r="Z23" s="1" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="24" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="E24" s="1" t="n">
         <v>9</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="I24" s="4" t="n">
         <v>1.35416666666667</v>
@@ -3581,34 +3649,34 @@
         <v>44011</v>
       </c>
       <c r="L24" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="M24" s="1" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="N24" s="1" t="n">
         <v>375</v>
       </c>
       <c r="O24" s="1" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="P24" s="1" t="n">
         <v>3</v>
       </c>
       <c r="Q24" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="R24" s="1" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="S24" s="3" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="T24" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="U24" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="V24" s="1" t="n">
         <v>0.1</v>
@@ -3622,31 +3690,34 @@
       <c r="Y24" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="Z24" s="1" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="25" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="E25" s="1" t="n">
         <v>9</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="I25" s="4" t="n">
         <v>2.35416666666667</v>
@@ -3658,34 +3729,34 @@
         <v>44011</v>
       </c>
       <c r="L25" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="M25" s="1" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="N25" s="1" t="n">
         <v>343</v>
       </c>
       <c r="O25" s="1" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="P25" s="1" t="n">
         <v>2</v>
       </c>
       <c r="Q25" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="R25" s="1" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="S25" s="3" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="T25" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="U25" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="V25" s="1" t="n">
         <v>0.1</v>
@@ -3699,31 +3770,34 @@
       <c r="Y25" s="1" t="n">
         <v>0.4</v>
       </c>
+      <c r="Z25" s="1" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="26" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="E26" s="1" t="n">
         <v>10</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="I26" s="4" t="n">
         <v>3.35416666666667</v>
@@ -3735,34 +3809,34 @@
         <v>44011</v>
       </c>
       <c r="L26" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="M26" s="1" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="N26" s="1" t="n">
         <v>235</v>
       </c>
       <c r="O26" s="1" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="P26" s="1" t="n">
         <v>2</v>
       </c>
       <c r="Q26" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="R26" s="1" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="S26" s="3" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="T26" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="U26" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="V26" s="1" t="n">
         <v>0.1</v>
@@ -3776,31 +3850,34 @@
       <c r="Y26" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="Z26" s="1" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="27" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="E27" s="1" t="n">
         <v>10</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="I27" s="4" t="n">
         <v>4.35416666666667</v>
@@ -3812,34 +3889,34 @@
         <v>44011</v>
       </c>
       <c r="L27" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="M27" s="1" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="N27" s="1" t="n">
         <v>61</v>
       </c>
       <c r="O27" s="1" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="P27" s="1" t="n">
         <v>3</v>
       </c>
       <c r="Q27" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="R27" s="1" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="S27" s="3" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="T27" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="U27" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="V27" s="1" t="n">
         <v>0.1</v>
@@ -3853,31 +3930,34 @@
       <c r="Y27" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="Z27" s="0" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="E28" s="1" t="n">
         <v>10</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="I28" s="4" t="n">
         <v>5.35416666666667</v>
@@ -3889,34 +3969,34 @@
         <v>44011</v>
       </c>
       <c r="L28" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="M28" s="1" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="N28" s="1" t="n">
         <v>905</v>
       </c>
       <c r="O28" s="1" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="P28" s="1" t="n">
         <v>2</v>
       </c>
       <c r="Q28" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="R28" s="1" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="S28" s="1" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="T28" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="U28" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="V28" s="1" t="n">
         <v>0.1</v>
@@ -3930,31 +4010,34 @@
       <c r="Y28" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="Z28" s="0" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="29" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="E29" s="1" t="n">
         <v>10</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="I29" s="4" t="n">
         <v>8.35416666666667</v>
@@ -3966,34 +4049,34 @@
         <v>44011</v>
       </c>
       <c r="L29" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="M29" s="1" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="N29" s="1" t="n">
         <v>234</v>
       </c>
       <c r="O29" s="1" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="P29" s="1" t="n">
         <v>1</v>
       </c>
       <c r="Q29" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="R29" s="1" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="S29" s="3" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="T29" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="U29" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="V29" s="1" t="n">
         <v>0.1</v>
@@ -4007,31 +4090,34 @@
       <c r="Y29" s="1" t="n">
         <v>0.4</v>
       </c>
+      <c r="Z29" s="0" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="E30" s="1" t="n">
         <v>10</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="I30" s="4" t="n">
         <v>8.35416666666667</v>
@@ -4043,34 +4129,34 @@
         <v>44011</v>
       </c>
       <c r="L30" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="M30" s="1" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="N30" s="1" t="n">
         <v>895</v>
       </c>
       <c r="O30" s="1" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="P30" s="1" t="n">
         <v>1</v>
       </c>
       <c r="Q30" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="R30" s="1" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="S30" s="1" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="T30" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="U30" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="V30" s="1" t="n">
         <v>0.1</v>
@@ -4084,34 +4170,37 @@
       <c r="Y30" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="Z30" s="0" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="31" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E31" s="1" t="n">
         <v>11</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="J31" s="1" t="n">
         <v>10080</v>
@@ -4120,34 +4209,34 @@
         <v>44011</v>
       </c>
       <c r="L31" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="M31" s="1" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="N31" s="1" t="n">
         <v>1057</v>
       </c>
       <c r="O31" s="1" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="P31" s="1" t="n">
         <v>3</v>
       </c>
       <c r="Q31" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="R31" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="S31" s="3" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="T31" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="U31" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="V31" s="1" t="n">
         <v>0.075</v>
@@ -4161,34 +4250,37 @@
       <c r="Y31" s="1" t="n">
         <v>0.5</v>
       </c>
+      <c r="Z31" s="0" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="32" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="E32" s="1" t="n">
         <v>12</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="J32" s="1" t="n">
         <v>10090</v>
@@ -4197,31 +4289,31 @@
         <v>44011</v>
       </c>
       <c r="L32" s="1" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="M32" s="1" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="N32" s="1" t="n">
         <v>320</v>
       </c>
       <c r="O32" s="1" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="P32" s="1" t="n">
         <v>2</v>
       </c>
       <c r="Q32" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="R32" s="1" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="S32" s="3" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="U32" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="V32" s="1" t="n">
         <v>0.4</v>
@@ -4235,34 +4327,37 @@
       <c r="Y32" s="1" t="n">
         <v>3</v>
       </c>
+      <c r="Z32" s="0" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="33" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="E33" s="1" t="n">
         <v>12</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="J33" s="1" t="n">
         <v>10091</v>
@@ -4271,34 +4366,34 @@
         <v>44011</v>
       </c>
       <c r="L33" s="1" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="M33" s="1" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="N33" s="1" t="n">
         <v>389</v>
       </c>
       <c r="O33" s="1" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="P33" s="1" t="n">
         <v>1</v>
       </c>
       <c r="Q33" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="R33" s="1" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="S33" s="3" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="T33" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="U33" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="V33" s="1" t="n">
         <v>0.1</v>
@@ -4312,34 +4407,37 @@
       <c r="Y33" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="Z33" s="0" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="E34" s="1" t="n">
         <v>12</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="J34" s="1" t="n">
         <v>10092</v>
@@ -4348,31 +4446,31 @@
         <v>44011</v>
       </c>
       <c r="L34" s="1" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="M34" s="1" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="N34" s="1" t="n">
         <v>901</v>
       </c>
       <c r="O34" s="1" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="P34" s="1" t="n">
         <v>1</v>
       </c>
       <c r="Q34" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="R34" s="1" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="S34" s="1" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="U34" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="V34" s="1" t="n">
         <v>0.4</v>
@@ -4386,31 +4484,34 @@
       <c r="Y34" s="1" t="n">
         <v>3.5</v>
       </c>
+      <c r="Z34" s="0" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="35" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="E35" s="1" t="n">
         <v>13</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="I35" s="4" t="n">
         <v>5.35416666666667</v>
@@ -4422,34 +4523,34 @@
         <v>44011</v>
       </c>
       <c r="L35" s="1" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="M35" s="1" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="N35" s="1" t="n">
         <v>286</v>
       </c>
       <c r="O35" s="1" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="P35" s="1" t="n">
         <v>2</v>
       </c>
       <c r="Q35" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="R35" s="1" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="S35" s="3" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="T35" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="U35" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="V35" s="1" t="n">
         <v>0.3</v>
@@ -4463,34 +4564,37 @@
       <c r="Y35" s="1" t="n">
         <v>2</v>
       </c>
+      <c r="Z35" s="0" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="36" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="E36" s="1" t="n">
         <v>14</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="J36" s="1" t="n">
         <v>10110</v>
@@ -4499,34 +4603,34 @@
         <v>44011</v>
       </c>
       <c r="L36" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="M36" s="1" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="N36" s="1" t="n">
         <v>100</v>
       </c>
       <c r="O36" s="1" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="P36" s="1" t="n">
         <v>2</v>
       </c>
       <c r="Q36" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="R36" s="1" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="S36" s="3" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="T36" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="U36" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="V36" s="1" t="n">
         <v>0.1</v>
@@ -4540,31 +4644,34 @@
       <c r="Y36" s="1" t="n">
         <v>0.5</v>
       </c>
+      <c r="Z36" s="0" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="37" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="E37" s="1" t="n">
         <v>15</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="I37" s="4" t="n">
         <v>1.41666666666667</v>
@@ -4576,34 +4683,34 @@
         <v>44011</v>
       </c>
       <c r="L37" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="M37" s="1" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="N37" s="1" t="n">
         <v>305</v>
       </c>
       <c r="O37" s="1" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="P37" s="1" t="n">
         <v>1</v>
       </c>
       <c r="Q37" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="R37" s="1" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="S37" s="3" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="T37" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="U37" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="V37" s="1" t="n">
         <v>0.1</v>
@@ -4617,34 +4724,37 @@
       <c r="Y37" s="1" t="n">
         <v>0.5</v>
       </c>
+      <c r="Z37" s="0" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="38" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="E38" s="1" t="n">
         <v>16</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="J38" s="1" t="n">
         <v>10130</v>
@@ -4653,34 +4763,34 @@
         <v>44011</v>
       </c>
       <c r="L38" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="M38" s="1" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="N38" s="1" t="n">
         <v>256</v>
       </c>
       <c r="O38" s="1" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="P38" s="1" t="n">
         <v>3</v>
       </c>
       <c r="Q38" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="R38" s="1" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="S38" s="3" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="T38" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="U38" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="V38" s="1" t="n">
         <v>0.1</v>
@@ -4694,34 +4804,37 @@
       <c r="Y38" s="1" t="n">
         <v>0.9</v>
       </c>
+      <c r="Z38" s="0" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="39" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="E39" s="1" t="n">
         <v>16</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="J39" s="1" t="n">
         <v>10132</v>
@@ -4730,34 +4843,34 @@
         <v>44011</v>
       </c>
       <c r="L39" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="M39" s="1" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="N39" s="1" t="n">
         <v>63</v>
       </c>
       <c r="O39" s="1" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="P39" s="1" t="n">
         <v>3</v>
       </c>
       <c r="Q39" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="R39" s="1" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="S39" s="3" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="T39" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="U39" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="V39" s="1" t="n">
         <v>0.2</v>
@@ -4771,34 +4884,37 @@
       <c r="Y39" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="Z39" s="0" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="40" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="E40" s="1" t="n">
         <v>17</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="J40" s="1" t="n">
         <v>10140</v>
@@ -4807,34 +4923,34 @@
         <v>44011</v>
       </c>
       <c r="L40" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="M40" s="1" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="N40" s="1" t="n">
         <v>29</v>
       </c>
       <c r="O40" s="1" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="P40" s="1" t="n">
         <v>2</v>
       </c>
       <c r="Q40" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="R40" s="1" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="S40" s="3" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="T40" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="U40" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="V40" s="1" t="n">
         <v>0.1</v>
@@ -4848,34 +4964,37 @@
       <c r="Y40" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="Z40" s="0" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="E41" s="1" t="n">
         <v>18</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="J41" s="1" t="n">
         <v>10150</v>
@@ -4884,34 +5003,34 @@
         <v>44011</v>
       </c>
       <c r="L41" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="M41" s="1" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="N41" s="1" t="n">
         <v>898</v>
       </c>
       <c r="O41" s="1" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="P41" s="1" t="n">
         <v>2</v>
       </c>
       <c r="Q41" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="R41" s="1" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="S41" s="1" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="T41" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="U41" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="V41" s="1" t="n">
         <v>1.5</v>
@@ -4925,34 +5044,37 @@
       <c r="Y41" s="1" t="n">
         <v>8</v>
       </c>
+      <c r="Z41" s="0" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="42" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="E42" s="1" t="n">
         <v>18</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="J42" s="1" t="n">
         <v>10152</v>
@@ -4961,34 +5083,34 @@
         <v>44011</v>
       </c>
       <c r="L42" s="1" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="M42" s="1" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="N42" s="1" t="n">
         <v>151</v>
       </c>
       <c r="O42" s="1" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="P42" s="1" t="n">
         <v>2</v>
       </c>
       <c r="Q42" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="R42" s="1" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="S42" s="3" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="T42" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="U42" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="V42" s="1" t="n">
         <v>0.025</v>
@@ -5002,34 +5124,37 @@
       <c r="Y42" s="1" t="n">
         <v>0.1</v>
       </c>
+      <c r="Z42" s="0" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="E43" s="1" t="n">
         <v>18</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="J43" s="1" t="n">
         <v>10154</v>
@@ -5038,34 +5163,34 @@
         <v>44011</v>
       </c>
       <c r="L43" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="M43" s="1" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="N43" s="1" t="n">
         <v>885</v>
       </c>
       <c r="O43" s="1" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="P43" s="1" t="n">
         <v>2</v>
       </c>
       <c r="Q43" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="R43" s="1" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="S43" s="1" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="T43" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="U43" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="V43" s="1" t="n">
         <v>0.8</v>
@@ -5079,34 +5204,37 @@
       <c r="Y43" s="1" t="n">
         <v>5</v>
       </c>
+      <c r="Z43" s="0" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="44" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="E44" s="1" t="n">
         <v>18</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="J44" s="1" t="n">
         <v>10156</v>
@@ -5115,34 +5243,34 @@
         <v>44011</v>
       </c>
       <c r="L44" s="1" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="M44" s="1" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="N44" s="1" t="n">
         <v>25</v>
       </c>
       <c r="O44" s="1" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="P44" s="1" t="n">
         <v>3</v>
       </c>
       <c r="Q44" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="R44" s="1" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="S44" s="3" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="T44" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="U44" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="V44" s="1" t="n">
         <v>0.015</v>
@@ -5156,34 +5284,37 @@
       <c r="Y44" s="1" t="n">
         <v>0.09</v>
       </c>
+      <c r="Z44" s="0" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="E45" s="1" t="n">
         <v>19</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="J45" s="1" t="n">
         <v>10160</v>
@@ -5192,34 +5323,34 @@
         <v>44011</v>
       </c>
       <c r="L45" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="M45" s="1" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="N45" s="1" t="n">
         <v>896</v>
       </c>
       <c r="O45" s="1" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="P45" s="1" t="n">
         <v>2</v>
       </c>
       <c r="Q45" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="R45" s="1" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="S45" s="1" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="T45" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="U45" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="V45" s="1" t="n">
         <v>2</v>
@@ -5233,34 +5364,37 @@
       <c r="Y45" s="1" t="n">
         <v>10</v>
       </c>
+      <c r="Z45" s="0" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="46" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="E46" s="1" t="n">
         <v>19</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="J46" s="1" t="n">
         <v>10162</v>
@@ -5269,34 +5403,34 @@
         <v>44011</v>
       </c>
       <c r="L46" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="M46" s="1" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="N46" s="1" t="n">
         <v>222</v>
       </c>
       <c r="O46" s="1" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="P46" s="1" t="n">
         <v>3</v>
       </c>
       <c r="Q46" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="R46" s="1" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="S46" s="3" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="T46" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="U46" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="V46" s="1" t="n">
         <v>15</v>
@@ -5310,31 +5444,34 @@
       <c r="Y46" s="1" t="n">
         <v>100</v>
       </c>
+      <c r="Z46" s="0" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="47" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="E47" s="1" t="n">
         <v>20</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="I47" s="4" t="n">
         <v>6.35416666666667</v>
@@ -5346,34 +5483,34 @@
         <v>44011</v>
       </c>
       <c r="L47" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="M47" s="1" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="N47" s="1" t="n">
         <v>86</v>
       </c>
       <c r="O47" s="1" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="P47" s="1" t="n">
         <v>2</v>
       </c>
       <c r="Q47" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="R47" s="1" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="S47" s="3" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="T47" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="U47" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="V47" s="1" t="n">
         <v>0.4</v>
@@ -5387,31 +5524,34 @@
       <c r="Y47" s="1" t="n">
         <v>2</v>
       </c>
+      <c r="Z47" s="0" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="48" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="E48" s="1" t="n">
         <v>20</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="I48" s="4" t="n">
         <v>8.35416666666667</v>
@@ -5423,34 +5563,34 @@
         <v>44011</v>
       </c>
       <c r="L48" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="M48" s="1" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="N48" s="1" t="n">
         <v>59</v>
       </c>
       <c r="O48" s="1" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="P48" s="1" t="n">
         <v>3</v>
       </c>
       <c r="Q48" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="R48" s="1" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="S48" s="3" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="T48" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="U48" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="V48" s="1" t="n">
         <v>0.1</v>
@@ -5464,31 +5604,34 @@
       <c r="Y48" s="1" t="n">
         <v>0.7</v>
       </c>
+      <c r="Z48" s="0" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="E49" s="1" t="n">
         <v>22</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="I49" s="4" t="n">
         <v>8.35416666666667</v>
@@ -5500,34 +5643,34 @@
         <v>44011</v>
       </c>
       <c r="L49" s="1" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="M49" s="1" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="N49" s="1" t="n">
         <v>1650</v>
       </c>
       <c r="O49" s="1" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="P49" s="1" t="n">
         <v>2</v>
       </c>
       <c r="Q49" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="R49" s="1" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="S49" s="1" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="T49" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="U49" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="V49" s="1" t="n">
         <v>1</v>
@@ -5541,31 +5684,34 @@
       <c r="Y49" s="1" t="n">
         <v>5</v>
       </c>
+      <c r="Z49" s="0" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="50" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="1" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="E50" s="1" t="n">
         <v>23</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="I50" s="4" t="n">
         <v>8.35416666666667</v>
@@ -5577,34 +5723,34 @@
         <v>44011</v>
       </c>
       <c r="L50" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="M50" s="1" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="N50" s="1" t="n">
         <v>305</v>
       </c>
       <c r="O50" s="1" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="P50" s="1" t="n">
         <v>1</v>
       </c>
       <c r="Q50" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="R50" s="1" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="S50" s="3" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="T50" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="U50" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="V50" s="1" t="n">
         <v>0.1</v>
@@ -5618,31 +5764,34 @@
       <c r="Y50" s="1" t="n">
         <v>0.5</v>
       </c>
+      <c r="Z50" s="0" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="51" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="1" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="E51" s="1" t="n">
         <v>24</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="I51" s="4" t="n">
         <v>1.41666666666667</v>
@@ -5654,34 +5803,34 @@
         <v>44011</v>
       </c>
       <c r="L51" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="M51" s="1" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="N51" s="1" t="n">
         <v>45</v>
       </c>
       <c r="O51" s="1" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="P51" s="1" t="n">
         <v>1</v>
       </c>
       <c r="Q51" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="R51" s="1" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="S51" s="3" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="T51" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="U51" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="V51" s="1" t="n">
         <v>0.3</v>
@@ -5695,31 +5844,34 @@
       <c r="Y51" s="1" t="n">
         <v>1.2</v>
       </c>
+      <c r="Z51" s="0" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="52" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="1" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E52" s="1" t="n">
         <v>25</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="I52" s="4" t="n">
         <v>6.35416666666667</v>
@@ -5731,34 +5883,34 @@
         <v>44011</v>
       </c>
       <c r="L52" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="M52" s="1" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="N52" s="1" t="n">
         <v>331</v>
       </c>
       <c r="O52" s="1" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="P52" s="1" t="n">
         <v>2</v>
       </c>
       <c r="Q52" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="R52" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="S52" s="3" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="T52" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="U52" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="V52" s="1" t="n">
         <v>0.1</v>
@@ -5772,34 +5924,37 @@
       <c r="Y52" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="Z52" s="0" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="53" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="1" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="E53" s="1" t="n">
         <v>26</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="J53" s="1" t="n">
         <v>10230</v>
@@ -5808,34 +5963,34 @@
         <v>44011</v>
       </c>
       <c r="L53" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="M53" s="1" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="N53" s="1" t="n">
         <v>294</v>
       </c>
       <c r="O53" s="1" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="P53" s="1" t="n">
         <v>3</v>
       </c>
       <c r="Q53" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="R53" s="1" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="S53" s="3" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="T53" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="U53" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="V53" s="1" t="n">
         <v>3</v>
@@ -5849,34 +6004,37 @@
       <c r="Y53" s="1" t="n">
         <v>25</v>
       </c>
+      <c r="Z53" s="0" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="54" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="1" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="E54" s="1" t="n">
         <v>28</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="I54" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="J54" s="1" t="n">
         <v>10250</v>
@@ -5885,34 +6043,34 @@
         <v>44012</v>
       </c>
       <c r="L54" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="M54" s="1" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="N54" s="1" t="n">
         <v>70</v>
       </c>
       <c r="O54" s="1" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="P54" s="1" t="n">
         <v>2</v>
       </c>
       <c r="Q54" s="1" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="R54" s="1" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="S54" s="3" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="T54" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="U54" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="V54" s="1" t="n">
         <v>0.1</v>
@@ -5926,34 +6084,37 @@
       <c r="Y54" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="Z54" s="0" t="s">
+        <v>319</v>
+      </c>
     </row>
     <row r="55" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="1" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="E55" s="1" t="n">
         <v>28</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="I55" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="J55" s="1" t="n">
         <v>10251</v>
@@ -5962,34 +6123,34 @@
         <v>44012</v>
       </c>
       <c r="L55" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="M55" s="1" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="N55" s="1" t="n">
         <v>741</v>
       </c>
       <c r="O55" s="1" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="P55" s="1" t="n">
         <v>1</v>
       </c>
       <c r="Q55" s="1" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="R55" s="1" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="S55" s="3" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="T55" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="U55" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="V55" s="1" t="n">
         <v>0.1</v>
@@ -6003,34 +6164,37 @@
       <c r="Y55" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="Z55" s="0" t="s">
+        <v>319</v>
+      </c>
     </row>
     <row r="56" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="1" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="E56" s="1" t="n">
         <v>28</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="I56" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="J56" s="1" t="n">
         <v>10252</v>
@@ -6039,34 +6203,34 @@
         <v>44012</v>
       </c>
       <c r="L56" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="M56" s="1" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="N56" s="1" t="n">
         <v>57</v>
       </c>
       <c r="O56" s="1" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="P56" s="1" t="n">
         <v>3</v>
       </c>
       <c r="Q56" s="1" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="R56" s="1" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="S56" s="3" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="T56" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="U56" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="V56" s="1" t="n">
         <v>0.1</v>
@@ -6080,34 +6244,37 @@
       <c r="Y56" s="1" t="n">
         <v>0.5</v>
       </c>
+      <c r="Z56" s="0" t="s">
+        <v>319</v>
+      </c>
     </row>
     <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="1" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="E57" s="1" t="n">
         <v>28</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="I57" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="J57" s="1" t="n">
         <v>10253</v>
@@ -6116,34 +6283,34 @@
         <v>44012</v>
       </c>
       <c r="L57" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="M57" s="1" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="N57" s="1" t="n">
         <v>1020</v>
       </c>
       <c r="O57" s="1" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="P57" s="1" t="n">
         <v>2</v>
       </c>
       <c r="Q57" s="1" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="R57" s="1" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="S57" s="1" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="T57" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="U57" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="V57" s="1" t="n">
         <v>0.1</v>
@@ -6157,34 +6324,37 @@
       <c r="Y57" s="1" t="n">
         <v>0.5</v>
       </c>
+      <c r="Z57" s="0" t="s">
+        <v>319</v>
+      </c>
     </row>
     <row r="58" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="1" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="E58" s="1" t="n">
         <v>29</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="I58" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="J58" s="1" t="n">
         <v>10260</v>
@@ -6193,34 +6363,34 @@
         <v>44012</v>
       </c>
       <c r="L58" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="M58" s="1" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="N58" s="1" t="n">
         <v>65</v>
       </c>
       <c r="O58" s="1" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="P58" s="1" t="n">
         <v>3</v>
       </c>
       <c r="Q58" s="1" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="R58" s="1" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="S58" s="3" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="T58" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="U58" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="V58" s="1" t="n">
         <v>0.2</v>
@@ -6234,34 +6404,37 @@
       <c r="Y58" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="Z58" s="0" t="s">
+        <v>319</v>
+      </c>
     </row>
     <row r="59" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="1" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="E59" s="1" t="n">
         <v>29</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="I59" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="J59" s="1" t="n">
         <v>10261</v>
@@ -6270,34 +6443,34 @@
         <v>44012</v>
       </c>
       <c r="L59" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="M59" s="1" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="N59" s="1" t="n">
         <v>260</v>
       </c>
       <c r="O59" s="1" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="P59" s="1" t="n">
         <v>2</v>
       </c>
       <c r="Q59" s="1" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="R59" s="1" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="S59" s="3" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="T59" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="U59" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="V59" s="1" t="n">
         <v>0.1</v>
@@ -6311,34 +6484,37 @@
       <c r="Y59" s="1" t="n">
         <v>0.9</v>
       </c>
+      <c r="Z59" s="0" t="s">
+        <v>319</v>
+      </c>
     </row>
     <row r="60" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="1" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="E60" s="1" t="n">
         <v>30</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="I60" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="J60" s="1" t="n">
         <v>10270</v>
@@ -6347,34 +6523,34 @@
         <v>44012</v>
       </c>
       <c r="L60" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="M60" s="1" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="N60" s="1" t="n">
         <v>123</v>
       </c>
       <c r="O60" s="1" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="P60" s="1" t="n">
         <v>3</v>
       </c>
       <c r="Q60" s="1" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="R60" s="1" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="S60" s="3" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="T60" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="U60" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="V60" s="1" t="n">
         <v>0.1</v>
@@ -6388,34 +6564,37 @@
       <c r="Y60" s="1" t="n">
         <v>0.4</v>
       </c>
+      <c r="Z60" s="0" t="s">
+        <v>319</v>
+      </c>
     </row>
     <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="1" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="E61" s="1" t="n">
         <v>30</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="I61" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="J61" s="1" t="n">
         <v>10272</v>
@@ -6424,34 +6603,34 @@
         <v>44012</v>
       </c>
       <c r="L61" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="M61" s="1" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="N61" s="1" t="n">
         <v>1758</v>
       </c>
       <c r="O61" s="1" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="P61" s="1" t="n">
         <v>2</v>
       </c>
       <c r="Q61" s="1" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="R61" s="1" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="S61" s="1" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="T61" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="U61" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="V61" s="1" t="n">
         <v>0.1</v>
@@ -6465,34 +6644,37 @@
       <c r="Y61" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="Z61" s="0" t="s">
+        <v>319</v>
+      </c>
     </row>
     <row r="62" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="1" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="E62" s="1" t="n">
         <v>31</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="I62" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="J62" s="1" t="n">
         <v>10280</v>
@@ -6501,34 +6683,34 @@
         <v>44012</v>
       </c>
       <c r="L62" s="1" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="M62" s="1" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="N62" s="1" t="n">
         <v>285</v>
       </c>
       <c r="O62" s="1" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="P62" s="1" t="n">
         <v>2</v>
       </c>
       <c r="Q62" s="1" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="R62" s="1" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="S62" s="3" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="T62" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="U62" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="V62" s="1" t="n">
         <v>0.25</v>
@@ -6542,34 +6724,37 @@
       <c r="Y62" s="1" t="n">
         <v>1.8</v>
       </c>
+      <c r="Z62" s="0" t="s">
+        <v>319</v>
+      </c>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="1" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="E63" s="1" t="n">
         <v>31</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="I63" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="J63" s="1" t="n">
         <v>10281</v>
@@ -6578,34 +6763,34 @@
         <v>44012</v>
       </c>
       <c r="L63" s="1" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="M63" s="1" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="N63" s="1" t="n">
         <v>1023</v>
       </c>
       <c r="O63" s="1" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="P63" s="1" t="n">
         <v>1</v>
       </c>
       <c r="Q63" s="1" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="R63" s="1" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="S63" s="1" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="T63" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="U63" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="V63" s="1" t="n">
         <v>0.6</v>
@@ -6619,34 +6804,37 @@
       <c r="Y63" s="1" t="n">
         <v>2.5</v>
       </c>
+      <c r="Z63" s="0" t="s">
+        <v>319</v>
+      </c>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="1" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="E64" s="1" t="n">
         <v>31</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="H64" s="1" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="I64" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="J64" s="1" t="n">
         <v>10282</v>
@@ -6655,34 +6843,34 @@
         <v>44012</v>
       </c>
       <c r="L64" s="1" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="M64" s="1" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="N64" s="1" t="n">
         <v>1026</v>
       </c>
       <c r="O64" s="1" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="P64" s="1" t="n">
         <v>1</v>
       </c>
       <c r="Q64" s="1" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="R64" s="1" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="S64" s="1" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="T64" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="U64" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="V64" s="1" t="n">
         <v>0.6</v>
@@ -6696,34 +6884,37 @@
       <c r="Y64" s="1" t="n">
         <v>3</v>
       </c>
+      <c r="Z64" s="0" t="s">
+        <v>319</v>
+      </c>
     </row>
     <row r="65" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="1" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="E65" s="1" t="n">
         <v>32</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="H65" s="1" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="I65" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="J65" s="1" t="n">
         <v>10290</v>
@@ -6732,34 +6923,34 @@
         <v>44012</v>
       </c>
       <c r="L65" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="M65" s="1" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="N65" s="1" t="n">
         <v>95</v>
       </c>
       <c r="O65" s="1" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="P65" s="1" t="n">
         <v>3</v>
       </c>
       <c r="Q65" s="1" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="R65" s="1" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="S65" s="3" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="T65" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="U65" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="V65" s="1" t="n">
         <v>10</v>
@@ -6773,34 +6964,37 @@
       <c r="Y65" s="1" t="n">
         <v>90</v>
       </c>
+      <c r="Z65" s="0" t="s">
+        <v>319</v>
+      </c>
     </row>
     <row r="66" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="E66" s="1" t="n">
         <v>32</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="I66" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="J66" s="1" t="n">
         <v>10291</v>
@@ -6809,34 +7003,34 @@
         <v>44012</v>
       </c>
       <c r="L66" s="1" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="M66" s="1" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="N66" s="1" t="n">
         <v>301</v>
       </c>
       <c r="O66" s="1" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="P66" s="1" t="n">
         <v>2</v>
       </c>
       <c r="Q66" s="1" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="R66" s="1" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="S66" s="3" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="T66" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="U66" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="V66" s="1" t="n">
         <v>0.1</v>
@@ -6850,34 +7044,37 @@
       <c r="Y66" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="Z66" s="0" t="s">
+        <v>319</v>
+      </c>
     </row>
     <row r="67" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="1" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="E67" s="1" t="n">
         <v>32</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="H67" s="1" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="I67" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="J67" s="1" t="n">
         <v>10294</v>
@@ -6886,34 +7083,34 @@
         <v>44012</v>
       </c>
       <c r="L67" s="1" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="M67" s="1" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="N67" s="1" t="n">
         <v>670</v>
       </c>
       <c r="O67" s="1" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="P67" s="1" t="n">
         <v>1</v>
       </c>
       <c r="Q67" s="1" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="R67" s="1" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="S67" s="3" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="T67" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="U67" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="V67" s="1" t="n">
         <v>0.1</v>
@@ -6927,34 +7124,37 @@
       <c r="Y67" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="Z67" s="0" t="s">
+        <v>319</v>
+      </c>
     </row>
     <row r="68" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="1" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="E68" s="1" t="n">
         <v>33</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="H68" s="1" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="I68" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="J68" s="1" t="n">
         <v>10300</v>
@@ -6963,34 +7163,34 @@
         <v>44012</v>
       </c>
       <c r="L68" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="M68" s="1" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="N68" s="1" t="n">
         <v>24</v>
       </c>
       <c r="O68" s="1" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="P68" s="1" t="n">
         <v>2</v>
       </c>
       <c r="Q68" s="1" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="R68" s="1" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="S68" s="3" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="T68" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="U68" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="V68" s="1" t="n">
         <v>1</v>
@@ -7004,34 +7204,37 @@
       <c r="Y68" s="1" t="n">
         <v>7</v>
       </c>
+      <c r="Z68" s="0" t="s">
+        <v>319</v>
+      </c>
     </row>
     <row r="69" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="1" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="E69" s="1" t="n">
         <v>34</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="H69" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="I69" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="J69" s="1" t="n">
         <v>10310</v>
@@ -7040,34 +7243,34 @@
         <v>44012</v>
       </c>
       <c r="L69" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="M69" s="1" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="N69" s="1" t="n">
         <v>223</v>
       </c>
       <c r="O69" s="1" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="P69" s="1" t="n">
         <v>2</v>
       </c>
       <c r="Q69" s="1" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="R69" s="1" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="S69" s="3" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="T69" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="U69" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="V69" s="1" t="n">
         <v>0.1</v>
@@ -7081,34 +7284,37 @@
       <c r="Y69" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="Z69" s="0" t="s">
+        <v>319</v>
+      </c>
     </row>
     <row r="70" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="1" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="E70" s="1" t="n">
         <v>35</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="H70" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="I70" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="J70" s="1" t="n">
         <v>10320</v>
@@ -7117,34 +7323,34 @@
         <v>44012</v>
       </c>
       <c r="L70" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="M70" s="1" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="N70" s="1" t="n">
         <v>207</v>
       </c>
       <c r="O70" s="1" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="P70" s="1" t="n">
         <v>2</v>
       </c>
       <c r="Q70" s="1" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="R70" s="1" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="S70" s="3" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="T70" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="U70" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="V70" s="1" t="n">
         <v>0.2</v>
@@ -7158,34 +7364,37 @@
       <c r="Y70" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="Z70" s="0" t="s">
+        <v>319</v>
+      </c>
     </row>
     <row r="71" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="1" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="E71" s="1" t="n">
         <v>36</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="H71" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="I71" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="J71" s="1" t="n">
         <v>10330</v>
@@ -7194,34 +7403,34 @@
         <v>44012</v>
       </c>
       <c r="L71" s="1" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="M71" s="1" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="N71" s="1" t="n">
         <v>109</v>
       </c>
       <c r="O71" s="1" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="P71" s="1" t="n">
         <v>2</v>
       </c>
       <c r="Q71" s="1" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="R71" s="1" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="S71" s="3" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="T71" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="U71" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="V71" s="1" t="n">
         <v>3</v>
@@ -7235,34 +7444,37 @@
       <c r="Y71" s="1" t="n">
         <v>22</v>
       </c>
+      <c r="Z71" s="0" t="s">
+        <v>319</v>
+      </c>
     </row>
     <row r="72" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="1" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="E72" s="1" t="n">
         <v>37</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="H72" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="I72" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="J72" s="1" t="n">
         <v>10340</v>
@@ -7271,34 +7483,34 @@
         <v>44012</v>
       </c>
       <c r="L72" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="M72" s="1" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="N72" s="1" t="n">
         <v>306</v>
       </c>
       <c r="O72" s="1" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="P72" s="1" t="n">
         <v>2</v>
       </c>
       <c r="Q72" s="1" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="R72" s="1" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="S72" s="3" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="T72" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="U72" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="V72" s="1" t="n">
         <v>0.3</v>
@@ -7312,34 +7524,37 @@
       <c r="Y72" s="1" t="n">
         <v>1.5</v>
       </c>
+      <c r="Z72" s="0" t="s">
+        <v>319</v>
+      </c>
     </row>
     <row r="73" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="1" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="E73" s="1" t="n">
         <v>38</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="H73" s="1" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="I73" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="J73" s="1" t="n">
         <v>10350</v>
@@ -7348,34 +7563,34 @@
         <v>44012</v>
       </c>
       <c r="L73" s="1" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="M73" s="1" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="N73" s="1" t="n">
         <v>79</v>
       </c>
       <c r="O73" s="1" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="P73" s="1" t="n">
         <v>2</v>
       </c>
       <c r="Q73" s="1" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="R73" s="1" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="S73" s="3" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="T73" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="U73" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="V73" s="1" t="n">
         <v>1</v>
@@ -7389,34 +7604,37 @@
       <c r="Y73" s="1" t="n">
         <v>4</v>
       </c>
+      <c r="Z73" s="0" t="s">
+        <v>319</v>
+      </c>
     </row>
     <row r="74" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="1" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="E74" s="1" t="n">
         <v>39</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="H74" s="1" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="I74" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="J74" s="1" t="n">
         <v>10360</v>
@@ -7425,34 +7643,34 @@
         <v>44012</v>
       </c>
       <c r="L74" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="M74" s="1" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="N74" s="1" t="n">
         <v>172</v>
       </c>
       <c r="O74" s="1" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="P74" s="1" t="n">
         <v>1</v>
       </c>
       <c r="Q74" s="1" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="R74" s="1" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="S74" s="3" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="T74" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="U74" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="V74" s="1" t="n">
         <v>0.1</v>
@@ -7466,34 +7684,37 @@
       <c r="Y74" s="1" t="n">
         <v>0.7</v>
       </c>
+      <c r="Z74" s="0" t="s">
+        <v>319</v>
+      </c>
     </row>
     <row r="75" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="1" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="E75" s="1" t="n">
         <v>40</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="H75" s="1" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="I75" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="J75" s="1" t="n">
         <v>10370</v>
@@ -7502,34 +7723,34 @@
         <v>44012</v>
       </c>
       <c r="L75" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="M75" s="1" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="N75" s="1" t="n">
         <v>266</v>
       </c>
       <c r="O75" s="1" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="P75" s="1" t="n">
         <v>2</v>
       </c>
       <c r="Q75" s="1" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="R75" s="1" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="S75" s="3" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="T75" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="U75" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="V75" s="1" t="n">
         <v>0.5</v>
@@ -7543,34 +7764,37 @@
       <c r="Y75" s="1" t="n">
         <v>3</v>
       </c>
+      <c r="Z75" s="0" t="s">
+        <v>319</v>
+      </c>
     </row>
     <row r="76" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="1" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="E76" s="1" t="n">
         <v>41</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="H76" s="1" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="I76" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="J76" s="1" t="n">
         <v>10380</v>
@@ -7579,34 +7803,34 @@
         <v>44012</v>
       </c>
       <c r="L76" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="M76" s="1" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="N76" s="1" t="n">
         <v>189</v>
       </c>
       <c r="O76" s="1" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="P76" s="1" t="n">
         <v>2</v>
       </c>
       <c r="Q76" s="1" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="R76" s="1" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="S76" s="3" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="T76" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="U76" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="V76" s="1" t="n">
         <v>0.1</v>
@@ -7620,34 +7844,37 @@
       <c r="Y76" s="1" t="n">
         <v>1.2</v>
       </c>
+      <c r="Z76" s="0" t="s">
+        <v>319</v>
+      </c>
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="1" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="E77" s="1" t="n">
         <v>42</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="H77" s="1" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="I77" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="J77" s="1" t="n">
         <v>10390</v>
@@ -7656,34 +7883,34 @@
         <v>44012</v>
       </c>
       <c r="L77" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="M77" s="1" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="N77" s="1" t="n">
         <v>1025</v>
       </c>
       <c r="O77" s="1" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="P77" s="1" t="n">
         <v>2</v>
       </c>
       <c r="Q77" s="1" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="R77" s="1" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="S77" s="1" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="T77" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="U77" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="V77" s="1" t="n">
         <v>0.2</v>
@@ -7697,22 +7924,25 @@
       <c r="Y77" s="1" t="n">
         <v>2</v>
       </c>
+      <c r="Z77" s="0" t="s">
+        <v>319</v>
+      </c>
     </row>
     <row r="78" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="1" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="J78" s="1" t="n">
         <v>91</v>
@@ -7721,31 +7951,31 @@
         <v>44008</v>
       </c>
       <c r="M78" s="1" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="N78" s="1" t="n">
         <v>443</v>
       </c>
       <c r="O78" s="1" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="P78" s="1" t="n">
         <v>2</v>
       </c>
       <c r="Q78" s="1" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="R78" s="1" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="S78" s="3" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="T78" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="U78" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="V78" s="1" t="n">
         <v>0.1</v>
@@ -7759,22 +7989,25 @@
       <c r="Y78" s="1" t="n">
         <v>0.8</v>
       </c>
+      <c r="Z78" s="0" t="s">
+        <v>431</v>
+      </c>
     </row>
     <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="1" t="s">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="J79" s="1" t="n">
         <v>92</v>
@@ -7783,31 +8016,31 @@
         <v>44008</v>
       </c>
       <c r="M79" s="1" t="s">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="N79" s="1" t="n">
         <v>1257</v>
       </c>
       <c r="O79" s="1" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="P79" s="1" t="n">
         <v>1</v>
       </c>
       <c r="Q79" s="1" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="R79" s="1" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="S79" s="1" t="s">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="T79" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="U79" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="V79" s="1" t="n">
         <v>0.1</v>
@@ -7821,22 +8054,25 @@
       <c r="Y79" s="1" t="n">
         <v>0.4</v>
       </c>
+      <c r="Z79" s="0" t="s">
+        <v>431</v>
+      </c>
     </row>
     <row r="80" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="1" t="s">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="G80" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="J80" s="1" t="n">
         <v>47</v>
@@ -7845,31 +8081,31 @@
         <v>44008</v>
       </c>
       <c r="M80" s="1" t="s">
-        <v>434</v>
+        <v>438</v>
       </c>
       <c r="N80" s="1" t="n">
         <v>640</v>
       </c>
       <c r="O80" s="1" t="s">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="P80" s="1" t="n">
         <v>1</v>
       </c>
       <c r="Q80" s="1" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="R80" s="1" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="S80" s="3" t="s">
-        <v>435</v>
+        <v>439</v>
       </c>
       <c r="T80" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="U80" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="V80" s="1" t="n">
         <v>0.3</v>
@@ -7883,19 +8119,22 @@
       <c r="Y80" s="1" t="n">
         <v>2</v>
       </c>
+      <c r="Z80" s="0" t="s">
+        <v>431</v>
+      </c>
     </row>
     <row r="81" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="1" t="s">
-        <v>436</v>
+        <v>440</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="J81" s="1" t="n">
         <v>49</v>
@@ -7904,31 +8143,31 @@
         <v>44008</v>
       </c>
       <c r="M81" s="1" t="s">
-        <v>437</v>
+        <v>441</v>
       </c>
       <c r="N81" s="1" t="n">
         <v>638</v>
       </c>
       <c r="O81" s="1" t="s">
-        <v>436</v>
+        <v>440</v>
       </c>
       <c r="P81" s="1" t="n">
         <v>1</v>
       </c>
       <c r="Q81" s="1" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="R81" s="1" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="S81" s="3" t="s">
-        <v>438</v>
+        <v>442</v>
       </c>
       <c r="T81" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="U81" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="V81" s="1" t="n">
         <v>0.1</v>
@@ -7942,19 +8181,22 @@
       <c r="Y81" s="1" t="n">
         <v>0.4</v>
       </c>
+      <c r="Z81" s="0" t="s">
+        <v>431</v>
+      </c>
     </row>
     <row r="82" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="1" t="s">
-        <v>439</v>
+        <v>443</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="J82" s="1" t="n">
         <v>41</v>
@@ -7963,31 +8205,31 @@
         <v>44008</v>
       </c>
       <c r="M82" s="1" t="s">
-        <v>440</v>
+        <v>444</v>
       </c>
       <c r="N82" s="1" t="n">
         <v>637</v>
       </c>
       <c r="O82" s="1" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="P82" s="1" t="n">
         <v>1</v>
       </c>
       <c r="Q82" s="1" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="R82" s="1" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="S82" s="3" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="T82" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="U82" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="V82" s="1" t="n">
         <v>0.1</v>
@@ -8001,19 +8243,22 @@
       <c r="Y82" s="1" t="n">
         <v>0.4</v>
       </c>
+      <c r="Z82" s="0" t="s">
+        <v>431</v>
+      </c>
     </row>
     <row r="83" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="1" t="s">
-        <v>443</v>
+        <v>447</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="J83" s="1" t="n">
         <v>42</v>
@@ -8022,31 +8267,31 @@
         <v>44008</v>
       </c>
       <c r="M83" s="1" t="s">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="N83" s="1" t="n">
         <v>1179</v>
       </c>
       <c r="O83" s="1" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="P83" s="1" t="n">
         <v>1</v>
       </c>
       <c r="Q83" s="1" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="R83" s="1" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="S83" s="3" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="T83" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="U83" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="V83" s="1" t="n">
         <v>0.1</v>
@@ -8060,19 +8305,22 @@
       <c r="Y83" s="1" t="n">
         <v>0.5</v>
       </c>
+      <c r="Z83" s="0" t="s">
+        <v>431</v>
+      </c>
     </row>
     <row r="84" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="1" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="J84" s="1" t="n">
         <v>17</v>
@@ -8081,31 +8329,31 @@
         <v>44008</v>
       </c>
       <c r="M84" s="1" t="s">
-        <v>448</v>
+        <v>452</v>
       </c>
       <c r="N84" s="1" t="n">
         <v>444</v>
       </c>
       <c r="O84" s="1" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="P84" s="1" t="n">
         <v>2</v>
       </c>
       <c r="Q84" s="1" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="R84" s="1" t="s">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="S84" s="3" t="s">
-        <v>451</v>
+        <v>455</v>
       </c>
       <c r="T84" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="U84" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="V84" s="1" t="n">
         <v>0.1</v>
@@ -8119,19 +8367,22 @@
       <c r="Y84" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="Z84" s="0" t="s">
+        <v>431</v>
+      </c>
     </row>
     <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="1" t="s">
-        <v>452</v>
+        <v>456</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>453</v>
+        <v>457</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="J85" s="1" t="n">
         <v>71</v>
@@ -8140,31 +8391,31 @@
         <v>44008</v>
       </c>
       <c r="M85" s="1" t="s">
-        <v>455</v>
+        <v>459</v>
       </c>
       <c r="N85" s="1" t="n">
         <v>426</v>
       </c>
       <c r="O85" s="1" t="s">
-        <v>456</v>
+        <v>460</v>
       </c>
       <c r="P85" s="1" t="n">
         <v>2</v>
       </c>
       <c r="Q85" s="1" t="s">
-        <v>457</v>
+        <v>461</v>
       </c>
       <c r="R85" s="1" t="s">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="S85" s="1" t="s">
-        <v>459</v>
+        <v>463</v>
       </c>
       <c r="T85" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="U85" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="V85" s="1" t="n">
         <v>0.1</v>
@@ -8178,19 +8429,22 @@
       <c r="Y85" s="1" t="n">
         <v>0.6</v>
       </c>
+      <c r="Z85" s="0" t="s">
+        <v>464</v>
+      </c>
     </row>
     <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="1" t="s">
-        <v>460</v>
+        <v>465</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>453</v>
+        <v>457</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="J86" s="1" t="n">
         <v>72</v>
@@ -8199,31 +8453,31 @@
         <v>44008</v>
       </c>
       <c r="M86" s="1" t="s">
-        <v>461</v>
+        <v>466</v>
       </c>
       <c r="N86" s="1" t="n">
         <v>1186</v>
       </c>
       <c r="O86" s="1" t="s">
-        <v>462</v>
+        <v>467</v>
       </c>
       <c r="P86" s="1" t="n">
         <v>2</v>
       </c>
       <c r="Q86" s="1" t="s">
-        <v>457</v>
+        <v>461</v>
       </c>
       <c r="R86" s="1" t="s">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="S86" s="1" t="s">
-        <v>463</v>
+        <v>468</v>
       </c>
       <c r="T86" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="U86" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="V86" s="1" t="n">
         <v>0.1</v>
@@ -8237,19 +8491,22 @@
       <c r="Y86" s="1" t="n">
         <v>1.1</v>
       </c>
+      <c r="Z86" s="0" t="s">
+        <v>464</v>
+      </c>
     </row>
     <row r="87" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="1" t="s">
-        <v>464</v>
+        <v>469</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>453</v>
+        <v>457</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="J87" s="1" t="n">
         <v>57</v>
@@ -8258,31 +8515,31 @@
         <v>44008</v>
       </c>
       <c r="M87" s="1" t="s">
-        <v>465</v>
+        <v>470</v>
       </c>
       <c r="N87" s="1" t="n">
         <v>626</v>
       </c>
       <c r="O87" s="1" t="s">
-        <v>464</v>
+        <v>469</v>
       </c>
       <c r="P87" s="1" t="n">
         <v>1</v>
       </c>
       <c r="Q87" s="1" t="s">
-        <v>457</v>
+        <v>461</v>
       </c>
       <c r="R87" s="1" t="s">
-        <v>466</v>
+        <v>471</v>
       </c>
       <c r="S87" s="3" t="s">
-        <v>467</v>
+        <v>472</v>
       </c>
       <c r="T87" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="U87" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="V87" s="1" t="n">
         <v>0.1</v>
@@ -8296,19 +8553,22 @@
       <c r="Y87" s="1" t="n">
         <v>1.6</v>
       </c>
+      <c r="Z87" s="0" t="s">
+        <v>464</v>
+      </c>
     </row>
     <row r="88" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="1" t="s">
-        <v>468</v>
+        <v>473</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>453</v>
+        <v>457</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="J88" s="1" t="n">
         <v>58</v>
@@ -8317,31 +8577,31 @@
         <v>44008</v>
       </c>
       <c r="M88" s="1" t="s">
-        <v>469</v>
+        <v>474</v>
       </c>
       <c r="N88" s="1" t="n">
         <v>1189</v>
       </c>
       <c r="O88" s="1" t="s">
-        <v>468</v>
+        <v>473</v>
       </c>
       <c r="P88" s="1" t="n">
         <v>1</v>
       </c>
       <c r="Q88" s="1" t="s">
-        <v>457</v>
+        <v>461</v>
       </c>
       <c r="R88" s="1" t="s">
-        <v>466</v>
+        <v>471</v>
       </c>
       <c r="S88" s="3" t="s">
-        <v>467</v>
+        <v>472</v>
       </c>
       <c r="T88" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="U88" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="V88" s="1" t="n">
         <v>0.3</v>
@@ -8355,19 +8615,22 @@
       <c r="Y88" s="1" t="n">
         <v>1.7</v>
       </c>
+      <c r="Z88" s="0" t="s">
+        <v>464</v>
+      </c>
     </row>
     <row r="89" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="1" t="s">
-        <v>470</v>
+        <v>475</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>453</v>
+        <v>457</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="J89" s="1" t="n">
         <v>59</v>
@@ -8376,31 +8639,31 @@
         <v>44008</v>
       </c>
       <c r="M89" s="1" t="s">
-        <v>471</v>
+        <v>476</v>
       </c>
       <c r="N89" s="1" t="n">
         <v>627</v>
       </c>
       <c r="O89" s="1" t="s">
-        <v>470</v>
+        <v>475</v>
       </c>
       <c r="P89" s="1" t="n">
         <v>1</v>
       </c>
       <c r="Q89" s="1" t="s">
-        <v>457</v>
+        <v>461</v>
       </c>
       <c r="R89" s="1" t="s">
-        <v>466</v>
+        <v>471</v>
       </c>
       <c r="S89" s="3" t="s">
-        <v>472</v>
+        <v>477</v>
       </c>
       <c r="T89" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="U89" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="V89" s="1" t="n">
         <v>0.1</v>
@@ -8414,19 +8677,22 @@
       <c r="Y89" s="1" t="n">
         <v>0.7</v>
       </c>
+      <c r="Z89" s="0" t="s">
+        <v>464</v>
+      </c>
     </row>
     <row r="90" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="1" t="s">
-        <v>473</v>
+        <v>478</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>453</v>
+        <v>457</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="J90" s="1" t="n">
         <v>51</v>
@@ -8435,31 +8701,31 @@
         <v>44008</v>
       </c>
       <c r="M90" s="1" t="s">
-        <v>474</v>
+        <v>479</v>
       </c>
       <c r="N90" s="1" t="n">
         <v>1185</v>
       </c>
       <c r="O90" s="1" t="s">
-        <v>475</v>
+        <v>480</v>
       </c>
       <c r="P90" s="1" t="n">
         <v>2</v>
       </c>
       <c r="Q90" s="1" t="s">
-        <v>457</v>
+        <v>461</v>
       </c>
       <c r="R90" s="1" t="s">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="S90" s="3" t="s">
-        <v>476</v>
+        <v>481</v>
       </c>
       <c r="T90" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="U90" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="V90" s="1" t="n">
         <v>0.1</v>
@@ -8473,19 +8739,22 @@
       <c r="Y90" s="1" t="n">
         <v>0.4</v>
       </c>
+      <c r="Z90" s="0" t="s">
+        <v>464</v>
+      </c>
     </row>
     <row r="91" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="1" t="s">
-        <v>477</v>
+        <v>482</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>453</v>
+        <v>457</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="J91" s="1" t="n">
         <v>52</v>
@@ -8494,31 +8763,31 @@
         <v>44008</v>
       </c>
       <c r="M91" s="1" t="s">
-        <v>478</v>
+        <v>483</v>
       </c>
       <c r="N91" s="1" t="n">
         <v>425</v>
       </c>
       <c r="O91" s="1" t="s">
-        <v>479</v>
+        <v>484</v>
       </c>
       <c r="P91" s="1" t="n">
         <v>2</v>
       </c>
       <c r="Q91" s="1" t="s">
-        <v>457</v>
+        <v>461</v>
       </c>
       <c r="R91" s="1" t="s">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="S91" s="3" t="s">
-        <v>476</v>
+        <v>481</v>
       </c>
       <c r="T91" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="U91" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="V91" s="1" t="n">
         <v>0.1</v>
@@ -8532,19 +8801,22 @@
       <c r="Y91" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="Z91" s="0" t="s">
+        <v>464</v>
+      </c>
     </row>
     <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="1" t="s">
-        <v>480</v>
+        <v>485</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>453</v>
+        <v>457</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="J92" s="1" t="n">
         <v>53</v>
@@ -8553,31 +8825,31 @@
         <v>44008</v>
       </c>
       <c r="M92" s="1" t="s">
-        <v>481</v>
+        <v>486</v>
       </c>
       <c r="N92" s="1" t="n">
         <v>1213</v>
       </c>
       <c r="O92" s="1" t="s">
-        <v>482</v>
+        <v>487</v>
       </c>
       <c r="P92" s="1" t="n">
         <v>1</v>
       </c>
       <c r="Q92" s="1" t="s">
-        <v>457</v>
+        <v>461</v>
       </c>
       <c r="R92" s="1" t="s">
-        <v>466</v>
+        <v>471</v>
       </c>
       <c r="S92" s="1" t="s">
-        <v>483</v>
+        <v>488</v>
       </c>
       <c r="T92" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="U92" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="V92" s="1" t="n">
         <v>0.1</v>
@@ -8591,19 +8863,22 @@
       <c r="Y92" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="Z92" s="0" t="s">
+        <v>464</v>
+      </c>
     </row>
     <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="1" t="s">
-        <v>484</v>
+        <v>489</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>453</v>
+        <v>457</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="J93" s="1" t="n">
         <v>54</v>
@@ -8612,31 +8887,31 @@
         <v>44008</v>
       </c>
       <c r="M93" s="1" t="s">
-        <v>485</v>
+        <v>490</v>
       </c>
       <c r="N93" s="1" t="n">
         <v>1214</v>
       </c>
       <c r="O93" s="1" t="s">
-        <v>486</v>
+        <v>491</v>
       </c>
       <c r="P93" s="1" t="n">
         <v>1</v>
       </c>
       <c r="Q93" s="1" t="s">
-        <v>457</v>
+        <v>461</v>
       </c>
       <c r="R93" s="1" t="s">
-        <v>466</v>
+        <v>471</v>
       </c>
       <c r="S93" s="1" t="s">
-        <v>483</v>
+        <v>488</v>
       </c>
       <c r="T93" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="U93" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="V93" s="1" t="n">
         <v>0.1</v>
@@ -8650,19 +8925,22 @@
       <c r="Y93" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="Z93" s="0" t="s">
+        <v>464</v>
+      </c>
     </row>
     <row r="94" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="1" t="s">
-        <v>487</v>
+        <v>492</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>488</v>
+        <v>493</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>489</v>
+        <v>494</v>
       </c>
       <c r="J94" s="1" t="n">
         <v>141</v>
@@ -8671,31 +8949,31 @@
         <v>44008</v>
       </c>
       <c r="M94" s="1" t="s">
-        <v>490</v>
+        <v>495</v>
       </c>
       <c r="N94" s="1" t="n">
         <v>447</v>
       </c>
       <c r="O94" s="1" t="s">
-        <v>487</v>
+        <v>492</v>
       </c>
       <c r="P94" s="1" t="n">
         <v>2</v>
       </c>
       <c r="Q94" s="1" t="s">
-        <v>491</v>
+        <v>496</v>
       </c>
       <c r="R94" s="1" t="s">
-        <v>492</v>
+        <v>497</v>
       </c>
       <c r="S94" s="3" t="s">
-        <v>493</v>
+        <v>498</v>
       </c>
       <c r="T94" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="U94" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="V94" s="1" t="n">
         <v>0.1</v>
@@ -8709,55 +8987,58 @@
       <c r="Y94" s="1" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Z94" s="0" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="95" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="1" t="s">
-        <v>494</v>
+        <v>500</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>495</v>
+        <v>501</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>496</v>
+        <v>502</v>
       </c>
       <c r="J95" s="1" t="n">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="K95" s="1" t="n">
         <v>44008</v>
       </c>
       <c r="M95" s="1" t="s">
-        <v>497</v>
+        <v>503</v>
       </c>
       <c r="N95" s="1" t="n">
-        <v>554</v>
+        <v>164</v>
       </c>
       <c r="O95" s="1" t="s">
-        <v>498</v>
+        <v>504</v>
       </c>
       <c r="P95" s="1" t="n">
         <v>3</v>
       </c>
       <c r="Q95" s="1" t="s">
-        <v>499</v>
+        <v>505</v>
       </c>
       <c r="R95" s="1" t="s">
-        <v>500</v>
+        <v>506</v>
       </c>
       <c r="S95" s="3" t="s">
-        <v>501</v>
+        <v>507</v>
       </c>
       <c r="T95" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="U95" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="V95" s="1" t="n">
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
       <c r="W95" s="1" t="n">
         <v>0</v>
@@ -8768,55 +9049,58 @@
       <c r="Y95" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="Z95" s="0" t="s">
+        <v>508</v>
+      </c>
     </row>
     <row r="96" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="1" t="s">
-        <v>502</v>
+        <v>509</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>503</v>
+        <v>510</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>504</v>
+        <v>511</v>
       </c>
       <c r="J96" s="1" t="n">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="K96" s="1" t="n">
         <v>44008</v>
       </c>
       <c r="M96" s="1" t="s">
-        <v>505</v>
+        <v>512</v>
       </c>
       <c r="N96" s="1" t="n">
-        <v>164</v>
+        <v>409</v>
       </c>
       <c r="O96" s="1" t="s">
-        <v>506</v>
+        <v>513</v>
       </c>
       <c r="P96" s="1" t="n">
         <v>3</v>
       </c>
       <c r="Q96" s="1" t="s">
-        <v>507</v>
+        <v>514</v>
       </c>
       <c r="R96" s="1" t="s">
-        <v>508</v>
+        <v>515</v>
       </c>
       <c r="S96" s="3" t="s">
-        <v>509</v>
+        <v>516</v>
       </c>
       <c r="T96" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="U96" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="V96" s="1" t="n">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="W96" s="1" t="n">
         <v>0</v>
@@ -8827,65 +9111,12 @@
       <c r="Y96" s="1" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="1" t="s">
-        <v>510</v>
-      </c>
-      <c r="B97" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C97" s="1" t="s">
-        <v>511</v>
-      </c>
-      <c r="D97" s="1" t="s">
-        <v>512</v>
-      </c>
-      <c r="J97" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="K97" s="1" t="n">
-        <v>44008</v>
-      </c>
-      <c r="M97" s="1" t="s">
-        <v>513</v>
-      </c>
-      <c r="N97" s="1" t="n">
-        <v>409</v>
-      </c>
-      <c r="O97" s="1" t="s">
-        <v>514</v>
-      </c>
-      <c r="P97" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q97" s="1" t="s">
-        <v>515</v>
-      </c>
-      <c r="R97" s="1" t="s">
-        <v>516</v>
-      </c>
-      <c r="S97" s="3" t="s">
+      <c r="Z96" s="0" t="s">
         <v>517</v>
       </c>
-      <c r="T97" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="U97" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="V97" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="W97" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="X97" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y97" s="1" t="n">
-        <v>0</v>
-      </c>
+    </row>
+    <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J97" s="5"/>
     </row>
     <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J98" s="5"/>
@@ -8956,9 +9187,7 @@
     <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J120" s="5"/>
     </row>
-    <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J121" s="5"/>
-    </row>
+    <row r="1048541" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048542" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048543" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048544" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>

--- a/haawks-indicator-shortlist.xlsx
+++ b/haawks-indicator-shortlist.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1516" uniqueCount="518">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1499" uniqueCount="514">
   <si>
     <t xml:space="preserve">Indicator</t>
   </si>
@@ -167,18 +167,6 @@
   <si>
     <t xml:space="preserve">Gasoline Inventories measures the change in the number of barrels of commercial gasoline held in inventory by commercial firms during the reported week. The data influences the price of gasoline products which affects inflation.
 The data has no consistent effect, there are both inflationary and growth implications.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Distillate Fuel Oil WoW</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30002;4.125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">U.S. Distillate Fuel Production</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No description available</t>
   </si>
   <si>
     <t xml:space="preserve">Cushing Crude Inventories WoW</t>
@@ -1781,8 +1769,8 @@
   </sheetPr>
   <dimension ref="A1:Z1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="K91" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="T96" activeCellId="0" sqref="T96"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2057,11 +2045,11 @@
       <c r="H4" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="I4" s="1" t="s">
-        <v>33</v>
+      <c r="I4" s="4" t="n">
+        <v>6.4375</v>
       </c>
       <c r="J4" s="1" t="n">
-        <v>30002</v>
+        <v>30008</v>
       </c>
       <c r="K4" s="1" t="n">
         <v>44031</v>
@@ -2073,13 +2061,13 @@
         <v>49</v>
       </c>
       <c r="N4" s="1" t="n">
-        <v>1660</v>
+        <v>1657</v>
       </c>
       <c r="O4" s="1" t="s">
         <v>50</v>
       </c>
       <c r="P4" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q4" s="1" t="s">
         <v>37</v>
@@ -2096,11 +2084,23 @@
       <c r="U4" s="1" t="s">
         <v>41</v>
       </c>
+      <c r="V4" s="1" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="W4" s="1" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="X4" s="1" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="Y4" s="1" t="n">
+        <v>1</v>
+      </c>
       <c r="Z4" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
         <v>52</v>
       </c>
@@ -2114,40 +2114,40 @@
         <v>29</v>
       </c>
       <c r="E5" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>30</v>
+        <v>53</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>31</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="I5" s="4" t="n">
-        <v>6.4375</v>
+        <v>54</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>33</v>
       </c>
       <c r="J5" s="1" t="n">
-        <v>30008</v>
+        <v>30010</v>
       </c>
       <c r="K5" s="1" t="n">
         <v>44031</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="N5" s="1" t="n">
-        <v>1657</v>
+        <v>386</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="P5" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q5" s="1" t="s">
         <v>37</v>
@@ -2155,106 +2155,106 @@
       <c r="R5" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="S5" s="1" t="s">
-        <v>55</v>
+      <c r="S5" s="3" t="s">
+        <v>58</v>
       </c>
       <c r="T5" s="1" t="s">
-        <v>40</v>
+        <v>59</v>
       </c>
       <c r="U5" s="1" t="s">
         <v>41</v>
       </c>
       <c r="V5" s="1" t="n">
-        <v>0.2</v>
+        <v>2</v>
       </c>
       <c r="W5" s="1" t="n">
-        <v>0.4</v>
+        <v>4</v>
       </c>
       <c r="X5" s="1" t="n">
-        <v>0.6</v>
+        <v>7</v>
       </c>
       <c r="Y5" s="1" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="Z5" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>27</v>
+        <v>61</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>29</v>
+        <v>62</v>
       </c>
       <c r="E6" s="1" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>31</v>
+        <v>64</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>33</v>
+        <v>66</v>
       </c>
       <c r="J6" s="1" t="n">
-        <v>30010</v>
+        <v>10000</v>
       </c>
       <c r="K6" s="1" t="n">
-        <v>44031</v>
+        <v>44011</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="N6" s="1" t="n">
-        <v>386</v>
+        <v>227</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="P6" s="1" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q6" s="1" t="s">
         <v>37</v>
       </c>
       <c r="R6" s="1" t="s">
-        <v>38</v>
+        <v>70</v>
       </c>
       <c r="S6" s="3" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="T6" s="1" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="U6" s="1" t="s">
-        <v>41</v>
+        <v>73</v>
       </c>
       <c r="V6" s="1" t="n">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="W6" s="1" t="n">
-        <v>4</v>
+        <v>50</v>
       </c>
       <c r="X6" s="1" t="n">
-        <v>7</v>
+        <v>90</v>
       </c>
       <c r="Y6" s="1" t="n">
-        <v>11</v>
+        <v>200</v>
       </c>
       <c r="Z6" s="1" t="s">
         <v>42</v>
@@ -2262,49 +2262,49 @@
     </row>
     <row r="7" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="E7" s="1" t="n">
         <v>3</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>70</v>
+        <v>65</v>
+      </c>
+      <c r="I7" s="4" t="n">
+        <v>1.35416666666667</v>
       </c>
       <c r="J7" s="1" t="n">
-        <v>10000</v>
+        <v>10005</v>
       </c>
       <c r="K7" s="1" t="n">
         <v>44011</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="N7" s="1" t="n">
-        <v>227</v>
+        <v>300</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="P7" s="1" t="n">
         <v>3</v>
@@ -2313,28 +2313,28 @@
         <v>37</v>
       </c>
       <c r="R7" s="1" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="S7" s="3" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="T7" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="U7" s="1" t="s">
-        <v>77</v>
+        <v>41</v>
       </c>
       <c r="V7" s="1" t="n">
-        <v>25</v>
+        <v>0.1</v>
       </c>
       <c r="W7" s="1" t="n">
-        <v>50</v>
+        <v>0.2</v>
       </c>
       <c r="X7" s="1" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="Y7" s="1" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="Z7" s="1" t="s">
         <v>42</v>
@@ -2342,49 +2342,49 @@
     </row>
     <row r="8" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D8" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E8" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="I8" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="E8" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="I8" s="4" t="n">
-        <v>1.35416666666667</v>
-      </c>
       <c r="J8" s="1" t="n">
-        <v>10005</v>
+        <v>10010</v>
       </c>
       <c r="K8" s="1" t="n">
         <v>44011</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="N8" s="1" t="n">
-        <v>300</v>
+        <v>238</v>
       </c>
       <c r="O8" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="P8" s="1" t="n">
         <v>3</v>
@@ -2393,16 +2393,16 @@
         <v>37</v>
       </c>
       <c r="R8" s="1" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="S8" s="3" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="T8" s="1" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="U8" s="1" t="s">
-        <v>41</v>
+        <v>73</v>
       </c>
       <c r="V8" s="1" t="n">
         <v>0.1</v>
@@ -2411,7 +2411,7 @@
         <v>0.2</v>
       </c>
       <c r="X8" s="1" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="Y8" s="1" t="n">
         <v>0</v>
@@ -2422,67 +2422,67 @@
     </row>
     <row r="9" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="E9" s="1" t="n">
         <v>4</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>70</v>
+        <v>82</v>
+      </c>
+      <c r="I9" s="4" t="n">
+        <v>1.35416666666667</v>
       </c>
       <c r="J9" s="1" t="n">
-        <v>10010</v>
+        <v>10011</v>
       </c>
       <c r="K9" s="1" t="n">
         <v>44011</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="N9" s="1" t="n">
-        <v>238</v>
+        <v>734</v>
       </c>
       <c r="O9" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="P9" s="1" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q9" s="1" t="s">
         <v>37</v>
       </c>
       <c r="R9" s="1" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="S9" s="3" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="T9" s="1" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="U9" s="1" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="V9" s="1" t="n">
         <v>0.1</v>
@@ -2494,7 +2494,7 @@
         <v>0.3</v>
       </c>
       <c r="Y9" s="1" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="Z9" s="1" t="s">
         <v>42</v>
@@ -2502,67 +2502,67 @@
     </row>
     <row r="10" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="E10" s="1" t="n">
         <v>4</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="I10" s="4" t="n">
-        <v>1.35416666666667</v>
+        <v>2.35416666666667</v>
       </c>
       <c r="J10" s="1" t="n">
-        <v>10011</v>
+        <v>10012</v>
       </c>
       <c r="K10" s="1" t="n">
         <v>44011</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="M10" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="N10" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="O10" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="N10" s="1" t="n">
-        <v>734</v>
-      </c>
-      <c r="O10" s="1" t="s">
-        <v>94</v>
-      </c>
       <c r="P10" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q10" s="1" t="s">
         <v>37</v>
       </c>
       <c r="R10" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="S10" s="3" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="T10" s="1" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="U10" s="1" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="V10" s="1" t="n">
         <v>0.1</v>
@@ -2574,7 +2574,7 @@
         <v>0.3</v>
       </c>
       <c r="Y10" s="1" t="n">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="Z10" s="1" t="s">
         <v>42</v>
@@ -2582,67 +2582,67 @@
     </row>
     <row r="11" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="E11" s="1" t="n">
         <v>4</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="I11" s="4" t="n">
-        <v>2.35416666666667</v>
+        <v>3.35416666666667</v>
       </c>
       <c r="J11" s="1" t="n">
-        <v>10012</v>
+        <v>10013</v>
       </c>
       <c r="K11" s="1" t="n">
         <v>44011</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="N11" s="1" t="n">
-        <v>62</v>
+        <v>735</v>
       </c>
       <c r="O11" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="P11" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q11" s="1" t="s">
         <v>37</v>
       </c>
       <c r="R11" s="1" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="S11" s="3" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="T11" s="1" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="U11" s="1" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="V11" s="1" t="n">
         <v>0.1</v>
@@ -2662,67 +2662,67 @@
     </row>
     <row r="12" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="E12" s="1" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="I12" s="4" t="n">
         <v>3.35416666666667</v>
       </c>
       <c r="J12" s="1" t="n">
-        <v>10013</v>
+        <v>10020</v>
       </c>
       <c r="K12" s="1" t="n">
         <v>44011</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="M12" s="1" t="s">
         <v>101</v>
       </c>
       <c r="N12" s="1" t="n">
-        <v>735</v>
+        <v>153</v>
       </c>
       <c r="O12" s="1" t="s">
         <v>102</v>
       </c>
       <c r="P12" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q12" s="1" t="s">
         <v>37</v>
       </c>
       <c r="R12" s="1" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="S12" s="3" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="T12" s="1" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="U12" s="1" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="V12" s="1" t="n">
         <v>0.1</v>
@@ -2734,57 +2734,57 @@
         <v>0.3</v>
       </c>
       <c r="Y12" s="1" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="Z12" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="E13" s="1" t="n">
         <v>5</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="I13" s="4" t="n">
         <v>3.35416666666667</v>
       </c>
       <c r="J13" s="1" t="n">
-        <v>10020</v>
+        <v>10022</v>
       </c>
       <c r="K13" s="1" t="n">
         <v>44011</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="N13" s="1" t="n">
-        <v>153</v>
+        <v>892</v>
       </c>
       <c r="O13" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="P13" s="1" t="n">
         <v>2</v>
@@ -2793,108 +2793,108 @@
         <v>37</v>
       </c>
       <c r="R13" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="S13" s="3" t="s">
         <v>108</v>
       </c>
+      <c r="S13" s="1" t="s">
+        <v>109</v>
+      </c>
       <c r="T13" s="1" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="U13" s="1" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="V13" s="1" t="n">
         <v>0.1</v>
       </c>
       <c r="W13" s="1" t="n">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="X13" s="1" t="n">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="Y13" s="1" t="n">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="Z13" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="E14" s="1" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="I14" s="4" t="n">
         <v>3.35416666666667</v>
       </c>
       <c r="J14" s="1" t="n">
-        <v>10022</v>
+        <v>10030</v>
       </c>
       <c r="K14" s="1" t="n">
         <v>44011</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="N14" s="1" t="n">
-        <v>892</v>
+        <v>69</v>
       </c>
       <c r="O14" s="1" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="P14" s="1" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q14" s="1" t="s">
         <v>37</v>
       </c>
       <c r="R14" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="S14" s="1" t="s">
-        <v>113</v>
+        <v>94</v>
+      </c>
+      <c r="S14" s="3" t="s">
+        <v>114</v>
       </c>
       <c r="T14" s="1" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="U14" s="1" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="V14" s="1" t="n">
         <v>0.1</v>
       </c>
       <c r="W14" s="1" t="n">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="X14" s="1" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="Y14" s="1" t="n">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="Z14" s="1" t="s">
         <v>42</v>
@@ -2902,46 +2902,46 @@
     </row>
     <row r="15" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="E15" s="1" t="n">
         <v>6</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="I15" s="4" t="n">
         <v>3.35416666666667</v>
       </c>
       <c r="J15" s="1" t="n">
-        <v>10030</v>
+        <v>10031</v>
       </c>
       <c r="K15" s="1" t="n">
         <v>44011</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="M15" s="1" t="s">
         <v>116</v>
       </c>
       <c r="N15" s="1" t="n">
-        <v>69</v>
+        <v>733</v>
       </c>
       <c r="O15" s="1" t="s">
         <v>117</v>
@@ -2953,16 +2953,16 @@
         <v>37</v>
       </c>
       <c r="R15" s="1" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="S15" s="3" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="T15" s="1" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="U15" s="1" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="V15" s="1" t="n">
         <v>0.1</v>
@@ -2982,49 +2982,49 @@
     </row>
     <row r="16" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="E16" s="1" t="n">
         <v>6</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="I16" s="4" t="n">
         <v>3.35416666666667</v>
       </c>
       <c r="J16" s="1" t="n">
-        <v>10031</v>
+        <v>10032</v>
       </c>
       <c r="K16" s="1" t="n">
         <v>44011</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="M16" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="N16" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="O16" s="1" t="s">
         <v>120</v>
-      </c>
-      <c r="N16" s="1" t="n">
-        <v>733</v>
-      </c>
-      <c r="O16" s="1" t="s">
-        <v>121</v>
       </c>
       <c r="P16" s="1" t="n">
         <v>3</v>
@@ -3033,16 +3033,16 @@
         <v>37</v>
       </c>
       <c r="R16" s="1" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="S16" s="3" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="T16" s="1" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="U16" s="1" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="V16" s="1" t="n">
         <v>0.1</v>
@@ -3065,64 +3065,64 @@
         <v>122</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="E17" s="1" t="n">
         <v>6</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="I17" s="4" t="n">
         <v>3.35416666666667</v>
       </c>
       <c r="J17" s="1" t="n">
-        <v>10032</v>
+        <v>10033</v>
       </c>
       <c r="K17" s="1" t="n">
         <v>44011</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="M17" s="1" t="s">
         <v>123</v>
       </c>
       <c r="N17" s="1" t="n">
-        <v>56</v>
+        <v>736</v>
       </c>
       <c r="O17" s="1" t="s">
         <v>124</v>
       </c>
       <c r="P17" s="1" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q17" s="1" t="s">
         <v>37</v>
       </c>
       <c r="R17" s="1" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="S17" s="3" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="T17" s="1" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="U17" s="1" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="V17" s="1" t="n">
         <v>0.1</v>
@@ -3140,81 +3140,78 @@
         <v>42</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="E18" s="1" t="n">
         <v>6</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="I18" s="4" t="n">
         <v>3.35416666666667</v>
       </c>
       <c r="J18" s="1" t="n">
-        <v>10033</v>
+        <v>10034</v>
       </c>
       <c r="K18" s="1" t="n">
         <v>44011</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="M18" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="N18" s="1" t="n">
+        <v>1549</v>
+      </c>
+      <c r="O18" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="N18" s="1" t="n">
-        <v>736</v>
-      </c>
-      <c r="O18" s="1" t="s">
-        <v>128</v>
-      </c>
       <c r="P18" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q18" s="1" t="s">
         <v>37</v>
       </c>
       <c r="R18" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="S18" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="T18" s="1" t="s">
-        <v>83</v>
+        <v>108</v>
+      </c>
+      <c r="S18" s="1" t="s">
+        <v>128</v>
       </c>
       <c r="U18" s="1" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="V18" s="1" t="n">
+        <v>0.07</v>
+      </c>
+      <c r="W18" s="1" t="n">
         <v>0.1</v>
       </c>
-      <c r="W18" s="1" t="n">
+      <c r="X18" s="1" t="n">
         <v>0.2</v>
       </c>
-      <c r="X18" s="1" t="n">
-        <v>0</v>
-      </c>
       <c r="Y18" s="1" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="Z18" s="1" t="s">
         <v>42</v>
@@ -3225,43 +3222,43 @@
         <v>129</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="E19" s="1" t="n">
         <v>6</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="I19" s="4" t="n">
         <v>3.35416666666667</v>
       </c>
       <c r="J19" s="1" t="n">
-        <v>10034</v>
+        <v>10037</v>
       </c>
       <c r="K19" s="1" t="n">
         <v>44011</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="M19" s="1" t="s">
         <v>130</v>
       </c>
       <c r="N19" s="1" t="n">
-        <v>1549</v>
+        <v>1226</v>
       </c>
       <c r="O19" s="1" t="s">
         <v>131</v>
@@ -3273,102 +3270,105 @@
         <v>37</v>
       </c>
       <c r="R19" s="1" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="S19" s="1" t="s">
         <v>132</v>
       </c>
       <c r="U19" s="1" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="V19" s="1" t="n">
-        <v>0.07</v>
+        <v>0.15</v>
       </c>
       <c r="W19" s="1" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="X19" s="1" t="n">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="Y19" s="1" t="n">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="Z19" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
         <v>133</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>66</v>
+        <v>134</v>
       </c>
       <c r="E20" s="1" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>115</v>
+        <v>135</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="I20" s="4" t="n">
-        <v>3.35416666666667</v>
+        <v>82</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>136</v>
       </c>
       <c r="J20" s="1" t="n">
-        <v>10037</v>
+        <v>10040</v>
       </c>
       <c r="K20" s="1" t="n">
         <v>44011</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="M20" s="1" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="N20" s="1" t="n">
-        <v>1226</v>
+        <v>161</v>
       </c>
       <c r="O20" s="1" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="P20" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q20" s="1" t="s">
         <v>37</v>
       </c>
       <c r="R20" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="S20" s="1" t="s">
-        <v>136</v>
+        <v>139</v>
+      </c>
+      <c r="S20" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="T20" s="1" t="s">
+        <v>79</v>
       </c>
       <c r="U20" s="1" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="V20" s="1" t="n">
-        <v>0.15</v>
+        <v>0.1</v>
       </c>
       <c r="W20" s="1" t="n">
         <v>0.2</v>
       </c>
       <c r="X20" s="1" t="n">
-        <v>0.25</v>
+        <v>0.3</v>
       </c>
       <c r="Y20" s="1" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="Z20" s="1" t="s">
         <v>42</v>
@@ -3376,67 +3376,67 @@
     </row>
     <row r="21" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="E21" s="1" t="n">
         <v>7</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="J21" s="1" t="n">
-        <v>10040</v>
+        <v>10042</v>
       </c>
       <c r="K21" s="1" t="n">
         <v>44011</v>
       </c>
       <c r="L21" s="1" t="s">
-        <v>87</v>
+        <v>142</v>
       </c>
       <c r="M21" s="1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="N21" s="1" t="n">
-        <v>161</v>
+        <v>31</v>
       </c>
       <c r="O21" s="1" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="P21" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q21" s="1" t="s">
         <v>37</v>
       </c>
       <c r="R21" s="1" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="S21" s="3" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="T21" s="1" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="U21" s="1" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="V21" s="1" t="n">
         <v>0.1</v>
@@ -3445,57 +3445,57 @@
         <v>0.2</v>
       </c>
       <c r="X21" s="1" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="Y21" s="1" t="n">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="Z21" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="E22" s="1" t="n">
         <v>7</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="I22" s="1" t="s">
-        <v>140</v>
+        <v>82</v>
+      </c>
+      <c r="I22" s="4" t="n">
+        <v>1.38541666666667</v>
       </c>
       <c r="J22" s="1" t="n">
-        <v>10042</v>
+        <v>10044</v>
       </c>
       <c r="K22" s="1" t="n">
         <v>44011</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>146</v>
+        <v>83</v>
       </c>
       <c r="M22" s="1" t="s">
         <v>147</v>
       </c>
       <c r="N22" s="1" t="n">
-        <v>31</v>
+        <v>1307</v>
       </c>
       <c r="O22" s="1" t="s">
         <v>148</v>
@@ -3507,22 +3507,22 @@
         <v>37</v>
       </c>
       <c r="R22" s="1" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="S22" s="3" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="T22" s="1" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="U22" s="1" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="V22" s="1" t="n">
         <v>0.1</v>
       </c>
       <c r="W22" s="1" t="n">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="X22" s="1" t="n">
         <v>0.4</v>
@@ -3534,81 +3534,81 @@
         <v>42</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>138</v>
+        <v>152</v>
       </c>
       <c r="E23" s="1" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>139</v>
+        <v>153</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>86</v>
+        <v>154</v>
       </c>
       <c r="I23" s="4" t="n">
-        <v>1.38541666666667</v>
+        <v>1.35416666666667</v>
       </c>
       <c r="J23" s="1" t="n">
-        <v>10044</v>
+        <v>10060</v>
       </c>
       <c r="K23" s="1" t="n">
         <v>44011</v>
       </c>
       <c r="L23" s="1" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="M23" s="1" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="N23" s="1" t="n">
-        <v>1307</v>
+        <v>375</v>
       </c>
       <c r="O23" s="1" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="P23" s="1" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q23" s="1" t="s">
         <v>37</v>
       </c>
       <c r="R23" s="1" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="S23" s="3" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="T23" s="1" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="U23" s="1" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="V23" s="1" t="n">
         <v>0.1</v>
       </c>
       <c r="W23" s="1" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="X23" s="1" t="n">
         <v>0.3</v>
       </c>
-      <c r="X23" s="1" t="n">
-        <v>0.4</v>
-      </c>
       <c r="Y23" s="1" t="n">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="Z23" s="1" t="s">
         <v>42</v>
@@ -3616,67 +3616,67 @@
     </row>
     <row r="24" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="E24" s="1" t="n">
         <v>9</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="I24" s="4" t="n">
-        <v>1.35416666666667</v>
+        <v>2.35416666666667</v>
       </c>
       <c r="J24" s="1" t="n">
-        <v>10060</v>
+        <v>10061</v>
       </c>
       <c r="K24" s="1" t="n">
         <v>44011</v>
       </c>
       <c r="L24" s="1" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="M24" s="1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="N24" s="1" t="n">
-        <v>375</v>
+        <v>343</v>
       </c>
       <c r="O24" s="1" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="P24" s="1" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q24" s="1" t="s">
         <v>37</v>
       </c>
       <c r="R24" s="1" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="S24" s="3" t="s">
         <v>162</v>
       </c>
       <c r="T24" s="1" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="U24" s="1" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="V24" s="1" t="n">
         <v>0.1</v>
@@ -3688,7 +3688,7 @@
         <v>0.3</v>
       </c>
       <c r="Y24" s="1" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="Z24" s="1" t="s">
         <v>42</v>
@@ -3699,46 +3699,46 @@
         <v>163</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="E25" s="1" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="I25" s="4" t="n">
-        <v>2.35416666666667</v>
+        <v>3.35416666666667</v>
       </c>
       <c r="J25" s="1" t="n">
-        <v>10061</v>
+        <v>10070</v>
       </c>
       <c r="K25" s="1" t="n">
         <v>44011</v>
       </c>
       <c r="L25" s="1" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="M25" s="1" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="N25" s="1" t="n">
-        <v>343</v>
+        <v>235</v>
       </c>
       <c r="O25" s="1" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="P25" s="1" t="n">
         <v>2</v>
@@ -3747,16 +3747,16 @@
         <v>37</v>
       </c>
       <c r="R25" s="1" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="S25" s="3" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="T25" s="1" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="U25" s="1" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="V25" s="1" t="n">
         <v>0.1</v>
@@ -3768,7 +3768,7 @@
         <v>0.3</v>
       </c>
       <c r="Y25" s="1" t="n">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="Z25" s="1" t="s">
         <v>42</v>
@@ -3776,147 +3776,147 @@
     </row>
     <row r="26" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="E26" s="1" t="n">
         <v>10</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="I26" s="4" t="n">
-        <v>3.35416666666667</v>
+        <v>4.35416666666667</v>
       </c>
       <c r="J26" s="1" t="n">
-        <v>10070</v>
+        <v>10071</v>
       </c>
       <c r="K26" s="1" t="n">
         <v>44011</v>
       </c>
       <c r="L26" s="1" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="M26" s="1" t="s">
         <v>169</v>
       </c>
       <c r="N26" s="1" t="n">
-        <v>235</v>
+        <v>61</v>
       </c>
       <c r="O26" s="1" t="s">
         <v>170</v>
       </c>
       <c r="P26" s="1" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q26" s="1" t="s">
         <v>37</v>
       </c>
       <c r="R26" s="1" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="S26" s="3" t="s">
         <v>171</v>
       </c>
       <c r="T26" s="1" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="U26" s="1" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="V26" s="1" t="n">
         <v>0.1</v>
       </c>
       <c r="W26" s="1" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="X26" s="1" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="Y26" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="Z26" s="1" t="s">
+      <c r="Z26" s="0" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
         <v>172</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="E27" s="1" t="n">
         <v>10</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="I27" s="4" t="n">
-        <v>4.35416666666667</v>
+        <v>5.35416666666667</v>
       </c>
       <c r="J27" s="1" t="n">
-        <v>10071</v>
+        <v>10072</v>
       </c>
       <c r="K27" s="1" t="n">
         <v>44011</v>
       </c>
       <c r="L27" s="1" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="M27" s="1" t="s">
         <v>173</v>
       </c>
       <c r="N27" s="1" t="n">
-        <v>61</v>
+        <v>905</v>
       </c>
       <c r="O27" s="1" t="s">
         <v>174</v>
       </c>
       <c r="P27" s="1" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q27" s="1" t="s">
         <v>37</v>
       </c>
       <c r="R27" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="S27" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="S27" s="1" t="s">
         <v>175</v>
       </c>
       <c r="T27" s="1" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="U27" s="1" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="V27" s="1" t="n">
         <v>0.1</v>
@@ -3934,128 +3934,128 @@
         <v>42</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
         <v>176</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="E28" s="1" t="n">
         <v>10</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="I28" s="4" t="n">
-        <v>5.35416666666667</v>
+        <v>8.35416666666667</v>
       </c>
       <c r="J28" s="1" t="n">
-        <v>10072</v>
+        <v>10075</v>
       </c>
       <c r="K28" s="1" t="n">
         <v>44011</v>
       </c>
       <c r="L28" s="1" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="M28" s="1" t="s">
         <v>177</v>
       </c>
       <c r="N28" s="1" t="n">
-        <v>905</v>
+        <v>234</v>
       </c>
       <c r="O28" s="1" t="s">
         <v>178</v>
       </c>
       <c r="P28" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q28" s="1" t="s">
         <v>37</v>
       </c>
       <c r="R28" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="S28" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="S28" s="3" t="s">
         <v>179</v>
       </c>
       <c r="T28" s="1" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="U28" s="1" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="V28" s="1" t="n">
         <v>0.1</v>
       </c>
       <c r="W28" s="1" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="X28" s="1" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="Y28" s="1" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="Z28" s="0" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
         <v>180</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="E29" s="1" t="n">
         <v>10</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="I29" s="4" t="n">
         <v>8.35416666666667</v>
       </c>
       <c r="J29" s="1" t="n">
-        <v>10075</v>
+        <v>10076</v>
       </c>
       <c r="K29" s="1" t="n">
         <v>44011</v>
       </c>
       <c r="L29" s="1" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="M29" s="1" t="s">
         <v>181</v>
       </c>
       <c r="N29" s="1" t="n">
-        <v>234</v>
+        <v>895</v>
       </c>
       <c r="O29" s="1" t="s">
         <v>182</v>
@@ -4067,16 +4067,16 @@
         <v>37</v>
       </c>
       <c r="R29" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="S29" s="3" t="s">
         <v>183</v>
       </c>
+      <c r="S29" s="1" t="s">
+        <v>184</v>
+      </c>
       <c r="T29" s="1" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="U29" s="1" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="V29" s="1" t="n">
         <v>0.1</v>
@@ -4085,170 +4085,167 @@
         <v>0.2</v>
       </c>
       <c r="X29" s="1" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="Y29" s="1" t="n">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="Z29" s="0" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>156</v>
+        <v>62</v>
       </c>
       <c r="E30" s="1" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>168</v>
+        <v>186</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="I30" s="4" t="n">
-        <v>8.35416666666667</v>
+        <v>187</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>188</v>
       </c>
       <c r="J30" s="1" t="n">
-        <v>10076</v>
+        <v>10080</v>
       </c>
       <c r="K30" s="1" t="n">
         <v>44011</v>
       </c>
       <c r="L30" s="1" t="s">
-        <v>87</v>
+        <v>67</v>
       </c>
       <c r="M30" s="1" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="N30" s="1" t="n">
-        <v>895</v>
+        <v>1057</v>
       </c>
       <c r="O30" s="1" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="P30" s="1" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q30" s="1" t="s">
         <v>37</v>
       </c>
       <c r="R30" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="S30" s="1" t="s">
-        <v>188</v>
+        <v>70</v>
+      </c>
+      <c r="S30" s="3" t="s">
+        <v>191</v>
       </c>
       <c r="T30" s="1" t="s">
-        <v>83</v>
+        <v>40</v>
       </c>
       <c r="U30" s="1" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="V30" s="1" t="n">
-        <v>0.1</v>
+        <v>0.075</v>
       </c>
       <c r="W30" s="1" t="n">
-        <v>0.2</v>
+        <v>0.175</v>
       </c>
       <c r="X30" s="1" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="Y30" s="1" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="Z30" s="0" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>66</v>
+        <v>193</v>
       </c>
       <c r="E31" s="1" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>68</v>
+        <v>195</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="J31" s="1" t="n">
-        <v>10080</v>
+        <v>10090</v>
       </c>
       <c r="K31" s="1" t="n">
         <v>44011</v>
       </c>
       <c r="L31" s="1" t="s">
-        <v>71</v>
+        <v>197</v>
       </c>
       <c r="M31" s="1" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="N31" s="1" t="n">
-        <v>1057</v>
+        <v>320</v>
       </c>
       <c r="O31" s="1" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="P31" s="1" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q31" s="1" t="s">
         <v>37</v>
       </c>
       <c r="R31" s="1" t="s">
-        <v>74</v>
+        <v>200</v>
       </c>
       <c r="S31" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="T31" s="1" t="s">
-        <v>40</v>
+        <v>201</v>
       </c>
       <c r="U31" s="1" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="V31" s="1" t="n">
-        <v>0.075</v>
+        <v>0.4</v>
       </c>
       <c r="W31" s="1" t="n">
-        <v>0.175</v>
+        <v>0.7</v>
       </c>
       <c r="X31" s="1" t="n">
-        <v>0.3</v>
+        <v>1.2</v>
       </c>
       <c r="Y31" s="1" t="n">
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="Z31" s="0" t="s">
         <v>42</v>
@@ -4256,123 +4253,126 @@
     </row>
     <row r="32" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="E32" s="1" t="n">
         <v>12</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="J32" s="1" t="n">
-        <v>10090</v>
+        <v>10091</v>
       </c>
       <c r="K32" s="1" t="n">
         <v>44011</v>
       </c>
       <c r="L32" s="1" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="M32" s="1" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="N32" s="1" t="n">
-        <v>320</v>
+        <v>389</v>
       </c>
       <c r="O32" s="1" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="P32" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q32" s="1" t="s">
         <v>37</v>
       </c>
       <c r="R32" s="1" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="S32" s="3" t="s">
         <v>205</v>
       </c>
+      <c r="T32" s="1" t="s">
+        <v>79</v>
+      </c>
       <c r="U32" s="1" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="V32" s="1" t="n">
-        <v>0.4</v>
+        <v>0.1</v>
       </c>
       <c r="W32" s="1" t="n">
-        <v>0.7</v>
+        <v>0.2</v>
       </c>
       <c r="X32" s="1" t="n">
-        <v>1.2</v>
+        <v>0</v>
       </c>
       <c r="Y32" s="1" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Z32" s="0" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
         <v>206</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="E33" s="1" t="n">
         <v>12</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="J33" s="1" t="n">
-        <v>10091</v>
+        <v>10092</v>
       </c>
       <c r="K33" s="1" t="n">
         <v>44011</v>
       </c>
       <c r="L33" s="1" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="M33" s="1" t="s">
         <v>207</v>
       </c>
       <c r="N33" s="1" t="n">
-        <v>389</v>
+        <v>901</v>
       </c>
       <c r="O33" s="1" t="s">
         <v>208</v>
@@ -4384,105 +4384,105 @@
         <v>37</v>
       </c>
       <c r="R33" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="S33" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="T33" s="1" t="s">
-        <v>83</v>
+      <c r="S33" s="1" t="s">
+        <v>210</v>
       </c>
       <c r="U33" s="1" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="V33" s="1" t="n">
-        <v>0.1</v>
+        <v>0.4</v>
       </c>
       <c r="W33" s="1" t="n">
-        <v>0.2</v>
+        <v>1.2</v>
       </c>
       <c r="X33" s="1" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Y33" s="1" t="n">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="Z33" s="0" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>197</v>
+        <v>152</v>
       </c>
       <c r="E34" s="1" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>198</v>
+        <v>212</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>199</v>
+        <v>64</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="I34" s="1" t="s">
-        <v>192</v>
+        <v>187</v>
+      </c>
+      <c r="I34" s="4" t="n">
+        <v>5.35416666666667</v>
       </c>
       <c r="J34" s="1" t="n">
-        <v>10092</v>
+        <v>10100</v>
       </c>
       <c r="K34" s="1" t="n">
         <v>44011</v>
       </c>
       <c r="L34" s="1" t="s">
-        <v>201</v>
+        <v>213</v>
       </c>
       <c r="M34" s="1" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="N34" s="1" t="n">
-        <v>901</v>
+        <v>286</v>
       </c>
       <c r="O34" s="1" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="P34" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q34" s="1" t="s">
         <v>37</v>
       </c>
       <c r="R34" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="S34" s="1" t="s">
-        <v>214</v>
+        <v>157</v>
+      </c>
+      <c r="S34" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="T34" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="U34" s="1" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="V34" s="1" t="n">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="W34" s="1" t="n">
-        <v>1.2</v>
+        <v>0.6</v>
       </c>
       <c r="X34" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y34" s="1" t="n">
         <v>2</v>
-      </c>
-      <c r="Y34" s="1" t="n">
-        <v>3.5</v>
       </c>
       <c r="Z34" s="0" t="s">
         <v>42</v>
@@ -4490,49 +4490,49 @@
     </row>
     <row r="35" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>156</v>
+        <v>218</v>
       </c>
       <c r="E35" s="1" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="I35" s="4" t="n">
-        <v>5.35416666666667</v>
+        <v>187</v>
+      </c>
+      <c r="I35" s="1" t="s">
+        <v>188</v>
       </c>
       <c r="J35" s="1" t="n">
-        <v>10100</v>
+        <v>10110</v>
       </c>
       <c r="K35" s="1" t="n">
         <v>44011</v>
       </c>
       <c r="L35" s="1" t="s">
-        <v>217</v>
+        <v>83</v>
       </c>
       <c r="M35" s="1" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="N35" s="1" t="n">
-        <v>286</v>
+        <v>100</v>
       </c>
       <c r="O35" s="1" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="P35" s="1" t="n">
         <v>2</v>
@@ -4541,28 +4541,28 @@
         <v>37</v>
       </c>
       <c r="R35" s="1" t="s">
-        <v>161</v>
+        <v>222</v>
       </c>
       <c r="S35" s="3" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="T35" s="1" t="s">
-        <v>63</v>
+        <v>79</v>
       </c>
       <c r="U35" s="1" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="V35" s="1" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="W35" s="1" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="X35" s="1" t="n">
         <v>0.3</v>
       </c>
-      <c r="W35" s="1" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="X35" s="1" t="n">
-        <v>1</v>
-      </c>
       <c r="Y35" s="1" t="n">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="Z35" s="0" t="s">
         <v>42</v>
@@ -4570,67 +4570,67 @@
     </row>
     <row r="36" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="E36" s="1" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="I36" s="1" t="s">
-        <v>192</v>
+        <v>187</v>
+      </c>
+      <c r="I36" s="4" t="n">
+        <v>1.41666666666667</v>
       </c>
       <c r="J36" s="1" t="n">
-        <v>10110</v>
+        <v>10120</v>
       </c>
       <c r="K36" s="1" t="n">
         <v>44011</v>
       </c>
       <c r="L36" s="1" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="M36" s="1" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="N36" s="1" t="n">
-        <v>100</v>
+        <v>305</v>
       </c>
       <c r="O36" s="1" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="P36" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q36" s="1" t="s">
         <v>37</v>
       </c>
       <c r="R36" s="1" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="S36" s="3" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="T36" s="1" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="U36" s="1" t="s">
-        <v>77</v>
+        <v>41</v>
       </c>
       <c r="V36" s="1" t="n">
         <v>0.1</v>
@@ -4650,79 +4650,79 @@
     </row>
     <row r="37" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="E37" s="1" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="I37" s="4" t="n">
-        <v>1.41666666666667</v>
+        <v>82</v>
+      </c>
+      <c r="I37" s="1" t="s">
+        <v>66</v>
       </c>
       <c r="J37" s="1" t="n">
-        <v>10120</v>
+        <v>10130</v>
       </c>
       <c r="K37" s="1" t="n">
         <v>44011</v>
       </c>
       <c r="L37" s="1" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="M37" s="1" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="N37" s="1" t="n">
-        <v>305</v>
+        <v>256</v>
       </c>
       <c r="O37" s="1" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="P37" s="1" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q37" s="1" t="s">
         <v>37</v>
       </c>
       <c r="R37" s="1" t="s">
-        <v>226</v>
+        <v>233</v>
       </c>
       <c r="S37" s="3" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="T37" s="1" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="U37" s="1" t="s">
-        <v>41</v>
+        <v>73</v>
       </c>
       <c r="V37" s="1" t="n">
         <v>0.1</v>
       </c>
       <c r="W37" s="1" t="n">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="X37" s="1" t="n">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="Y37" s="1" t="n">
-        <v>0.5</v>
+        <v>0.9</v>
       </c>
       <c r="Z37" s="0" t="s">
         <v>42</v>
@@ -4730,49 +4730,49 @@
     </row>
     <row r="38" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="E38" s="1" t="n">
         <v>16</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="J38" s="1" t="n">
-        <v>10130</v>
+        <v>10132</v>
       </c>
       <c r="K38" s="1" t="n">
         <v>44011</v>
       </c>
       <c r="L38" s="1" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="M38" s="1" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="N38" s="1" t="n">
-        <v>256</v>
+        <v>63</v>
       </c>
       <c r="O38" s="1" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="P38" s="1" t="n">
         <v>3</v>
@@ -4781,19 +4781,19 @@
         <v>37</v>
       </c>
       <c r="R38" s="1" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="S38" s="3" t="s">
         <v>238</v>
       </c>
       <c r="T38" s="1" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="U38" s="1" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="V38" s="1" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="W38" s="1" t="n">
         <v>0.3</v>
@@ -4802,7 +4802,7 @@
         <v>0.5</v>
       </c>
       <c r="Y38" s="1" t="n">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="Z38" s="0" t="s">
         <v>42</v>
@@ -4813,126 +4813,126 @@
         <v>239</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="E39" s="1" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>70</v>
+        <v>188</v>
       </c>
       <c r="J39" s="1" t="n">
-        <v>10132</v>
+        <v>10140</v>
       </c>
       <c r="K39" s="1" t="n">
         <v>44011</v>
       </c>
       <c r="L39" s="1" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="M39" s="1" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="N39" s="1" t="n">
-        <v>63</v>
+        <v>29</v>
       </c>
       <c r="O39" s="1" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="P39" s="1" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q39" s="1" t="s">
         <v>37</v>
       </c>
       <c r="R39" s="1" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="S39" s="3" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="T39" s="1" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="U39" s="1" t="s">
-        <v>77</v>
+        <v>41</v>
       </c>
       <c r="V39" s="1" t="n">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="W39" s="1" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="X39" s="1" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="Y39" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z39" s="0" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="E40" s="1" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>192</v>
+        <v>66</v>
       </c>
       <c r="J40" s="1" t="n">
-        <v>10140</v>
+        <v>10150</v>
       </c>
       <c r="K40" s="1" t="n">
         <v>44011</v>
       </c>
       <c r="L40" s="1" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="M40" s="1" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="N40" s="1" t="n">
-        <v>29</v>
+        <v>898</v>
       </c>
       <c r="O40" s="1" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="P40" s="1" t="n">
         <v>2</v>
@@ -4941,78 +4941,78 @@
         <v>37</v>
       </c>
       <c r="R40" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="S40" s="3" t="s">
-        <v>247</v>
+        <v>183</v>
+      </c>
+      <c r="S40" s="1" t="s">
+        <v>248</v>
       </c>
       <c r="T40" s="1" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="U40" s="1" t="s">
-        <v>41</v>
+        <v>73</v>
       </c>
       <c r="V40" s="1" t="n">
-        <v>0.1</v>
+        <v>1.5</v>
       </c>
       <c r="W40" s="1" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="X40" s="1" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="Y40" s="1" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="Z40" s="0" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="E41" s="1" t="n">
         <v>18</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="J41" s="1" t="n">
-        <v>10150</v>
+        <v>10152</v>
       </c>
       <c r="K41" s="1" t="n">
         <v>44011</v>
       </c>
       <c r="L41" s="1" t="s">
-        <v>87</v>
+        <v>250</v>
       </c>
       <c r="M41" s="1" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="N41" s="1" t="n">
-        <v>898</v>
+        <v>151</v>
       </c>
       <c r="O41" s="1" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="P41" s="1" t="n">
         <v>2</v>
@@ -5021,75 +5021,75 @@
         <v>37</v>
       </c>
       <c r="R41" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="S41" s="1" t="s">
-        <v>252</v>
+        <v>233</v>
+      </c>
+      <c r="S41" s="3" t="s">
+        <v>253</v>
       </c>
       <c r="T41" s="1" t="s">
-        <v>83</v>
+        <v>40</v>
       </c>
       <c r="U41" s="1" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="V41" s="1" t="n">
-        <v>1.5</v>
+        <v>0.025</v>
       </c>
       <c r="W41" s="1" t="n">
-        <v>3</v>
+        <v>0.05</v>
       </c>
       <c r="X41" s="1" t="n">
-        <v>6</v>
+        <v>0.06</v>
       </c>
       <c r="Y41" s="1" t="n">
-        <v>8</v>
+        <v>0.1</v>
       </c>
       <c r="Z41" s="0" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="E42" s="1" t="n">
         <v>18</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="J42" s="1" t="n">
-        <v>10152</v>
+        <v>10154</v>
       </c>
       <c r="K42" s="1" t="n">
         <v>44011</v>
       </c>
       <c r="L42" s="1" t="s">
-        <v>254</v>
+        <v>83</v>
       </c>
       <c r="M42" s="1" t="s">
         <v>255</v>
       </c>
       <c r="N42" s="1" t="n">
-        <v>151</v>
+        <v>885</v>
       </c>
       <c r="O42" s="1" t="s">
         <v>256</v>
@@ -5101,268 +5101,268 @@
         <v>37</v>
       </c>
       <c r="R42" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="S42" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="S42" s="1" t="s">
         <v>257</v>
       </c>
       <c r="T42" s="1" t="s">
-        <v>40</v>
+        <v>79</v>
       </c>
       <c r="U42" s="1" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="V42" s="1" t="n">
-        <v>0.025</v>
+        <v>0.8</v>
       </c>
       <c r="W42" s="1" t="n">
-        <v>0.05</v>
+        <v>2</v>
       </c>
       <c r="X42" s="1" t="n">
-        <v>0.06</v>
+        <v>4</v>
       </c>
       <c r="Y42" s="1" t="n">
-        <v>0.1</v>
+        <v>5</v>
       </c>
       <c r="Z42" s="0" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="s">
         <v>258</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="E43" s="1" t="n">
         <v>18</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="J43" s="1" t="n">
-        <v>10154</v>
+        <v>10156</v>
       </c>
       <c r="K43" s="1" t="n">
         <v>44011</v>
       </c>
       <c r="L43" s="1" t="s">
-        <v>87</v>
+        <v>250</v>
       </c>
       <c r="M43" s="1" t="s">
         <v>259</v>
       </c>
       <c r="N43" s="1" t="n">
-        <v>885</v>
+        <v>25</v>
       </c>
       <c r="O43" s="1" t="s">
         <v>260</v>
       </c>
       <c r="P43" s="1" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q43" s="1" t="s">
         <v>37</v>
       </c>
       <c r="R43" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="S43" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="S43" s="3" t="s">
         <v>261</v>
       </c>
       <c r="T43" s="1" t="s">
-        <v>83</v>
+        <v>40</v>
       </c>
       <c r="U43" s="1" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="V43" s="1" t="n">
-        <v>0.8</v>
+        <v>0.015</v>
       </c>
       <c r="W43" s="1" t="n">
-        <v>2</v>
+        <v>0.03</v>
       </c>
       <c r="X43" s="1" t="n">
-        <v>4</v>
+        <v>0.05</v>
       </c>
       <c r="Y43" s="1" t="n">
-        <v>5</v>
+        <v>0.09</v>
       </c>
       <c r="Z43" s="0" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="s">
         <v>262</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="E44" s="1" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>249</v>
+        <v>263</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>86</v>
+        <v>154</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>70</v>
+        <v>188</v>
       </c>
       <c r="J44" s="1" t="n">
-        <v>10156</v>
+        <v>10160</v>
       </c>
       <c r="K44" s="1" t="n">
         <v>44011</v>
       </c>
       <c r="L44" s="1" t="s">
-        <v>254</v>
+        <v>83</v>
       </c>
       <c r="M44" s="1" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="N44" s="1" t="n">
-        <v>25</v>
+        <v>896</v>
       </c>
       <c r="O44" s="1" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="P44" s="1" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="R44" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="S44" s="3" t="s">
-        <v>265</v>
+        <v>183</v>
+      </c>
+      <c r="S44" s="1" t="s">
+        <v>266</v>
       </c>
       <c r="T44" s="1" t="s">
-        <v>40</v>
+        <v>79</v>
       </c>
       <c r="U44" s="1" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="V44" s="1" t="n">
-        <v>0.015</v>
+        <v>2</v>
       </c>
       <c r="W44" s="1" t="n">
-        <v>0.03</v>
+        <v>4</v>
       </c>
       <c r="X44" s="1" t="n">
-        <v>0.05</v>
+        <v>7</v>
       </c>
       <c r="Y44" s="1" t="n">
-        <v>0.09</v>
+        <v>10</v>
       </c>
       <c r="Z44" s="0" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="E45" s="1" t="n">
         <v>19</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="J45" s="1" t="n">
-        <v>10160</v>
+        <v>10162</v>
       </c>
       <c r="K45" s="1" t="n">
         <v>44011</v>
       </c>
       <c r="L45" s="1" t="s">
-        <v>87</v>
+        <v>67</v>
       </c>
       <c r="M45" s="1" t="s">
         <v>268</v>
       </c>
       <c r="N45" s="1" t="n">
-        <v>896</v>
+        <v>222</v>
       </c>
       <c r="O45" s="1" t="s">
         <v>269</v>
       </c>
       <c r="P45" s="1" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q45" s="1" t="s">
         <v>37</v>
       </c>
       <c r="R45" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="S45" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="S45" s="3" t="s">
         <v>270</v>
       </c>
       <c r="T45" s="1" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="U45" s="1" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="V45" s="1" t="n">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="W45" s="1" t="n">
-        <v>4</v>
+        <v>35</v>
       </c>
       <c r="X45" s="1" t="n">
-        <v>7</v>
+        <v>50</v>
       </c>
       <c r="Y45" s="1" t="n">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="Z45" s="0" t="s">
         <v>42</v>
@@ -5373,76 +5373,76 @@
         <v>271</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="E46" s="1" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="I46" s="1" t="s">
-        <v>192</v>
+        <v>154</v>
+      </c>
+      <c r="I46" s="4" t="n">
+        <v>6.35416666666667</v>
       </c>
       <c r="J46" s="1" t="n">
-        <v>10162</v>
+        <v>10170</v>
       </c>
       <c r="K46" s="1" t="n">
         <v>44011</v>
       </c>
       <c r="L46" s="1" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="M46" s="1" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="N46" s="1" t="n">
-        <v>222</v>
+        <v>86</v>
       </c>
       <c r="O46" s="1" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="P46" s="1" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q46" s="1" t="s">
         <v>37</v>
       </c>
       <c r="R46" s="1" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="S46" s="3" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="T46" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="U46" s="1" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="V46" s="1" t="n">
-        <v>15</v>
+        <v>0.4</v>
       </c>
       <c r="W46" s="1" t="n">
-        <v>35</v>
+        <v>0.7</v>
       </c>
       <c r="X46" s="1" t="n">
-        <v>50</v>
+        <v>1.3</v>
       </c>
       <c r="Y46" s="1" t="n">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="Z46" s="0" t="s">
         <v>42</v>
@@ -5450,239 +5450,239 @@
     </row>
     <row r="47" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="E47" s="1" t="n">
         <v>20</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="I47" s="4" t="n">
-        <v>6.35416666666667</v>
+        <v>8.35416666666667</v>
       </c>
       <c r="J47" s="1" t="n">
-        <v>10170</v>
+        <v>10172</v>
       </c>
       <c r="K47" s="1" t="n">
         <v>44011</v>
       </c>
       <c r="L47" s="1" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="M47" s="1" t="s">
         <v>277</v>
       </c>
       <c r="N47" s="1" t="n">
-        <v>86</v>
+        <v>59</v>
       </c>
       <c r="O47" s="1" t="s">
         <v>278</v>
       </c>
       <c r="P47" s="1" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q47" s="1" t="s">
         <v>37</v>
       </c>
       <c r="R47" s="1" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="S47" s="3" t="s">
         <v>279</v>
       </c>
       <c r="T47" s="1" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="U47" s="1" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="V47" s="1" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="W47" s="1" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="X47" s="1" t="n">
         <v>0.4</v>
       </c>
-      <c r="W47" s="1" t="n">
+      <c r="Y47" s="1" t="n">
         <v>0.7</v>
-      </c>
-      <c r="X47" s="1" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="Y47" s="1" t="n">
-        <v>2</v>
       </c>
       <c r="Z47" s="0" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="s">
         <v>280</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>222</v>
+        <v>152</v>
       </c>
       <c r="E48" s="1" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="I48" s="4" t="n">
         <v>8.35416666666667</v>
       </c>
       <c r="J48" s="1" t="n">
-        <v>10172</v>
+        <v>10190</v>
       </c>
       <c r="K48" s="1" t="n">
         <v>44011</v>
       </c>
       <c r="L48" s="1" t="s">
-        <v>87</v>
+        <v>213</v>
       </c>
       <c r="M48" s="1" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="N48" s="1" t="n">
-        <v>59</v>
+        <v>1650</v>
       </c>
       <c r="O48" s="1" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="P48" s="1" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q48" s="1" t="s">
         <v>37</v>
       </c>
       <c r="R48" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="S48" s="3" t="s">
-        <v>283</v>
+        <v>157</v>
+      </c>
+      <c r="S48" s="1" t="s">
+        <v>284</v>
       </c>
       <c r="T48" s="1" t="s">
-        <v>83</v>
+        <v>59</v>
       </c>
       <c r="U48" s="1" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="V48" s="1" t="n">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="W48" s="1" t="n">
-        <v>0.2</v>
+        <v>2</v>
       </c>
       <c r="X48" s="1" t="n">
-        <v>0.4</v>
+        <v>3.5</v>
       </c>
       <c r="Y48" s="1" t="n">
-        <v>0.7</v>
+        <v>5</v>
       </c>
       <c r="Z48" s="0" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>156</v>
+        <v>218</v>
       </c>
       <c r="E49" s="1" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="I49" s="4" t="n">
         <v>8.35416666666667</v>
       </c>
       <c r="J49" s="1" t="n">
-        <v>10190</v>
+        <v>10200</v>
       </c>
       <c r="K49" s="1" t="n">
         <v>44011</v>
       </c>
       <c r="L49" s="1" t="s">
-        <v>217</v>
+        <v>83</v>
       </c>
       <c r="M49" s="1" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="N49" s="1" t="n">
-        <v>1650</v>
+        <v>305</v>
       </c>
       <c r="O49" s="1" t="s">
-        <v>287</v>
+        <v>227</v>
       </c>
       <c r="P49" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q49" s="1" t="s">
         <v>37</v>
       </c>
       <c r="R49" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="S49" s="1" t="s">
-        <v>288</v>
+        <v>222</v>
+      </c>
+      <c r="S49" s="3" t="s">
+        <v>228</v>
       </c>
       <c r="T49" s="1" t="s">
-        <v>63</v>
+        <v>79</v>
       </c>
       <c r="U49" s="1" t="s">
-        <v>77</v>
+        <v>41</v>
       </c>
       <c r="V49" s="1" t="n">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="W49" s="1" t="n">
-        <v>2</v>
+        <v>0.2</v>
       </c>
       <c r="X49" s="1" t="n">
-        <v>3.5</v>
+        <v>0.3</v>
       </c>
       <c r="Y49" s="1" t="n">
-        <v>5</v>
+        <v>0.5</v>
       </c>
       <c r="Z49" s="0" t="s">
         <v>42</v>
@@ -5690,49 +5690,49 @@
     </row>
     <row r="50" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="E50" s="1" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>158</v>
+        <v>187</v>
       </c>
       <c r="I50" s="4" t="n">
-        <v>8.35416666666667</v>
+        <v>1.41666666666667</v>
       </c>
       <c r="J50" s="1" t="n">
-        <v>10200</v>
+        <v>10210</v>
       </c>
       <c r="K50" s="1" t="n">
         <v>44011</v>
       </c>
       <c r="L50" s="1" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="M50" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="N50" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="O50" s="1" t="s">
         <v>291</v>
-      </c>
-      <c r="N50" s="1" t="n">
-        <v>305</v>
-      </c>
-      <c r="O50" s="1" t="s">
-        <v>231</v>
       </c>
       <c r="P50" s="1" t="n">
         <v>1</v>
@@ -5741,28 +5741,28 @@
         <v>37</v>
       </c>
       <c r="R50" s="1" t="s">
-        <v>226</v>
+        <v>233</v>
       </c>
       <c r="S50" s="3" t="s">
-        <v>232</v>
+        <v>292</v>
       </c>
       <c r="T50" s="1" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="U50" s="1" t="s">
-        <v>41</v>
+        <v>73</v>
       </c>
       <c r="V50" s="1" t="n">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="W50" s="1" t="n">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="X50" s="1" t="n">
-        <v>0.3</v>
+        <v>0.7</v>
       </c>
       <c r="Y50" s="1" t="n">
-        <v>0.5</v>
+        <v>1.2</v>
       </c>
       <c r="Z50" s="0" t="s">
         <v>42</v>
@@ -5770,79 +5770,79 @@
     </row>
     <row r="51" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="1" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>222</v>
+        <v>62</v>
       </c>
       <c r="E51" s="1" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>68</v>
+        <v>295</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>191</v>
+        <v>296</v>
       </c>
       <c r="I51" s="4" t="n">
-        <v>1.41666666666667</v>
+        <v>6.35416666666667</v>
       </c>
       <c r="J51" s="1" t="n">
-        <v>10210</v>
+        <v>10220</v>
       </c>
       <c r="K51" s="1" t="n">
         <v>44011</v>
       </c>
       <c r="L51" s="1" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="M51" s="1" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="N51" s="1" t="n">
-        <v>45</v>
+        <v>331</v>
       </c>
       <c r="O51" s="1" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="P51" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q51" s="1" t="s">
         <v>37</v>
       </c>
       <c r="R51" s="1" t="s">
-        <v>237</v>
+        <v>70</v>
       </c>
       <c r="S51" s="3" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="T51" s="1" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="U51" s="1" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="V51" s="1" t="n">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="W51" s="1" t="n">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="X51" s="1" t="n">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="Y51" s="1" t="n">
-        <v>1.2</v>
+        <v>0</v>
       </c>
       <c r="Z51" s="0" t="s">
         <v>42</v>
@@ -5850,79 +5850,79 @@
     </row>
     <row r="52" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="1" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D52" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="E52" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H52" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="I52" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="E52" s="1" t="n">
-        <v>25</v>
-      </c>
-      <c r="F52" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="G52" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="H52" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="I52" s="4" t="n">
-        <v>6.35416666666667</v>
-      </c>
       <c r="J52" s="1" t="n">
-        <v>10220</v>
+        <v>10230</v>
       </c>
       <c r="K52" s="1" t="n">
         <v>44011</v>
       </c>
       <c r="L52" s="1" t="s">
-        <v>87</v>
+        <v>67</v>
       </c>
       <c r="M52" s="1" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="N52" s="1" t="n">
-        <v>331</v>
+        <v>294</v>
       </c>
       <c r="O52" s="1" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="P52" s="1" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q52" s="1" t="s">
         <v>37</v>
       </c>
       <c r="R52" s="1" t="s">
-        <v>74</v>
+        <v>305</v>
       </c>
       <c r="S52" s="3" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="T52" s="1" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="U52" s="1" t="s">
-        <v>77</v>
+        <v>41</v>
       </c>
       <c r="V52" s="1" t="n">
-        <v>0.1</v>
+        <v>3</v>
       </c>
       <c r="W52" s="1" t="n">
-        <v>0.2</v>
+        <v>7</v>
       </c>
       <c r="X52" s="1" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="Y52" s="1" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="Z52" s="0" t="s">
         <v>42</v>
@@ -5930,147 +5930,147 @@
     </row>
     <row r="53" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="1" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C53" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="E53" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="D53" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="E53" s="1" t="n">
-        <v>26</v>
-      </c>
       <c r="F53" s="1" t="s">
-        <v>306</v>
+        <v>111</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>31</v>
+        <v>64</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>58</v>
+        <v>82</v>
       </c>
       <c r="I53" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="J53" s="1" t="n">
+        <v>10250</v>
+      </c>
+      <c r="K53" s="1" t="n">
+        <v>44012</v>
+      </c>
+      <c r="L53" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="M53" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="N53" s="1" t="n">
         <v>70</v>
       </c>
-      <c r="J53" s="1" t="n">
-        <v>10230</v>
-      </c>
-      <c r="K53" s="1" t="n">
-        <v>44011</v>
-      </c>
-      <c r="L53" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="M53" s="1" t="s">
-        <v>307</v>
-      </c>
-      <c r="N53" s="1" t="n">
-        <v>294</v>
-      </c>
       <c r="O53" s="1" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="P53" s="1" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q53" s="1" t="s">
-        <v>37</v>
+        <v>312</v>
       </c>
       <c r="R53" s="1" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="S53" s="3" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="T53" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="U53" s="1" t="s">
-        <v>41</v>
+        <v>73</v>
       </c>
       <c r="V53" s="1" t="n">
-        <v>3</v>
+        <v>0.1</v>
       </c>
       <c r="W53" s="1" t="n">
-        <v>7</v>
+        <v>0.2</v>
       </c>
       <c r="X53" s="1" t="n">
-        <v>12</v>
+        <v>0.3</v>
       </c>
       <c r="Y53" s="1" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="Z53" s="0" t="s">
-        <v>42</v>
+        <v>315</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="1" t="s">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="E54" s="1" t="n">
         <v>28</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="I54" s="1" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="J54" s="1" t="n">
-        <v>10250</v>
+        <v>10251</v>
       </c>
       <c r="K54" s="1" t="n">
         <v>44012</v>
       </c>
       <c r="L54" s="1" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="M54" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="N54" s="1" t="n">
+        <v>741</v>
+      </c>
+      <c r="O54" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="P54" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q54" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="R54" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="S54" s="3" t="s">
         <v>314</v>
       </c>
-      <c r="N54" s="1" t="n">
-        <v>70</v>
-      </c>
-      <c r="O54" s="1" t="s">
-        <v>315</v>
-      </c>
-      <c r="P54" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q54" s="1" t="s">
-        <v>316</v>
-      </c>
-      <c r="R54" s="1" t="s">
-        <v>317</v>
-      </c>
-      <c r="S54" s="3" t="s">
-        <v>318</v>
-      </c>
       <c r="T54" s="1" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="U54" s="1" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="V54" s="1" t="n">
         <v>0.1</v>
@@ -6085,72 +6085,72 @@
         <v>0</v>
       </c>
       <c r="Z54" s="0" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="E55" s="1" t="n">
         <v>28</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="I55" s="1" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="J55" s="1" t="n">
-        <v>10251</v>
+        <v>10252</v>
       </c>
       <c r="K55" s="1" t="n">
         <v>44012</v>
       </c>
       <c r="L55" s="1" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="M55" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="N55" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="O55" s="1" t="s">
         <v>321</v>
       </c>
-      <c r="N55" s="1" t="n">
-        <v>741</v>
-      </c>
-      <c r="O55" s="1" t="s">
+      <c r="P55" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q55" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="R55" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="S55" s="3" t="s">
         <v>322</v>
       </c>
-      <c r="P55" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q55" s="1" t="s">
-        <v>316</v>
-      </c>
-      <c r="R55" s="1" t="s">
-        <v>317</v>
-      </c>
-      <c r="S55" s="3" t="s">
-        <v>318</v>
-      </c>
       <c r="T55" s="1" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="U55" s="1" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="V55" s="1" t="n">
         <v>0.1</v>
@@ -6159,78 +6159,78 @@
         <v>0.2</v>
       </c>
       <c r="X55" s="1" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="Y55" s="1" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="Z55" s="0" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="56" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="1" t="s">
         <v>323</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="E56" s="1" t="n">
         <v>28</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="I56" s="1" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="J56" s="1" t="n">
-        <v>10252</v>
+        <v>10253</v>
       </c>
       <c r="K56" s="1" t="n">
         <v>44012</v>
       </c>
       <c r="L56" s="1" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="M56" s="1" t="s">
         <v>324</v>
       </c>
       <c r="N56" s="1" t="n">
-        <v>57</v>
+        <v>1020</v>
       </c>
       <c r="O56" s="1" t="s">
         <v>325</v>
       </c>
       <c r="P56" s="1" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q56" s="1" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="R56" s="1" t="s">
-        <v>317</v>
-      </c>
-      <c r="S56" s="3" t="s">
         <v>326</v>
       </c>
+      <c r="S56" s="1" t="s">
+        <v>327</v>
+      </c>
       <c r="T56" s="1" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="U56" s="1" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="V56" s="1" t="n">
         <v>0.1</v>
@@ -6239,173 +6239,173 @@
         <v>0.2</v>
       </c>
       <c r="X56" s="1" t="n">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="Y56" s="1" t="n">
         <v>0.5</v>
       </c>
       <c r="Z56" s="0" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="1" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="E57" s="1" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>115</v>
+        <v>329</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="I57" s="1" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="J57" s="1" t="n">
-        <v>10253</v>
+        <v>10260</v>
       </c>
       <c r="K57" s="1" t="n">
         <v>44012</v>
       </c>
       <c r="L57" s="1" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="M57" s="1" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="N57" s="1" t="n">
-        <v>1020</v>
+        <v>65</v>
       </c>
       <c r="O57" s="1" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="P57" s="1" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q57" s="1" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="R57" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="S57" s="1" t="s">
-        <v>331</v>
+        <v>313</v>
+      </c>
+      <c r="S57" s="3" t="s">
+        <v>332</v>
       </c>
       <c r="T57" s="1" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="U57" s="1" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="V57" s="1" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="W57" s="1" t="n">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="X57" s="1" t="n">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
       <c r="Y57" s="1" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="Z57" s="0" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="1" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="E58" s="1" t="n">
         <v>29</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="I58" s="1" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="J58" s="1" t="n">
-        <v>10260</v>
+        <v>10261</v>
       </c>
       <c r="K58" s="1" t="n">
         <v>44012</v>
       </c>
       <c r="L58" s="1" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="M58" s="1" t="s">
         <v>334</v>
       </c>
       <c r="N58" s="1" t="n">
-        <v>65</v>
+        <v>260</v>
       </c>
       <c r="O58" s="1" t="s">
         <v>335</v>
       </c>
       <c r="P58" s="1" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q58" s="1" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="R58" s="1" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="S58" s="3" t="s">
         <v>336</v>
       </c>
       <c r="T58" s="1" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="U58" s="1" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="V58" s="1" t="n">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="W58" s="1" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="X58" s="1" t="n">
         <v>0.6</v>
       </c>
       <c r="Y58" s="1" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="Z58" s="0" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6413,144 +6413,144 @@
         <v>337</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="E59" s="1" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>333</v>
+        <v>153</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>86</v>
+        <v>154</v>
       </c>
       <c r="I59" s="1" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="J59" s="1" t="n">
-        <v>10261</v>
+        <v>10270</v>
       </c>
       <c r="K59" s="1" t="n">
         <v>44012</v>
       </c>
       <c r="L59" s="1" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="M59" s="1" t="s">
         <v>338</v>
       </c>
       <c r="N59" s="1" t="n">
-        <v>260</v>
+        <v>123</v>
       </c>
       <c r="O59" s="1" t="s">
         <v>339</v>
       </c>
       <c r="P59" s="1" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q59" s="1" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="R59" s="1" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="S59" s="3" t="s">
         <v>340</v>
       </c>
       <c r="T59" s="1" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="U59" s="1" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="V59" s="1" t="n">
         <v>0.1</v>
       </c>
       <c r="W59" s="1" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="X59" s="1" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="Y59" s="1" t="n">
         <v>0.4</v>
       </c>
-      <c r="X59" s="1" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="Y59" s="1" t="n">
-        <v>0.9</v>
-      </c>
       <c r="Z59" s="0" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="60" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="1" t="s">
         <v>341</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="E60" s="1" t="n">
         <v>30</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="I60" s="1" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="J60" s="1" t="n">
-        <v>10270</v>
+        <v>10272</v>
       </c>
       <c r="K60" s="1" t="n">
         <v>44012</v>
       </c>
       <c r="L60" s="1" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="M60" s="1" t="s">
         <v>342</v>
       </c>
       <c r="N60" s="1" t="n">
-        <v>123</v>
+        <v>1758</v>
       </c>
       <c r="O60" s="1" t="s">
         <v>343</v>
       </c>
       <c r="P60" s="1" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q60" s="1" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="R60" s="1" t="s">
-        <v>317</v>
-      </c>
-      <c r="S60" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="S60" s="1" t="s">
         <v>344</v>
       </c>
       <c r="T60" s="1" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="U60" s="1" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="V60" s="1" t="n">
         <v>0.1</v>
@@ -6562,54 +6562,54 @@
         <v>0.3</v>
       </c>
       <c r="Y60" s="1" t="n">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="Z60" s="0" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="E61" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="F61" s="1" t="s">
         <v>345</v>
       </c>
-      <c r="B61" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C61" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="D61" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="E61" s="1" t="n">
-        <v>30</v>
-      </c>
-      <c r="F61" s="1" t="s">
-        <v>157</v>
-      </c>
       <c r="G61" s="1" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>158</v>
+        <v>187</v>
       </c>
       <c r="I61" s="1" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="J61" s="1" t="n">
-        <v>10272</v>
+        <v>10280</v>
       </c>
       <c r="K61" s="1" t="n">
         <v>44012</v>
       </c>
       <c r="L61" s="1" t="s">
-        <v>87</v>
+        <v>213</v>
       </c>
       <c r="M61" s="1" t="s">
         <v>346</v>
       </c>
       <c r="N61" s="1" t="n">
-        <v>1758</v>
+        <v>285</v>
       </c>
       <c r="O61" s="1" t="s">
         <v>347</v>
@@ -6618,419 +6618,419 @@
         <v>2</v>
       </c>
       <c r="Q61" s="1" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="R61" s="1" t="s">
-        <v>317</v>
-      </c>
-      <c r="S61" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="S61" s="3" t="s">
         <v>348</v>
       </c>
       <c r="T61" s="1" t="s">
-        <v>83</v>
+        <v>59</v>
       </c>
       <c r="U61" s="1" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="V61" s="1" t="n">
-        <v>0.1</v>
+        <v>0.25</v>
       </c>
       <c r="W61" s="1" t="n">
-        <v>0.2</v>
+        <v>0.6</v>
       </c>
       <c r="X61" s="1" t="n">
-        <v>0.3</v>
+        <v>0.9</v>
       </c>
       <c r="Y61" s="1" t="n">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="Z61" s="0" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="62" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="1" t="s">
-        <v>215</v>
+        <v>349</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="E62" s="1" t="n">
         <v>31</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="I62" s="1" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="J62" s="1" t="n">
-        <v>10280</v>
+        <v>10281</v>
       </c>
       <c r="K62" s="1" t="n">
         <v>44012</v>
       </c>
       <c r="L62" s="1" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="M62" s="1" t="s">
         <v>350</v>
       </c>
       <c r="N62" s="1" t="n">
-        <v>285</v>
+        <v>1023</v>
       </c>
       <c r="O62" s="1" t="s">
         <v>351</v>
       </c>
       <c r="P62" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q62" s="1" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="R62" s="1" t="s">
-        <v>317</v>
-      </c>
-      <c r="S62" s="3" t="s">
         <v>352</v>
       </c>
+      <c r="S62" s="1" t="s">
+        <v>353</v>
+      </c>
       <c r="T62" s="1" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="U62" s="1" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="V62" s="1" t="n">
-        <v>0.25</v>
+        <v>0.6</v>
       </c>
       <c r="W62" s="1" t="n">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="X62" s="1" t="n">
-        <v>0.9</v>
+        <v>1.25</v>
       </c>
       <c r="Y62" s="1" t="n">
-        <v>1.8</v>
+        <v>2.5</v>
       </c>
       <c r="Z62" s="0" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="1" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="E63" s="1" t="n">
         <v>31</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="I63" s="1" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="J63" s="1" t="n">
-        <v>10281</v>
+        <v>10282</v>
       </c>
       <c r="K63" s="1" t="n">
         <v>44012</v>
       </c>
       <c r="L63" s="1" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="M63" s="1" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="N63" s="1" t="n">
-        <v>1023</v>
+        <v>1026</v>
       </c>
       <c r="O63" s="1" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="P63" s="1" t="n">
         <v>1</v>
       </c>
       <c r="Q63" s="1" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="R63" s="1" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="S63" s="1" t="s">
         <v>357</v>
       </c>
       <c r="T63" s="1" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="U63" s="1" t="s">
-        <v>77</v>
+        <v>41</v>
       </c>
       <c r="V63" s="1" t="n">
         <v>0.6</v>
       </c>
       <c r="W63" s="1" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="X63" s="1" t="n">
-        <v>1.25</v>
+        <v>1.5</v>
       </c>
       <c r="Y63" s="1" t="n">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="Z63" s="0" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="1" t="s">
         <v>358</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="E64" s="1" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>349</v>
+        <v>359</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H64" s="1" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="I64" s="1" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="J64" s="1" t="n">
-        <v>10282</v>
+        <v>10290</v>
       </c>
       <c r="K64" s="1" t="n">
         <v>44012</v>
       </c>
       <c r="L64" s="1" t="s">
-        <v>217</v>
+        <v>67</v>
       </c>
       <c r="M64" s="1" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="N64" s="1" t="n">
-        <v>1026</v>
+        <v>95</v>
       </c>
       <c r="O64" s="1" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="P64" s="1" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q64" s="1" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="R64" s="1" t="s">
-        <v>356</v>
-      </c>
-      <c r="S64" s="1" t="s">
-        <v>361</v>
+        <v>313</v>
+      </c>
+      <c r="S64" s="3" t="s">
+        <v>362</v>
       </c>
       <c r="T64" s="1" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="U64" s="1" t="s">
-        <v>41</v>
+        <v>73</v>
       </c>
       <c r="V64" s="1" t="n">
-        <v>0.6</v>
+        <v>10</v>
       </c>
       <c r="W64" s="1" t="n">
-        <v>0.9</v>
+        <v>25</v>
       </c>
       <c r="X64" s="1" t="n">
-        <v>1.5</v>
+        <v>50</v>
       </c>
       <c r="Y64" s="1" t="n">
-        <v>3</v>
+        <v>90</v>
       </c>
       <c r="Z64" s="0" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="1" t="s">
-        <v>362</v>
+        <v>74</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="E65" s="1" t="n">
         <v>32</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H65" s="1" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="I65" s="1" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="J65" s="1" t="n">
-        <v>10290</v>
+        <v>10291</v>
       </c>
       <c r="K65" s="1" t="n">
         <v>44012</v>
       </c>
       <c r="L65" s="1" t="s">
-        <v>71</v>
+        <v>363</v>
       </c>
       <c r="M65" s="1" t="s">
         <v>364</v>
       </c>
       <c r="N65" s="1" t="n">
-        <v>95</v>
+        <v>301</v>
       </c>
       <c r="O65" s="1" t="s">
         <v>365</v>
       </c>
       <c r="P65" s="1" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q65" s="1" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="R65" s="1" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="S65" s="3" t="s">
         <v>366</v>
       </c>
       <c r="T65" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="U65" s="1" t="s">
-        <v>77</v>
+        <v>41</v>
       </c>
       <c r="V65" s="1" t="n">
-        <v>10</v>
+        <v>0.1</v>
       </c>
       <c r="W65" s="1" t="n">
-        <v>25</v>
+        <v>0.2</v>
       </c>
       <c r="X65" s="1" t="n">
-        <v>50</v>
+        <v>0.3</v>
       </c>
       <c r="Y65" s="1" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="Z65" s="0" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="66" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="1" t="s">
-        <v>78</v>
+        <v>367</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="E66" s="1" t="n">
         <v>32</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="I66" s="1" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="J66" s="1" t="n">
-        <v>10291</v>
+        <v>10294</v>
       </c>
       <c r="K66" s="1" t="n">
         <v>44012</v>
       </c>
       <c r="L66" s="1" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="M66" s="1" t="s">
         <v>368</v>
       </c>
       <c r="N66" s="1" t="n">
-        <v>301</v>
+        <v>670</v>
       </c>
       <c r="O66" s="1" t="s">
         <v>369</v>
       </c>
       <c r="P66" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q66" s="1" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="R66" s="1" t="s">
-        <v>317</v>
+        <v>352</v>
       </c>
       <c r="S66" s="3" t="s">
         <v>370</v>
       </c>
       <c r="T66" s="1" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="U66" s="1" t="s">
-        <v>41</v>
+        <v>73</v>
       </c>
       <c r="V66" s="1" t="n">
         <v>0.1</v>
@@ -7039,653 +7039,653 @@
         <v>0.2</v>
       </c>
       <c r="X66" s="1" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="Y66" s="1" t="n">
         <v>0</v>
       </c>
       <c r="Z66" s="0" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="67" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="1" t="s">
-        <v>371</v>
+        <v>254</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="E67" s="1" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>363</v>
+        <v>258</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H67" s="1" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="I67" s="1" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="J67" s="1" t="n">
-        <v>10294</v>
+        <v>10300</v>
       </c>
       <c r="K67" s="1" t="n">
         <v>44012</v>
       </c>
       <c r="L67" s="1" t="s">
-        <v>367</v>
+        <v>83</v>
       </c>
       <c r="M67" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="N67" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="O67" s="1" t="s">
         <v>372</v>
       </c>
-      <c r="N67" s="1" t="n">
-        <v>670</v>
-      </c>
-      <c r="O67" s="1" t="s">
+      <c r="P67" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q67" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="R67" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="S67" s="3" t="s">
         <v>373</v>
       </c>
-      <c r="P67" s="1" t="n">
+      <c r="T67" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="U67" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="V67" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="Q67" s="1" t="s">
-        <v>316</v>
-      </c>
-      <c r="R67" s="1" t="s">
-        <v>356</v>
-      </c>
-      <c r="S67" s="3" t="s">
-        <v>374</v>
-      </c>
-      <c r="T67" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="U67" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="V67" s="1" t="n">
-        <v>0.1</v>
-      </c>
       <c r="W67" s="1" t="n">
-        <v>0.2</v>
+        <v>3</v>
       </c>
       <c r="X67" s="1" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="Y67" s="1" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="Z67" s="0" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="1" t="s">
-        <v>258</v>
+        <v>374</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="E68" s="1" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>262</v>
+        <v>375</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H68" s="1" t="s">
-        <v>191</v>
+        <v>82</v>
       </c>
       <c r="I68" s="1" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="J68" s="1" t="n">
-        <v>10300</v>
+        <v>10310</v>
       </c>
       <c r="K68" s="1" t="n">
         <v>44012</v>
       </c>
       <c r="L68" s="1" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="M68" s="1" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="N68" s="1" t="n">
-        <v>24</v>
+        <v>223</v>
       </c>
       <c r="O68" s="1" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="P68" s="1" t="n">
         <v>2</v>
       </c>
       <c r="Q68" s="1" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="R68" s="1" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="S68" s="3" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="T68" s="1" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="U68" s="1" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="V68" s="1" t="n">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="W68" s="1" t="n">
-        <v>3</v>
+        <v>0.2</v>
       </c>
       <c r="X68" s="1" t="n">
-        <v>4.5</v>
+        <v>0.3</v>
       </c>
       <c r="Y68" s="1" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="Z68" s="0" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="1" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="E69" s="1" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H69" s="1" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="I69" s="1" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="J69" s="1" t="n">
-        <v>10310</v>
+        <v>10320</v>
       </c>
       <c r="K69" s="1" t="n">
         <v>44012</v>
       </c>
       <c r="L69" s="1" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="M69" s="1" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="N69" s="1" t="n">
-        <v>223</v>
+        <v>207</v>
       </c>
       <c r="O69" s="1" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="P69" s="1" t="n">
         <v>2</v>
       </c>
       <c r="Q69" s="1" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="R69" s="1" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="S69" s="3" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="T69" s="1" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="U69" s="1" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="V69" s="1" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="W69" s="1" t="n">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="X69" s="1" t="n">
-        <v>0.3</v>
+        <v>0.7</v>
       </c>
       <c r="Y69" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z69" s="0" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="1" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="E70" s="1" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H70" s="1" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="I70" s="1" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="J70" s="1" t="n">
-        <v>10320</v>
+        <v>10330</v>
       </c>
       <c r="K70" s="1" t="n">
         <v>44012</v>
       </c>
       <c r="L70" s="1" t="s">
-        <v>87</v>
+        <v>213</v>
       </c>
       <c r="M70" s="1" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="N70" s="1" t="n">
-        <v>207</v>
+        <v>109</v>
       </c>
       <c r="O70" s="1" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="P70" s="1" t="n">
         <v>2</v>
       </c>
       <c r="Q70" s="1" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="R70" s="1" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="S70" s="3" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="T70" s="1" t="s">
-        <v>83</v>
+        <v>59</v>
       </c>
       <c r="U70" s="1" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="V70" s="1" t="n">
-        <v>0.2</v>
+        <v>3</v>
       </c>
       <c r="W70" s="1" t="n">
-        <v>0.5</v>
+        <v>6.5</v>
       </c>
       <c r="X70" s="1" t="n">
-        <v>0.7</v>
+        <v>15</v>
       </c>
       <c r="Y70" s="1" t="n">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="Z70" s="0" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="1" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="E71" s="1" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H71" s="1" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="I71" s="1" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="J71" s="1" t="n">
-        <v>10330</v>
+        <v>10340</v>
       </c>
       <c r="K71" s="1" t="n">
         <v>44012</v>
       </c>
       <c r="L71" s="1" t="s">
-        <v>217</v>
+        <v>83</v>
       </c>
       <c r="M71" s="1" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="N71" s="1" t="n">
-        <v>109</v>
+        <v>306</v>
       </c>
       <c r="O71" s="1" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="P71" s="1" t="n">
         <v>2</v>
       </c>
       <c r="Q71" s="1" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="R71" s="1" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="S71" s="3" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="T71" s="1" t="s">
-        <v>63</v>
+        <v>79</v>
       </c>
       <c r="U71" s="1" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="V71" s="1" t="n">
-        <v>3</v>
+        <v>0.3</v>
       </c>
       <c r="W71" s="1" t="n">
-        <v>6.5</v>
+        <v>0.5</v>
       </c>
       <c r="X71" s="1" t="n">
-        <v>15</v>
+        <v>0.9</v>
       </c>
       <c r="Y71" s="1" t="n">
-        <v>22</v>
+        <v>1.5</v>
       </c>
       <c r="Z71" s="0" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="1" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="E72" s="1" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>68</v>
+        <v>295</v>
       </c>
       <c r="H72" s="1" t="s">
-        <v>86</v>
+        <v>396</v>
       </c>
       <c r="I72" s="1" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="J72" s="1" t="n">
-        <v>10340</v>
+        <v>10350</v>
       </c>
       <c r="K72" s="1" t="n">
         <v>44012</v>
       </c>
       <c r="L72" s="1" t="s">
-        <v>87</v>
+        <v>213</v>
       </c>
       <c r="M72" s="1" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="N72" s="1" t="n">
-        <v>306</v>
+        <v>79</v>
       </c>
       <c r="O72" s="1" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="P72" s="1" t="n">
         <v>2</v>
       </c>
       <c r="Q72" s="1" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="R72" s="1" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="S72" s="3" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="T72" s="1" t="s">
-        <v>83</v>
+        <v>59</v>
       </c>
       <c r="U72" s="1" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="V72" s="1" t="n">
-        <v>0.3</v>
+        <v>1</v>
       </c>
       <c r="W72" s="1" t="n">
-        <v>0.5</v>
+        <v>1.4</v>
       </c>
       <c r="X72" s="1" t="n">
-        <v>0.9</v>
+        <v>2</v>
       </c>
       <c r="Y72" s="1" t="n">
-        <v>1.5</v>
+        <v>4</v>
       </c>
       <c r="Z72" s="0" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="1" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="E73" s="1" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>299</v>
+        <v>64</v>
       </c>
       <c r="H73" s="1" t="s">
-        <v>400</v>
+        <v>154</v>
       </c>
       <c r="I73" s="1" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="J73" s="1" t="n">
-        <v>10350</v>
+        <v>10360</v>
       </c>
       <c r="K73" s="1" t="n">
         <v>44012</v>
       </c>
       <c r="L73" s="1" t="s">
-        <v>217</v>
+        <v>83</v>
       </c>
       <c r="M73" s="1" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="N73" s="1" t="n">
+        <v>172</v>
+      </c>
+      <c r="O73" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="P73" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q73" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="R73" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="S73" s="3" t="s">
+        <v>404</v>
+      </c>
+      <c r="T73" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="O73" s="1" t="s">
-        <v>402</v>
-      </c>
-      <c r="P73" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q73" s="1" t="s">
-        <v>316</v>
-      </c>
-      <c r="R73" s="1" t="s">
-        <v>317</v>
-      </c>
-      <c r="S73" s="3" t="s">
-        <v>403</v>
-      </c>
-      <c r="T73" s="1" t="s">
-        <v>63</v>
-      </c>
       <c r="U73" s="1" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="V73" s="1" t="n">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="W73" s="1" t="n">
-        <v>1.4</v>
+        <v>0.2</v>
       </c>
       <c r="X73" s="1" t="n">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="Y73" s="1" t="n">
-        <v>4</v>
+        <v>0.7</v>
       </c>
       <c r="Z73" s="0" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="1" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="E74" s="1" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H74" s="1" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="I74" s="1" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="J74" s="1" t="n">
-        <v>10360</v>
+        <v>10370</v>
       </c>
       <c r="K74" s="1" t="n">
         <v>44012</v>
       </c>
       <c r="L74" s="1" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="M74" s="1" t="s">
         <v>406</v>
       </c>
       <c r="N74" s="1" t="n">
-        <v>172</v>
+        <v>266</v>
       </c>
       <c r="O74" s="1" t="s">
         <v>407</v>
       </c>
       <c r="P74" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q74" s="1" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="R74" s="1" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="S74" s="3" t="s">
         <v>408</v>
       </c>
       <c r="T74" s="1" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="U74" s="1" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="V74" s="1" t="n">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="W74" s="1" t="n">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="X74" s="1" t="n">
-        <v>0.5</v>
+        <v>1.8</v>
       </c>
       <c r="Y74" s="1" t="n">
-        <v>0.7</v>
+        <v>3</v>
       </c>
       <c r="Z74" s="0" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7693,289 +7693,274 @@
         <v>409</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="E75" s="1" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>405</v>
+        <v>410</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>68</v>
+        <v>295</v>
       </c>
       <c r="H75" s="1" t="s">
-        <v>158</v>
+        <v>396</v>
       </c>
       <c r="I75" s="1" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="J75" s="1" t="n">
-        <v>10370</v>
+        <v>10380</v>
       </c>
       <c r="K75" s="1" t="n">
         <v>44012</v>
       </c>
       <c r="L75" s="1" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="M75" s="1" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="N75" s="1" t="n">
-        <v>266</v>
+        <v>189</v>
       </c>
       <c r="O75" s="1" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="P75" s="1" t="n">
         <v>2</v>
       </c>
       <c r="Q75" s="1" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="R75" s="1" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="S75" s="3" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="T75" s="1" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="U75" s="1" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="V75" s="1" t="n">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="W75" s="1" t="n">
-        <v>1</v>
+        <v>0.3</v>
       </c>
       <c r="X75" s="1" t="n">
-        <v>1.8</v>
+        <v>0.6</v>
       </c>
       <c r="Y75" s="1" t="n">
-        <v>3</v>
+        <v>1.2</v>
       </c>
       <c r="Z75" s="0" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="76" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="1" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="E76" s="1" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="H76" s="1" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="I76" s="1" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="J76" s="1" t="n">
-        <v>10380</v>
+        <v>10390</v>
       </c>
       <c r="K76" s="1" t="n">
         <v>44012</v>
       </c>
       <c r="L76" s="1" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="M76" s="1" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="N76" s="1" t="n">
-        <v>189</v>
+        <v>1025</v>
       </c>
       <c r="O76" s="1" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="P76" s="1" t="n">
         <v>2</v>
       </c>
       <c r="Q76" s="1" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="R76" s="1" t="s">
-        <v>317</v>
-      </c>
-      <c r="S76" s="3" t="s">
-        <v>417</v>
+        <v>352</v>
+      </c>
+      <c r="S76" s="1" t="s">
+        <v>418</v>
       </c>
       <c r="T76" s="1" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="U76" s="1" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="V76" s="1" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="W76" s="1" t="n">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="X76" s="1" t="n">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="Y76" s="1" t="n">
-        <v>1.2</v>
+        <v>2</v>
       </c>
       <c r="Z76" s="0" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="1" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>312</v>
+        <v>420</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="E77" s="1" t="n">
-        <v>42</v>
-      </c>
-      <c r="F77" s="1" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="H77" s="1" t="s">
-        <v>400</v>
-      </c>
-      <c r="I77" s="1" t="s">
-        <v>70</v>
+        <v>295</v>
       </c>
       <c r="J77" s="1" t="n">
-        <v>10390</v>
+        <v>91</v>
       </c>
       <c r="K77" s="1" t="n">
-        <v>44012</v>
-      </c>
-      <c r="L77" s="1" t="s">
-        <v>87</v>
+        <v>44008</v>
       </c>
       <c r="M77" s="1" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="N77" s="1" t="n">
-        <v>1025</v>
+        <v>443</v>
       </c>
       <c r="O77" s="1" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="P77" s="1" t="n">
         <v>2</v>
       </c>
       <c r="Q77" s="1" t="s">
-        <v>316</v>
+        <v>424</v>
       </c>
       <c r="R77" s="1" t="s">
-        <v>356</v>
-      </c>
-      <c r="S77" s="1" t="s">
-        <v>422</v>
+        <v>425</v>
+      </c>
+      <c r="S77" s="3" t="s">
+        <v>426</v>
       </c>
       <c r="T77" s="1" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="U77" s="1" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="V77" s="1" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="W77" s="1" t="n">
         <v>0.2</v>
       </c>
-      <c r="W77" s="1" t="n">
-        <v>0.5</v>
-      </c>
       <c r="X77" s="1" t="n">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="Y77" s="1" t="n">
-        <v>2</v>
+        <v>0.8</v>
       </c>
       <c r="Z77" s="0" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="78" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="1" t="s">
-        <v>423</v>
+        <v>428</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="J78" s="1" t="n">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K78" s="1" t="n">
         <v>44008</v>
       </c>
       <c r="M78" s="1" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="N78" s="1" t="n">
-        <v>443</v>
+        <v>1257</v>
       </c>
       <c r="O78" s="1" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="P78" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q78" s="1" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="R78" s="1" t="s">
-        <v>429</v>
-      </c>
-      <c r="S78" s="3" t="s">
-        <v>430</v>
+        <v>431</v>
+      </c>
+      <c r="S78" s="1" t="s">
+        <v>432</v>
       </c>
       <c r="T78" s="1" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="U78" s="1" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="V78" s="1" t="n">
         <v>0.1</v>
@@ -7984,190 +7969,187 @@
         <v>0.2</v>
       </c>
       <c r="X78" s="1" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="Y78" s="1" t="n">
         <v>0.4</v>
       </c>
-      <c r="Y78" s="1" t="n">
-        <v>0.8</v>
-      </c>
       <c r="Z78" s="0" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="1" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>299</v>
+        <v>64</v>
       </c>
       <c r="J79" s="1" t="n">
-        <v>92</v>
+        <v>47</v>
       </c>
       <c r="K79" s="1" t="n">
         <v>44008</v>
       </c>
       <c r="M79" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="N79" s="1" t="n">
+        <v>640</v>
+      </c>
+      <c r="O79" s="1" t="s">
         <v>433</v>
-      </c>
-      <c r="N79" s="1" t="n">
-        <v>1257</v>
-      </c>
-      <c r="O79" s="1" t="s">
-        <v>434</v>
       </c>
       <c r="P79" s="1" t="n">
         <v>1</v>
       </c>
       <c r="Q79" s="1" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="R79" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="S79" s="3" t="s">
         <v>435</v>
       </c>
-      <c r="S79" s="1" t="s">
-        <v>436</v>
-      </c>
       <c r="T79" s="1" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="U79" s="1" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="V79" s="1" t="n">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="W79" s="1" t="n">
-        <v>0.2</v>
+        <v>0.8</v>
       </c>
       <c r="X79" s="1" t="n">
-        <v>0.3</v>
+        <v>1.3</v>
       </c>
       <c r="Y79" s="1" t="n">
-        <v>0.4</v>
+        <v>2</v>
       </c>
       <c r="Z79" s="0" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="1" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>425</v>
-      </c>
-      <c r="G80" s="1" t="s">
-        <v>68</v>
+        <v>421</v>
       </c>
       <c r="J80" s="1" t="n">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K80" s="1" t="n">
         <v>44008</v>
       </c>
       <c r="M80" s="1" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="N80" s="1" t="n">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="O80" s="1" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="P80" s="1" t="n">
         <v>1</v>
       </c>
       <c r="Q80" s="1" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="R80" s="1" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="S80" s="3" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="T80" s="1" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="U80" s="1" t="s">
-        <v>77</v>
+        <v>41</v>
       </c>
       <c r="V80" s="1" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="W80" s="1" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="X80" s="1" t="n">
         <v>0.3</v>
       </c>
-      <c r="W80" s="1" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="X80" s="1" t="n">
-        <v>1.3</v>
-      </c>
       <c r="Y80" s="1" t="n">
-        <v>2</v>
+        <v>0.4</v>
       </c>
       <c r="Z80" s="0" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="1" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="J81" s="1" t="n">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="K81" s="1" t="n">
         <v>44008</v>
       </c>
       <c r="M81" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="N81" s="1" t="n">
+        <v>637</v>
+      </c>
+      <c r="O81" s="1" t="s">
         <v>441</v>
-      </c>
-      <c r="N81" s="1" t="n">
-        <v>638</v>
-      </c>
-      <c r="O81" s="1" t="s">
-        <v>440</v>
       </c>
       <c r="P81" s="1" t="n">
         <v>1</v>
       </c>
       <c r="Q81" s="1" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="R81" s="1" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="S81" s="3" t="s">
         <v>442</v>
       </c>
       <c r="T81" s="1" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="U81" s="1" t="s">
-        <v>41</v>
+        <v>73</v>
       </c>
       <c r="V81" s="1" t="n">
         <v>0.1</v>
@@ -8182,7 +8164,7 @@
         <v>0.4</v>
       </c>
       <c r="Z81" s="0" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8190,16 +8172,16 @@
         <v>443</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="J82" s="1" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K82" s="1" t="n">
         <v>44008</v>
@@ -8208,7 +8190,7 @@
         <v>444</v>
       </c>
       <c r="N82" s="1" t="n">
-        <v>637</v>
+        <v>1179</v>
       </c>
       <c r="O82" s="1" t="s">
         <v>445</v>
@@ -8217,19 +8199,19 @@
         <v>1</v>
       </c>
       <c r="Q82" s="1" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="R82" s="1" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="S82" s="3" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="T82" s="1" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="U82" s="1" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="V82" s="1" t="n">
         <v>0.1</v>
@@ -8241,27 +8223,27 @@
         <v>0.3</v>
       </c>
       <c r="Y82" s="1" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="Z82" s="0" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="83" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="D83" s="1" t="s">
         <v>447</v>
       </c>
-      <c r="B83" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C83" s="1" t="s">
-        <v>424</v>
-      </c>
-      <c r="D83" s="1" t="s">
-        <v>425</v>
-      </c>
       <c r="J83" s="1" t="n">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="K83" s="1" t="n">
         <v>44008</v>
@@ -8270,184 +8252,184 @@
         <v>448</v>
       </c>
       <c r="N83" s="1" t="n">
-        <v>1179</v>
+        <v>444</v>
       </c>
       <c r="O83" s="1" t="s">
         <v>449</v>
       </c>
       <c r="P83" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q83" s="1" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="R83" s="1" t="s">
-        <v>435</v>
+        <v>450</v>
       </c>
       <c r="S83" s="3" t="s">
-        <v>446</v>
+        <v>451</v>
       </c>
       <c r="T83" s="1" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="U83" s="1" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="V83" s="1" t="n">
         <v>0.1</v>
       </c>
       <c r="W83" s="1" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="X83" s="1" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="Y83" s="1" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="Z83" s="0" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="84" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="1" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>424</v>
+        <v>453</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="J84" s="1" t="n">
-        <v>17</v>
+        <v>71</v>
       </c>
       <c r="K84" s="1" t="n">
         <v>44008</v>
       </c>
       <c r="M84" s="1" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="N84" s="1" t="n">
-        <v>444</v>
+        <v>426</v>
       </c>
       <c r="O84" s="1" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="P84" s="1" t="n">
         <v>2</v>
       </c>
       <c r="Q84" s="1" t="s">
-        <v>428</v>
+        <v>457</v>
       </c>
       <c r="R84" s="1" t="s">
-        <v>454</v>
-      </c>
-      <c r="S84" s="3" t="s">
-        <v>455</v>
+        <v>458</v>
+      </c>
+      <c r="S84" s="1" t="s">
+        <v>459</v>
       </c>
       <c r="T84" s="1" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="U84" s="1" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="V84" s="1" t="n">
         <v>0.1</v>
       </c>
       <c r="W84" s="1" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="X84" s="1" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="Y84" s="1" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="Z84" s="0" t="s">
-        <v>431</v>
+        <v>460</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="1" t="s">
-        <v>456</v>
+        <v>461</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="J85" s="1" t="n">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K85" s="1" t="n">
         <v>44008</v>
       </c>
       <c r="M85" s="1" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="N85" s="1" t="n">
-        <v>426</v>
+        <v>1186</v>
       </c>
       <c r="O85" s="1" t="s">
-        <v>460</v>
+        <v>463</v>
       </c>
       <c r="P85" s="1" t="n">
         <v>2</v>
       </c>
       <c r="Q85" s="1" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="R85" s="1" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="S85" s="1" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="T85" s="1" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="U85" s="1" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="V85" s="1" t="n">
         <v>0.1</v>
       </c>
       <c r="W85" s="1" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="X85" s="1" t="n">
-        <v>0.4</v>
+        <v>0.7</v>
       </c>
       <c r="Y85" s="1" t="n">
-        <v>0.6</v>
+        <v>1.1</v>
       </c>
       <c r="Z85" s="0" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="1" t="s">
         <v>465</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="J86" s="1" t="n">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="K86" s="1" t="n">
         <v>44008</v>
@@ -8456,28 +8438,28 @@
         <v>466</v>
       </c>
       <c r="N86" s="1" t="n">
-        <v>1186</v>
+        <v>626</v>
       </c>
       <c r="O86" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="P86" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q86" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="R86" s="1" t="s">
         <v>467</v>
       </c>
-      <c r="P86" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q86" s="1" t="s">
-        <v>461</v>
-      </c>
-      <c r="R86" s="1" t="s">
-        <v>462</v>
-      </c>
-      <c r="S86" s="1" t="s">
+      <c r="S86" s="3" t="s">
         <v>468</v>
       </c>
       <c r="T86" s="1" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="U86" s="1" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="V86" s="1" t="n">
         <v>0.1</v>
@@ -8486,13 +8468,13 @@
         <v>0.4</v>
       </c>
       <c r="X86" s="1" t="n">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="Y86" s="1" t="n">
-        <v>1.1</v>
+        <v>1.6</v>
       </c>
       <c r="Z86" s="0" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8500,16 +8482,16 @@
         <v>469</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="J87" s="1" t="n">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K87" s="1" t="n">
         <v>44008</v>
@@ -8518,7 +8500,7 @@
         <v>470</v>
       </c>
       <c r="N87" s="1" t="n">
-        <v>626</v>
+        <v>1189</v>
       </c>
       <c r="O87" s="1" t="s">
         <v>469</v>
@@ -8527,143 +8509,143 @@
         <v>1</v>
       </c>
       <c r="Q87" s="1" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="R87" s="1" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="S87" s="3" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="T87" s="1" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="U87" s="1" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="V87" s="1" t="n">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="W87" s="1" t="n">
-        <v>0.4</v>
+        <v>0.7</v>
       </c>
       <c r="X87" s="1" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="Y87" s="1" t="n">
-        <v>1.6</v>
+        <v>1.7</v>
       </c>
       <c r="Z87" s="0" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="1" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="J88" s="1" t="n">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K88" s="1" t="n">
         <v>44008</v>
       </c>
       <c r="M88" s="1" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="N88" s="1" t="n">
-        <v>1189</v>
+        <v>627</v>
       </c>
       <c r="O88" s="1" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="P88" s="1" t="n">
         <v>1</v>
       </c>
       <c r="Q88" s="1" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="R88" s="1" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="S88" s="3" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="T88" s="1" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="U88" s="1" t="s">
-        <v>77</v>
+        <v>41</v>
       </c>
       <c r="V88" s="1" t="n">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="W88" s="1" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="X88" s="1" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="Y88" s="1" t="n">
         <v>0.7</v>
       </c>
-      <c r="X88" s="1" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="Y88" s="1" t="n">
-        <v>1.7</v>
-      </c>
       <c r="Z88" s="0" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="89" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="89" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="1" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="J89" s="1" t="n">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="K89" s="1" t="n">
         <v>44008</v>
       </c>
       <c r="M89" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="N89" s="1" t="n">
+        <v>1185</v>
+      </c>
+      <c r="O89" s="1" t="s">
         <v>476</v>
       </c>
-      <c r="N89" s="1" t="n">
-        <v>627</v>
-      </c>
-      <c r="O89" s="1" t="s">
-        <v>475</v>
-      </c>
       <c r="P89" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q89" s="1" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="R89" s="1" t="s">
-        <v>471</v>
+        <v>458</v>
       </c>
       <c r="S89" s="3" t="s">
         <v>477</v>
       </c>
       <c r="T89" s="1" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="U89" s="1" t="s">
-        <v>41</v>
+        <v>73</v>
       </c>
       <c r="V89" s="1" t="n">
         <v>0.1</v>
@@ -8672,13 +8654,13 @@
         <v>0.2</v>
       </c>
       <c r="X89" s="1" t="n">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="Y89" s="1" t="n">
-        <v>0.7</v>
+        <v>0.4</v>
       </c>
       <c r="Z89" s="0" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8686,16 +8668,16 @@
         <v>478</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="J90" s="1" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K90" s="1" t="n">
         <v>44008</v>
@@ -8704,7 +8686,7 @@
         <v>479</v>
       </c>
       <c r="N90" s="1" t="n">
-        <v>1185</v>
+        <v>425</v>
       </c>
       <c r="O90" s="1" t="s">
         <v>480</v>
@@ -8713,19 +8695,19 @@
         <v>2</v>
       </c>
       <c r="Q90" s="1" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="R90" s="1" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="S90" s="3" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="T90" s="1" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="U90" s="1" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="V90" s="1" t="n">
         <v>0.1</v>
@@ -8737,57 +8719,57 @@
         <v>0.3</v>
       </c>
       <c r="Y90" s="1" t="n">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="Z90" s="0" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="91" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="1" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="J91" s="1" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K91" s="1" t="n">
         <v>44008</v>
       </c>
       <c r="M91" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="N91" s="1" t="n">
+        <v>1213</v>
+      </c>
+      <c r="O91" s="1" t="s">
         <v>483</v>
       </c>
-      <c r="N91" s="1" t="n">
-        <v>425</v>
-      </c>
-      <c r="O91" s="1" t="s">
+      <c r="P91" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q91" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="R91" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="S91" s="1" t="s">
         <v>484</v>
       </c>
-      <c r="P91" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q91" s="1" t="s">
-        <v>461</v>
-      </c>
-      <c r="R91" s="1" t="s">
-        <v>462</v>
-      </c>
-      <c r="S91" s="3" t="s">
-        <v>481</v>
-      </c>
       <c r="T91" s="1" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="U91" s="1" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="V91" s="1" t="n">
         <v>0.1</v>
@@ -8802,7 +8784,7 @@
         <v>0</v>
       </c>
       <c r="Z91" s="0" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8810,16 +8792,16 @@
         <v>485</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="J92" s="1" t="n">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K92" s="1" t="n">
         <v>44008</v>
@@ -8828,7 +8810,7 @@
         <v>486</v>
       </c>
       <c r="N92" s="1" t="n">
-        <v>1213</v>
+        <v>1214</v>
       </c>
       <c r="O92" s="1" t="s">
         <v>487</v>
@@ -8837,19 +8819,19 @@
         <v>1</v>
       </c>
       <c r="Q92" s="1" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="R92" s="1" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="S92" s="1" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="T92" s="1" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="U92" s="1" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="V92" s="1" t="n">
         <v>0.1</v>
@@ -8864,116 +8846,116 @@
         <v>0</v>
       </c>
       <c r="Z92" s="0" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="93" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C93" s="1" t="s">
         <v>489</v>
       </c>
-      <c r="B93" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C93" s="1" t="s">
-        <v>457</v>
-      </c>
       <c r="D93" s="1" t="s">
-        <v>458</v>
+        <v>490</v>
       </c>
       <c r="J93" s="1" t="n">
-        <v>54</v>
+        <v>141</v>
       </c>
       <c r="K93" s="1" t="n">
         <v>44008</v>
       </c>
       <c r="M93" s="1" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="N93" s="1" t="n">
-        <v>1214</v>
+        <v>447</v>
       </c>
       <c r="O93" s="1" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="P93" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q93" s="1" t="s">
-        <v>461</v>
+        <v>492</v>
       </c>
       <c r="R93" s="1" t="s">
-        <v>471</v>
-      </c>
-      <c r="S93" s="1" t="s">
-        <v>488</v>
+        <v>493</v>
+      </c>
+      <c r="S93" s="3" t="s">
+        <v>494</v>
       </c>
       <c r="T93" s="1" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="U93" s="1" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="V93" s="1" t="n">
         <v>0.1</v>
       </c>
       <c r="W93" s="1" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="X93" s="1" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="Y93" s="1" t="n">
         <v>0</v>
       </c>
       <c r="Z93" s="0" t="s">
-        <v>464</v>
+        <v>495</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="1" t="s">
-        <v>492</v>
+        <v>496</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>493</v>
+        <v>497</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>494</v>
+        <v>498</v>
       </c>
       <c r="J94" s="1" t="n">
-        <v>141</v>
+        <v>21</v>
       </c>
       <c r="K94" s="1" t="n">
         <v>44008</v>
       </c>
       <c r="M94" s="1" t="s">
-        <v>495</v>
+        <v>499</v>
       </c>
       <c r="N94" s="1" t="n">
-        <v>447</v>
+        <v>164</v>
       </c>
       <c r="O94" s="1" t="s">
-        <v>492</v>
+        <v>500</v>
       </c>
       <c r="P94" s="1" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q94" s="1" t="s">
-        <v>496</v>
+        <v>501</v>
       </c>
       <c r="R94" s="1" t="s">
-        <v>497</v>
+        <v>502</v>
       </c>
       <c r="S94" s="3" t="s">
-        <v>498</v>
+        <v>503</v>
       </c>
       <c r="T94" s="1" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="U94" s="1" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="V94" s="1" t="n">
         <v>0.1</v>
@@ -8988,57 +8970,57 @@
         <v>0</v>
       </c>
       <c r="Z94" s="0" t="s">
-        <v>499</v>
+        <v>504</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="1" t="s">
-        <v>500</v>
+        <v>505</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>501</v>
+        <v>506</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>502</v>
+        <v>507</v>
       </c>
       <c r="J95" s="1" t="n">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="K95" s="1" t="n">
         <v>44008</v>
       </c>
       <c r="M95" s="1" t="s">
-        <v>503</v>
+        <v>508</v>
       </c>
       <c r="N95" s="1" t="n">
-        <v>164</v>
+        <v>409</v>
       </c>
       <c r="O95" s="1" t="s">
-        <v>504</v>
+        <v>509</v>
       </c>
       <c r="P95" s="1" t="n">
         <v>3</v>
       </c>
       <c r="Q95" s="1" t="s">
-        <v>505</v>
+        <v>510</v>
       </c>
       <c r="R95" s="1" t="s">
-        <v>506</v>
+        <v>511</v>
       </c>
       <c r="S95" s="3" t="s">
-        <v>507</v>
+        <v>512</v>
       </c>
       <c r="T95" s="1" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="U95" s="1" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="V95" s="1" t="n">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="W95" s="1" t="n">
         <v>0</v>
@@ -9050,70 +9032,11 @@
         <v>0</v>
       </c>
       <c r="Z95" s="0" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="96" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="1" t="s">
-        <v>509</v>
-      </c>
-      <c r="B96" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C96" s="1" t="s">
-        <v>510</v>
-      </c>
-      <c r="D96" s="1" t="s">
-        <v>511</v>
-      </c>
-      <c r="J96" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="K96" s="1" t="n">
-        <v>44008</v>
-      </c>
-      <c r="M96" s="1" t="s">
-        <v>512</v>
-      </c>
-      <c r="N96" s="1" t="n">
-        <v>409</v>
-      </c>
-      <c r="O96" s="1" t="s">
         <v>513</v>
       </c>
-      <c r="P96" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q96" s="1" t="s">
-        <v>514</v>
-      </c>
-      <c r="R96" s="1" t="s">
-        <v>515</v>
-      </c>
-      <c r="S96" s="3" t="s">
-        <v>516</v>
-      </c>
-      <c r="T96" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="U96" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="V96" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="W96" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="X96" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y96" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z96" s="0" t="s">
-        <v>517</v>
-      </c>
+    </row>
+    <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J96" s="5"/>
     </row>
     <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J97" s="5"/>
@@ -9184,9 +9107,7 @@
     <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J119" s="5"/>
     </row>
-    <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J120" s="5"/>
-    </row>
+    <row r="1048540" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048541" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048542" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048543" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>

--- a/haawks-indicator-shortlist.xlsx
+++ b/haawks-indicator-shortlist.xlsx
@@ -1769,8 +1769,8 @@
   </sheetPr>
   <dimension ref="A1:Z1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A22" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A29" activeCellId="0" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3850,7 +3850,7 @@
       <c r="Y26" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="Z26" s="0" t="s">
+      <c r="Z26" s="1" t="s">
         <v>42</v>
       </c>
     </row>
@@ -3930,7 +3930,7 @@
       <c r="Y27" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="Z27" s="0" t="s">
+      <c r="Z27" s="1" t="s">
         <v>42</v>
       </c>
     </row>
@@ -4010,7 +4010,7 @@
       <c r="Y28" s="1" t="n">
         <v>0.4</v>
       </c>
-      <c r="Z28" s="0" t="s">
+      <c r="Z28" s="1" t="s">
         <v>42</v>
       </c>
     </row>
@@ -4090,7 +4090,7 @@
       <c r="Y29" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="Z29" s="0" t="s">
+      <c r="Z29" s="1" t="s">
         <v>42</v>
       </c>
     </row>
@@ -4170,7 +4170,7 @@
       <c r="Y30" s="1" t="n">
         <v>0.5</v>
       </c>
-      <c r="Z30" s="0" t="s">
+      <c r="Z30" s="1" t="s">
         <v>42</v>
       </c>
     </row>
@@ -4247,7 +4247,7 @@
       <c r="Y31" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="Z31" s="0" t="s">
+      <c r="Z31" s="1" t="s">
         <v>42</v>
       </c>
     </row>
@@ -4327,7 +4327,7 @@
       <c r="Y32" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="Z32" s="0" t="s">
+      <c r="Z32" s="1" t="s">
         <v>42</v>
       </c>
     </row>
@@ -4404,7 +4404,7 @@
       <c r="Y33" s="1" t="n">
         <v>3.5</v>
       </c>
-      <c r="Z33" s="0" t="s">
+      <c r="Z33" s="1" t="s">
         <v>42</v>
       </c>
     </row>
@@ -4484,7 +4484,7 @@
       <c r="Y34" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="Z34" s="0" t="s">
+      <c r="Z34" s="1" t="s">
         <v>42</v>
       </c>
     </row>
@@ -4564,7 +4564,7 @@
       <c r="Y35" s="1" t="n">
         <v>0.5</v>
       </c>
-      <c r="Z35" s="0" t="s">
+      <c r="Z35" s="1" t="s">
         <v>42</v>
       </c>
     </row>
@@ -4644,7 +4644,7 @@
       <c r="Y36" s="1" t="n">
         <v>0.5</v>
       </c>
-      <c r="Z36" s="0" t="s">
+      <c r="Z36" s="1" t="s">
         <v>42</v>
       </c>
     </row>
@@ -4724,7 +4724,7 @@
       <c r="Y37" s="1" t="n">
         <v>0.9</v>
       </c>
-      <c r="Z37" s="0" t="s">
+      <c r="Z37" s="1" t="s">
         <v>42</v>
       </c>
     </row>
@@ -4804,7 +4804,7 @@
       <c r="Y38" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="Z38" s="0" t="s">
+      <c r="Z38" s="1" t="s">
         <v>42</v>
       </c>
     </row>
@@ -4884,7 +4884,7 @@
       <c r="Y39" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="Z39" s="0" t="s">
+      <c r="Z39" s="1" t="s">
         <v>42</v>
       </c>
     </row>
@@ -4964,7 +4964,7 @@
       <c r="Y40" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="Z40" s="0" t="s">
+      <c r="Z40" s="1" t="s">
         <v>42</v>
       </c>
     </row>
@@ -5044,7 +5044,7 @@
       <c r="Y41" s="1" t="n">
         <v>0.1</v>
       </c>
-      <c r="Z41" s="0" t="s">
+      <c r="Z41" s="1" t="s">
         <v>42</v>
       </c>
     </row>
@@ -5124,7 +5124,7 @@
       <c r="Y42" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="Z42" s="0" t="s">
+      <c r="Z42" s="1" t="s">
         <v>42</v>
       </c>
     </row>
@@ -5204,7 +5204,7 @@
       <c r="Y43" s="1" t="n">
         <v>0.09</v>
       </c>
-      <c r="Z43" s="0" t="s">
+      <c r="Z43" s="1" t="s">
         <v>42</v>
       </c>
     </row>
@@ -5284,7 +5284,7 @@
       <c r="Y44" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="Z44" s="0" t="s">
+      <c r="Z44" s="1" t="s">
         <v>42</v>
       </c>
     </row>
@@ -5364,7 +5364,7 @@
       <c r="Y45" s="1" t="n">
         <v>100</v>
       </c>
-      <c r="Z45" s="0" t="s">
+      <c r="Z45" s="1" t="s">
         <v>42</v>
       </c>
     </row>
@@ -5444,7 +5444,7 @@
       <c r="Y46" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="Z46" s="0" t="s">
+      <c r="Z46" s="1" t="s">
         <v>42</v>
       </c>
     </row>
@@ -5524,7 +5524,7 @@
       <c r="Y47" s="1" t="n">
         <v>0.7</v>
       </c>
-      <c r="Z47" s="0" t="s">
+      <c r="Z47" s="1" t="s">
         <v>42</v>
       </c>
     </row>
@@ -5604,7 +5604,7 @@
       <c r="Y48" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="Z48" s="0" t="s">
+      <c r="Z48" s="1" t="s">
         <v>42</v>
       </c>
     </row>
@@ -5684,7 +5684,7 @@
       <c r="Y49" s="1" t="n">
         <v>0.5</v>
       </c>
-      <c r="Z49" s="0" t="s">
+      <c r="Z49" s="1" t="s">
         <v>42</v>
       </c>
     </row>
@@ -5764,7 +5764,7 @@
       <c r="Y50" s="1" t="n">
         <v>1.2</v>
       </c>
-      <c r="Z50" s="0" t="s">
+      <c r="Z50" s="1" t="s">
         <v>42</v>
       </c>
     </row>
@@ -5844,7 +5844,7 @@
       <c r="Y51" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="Z51" s="0" t="s">
+      <c r="Z51" s="1" t="s">
         <v>42</v>
       </c>
     </row>
@@ -5924,7 +5924,7 @@
       <c r="Y52" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="Z52" s="0" t="s">
+      <c r="Z52" s="1" t="s">
         <v>42</v>
       </c>
     </row>
@@ -6004,7 +6004,7 @@
       <c r="Y53" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="Z53" s="0" t="s">
+      <c r="Z53" s="1" t="s">
         <v>315</v>
       </c>
     </row>
@@ -6084,7 +6084,7 @@
       <c r="Y54" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="Z54" s="0" t="s">
+      <c r="Z54" s="1" t="s">
         <v>315</v>
       </c>
     </row>
@@ -6164,7 +6164,7 @@
       <c r="Y55" s="1" t="n">
         <v>0.5</v>
       </c>
-      <c r="Z55" s="0" t="s">
+      <c r="Z55" s="1" t="s">
         <v>315</v>
       </c>
     </row>
@@ -6244,7 +6244,7 @@
       <c r="Y56" s="1" t="n">
         <v>0.5</v>
       </c>
-      <c r="Z56" s="0" t="s">
+      <c r="Z56" s="1" t="s">
         <v>315</v>
       </c>
     </row>
@@ -6324,7 +6324,7 @@
       <c r="Y57" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="Z57" s="0" t="s">
+      <c r="Z57" s="1" t="s">
         <v>315</v>
       </c>
     </row>
@@ -6404,7 +6404,7 @@
       <c r="Y58" s="1" t="n">
         <v>0.9</v>
       </c>
-      <c r="Z58" s="0" t="s">
+      <c r="Z58" s="1" t="s">
         <v>315</v>
       </c>
     </row>
@@ -6484,7 +6484,7 @@
       <c r="Y59" s="1" t="n">
         <v>0.4</v>
       </c>
-      <c r="Z59" s="0" t="s">
+      <c r="Z59" s="1" t="s">
         <v>315</v>
       </c>
     </row>
@@ -6564,7 +6564,7 @@
       <c r="Y60" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="Z60" s="0" t="s">
+      <c r="Z60" s="1" t="s">
         <v>315</v>
       </c>
     </row>
@@ -6644,7 +6644,7 @@
       <c r="Y61" s="1" t="n">
         <v>1.8</v>
       </c>
-      <c r="Z61" s="0" t="s">
+      <c r="Z61" s="1" t="s">
         <v>315</v>
       </c>
     </row>
@@ -6724,7 +6724,7 @@
       <c r="Y62" s="1" t="n">
         <v>2.5</v>
       </c>
-      <c r="Z62" s="0" t="s">
+      <c r="Z62" s="1" t="s">
         <v>315</v>
       </c>
     </row>
@@ -6804,7 +6804,7 @@
       <c r="Y63" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="Z63" s="0" t="s">
+      <c r="Z63" s="1" t="s">
         <v>315</v>
       </c>
     </row>
@@ -6884,7 +6884,7 @@
       <c r="Y64" s="1" t="n">
         <v>90</v>
       </c>
-      <c r="Z64" s="0" t="s">
+      <c r="Z64" s="1" t="s">
         <v>315</v>
       </c>
     </row>
@@ -6964,7 +6964,7 @@
       <c r="Y65" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="Z65" s="0" t="s">
+      <c r="Z65" s="1" t="s">
         <v>315</v>
       </c>
     </row>
@@ -7044,7 +7044,7 @@
       <c r="Y66" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="Z66" s="0" t="s">
+      <c r="Z66" s="1" t="s">
         <v>315</v>
       </c>
     </row>
@@ -7124,7 +7124,7 @@
       <c r="Y67" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="Z67" s="0" t="s">
+      <c r="Z67" s="1" t="s">
         <v>315</v>
       </c>
     </row>
@@ -7204,7 +7204,7 @@
       <c r="Y68" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="Z68" s="0" t="s">
+      <c r="Z68" s="1" t="s">
         <v>315</v>
       </c>
     </row>
@@ -7284,7 +7284,7 @@
       <c r="Y69" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="Z69" s="0" t="s">
+      <c r="Z69" s="1" t="s">
         <v>315</v>
       </c>
     </row>
@@ -7364,7 +7364,7 @@
       <c r="Y70" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="Z70" s="0" t="s">
+      <c r="Z70" s="1" t="s">
         <v>315</v>
       </c>
     </row>
@@ -7444,7 +7444,7 @@
       <c r="Y71" s="1" t="n">
         <v>1.5</v>
       </c>
-      <c r="Z71" s="0" t="s">
+      <c r="Z71" s="1" t="s">
         <v>315</v>
       </c>
     </row>
@@ -7524,7 +7524,7 @@
       <c r="Y72" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="Z72" s="0" t="s">
+      <c r="Z72" s="1" t="s">
         <v>315</v>
       </c>
     </row>
@@ -7604,7 +7604,7 @@
       <c r="Y73" s="1" t="n">
         <v>0.7</v>
       </c>
-      <c r="Z73" s="0" t="s">
+      <c r="Z73" s="1" t="s">
         <v>315</v>
       </c>
     </row>
@@ -7684,7 +7684,7 @@
       <c r="Y74" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="Z74" s="0" t="s">
+      <c r="Z74" s="1" t="s">
         <v>315</v>
       </c>
     </row>
@@ -7764,7 +7764,7 @@
       <c r="Y75" s="1" t="n">
         <v>1.2</v>
       </c>
-      <c r="Z75" s="0" t="s">
+      <c r="Z75" s="1" t="s">
         <v>315</v>
       </c>
     </row>
@@ -7844,7 +7844,7 @@
       <c r="Y76" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="Z76" s="0" t="s">
+      <c r="Z76" s="1" t="s">
         <v>315</v>
       </c>
     </row>
@@ -7909,7 +7909,7 @@
       <c r="Y77" s="1" t="n">
         <v>0.8</v>
       </c>
-      <c r="Z77" s="0" t="s">
+      <c r="Z77" s="1" t="s">
         <v>427</v>
       </c>
     </row>
@@ -7974,7 +7974,7 @@
       <c r="Y78" s="1" t="n">
         <v>0.4</v>
       </c>
-      <c r="Z78" s="0" t="s">
+      <c r="Z78" s="1" t="s">
         <v>427</v>
       </c>
     </row>
@@ -8039,7 +8039,7 @@
       <c r="Y79" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="Z79" s="0" t="s">
+      <c r="Z79" s="1" t="s">
         <v>427</v>
       </c>
     </row>
@@ -8101,7 +8101,7 @@
       <c r="Y80" s="1" t="n">
         <v>0.4</v>
       </c>
-      <c r="Z80" s="0" t="s">
+      <c r="Z80" s="1" t="s">
         <v>427</v>
       </c>
     </row>
@@ -8163,7 +8163,7 @@
       <c r="Y81" s="1" t="n">
         <v>0.4</v>
       </c>
-      <c r="Z81" s="0" t="s">
+      <c r="Z81" s="1" t="s">
         <v>427</v>
       </c>
     </row>
@@ -8225,7 +8225,7 @@
       <c r="Y82" s="1" t="n">
         <v>0.5</v>
       </c>
-      <c r="Z82" s="0" t="s">
+      <c r="Z82" s="1" t="s">
         <v>427</v>
       </c>
     </row>
@@ -8287,7 +8287,7 @@
       <c r="Y83" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="Z83" s="0" t="s">
+      <c r="Z83" s="1" t="s">
         <v>427</v>
       </c>
     </row>
@@ -8349,7 +8349,7 @@
       <c r="Y84" s="1" t="n">
         <v>0.6</v>
       </c>
-      <c r="Z84" s="0" t="s">
+      <c r="Z84" s="1" t="s">
         <v>460</v>
       </c>
     </row>
@@ -8411,7 +8411,7 @@
       <c r="Y85" s="1" t="n">
         <v>1.1</v>
       </c>
-      <c r="Z85" s="0" t="s">
+      <c r="Z85" s="1" t="s">
         <v>460</v>
       </c>
     </row>
@@ -8473,7 +8473,7 @@
       <c r="Y86" s="1" t="n">
         <v>1.6</v>
       </c>
-      <c r="Z86" s="0" t="s">
+      <c r="Z86" s="1" t="s">
         <v>460</v>
       </c>
     </row>
@@ -8535,7 +8535,7 @@
       <c r="Y87" s="1" t="n">
         <v>1.7</v>
       </c>
-      <c r="Z87" s="0" t="s">
+      <c r="Z87" s="1" t="s">
         <v>460</v>
       </c>
     </row>
@@ -8597,7 +8597,7 @@
       <c r="Y88" s="1" t="n">
         <v>0.7</v>
       </c>
-      <c r="Z88" s="0" t="s">
+      <c r="Z88" s="1" t="s">
         <v>460</v>
       </c>
     </row>
@@ -8659,7 +8659,7 @@
       <c r="Y89" s="1" t="n">
         <v>0.4</v>
       </c>
-      <c r="Z89" s="0" t="s">
+      <c r="Z89" s="1" t="s">
         <v>460</v>
       </c>
     </row>
@@ -8721,7 +8721,7 @@
       <c r="Y90" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="Z90" s="0" t="s">
+      <c r="Z90" s="1" t="s">
         <v>460</v>
       </c>
     </row>
@@ -8783,7 +8783,7 @@
       <c r="Y91" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="Z91" s="0" t="s">
+      <c r="Z91" s="1" t="s">
         <v>460</v>
       </c>
     </row>
@@ -8845,7 +8845,7 @@
       <c r="Y92" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="Z92" s="0" t="s">
+      <c r="Z92" s="1" t="s">
         <v>460</v>
       </c>
     </row>
@@ -8907,7 +8907,7 @@
       <c r="Y93" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="Z93" s="0" t="s">
+      <c r="Z93" s="1" t="s">
         <v>495</v>
       </c>
     </row>
@@ -8969,7 +8969,7 @@
       <c r="Y94" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="Z94" s="0" t="s">
+      <c r="Z94" s="1" t="s">
         <v>504</v>
       </c>
     </row>
@@ -9031,7 +9031,7 @@
       <c r="Y95" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="Z95" s="0" t="s">
+      <c r="Z95" s="1" t="s">
         <v>513</v>
       </c>
     </row>

--- a/haawks-indicator-shortlist.xlsx
+++ b/haawks-indicator-shortlist.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1499" uniqueCount="514">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1514" uniqueCount="514">
   <si>
     <t xml:space="preserve">Indicator</t>
   </si>
@@ -1769,8 +1769,8 @@
   </sheetPr>
   <dimension ref="A1:Z1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A22" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A29" activeCellId="0" sqref="A29"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D87" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H95" activeCellId="0" sqref="H95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -8056,6 +8056,9 @@
       <c r="D80" s="1" t="s">
         <v>421</v>
       </c>
+      <c r="G80" s="0" t="s">
+        <v>64</v>
+      </c>
       <c r="J80" s="1" t="n">
         <v>49</v>
       </c>
@@ -8118,6 +8121,9 @@
       <c r="D81" s="1" t="s">
         <v>421</v>
       </c>
+      <c r="G81" s="0" t="s">
+        <v>64</v>
+      </c>
       <c r="J81" s="1" t="n">
         <v>41</v>
       </c>
@@ -8180,6 +8186,9 @@
       <c r="D82" s="1" t="s">
         <v>421</v>
       </c>
+      <c r="G82" s="0" t="s">
+        <v>64</v>
+      </c>
       <c r="J82" s="1" t="n">
         <v>42</v>
       </c>
@@ -8242,6 +8251,9 @@
       <c r="D83" s="1" t="s">
         <v>447</v>
       </c>
+      <c r="G83" s="0" t="s">
+        <v>64</v>
+      </c>
       <c r="J83" s="1" t="n">
         <v>17</v>
       </c>
@@ -8304,6 +8316,9 @@
       <c r="D84" s="1" t="s">
         <v>454</v>
       </c>
+      <c r="G84" s="0" t="s">
+        <v>295</v>
+      </c>
       <c r="J84" s="1" t="n">
         <v>71</v>
       </c>
@@ -8366,6 +8381,9 @@
       <c r="D85" s="1" t="s">
         <v>454</v>
       </c>
+      <c r="G85" s="0" t="s">
+        <v>295</v>
+      </c>
       <c r="J85" s="1" t="n">
         <v>72</v>
       </c>
@@ -8428,6 +8446,9 @@
       <c r="D86" s="1" t="s">
         <v>454</v>
       </c>
+      <c r="G86" s="0" t="s">
+        <v>64</v>
+      </c>
       <c r="J86" s="1" t="n">
         <v>57</v>
       </c>
@@ -8490,6 +8511,9 @@
       <c r="D87" s="1" t="s">
         <v>454</v>
       </c>
+      <c r="G87" s="0" t="s">
+        <v>64</v>
+      </c>
       <c r="J87" s="1" t="n">
         <v>58</v>
       </c>
@@ -8552,6 +8576,9 @@
       <c r="D88" s="1" t="s">
         <v>454</v>
       </c>
+      <c r="G88" s="0" t="s">
+        <v>64</v>
+      </c>
       <c r="J88" s="1" t="n">
         <v>59</v>
       </c>
@@ -8614,6 +8641,9 @@
       <c r="D89" s="1" t="s">
         <v>454</v>
       </c>
+      <c r="G89" s="0" t="s">
+        <v>64</v>
+      </c>
       <c r="J89" s="1" t="n">
         <v>51</v>
       </c>
@@ -8676,6 +8706,9 @@
       <c r="D90" s="1" t="s">
         <v>454</v>
       </c>
+      <c r="G90" s="0" t="s">
+        <v>64</v>
+      </c>
       <c r="J90" s="1" t="n">
         <v>52</v>
       </c>
@@ -8738,6 +8771,9 @@
       <c r="D91" s="1" t="s">
         <v>454</v>
       </c>
+      <c r="G91" s="0" t="s">
+        <v>64</v>
+      </c>
       <c r="J91" s="1" t="n">
         <v>53</v>
       </c>
@@ -8800,6 +8836,9 @@
       <c r="D92" s="1" t="s">
         <v>454</v>
       </c>
+      <c r="G92" s="0" t="s">
+        <v>64</v>
+      </c>
       <c r="J92" s="1" t="n">
         <v>54</v>
       </c>
@@ -8862,6 +8901,9 @@
       <c r="D93" s="1" t="s">
         <v>490</v>
       </c>
+      <c r="G93" s="0" t="s">
+        <v>64</v>
+      </c>
       <c r="J93" s="1" t="n">
         <v>141</v>
       </c>
@@ -8985,6 +9027,9 @@
       </c>
       <c r="D95" s="1" t="s">
         <v>507</v>
+      </c>
+      <c r="G95" s="0" t="s">
+        <v>64</v>
       </c>
       <c r="J95" s="1" t="n">
         <v>13</v>

--- a/haawks-indicator-shortlist.xlsx
+++ b/haawks-indicator-shortlist.xlsx
@@ -1769,8 +1769,8 @@
   </sheetPr>
   <dimension ref="A1:Z1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D87" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H95" activeCellId="0" sqref="H95"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="M47" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="Y53" activeCellId="0" sqref="Y53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -8056,7 +8056,7 @@
       <c r="D80" s="1" t="s">
         <v>421</v>
       </c>
-      <c r="G80" s="0" t="s">
+      <c r="G80" s="1" t="s">
         <v>64</v>
       </c>
       <c r="J80" s="1" t="n">
@@ -8121,7 +8121,7 @@
       <c r="D81" s="1" t="s">
         <v>421</v>
       </c>
-      <c r="G81" s="0" t="s">
+      <c r="G81" s="1" t="s">
         <v>64</v>
       </c>
       <c r="J81" s="1" t="n">
@@ -8186,7 +8186,7 @@
       <c r="D82" s="1" t="s">
         <v>421</v>
       </c>
-      <c r="G82" s="0" t="s">
+      <c r="G82" s="1" t="s">
         <v>64</v>
       </c>
       <c r="J82" s="1" t="n">
@@ -8251,7 +8251,7 @@
       <c r="D83" s="1" t="s">
         <v>447</v>
       </c>
-      <c r="G83" s="0" t="s">
+      <c r="G83" s="1" t="s">
         <v>64</v>
       </c>
       <c r="J83" s="1" t="n">
@@ -8316,7 +8316,7 @@
       <c r="D84" s="1" t="s">
         <v>454</v>
       </c>
-      <c r="G84" s="0" t="s">
+      <c r="G84" s="1" t="s">
         <v>295</v>
       </c>
       <c r="J84" s="1" t="n">
@@ -8381,7 +8381,7 @@
       <c r="D85" s="1" t="s">
         <v>454</v>
       </c>
-      <c r="G85" s="0" t="s">
+      <c r="G85" s="1" t="s">
         <v>295</v>
       </c>
       <c r="J85" s="1" t="n">
@@ -8446,7 +8446,7 @@
       <c r="D86" s="1" t="s">
         <v>454</v>
       </c>
-      <c r="G86" s="0" t="s">
+      <c r="G86" s="1" t="s">
         <v>64</v>
       </c>
       <c r="J86" s="1" t="n">
@@ -8511,7 +8511,7 @@
       <c r="D87" s="1" t="s">
         <v>454</v>
       </c>
-      <c r="G87" s="0" t="s">
+      <c r="G87" s="1" t="s">
         <v>64</v>
       </c>
       <c r="J87" s="1" t="n">
@@ -8576,7 +8576,7 @@
       <c r="D88" s="1" t="s">
         <v>454</v>
       </c>
-      <c r="G88" s="0" t="s">
+      <c r="G88" s="1" t="s">
         <v>64</v>
       </c>
       <c r="J88" s="1" t="n">
@@ -8641,7 +8641,7 @@
       <c r="D89" s="1" t="s">
         <v>454</v>
       </c>
-      <c r="G89" s="0" t="s">
+      <c r="G89" s="1" t="s">
         <v>64</v>
       </c>
       <c r="J89" s="1" t="n">
@@ -8706,7 +8706,7 @@
       <c r="D90" s="1" t="s">
         <v>454</v>
       </c>
-      <c r="G90" s="0" t="s">
+      <c r="G90" s="1" t="s">
         <v>64</v>
       </c>
       <c r="J90" s="1" t="n">
@@ -8771,7 +8771,7 @@
       <c r="D91" s="1" t="s">
         <v>454</v>
       </c>
-      <c r="G91" s="0" t="s">
+      <c r="G91" s="1" t="s">
         <v>64</v>
       </c>
       <c r="J91" s="1" t="n">
@@ -8836,7 +8836,7 @@
       <c r="D92" s="1" t="s">
         <v>454</v>
       </c>
-      <c r="G92" s="0" t="s">
+      <c r="G92" s="1" t="s">
         <v>64</v>
       </c>
       <c r="J92" s="1" t="n">
@@ -8901,7 +8901,7 @@
       <c r="D93" s="1" t="s">
         <v>490</v>
       </c>
-      <c r="G93" s="0" t="s">
+      <c r="G93" s="1" t="s">
         <v>64</v>
       </c>
       <c r="J93" s="1" t="n">
@@ -9028,7 +9028,7 @@
       <c r="D95" s="1" t="s">
         <v>507</v>
       </c>
-      <c r="G95" s="0" t="s">
+      <c r="G95" s="1" t="s">
         <v>64</v>
       </c>
       <c r="J95" s="1" t="n">

--- a/haawks-indicator-shortlist.xlsx
+++ b/haawks-indicator-shortlist.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1514" uniqueCount="514">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1447" uniqueCount="488">
   <si>
     <t xml:space="preserve">Indicator</t>
   </si>
@@ -100,142 +100,40 @@
     <t xml:space="preserve">default_symbol</t>
   </si>
   <si>
-    <t xml:space="preserve">Crude Oil Inventories WoW</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Commodity</t>
+    <t xml:space="preserve">Non-Farm Payrolls</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Economy</t>
   </si>
   <si>
     <t xml:space="preserve">USA</t>
   </si>
   <si>
-    <t xml:space="preserve">EIA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Petroleum Status Report</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Weekly</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wednesday</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10:30:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Weekly difference in million barrels</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30000;-12.634</t>
-  </si>
-  <si>
-    <t xml:space="preserve">U.S. Crude Oil Inventories</t>
+    <t xml:space="preserve">BLS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Employment Situation Summary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Monthly</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1st Friday of M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">08:30:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number in thousands</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10000;98</t>
+  </si>
+  <si>
+    <t xml:space="preserve">U.S. Nonfarm Payrolls</t>
   </si>
   <si>
     <t xml:space="preserve">USD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Energy Information Administrat...</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Energy Information Administration's (EIA) Crude Oil Inventories measures the weekly change in the number of barrels of commercial crude oil held by US firms. The level of inventories influences the price of petroleum products, which can have an impact on inflation.
-If the increase in crude inventories is more than expected, it implies weaker demand and is bearish for crude prices. The same can be said if a decline in inventories is less than expected.
-If the increase in crude is less than expected, it implies greater demand and is bullish for crude prices. The same can be said if a decline in inventories is more than expected.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bearish</t>
-  </si>
-  <si>
-    <t xml:space="preserve">USDJPY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Motor Gasoline Inventories WoW</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30001;-0.694</t>
-  </si>
-  <si>
-    <t xml:space="preserve">U.S. Gasoline Inventories</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US Energy Information Administ...</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gasoline Inventories measures the change in the number of barrels of commercial gasoline held in inventory by commercial firms during the reported week. The data influences the price of gasoline products which affects inflation.
-The data has no consistent effect, there are both inflationary and growth implications.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cushing Crude Inventories WoW</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30008;-2.062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">U.S. Cushing Crude Oil Inventories</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Change in the number of barrels of crude oil held in storage at the Cushing, Oklahoma during the past week. Storage levels at Cushing are important because it serves as the delivery point for the U.S. crude oil benchmark, West Texas Intermediate.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Natural Gas Net Change WoW</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Natural Gas Storage Report</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Thursday</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Weekly difference in bcf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30010;-43</t>
-  </si>
-  <si>
-    <t xml:space="preserve">U.S. Natural Gas Storage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Energy Information Administration (EIA) Natural Gas Storage report measures the change in the number of cubic feet of natural gas held in underground storage during the past week.
-While this is a U.S. indicator it tends to have a greater impact on the Canadian dollar, due to Canada's sizable energy sector.
-If the increase in natural gas inventories is more than expected, it implies weaker demand and is bearish for natural gas prices. The same can be said if a decline in inventories is less than expected.
-If the increase in natural gas is less than expected, it implies greater demand and is bullish for natural gas prices. The same can be said if a decline in inventories is more than expected.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Non-Farm Payrolls</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Economy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BLS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Employment Situation Summary</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Monthly</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1st Friday of M</t>
-  </si>
-  <si>
-    <t xml:space="preserve">08:30:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Number in thousands</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10000;98</t>
-  </si>
-  <si>
-    <t xml:space="preserve">U.S. Nonfarm Payrolls</t>
   </si>
   <si>
     <t xml:space="preserve">Bureau of Labor Statistics</t>
@@ -251,6 +149,9 @@
     <t xml:space="preserve">bullish</t>
   </si>
   <si>
+    <t xml:space="preserve">USDJPY</t>
+  </si>
+  <si>
     <t xml:space="preserve">Unemployment Rate</t>
   </si>
   <si>
@@ -268,6 +169,9 @@
   </si>
   <si>
     <t xml:space="preserve">%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bearish</t>
   </si>
   <si>
     <t xml:space="preserve">PPI MoM</t>
@@ -625,6 +529,9 @@
 A reading that is stronger than forecast is generally supportive (bullish) for the USD, while a weaker than forecast reading is generally negative (bearish) for the USD.</t>
   </si>
   <si>
+    <t xml:space="preserve">M</t>
+  </si>
+  <si>
     <t xml:space="preserve">Index of Consumer Sentiment</t>
   </si>
   <si>
@@ -703,6 +610,9 @@
 A higher than expected reading should be taken as positive/bullish for the USD, while a lower than expected reading should be taken as negative/bearish for the USD.</t>
   </si>
   <si>
+    <t xml:space="preserve">B</t>
+  </si>
+  <si>
     <t xml:space="preserve">Factory Orders MoM</t>
   </si>
   <si>
@@ -971,6 +881,12 @@
   </si>
   <si>
     <t xml:space="preserve">Unemployment Insurance Weekly Claims</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Weekly</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thursday</t>
   </si>
   <si>
     <t xml:space="preserve">10230;236</t>
@@ -1769,11 +1685,11 @@
   </sheetPr>
   <dimension ref="A1:Z1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="M47" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="Y53" activeCellId="0" sqref="Y53"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.68359375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="28.93"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="33.23"/>
@@ -1860,7 +1776,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
         <v>26</v>
       </c>
@@ -1874,7 +1790,7 @@
         <v>29</v>
       </c>
       <c r="E2" s="1" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>30</v>
@@ -1889,10 +1805,10 @@
         <v>33</v>
       </c>
       <c r="J2" s="1" t="n">
-        <v>30000</v>
+        <v>10000</v>
       </c>
       <c r="K2" s="1" t="n">
-        <v>44031</v>
+        <v>44011</v>
       </c>
       <c r="L2" s="1" t="s">
         <v>34</v>
@@ -1901,7 +1817,7 @@
         <v>35</v>
       </c>
       <c r="N2" s="1" t="n">
-        <v>75</v>
+        <v>227</v>
       </c>
       <c r="O2" s="1" t="s">
         <v>36</v>
@@ -1925,16 +1841,16 @@
         <v>41</v>
       </c>
       <c r="V2" s="1" t="n">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="W2" s="1" t="n">
-        <v>2</v>
+        <v>50</v>
       </c>
       <c r="X2" s="1" t="n">
-        <v>3</v>
+        <v>90</v>
       </c>
       <c r="Y2" s="1" t="n">
-        <v>5</v>
+        <v>200</v>
       </c>
       <c r="Z2" s="1" t="s">
         <v>42</v>
@@ -1954,7 +1870,7 @@
         <v>29</v>
       </c>
       <c r="E3" s="1" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>30</v>
@@ -1965,64 +1881,64 @@
       <c r="H3" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="I3" s="1" t="s">
-        <v>33</v>
+      <c r="I3" s="4" t="n">
+        <v>1.35416666666667</v>
       </c>
       <c r="J3" s="1" t="n">
-        <v>30001</v>
+        <v>10005</v>
       </c>
       <c r="K3" s="1" t="n">
-        <v>44031</v>
+        <v>44011</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="N3" s="1" t="n">
-        <v>485</v>
+        <v>300</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P3" s="1" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q3" s="1" t="s">
         <v>37</v>
       </c>
       <c r="R3" s="1" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="S3" s="3" t="s">
         <v>47</v>
       </c>
       <c r="T3" s="1" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="U3" s="1" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="V3" s="1" t="n">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="W3" s="1" t="n">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="X3" s="1" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y3" s="1" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Z3" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>27</v>
@@ -2034,75 +1950,75 @@
         <v>29</v>
       </c>
       <c r="E4" s="1" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>31</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="I4" s="4" t="n">
-        <v>6.4375</v>
+        <v>52</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>33</v>
       </c>
       <c r="J4" s="1" t="n">
-        <v>30008</v>
+        <v>10010</v>
       </c>
       <c r="K4" s="1" t="n">
-        <v>44031</v>
+        <v>44011</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="N4" s="1" t="n">
-        <v>1657</v>
+        <v>238</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="P4" s="1" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q4" s="1" t="s">
         <v>37</v>
       </c>
       <c r="R4" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="S4" s="1" t="s">
-        <v>51</v>
+        <v>56</v>
+      </c>
+      <c r="S4" s="3" t="s">
+        <v>57</v>
       </c>
       <c r="T4" s="1" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="U4" s="1" t="s">
         <v>41</v>
       </c>
       <c r="V4" s="1" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="W4" s="1" t="n">
         <v>0.2</v>
       </c>
-      <c r="W4" s="1" t="n">
-        <v>0.4</v>
-      </c>
       <c r="X4" s="1" t="n">
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
       <c r="Y4" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z4" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>27</v>
@@ -2114,37 +2030,37 @@
         <v>29</v>
       </c>
       <c r="E5" s="1" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>31</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>33</v>
+        <v>52</v>
+      </c>
+      <c r="I5" s="4" t="n">
+        <v>1.35416666666667</v>
       </c>
       <c r="J5" s="1" t="n">
-        <v>30010</v>
+        <v>10011</v>
       </c>
       <c r="K5" s="1" t="n">
-        <v>44031</v>
+        <v>44011</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="N5" s="1" t="n">
-        <v>386</v>
+        <v>734</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="P5" s="1" t="n">
         <v>1</v>
@@ -2153,28 +2069,28 @@
         <v>37</v>
       </c>
       <c r="R5" s="1" t="s">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="S5" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="T5" s="1" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="U5" s="1" t="s">
         <v>41</v>
       </c>
       <c r="V5" s="1" t="n">
-        <v>2</v>
+        <v>0.1</v>
       </c>
       <c r="W5" s="1" t="n">
-        <v>4</v>
+        <v>0.2</v>
       </c>
       <c r="X5" s="1" t="n">
-        <v>7</v>
+        <v>0.3</v>
       </c>
       <c r="Y5" s="1" t="n">
-        <v>11</v>
+        <v>0.4</v>
       </c>
       <c r="Z5" s="1" t="s">
         <v>42</v>
@@ -2182,79 +2098,79 @@
     </row>
     <row r="6" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>61</v>
+        <v>27</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>62</v>
+        <v>29</v>
       </c>
       <c r="E6" s="1" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>64</v>
+        <v>31</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>66</v>
+        <v>52</v>
+      </c>
+      <c r="I6" s="4" t="n">
+        <v>2.35416666666667</v>
       </c>
       <c r="J6" s="1" t="n">
-        <v>10000</v>
+        <v>10012</v>
       </c>
       <c r="K6" s="1" t="n">
         <v>44011</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="N6" s="1" t="n">
-        <v>227</v>
+        <v>62</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="P6" s="1" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q6" s="1" t="s">
         <v>37</v>
       </c>
       <c r="R6" s="1" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="S6" s="3" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="T6" s="1" t="s">
-        <v>72</v>
+        <v>48</v>
       </c>
       <c r="U6" s="1" t="s">
-        <v>73</v>
+        <v>41</v>
       </c>
       <c r="V6" s="1" t="n">
-        <v>25</v>
+        <v>0.1</v>
       </c>
       <c r="W6" s="1" t="n">
-        <v>50</v>
+        <v>0.2</v>
       </c>
       <c r="X6" s="1" t="n">
-        <v>90</v>
+        <v>0.3</v>
       </c>
       <c r="Y6" s="1" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="Z6" s="1" t="s">
         <v>42</v>
@@ -2262,64 +2178,64 @@
     </row>
     <row r="7" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>61</v>
+        <v>27</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>62</v>
+        <v>29</v>
       </c>
       <c r="E7" s="1" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>64</v>
+        <v>31</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="I7" s="4" t="n">
-        <v>1.35416666666667</v>
+        <v>3.35416666666667</v>
       </c>
       <c r="J7" s="1" t="n">
-        <v>10005</v>
+        <v>10013</v>
       </c>
       <c r="K7" s="1" t="n">
         <v>44011</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>75</v>
+        <v>53</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="N7" s="1" t="n">
-        <v>300</v>
+        <v>735</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="P7" s="1" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q7" s="1" t="s">
         <v>37</v>
       </c>
       <c r="R7" s="1" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="S7" s="3" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="T7" s="1" t="s">
-        <v>79</v>
+        <v>48</v>
       </c>
       <c r="U7" s="1" t="s">
         <v>41</v>
@@ -2331,7 +2247,7 @@
         <v>0.2</v>
       </c>
       <c r="X7" s="1" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="Y7" s="1" t="n">
         <v>0</v>
@@ -2342,67 +2258,67 @@
     </row>
     <row r="8" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>61</v>
+        <v>27</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>62</v>
+        <v>29</v>
       </c>
       <c r="E8" s="1" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>64</v>
+        <v>31</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>66</v>
+        <v>52</v>
+      </c>
+      <c r="I8" s="4" t="n">
+        <v>3.35416666666667</v>
       </c>
       <c r="J8" s="1" t="n">
-        <v>10010</v>
+        <v>10020</v>
       </c>
       <c r="K8" s="1" t="n">
         <v>44011</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>83</v>
+        <v>53</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="N8" s="1" t="n">
-        <v>238</v>
+        <v>153</v>
       </c>
       <c r="O8" s="1" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="P8" s="1" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q8" s="1" t="s">
         <v>37</v>
       </c>
       <c r="R8" s="1" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="S8" s="3" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="T8" s="1" t="s">
-        <v>79</v>
+        <v>48</v>
       </c>
       <c r="U8" s="1" t="s">
-        <v>73</v>
+        <v>41</v>
       </c>
       <c r="V8" s="1" t="n">
         <v>0.1</v>
@@ -2414,87 +2330,87 @@
         <v>0.3</v>
       </c>
       <c r="Y8" s="1" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="Z8" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>61</v>
+        <v>27</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>62</v>
+        <v>29</v>
       </c>
       <c r="E9" s="1" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>64</v>
+        <v>31</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>82</v>
+        <v>52</v>
       </c>
       <c r="I9" s="4" t="n">
-        <v>1.35416666666667</v>
+        <v>3.35416666666667</v>
       </c>
       <c r="J9" s="1" t="n">
-        <v>10011</v>
+        <v>10022</v>
       </c>
       <c r="K9" s="1" t="n">
         <v>44011</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>83</v>
+        <v>53</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="N9" s="1" t="n">
-        <v>734</v>
+        <v>892</v>
       </c>
       <c r="O9" s="1" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="P9" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q9" s="1" t="s">
         <v>37</v>
       </c>
       <c r="R9" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="S9" s="3" t="s">
-        <v>87</v>
+        <v>78</v>
+      </c>
+      <c r="S9" s="1" t="s">
+        <v>79</v>
       </c>
       <c r="T9" s="1" t="s">
-        <v>79</v>
+        <v>48</v>
       </c>
       <c r="U9" s="1" t="s">
-        <v>73</v>
+        <v>41</v>
       </c>
       <c r="V9" s="1" t="n">
         <v>0.1</v>
       </c>
       <c r="W9" s="1" t="n">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="X9" s="1" t="n">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="Y9" s="1" t="n">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="Z9" s="1" t="s">
         <v>42</v>
@@ -2502,67 +2418,67 @@
     </row>
     <row r="10" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>61</v>
+        <v>27</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>62</v>
+        <v>29</v>
       </c>
       <c r="E10" s="1" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>81</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>64</v>
+        <v>31</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>82</v>
+        <v>52</v>
       </c>
       <c r="I10" s="4" t="n">
-        <v>2.35416666666667</v>
+        <v>3.35416666666667</v>
       </c>
       <c r="J10" s="1" t="n">
-        <v>10012</v>
+        <v>10030</v>
       </c>
       <c r="K10" s="1" t="n">
         <v>44011</v>
       </c>
       <c r="L10" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="N10" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="O10" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="M10" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="N10" s="1" t="n">
-        <v>62</v>
-      </c>
-      <c r="O10" s="1" t="s">
-        <v>93</v>
-      </c>
       <c r="P10" s="1" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q10" s="1" t="s">
         <v>37</v>
       </c>
       <c r="R10" s="1" t="s">
-        <v>94</v>
+        <v>64</v>
       </c>
       <c r="S10" s="3" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="T10" s="1" t="s">
-        <v>79</v>
+        <v>48</v>
       </c>
       <c r="U10" s="1" t="s">
-        <v>73</v>
+        <v>41</v>
       </c>
       <c r="V10" s="1" t="n">
         <v>0.1</v>
@@ -2571,7 +2487,7 @@
         <v>0.2</v>
       </c>
       <c r="X10" s="1" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="Y10" s="1" t="n">
         <v>0</v>
@@ -2582,67 +2498,67 @@
     </row>
     <row r="11" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>61</v>
+        <v>27</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>62</v>
+        <v>29</v>
       </c>
       <c r="E11" s="1" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>81</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>64</v>
+        <v>31</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>82</v>
+        <v>52</v>
       </c>
       <c r="I11" s="4" t="n">
         <v>3.35416666666667</v>
       </c>
       <c r="J11" s="1" t="n">
-        <v>10013</v>
+        <v>10031</v>
       </c>
       <c r="K11" s="1" t="n">
         <v>44011</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>83</v>
+        <v>53</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="N11" s="1" t="n">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="O11" s="1" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="P11" s="1" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q11" s="1" t="s">
         <v>37</v>
       </c>
       <c r="R11" s="1" t="s">
-        <v>94</v>
+        <v>64</v>
       </c>
       <c r="S11" s="3" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="T11" s="1" t="s">
-        <v>79</v>
+        <v>48</v>
       </c>
       <c r="U11" s="1" t="s">
-        <v>73</v>
+        <v>41</v>
       </c>
       <c r="V11" s="1" t="n">
         <v>0.1</v>
@@ -2651,7 +2567,7 @@
         <v>0.2</v>
       </c>
       <c r="X11" s="1" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="Y11" s="1" t="n">
         <v>0</v>
@@ -2662,67 +2578,67 @@
     </row>
     <row r="12" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>61</v>
+        <v>27</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>62</v>
+        <v>29</v>
       </c>
       <c r="E12" s="1" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>64</v>
+        <v>31</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>82</v>
+        <v>52</v>
       </c>
       <c r="I12" s="4" t="n">
         <v>3.35416666666667</v>
       </c>
       <c r="J12" s="1" t="n">
-        <v>10020</v>
+        <v>10032</v>
       </c>
       <c r="K12" s="1" t="n">
         <v>44011</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>83</v>
+        <v>53</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="N12" s="1" t="n">
-        <v>153</v>
+        <v>56</v>
       </c>
       <c r="O12" s="1" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="P12" s="1" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q12" s="1" t="s">
         <v>37</v>
       </c>
       <c r="R12" s="1" t="s">
-        <v>103</v>
+        <v>64</v>
       </c>
       <c r="S12" s="3" t="s">
-        <v>104</v>
+        <v>91</v>
       </c>
       <c r="T12" s="1" t="s">
-        <v>79</v>
+        <v>48</v>
       </c>
       <c r="U12" s="1" t="s">
-        <v>73</v>
+        <v>41</v>
       </c>
       <c r="V12" s="1" t="n">
         <v>0.1</v>
@@ -2731,60 +2647,60 @@
         <v>0.2</v>
       </c>
       <c r="X12" s="1" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="Y12" s="1" t="n">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="Z12" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>105</v>
+        <v>92</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>61</v>
+        <v>27</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>62</v>
+        <v>29</v>
       </c>
       <c r="E13" s="1" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>64</v>
+        <v>31</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>82</v>
+        <v>52</v>
       </c>
       <c r="I13" s="4" t="n">
         <v>3.35416666666667</v>
       </c>
       <c r="J13" s="1" t="n">
-        <v>10022</v>
+        <v>10033</v>
       </c>
       <c r="K13" s="1" t="n">
         <v>44011</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>83</v>
+        <v>53</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>106</v>
+        <v>93</v>
       </c>
       <c r="N13" s="1" t="n">
-        <v>892</v>
+        <v>736</v>
       </c>
       <c r="O13" s="1" t="s">
-        <v>107</v>
+        <v>94</v>
       </c>
       <c r="P13" s="1" t="n">
         <v>2</v>
@@ -2793,185 +2709,179 @@
         <v>37</v>
       </c>
       <c r="R13" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="S13" s="1" t="s">
-        <v>109</v>
+        <v>64</v>
+      </c>
+      <c r="S13" s="3" t="s">
+        <v>91</v>
       </c>
       <c r="T13" s="1" t="s">
-        <v>79</v>
+        <v>48</v>
       </c>
       <c r="U13" s="1" t="s">
-        <v>73</v>
+        <v>41</v>
       </c>
       <c r="V13" s="1" t="n">
         <v>0.1</v>
       </c>
       <c r="W13" s="1" t="n">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="X13" s="1" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="Y13" s="1" t="n">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="Z13" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>61</v>
+        <v>27</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>62</v>
+        <v>29</v>
       </c>
       <c r="E14" s="1" t="n">
         <v>6</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>111</v>
+        <v>81</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>64</v>
+        <v>31</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>82</v>
+        <v>52</v>
       </c>
       <c r="I14" s="4" t="n">
         <v>3.35416666666667</v>
       </c>
       <c r="J14" s="1" t="n">
-        <v>10030</v>
+        <v>10034</v>
       </c>
       <c r="K14" s="1" t="n">
         <v>44011</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>83</v>
+        <v>53</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="N14" s="1" t="n">
-        <v>69</v>
+        <v>1549</v>
       </c>
       <c r="O14" s="1" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="P14" s="1" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q14" s="1" t="s">
         <v>37</v>
       </c>
       <c r="R14" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="S14" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="T14" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
+      </c>
+      <c r="S14" s="1" t="s">
+        <v>98</v>
       </c>
       <c r="U14" s="1" t="s">
-        <v>73</v>
+        <v>41</v>
       </c>
       <c r="V14" s="1" t="n">
+        <v>0.07</v>
+      </c>
+      <c r="W14" s="1" t="n">
         <v>0.1</v>
       </c>
-      <c r="W14" s="1" t="n">
+      <c r="X14" s="1" t="n">
         <v>0.2</v>
       </c>
-      <c r="X14" s="1" t="n">
-        <v>0</v>
-      </c>
       <c r="Y14" s="1" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="Z14" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>115</v>
+        <v>99</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>61</v>
+        <v>27</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>62</v>
+        <v>29</v>
       </c>
       <c r="E15" s="1" t="n">
         <v>6</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>111</v>
+        <v>81</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>64</v>
+        <v>31</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>82</v>
+        <v>52</v>
       </c>
       <c r="I15" s="4" t="n">
         <v>3.35416666666667</v>
       </c>
       <c r="J15" s="1" t="n">
-        <v>10031</v>
+        <v>10037</v>
       </c>
       <c r="K15" s="1" t="n">
         <v>44011</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>83</v>
+        <v>53</v>
       </c>
       <c r="M15" s="1" t="s">
-        <v>116</v>
+        <v>100</v>
       </c>
       <c r="N15" s="1" t="n">
-        <v>733</v>
+        <v>1226</v>
       </c>
       <c r="O15" s="1" t="s">
-        <v>117</v>
+        <v>101</v>
       </c>
       <c r="P15" s="1" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q15" s="1" t="s">
         <v>37</v>
       </c>
       <c r="R15" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="S15" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="T15" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
+      </c>
+      <c r="S15" s="1" t="s">
+        <v>102</v>
       </c>
       <c r="U15" s="1" t="s">
-        <v>73</v>
+        <v>41</v>
       </c>
       <c r="V15" s="1" t="n">
-        <v>0.1</v>
+        <v>0.15</v>
       </c>
       <c r="W15" s="1" t="n">
         <v>0.2</v>
       </c>
       <c r="X15" s="1" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="Y15" s="1" t="n">
         <v>0</v>
@@ -2982,67 +2892,67 @@
     </row>
     <row r="16" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>118</v>
+        <v>103</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>61</v>
+        <v>27</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>62</v>
+        <v>104</v>
       </c>
       <c r="E16" s="1" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>64</v>
+        <v>31</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="I16" s="4" t="n">
-        <v>3.35416666666667</v>
+        <v>52</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>106</v>
       </c>
       <c r="J16" s="1" t="n">
-        <v>10032</v>
+        <v>10040</v>
       </c>
       <c r="K16" s="1" t="n">
         <v>44011</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>83</v>
+        <v>53</v>
       </c>
       <c r="M16" s="1" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="N16" s="1" t="n">
-        <v>56</v>
+        <v>161</v>
       </c>
       <c r="O16" s="1" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="P16" s="1" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q16" s="1" t="s">
         <v>37</v>
       </c>
       <c r="R16" s="1" t="s">
-        <v>94</v>
+        <v>109</v>
       </c>
       <c r="S16" s="3" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="T16" s="1" t="s">
-        <v>79</v>
+        <v>48</v>
       </c>
       <c r="U16" s="1" t="s">
-        <v>73</v>
+        <v>41</v>
       </c>
       <c r="V16" s="1" t="n">
         <v>0.1</v>
@@ -3051,10 +2961,10 @@
         <v>0.2</v>
       </c>
       <c r="X16" s="1" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="Y16" s="1" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="Z16" s="1" t="s">
         <v>42</v>
@@ -3062,67 +2972,67 @@
     </row>
     <row r="17" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>61</v>
+        <v>27</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>62</v>
+        <v>104</v>
       </c>
       <c r="E17" s="1" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>64</v>
+        <v>31</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="I17" s="4" t="n">
-        <v>3.35416666666667</v>
+        <v>52</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>106</v>
       </c>
       <c r="J17" s="1" t="n">
-        <v>10033</v>
+        <v>10042</v>
       </c>
       <c r="K17" s="1" t="n">
         <v>44011</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>83</v>
+        <v>112</v>
       </c>
       <c r="M17" s="1" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="N17" s="1" t="n">
-        <v>736</v>
+        <v>31</v>
       </c>
       <c r="O17" s="1" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="P17" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q17" s="1" t="s">
         <v>37</v>
       </c>
       <c r="R17" s="1" t="s">
-        <v>94</v>
+        <v>109</v>
       </c>
       <c r="S17" s="3" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="T17" s="1" t="s">
-        <v>79</v>
+        <v>48</v>
       </c>
       <c r="U17" s="1" t="s">
-        <v>73</v>
+        <v>41</v>
       </c>
       <c r="V17" s="1" t="n">
         <v>0.1</v>
@@ -3131,60 +3041,60 @@
         <v>0.2</v>
       </c>
       <c r="X17" s="1" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="Y17" s="1" t="n">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="Z17" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>61</v>
+        <v>27</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>62</v>
+        <v>104</v>
       </c>
       <c r="E18" s="1" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>64</v>
+        <v>31</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>82</v>
+        <v>52</v>
       </c>
       <c r="I18" s="4" t="n">
-        <v>3.35416666666667</v>
+        <v>1.38541666666667</v>
       </c>
       <c r="J18" s="1" t="n">
-        <v>10034</v>
+        <v>10044</v>
       </c>
       <c r="K18" s="1" t="n">
         <v>44011</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>83</v>
+        <v>53</v>
       </c>
       <c r="M18" s="1" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="N18" s="1" t="n">
-        <v>1549</v>
+        <v>1307</v>
       </c>
       <c r="O18" s="1" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="P18" s="1" t="n">
         <v>1</v>
@@ -3193,99 +3103,105 @@
         <v>37</v>
       </c>
       <c r="R18" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="S18" s="1" t="s">
-        <v>128</v>
+        <v>119</v>
+      </c>
+      <c r="S18" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="T18" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="U18" s="1" t="s">
-        <v>73</v>
+        <v>41</v>
       </c>
       <c r="V18" s="1" t="n">
-        <v>0.07</v>
+        <v>0.1</v>
       </c>
       <c r="W18" s="1" t="n">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="X18" s="1" t="n">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="Y18" s="1" t="n">
-        <v>0.4</v>
+        <v>0.7</v>
       </c>
       <c r="Z18" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>61</v>
+        <v>27</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>62</v>
+        <v>122</v>
       </c>
       <c r="E19" s="1" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>111</v>
+        <v>123</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>64</v>
+        <v>31</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>82</v>
+        <v>124</v>
       </c>
       <c r="I19" s="4" t="n">
-        <v>3.35416666666667</v>
+        <v>1.35416666666667</v>
       </c>
       <c r="J19" s="1" t="n">
-        <v>10037</v>
+        <v>10060</v>
       </c>
       <c r="K19" s="1" t="n">
         <v>44011</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>83</v>
+        <v>53</v>
       </c>
       <c r="M19" s="1" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="N19" s="1" t="n">
-        <v>1226</v>
+        <v>375</v>
       </c>
       <c r="O19" s="1" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="P19" s="1" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q19" s="1" t="s">
         <v>37</v>
       </c>
       <c r="R19" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="S19" s="1" t="s">
-        <v>132</v>
+        <v>127</v>
+      </c>
+      <c r="S19" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="T19" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="U19" s="1" t="s">
-        <v>73</v>
+        <v>41</v>
       </c>
       <c r="V19" s="1" t="n">
-        <v>0.15</v>
+        <v>0.1</v>
       </c>
       <c r="W19" s="1" t="n">
         <v>0.2</v>
       </c>
       <c r="X19" s="1" t="n">
-        <v>0.25</v>
+        <v>0.3</v>
       </c>
       <c r="Y19" s="1" t="n">
         <v>0</v>
@@ -3296,49 +3212,49 @@
     </row>
     <row r="20" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>61</v>
+        <v>27</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="E20" s="1" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>64</v>
+        <v>31</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="I20" s="1" t="s">
-        <v>136</v>
+        <v>124</v>
+      </c>
+      <c r="I20" s="4" t="n">
+        <v>2.35416666666667</v>
       </c>
       <c r="J20" s="1" t="n">
-        <v>10040</v>
+        <v>10061</v>
       </c>
       <c r="K20" s="1" t="n">
         <v>44011</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>83</v>
+        <v>53</v>
       </c>
       <c r="M20" s="1" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="N20" s="1" t="n">
-        <v>161</v>
+        <v>343</v>
       </c>
       <c r="O20" s="1" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="P20" s="1" t="n">
         <v>2</v>
@@ -3347,16 +3263,16 @@
         <v>37</v>
       </c>
       <c r="R20" s="1" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="S20" s="3" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="T20" s="1" t="s">
-        <v>79</v>
+        <v>48</v>
       </c>
       <c r="U20" s="1" t="s">
-        <v>73</v>
+        <v>41</v>
       </c>
       <c r="V20" s="1" t="n">
         <v>0.1</v>
@@ -3368,7 +3284,7 @@
         <v>0.3</v>
       </c>
       <c r="Y20" s="1" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="Z20" s="1" t="s">
         <v>42</v>
@@ -3376,67 +3292,67 @@
     </row>
     <row r="21" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>61</v>
+        <v>27</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D21" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="E21" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="F21" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="E21" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>135</v>
-      </c>
       <c r="G21" s="1" t="s">
-        <v>64</v>
+        <v>31</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="I21" s="1" t="s">
-        <v>136</v>
+        <v>124</v>
+      </c>
+      <c r="I21" s="4" t="n">
+        <v>3.35416666666667</v>
       </c>
       <c r="J21" s="1" t="n">
-        <v>10042</v>
+        <v>10070</v>
       </c>
       <c r="K21" s="1" t="n">
         <v>44011</v>
       </c>
       <c r="L21" s="1" t="s">
-        <v>142</v>
+        <v>53</v>
       </c>
       <c r="M21" s="1" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="N21" s="1" t="n">
-        <v>31</v>
+        <v>235</v>
       </c>
       <c r="O21" s="1" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="P21" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q21" s="1" t="s">
         <v>37</v>
       </c>
       <c r="R21" s="1" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="S21" s="3" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="T21" s="1" t="s">
-        <v>79</v>
+        <v>48</v>
       </c>
       <c r="U21" s="1" t="s">
-        <v>73</v>
+        <v>41</v>
       </c>
       <c r="V21" s="1" t="n">
         <v>0.1</v>
@@ -3445,167 +3361,167 @@
         <v>0.2</v>
       </c>
       <c r="X21" s="1" t="n">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="Y21" s="1" t="n">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="Z21" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>61</v>
+        <v>27</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D22" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="E22" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="F22" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="E22" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>135</v>
-      </c>
       <c r="G22" s="1" t="s">
-        <v>64</v>
+        <v>31</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>82</v>
+        <v>124</v>
       </c>
       <c r="I22" s="4" t="n">
-        <v>1.38541666666667</v>
+        <v>4.35416666666667</v>
       </c>
       <c r="J22" s="1" t="n">
-        <v>10044</v>
+        <v>10071</v>
       </c>
       <c r="K22" s="1" t="n">
         <v>44011</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>83</v>
+        <v>53</v>
       </c>
       <c r="M22" s="1" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="N22" s="1" t="n">
-        <v>1307</v>
+        <v>61</v>
       </c>
       <c r="O22" s="1" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="P22" s="1" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q22" s="1" t="s">
         <v>37</v>
       </c>
       <c r="R22" s="1" t="s">
-        <v>149</v>
+        <v>127</v>
       </c>
       <c r="S22" s="3" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="T22" s="1" t="s">
-        <v>79</v>
+        <v>48</v>
       </c>
       <c r="U22" s="1" t="s">
-        <v>73</v>
+        <v>41</v>
       </c>
       <c r="V22" s="1" t="n">
         <v>0.1</v>
       </c>
       <c r="W22" s="1" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="X22" s="1" t="n">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="Y22" s="1" t="n">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="Z22" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>61</v>
+        <v>27</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>152</v>
+        <v>122</v>
       </c>
       <c r="E23" s="1" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>153</v>
+        <v>134</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>64</v>
+        <v>31</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>154</v>
+        <v>124</v>
       </c>
       <c r="I23" s="4" t="n">
-        <v>1.35416666666667</v>
+        <v>5.35416666666667</v>
       </c>
       <c r="J23" s="1" t="n">
-        <v>10060</v>
+        <v>10072</v>
       </c>
       <c r="K23" s="1" t="n">
         <v>44011</v>
       </c>
       <c r="L23" s="1" t="s">
-        <v>83</v>
+        <v>53</v>
       </c>
       <c r="M23" s="1" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
       <c r="N23" s="1" t="n">
-        <v>375</v>
+        <v>905</v>
       </c>
       <c r="O23" s="1" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
       <c r="P23" s="1" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q23" s="1" t="s">
         <v>37</v>
       </c>
       <c r="R23" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="S23" s="3" t="s">
-        <v>158</v>
+        <v>127</v>
+      </c>
+      <c r="S23" s="1" t="s">
+        <v>145</v>
       </c>
       <c r="T23" s="1" t="s">
-        <v>79</v>
+        <v>48</v>
       </c>
       <c r="U23" s="1" t="s">
-        <v>73</v>
+        <v>41</v>
       </c>
       <c r="V23" s="1" t="n">
         <v>0.1</v>
       </c>
       <c r="W23" s="1" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="X23" s="1" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="Y23" s="1" t="n">
         <v>0</v>
@@ -3616,67 +3532,67 @@
     </row>
     <row r="24" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
-        <v>159</v>
+        <v>146</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>61</v>
+        <v>27</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>152</v>
+        <v>122</v>
       </c>
       <c r="E24" s="1" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>153</v>
+        <v>134</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>64</v>
+        <v>31</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>154</v>
+        <v>124</v>
       </c>
       <c r="I24" s="4" t="n">
-        <v>2.35416666666667</v>
+        <v>8.35416666666667</v>
       </c>
       <c r="J24" s="1" t="n">
-        <v>10061</v>
+        <v>10075</v>
       </c>
       <c r="K24" s="1" t="n">
         <v>44011</v>
       </c>
       <c r="L24" s="1" t="s">
-        <v>83</v>
+        <v>53</v>
       </c>
       <c r="M24" s="1" t="s">
-        <v>160</v>
+        <v>147</v>
       </c>
       <c r="N24" s="1" t="n">
-        <v>343</v>
+        <v>234</v>
       </c>
       <c r="O24" s="1" t="s">
-        <v>161</v>
+        <v>148</v>
       </c>
       <c r="P24" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q24" s="1" t="s">
         <v>37</v>
       </c>
       <c r="R24" s="1" t="s">
-        <v>157</v>
+        <v>127</v>
       </c>
       <c r="S24" s="3" t="s">
-        <v>162</v>
+        <v>149</v>
       </c>
       <c r="T24" s="1" t="s">
-        <v>79</v>
+        <v>48</v>
       </c>
       <c r="U24" s="1" t="s">
-        <v>73</v>
+        <v>41</v>
       </c>
       <c r="V24" s="1" t="n">
         <v>0.1</v>
@@ -3694,69 +3610,69 @@
         <v>42</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
-        <v>163</v>
+        <v>150</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>61</v>
+        <v>27</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>152</v>
+        <v>122</v>
       </c>
       <c r="E25" s="1" t="n">
         <v>10</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>164</v>
+        <v>134</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>64</v>
+        <v>31</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>154</v>
+        <v>124</v>
       </c>
       <c r="I25" s="4" t="n">
-        <v>3.35416666666667</v>
+        <v>8.35416666666667</v>
       </c>
       <c r="J25" s="1" t="n">
-        <v>10070</v>
+        <v>10076</v>
       </c>
       <c r="K25" s="1" t="n">
         <v>44011</v>
       </c>
       <c r="L25" s="1" t="s">
-        <v>83</v>
+        <v>53</v>
       </c>
       <c r="M25" s="1" t="s">
-        <v>165</v>
+        <v>151</v>
       </c>
       <c r="N25" s="1" t="n">
-        <v>235</v>
+        <v>895</v>
       </c>
       <c r="O25" s="1" t="s">
-        <v>166</v>
+        <v>152</v>
       </c>
       <c r="P25" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q25" s="1" t="s">
         <v>37</v>
       </c>
       <c r="R25" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="S25" s="3" t="s">
-        <v>167</v>
+        <v>153</v>
+      </c>
+      <c r="S25" s="1" t="s">
+        <v>154</v>
       </c>
       <c r="T25" s="1" t="s">
-        <v>79</v>
+        <v>48</v>
       </c>
       <c r="U25" s="1" t="s">
-        <v>73</v>
+        <v>41</v>
       </c>
       <c r="V25" s="1" t="n">
         <v>0.1</v>
@@ -3765,7 +3681,7 @@
         <v>0.2</v>
       </c>
       <c r="X25" s="1" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="Y25" s="1" t="n">
         <v>0</v>
@@ -3774,51 +3690,51 @@
         <v>42</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
-        <v>168</v>
+        <v>155</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>61</v>
+        <v>27</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>152</v>
+        <v>29</v>
       </c>
       <c r="E26" s="1" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>64</v>
+        <v>31</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="I26" s="4" t="n">
-        <v>4.35416666666667</v>
+        <v>157</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>158</v>
       </c>
       <c r="J26" s="1" t="n">
-        <v>10071</v>
+        <v>10080</v>
       </c>
       <c r="K26" s="1" t="n">
         <v>44011</v>
       </c>
       <c r="L26" s="1" t="s">
-        <v>83</v>
+        <v>34</v>
       </c>
       <c r="M26" s="1" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="N26" s="1" t="n">
-        <v>61</v>
+        <v>1057</v>
       </c>
       <c r="O26" s="1" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="P26" s="1" t="n">
         <v>3</v>
@@ -3827,78 +3743,78 @@
         <v>37</v>
       </c>
       <c r="R26" s="1" t="s">
-        <v>157</v>
+        <v>38</v>
       </c>
       <c r="S26" s="3" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="T26" s="1" t="s">
-        <v>79</v>
+        <v>162</v>
       </c>
       <c r="U26" s="1" t="s">
-        <v>73</v>
+        <v>41</v>
       </c>
       <c r="V26" s="1" t="n">
-        <v>0.1</v>
+        <v>0.075</v>
       </c>
       <c r="W26" s="1" t="n">
-        <v>0</v>
+        <v>0.175</v>
       </c>
       <c r="X26" s="1" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="Y26" s="1" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="Z26" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>61</v>
+        <v>27</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>152</v>
+        <v>164</v>
       </c>
       <c r="E27" s="1" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>64</v>
+        <v>166</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="I27" s="4" t="n">
-        <v>5.35416666666667</v>
+        <v>167</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>158</v>
       </c>
       <c r="J27" s="1" t="n">
-        <v>10072</v>
+        <v>10090</v>
       </c>
       <c r="K27" s="1" t="n">
         <v>44011</v>
       </c>
       <c r="L27" s="1" t="s">
-        <v>83</v>
+        <v>168</v>
       </c>
       <c r="M27" s="1" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="N27" s="1" t="n">
-        <v>905</v>
+        <v>320</v>
       </c>
       <c r="O27" s="1" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="P27" s="1" t="n">
         <v>2</v>
@@ -3907,28 +3823,25 @@
         <v>37</v>
       </c>
       <c r="R27" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="S27" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="T27" s="1" t="s">
-        <v>79</v>
+        <v>171</v>
+      </c>
+      <c r="S27" s="3" t="s">
+        <v>172</v>
       </c>
       <c r="U27" s="1" t="s">
-        <v>73</v>
+        <v>41</v>
       </c>
       <c r="V27" s="1" t="n">
-        <v>0.1</v>
+        <v>0.4</v>
       </c>
       <c r="W27" s="1" t="n">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="X27" s="1" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="Y27" s="1" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Z27" s="1" t="s">
         <v>42</v>
@@ -3936,49 +3849,49 @@
     </row>
     <row r="28" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>61</v>
+        <v>27</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>152</v>
+        <v>164</v>
       </c>
       <c r="E28" s="1" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>64</v>
+        <v>166</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="I28" s="4" t="n">
-        <v>8.35416666666667</v>
+        <v>167</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>158</v>
       </c>
       <c r="J28" s="1" t="n">
-        <v>10075</v>
+        <v>10091</v>
       </c>
       <c r="K28" s="1" t="n">
         <v>44011</v>
       </c>
       <c r="L28" s="1" t="s">
-        <v>83</v>
+        <v>168</v>
       </c>
       <c r="M28" s="1" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="N28" s="1" t="n">
-        <v>234</v>
+        <v>389</v>
       </c>
       <c r="O28" s="1" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="P28" s="1" t="n">
         <v>1</v>
@@ -3987,16 +3900,16 @@
         <v>37</v>
       </c>
       <c r="R28" s="1" t="s">
-        <v>157</v>
+        <v>171</v>
       </c>
       <c r="S28" s="3" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="T28" s="1" t="s">
-        <v>79</v>
+        <v>48</v>
       </c>
       <c r="U28" s="1" t="s">
-        <v>73</v>
+        <v>41</v>
       </c>
       <c r="V28" s="1" t="n">
         <v>0.1</v>
@@ -4005,10 +3918,10 @@
         <v>0.2</v>
       </c>
       <c r="X28" s="1" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="Y28" s="1" t="n">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="Z28" s="1" t="s">
         <v>42</v>
@@ -4016,49 +3929,49 @@
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>61</v>
+        <v>27</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>152</v>
+        <v>164</v>
       </c>
       <c r="E29" s="1" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>64</v>
+        <v>166</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="I29" s="4" t="n">
-        <v>8.35416666666667</v>
+        <v>167</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>158</v>
       </c>
       <c r="J29" s="1" t="n">
-        <v>10076</v>
+        <v>10092</v>
       </c>
       <c r="K29" s="1" t="n">
         <v>44011</v>
       </c>
       <c r="L29" s="1" t="s">
-        <v>83</v>
+        <v>168</v>
       </c>
       <c r="M29" s="1" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="N29" s="1" t="n">
-        <v>895</v>
+        <v>901</v>
       </c>
       <c r="O29" s="1" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="P29" s="1" t="n">
         <v>1</v>
@@ -4067,108 +3980,105 @@
         <v>37</v>
       </c>
       <c r="R29" s="1" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="S29" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="T29" s="1" t="s">
-        <v>79</v>
+        <v>181</v>
       </c>
       <c r="U29" s="1" t="s">
-        <v>73</v>
+        <v>41</v>
       </c>
       <c r="V29" s="1" t="n">
-        <v>0.1</v>
+        <v>0.4</v>
       </c>
       <c r="W29" s="1" t="n">
-        <v>0.2</v>
+        <v>1.2</v>
       </c>
       <c r="X29" s="1" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Y29" s="1" t="n">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="Z29" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>61</v>
+        <v>27</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>62</v>
+        <v>122</v>
       </c>
       <c r="E30" s="1" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>64</v>
+        <v>31</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="I30" s="1" t="s">
-        <v>188</v>
+        <v>157</v>
+      </c>
+      <c r="I30" s="4" t="n">
+        <v>5.35416666666667</v>
       </c>
       <c r="J30" s="1" t="n">
-        <v>10080</v>
+        <v>10100</v>
       </c>
       <c r="K30" s="1" t="n">
         <v>44011</v>
       </c>
       <c r="L30" s="1" t="s">
-        <v>67</v>
+        <v>184</v>
       </c>
       <c r="M30" s="1" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="N30" s="1" t="n">
-        <v>1057</v>
+        <v>286</v>
       </c>
       <c r="O30" s="1" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="P30" s="1" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q30" s="1" t="s">
         <v>37</v>
       </c>
       <c r="R30" s="1" t="s">
-        <v>70</v>
+        <v>127</v>
       </c>
       <c r="S30" s="3" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="T30" s="1" t="s">
-        <v>40</v>
+        <v>188</v>
       </c>
       <c r="U30" s="1" t="s">
-        <v>73</v>
+        <v>41</v>
       </c>
       <c r="V30" s="1" t="n">
-        <v>0.075</v>
+        <v>0.3</v>
       </c>
       <c r="W30" s="1" t="n">
-        <v>0.175</v>
+        <v>0.6</v>
       </c>
       <c r="X30" s="1" t="n">
-        <v>0.3</v>
+        <v>1</v>
       </c>
       <c r="Y30" s="1" t="n">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="Z30" s="1" t="s">
         <v>42</v>
@@ -4176,49 +4086,49 @@
     </row>
     <row r="31" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>61</v>
+        <v>27</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="E31" s="1" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>195</v>
+        <v>31</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>196</v>
+        <v>157</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>188</v>
+        <v>158</v>
       </c>
       <c r="J31" s="1" t="n">
-        <v>10090</v>
+        <v>10110</v>
       </c>
       <c r="K31" s="1" t="n">
         <v>44011</v>
       </c>
       <c r="L31" s="1" t="s">
-        <v>197</v>
+        <v>53</v>
       </c>
       <c r="M31" s="1" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="N31" s="1" t="n">
-        <v>320</v>
+        <v>100</v>
       </c>
       <c r="O31" s="1" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="P31" s="1" t="n">
         <v>2</v>
@@ -4227,25 +4137,28 @@
         <v>37</v>
       </c>
       <c r="R31" s="1" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="S31" s="3" t="s">
-        <v>201</v>
+        <v>195</v>
+      </c>
+      <c r="T31" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="U31" s="1" t="s">
-        <v>73</v>
+        <v>41</v>
       </c>
       <c r="V31" s="1" t="n">
-        <v>0.4</v>
+        <v>0.1</v>
       </c>
       <c r="W31" s="1" t="n">
-        <v>0.7</v>
+        <v>0.2</v>
       </c>
       <c r="X31" s="1" t="n">
-        <v>1.2</v>
+        <v>0.3</v>
       </c>
       <c r="Y31" s="1" t="n">
-        <v>3</v>
+        <v>0.5</v>
       </c>
       <c r="Z31" s="1" t="s">
         <v>42</v>
@@ -4253,49 +4166,49 @@
     </row>
     <row r="32" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>61</v>
+        <v>27</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="E32" s="1" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>195</v>
+        <v>31</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="I32" s="1" t="s">
-        <v>188</v>
+        <v>157</v>
+      </c>
+      <c r="I32" s="4" t="n">
+        <v>1.41666666666667</v>
       </c>
       <c r="J32" s="1" t="n">
-        <v>10091</v>
+        <v>10120</v>
       </c>
       <c r="K32" s="1" t="n">
         <v>44011</v>
       </c>
       <c r="L32" s="1" t="s">
-        <v>197</v>
+        <v>53</v>
       </c>
       <c r="M32" s="1" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="N32" s="1" t="n">
-        <v>389</v>
+        <v>305</v>
       </c>
       <c r="O32" s="1" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="P32" s="1" t="n">
         <v>1</v>
@@ -4304,16 +4217,16 @@
         <v>37</v>
       </c>
       <c r="R32" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="S32" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="S32" s="3" t="s">
-        <v>205</v>
-      </c>
       <c r="T32" s="1" t="s">
-        <v>79</v>
+        <v>48</v>
       </c>
       <c r="U32" s="1" t="s">
-        <v>73</v>
+        <v>49</v>
       </c>
       <c r="V32" s="1" t="n">
         <v>0.1</v>
@@ -4322,87 +4235,90 @@
         <v>0.2</v>
       </c>
       <c r="X32" s="1" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="Y32" s="1" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="Z32" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>61</v>
+        <v>27</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="E33" s="1" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>194</v>
+        <v>202</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>195</v>
+        <v>31</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>196</v>
+        <v>52</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>188</v>
+        <v>33</v>
       </c>
       <c r="J33" s="1" t="n">
-        <v>10092</v>
+        <v>10130</v>
       </c>
       <c r="K33" s="1" t="n">
         <v>44011</v>
       </c>
       <c r="L33" s="1" t="s">
-        <v>197</v>
+        <v>53</v>
       </c>
       <c r="M33" s="1" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="N33" s="1" t="n">
-        <v>901</v>
+        <v>256</v>
       </c>
       <c r="O33" s="1" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="P33" s="1" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q33" s="1" t="s">
         <v>37</v>
       </c>
       <c r="R33" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="S33" s="1" t="s">
-        <v>210</v>
+        <v>205</v>
+      </c>
+      <c r="S33" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="T33" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="U33" s="1" t="s">
-        <v>73</v>
+        <v>41</v>
       </c>
       <c r="V33" s="1" t="n">
-        <v>0.4</v>
+        <v>0.1</v>
       </c>
       <c r="W33" s="1" t="n">
-        <v>1.2</v>
+        <v>0.3</v>
       </c>
       <c r="X33" s="1" t="n">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="Y33" s="1" t="n">
-        <v>3.5</v>
+        <v>0.9</v>
       </c>
       <c r="Z33" s="1" t="s">
         <v>42</v>
@@ -4410,79 +4326,79 @@
     </row>
     <row r="34" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>61</v>
+        <v>27</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>152</v>
+        <v>190</v>
       </c>
       <c r="E34" s="1" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>212</v>
+        <v>202</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>64</v>
+        <v>31</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="I34" s="4" t="n">
-        <v>5.35416666666667</v>
+        <v>52</v>
+      </c>
+      <c r="I34" s="1" t="s">
+        <v>33</v>
       </c>
       <c r="J34" s="1" t="n">
-        <v>10100</v>
+        <v>10132</v>
       </c>
       <c r="K34" s="1" t="n">
         <v>44011</v>
       </c>
       <c r="L34" s="1" t="s">
-        <v>213</v>
+        <v>53</v>
       </c>
       <c r="M34" s="1" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="N34" s="1" t="n">
-        <v>286</v>
+        <v>63</v>
       </c>
       <c r="O34" s="1" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="P34" s="1" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q34" s="1" t="s">
         <v>37</v>
       </c>
       <c r="R34" s="1" t="s">
-        <v>157</v>
+        <v>205</v>
       </c>
       <c r="S34" s="3" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="T34" s="1" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="U34" s="1" t="s">
-        <v>73</v>
+        <v>41</v>
       </c>
       <c r="V34" s="1" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="W34" s="1" t="n">
         <v>0.3</v>
       </c>
-      <c r="W34" s="1" t="n">
-        <v>0.6</v>
-      </c>
       <c r="X34" s="1" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="Y34" s="1" t="n">
         <v>1</v>
-      </c>
-      <c r="Y34" s="1" t="n">
-        <v>2</v>
       </c>
       <c r="Z34" s="1" t="s">
         <v>42</v>
@@ -4490,49 +4406,49 @@
     </row>
     <row r="35" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>61</v>
+        <v>27</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>218</v>
+        <v>190</v>
       </c>
       <c r="E35" s="1" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>64</v>
+        <v>31</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>187</v>
+        <v>52</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>188</v>
+        <v>158</v>
       </c>
       <c r="J35" s="1" t="n">
-        <v>10110</v>
+        <v>10140</v>
       </c>
       <c r="K35" s="1" t="n">
         <v>44011</v>
       </c>
       <c r="L35" s="1" t="s">
-        <v>83</v>
+        <v>53</v>
       </c>
       <c r="M35" s="1" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="N35" s="1" t="n">
-        <v>100</v>
+        <v>29</v>
       </c>
       <c r="O35" s="1" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="P35" s="1" t="n">
         <v>2</v>
@@ -4541,108 +4457,108 @@
         <v>37</v>
       </c>
       <c r="R35" s="1" t="s">
-        <v>222</v>
+        <v>205</v>
       </c>
       <c r="S35" s="3" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="T35" s="1" t="s">
-        <v>79</v>
+        <v>48</v>
       </c>
       <c r="U35" s="1" t="s">
-        <v>73</v>
+        <v>49</v>
       </c>
       <c r="V35" s="1" t="n">
         <v>0.1</v>
       </c>
       <c r="W35" s="1" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="X35" s="1" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="Y35" s="1" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="Z35" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>61</v>
+        <v>27</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>218</v>
+        <v>190</v>
       </c>
       <c r="E36" s="1" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>64</v>
+        <v>31</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="I36" s="4" t="n">
-        <v>1.41666666666667</v>
+        <v>52</v>
+      </c>
+      <c r="I36" s="1" t="s">
+        <v>33</v>
       </c>
       <c r="J36" s="1" t="n">
-        <v>10120</v>
+        <v>10150</v>
       </c>
       <c r="K36" s="1" t="n">
         <v>44011</v>
       </c>
       <c r="L36" s="1" t="s">
-        <v>83</v>
+        <v>53</v>
       </c>
       <c r="M36" s="1" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="N36" s="1" t="n">
-        <v>305</v>
+        <v>898</v>
       </c>
       <c r="O36" s="1" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="P36" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q36" s="1" t="s">
         <v>37</v>
       </c>
       <c r="R36" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="S36" s="3" t="s">
-        <v>228</v>
+        <v>153</v>
+      </c>
+      <c r="S36" s="1" t="s">
+        <v>220</v>
       </c>
       <c r="T36" s="1" t="s">
-        <v>79</v>
+        <v>48</v>
       </c>
       <c r="U36" s="1" t="s">
         <v>41</v>
       </c>
       <c r="V36" s="1" t="n">
-        <v>0.1</v>
+        <v>1.5</v>
       </c>
       <c r="W36" s="1" t="n">
-        <v>0.2</v>
+        <v>3</v>
       </c>
       <c r="X36" s="1" t="n">
-        <v>0.3</v>
+        <v>6</v>
       </c>
       <c r="Y36" s="1" t="n">
-        <v>0.5</v>
+        <v>8</v>
       </c>
       <c r="Z36" s="1" t="s">
         <v>42</v>
@@ -4650,159 +4566,159 @@
     </row>
     <row r="37" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>61</v>
+        <v>27</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>218</v>
+        <v>190</v>
       </c>
       <c r="E37" s="1" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>230</v>
+        <v>217</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>64</v>
+        <v>31</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>82</v>
+        <v>52</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>66</v>
+        <v>33</v>
       </c>
       <c r="J37" s="1" t="n">
-        <v>10130</v>
+        <v>10152</v>
       </c>
       <c r="K37" s="1" t="n">
         <v>44011</v>
       </c>
       <c r="L37" s="1" t="s">
-        <v>83</v>
+        <v>222</v>
       </c>
       <c r="M37" s="1" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="N37" s="1" t="n">
-        <v>256</v>
+        <v>151</v>
       </c>
       <c r="O37" s="1" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="P37" s="1" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q37" s="1" t="s">
         <v>37</v>
       </c>
       <c r="R37" s="1" t="s">
-        <v>233</v>
+        <v>205</v>
       </c>
       <c r="S37" s="3" t="s">
-        <v>234</v>
+        <v>225</v>
       </c>
       <c r="T37" s="1" t="s">
-        <v>79</v>
+        <v>162</v>
       </c>
       <c r="U37" s="1" t="s">
-        <v>73</v>
+        <v>41</v>
       </c>
       <c r="V37" s="1" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="W37" s="1" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="X37" s="1" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="Y37" s="1" t="n">
         <v>0.1</v>
-      </c>
-      <c r="W37" s="1" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="X37" s="1" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="Y37" s="1" t="n">
-        <v>0.9</v>
       </c>
       <c r="Z37" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
-        <v>235</v>
+        <v>226</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>61</v>
+        <v>27</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>218</v>
+        <v>190</v>
       </c>
       <c r="E38" s="1" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>230</v>
+        <v>217</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>64</v>
+        <v>31</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>82</v>
+        <v>52</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>66</v>
+        <v>33</v>
       </c>
       <c r="J38" s="1" t="n">
-        <v>10132</v>
+        <v>10154</v>
       </c>
       <c r="K38" s="1" t="n">
         <v>44011</v>
       </c>
       <c r="L38" s="1" t="s">
-        <v>83</v>
+        <v>53</v>
       </c>
       <c r="M38" s="1" t="s">
-        <v>236</v>
+        <v>227</v>
       </c>
       <c r="N38" s="1" t="n">
-        <v>63</v>
+        <v>885</v>
       </c>
       <c r="O38" s="1" t="s">
-        <v>237</v>
+        <v>228</v>
       </c>
       <c r="P38" s="1" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q38" s="1" t="s">
         <v>37</v>
       </c>
       <c r="R38" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="S38" s="3" t="s">
-        <v>238</v>
+        <v>153</v>
+      </c>
+      <c r="S38" s="1" t="s">
+        <v>229</v>
       </c>
       <c r="T38" s="1" t="s">
-        <v>79</v>
+        <v>48</v>
       </c>
       <c r="U38" s="1" t="s">
-        <v>73</v>
+        <v>41</v>
       </c>
       <c r="V38" s="1" t="n">
-        <v>0.2</v>
+        <v>0.8</v>
       </c>
       <c r="W38" s="1" t="n">
-        <v>0.3</v>
+        <v>2</v>
       </c>
       <c r="X38" s="1" t="n">
-        <v>0.5</v>
+        <v>4</v>
       </c>
       <c r="Y38" s="1" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="Z38" s="1" t="s">
         <v>42</v>
@@ -4810,79 +4726,79 @@
     </row>
     <row r="39" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>61</v>
+        <v>27</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>218</v>
+        <v>190</v>
       </c>
       <c r="E39" s="1" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>240</v>
+        <v>217</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>64</v>
+        <v>31</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>82</v>
+        <v>52</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>188</v>
+        <v>33</v>
       </c>
       <c r="J39" s="1" t="n">
-        <v>10140</v>
+        <v>10156</v>
       </c>
       <c r="K39" s="1" t="n">
         <v>44011</v>
       </c>
       <c r="L39" s="1" t="s">
-        <v>83</v>
+        <v>222</v>
       </c>
       <c r="M39" s="1" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="N39" s="1" t="n">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="O39" s="1" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="P39" s="1" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q39" s="1" t="s">
         <v>37</v>
       </c>
       <c r="R39" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="S39" s="3" t="s">
         <v>233</v>
       </c>
-      <c r="S39" s="3" t="s">
-        <v>243</v>
-      </c>
       <c r="T39" s="1" t="s">
-        <v>79</v>
+        <v>162</v>
       </c>
       <c r="U39" s="1" t="s">
         <v>41</v>
       </c>
       <c r="V39" s="1" t="n">
-        <v>0.1</v>
+        <v>0.015</v>
       </c>
       <c r="W39" s="1" t="n">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="X39" s="1" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="Y39" s="1" t="n">
-        <v>0</v>
+        <v>0.09</v>
       </c>
       <c r="Z39" s="1" t="s">
         <v>42</v>
@@ -4890,49 +4806,49 @@
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>61</v>
+        <v>27</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>218</v>
+        <v>190</v>
       </c>
       <c r="E40" s="1" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>64</v>
+        <v>31</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>82</v>
+        <v>124</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>66</v>
+        <v>158</v>
       </c>
       <c r="J40" s="1" t="n">
-        <v>10150</v>
+        <v>10160</v>
       </c>
       <c r="K40" s="1" t="n">
         <v>44011</v>
       </c>
       <c r="L40" s="1" t="s">
-        <v>83</v>
+        <v>53</v>
       </c>
       <c r="M40" s="1" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="N40" s="1" t="n">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="O40" s="1" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c r="P40" s="1" t="n">
         <v>2</v>
@@ -4941,28 +4857,28 @@
         <v>37</v>
       </c>
       <c r="R40" s="1" t="s">
-        <v>183</v>
+        <v>153</v>
       </c>
       <c r="S40" s="1" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="T40" s="1" t="s">
-        <v>79</v>
+        <v>48</v>
       </c>
       <c r="U40" s="1" t="s">
-        <v>73</v>
+        <v>41</v>
       </c>
       <c r="V40" s="1" t="n">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="W40" s="1" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="X40" s="1" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="Y40" s="1" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="Z40" s="1" t="s">
         <v>42</v>
@@ -4970,129 +4886,129 @@
     </row>
     <row r="41" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>61</v>
+        <v>27</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>218</v>
+        <v>190</v>
       </c>
       <c r="E41" s="1" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>64</v>
+        <v>31</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>82</v>
+        <v>124</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>66</v>
+        <v>158</v>
       </c>
       <c r="J41" s="1" t="n">
-        <v>10152</v>
+        <v>10162</v>
       </c>
       <c r="K41" s="1" t="n">
         <v>44011</v>
       </c>
       <c r="L41" s="1" t="s">
-        <v>250</v>
+        <v>34</v>
       </c>
       <c r="M41" s="1" t="s">
-        <v>251</v>
+        <v>240</v>
       </c>
       <c r="N41" s="1" t="n">
-        <v>151</v>
+        <v>222</v>
       </c>
       <c r="O41" s="1" t="s">
-        <v>252</v>
+        <v>241</v>
       </c>
       <c r="P41" s="1" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q41" s="1" t="s">
         <v>37</v>
       </c>
       <c r="R41" s="1" t="s">
-        <v>233</v>
+        <v>205</v>
       </c>
       <c r="S41" s="3" t="s">
-        <v>253</v>
+        <v>242</v>
       </c>
       <c r="T41" s="1" t="s">
         <v>40</v>
       </c>
       <c r="U41" s="1" t="s">
-        <v>73</v>
+        <v>41</v>
       </c>
       <c r="V41" s="1" t="n">
-        <v>0.025</v>
+        <v>15</v>
       </c>
       <c r="W41" s="1" t="n">
-        <v>0.05</v>
+        <v>35</v>
       </c>
       <c r="X41" s="1" t="n">
-        <v>0.06</v>
+        <v>50</v>
       </c>
       <c r="Y41" s="1" t="n">
-        <v>0.1</v>
+        <v>100</v>
       </c>
       <c r="Z41" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="s">
-        <v>254</v>
+        <v>243</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>61</v>
+        <v>27</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>218</v>
+        <v>190</v>
       </c>
       <c r="E42" s="1" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>64</v>
+        <v>31</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="I42" s="1" t="s">
-        <v>66</v>
+        <v>124</v>
+      </c>
+      <c r="I42" s="4" t="n">
+        <v>6.35416666666667</v>
       </c>
       <c r="J42" s="1" t="n">
-        <v>10154</v>
+        <v>10170</v>
       </c>
       <c r="K42" s="1" t="n">
         <v>44011</v>
       </c>
       <c r="L42" s="1" t="s">
-        <v>83</v>
+        <v>53</v>
       </c>
       <c r="M42" s="1" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
       <c r="N42" s="1" t="n">
-        <v>885</v>
+        <v>86</v>
       </c>
       <c r="O42" s="1" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
       <c r="P42" s="1" t="n">
         <v>2</v>
@@ -5101,28 +5017,28 @@
         <v>37</v>
       </c>
       <c r="R42" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="S42" s="1" t="s">
-        <v>257</v>
+        <v>205</v>
+      </c>
+      <c r="S42" s="3" t="s">
+        <v>247</v>
       </c>
       <c r="T42" s="1" t="s">
-        <v>79</v>
+        <v>48</v>
       </c>
       <c r="U42" s="1" t="s">
-        <v>73</v>
+        <v>41</v>
       </c>
       <c r="V42" s="1" t="n">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="W42" s="1" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="X42" s="1" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="Y42" s="1" t="n">
         <v>2</v>
-      </c>
-      <c r="X42" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="Y42" s="1" t="n">
-        <v>5</v>
       </c>
       <c r="Z42" s="1" t="s">
         <v>42</v>
@@ -5130,49 +5046,49 @@
     </row>
     <row r="43" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>61</v>
+        <v>27</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>218</v>
+        <v>190</v>
       </c>
       <c r="E43" s="1" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>64</v>
+        <v>31</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="I43" s="1" t="s">
-        <v>66</v>
+        <v>124</v>
+      </c>
+      <c r="I43" s="4" t="n">
+        <v>8.35416666666667</v>
       </c>
       <c r="J43" s="1" t="n">
-        <v>10156</v>
+        <v>10172</v>
       </c>
       <c r="K43" s="1" t="n">
         <v>44011</v>
       </c>
       <c r="L43" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="M43" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="N43" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="O43" s="1" t="s">
         <v>250</v>
-      </c>
-      <c r="M43" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="N43" s="1" t="n">
-        <v>25</v>
-      </c>
-      <c r="O43" s="1" t="s">
-        <v>260</v>
       </c>
       <c r="P43" s="1" t="n">
         <v>3</v>
@@ -5181,78 +5097,78 @@
         <v>37</v>
       </c>
       <c r="R43" s="1" t="s">
-        <v>233</v>
+        <v>205</v>
       </c>
       <c r="S43" s="3" t="s">
-        <v>261</v>
+        <v>251</v>
       </c>
       <c r="T43" s="1" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="U43" s="1" t="s">
-        <v>73</v>
+        <v>41</v>
       </c>
       <c r="V43" s="1" t="n">
-        <v>0.015</v>
+        <v>0.1</v>
       </c>
       <c r="W43" s="1" t="n">
-        <v>0.03</v>
+        <v>0.2</v>
       </c>
       <c r="X43" s="1" t="n">
-        <v>0.05</v>
+        <v>0.4</v>
       </c>
       <c r="Y43" s="1" t="n">
-        <v>0.09</v>
+        <v>0.7</v>
       </c>
       <c r="Z43" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="s">
-        <v>262</v>
+        <v>252</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>61</v>
+        <v>27</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>218</v>
+        <v>122</v>
       </c>
       <c r="E44" s="1" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>263</v>
+        <v>253</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>64</v>
+        <v>31</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="I44" s="1" t="s">
-        <v>188</v>
+        <v>124</v>
+      </c>
+      <c r="I44" s="4" t="n">
+        <v>8.35416666666667</v>
       </c>
       <c r="J44" s="1" t="n">
-        <v>10160</v>
+        <v>10190</v>
       </c>
       <c r="K44" s="1" t="n">
         <v>44011</v>
       </c>
       <c r="L44" s="1" t="s">
-        <v>83</v>
+        <v>184</v>
       </c>
       <c r="M44" s="1" t="s">
-        <v>264</v>
+        <v>254</v>
       </c>
       <c r="N44" s="1" t="n">
-        <v>896</v>
+        <v>1650</v>
       </c>
       <c r="O44" s="1" t="s">
-        <v>265</v>
+        <v>255</v>
       </c>
       <c r="P44" s="1" t="n">
         <v>2</v>
@@ -5261,28 +5177,28 @@
         <v>37</v>
       </c>
       <c r="R44" s="1" t="s">
-        <v>183</v>
+        <v>127</v>
       </c>
       <c r="S44" s="1" t="s">
-        <v>266</v>
+        <v>256</v>
       </c>
       <c r="T44" s="1" t="s">
-        <v>79</v>
+        <v>188</v>
       </c>
       <c r="U44" s="1" t="s">
-        <v>73</v>
+        <v>41</v>
       </c>
       <c r="V44" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="W44" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="W44" s="1" t="n">
-        <v>4</v>
-      </c>
       <c r="X44" s="1" t="n">
-        <v>7</v>
+        <v>3.5</v>
       </c>
       <c r="Y44" s="1" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="Z44" s="1" t="s">
         <v>42</v>
@@ -5290,79 +5206,79 @@
     </row>
     <row r="45" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="s">
-        <v>267</v>
+        <v>257</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>61</v>
+        <v>27</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>218</v>
+        <v>190</v>
       </c>
       <c r="E45" s="1" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>64</v>
+        <v>31</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="I45" s="1" t="s">
-        <v>188</v>
+        <v>124</v>
+      </c>
+      <c r="I45" s="4" t="n">
+        <v>8.35416666666667</v>
       </c>
       <c r="J45" s="1" t="n">
-        <v>10162</v>
+        <v>10200</v>
       </c>
       <c r="K45" s="1" t="n">
         <v>44011</v>
       </c>
       <c r="L45" s="1" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="M45" s="1" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="N45" s="1" t="n">
-        <v>222</v>
+        <v>305</v>
       </c>
       <c r="O45" s="1" t="s">
-        <v>269</v>
+        <v>199</v>
       </c>
       <c r="P45" s="1" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q45" s="1" t="s">
         <v>37</v>
       </c>
       <c r="R45" s="1" t="s">
-        <v>233</v>
+        <v>194</v>
       </c>
       <c r="S45" s="3" t="s">
-        <v>270</v>
+        <v>200</v>
       </c>
       <c r="T45" s="1" t="s">
-        <v>72</v>
+        <v>48</v>
       </c>
       <c r="U45" s="1" t="s">
-        <v>73</v>
+        <v>49</v>
       </c>
       <c r="V45" s="1" t="n">
-        <v>15</v>
+        <v>0.1</v>
       </c>
       <c r="W45" s="1" t="n">
-        <v>35</v>
+        <v>0.2</v>
       </c>
       <c r="X45" s="1" t="n">
-        <v>50</v>
+        <v>0.3</v>
       </c>
       <c r="Y45" s="1" t="n">
-        <v>100</v>
+        <v>0.5</v>
       </c>
       <c r="Z45" s="1" t="s">
         <v>42</v>
@@ -5370,79 +5286,79 @@
     </row>
     <row r="46" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="s">
-        <v>271</v>
+        <v>260</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>61</v>
+        <v>27</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>218</v>
+        <v>190</v>
       </c>
       <c r="E46" s="1" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>272</v>
+        <v>261</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>64</v>
+        <v>31</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="I46" s="4" t="n">
-        <v>6.35416666666667</v>
+        <v>1.41666666666667</v>
       </c>
       <c r="J46" s="1" t="n">
-        <v>10170</v>
+        <v>10210</v>
       </c>
       <c r="K46" s="1" t="n">
         <v>44011</v>
       </c>
       <c r="L46" s="1" t="s">
-        <v>83</v>
+        <v>53</v>
       </c>
       <c r="M46" s="1" t="s">
-        <v>273</v>
+        <v>262</v>
       </c>
       <c r="N46" s="1" t="n">
-        <v>86</v>
+        <v>45</v>
       </c>
       <c r="O46" s="1" t="s">
-        <v>274</v>
+        <v>263</v>
       </c>
       <c r="P46" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q46" s="1" t="s">
         <v>37</v>
       </c>
       <c r="R46" s="1" t="s">
-        <v>233</v>
+        <v>205</v>
       </c>
       <c r="S46" s="3" t="s">
-        <v>275</v>
+        <v>264</v>
       </c>
       <c r="T46" s="1" t="s">
-        <v>79</v>
+        <v>48</v>
       </c>
       <c r="U46" s="1" t="s">
-        <v>73</v>
+        <v>41</v>
       </c>
       <c r="V46" s="1" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="W46" s="1" t="n">
         <v>0.4</v>
       </c>
-      <c r="W46" s="1" t="n">
+      <c r="X46" s="1" t="n">
         <v>0.7</v>
       </c>
-      <c r="X46" s="1" t="n">
-        <v>1.3</v>
-      </c>
       <c r="Y46" s="1" t="n">
-        <v>2</v>
+        <v>1.2</v>
       </c>
       <c r="Z46" s="1" t="s">
         <v>42</v>
@@ -5450,67 +5366,67 @@
     </row>
     <row r="47" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="s">
-        <v>276</v>
+        <v>265</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>61</v>
+        <v>27</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>218</v>
+        <v>29</v>
       </c>
       <c r="E47" s="1" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>64</v>
+        <v>267</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>154</v>
+        <v>268</v>
       </c>
       <c r="I47" s="4" t="n">
-        <v>8.35416666666667</v>
+        <v>6.35416666666667</v>
       </c>
       <c r="J47" s="1" t="n">
-        <v>10172</v>
+        <v>10220</v>
       </c>
       <c r="K47" s="1" t="n">
         <v>44011</v>
       </c>
       <c r="L47" s="1" t="s">
-        <v>83</v>
+        <v>53</v>
       </c>
       <c r="M47" s="1" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="N47" s="1" t="n">
-        <v>59</v>
+        <v>331</v>
       </c>
       <c r="O47" s="1" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="P47" s="1" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q47" s="1" t="s">
         <v>37</v>
       </c>
       <c r="R47" s="1" t="s">
-        <v>233</v>
+        <v>38</v>
       </c>
       <c r="S47" s="3" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="T47" s="1" t="s">
-        <v>79</v>
+        <v>48</v>
       </c>
       <c r="U47" s="1" t="s">
-        <v>73</v>
+        <v>41</v>
       </c>
       <c r="V47" s="1" t="n">
         <v>0.1</v>
@@ -5519,90 +5435,90 @@
         <v>0.2</v>
       </c>
       <c r="X47" s="1" t="n">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="Y47" s="1" t="n">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="Z47" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>61</v>
+        <v>27</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>152</v>
+        <v>273</v>
       </c>
       <c r="E48" s="1" t="n">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>64</v>
+        <v>275</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="I48" s="4" t="n">
-        <v>8.35416666666667</v>
+        <v>276</v>
+      </c>
+      <c r="I48" s="1" t="s">
+        <v>33</v>
       </c>
       <c r="J48" s="1" t="n">
-        <v>10190</v>
+        <v>10230</v>
       </c>
       <c r="K48" s="1" t="n">
         <v>44011</v>
       </c>
       <c r="L48" s="1" t="s">
-        <v>213</v>
+        <v>34</v>
       </c>
       <c r="M48" s="1" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="N48" s="1" t="n">
-        <v>1650</v>
+        <v>294</v>
       </c>
       <c r="O48" s="1" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="P48" s="1" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q48" s="1" t="s">
         <v>37</v>
       </c>
       <c r="R48" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="S48" s="1" t="s">
-        <v>284</v>
+        <v>279</v>
+      </c>
+      <c r="S48" s="3" t="s">
+        <v>280</v>
       </c>
       <c r="T48" s="1" t="s">
-        <v>59</v>
+        <v>40</v>
       </c>
       <c r="U48" s="1" t="s">
-        <v>73</v>
+        <v>49</v>
       </c>
       <c r="V48" s="1" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="W48" s="1" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="X48" s="1" t="n">
-        <v>3.5</v>
+        <v>12</v>
       </c>
       <c r="Y48" s="1" t="n">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="Z48" s="1" t="s">
         <v>42</v>
@@ -5610,64 +5526,64 @@
     </row>
     <row r="49" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="E49" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H49" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="I49" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J49" s="1" t="n">
+        <v>10250</v>
+      </c>
+      <c r="K49" s="1" t="n">
+        <v>44012</v>
+      </c>
+      <c r="L49" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="M49" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="N49" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="O49" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="B49" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="E49" s="1" t="n">
-        <v>23</v>
-      </c>
-      <c r="F49" s="1" t="s">
+      <c r="P49" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q49" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="G49" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="H49" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="I49" s="4" t="n">
-        <v>8.35416666666667</v>
-      </c>
-      <c r="J49" s="1" t="n">
-        <v>10200</v>
-      </c>
-      <c r="K49" s="1" t="n">
-        <v>44011</v>
-      </c>
-      <c r="L49" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="M49" s="1" t="s">
+      <c r="R49" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="N49" s="1" t="n">
-        <v>305</v>
-      </c>
-      <c r="O49" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="P49" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q49" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="R49" s="1" t="s">
-        <v>222</v>
-      </c>
       <c r="S49" s="3" t="s">
-        <v>228</v>
+        <v>288</v>
       </c>
       <c r="T49" s="1" t="s">
-        <v>79</v>
+        <v>48</v>
       </c>
       <c r="U49" s="1" t="s">
         <v>41</v>
@@ -5682,90 +5598,90 @@
         <v>0.3</v>
       </c>
       <c r="Y49" s="1" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="Z49" s="1" t="s">
-        <v>42</v>
+        <v>289</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="1" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>61</v>
+        <v>27</v>
       </c>
       <c r="C50" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="E50" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="D50" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="E50" s="1" t="n">
-        <v>24</v>
-      </c>
       <c r="F50" s="1" t="s">
-        <v>289</v>
+        <v>81</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>64</v>
+        <v>31</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="I50" s="4" t="n">
-        <v>1.41666666666667</v>
+        <v>52</v>
+      </c>
+      <c r="I50" s="1" t="s">
+        <v>33</v>
       </c>
       <c r="J50" s="1" t="n">
-        <v>10210</v>
+        <v>10251</v>
       </c>
       <c r="K50" s="1" t="n">
-        <v>44011</v>
+        <v>44012</v>
       </c>
       <c r="L50" s="1" t="s">
-        <v>83</v>
+        <v>53</v>
       </c>
       <c r="M50" s="1" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="N50" s="1" t="n">
-        <v>45</v>
+        <v>741</v>
       </c>
       <c r="O50" s="1" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="P50" s="1" t="n">
         <v>1</v>
       </c>
       <c r="Q50" s="1" t="s">
-        <v>37</v>
+        <v>286</v>
       </c>
       <c r="R50" s="1" t="s">
-        <v>233</v>
+        <v>287</v>
       </c>
       <c r="S50" s="3" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="T50" s="1" t="s">
-        <v>79</v>
+        <v>48</v>
       </c>
       <c r="U50" s="1" t="s">
-        <v>73</v>
+        <v>41</v>
       </c>
       <c r="V50" s="1" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="W50" s="1" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="X50" s="1" t="n">
         <v>0.3</v>
       </c>
-      <c r="W50" s="1" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="X50" s="1" t="n">
-        <v>0.7</v>
-      </c>
       <c r="Y50" s="1" t="n">
-        <v>1.2</v>
+        <v>0</v>
       </c>
       <c r="Z50" s="1" t="s">
-        <v>42</v>
+        <v>289</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5773,64 +5689,64 @@
         <v>293</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>61</v>
+        <v>27</v>
       </c>
       <c r="C51" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="E51" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="D51" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="E51" s="1" t="n">
-        <v>25</v>
-      </c>
       <c r="F51" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H51" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="I51" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J51" s="1" t="n">
+        <v>10252</v>
+      </c>
+      <c r="K51" s="1" t="n">
+        <v>44012</v>
+      </c>
+      <c r="L51" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="M51" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="G51" s="1" t="s">
+      <c r="N51" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="O51" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="H51" s="1" t="s">
+      <c r="P51" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q51" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="R51" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="S51" s="3" t="s">
         <v>296</v>
       </c>
-      <c r="I51" s="4" t="n">
-        <v>6.35416666666667</v>
-      </c>
-      <c r="J51" s="1" t="n">
-        <v>10220</v>
-      </c>
-      <c r="K51" s="1" t="n">
-        <v>44011</v>
-      </c>
-      <c r="L51" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="M51" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="N51" s="1" t="n">
-        <v>331</v>
-      </c>
-      <c r="O51" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="P51" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q51" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="R51" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="S51" s="3" t="s">
-        <v>299</v>
-      </c>
       <c r="T51" s="1" t="s">
-        <v>79</v>
+        <v>48</v>
       </c>
       <c r="U51" s="1" t="s">
-        <v>73</v>
+        <v>41</v>
       </c>
       <c r="V51" s="1" t="n">
         <v>0.1</v>
@@ -5839,318 +5755,318 @@
         <v>0.2</v>
       </c>
       <c r="X51" s="1" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="Y51" s="1" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="Z51" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="52" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="1" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>61</v>
+        <v>27</v>
       </c>
       <c r="C52" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="E52" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="D52" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="E52" s="1" t="n">
-        <v>26</v>
-      </c>
       <c r="F52" s="1" t="s">
-        <v>302</v>
+        <v>81</v>
       </c>
       <c r="G52" s="1" t="s">
         <v>31</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="I52" s="1" t="s">
-        <v>66</v>
+        <v>33</v>
       </c>
       <c r="J52" s="1" t="n">
-        <v>10230</v>
+        <v>10253</v>
       </c>
       <c r="K52" s="1" t="n">
-        <v>44011</v>
+        <v>44012</v>
       </c>
       <c r="L52" s="1" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="M52" s="1" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="N52" s="1" t="n">
-        <v>294</v>
+        <v>1020</v>
       </c>
       <c r="O52" s="1" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="P52" s="1" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q52" s="1" t="s">
-        <v>37</v>
+        <v>286</v>
       </c>
       <c r="R52" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="S52" s="3" t="s">
-        <v>306</v>
+        <v>300</v>
+      </c>
+      <c r="S52" s="1" t="s">
+        <v>301</v>
       </c>
       <c r="T52" s="1" t="s">
-        <v>72</v>
+        <v>48</v>
       </c>
       <c r="U52" s="1" t="s">
         <v>41</v>
       </c>
       <c r="V52" s="1" t="n">
-        <v>3</v>
+        <v>0.1</v>
       </c>
       <c r="W52" s="1" t="n">
-        <v>7</v>
+        <v>0.2</v>
       </c>
       <c r="X52" s="1" t="n">
-        <v>12</v>
+        <v>0.3</v>
       </c>
       <c r="Y52" s="1" t="n">
-        <v>25</v>
+        <v>0.5</v>
       </c>
       <c r="Z52" s="1" t="s">
-        <v>42</v>
+        <v>289</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="1" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>61</v>
+        <v>27</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>308</v>
+        <v>282</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>309</v>
+        <v>283</v>
       </c>
       <c r="E53" s="1" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>111</v>
+        <v>303</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>64</v>
+        <v>31</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>82</v>
+        <v>52</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>66</v>
+        <v>33</v>
       </c>
       <c r="J53" s="1" t="n">
-        <v>10250</v>
+        <v>10260</v>
       </c>
       <c r="K53" s="1" t="n">
         <v>44012</v>
       </c>
       <c r="L53" s="1" t="s">
-        <v>83</v>
+        <v>53</v>
       </c>
       <c r="M53" s="1" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="N53" s="1" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="O53" s="1" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="P53" s="1" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q53" s="1" t="s">
-        <v>312</v>
+        <v>286</v>
       </c>
       <c r="R53" s="1" t="s">
-        <v>313</v>
+        <v>287</v>
       </c>
       <c r="S53" s="3" t="s">
-        <v>314</v>
+        <v>306</v>
       </c>
       <c r="T53" s="1" t="s">
-        <v>79</v>
+        <v>48</v>
       </c>
       <c r="U53" s="1" t="s">
-        <v>73</v>
+        <v>41</v>
       </c>
       <c r="V53" s="1" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="W53" s="1" t="n">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="X53" s="1" t="n">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
       <c r="Y53" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z53" s="1" t="s">
-        <v>315</v>
+        <v>289</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="1" t="s">
-        <v>316</v>
+        <v>307</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>61</v>
+        <v>27</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>308</v>
+        <v>282</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>309</v>
+        <v>283</v>
       </c>
       <c r="E54" s="1" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>111</v>
+        <v>303</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>64</v>
+        <v>31</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>82</v>
+        <v>52</v>
       </c>
       <c r="I54" s="1" t="s">
-        <v>66</v>
+        <v>33</v>
       </c>
       <c r="J54" s="1" t="n">
-        <v>10251</v>
+        <v>10261</v>
       </c>
       <c r="K54" s="1" t="n">
         <v>44012</v>
       </c>
       <c r="L54" s="1" t="s">
-        <v>83</v>
+        <v>53</v>
       </c>
       <c r="M54" s="1" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="N54" s="1" t="n">
-        <v>741</v>
+        <v>260</v>
       </c>
       <c r="O54" s="1" t="s">
-        <v>318</v>
+        <v>309</v>
       </c>
       <c r="P54" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q54" s="1" t="s">
-        <v>312</v>
+        <v>286</v>
       </c>
       <c r="R54" s="1" t="s">
-        <v>313</v>
+        <v>287</v>
       </c>
       <c r="S54" s="3" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="T54" s="1" t="s">
-        <v>79</v>
+        <v>48</v>
       </c>
       <c r="U54" s="1" t="s">
-        <v>73</v>
+        <v>41</v>
       </c>
       <c r="V54" s="1" t="n">
         <v>0.1</v>
       </c>
       <c r="W54" s="1" t="n">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="X54" s="1" t="n">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
       <c r="Y54" s="1" t="n">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="Z54" s="1" t="s">
-        <v>315</v>
+        <v>289</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="1" t="s">
-        <v>319</v>
+        <v>311</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>61</v>
+        <v>27</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>308</v>
+        <v>282</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>309</v>
+        <v>283</v>
       </c>
       <c r="E55" s="1" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>111</v>
+        <v>123</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>64</v>
+        <v>31</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>82</v>
+        <v>124</v>
       </c>
       <c r="I55" s="1" t="s">
-        <v>66</v>
+        <v>33</v>
       </c>
       <c r="J55" s="1" t="n">
-        <v>10252</v>
+        <v>10270</v>
       </c>
       <c r="K55" s="1" t="n">
         <v>44012</v>
       </c>
       <c r="L55" s="1" t="s">
-        <v>83</v>
+        <v>53</v>
       </c>
       <c r="M55" s="1" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="N55" s="1" t="n">
-        <v>57</v>
+        <v>123</v>
       </c>
       <c r="O55" s="1" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
       <c r="P55" s="1" t="n">
         <v>3</v>
       </c>
       <c r="Q55" s="1" t="s">
-        <v>312</v>
+        <v>286</v>
       </c>
       <c r="R55" s="1" t="s">
-        <v>313</v>
+        <v>287</v>
       </c>
       <c r="S55" s="3" t="s">
-        <v>322</v>
+        <v>314</v>
       </c>
       <c r="T55" s="1" t="s">
-        <v>79</v>
+        <v>48</v>
       </c>
       <c r="U55" s="1" t="s">
-        <v>73</v>
+        <v>41</v>
       </c>
       <c r="V55" s="1" t="n">
         <v>0.1</v>
@@ -6159,78 +6075,78 @@
         <v>0.2</v>
       </c>
       <c r="X55" s="1" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="Y55" s="1" t="n">
         <v>0.4</v>
       </c>
-      <c r="Y55" s="1" t="n">
-        <v>0.5</v>
-      </c>
       <c r="Z55" s="1" t="s">
-        <v>315</v>
+        <v>289</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="1" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>61</v>
+        <v>27</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>308</v>
+        <v>282</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>309</v>
+        <v>283</v>
       </c>
       <c r="E56" s="1" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>111</v>
+        <v>123</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>64</v>
+        <v>31</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>82</v>
+        <v>124</v>
       </c>
       <c r="I56" s="1" t="s">
-        <v>66</v>
+        <v>33</v>
       </c>
       <c r="J56" s="1" t="n">
-        <v>10253</v>
+        <v>10272</v>
       </c>
       <c r="K56" s="1" t="n">
         <v>44012</v>
       </c>
       <c r="L56" s="1" t="s">
-        <v>83</v>
+        <v>53</v>
       </c>
       <c r="M56" s="1" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="N56" s="1" t="n">
-        <v>1020</v>
+        <v>1758</v>
       </c>
       <c r="O56" s="1" t="s">
-        <v>325</v>
+        <v>317</v>
       </c>
       <c r="P56" s="1" t="n">
         <v>2</v>
       </c>
       <c r="Q56" s="1" t="s">
-        <v>312</v>
+        <v>286</v>
       </c>
       <c r="R56" s="1" t="s">
-        <v>326</v>
+        <v>287</v>
       </c>
       <c r="S56" s="1" t="s">
-        <v>327</v>
+        <v>318</v>
       </c>
       <c r="T56" s="1" t="s">
-        <v>79</v>
+        <v>48</v>
       </c>
       <c r="U56" s="1" t="s">
-        <v>73</v>
+        <v>41</v>
       </c>
       <c r="V56" s="1" t="n">
         <v>0.1</v>
@@ -6242,1355 +6158,1340 @@
         <v>0.3</v>
       </c>
       <c r="Y56" s="1" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="Z56" s="1" t="s">
-        <v>315</v>
+        <v>289</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="1" t="s">
-        <v>328</v>
+        <v>182</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>61</v>
+        <v>27</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>308</v>
+        <v>282</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>309</v>
+        <v>283</v>
       </c>
       <c r="E57" s="1" t="n">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>329</v>
+        <v>319</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>64</v>
+        <v>31</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>82</v>
+        <v>157</v>
       </c>
       <c r="I57" s="1" t="s">
-        <v>66</v>
+        <v>33</v>
       </c>
       <c r="J57" s="1" t="n">
-        <v>10260</v>
+        <v>10280</v>
       </c>
       <c r="K57" s="1" t="n">
         <v>44012</v>
       </c>
       <c r="L57" s="1" t="s">
-        <v>83</v>
+        <v>184</v>
       </c>
       <c r="M57" s="1" t="s">
-        <v>330</v>
+        <v>320</v>
       </c>
       <c r="N57" s="1" t="n">
-        <v>65</v>
+        <v>285</v>
       </c>
       <c r="O57" s="1" t="s">
-        <v>331</v>
+        <v>321</v>
       </c>
       <c r="P57" s="1" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q57" s="1" t="s">
-        <v>312</v>
+        <v>286</v>
       </c>
       <c r="R57" s="1" t="s">
-        <v>313</v>
+        <v>287</v>
       </c>
       <c r="S57" s="3" t="s">
-        <v>332</v>
+        <v>322</v>
       </c>
       <c r="T57" s="1" t="s">
-        <v>79</v>
+        <v>188</v>
       </c>
       <c r="U57" s="1" t="s">
-        <v>73</v>
+        <v>41</v>
       </c>
       <c r="V57" s="1" t="n">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="W57" s="1" t="n">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
       <c r="X57" s="1" t="n">
-        <v>0.6</v>
+        <v>0.9</v>
       </c>
       <c r="Y57" s="1" t="n">
-        <v>1</v>
+        <v>1.8</v>
       </c>
       <c r="Z57" s="1" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="58" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="1" t="s">
-        <v>333</v>
+        <v>323</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>61</v>
+        <v>27</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>308</v>
+        <v>282</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>309</v>
+        <v>283</v>
       </c>
       <c r="E58" s="1" t="n">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>329</v>
+        <v>319</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>64</v>
+        <v>31</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>82</v>
+        <v>157</v>
       </c>
       <c r="I58" s="1" t="s">
-        <v>66</v>
+        <v>33</v>
       </c>
       <c r="J58" s="1" t="n">
-        <v>10261</v>
+        <v>10281</v>
       </c>
       <c r="K58" s="1" t="n">
         <v>44012</v>
       </c>
       <c r="L58" s="1" t="s">
-        <v>83</v>
+        <v>184</v>
       </c>
       <c r="M58" s="1" t="s">
-        <v>334</v>
+        <v>324</v>
       </c>
       <c r="N58" s="1" t="n">
-        <v>260</v>
+        <v>1023</v>
       </c>
       <c r="O58" s="1" t="s">
-        <v>335</v>
+        <v>325</v>
       </c>
       <c r="P58" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q58" s="1" t="s">
-        <v>312</v>
+        <v>286</v>
       </c>
       <c r="R58" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="S58" s="3" t="s">
-        <v>336</v>
+        <v>326</v>
+      </c>
+      <c r="S58" s="1" t="s">
+        <v>327</v>
       </c>
       <c r="T58" s="1" t="s">
-        <v>79</v>
+        <v>188</v>
       </c>
       <c r="U58" s="1" t="s">
-        <v>73</v>
+        <v>41</v>
       </c>
       <c r="V58" s="1" t="n">
-        <v>0.1</v>
+        <v>0.6</v>
       </c>
       <c r="W58" s="1" t="n">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="X58" s="1" t="n">
-        <v>0.6</v>
+        <v>1.25</v>
       </c>
       <c r="Y58" s="1" t="n">
-        <v>0.9</v>
+        <v>2.5</v>
       </c>
       <c r="Z58" s="1" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="59" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="1" t="s">
-        <v>337</v>
+        <v>328</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>61</v>
+        <v>27</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>308</v>
+        <v>282</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>309</v>
+        <v>283</v>
       </c>
       <c r="E59" s="1" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>153</v>
+        <v>319</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>64</v>
+        <v>31</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="I59" s="1" t="s">
-        <v>66</v>
+        <v>33</v>
       </c>
       <c r="J59" s="1" t="n">
-        <v>10270</v>
+        <v>10282</v>
       </c>
       <c r="K59" s="1" t="n">
         <v>44012</v>
       </c>
       <c r="L59" s="1" t="s">
-        <v>83</v>
+        <v>184</v>
       </c>
       <c r="M59" s="1" t="s">
-        <v>338</v>
+        <v>329</v>
       </c>
       <c r="N59" s="1" t="n">
-        <v>123</v>
+        <v>1026</v>
       </c>
       <c r="O59" s="1" t="s">
-        <v>339</v>
+        <v>330</v>
       </c>
       <c r="P59" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q59" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="R59" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="S59" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="T59" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="U59" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="V59" s="1" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="W59" s="1" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="X59" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="Y59" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="Q59" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="R59" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="S59" s="3" t="s">
-        <v>340</v>
-      </c>
-      <c r="T59" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="U59" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="V59" s="1" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="W59" s="1" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="X59" s="1" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="Y59" s="1" t="n">
-        <v>0.4</v>
-      </c>
       <c r="Z59" s="1" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="1" t="s">
-        <v>341</v>
+        <v>332</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>61</v>
+        <v>27</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>308</v>
+        <v>282</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>309</v>
+        <v>283</v>
       </c>
       <c r="E60" s="1" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>153</v>
+        <v>333</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>64</v>
+        <v>31</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="I60" s="1" t="s">
-        <v>66</v>
+        <v>33</v>
       </c>
       <c r="J60" s="1" t="n">
-        <v>10272</v>
+        <v>10290</v>
       </c>
       <c r="K60" s="1" t="n">
         <v>44012</v>
       </c>
       <c r="L60" s="1" t="s">
-        <v>83</v>
+        <v>34</v>
       </c>
       <c r="M60" s="1" t="s">
-        <v>342</v>
+        <v>334</v>
       </c>
       <c r="N60" s="1" t="n">
-        <v>1758</v>
+        <v>95</v>
       </c>
       <c r="O60" s="1" t="s">
-        <v>343</v>
+        <v>335</v>
       </c>
       <c r="P60" s="1" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q60" s="1" t="s">
-        <v>312</v>
+        <v>286</v>
       </c>
       <c r="R60" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="S60" s="1" t="s">
-        <v>344</v>
+        <v>287</v>
+      </c>
+      <c r="S60" s="3" t="s">
+        <v>336</v>
       </c>
       <c r="T60" s="1" t="s">
-        <v>79</v>
+        <v>40</v>
       </c>
       <c r="U60" s="1" t="s">
-        <v>73</v>
+        <v>41</v>
       </c>
       <c r="V60" s="1" t="n">
-        <v>0.1</v>
+        <v>10</v>
       </c>
       <c r="W60" s="1" t="n">
-        <v>0.2</v>
+        <v>25</v>
       </c>
       <c r="X60" s="1" t="n">
-        <v>0.3</v>
+        <v>50</v>
       </c>
       <c r="Y60" s="1" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="Z60" s="1" t="s">
-        <v>315</v>
+        <v>289</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="1" t="s">
-        <v>211</v>
+        <v>43</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>61</v>
+        <v>27</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>308</v>
+        <v>282</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>309</v>
+        <v>283</v>
       </c>
       <c r="E61" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="G61" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="F61" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="G61" s="1" t="s">
-        <v>64</v>
-      </c>
       <c r="H61" s="1" t="s">
-        <v>187</v>
+        <v>157</v>
       </c>
       <c r="I61" s="1" t="s">
-        <v>66</v>
+        <v>33</v>
       </c>
       <c r="J61" s="1" t="n">
-        <v>10280</v>
+        <v>10291</v>
       </c>
       <c r="K61" s="1" t="n">
         <v>44012</v>
       </c>
       <c r="L61" s="1" t="s">
-        <v>213</v>
+        <v>337</v>
       </c>
       <c r="M61" s="1" t="s">
-        <v>346</v>
+        <v>338</v>
       </c>
       <c r="N61" s="1" t="n">
-        <v>285</v>
+        <v>301</v>
       </c>
       <c r="O61" s="1" t="s">
-        <v>347</v>
+        <v>339</v>
       </c>
       <c r="P61" s="1" t="n">
         <v>2</v>
       </c>
       <c r="Q61" s="1" t="s">
-        <v>312</v>
+        <v>286</v>
       </c>
       <c r="R61" s="1" t="s">
-        <v>313</v>
+        <v>287</v>
       </c>
       <c r="S61" s="3" t="s">
-        <v>348</v>
+        <v>340</v>
       </c>
       <c r="T61" s="1" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="U61" s="1" t="s">
-        <v>73</v>
+        <v>49</v>
       </c>
       <c r="V61" s="1" t="n">
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
       <c r="W61" s="1" t="n">
-        <v>0.6</v>
+        <v>0.2</v>
       </c>
       <c r="X61" s="1" t="n">
-        <v>0.9</v>
+        <v>0.3</v>
       </c>
       <c r="Y61" s="1" t="n">
-        <v>1.8</v>
+        <v>0</v>
       </c>
       <c r="Z61" s="1" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="1" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>61</v>
+        <v>27</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>308</v>
+        <v>282</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>309</v>
+        <v>283</v>
       </c>
       <c r="E62" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="G62" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="F62" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="G62" s="1" t="s">
-        <v>64</v>
-      </c>
       <c r="H62" s="1" t="s">
-        <v>187</v>
+        <v>157</v>
       </c>
       <c r="I62" s="1" t="s">
-        <v>66</v>
+        <v>33</v>
       </c>
       <c r="J62" s="1" t="n">
-        <v>10281</v>
+        <v>10294</v>
       </c>
       <c r="K62" s="1" t="n">
         <v>44012</v>
       </c>
       <c r="L62" s="1" t="s">
-        <v>213</v>
+        <v>337</v>
       </c>
       <c r="M62" s="1" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
       <c r="N62" s="1" t="n">
-        <v>1023</v>
+        <v>670</v>
       </c>
       <c r="O62" s="1" t="s">
-        <v>351</v>
+        <v>343</v>
       </c>
       <c r="P62" s="1" t="n">
         <v>1</v>
       </c>
       <c r="Q62" s="1" t="s">
-        <v>312</v>
+        <v>286</v>
       </c>
       <c r="R62" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="S62" s="1" t="s">
-        <v>353</v>
+        <v>326</v>
+      </c>
+      <c r="S62" s="3" t="s">
+        <v>344</v>
       </c>
       <c r="T62" s="1" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="U62" s="1" t="s">
-        <v>73</v>
+        <v>41</v>
       </c>
       <c r="V62" s="1" t="n">
-        <v>0.6</v>
+        <v>0.1</v>
       </c>
       <c r="W62" s="1" t="n">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="X62" s="1" t="n">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="Y62" s="1" t="n">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="Z62" s="1" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="1" t="s">
-        <v>354</v>
+        <v>226</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>61</v>
+        <v>27</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>308</v>
+        <v>282</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>309</v>
+        <v>283</v>
       </c>
       <c r="E63" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="G63" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="F63" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="G63" s="1" t="s">
-        <v>64</v>
-      </c>
       <c r="H63" s="1" t="s">
-        <v>187</v>
+        <v>157</v>
       </c>
       <c r="I63" s="1" t="s">
-        <v>66</v>
+        <v>33</v>
       </c>
       <c r="J63" s="1" t="n">
-        <v>10282</v>
+        <v>10300</v>
       </c>
       <c r="K63" s="1" t="n">
         <v>44012</v>
       </c>
       <c r="L63" s="1" t="s">
-        <v>213</v>
+        <v>53</v>
       </c>
       <c r="M63" s="1" t="s">
-        <v>355</v>
+        <v>345</v>
       </c>
       <c r="N63" s="1" t="n">
-        <v>1026</v>
+        <v>24</v>
       </c>
       <c r="O63" s="1" t="s">
-        <v>356</v>
+        <v>346</v>
       </c>
       <c r="P63" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q63" s="1" t="s">
-        <v>312</v>
+        <v>286</v>
       </c>
       <c r="R63" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="S63" s="1" t="s">
-        <v>357</v>
+        <v>287</v>
+      </c>
+      <c r="S63" s="3" t="s">
+        <v>347</v>
       </c>
       <c r="T63" s="1" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="U63" s="1" t="s">
         <v>41</v>
       </c>
       <c r="V63" s="1" t="n">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="W63" s="1" t="n">
-        <v>0.9</v>
+        <v>3</v>
       </c>
       <c r="X63" s="1" t="n">
-        <v>1.5</v>
+        <v>4.5</v>
       </c>
       <c r="Y63" s="1" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="Z63" s="1" t="s">
-        <v>315</v>
+        <v>289</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="1" t="s">
-        <v>358</v>
+        <v>348</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>61</v>
+        <v>27</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>308</v>
+        <v>282</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>309</v>
+        <v>283</v>
       </c>
       <c r="E64" s="1" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>359</v>
+        <v>349</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>64</v>
+        <v>31</v>
       </c>
       <c r="H64" s="1" t="s">
-        <v>187</v>
+        <v>52</v>
       </c>
       <c r="I64" s="1" t="s">
-        <v>66</v>
+        <v>33</v>
       </c>
       <c r="J64" s="1" t="n">
-        <v>10290</v>
+        <v>10310</v>
       </c>
       <c r="K64" s="1" t="n">
         <v>44012</v>
       </c>
       <c r="L64" s="1" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="M64" s="1" t="s">
-        <v>360</v>
+        <v>350</v>
       </c>
       <c r="N64" s="1" t="n">
-        <v>95</v>
+        <v>223</v>
       </c>
       <c r="O64" s="1" t="s">
-        <v>361</v>
+        <v>351</v>
       </c>
       <c r="P64" s="1" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q64" s="1" t="s">
-        <v>312</v>
+        <v>286</v>
       </c>
       <c r="R64" s="1" t="s">
-        <v>313</v>
+        <v>287</v>
       </c>
       <c r="S64" s="3" t="s">
-        <v>362</v>
+        <v>352</v>
       </c>
       <c r="T64" s="1" t="s">
-        <v>72</v>
+        <v>48</v>
       </c>
       <c r="U64" s="1" t="s">
-        <v>73</v>
+        <v>41</v>
       </c>
       <c r="V64" s="1" t="n">
-        <v>10</v>
+        <v>0.1</v>
       </c>
       <c r="W64" s="1" t="n">
-        <v>25</v>
+        <v>0.2</v>
       </c>
       <c r="X64" s="1" t="n">
-        <v>50</v>
+        <v>0.3</v>
       </c>
       <c r="Y64" s="1" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="Z64" s="1" t="s">
-        <v>315</v>
+        <v>289</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="1" t="s">
-        <v>74</v>
+        <v>353</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>61</v>
+        <v>27</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>308</v>
+        <v>282</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>309</v>
+        <v>283</v>
       </c>
       <c r="E65" s="1" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>64</v>
+        <v>31</v>
       </c>
       <c r="H65" s="1" t="s">
-        <v>187</v>
+        <v>52</v>
       </c>
       <c r="I65" s="1" t="s">
-        <v>66</v>
+        <v>33</v>
       </c>
       <c r="J65" s="1" t="n">
-        <v>10291</v>
+        <v>10320</v>
       </c>
       <c r="K65" s="1" t="n">
         <v>44012</v>
       </c>
       <c r="L65" s="1" t="s">
-        <v>363</v>
+        <v>53</v>
       </c>
       <c r="M65" s="1" t="s">
-        <v>364</v>
+        <v>355</v>
       </c>
       <c r="N65" s="1" t="n">
-        <v>301</v>
+        <v>207</v>
       </c>
       <c r="O65" s="1" t="s">
-        <v>365</v>
+        <v>356</v>
       </c>
       <c r="P65" s="1" t="n">
         <v>2</v>
       </c>
       <c r="Q65" s="1" t="s">
-        <v>312</v>
+        <v>286</v>
       </c>
       <c r="R65" s="1" t="s">
-        <v>313</v>
+        <v>287</v>
       </c>
       <c r="S65" s="3" t="s">
-        <v>366</v>
+        <v>357</v>
       </c>
       <c r="T65" s="1" t="s">
-        <v>79</v>
+        <v>48</v>
       </c>
       <c r="U65" s="1" t="s">
         <v>41</v>
       </c>
       <c r="V65" s="1" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="W65" s="1" t="n">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="X65" s="1" t="n">
-        <v>0.3</v>
+        <v>0.7</v>
       </c>
       <c r="Y65" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z65" s="1" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="66" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="1" t="s">
-        <v>367</v>
+        <v>358</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>61</v>
+        <v>27</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>308</v>
+        <v>282</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>309</v>
+        <v>283</v>
       </c>
       <c r="E66" s="1" t="n">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="F66" s="1" t="s">
         <v>359</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>64</v>
+        <v>31</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>187</v>
+        <v>52</v>
       </c>
       <c r="I66" s="1" t="s">
-        <v>66</v>
+        <v>33</v>
       </c>
       <c r="J66" s="1" t="n">
-        <v>10294</v>
+        <v>10330</v>
       </c>
       <c r="K66" s="1" t="n">
         <v>44012</v>
       </c>
       <c r="L66" s="1" t="s">
-        <v>363</v>
+        <v>184</v>
       </c>
       <c r="M66" s="1" t="s">
-        <v>368</v>
+        <v>360</v>
       </c>
       <c r="N66" s="1" t="n">
-        <v>670</v>
+        <v>109</v>
       </c>
       <c r="O66" s="1" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="P66" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q66" s="1" t="s">
-        <v>312</v>
+        <v>286</v>
       </c>
       <c r="R66" s="1" t="s">
-        <v>352</v>
+        <v>287</v>
       </c>
       <c r="S66" s="3" t="s">
-        <v>370</v>
+        <v>362</v>
       </c>
       <c r="T66" s="1" t="s">
-        <v>79</v>
+        <v>188</v>
       </c>
       <c r="U66" s="1" t="s">
-        <v>73</v>
+        <v>41</v>
       </c>
       <c r="V66" s="1" t="n">
-        <v>0.1</v>
+        <v>3</v>
       </c>
       <c r="W66" s="1" t="n">
-        <v>0.2</v>
+        <v>6.5</v>
       </c>
       <c r="X66" s="1" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="Y66" s="1" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="Z66" s="1" t="s">
-        <v>315</v>
+        <v>289</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="1" t="s">
-        <v>254</v>
+        <v>363</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>61</v>
+        <v>27</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>308</v>
+        <v>282</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>309</v>
+        <v>283</v>
       </c>
       <c r="E67" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="F67" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="G67" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H67" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="I67" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F67" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="G67" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="H67" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="I67" s="1" t="s">
-        <v>66</v>
-      </c>
       <c r="J67" s="1" t="n">
-        <v>10300</v>
+        <v>10340</v>
       </c>
       <c r="K67" s="1" t="n">
         <v>44012</v>
       </c>
       <c r="L67" s="1" t="s">
-        <v>83</v>
+        <v>53</v>
       </c>
       <c r="M67" s="1" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="N67" s="1" t="n">
-        <v>24</v>
+        <v>306</v>
       </c>
       <c r="O67" s="1" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="P67" s="1" t="n">
         <v>2</v>
       </c>
       <c r="Q67" s="1" t="s">
-        <v>312</v>
+        <v>286</v>
       </c>
       <c r="R67" s="1" t="s">
-        <v>313</v>
+        <v>287</v>
       </c>
       <c r="S67" s="3" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="T67" s="1" t="s">
-        <v>79</v>
+        <v>48</v>
       </c>
       <c r="U67" s="1" t="s">
-        <v>73</v>
+        <v>41</v>
       </c>
       <c r="V67" s="1" t="n">
-        <v>1</v>
+        <v>0.3</v>
       </c>
       <c r="W67" s="1" t="n">
-        <v>3</v>
+        <v>0.5</v>
       </c>
       <c r="X67" s="1" t="n">
-        <v>4.5</v>
+        <v>0.9</v>
       </c>
       <c r="Y67" s="1" t="n">
-        <v>7</v>
+        <v>1.5</v>
       </c>
       <c r="Z67" s="1" t="s">
-        <v>315</v>
+        <v>289</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="1" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>61</v>
+        <v>27</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>308</v>
+        <v>282</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>309</v>
+        <v>283</v>
       </c>
       <c r="E68" s="1" t="n">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>64</v>
+        <v>267</v>
       </c>
       <c r="H68" s="1" t="s">
-        <v>82</v>
+        <v>370</v>
       </c>
       <c r="I68" s="1" t="s">
-        <v>66</v>
+        <v>33</v>
       </c>
       <c r="J68" s="1" t="n">
-        <v>10310</v>
+        <v>10350</v>
       </c>
       <c r="K68" s="1" t="n">
         <v>44012</v>
       </c>
       <c r="L68" s="1" t="s">
-        <v>83</v>
+        <v>184</v>
       </c>
       <c r="M68" s="1" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="N68" s="1" t="n">
-        <v>223</v>
+        <v>79</v>
       </c>
       <c r="O68" s="1" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="P68" s="1" t="n">
         <v>2</v>
       </c>
       <c r="Q68" s="1" t="s">
-        <v>312</v>
+        <v>286</v>
       </c>
       <c r="R68" s="1" t="s">
-        <v>313</v>
+        <v>287</v>
       </c>
       <c r="S68" s="3" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="T68" s="1" t="s">
-        <v>79</v>
+        <v>188</v>
       </c>
       <c r="U68" s="1" t="s">
-        <v>73</v>
+        <v>41</v>
       </c>
       <c r="V68" s="1" t="n">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="W68" s="1" t="n">
-        <v>0.2</v>
+        <v>1.4</v>
       </c>
       <c r="X68" s="1" t="n">
-        <v>0.3</v>
+        <v>2</v>
       </c>
       <c r="Y68" s="1" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Z68" s="1" t="s">
-        <v>315</v>
+        <v>289</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="1" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>61</v>
+        <v>27</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>308</v>
+        <v>282</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>309</v>
+        <v>283</v>
       </c>
       <c r="E69" s="1" t="n">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>64</v>
+        <v>31</v>
       </c>
       <c r="H69" s="1" t="s">
-        <v>82</v>
+        <v>124</v>
       </c>
       <c r="I69" s="1" t="s">
-        <v>66</v>
+        <v>33</v>
       </c>
       <c r="J69" s="1" t="n">
-        <v>10320</v>
+        <v>10360</v>
       </c>
       <c r="K69" s="1" t="n">
         <v>44012</v>
       </c>
       <c r="L69" s="1" t="s">
-        <v>83</v>
+        <v>53</v>
       </c>
       <c r="M69" s="1" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="N69" s="1" t="n">
-        <v>207</v>
+        <v>172</v>
       </c>
       <c r="O69" s="1" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="P69" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q69" s="1" t="s">
-        <v>312</v>
+        <v>286</v>
       </c>
       <c r="R69" s="1" t="s">
-        <v>313</v>
+        <v>287</v>
       </c>
       <c r="S69" s="3" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="T69" s="1" t="s">
-        <v>79</v>
+        <v>48</v>
       </c>
       <c r="U69" s="1" t="s">
-        <v>73</v>
+        <v>41</v>
       </c>
       <c r="V69" s="1" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="W69" s="1" t="n">
         <v>0.2</v>
       </c>
-      <c r="W69" s="1" t="n">
+      <c r="X69" s="1" t="n">
         <v>0.5</v>
       </c>
-      <c r="X69" s="1" t="n">
+      <c r="Y69" s="1" t="n">
         <v>0.7</v>
       </c>
-      <c r="Y69" s="1" t="n">
-        <v>1</v>
-      </c>
       <c r="Z69" s="1" t="s">
-        <v>315</v>
+        <v>289</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="1" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>61</v>
+        <v>27</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>308</v>
+        <v>282</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>309</v>
+        <v>283</v>
       </c>
       <c r="E70" s="1" t="n">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>385</v>
+        <v>375</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>64</v>
+        <v>31</v>
       </c>
       <c r="H70" s="1" t="s">
-        <v>82</v>
+        <v>124</v>
       </c>
       <c r="I70" s="1" t="s">
-        <v>66</v>
+        <v>33</v>
       </c>
       <c r="J70" s="1" t="n">
-        <v>10330</v>
+        <v>10370</v>
       </c>
       <c r="K70" s="1" t="n">
         <v>44012</v>
       </c>
       <c r="L70" s="1" t="s">
-        <v>213</v>
+        <v>53</v>
       </c>
       <c r="M70" s="1" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="N70" s="1" t="n">
-        <v>109</v>
+        <v>266</v>
       </c>
       <c r="O70" s="1" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="P70" s="1" t="n">
         <v>2</v>
       </c>
       <c r="Q70" s="1" t="s">
-        <v>312</v>
+        <v>286</v>
       </c>
       <c r="R70" s="1" t="s">
-        <v>313</v>
+        <v>287</v>
       </c>
       <c r="S70" s="3" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="T70" s="1" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="U70" s="1" t="s">
-        <v>73</v>
+        <v>41</v>
       </c>
       <c r="V70" s="1" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="W70" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="X70" s="1" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="Y70" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="W70" s="1" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="X70" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="Y70" s="1" t="n">
-        <v>22</v>
-      </c>
       <c r="Z70" s="1" t="s">
-        <v>315</v>
+        <v>289</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="1" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>61</v>
+        <v>27</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>308</v>
+        <v>282</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>309</v>
+        <v>283</v>
       </c>
       <c r="E71" s="1" t="n">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>64</v>
+        <v>267</v>
       </c>
       <c r="H71" s="1" t="s">
-        <v>82</v>
+        <v>370</v>
       </c>
       <c r="I71" s="1" t="s">
-        <v>66</v>
+        <v>33</v>
       </c>
       <c r="J71" s="1" t="n">
-        <v>10340</v>
+        <v>10380</v>
       </c>
       <c r="K71" s="1" t="n">
         <v>44012</v>
       </c>
       <c r="L71" s="1" t="s">
-        <v>83</v>
+        <v>53</v>
       </c>
       <c r="M71" s="1" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="N71" s="1" t="n">
-        <v>306</v>
+        <v>189</v>
       </c>
       <c r="O71" s="1" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="P71" s="1" t="n">
         <v>2</v>
       </c>
       <c r="Q71" s="1" t="s">
-        <v>312</v>
+        <v>286</v>
       </c>
       <c r="R71" s="1" t="s">
-        <v>313</v>
+        <v>287</v>
       </c>
       <c r="S71" s="3" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="T71" s="1" t="s">
-        <v>79</v>
+        <v>48</v>
       </c>
       <c r="U71" s="1" t="s">
-        <v>73</v>
+        <v>41</v>
       </c>
       <c r="V71" s="1" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="W71" s="1" t="n">
         <v>0.3</v>
       </c>
-      <c r="W71" s="1" t="n">
-        <v>0.5</v>
-      </c>
       <c r="X71" s="1" t="n">
-        <v>0.9</v>
+        <v>0.6</v>
       </c>
       <c r="Y71" s="1" t="n">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="Z71" s="1" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="72" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="1" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>61</v>
+        <v>27</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>308</v>
+        <v>282</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>309</v>
+        <v>283</v>
       </c>
       <c r="E72" s="1" t="n">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>295</v>
+        <v>267</v>
       </c>
       <c r="H72" s="1" t="s">
-        <v>396</v>
+        <v>370</v>
       </c>
       <c r="I72" s="1" t="s">
-        <v>66</v>
+        <v>33</v>
       </c>
       <c r="J72" s="1" t="n">
-        <v>10350</v>
+        <v>10390</v>
       </c>
       <c r="K72" s="1" t="n">
         <v>44012</v>
       </c>
       <c r="L72" s="1" t="s">
-        <v>213</v>
+        <v>53</v>
       </c>
       <c r="M72" s="1" t="s">
-        <v>397</v>
+        <v>390</v>
       </c>
       <c r="N72" s="1" t="n">
-        <v>79</v>
+        <v>1025</v>
       </c>
       <c r="O72" s="1" t="s">
-        <v>398</v>
+        <v>391</v>
       </c>
       <c r="P72" s="1" t="n">
         <v>2</v>
       </c>
       <c r="Q72" s="1" t="s">
-        <v>312</v>
+        <v>286</v>
       </c>
       <c r="R72" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="S72" s="3" t="s">
-        <v>399</v>
+        <v>326</v>
+      </c>
+      <c r="S72" s="1" t="s">
+        <v>392</v>
       </c>
       <c r="T72" s="1" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="U72" s="1" t="s">
-        <v>73</v>
+        <v>41</v>
       </c>
       <c r="V72" s="1" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="W72" s="1" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="X72" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="W72" s="1" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="X72" s="1" t="n">
+      <c r="Y72" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="Y72" s="1" t="n">
-        <v>4</v>
-      </c>
       <c r="Z72" s="1" t="s">
-        <v>315</v>
+        <v>289</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="G73" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="J73" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="K73" s="1" t="n">
+        <v>44008</v>
+      </c>
+      <c r="M73" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="N73" s="1" t="n">
+        <v>443</v>
+      </c>
+      <c r="O73" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="P73" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q73" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="R73" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="S73" s="3" t="s">
         <v>400</v>
       </c>
-      <c r="B73" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C73" s="1" t="s">
-        <v>308</v>
-      </c>
-      <c r="D73" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="E73" s="1" t="n">
-        <v>39</v>
-      </c>
-      <c r="F73" s="1" t="s">
-        <v>401</v>
-      </c>
-      <c r="G73" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="H73" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="I73" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="J73" s="1" t="n">
-        <v>10360</v>
-      </c>
-      <c r="K73" s="1" t="n">
-        <v>44012</v>
-      </c>
-      <c r="L73" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="M73" s="1" t="s">
-        <v>402</v>
-      </c>
-      <c r="N73" s="1" t="n">
-        <v>172</v>
-      </c>
-      <c r="O73" s="1" t="s">
-        <v>403</v>
-      </c>
-      <c r="P73" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q73" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="R73" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="S73" s="3" t="s">
-        <v>404</v>
-      </c>
       <c r="T73" s="1" t="s">
-        <v>79</v>
+        <v>48</v>
       </c>
       <c r="U73" s="1" t="s">
-        <v>73</v>
+        <v>41</v>
       </c>
       <c r="V73" s="1" t="n">
         <v>0.1</v>
@@ -7599,303 +7500,258 @@
         <v>0.2</v>
       </c>
       <c r="X73" s="1" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="Y73" s="1" t="n">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="Z73" s="1" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="74" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="G74" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="J74" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="K74" s="1" t="n">
+        <v>44008</v>
+      </c>
+      <c r="M74" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="N74" s="1" t="n">
+        <v>1257</v>
+      </c>
+      <c r="O74" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="P74" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q74" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="R74" s="1" t="s">
         <v>405</v>
       </c>
-      <c r="B74" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C74" s="1" t="s">
-        <v>308</v>
-      </c>
-      <c r="D74" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="E74" s="1" t="n">
-        <v>40</v>
-      </c>
-      <c r="F74" s="1" t="s">
+      <c r="S74" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="T74" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="U74" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="V74" s="1" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="W74" s="1" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="X74" s="1" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="Y74" s="1" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="Z74" s="1" t="s">
         <v>401</v>
       </c>
-      <c r="G74" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="H74" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="I74" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="J74" s="1" t="n">
-        <v>10370</v>
-      </c>
-      <c r="K74" s="1" t="n">
-        <v>44012</v>
-      </c>
-      <c r="L74" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="M74" s="1" t="s">
-        <v>406</v>
-      </c>
-      <c r="N74" s="1" t="n">
-        <v>266</v>
-      </c>
-      <c r="O74" s="1" t="s">
+    </row>
+    <row r="75" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="1" t="s">
         <v>407</v>
       </c>
-      <c r="P74" s="1" t="n">
+      <c r="B75" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="G75" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J75" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="K75" s="1" t="n">
+        <v>44008</v>
+      </c>
+      <c r="M75" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="N75" s="1" t="n">
+        <v>640</v>
+      </c>
+      <c r="O75" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="P75" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q75" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="R75" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="S75" s="3" t="s">
+        <v>409</v>
+      </c>
+      <c r="T75" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="U75" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="V75" s="1" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="W75" s="1" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="X75" s="1" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="Y75" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="Q74" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="R74" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="S74" s="3" t="s">
-        <v>408</v>
-      </c>
-      <c r="T74" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="U74" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="V74" s="1" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="W74" s="1" t="n">
+      <c r="Z75" s="1" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="G76" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J76" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="K76" s="1" t="n">
+        <v>44008</v>
+      </c>
+      <c r="M76" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="N76" s="1" t="n">
+        <v>638</v>
+      </c>
+      <c r="O76" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="P76" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="X74" s="1" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="Y74" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="Z74" s="1" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="75" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="1" t="s">
-        <v>409</v>
-      </c>
-      <c r="B75" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C75" s="1" t="s">
-        <v>308</v>
-      </c>
-      <c r="D75" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="E75" s="1" t="n">
+      <c r="Q76" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="R76" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="S76" s="3" t="s">
+        <v>412</v>
+      </c>
+      <c r="T76" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="U76" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="V76" s="1" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="W76" s="1" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="X76" s="1" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="Y76" s="1" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="Z76" s="1" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="G77" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J77" s="1" t="n">
         <v>41</v>
-      </c>
-      <c r="F75" s="1" t="s">
-        <v>410</v>
-      </c>
-      <c r="G75" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="H75" s="1" t="s">
-        <v>396</v>
-      </c>
-      <c r="I75" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="J75" s="1" t="n">
-        <v>10380</v>
-      </c>
-      <c r="K75" s="1" t="n">
-        <v>44012</v>
-      </c>
-      <c r="L75" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="M75" s="1" t="s">
-        <v>411</v>
-      </c>
-      <c r="N75" s="1" t="n">
-        <v>189</v>
-      </c>
-      <c r="O75" s="1" t="s">
-        <v>412</v>
-      </c>
-      <c r="P75" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q75" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="R75" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="S75" s="3" t="s">
-        <v>413</v>
-      </c>
-      <c r="T75" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="U75" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="V75" s="1" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="W75" s="1" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="X75" s="1" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="Y75" s="1" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="Z75" s="1" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="1" t="s">
-        <v>414</v>
-      </c>
-      <c r="B76" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C76" s="1" t="s">
-        <v>308</v>
-      </c>
-      <c r="D76" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="E76" s="1" t="n">
-        <v>42</v>
-      </c>
-      <c r="F76" s="1" t="s">
-        <v>415</v>
-      </c>
-      <c r="G76" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="H76" s="1" t="s">
-        <v>396</v>
-      </c>
-      <c r="I76" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="J76" s="1" t="n">
-        <v>10390</v>
-      </c>
-      <c r="K76" s="1" t="n">
-        <v>44012</v>
-      </c>
-      <c r="L76" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="M76" s="1" t="s">
-        <v>416</v>
-      </c>
-      <c r="N76" s="1" t="n">
-        <v>1025</v>
-      </c>
-      <c r="O76" s="1" t="s">
-        <v>417</v>
-      </c>
-      <c r="P76" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q76" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="R76" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="S76" s="1" t="s">
-        <v>418</v>
-      </c>
-      <c r="T76" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="U76" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="V76" s="1" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="W76" s="1" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="X76" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y76" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="Z76" s="1" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="77" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="1" t="s">
-        <v>419</v>
-      </c>
-      <c r="B77" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C77" s="1" t="s">
-        <v>420</v>
-      </c>
-      <c r="D77" s="1" t="s">
-        <v>421</v>
-      </c>
-      <c r="G77" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="J77" s="1" t="n">
-        <v>91</v>
       </c>
       <c r="K77" s="1" t="n">
         <v>44008</v>
       </c>
       <c r="M77" s="1" t="s">
-        <v>422</v>
+        <v>414</v>
       </c>
       <c r="N77" s="1" t="n">
-        <v>443</v>
+        <v>637</v>
       </c>
       <c r="O77" s="1" t="s">
-        <v>423</v>
+        <v>415</v>
       </c>
       <c r="P77" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q77" s="1" t="s">
-        <v>424</v>
+        <v>398</v>
       </c>
       <c r="R77" s="1" t="s">
-        <v>425</v>
+        <v>405</v>
       </c>
       <c r="S77" s="3" t="s">
-        <v>426</v>
+        <v>416</v>
       </c>
       <c r="T77" s="1" t="s">
-        <v>79</v>
+        <v>48</v>
       </c>
       <c r="U77" s="1" t="s">
-        <v>73</v>
+        <v>41</v>
       </c>
       <c r="V77" s="1" t="n">
         <v>0.1</v>
@@ -7904,63 +7760,63 @@
         <v>0.2</v>
       </c>
       <c r="X77" s="1" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="Y77" s="1" t="n">
         <v>0.4</v>
       </c>
-      <c r="Y77" s="1" t="n">
-        <v>0.8</v>
-      </c>
       <c r="Z77" s="1" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="1" t="s">
-        <v>428</v>
+        <v>417</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>61</v>
+        <v>27</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>420</v>
+        <v>394</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>421</v>
+        <v>395</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>295</v>
+        <v>31</v>
       </c>
       <c r="J78" s="1" t="n">
-        <v>92</v>
+        <v>42</v>
       </c>
       <c r="K78" s="1" t="n">
         <v>44008</v>
       </c>
       <c r="M78" s="1" t="s">
-        <v>429</v>
+        <v>418</v>
       </c>
       <c r="N78" s="1" t="n">
-        <v>1257</v>
+        <v>1179</v>
       </c>
       <c r="O78" s="1" t="s">
-        <v>430</v>
+        <v>419</v>
       </c>
       <c r="P78" s="1" t="n">
         <v>1</v>
       </c>
       <c r="Q78" s="1" t="s">
-        <v>424</v>
+        <v>398</v>
       </c>
       <c r="R78" s="1" t="s">
-        <v>431</v>
-      </c>
-      <c r="S78" s="1" t="s">
-        <v>432</v>
+        <v>405</v>
+      </c>
+      <c r="S78" s="3" t="s">
+        <v>416</v>
       </c>
       <c r="T78" s="1" t="s">
-        <v>79</v>
+        <v>48</v>
       </c>
       <c r="U78" s="1" t="s">
-        <v>73</v>
+        <v>41</v>
       </c>
       <c r="V78" s="1" t="n">
         <v>0.1</v>
@@ -7972,122 +7828,122 @@
         <v>0.3</v>
       </c>
       <c r="Y78" s="1" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="Z78" s="1" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="79" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="1" t="s">
-        <v>433</v>
+        <v>420</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>61</v>
+        <v>27</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>420</v>
+        <v>394</v>
       </c>
       <c r="D79" s="1" t="s">
         <v>421</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>64</v>
+        <v>31</v>
       </c>
       <c r="J79" s="1" t="n">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="K79" s="1" t="n">
         <v>44008</v>
       </c>
       <c r="M79" s="1" t="s">
-        <v>434</v>
+        <v>422</v>
       </c>
       <c r="N79" s="1" t="n">
-        <v>640</v>
+        <v>444</v>
       </c>
       <c r="O79" s="1" t="s">
-        <v>433</v>
+        <v>423</v>
       </c>
       <c r="P79" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q79" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="R79" s="1" t="s">
         <v>424</v>
       </c>
-      <c r="R79" s="1" t="s">
-        <v>431</v>
-      </c>
       <c r="S79" s="3" t="s">
-        <v>435</v>
+        <v>425</v>
       </c>
       <c r="T79" s="1" t="s">
-        <v>79</v>
+        <v>48</v>
       </c>
       <c r="U79" s="1" t="s">
-        <v>73</v>
+        <v>41</v>
       </c>
       <c r="V79" s="1" t="n">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="W79" s="1" t="n">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="X79" s="1" t="n">
-        <v>1.3</v>
+        <v>0</v>
       </c>
       <c r="Y79" s="1" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Z79" s="1" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C80" s="1" t="s">
         <v>427</v>
       </c>
-    </row>
-    <row r="80" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="1" t="s">
-        <v>436</v>
-      </c>
-      <c r="B80" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C80" s="1" t="s">
-        <v>420</v>
-      </c>
       <c r="D80" s="1" t="s">
-        <v>421</v>
+        <v>428</v>
       </c>
       <c r="G80" s="1" t="s">
-        <v>64</v>
+        <v>267</v>
       </c>
       <c r="J80" s="1" t="n">
-        <v>49</v>
+        <v>71</v>
       </c>
       <c r="K80" s="1" t="n">
         <v>44008</v>
       </c>
       <c r="M80" s="1" t="s">
-        <v>437</v>
+        <v>429</v>
       </c>
       <c r="N80" s="1" t="n">
-        <v>638</v>
+        <v>426</v>
       </c>
       <c r="O80" s="1" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="P80" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q80" s="1" t="s">
-        <v>424</v>
+        <v>431</v>
       </c>
       <c r="R80" s="1" t="s">
-        <v>431</v>
-      </c>
-      <c r="S80" s="3" t="s">
-        <v>438</v>
+        <v>432</v>
+      </c>
+      <c r="S80" s="1" t="s">
+        <v>433</v>
       </c>
       <c r="T80" s="1" t="s">
-        <v>79</v>
+        <v>48</v>
       </c>
       <c r="U80" s="1" t="s">
         <v>41</v>
@@ -8096,518 +7952,518 @@
         <v>0.1</v>
       </c>
       <c r="W80" s="1" t="n">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="X80" s="1" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="Y80" s="1" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="Z80" s="1" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C81" s="1" t="s">
         <v>427</v>
       </c>
-    </row>
-    <row r="81" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="1" t="s">
-        <v>439</v>
-      </c>
-      <c r="B81" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C81" s="1" t="s">
-        <v>420</v>
-      </c>
       <c r="D81" s="1" t="s">
-        <v>421</v>
+        <v>428</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>64</v>
+        <v>267</v>
       </c>
       <c r="J81" s="1" t="n">
-        <v>41</v>
+        <v>72</v>
       </c>
       <c r="K81" s="1" t="n">
         <v>44008</v>
       </c>
       <c r="M81" s="1" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="N81" s="1" t="n">
-        <v>637</v>
+        <v>1186</v>
       </c>
       <c r="O81" s="1" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="P81" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q81" s="1" t="s">
-        <v>424</v>
+        <v>431</v>
       </c>
       <c r="R81" s="1" t="s">
-        <v>431</v>
-      </c>
-      <c r="S81" s="3" t="s">
-        <v>442</v>
+        <v>432</v>
+      </c>
+      <c r="S81" s="1" t="s">
+        <v>438</v>
       </c>
       <c r="T81" s="1" t="s">
-        <v>79</v>
+        <v>48</v>
       </c>
       <c r="U81" s="1" t="s">
-        <v>73</v>
+        <v>41</v>
       </c>
       <c r="V81" s="1" t="n">
         <v>0.1</v>
       </c>
       <c r="W81" s="1" t="n">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="X81" s="1" t="n">
-        <v>0.3</v>
+        <v>0.7</v>
       </c>
       <c r="Y81" s="1" t="n">
-        <v>0.4</v>
+        <v>1.1</v>
       </c>
       <c r="Z81" s="1" t="s">
-        <v>427</v>
+        <v>434</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="1" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>61</v>
+        <v>27</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>420</v>
+        <v>427</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>421</v>
+        <v>428</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>64</v>
+        <v>31</v>
       </c>
       <c r="J82" s="1" t="n">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="K82" s="1" t="n">
         <v>44008</v>
       </c>
       <c r="M82" s="1" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="N82" s="1" t="n">
-        <v>1179</v>
+        <v>626</v>
       </c>
       <c r="O82" s="1" t="s">
-        <v>445</v>
+        <v>439</v>
       </c>
       <c r="P82" s="1" t="n">
         <v>1</v>
       </c>
       <c r="Q82" s="1" t="s">
-        <v>424</v>
+        <v>431</v>
       </c>
       <c r="R82" s="1" t="s">
-        <v>431</v>
+        <v>441</v>
       </c>
       <c r="S82" s="3" t="s">
         <v>442</v>
       </c>
       <c r="T82" s="1" t="s">
-        <v>79</v>
+        <v>48</v>
       </c>
       <c r="U82" s="1" t="s">
-        <v>73</v>
+        <v>41</v>
       </c>
       <c r="V82" s="1" t="n">
         <v>0.1</v>
       </c>
       <c r="W82" s="1" t="n">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="X82" s="1" t="n">
-        <v>0.3</v>
+        <v>0.8</v>
       </c>
       <c r="Y82" s="1" t="n">
-        <v>0.5</v>
+        <v>1.6</v>
       </c>
       <c r="Z82" s="1" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C83" s="1" t="s">
         <v>427</v>
       </c>
-    </row>
-    <row r="83" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="1" t="s">
-        <v>446</v>
-      </c>
-      <c r="B83" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C83" s="1" t="s">
-        <v>420</v>
-      </c>
       <c r="D83" s="1" t="s">
-        <v>447</v>
+        <v>428</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>64</v>
+        <v>31</v>
       </c>
       <c r="J83" s="1" t="n">
-        <v>17</v>
+        <v>58</v>
       </c>
       <c r="K83" s="1" t="n">
         <v>44008</v>
       </c>
       <c r="M83" s="1" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="N83" s="1" t="n">
-        <v>444</v>
+        <v>1189</v>
       </c>
       <c r="O83" s="1" t="s">
-        <v>449</v>
+        <v>443</v>
       </c>
       <c r="P83" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q83" s="1" t="s">
-        <v>424</v>
+        <v>431</v>
       </c>
       <c r="R83" s="1" t="s">
-        <v>450</v>
+        <v>441</v>
       </c>
       <c r="S83" s="3" t="s">
-        <v>451</v>
+        <v>442</v>
       </c>
       <c r="T83" s="1" t="s">
-        <v>79</v>
+        <v>48</v>
       </c>
       <c r="U83" s="1" t="s">
-        <v>73</v>
+        <v>41</v>
       </c>
       <c r="V83" s="1" t="n">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="W83" s="1" t="n">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="X83" s="1" t="n">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="Y83" s="1" t="n">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="Z83" s="1" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C84" s="1" t="s">
         <v>427</v>
       </c>
-    </row>
-    <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="1" t="s">
-        <v>452</v>
-      </c>
-      <c r="B84" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C84" s="1" t="s">
-        <v>453</v>
-      </c>
       <c r="D84" s="1" t="s">
-        <v>454</v>
+        <v>428</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>295</v>
+        <v>31</v>
       </c>
       <c r="J84" s="1" t="n">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="K84" s="1" t="n">
         <v>44008</v>
       </c>
       <c r="M84" s="1" t="s">
-        <v>455</v>
+        <v>446</v>
       </c>
       <c r="N84" s="1" t="n">
-        <v>426</v>
+        <v>627</v>
       </c>
       <c r="O84" s="1" t="s">
-        <v>456</v>
+        <v>445</v>
       </c>
       <c r="P84" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q84" s="1" t="s">
-        <v>457</v>
+        <v>431</v>
       </c>
       <c r="R84" s="1" t="s">
-        <v>458</v>
-      </c>
-      <c r="S84" s="1" t="s">
-        <v>459</v>
+        <v>441</v>
+      </c>
+      <c r="S84" s="3" t="s">
+        <v>447</v>
       </c>
       <c r="T84" s="1" t="s">
-        <v>79</v>
+        <v>48</v>
       </c>
       <c r="U84" s="1" t="s">
-        <v>73</v>
+        <v>49</v>
       </c>
       <c r="V84" s="1" t="n">
         <v>0.1</v>
       </c>
       <c r="W84" s="1" t="n">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="X84" s="1" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="Y84" s="1" t="n">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="Z84" s="1" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="1" t="s">
-        <v>461</v>
+        <v>448</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>61</v>
+        <v>27</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>453</v>
+        <v>427</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>454</v>
+        <v>428</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>295</v>
+        <v>31</v>
       </c>
       <c r="J85" s="1" t="n">
-        <v>72</v>
+        <v>51</v>
       </c>
       <c r="K85" s="1" t="n">
         <v>44008</v>
       </c>
       <c r="M85" s="1" t="s">
-        <v>462</v>
+        <v>449</v>
       </c>
       <c r="N85" s="1" t="n">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="O85" s="1" t="s">
-        <v>463</v>
+        <v>450</v>
       </c>
       <c r="P85" s="1" t="n">
         <v>2</v>
       </c>
       <c r="Q85" s="1" t="s">
-        <v>457</v>
+        <v>431</v>
       </c>
       <c r="R85" s="1" t="s">
-        <v>458</v>
-      </c>
-      <c r="S85" s="1" t="s">
-        <v>464</v>
+        <v>432</v>
+      </c>
+      <c r="S85" s="3" t="s">
+        <v>451</v>
       </c>
       <c r="T85" s="1" t="s">
-        <v>79</v>
+        <v>48</v>
       </c>
       <c r="U85" s="1" t="s">
-        <v>73</v>
+        <v>41</v>
       </c>
       <c r="V85" s="1" t="n">
         <v>0.1</v>
       </c>
       <c r="W85" s="1" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="X85" s="1" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="Y85" s="1" t="n">
         <v>0.4</v>
       </c>
-      <c r="X85" s="1" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="Y85" s="1" t="n">
-        <v>1.1</v>
-      </c>
       <c r="Z85" s="1" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="86" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="1" t="s">
-        <v>465</v>
+        <v>452</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>61</v>
+        <v>27</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>453</v>
+        <v>427</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>454</v>
+        <v>428</v>
       </c>
       <c r="G86" s="1" t="s">
-        <v>64</v>
+        <v>31</v>
       </c>
       <c r="J86" s="1" t="n">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="K86" s="1" t="n">
         <v>44008</v>
       </c>
       <c r="M86" s="1" t="s">
-        <v>466</v>
+        <v>453</v>
       </c>
       <c r="N86" s="1" t="n">
-        <v>626</v>
+        <v>425</v>
       </c>
       <c r="O86" s="1" t="s">
-        <v>465</v>
+        <v>454</v>
       </c>
       <c r="P86" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q86" s="1" t="s">
-        <v>457</v>
+        <v>431</v>
       </c>
       <c r="R86" s="1" t="s">
-        <v>467</v>
+        <v>432</v>
       </c>
       <c r="S86" s="3" t="s">
-        <v>468</v>
+        <v>451</v>
       </c>
       <c r="T86" s="1" t="s">
-        <v>79</v>
+        <v>48</v>
       </c>
       <c r="U86" s="1" t="s">
-        <v>73</v>
+        <v>41</v>
       </c>
       <c r="V86" s="1" t="n">
         <v>0.1</v>
       </c>
       <c r="W86" s="1" t="n">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="X86" s="1" t="n">
-        <v>0.8</v>
+        <v>0.3</v>
       </c>
       <c r="Y86" s="1" t="n">
-        <v>1.6</v>
+        <v>0</v>
       </c>
       <c r="Z86" s="1" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="87" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="1" t="s">
-        <v>469</v>
+        <v>455</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>61</v>
+        <v>27</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>453</v>
+        <v>427</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>454</v>
+        <v>428</v>
       </c>
       <c r="G87" s="1" t="s">
-        <v>64</v>
+        <v>31</v>
       </c>
       <c r="J87" s="1" t="n">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="K87" s="1" t="n">
         <v>44008</v>
       </c>
       <c r="M87" s="1" t="s">
-        <v>470</v>
+        <v>456</v>
       </c>
       <c r="N87" s="1" t="n">
-        <v>1189</v>
+        <v>1213</v>
       </c>
       <c r="O87" s="1" t="s">
-        <v>469</v>
+        <v>457</v>
       </c>
       <c r="P87" s="1" t="n">
         <v>1</v>
       </c>
       <c r="Q87" s="1" t="s">
-        <v>457</v>
+        <v>431</v>
       </c>
       <c r="R87" s="1" t="s">
-        <v>467</v>
-      </c>
-      <c r="S87" s="3" t="s">
-        <v>468</v>
+        <v>441</v>
+      </c>
+      <c r="S87" s="1" t="s">
+        <v>458</v>
       </c>
       <c r="T87" s="1" t="s">
-        <v>79</v>
+        <v>48</v>
       </c>
       <c r="U87" s="1" t="s">
-        <v>73</v>
+        <v>41</v>
       </c>
       <c r="V87" s="1" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="W87" s="1" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="X87" s="1" t="n">
         <v>0.3</v>
       </c>
-      <c r="W87" s="1" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="X87" s="1" t="n">
-        <v>0.9</v>
-      </c>
       <c r="Y87" s="1" t="n">
-        <v>1.7</v>
+        <v>0</v>
       </c>
       <c r="Z87" s="1" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="88" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="1" t="s">
-        <v>471</v>
+        <v>459</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>61</v>
+        <v>27</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>453</v>
+        <v>427</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>454</v>
+        <v>428</v>
       </c>
       <c r="G88" s="1" t="s">
-        <v>64</v>
+        <v>31</v>
       </c>
       <c r="J88" s="1" t="n">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="K88" s="1" t="n">
         <v>44008</v>
       </c>
       <c r="M88" s="1" t="s">
-        <v>472</v>
+        <v>460</v>
       </c>
       <c r="N88" s="1" t="n">
-        <v>627</v>
+        <v>1214</v>
       </c>
       <c r="O88" s="1" t="s">
-        <v>471</v>
+        <v>461</v>
       </c>
       <c r="P88" s="1" t="n">
         <v>1</v>
       </c>
       <c r="Q88" s="1" t="s">
-        <v>457</v>
+        <v>431</v>
       </c>
       <c r="R88" s="1" t="s">
-        <v>467</v>
-      </c>
-      <c r="S88" s="3" t="s">
-        <v>473</v>
+        <v>441</v>
+      </c>
+      <c r="S88" s="1" t="s">
+        <v>458</v>
       </c>
       <c r="T88" s="1" t="s">
-        <v>79</v>
+        <v>48</v>
       </c>
       <c r="U88" s="1" t="s">
         <v>41</v>
@@ -8619,163 +8475,160 @@
         <v>0.2</v>
       </c>
       <c r="X88" s="1" t="n">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="Y88" s="1" t="n">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="Z88" s="1" t="s">
-        <v>460</v>
+        <v>434</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="1" t="s">
-        <v>474</v>
+        <v>462</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>61</v>
+        <v>27</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>453</v>
+        <v>463</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>454</v>
+        <v>464</v>
       </c>
       <c r="G89" s="1" t="s">
-        <v>64</v>
+        <v>31</v>
       </c>
       <c r="J89" s="1" t="n">
-        <v>51</v>
+        <v>141</v>
       </c>
       <c r="K89" s="1" t="n">
         <v>44008</v>
       </c>
       <c r="M89" s="1" t="s">
-        <v>475</v>
+        <v>465</v>
       </c>
       <c r="N89" s="1" t="n">
-        <v>1185</v>
+        <v>447</v>
       </c>
       <c r="O89" s="1" t="s">
-        <v>476</v>
+        <v>462</v>
       </c>
       <c r="P89" s="1" t="n">
         <v>2</v>
       </c>
       <c r="Q89" s="1" t="s">
-        <v>457</v>
+        <v>466</v>
       </c>
       <c r="R89" s="1" t="s">
-        <v>458</v>
+        <v>467</v>
       </c>
       <c r="S89" s="3" t="s">
-        <v>477</v>
+        <v>468</v>
       </c>
       <c r="T89" s="1" t="s">
-        <v>79</v>
+        <v>48</v>
       </c>
       <c r="U89" s="1" t="s">
-        <v>73</v>
+        <v>41</v>
       </c>
       <c r="V89" s="1" t="n">
         <v>0.1</v>
       </c>
       <c r="W89" s="1" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="X89" s="1" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="Y89" s="1" t="n">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="Z89" s="1" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="1" t="s">
-        <v>478</v>
+        <v>470</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>61</v>
+        <v>27</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>453</v>
+        <v>471</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>454</v>
-      </c>
-      <c r="G90" s="1" t="s">
-        <v>64</v>
+        <v>472</v>
       </c>
       <c r="J90" s="1" t="n">
-        <v>52</v>
+        <v>21</v>
       </c>
       <c r="K90" s="1" t="n">
         <v>44008</v>
       </c>
       <c r="M90" s="1" t="s">
-        <v>479</v>
+        <v>473</v>
       </c>
       <c r="N90" s="1" t="n">
-        <v>425</v>
+        <v>164</v>
       </c>
       <c r="O90" s="1" t="s">
-        <v>480</v>
+        <v>474</v>
       </c>
       <c r="P90" s="1" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q90" s="1" t="s">
-        <v>457</v>
+        <v>475</v>
       </c>
       <c r="R90" s="1" t="s">
-        <v>458</v>
+        <v>476</v>
       </c>
       <c r="S90" s="3" t="s">
         <v>477</v>
       </c>
       <c r="T90" s="1" t="s">
-        <v>79</v>
+        <v>48</v>
       </c>
       <c r="U90" s="1" t="s">
-        <v>73</v>
+        <v>41</v>
       </c>
       <c r="V90" s="1" t="n">
         <v>0.1</v>
       </c>
       <c r="W90" s="1" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="X90" s="1" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="Y90" s="1" t="n">
         <v>0</v>
       </c>
       <c r="Z90" s="1" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="91" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="D91" s="1" t="s">
         <v>481</v>
       </c>
-      <c r="B91" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C91" s="1" t="s">
-        <v>453</v>
-      </c>
-      <c r="D91" s="1" t="s">
-        <v>454</v>
-      </c>
       <c r="G91" s="1" t="s">
-        <v>64</v>
+        <v>31</v>
       </c>
       <c r="J91" s="1" t="n">
-        <v>53</v>
+        <v>13</v>
       </c>
       <c r="K91" s="1" t="n">
         <v>44008</v>
@@ -8784,301 +8637,56 @@
         <v>482</v>
       </c>
       <c r="N91" s="1" t="n">
-        <v>1213</v>
+        <v>409</v>
       </c>
       <c r="O91" s="1" t="s">
         <v>483</v>
       </c>
       <c r="P91" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q91" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="R91" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="S91" s="3" t="s">
+        <v>486</v>
+      </c>
+      <c r="T91" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="U91" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="V91" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="Q91" s="1" t="s">
-        <v>457</v>
-      </c>
-      <c r="R91" s="1" t="s">
-        <v>467</v>
-      </c>
-      <c r="S91" s="1" t="s">
-        <v>484</v>
-      </c>
-      <c r="T91" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="U91" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="V91" s="1" t="n">
-        <v>0.1</v>
-      </c>
       <c r="W91" s="1" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="X91" s="1" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="Y91" s="1" t="n">
         <v>0</v>
       </c>
       <c r="Z91" s="1" t="s">
-        <v>460</v>
+        <v>487</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="1" t="s">
-        <v>485</v>
-      </c>
-      <c r="B92" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C92" s="1" t="s">
-        <v>453</v>
-      </c>
-      <c r="D92" s="1" t="s">
-        <v>454</v>
-      </c>
-      <c r="G92" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="J92" s="1" t="n">
-        <v>54</v>
-      </c>
-      <c r="K92" s="1" t="n">
-        <v>44008</v>
-      </c>
-      <c r="M92" s="1" t="s">
-        <v>486</v>
-      </c>
-      <c r="N92" s="1" t="n">
-        <v>1214</v>
-      </c>
-      <c r="O92" s="1" t="s">
-        <v>487</v>
-      </c>
-      <c r="P92" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q92" s="1" t="s">
-        <v>457</v>
-      </c>
-      <c r="R92" s="1" t="s">
-        <v>467</v>
-      </c>
-      <c r="S92" s="1" t="s">
-        <v>484</v>
-      </c>
-      <c r="T92" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="U92" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="V92" s="1" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="W92" s="1" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="X92" s="1" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="Y92" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z92" s="1" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="93" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="1" t="s">
-        <v>488</v>
-      </c>
-      <c r="B93" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C93" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="D93" s="1" t="s">
-        <v>490</v>
-      </c>
-      <c r="G93" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="J93" s="1" t="n">
-        <v>141</v>
-      </c>
-      <c r="K93" s="1" t="n">
-        <v>44008</v>
-      </c>
-      <c r="M93" s="1" t="s">
-        <v>491</v>
-      </c>
-      <c r="N93" s="1" t="n">
-        <v>447</v>
-      </c>
-      <c r="O93" s="1" t="s">
-        <v>488</v>
-      </c>
-      <c r="P93" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q93" s="1" t="s">
-        <v>492</v>
-      </c>
-      <c r="R93" s="1" t="s">
-        <v>493</v>
-      </c>
-      <c r="S93" s="3" t="s">
-        <v>494</v>
-      </c>
-      <c r="T93" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="U93" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="V93" s="1" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="W93" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="X93" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y93" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z93" s="1" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="94" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="1" t="s">
-        <v>496</v>
-      </c>
-      <c r="B94" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C94" s="1" t="s">
-        <v>497</v>
-      </c>
-      <c r="D94" s="1" t="s">
-        <v>498</v>
-      </c>
-      <c r="J94" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="K94" s="1" t="n">
-        <v>44008</v>
-      </c>
-      <c r="M94" s="1" t="s">
-        <v>499</v>
-      </c>
-      <c r="N94" s="1" t="n">
-        <v>164</v>
-      </c>
-      <c r="O94" s="1" t="s">
-        <v>500</v>
-      </c>
-      <c r="P94" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q94" s="1" t="s">
-        <v>501</v>
-      </c>
-      <c r="R94" s="1" t="s">
-        <v>502</v>
-      </c>
-      <c r="S94" s="3" t="s">
-        <v>503</v>
-      </c>
-      <c r="T94" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="U94" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="V94" s="1" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="W94" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="X94" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y94" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z94" s="1" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="95" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="1" t="s">
-        <v>505</v>
-      </c>
-      <c r="B95" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C95" s="1" t="s">
-        <v>506</v>
-      </c>
-      <c r="D95" s="1" t="s">
-        <v>507</v>
-      </c>
-      <c r="G95" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="J95" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="K95" s="1" t="n">
-        <v>44008</v>
-      </c>
-      <c r="M95" s="1" t="s">
-        <v>508</v>
-      </c>
-      <c r="N95" s="1" t="n">
-        <v>409</v>
-      </c>
-      <c r="O95" s="1" t="s">
-        <v>509</v>
-      </c>
-      <c r="P95" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q95" s="1" t="s">
-        <v>510</v>
-      </c>
-      <c r="R95" s="1" t="s">
-        <v>511</v>
-      </c>
-      <c r="S95" s="3" t="s">
-        <v>512</v>
-      </c>
-      <c r="T95" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="U95" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="V95" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="W95" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="X95" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y95" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z95" s="1" t="s">
-        <v>513</v>
-      </c>
+      <c r="J92" s="5"/>
+    </row>
+    <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J93" s="5"/>
+    </row>
+    <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J94" s="5"/>
+    </row>
+    <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J95" s="5"/>
     </row>
     <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J96" s="5"/>
@@ -9140,18 +8748,10 @@
     <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J115" s="5"/>
     </row>
-    <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J116" s="5"/>
-    </row>
-    <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J117" s="5"/>
-    </row>
-    <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J118" s="5"/>
-    </row>
-    <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J119" s="5"/>
-    </row>
+    <row r="1048536" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048537" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048538" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048539" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048540" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048541" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048542" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>

--- a/haawks-indicator-shortlist.xlsx
+++ b/haawks-indicator-shortlist.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1447" uniqueCount="488">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1514" uniqueCount="514">
   <si>
     <t xml:space="preserve">Indicator</t>
   </si>
@@ -100,15 +100,120 @@
     <t xml:space="preserve">default_symbol</t>
   </si>
   <si>
+    <t xml:space="preserve">Crude Oil Inventories WoW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Commodity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">USA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EIA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Petroleum Status Report</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Weekly</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wednesday</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10:30:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Weekly difference in million barrels</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30000;-12.634</t>
+  </si>
+  <si>
+    <t xml:space="preserve">U.S. Crude Oil Inventories</t>
+  </si>
+  <si>
+    <t xml:space="preserve">USD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Energy Information Administrat...</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Energy Information Administration's (EIA) Crude Oil Inventories measures the weekly change in the number of barrels of commercial crude oil held by US firms. The level of inventories influences the price of petroleum products, which can have an impact on inflation.
+If the increase in crude inventories is more than expected, it implies weaker demand and is bearish for crude prices. The same can be said if a decline in inventories is less than expected.
+If the increase in crude is less than expected, it implies greater demand and is bullish for crude prices. The same can be said if a decline in inventories is more than expected.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bearish</t>
+  </si>
+  <si>
+    <t xml:space="preserve">USDJPY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Motor Gasoline Inventories WoW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30001;-0.694</t>
+  </si>
+  <si>
+    <t xml:space="preserve">U.S. Gasoline Inventories</t>
+  </si>
+  <si>
+    <t xml:space="preserve">US Energy Information Administ...</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gasoline Inventories measures the change in the number of barrels of commercial gasoline held in inventory by commercial firms during the reported week. The data influences the price of gasoline products which affects inflation.
+The data has no consistent effect, there are both inflationary and growth implications.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cushing Crude Inventories WoW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30008;-2.062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">U.S. Cushing Crude Oil Inventories</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Change in the number of barrels of crude oil held in storage at the Cushing, Oklahoma during the past week. Storage levels at Cushing are important because it serves as the delivery point for the U.S. crude oil benchmark, West Texas Intermediate.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Natural Gas Net Change WoW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Natural Gas Storage Report</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thursday</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Weekly difference in bcf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30010;-43</t>
+  </si>
+  <si>
+    <t xml:space="preserve">U.S. Natural Gas Storage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Energy Information Administration (EIA) Natural Gas Storage report measures the change in the number of cubic feet of natural gas held in underground storage during the past week.
+While this is a U.S. indicator it tends to have a greater impact on the Canadian dollar, due to Canada's sizable energy sector.
+If the increase in natural gas inventories is more than expected, it implies weaker demand and is bearish for natural gas prices. The same can be said if a decline in inventories is less than expected.
+If the increase in natural gas is less than expected, it implies greater demand and is bullish for natural gas prices. The same can be said if a decline in inventories is more than expected.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B</t>
+  </si>
+  <si>
     <t xml:space="preserve">Non-Farm Payrolls</t>
   </si>
   <si>
     <t xml:space="preserve">Economy</t>
   </si>
   <si>
-    <t xml:space="preserve">USA</t>
-  </si>
-  <si>
     <t xml:space="preserve">BLS</t>
   </si>
   <si>
@@ -131,9 +236,6 @@
   </si>
   <si>
     <t xml:space="preserve">U.S. Nonfarm Payrolls</t>
-  </si>
-  <si>
-    <t xml:space="preserve">USD</t>
   </si>
   <si>
     <t xml:space="preserve">Bureau of Labor Statistics</t>
@@ -149,9 +251,6 @@
     <t xml:space="preserve">bullish</t>
   </si>
   <si>
-    <t xml:space="preserve">USDJPY</t>
-  </si>
-  <si>
     <t xml:space="preserve">Unemployment Rate</t>
   </si>
   <si>
@@ -169,9 +268,6 @@
   </si>
   <si>
     <t xml:space="preserve">%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bearish</t>
   </si>
   <si>
     <t xml:space="preserve">PPI MoM</t>
@@ -529,9 +625,6 @@
 A reading that is stronger than forecast is generally supportive (bullish) for the USD, while a weaker than forecast reading is generally negative (bearish) for the USD.</t>
   </si>
   <si>
-    <t xml:space="preserve">M</t>
-  </si>
-  <si>
     <t xml:space="preserve">Index of Consumer Sentiment</t>
   </si>
   <si>
@@ -610,9 +703,6 @@
 A higher than expected reading should be taken as positive/bullish for the USD, while a lower than expected reading should be taken as negative/bearish for the USD.</t>
   </si>
   <si>
-    <t xml:space="preserve">B</t>
-  </si>
-  <si>
     <t xml:space="preserve">Factory Orders MoM</t>
   </si>
   <si>
@@ -881,12 +971,6 @@
   </si>
   <si>
     <t xml:space="preserve">Unemployment Insurance Weekly Claims</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Weekly</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Thursday</t>
   </si>
   <si>
     <t xml:space="preserve">10230;236</t>
@@ -1685,11 +1769,11 @@
   </sheetPr>
   <dimension ref="A1:Z1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="M47" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="Y53" activeCellId="0" sqref="Y53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.68359375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="28.93"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="33.23"/>
@@ -1776,7 +1860,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
         <v>26</v>
       </c>
@@ -1790,7 +1874,7 @@
         <v>29</v>
       </c>
       <c r="E2" s="1" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>30</v>
@@ -1805,10 +1889,10 @@
         <v>33</v>
       </c>
       <c r="J2" s="1" t="n">
-        <v>10000</v>
+        <v>30000</v>
       </c>
       <c r="K2" s="1" t="n">
-        <v>44011</v>
+        <v>44031</v>
       </c>
       <c r="L2" s="1" t="s">
         <v>34</v>
@@ -1817,7 +1901,7 @@
         <v>35</v>
       </c>
       <c r="N2" s="1" t="n">
-        <v>227</v>
+        <v>75</v>
       </c>
       <c r="O2" s="1" t="s">
         <v>36</v>
@@ -1841,16 +1925,16 @@
         <v>41</v>
       </c>
       <c r="V2" s="1" t="n">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="W2" s="1" t="n">
-        <v>50</v>
+        <v>2</v>
       </c>
       <c r="X2" s="1" t="n">
-        <v>90</v>
+        <v>3</v>
       </c>
       <c r="Y2" s="1" t="n">
-        <v>200</v>
+        <v>5</v>
       </c>
       <c r="Z2" s="1" t="s">
         <v>42</v>
@@ -1870,7 +1954,7 @@
         <v>29</v>
       </c>
       <c r="E3" s="1" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>30</v>
@@ -1881,64 +1965,64 @@
       <c r="H3" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="I3" s="4" t="n">
-        <v>1.35416666666667</v>
+      <c r="I3" s="1" t="s">
+        <v>33</v>
       </c>
       <c r="J3" s="1" t="n">
-        <v>10005</v>
+        <v>30001</v>
       </c>
       <c r="K3" s="1" t="n">
-        <v>44011</v>
+        <v>44031</v>
       </c>
       <c r="L3" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="M3" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="M3" s="1" t="s">
+      <c r="N3" s="1" t="n">
+        <v>485</v>
+      </c>
+      <c r="O3" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="N3" s="1" t="n">
-        <v>300</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>46</v>
-      </c>
       <c r="P3" s="1" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q3" s="1" t="s">
         <v>37</v>
       </c>
       <c r="R3" s="1" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="S3" s="3" t="s">
         <v>47</v>
       </c>
       <c r="T3" s="1" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="U3" s="1" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="V3" s="1" t="n">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="W3" s="1" t="n">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="X3" s="1" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Y3" s="1" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Z3" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>27</v>
@@ -1950,75 +2034,75 @@
         <v>29</v>
       </c>
       <c r="E4" s="1" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>31</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
+      </c>
+      <c r="I4" s="4" t="n">
+        <v>6.4375</v>
       </c>
       <c r="J4" s="1" t="n">
-        <v>10010</v>
+        <v>30008</v>
       </c>
       <c r="K4" s="1" t="n">
-        <v>44011</v>
+        <v>44031</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>53</v>
+        <v>34</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="N4" s="1" t="n">
-        <v>238</v>
+        <v>1657</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="P4" s="1" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q4" s="1" t="s">
         <v>37</v>
       </c>
       <c r="R4" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="S4" s="3" t="s">
-        <v>57</v>
+        <v>38</v>
+      </c>
+      <c r="S4" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="T4" s="1" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="U4" s="1" t="s">
         <v>41</v>
       </c>
       <c r="V4" s="1" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="W4" s="1" t="n">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="X4" s="1" t="n">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
       <c r="Y4" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z4" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>27</v>
@@ -2030,37 +2114,37 @@
         <v>29</v>
       </c>
       <c r="E5" s="1" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>31</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="I5" s="4" t="n">
-        <v>1.35416666666667</v>
+        <v>54</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>33</v>
       </c>
       <c r="J5" s="1" t="n">
-        <v>10011</v>
+        <v>30010</v>
       </c>
       <c r="K5" s="1" t="n">
-        <v>44011</v>
+        <v>44031</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="N5" s="1" t="n">
-        <v>734</v>
+        <v>386</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="P5" s="1" t="n">
         <v>1</v>
@@ -2069,28 +2153,28 @@
         <v>37</v>
       </c>
       <c r="R5" s="1" t="s">
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="S5" s="3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T5" s="1" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="U5" s="1" t="s">
         <v>41</v>
       </c>
       <c r="V5" s="1" t="n">
-        <v>0.1</v>
+        <v>2</v>
       </c>
       <c r="W5" s="1" t="n">
-        <v>0.2</v>
+        <v>4</v>
       </c>
       <c r="X5" s="1" t="n">
-        <v>0.3</v>
+        <v>7</v>
       </c>
       <c r="Y5" s="1" t="n">
-        <v>0.4</v>
+        <v>11</v>
       </c>
       <c r="Z5" s="1" t="s">
         <v>42</v>
@@ -2098,79 +2182,79 @@
     </row>
     <row r="6" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>61</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>27</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>29</v>
+        <v>62</v>
       </c>
       <c r="E6" s="1" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>31</v>
+        <v>64</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>2.35416666666667</v>
+        <v>65</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>66</v>
       </c>
       <c r="J6" s="1" t="n">
-        <v>10012</v>
+        <v>10000</v>
       </c>
       <c r="K6" s="1" t="n">
         <v>44011</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>53</v>
+        <v>67</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="N6" s="1" t="n">
-        <v>62</v>
+        <v>227</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="P6" s="1" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q6" s="1" t="s">
         <v>37</v>
       </c>
       <c r="R6" s="1" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="S6" s="3" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="T6" s="1" t="s">
-        <v>48</v>
+        <v>72</v>
       </c>
       <c r="U6" s="1" t="s">
-        <v>41</v>
+        <v>73</v>
       </c>
       <c r="V6" s="1" t="n">
-        <v>0.1</v>
+        <v>25</v>
       </c>
       <c r="W6" s="1" t="n">
-        <v>0.2</v>
+        <v>50</v>
       </c>
       <c r="X6" s="1" t="n">
-        <v>0.3</v>
+        <v>90</v>
       </c>
       <c r="Y6" s="1" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="Z6" s="1" t="s">
         <v>42</v>
@@ -2178,64 +2262,64 @@
     </row>
     <row r="7" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>27</v>
+        <v>61</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>29</v>
+        <v>62</v>
       </c>
       <c r="E7" s="1" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>31</v>
+        <v>64</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="I7" s="4" t="n">
-        <v>3.35416666666667</v>
+        <v>1.35416666666667</v>
       </c>
       <c r="J7" s="1" t="n">
-        <v>10013</v>
+        <v>10005</v>
       </c>
       <c r="K7" s="1" t="n">
         <v>44011</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>53</v>
+        <v>75</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="N7" s="1" t="n">
-        <v>735</v>
+        <v>300</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="P7" s="1" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q7" s="1" t="s">
         <v>37</v>
       </c>
       <c r="R7" s="1" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="S7" s="3" t="s">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="T7" s="1" t="s">
-        <v>48</v>
+        <v>79</v>
       </c>
       <c r="U7" s="1" t="s">
         <v>41</v>
@@ -2247,7 +2331,7 @@
         <v>0.2</v>
       </c>
       <c r="X7" s="1" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="Y7" s="1" t="n">
         <v>0</v>
@@ -2258,67 +2342,67 @@
     </row>
     <row r="8" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>27</v>
+        <v>61</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>29</v>
+        <v>62</v>
       </c>
       <c r="E8" s="1" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>31</v>
+        <v>64</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="I8" s="4" t="n">
-        <v>3.35416666666667</v>
+        <v>82</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>66</v>
       </c>
       <c r="J8" s="1" t="n">
-        <v>10020</v>
+        <v>10010</v>
       </c>
       <c r="K8" s="1" t="n">
         <v>44011</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>53</v>
+        <v>83</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="N8" s="1" t="n">
-        <v>153</v>
+        <v>238</v>
       </c>
       <c r="O8" s="1" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="P8" s="1" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q8" s="1" t="s">
         <v>37</v>
       </c>
       <c r="R8" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="S8" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="T8" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="U8" s="1" t="s">
         <v>73</v>
-      </c>
-      <c r="S8" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="T8" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="U8" s="1" t="s">
-        <v>41</v>
       </c>
       <c r="V8" s="1" t="n">
         <v>0.1</v>
@@ -2330,87 +2414,87 @@
         <v>0.3</v>
       </c>
       <c r="Y8" s="1" t="n">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="Z8" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>27</v>
+        <v>61</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>29</v>
+        <v>62</v>
       </c>
       <c r="E9" s="1" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>31</v>
+        <v>64</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>52</v>
+        <v>82</v>
       </c>
       <c r="I9" s="4" t="n">
-        <v>3.35416666666667</v>
+        <v>1.35416666666667</v>
       </c>
       <c r="J9" s="1" t="n">
-        <v>10022</v>
+        <v>10011</v>
       </c>
       <c r="K9" s="1" t="n">
         <v>44011</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>53</v>
+        <v>83</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="N9" s="1" t="n">
-        <v>892</v>
+        <v>734</v>
       </c>
       <c r="O9" s="1" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="P9" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q9" s="1" t="s">
         <v>37</v>
       </c>
       <c r="R9" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="S9" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="S9" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="T9" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="T9" s="1" t="s">
-        <v>48</v>
-      </c>
       <c r="U9" s="1" t="s">
-        <v>41</v>
+        <v>73</v>
       </c>
       <c r="V9" s="1" t="n">
         <v>0.1</v>
       </c>
       <c r="W9" s="1" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="X9" s="1" t="n">
         <v>0.3</v>
       </c>
-      <c r="X9" s="1" t="n">
-        <v>0.5</v>
-      </c>
       <c r="Y9" s="1" t="n">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="Z9" s="1" t="s">
         <v>42</v>
@@ -2418,67 +2502,67 @@
     </row>
     <row r="10" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>27</v>
+        <v>61</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>29</v>
+        <v>62</v>
       </c>
       <c r="E10" s="1" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>81</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>31</v>
+        <v>64</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>52</v>
+        <v>82</v>
       </c>
       <c r="I10" s="4" t="n">
-        <v>3.35416666666667</v>
+        <v>2.35416666666667</v>
       </c>
       <c r="J10" s="1" t="n">
-        <v>10030</v>
+        <v>10012</v>
       </c>
       <c r="K10" s="1" t="n">
         <v>44011</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>53</v>
+        <v>83</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="N10" s="1" t="n">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="O10" s="1" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="P10" s="1" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q10" s="1" t="s">
         <v>37</v>
       </c>
       <c r="R10" s="1" t="s">
-        <v>64</v>
+        <v>94</v>
       </c>
       <c r="S10" s="3" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="T10" s="1" t="s">
-        <v>48</v>
+        <v>79</v>
       </c>
       <c r="U10" s="1" t="s">
-        <v>41</v>
+        <v>73</v>
       </c>
       <c r="V10" s="1" t="n">
         <v>0.1</v>
@@ -2487,7 +2571,7 @@
         <v>0.2</v>
       </c>
       <c r="X10" s="1" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="Y10" s="1" t="n">
         <v>0</v>
@@ -2498,67 +2582,67 @@
     </row>
     <row r="11" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>27</v>
+        <v>61</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>29</v>
+        <v>62</v>
       </c>
       <c r="E11" s="1" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>81</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>31</v>
+        <v>64</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>52</v>
+        <v>82</v>
       </c>
       <c r="I11" s="4" t="n">
         <v>3.35416666666667</v>
       </c>
       <c r="J11" s="1" t="n">
-        <v>10031</v>
+        <v>10013</v>
       </c>
       <c r="K11" s="1" t="n">
         <v>44011</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>53</v>
+        <v>83</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="N11" s="1" t="n">
-        <v>733</v>
+        <v>735</v>
       </c>
       <c r="O11" s="1" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="P11" s="1" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q11" s="1" t="s">
         <v>37</v>
       </c>
       <c r="R11" s="1" t="s">
-        <v>64</v>
+        <v>94</v>
       </c>
       <c r="S11" s="3" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="T11" s="1" t="s">
-        <v>48</v>
+        <v>79</v>
       </c>
       <c r="U11" s="1" t="s">
-        <v>41</v>
+        <v>73</v>
       </c>
       <c r="V11" s="1" t="n">
         <v>0.1</v>
@@ -2567,7 +2651,7 @@
         <v>0.2</v>
       </c>
       <c r="X11" s="1" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="Y11" s="1" t="n">
         <v>0</v>
@@ -2578,67 +2662,67 @@
     </row>
     <row r="12" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>27</v>
+        <v>61</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>29</v>
+        <v>62</v>
       </c>
       <c r="E12" s="1" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>81</v>
+        <v>100</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>31</v>
+        <v>64</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>52</v>
+        <v>82</v>
       </c>
       <c r="I12" s="4" t="n">
         <v>3.35416666666667</v>
       </c>
       <c r="J12" s="1" t="n">
-        <v>10032</v>
+        <v>10020</v>
       </c>
       <c r="K12" s="1" t="n">
         <v>44011</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>53</v>
+        <v>83</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="N12" s="1" t="n">
-        <v>56</v>
+        <v>153</v>
       </c>
       <c r="O12" s="1" t="s">
-        <v>90</v>
+        <v>102</v>
       </c>
       <c r="P12" s="1" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q12" s="1" t="s">
         <v>37</v>
       </c>
       <c r="R12" s="1" t="s">
-        <v>64</v>
+        <v>103</v>
       </c>
       <c r="S12" s="3" t="s">
-        <v>91</v>
+        <v>104</v>
       </c>
       <c r="T12" s="1" t="s">
-        <v>48</v>
+        <v>79</v>
       </c>
       <c r="U12" s="1" t="s">
-        <v>41</v>
+        <v>73</v>
       </c>
       <c r="V12" s="1" t="n">
         <v>0.1</v>
@@ -2647,60 +2731,60 @@
         <v>0.2</v>
       </c>
       <c r="X12" s="1" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="Y12" s="1" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="Z12" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>92</v>
+        <v>105</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>27</v>
+        <v>61</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>29</v>
+        <v>62</v>
       </c>
       <c r="E13" s="1" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>81</v>
+        <v>100</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>31</v>
+        <v>64</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>52</v>
+        <v>82</v>
       </c>
       <c r="I13" s="4" t="n">
         <v>3.35416666666667</v>
       </c>
       <c r="J13" s="1" t="n">
-        <v>10033</v>
+        <v>10022</v>
       </c>
       <c r="K13" s="1" t="n">
         <v>44011</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>53</v>
+        <v>83</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>93</v>
+        <v>106</v>
       </c>
       <c r="N13" s="1" t="n">
-        <v>736</v>
+        <v>892</v>
       </c>
       <c r="O13" s="1" t="s">
-        <v>94</v>
+        <v>107</v>
       </c>
       <c r="P13" s="1" t="n">
         <v>2</v>
@@ -2709,179 +2793,185 @@
         <v>37</v>
       </c>
       <c r="R13" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="S13" s="3" t="s">
-        <v>91</v>
+        <v>108</v>
+      </c>
+      <c r="S13" s="1" t="s">
+        <v>109</v>
       </c>
       <c r="T13" s="1" t="s">
-        <v>48</v>
+        <v>79</v>
       </c>
       <c r="U13" s="1" t="s">
-        <v>41</v>
+        <v>73</v>
       </c>
       <c r="V13" s="1" t="n">
         <v>0.1</v>
       </c>
       <c r="W13" s="1" t="n">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="X13" s="1" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="Y13" s="1" t="n">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="Z13" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>95</v>
+        <v>110</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>27</v>
+        <v>61</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>29</v>
+        <v>62</v>
       </c>
       <c r="E14" s="1" t="n">
         <v>6</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>81</v>
+        <v>111</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>31</v>
+        <v>64</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>52</v>
+        <v>82</v>
       </c>
       <c r="I14" s="4" t="n">
         <v>3.35416666666667</v>
       </c>
       <c r="J14" s="1" t="n">
-        <v>10034</v>
+        <v>10030</v>
       </c>
       <c r="K14" s="1" t="n">
         <v>44011</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>53</v>
+        <v>83</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>96</v>
+        <v>112</v>
       </c>
       <c r="N14" s="1" t="n">
-        <v>1549</v>
+        <v>69</v>
       </c>
       <c r="O14" s="1" t="s">
-        <v>97</v>
+        <v>113</v>
       </c>
       <c r="P14" s="1" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q14" s="1" t="s">
         <v>37</v>
       </c>
       <c r="R14" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="S14" s="1" t="s">
-        <v>98</v>
+        <v>94</v>
+      </c>
+      <c r="S14" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="T14" s="1" t="s">
+        <v>79</v>
       </c>
       <c r="U14" s="1" t="s">
-        <v>41</v>
+        <v>73</v>
       </c>
       <c r="V14" s="1" t="n">
-        <v>0.07</v>
+        <v>0.1</v>
       </c>
       <c r="W14" s="1" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="X14" s="1" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="Y14" s="1" t="n">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="Z14" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>99</v>
+        <v>115</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>27</v>
+        <v>61</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>29</v>
+        <v>62</v>
       </c>
       <c r="E15" s="1" t="n">
         <v>6</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>81</v>
+        <v>111</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>31</v>
+        <v>64</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>52</v>
+        <v>82</v>
       </c>
       <c r="I15" s="4" t="n">
         <v>3.35416666666667</v>
       </c>
       <c r="J15" s="1" t="n">
-        <v>10037</v>
+        <v>10031</v>
       </c>
       <c r="K15" s="1" t="n">
         <v>44011</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>53</v>
+        <v>83</v>
       </c>
       <c r="M15" s="1" t="s">
-        <v>100</v>
+        <v>116</v>
       </c>
       <c r="N15" s="1" t="n">
-        <v>1226</v>
+        <v>733</v>
       </c>
       <c r="O15" s="1" t="s">
-        <v>101</v>
+        <v>117</v>
       </c>
       <c r="P15" s="1" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q15" s="1" t="s">
         <v>37</v>
       </c>
       <c r="R15" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="S15" s="1" t="s">
-        <v>102</v>
+        <v>94</v>
+      </c>
+      <c r="S15" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="T15" s="1" t="s">
+        <v>79</v>
       </c>
       <c r="U15" s="1" t="s">
-        <v>41</v>
+        <v>73</v>
       </c>
       <c r="V15" s="1" t="n">
-        <v>0.15</v>
+        <v>0.1</v>
       </c>
       <c r="W15" s="1" t="n">
         <v>0.2</v>
       </c>
       <c r="X15" s="1" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="Y15" s="1" t="n">
         <v>0</v>
@@ -2892,67 +2982,67 @@
     </row>
     <row r="16" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>103</v>
+        <v>118</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>27</v>
+        <v>61</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>104</v>
+        <v>62</v>
       </c>
       <c r="E16" s="1" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>31</v>
+        <v>64</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="I16" s="1" t="s">
-        <v>106</v>
+        <v>82</v>
+      </c>
+      <c r="I16" s="4" t="n">
+        <v>3.35416666666667</v>
       </c>
       <c r="J16" s="1" t="n">
-        <v>10040</v>
+        <v>10032</v>
       </c>
       <c r="K16" s="1" t="n">
         <v>44011</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>53</v>
+        <v>83</v>
       </c>
       <c r="M16" s="1" t="s">
-        <v>107</v>
+        <v>119</v>
       </c>
       <c r="N16" s="1" t="n">
-        <v>161</v>
+        <v>56</v>
       </c>
       <c r="O16" s="1" t="s">
-        <v>108</v>
+        <v>120</v>
       </c>
       <c r="P16" s="1" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q16" s="1" t="s">
         <v>37</v>
       </c>
       <c r="R16" s="1" t="s">
-        <v>109</v>
+        <v>94</v>
       </c>
       <c r="S16" s="3" t="s">
-        <v>110</v>
+        <v>121</v>
       </c>
       <c r="T16" s="1" t="s">
-        <v>48</v>
+        <v>79</v>
       </c>
       <c r="U16" s="1" t="s">
-        <v>41</v>
+        <v>73</v>
       </c>
       <c r="V16" s="1" t="n">
         <v>0.1</v>
@@ -2961,10 +3051,10 @@
         <v>0.2</v>
       </c>
       <c r="X16" s="1" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="Y16" s="1" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="Z16" s="1" t="s">
         <v>42</v>
@@ -2972,67 +3062,67 @@
     </row>
     <row r="17" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>111</v>
+        <v>122</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>27</v>
+        <v>61</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>104</v>
+        <v>62</v>
       </c>
       <c r="E17" s="1" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>31</v>
+        <v>64</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="I17" s="1" t="s">
-        <v>106</v>
+        <v>82</v>
+      </c>
+      <c r="I17" s="4" t="n">
+        <v>3.35416666666667</v>
       </c>
       <c r="J17" s="1" t="n">
-        <v>10042</v>
+        <v>10033</v>
       </c>
       <c r="K17" s="1" t="n">
         <v>44011</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>112</v>
+        <v>83</v>
       </c>
       <c r="M17" s="1" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="N17" s="1" t="n">
-        <v>31</v>
+        <v>736</v>
       </c>
       <c r="O17" s="1" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="P17" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q17" s="1" t="s">
         <v>37</v>
       </c>
       <c r="R17" s="1" t="s">
-        <v>109</v>
+        <v>94</v>
       </c>
       <c r="S17" s="3" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="T17" s="1" t="s">
-        <v>48</v>
+        <v>79</v>
       </c>
       <c r="U17" s="1" t="s">
-        <v>41</v>
+        <v>73</v>
       </c>
       <c r="V17" s="1" t="n">
         <v>0.1</v>
@@ -3041,60 +3131,60 @@
         <v>0.2</v>
       </c>
       <c r="X17" s="1" t="n">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="Y17" s="1" t="n">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="Z17" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>27</v>
+        <v>61</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>104</v>
+        <v>62</v>
       </c>
       <c r="E18" s="1" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>31</v>
+        <v>64</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>52</v>
+        <v>82</v>
       </c>
       <c r="I18" s="4" t="n">
-        <v>1.38541666666667</v>
+        <v>3.35416666666667</v>
       </c>
       <c r="J18" s="1" t="n">
-        <v>10044</v>
+        <v>10034</v>
       </c>
       <c r="K18" s="1" t="n">
         <v>44011</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>53</v>
+        <v>83</v>
       </c>
       <c r="M18" s="1" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="N18" s="1" t="n">
-        <v>1307</v>
+        <v>1549</v>
       </c>
       <c r="O18" s="1" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="P18" s="1" t="n">
         <v>1</v>
@@ -3103,105 +3193,99 @@
         <v>37</v>
       </c>
       <c r="R18" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="S18" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="T18" s="1" t="s">
-        <v>48</v>
+        <v>108</v>
+      </c>
+      <c r="S18" s="1" t="s">
+        <v>128</v>
       </c>
       <c r="U18" s="1" t="s">
-        <v>41</v>
+        <v>73</v>
       </c>
       <c r="V18" s="1" t="n">
+        <v>0.07</v>
+      </c>
+      <c r="W18" s="1" t="n">
         <v>0.1</v>
       </c>
-      <c r="W18" s="1" t="n">
-        <v>0.3</v>
-      </c>
       <c r="X18" s="1" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="Y18" s="1" t="n">
         <v>0.4</v>
-      </c>
-      <c r="Y18" s="1" t="n">
-        <v>0.7</v>
       </c>
       <c r="Z18" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>27</v>
+        <v>61</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>122</v>
+        <v>62</v>
       </c>
       <c r="E19" s="1" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>31</v>
+        <v>64</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>124</v>
+        <v>82</v>
       </c>
       <c r="I19" s="4" t="n">
-        <v>1.35416666666667</v>
+        <v>3.35416666666667</v>
       </c>
       <c r="J19" s="1" t="n">
-        <v>10060</v>
+        <v>10037</v>
       </c>
       <c r="K19" s="1" t="n">
         <v>44011</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>53</v>
+        <v>83</v>
       </c>
       <c r="M19" s="1" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="N19" s="1" t="n">
-        <v>375</v>
+        <v>1226</v>
       </c>
       <c r="O19" s="1" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="P19" s="1" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q19" s="1" t="s">
         <v>37</v>
       </c>
       <c r="R19" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="S19" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="T19" s="1" t="s">
-        <v>48</v>
+        <v>108</v>
+      </c>
+      <c r="S19" s="1" t="s">
+        <v>132</v>
       </c>
       <c r="U19" s="1" t="s">
-        <v>41</v>
+        <v>73</v>
       </c>
       <c r="V19" s="1" t="n">
-        <v>0.1</v>
+        <v>0.15</v>
       </c>
       <c r="W19" s="1" t="n">
         <v>0.2</v>
       </c>
       <c r="X19" s="1" t="n">
-        <v>0.3</v>
+        <v>0.25</v>
       </c>
       <c r="Y19" s="1" t="n">
         <v>0</v>
@@ -3212,49 +3296,49 @@
     </row>
     <row r="20" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>27</v>
+        <v>61</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>122</v>
+        <v>134</v>
       </c>
       <c r="E20" s="1" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>31</v>
+        <v>64</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="I20" s="4" t="n">
-        <v>2.35416666666667</v>
+        <v>82</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>136</v>
       </c>
       <c r="J20" s="1" t="n">
-        <v>10061</v>
+        <v>10040</v>
       </c>
       <c r="K20" s="1" t="n">
         <v>44011</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>53</v>
+        <v>83</v>
       </c>
       <c r="M20" s="1" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="N20" s="1" t="n">
-        <v>343</v>
+        <v>161</v>
       </c>
       <c r="O20" s="1" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="P20" s="1" t="n">
         <v>2</v>
@@ -3263,16 +3347,16 @@
         <v>37</v>
       </c>
       <c r="R20" s="1" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
       <c r="S20" s="3" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="T20" s="1" t="s">
-        <v>48</v>
+        <v>79</v>
       </c>
       <c r="U20" s="1" t="s">
-        <v>41</v>
+        <v>73</v>
       </c>
       <c r="V20" s="1" t="n">
         <v>0.1</v>
@@ -3284,7 +3368,7 @@
         <v>0.3</v>
       </c>
       <c r="Y20" s="1" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="Z20" s="1" t="s">
         <v>42</v>
@@ -3292,67 +3376,67 @@
     </row>
     <row r="21" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>27</v>
+        <v>61</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>122</v>
+        <v>134</v>
       </c>
       <c r="E21" s="1" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>31</v>
+        <v>64</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="I21" s="4" t="n">
-        <v>3.35416666666667</v>
+        <v>82</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>136</v>
       </c>
       <c r="J21" s="1" t="n">
-        <v>10070</v>
+        <v>10042</v>
       </c>
       <c r="K21" s="1" t="n">
         <v>44011</v>
       </c>
       <c r="L21" s="1" t="s">
-        <v>53</v>
+        <v>142</v>
       </c>
       <c r="M21" s="1" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="N21" s="1" t="n">
-        <v>235</v>
+        <v>31</v>
       </c>
       <c r="O21" s="1" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="P21" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q21" s="1" t="s">
         <v>37</v>
       </c>
       <c r="R21" s="1" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
       <c r="S21" s="3" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="T21" s="1" t="s">
-        <v>48</v>
+        <v>79</v>
       </c>
       <c r="U21" s="1" t="s">
-        <v>41</v>
+        <v>73</v>
       </c>
       <c r="V21" s="1" t="n">
         <v>0.1</v>
@@ -3361,167 +3445,167 @@
         <v>0.2</v>
       </c>
       <c r="X21" s="1" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="Y21" s="1" t="n">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="Z21" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>27</v>
+        <v>61</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>122</v>
+        <v>134</v>
       </c>
       <c r="E22" s="1" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>31</v>
+        <v>64</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>124</v>
+        <v>82</v>
       </c>
       <c r="I22" s="4" t="n">
-        <v>4.35416666666667</v>
+        <v>1.38541666666667</v>
       </c>
       <c r="J22" s="1" t="n">
-        <v>10071</v>
+        <v>10044</v>
       </c>
       <c r="K22" s="1" t="n">
         <v>44011</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>53</v>
+        <v>83</v>
       </c>
       <c r="M22" s="1" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="N22" s="1" t="n">
-        <v>61</v>
+        <v>1307</v>
       </c>
       <c r="O22" s="1" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="P22" s="1" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q22" s="1" t="s">
         <v>37</v>
       </c>
       <c r="R22" s="1" t="s">
-        <v>127</v>
+        <v>149</v>
       </c>
       <c r="S22" s="3" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="T22" s="1" t="s">
-        <v>48</v>
+        <v>79</v>
       </c>
       <c r="U22" s="1" t="s">
-        <v>41</v>
+        <v>73</v>
       </c>
       <c r="V22" s="1" t="n">
         <v>0.1</v>
       </c>
       <c r="W22" s="1" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="X22" s="1" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="Y22" s="1" t="n">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="Z22" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>27</v>
+        <v>61</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>122</v>
+        <v>152</v>
       </c>
       <c r="E23" s="1" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>134</v>
+        <v>153</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>31</v>
+        <v>64</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>124</v>
+        <v>154</v>
       </c>
       <c r="I23" s="4" t="n">
-        <v>5.35416666666667</v>
+        <v>1.35416666666667</v>
       </c>
       <c r="J23" s="1" t="n">
-        <v>10072</v>
+        <v>10060</v>
       </c>
       <c r="K23" s="1" t="n">
         <v>44011</v>
       </c>
       <c r="L23" s="1" t="s">
-        <v>53</v>
+        <v>83</v>
       </c>
       <c r="M23" s="1" t="s">
-        <v>143</v>
+        <v>155</v>
       </c>
       <c r="N23" s="1" t="n">
-        <v>905</v>
+        <v>375</v>
       </c>
       <c r="O23" s="1" t="s">
-        <v>144</v>
+        <v>156</v>
       </c>
       <c r="P23" s="1" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q23" s="1" t="s">
         <v>37</v>
       </c>
       <c r="R23" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="S23" s="1" t="s">
-        <v>145</v>
+        <v>157</v>
+      </c>
+      <c r="S23" s="3" t="s">
+        <v>158</v>
       </c>
       <c r="T23" s="1" t="s">
-        <v>48</v>
+        <v>79</v>
       </c>
       <c r="U23" s="1" t="s">
-        <v>41</v>
+        <v>73</v>
       </c>
       <c r="V23" s="1" t="n">
         <v>0.1</v>
       </c>
       <c r="W23" s="1" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="X23" s="1" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="Y23" s="1" t="n">
         <v>0</v>
@@ -3532,67 +3616,67 @@
     </row>
     <row r="24" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
-        <v>146</v>
+        <v>159</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>27</v>
+        <v>61</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>122</v>
+        <v>152</v>
       </c>
       <c r="E24" s="1" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>134</v>
+        <v>153</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>31</v>
+        <v>64</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>124</v>
+        <v>154</v>
       </c>
       <c r="I24" s="4" t="n">
-        <v>8.35416666666667</v>
+        <v>2.35416666666667</v>
       </c>
       <c r="J24" s="1" t="n">
-        <v>10075</v>
+        <v>10061</v>
       </c>
       <c r="K24" s="1" t="n">
         <v>44011</v>
       </c>
       <c r="L24" s="1" t="s">
-        <v>53</v>
+        <v>83</v>
       </c>
       <c r="M24" s="1" t="s">
-        <v>147</v>
+        <v>160</v>
       </c>
       <c r="N24" s="1" t="n">
-        <v>234</v>
+        <v>343</v>
       </c>
       <c r="O24" s="1" t="s">
-        <v>148</v>
+        <v>161</v>
       </c>
       <c r="P24" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q24" s="1" t="s">
         <v>37</v>
       </c>
       <c r="R24" s="1" t="s">
-        <v>127</v>
+        <v>157</v>
       </c>
       <c r="S24" s="3" t="s">
-        <v>149</v>
+        <v>162</v>
       </c>
       <c r="T24" s="1" t="s">
-        <v>48</v>
+        <v>79</v>
       </c>
       <c r="U24" s="1" t="s">
-        <v>41</v>
+        <v>73</v>
       </c>
       <c r="V24" s="1" t="n">
         <v>0.1</v>
@@ -3610,69 +3694,69 @@
         <v>42</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
-        <v>150</v>
+        <v>163</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>27</v>
+        <v>61</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>122</v>
+        <v>152</v>
       </c>
       <c r="E25" s="1" t="n">
         <v>10</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>134</v>
+        <v>164</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>31</v>
+        <v>64</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>124</v>
+        <v>154</v>
       </c>
       <c r="I25" s="4" t="n">
-        <v>8.35416666666667</v>
+        <v>3.35416666666667</v>
       </c>
       <c r="J25" s="1" t="n">
-        <v>10076</v>
+        <v>10070</v>
       </c>
       <c r="K25" s="1" t="n">
         <v>44011</v>
       </c>
       <c r="L25" s="1" t="s">
-        <v>53</v>
+        <v>83</v>
       </c>
       <c r="M25" s="1" t="s">
-        <v>151</v>
+        <v>165</v>
       </c>
       <c r="N25" s="1" t="n">
-        <v>895</v>
+        <v>235</v>
       </c>
       <c r="O25" s="1" t="s">
-        <v>152</v>
+        <v>166</v>
       </c>
       <c r="P25" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q25" s="1" t="s">
         <v>37</v>
       </c>
       <c r="R25" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="S25" s="1" t="s">
-        <v>154</v>
+        <v>157</v>
+      </c>
+      <c r="S25" s="3" t="s">
+        <v>167</v>
       </c>
       <c r="T25" s="1" t="s">
-        <v>48</v>
+        <v>79</v>
       </c>
       <c r="U25" s="1" t="s">
-        <v>41</v>
+        <v>73</v>
       </c>
       <c r="V25" s="1" t="n">
         <v>0.1</v>
@@ -3681,7 +3765,7 @@
         <v>0.2</v>
       </c>
       <c r="X25" s="1" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="Y25" s="1" t="n">
         <v>0</v>
@@ -3690,51 +3774,51 @@
         <v>42</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
-        <v>155</v>
+        <v>168</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>27</v>
+        <v>61</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>29</v>
+        <v>152</v>
       </c>
       <c r="E26" s="1" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>31</v>
+        <v>64</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="I26" s="1" t="s">
-        <v>158</v>
+        <v>154</v>
+      </c>
+      <c r="I26" s="4" t="n">
+        <v>4.35416666666667</v>
       </c>
       <c r="J26" s="1" t="n">
-        <v>10080</v>
+        <v>10071</v>
       </c>
       <c r="K26" s="1" t="n">
         <v>44011</v>
       </c>
       <c r="L26" s="1" t="s">
-        <v>34</v>
+        <v>83</v>
       </c>
       <c r="M26" s="1" t="s">
-        <v>159</v>
+        <v>169</v>
       </c>
       <c r="N26" s="1" t="n">
-        <v>1057</v>
+        <v>61</v>
       </c>
       <c r="O26" s="1" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="P26" s="1" t="n">
         <v>3</v>
@@ -3743,78 +3827,78 @@
         <v>37</v>
       </c>
       <c r="R26" s="1" t="s">
-        <v>38</v>
+        <v>157</v>
       </c>
       <c r="S26" s="3" t="s">
-        <v>161</v>
+        <v>171</v>
       </c>
       <c r="T26" s="1" t="s">
-        <v>162</v>
+        <v>79</v>
       </c>
       <c r="U26" s="1" t="s">
-        <v>41</v>
+        <v>73</v>
       </c>
       <c r="V26" s="1" t="n">
-        <v>0.075</v>
+        <v>0.1</v>
       </c>
       <c r="W26" s="1" t="n">
-        <v>0.175</v>
+        <v>0</v>
       </c>
       <c r="X26" s="1" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="Y26" s="1" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="Z26" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
-        <v>163</v>
+        <v>172</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>27</v>
+        <v>61</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D27" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="E27" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="F27" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="E27" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>165</v>
-      </c>
       <c r="G27" s="1" t="s">
-        <v>166</v>
+        <v>64</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="I27" s="1" t="s">
-        <v>158</v>
+        <v>154</v>
+      </c>
+      <c r="I27" s="4" t="n">
+        <v>5.35416666666667</v>
       </c>
       <c r="J27" s="1" t="n">
-        <v>10090</v>
+        <v>10072</v>
       </c>
       <c r="K27" s="1" t="n">
         <v>44011</v>
       </c>
       <c r="L27" s="1" t="s">
-        <v>168</v>
+        <v>83</v>
       </c>
       <c r="M27" s="1" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="N27" s="1" t="n">
-        <v>320</v>
+        <v>905</v>
       </c>
       <c r="O27" s="1" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="P27" s="1" t="n">
         <v>2</v>
@@ -3823,25 +3907,28 @@
         <v>37</v>
       </c>
       <c r="R27" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="S27" s="3" t="s">
-        <v>172</v>
+        <v>157</v>
+      </c>
+      <c r="S27" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="T27" s="1" t="s">
+        <v>79</v>
       </c>
       <c r="U27" s="1" t="s">
-        <v>41</v>
+        <v>73</v>
       </c>
       <c r="V27" s="1" t="n">
-        <v>0.4</v>
+        <v>0.1</v>
       </c>
       <c r="W27" s="1" t="n">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="X27" s="1" t="n">
-        <v>1.2</v>
+        <v>0</v>
       </c>
       <c r="Y27" s="1" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Z27" s="1" t="s">
         <v>42</v>
@@ -3849,49 +3936,49 @@
     </row>
     <row r="28" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>27</v>
+        <v>61</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D28" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="E28" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="F28" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="E28" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>165</v>
-      </c>
       <c r="G28" s="1" t="s">
-        <v>166</v>
+        <v>64</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="I28" s="1" t="s">
-        <v>158</v>
+        <v>154</v>
+      </c>
+      <c r="I28" s="4" t="n">
+        <v>8.35416666666667</v>
       </c>
       <c r="J28" s="1" t="n">
-        <v>10091</v>
+        <v>10075</v>
       </c>
       <c r="K28" s="1" t="n">
         <v>44011</v>
       </c>
       <c r="L28" s="1" t="s">
-        <v>168</v>
+        <v>83</v>
       </c>
       <c r="M28" s="1" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="N28" s="1" t="n">
-        <v>389</v>
+        <v>234</v>
       </c>
       <c r="O28" s="1" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="P28" s="1" t="n">
         <v>1</v>
@@ -3900,16 +3987,16 @@
         <v>37</v>
       </c>
       <c r="R28" s="1" t="s">
-        <v>171</v>
+        <v>157</v>
       </c>
       <c r="S28" s="3" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="T28" s="1" t="s">
-        <v>48</v>
+        <v>79</v>
       </c>
       <c r="U28" s="1" t="s">
-        <v>41</v>
+        <v>73</v>
       </c>
       <c r="V28" s="1" t="n">
         <v>0.1</v>
@@ -3918,10 +4005,10 @@
         <v>0.2</v>
       </c>
       <c r="X28" s="1" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="Y28" s="1" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="Z28" s="1" t="s">
         <v>42</v>
@@ -3929,49 +4016,49 @@
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>27</v>
+        <v>61</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D29" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="E29" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="F29" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="E29" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>165</v>
-      </c>
       <c r="G29" s="1" t="s">
-        <v>166</v>
+        <v>64</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="I29" s="1" t="s">
-        <v>158</v>
+        <v>154</v>
+      </c>
+      <c r="I29" s="4" t="n">
+        <v>8.35416666666667</v>
       </c>
       <c r="J29" s="1" t="n">
-        <v>10092</v>
+        <v>10076</v>
       </c>
       <c r="K29" s="1" t="n">
         <v>44011</v>
       </c>
       <c r="L29" s="1" t="s">
-        <v>168</v>
+        <v>83</v>
       </c>
       <c r="M29" s="1" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="N29" s="1" t="n">
-        <v>901</v>
+        <v>895</v>
       </c>
       <c r="O29" s="1" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="P29" s="1" t="n">
         <v>1</v>
@@ -3980,105 +4067,108 @@
         <v>37</v>
       </c>
       <c r="R29" s="1" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="S29" s="1" t="s">
-        <v>181</v>
+        <v>184</v>
+      </c>
+      <c r="T29" s="1" t="s">
+        <v>79</v>
       </c>
       <c r="U29" s="1" t="s">
-        <v>41</v>
+        <v>73</v>
       </c>
       <c r="V29" s="1" t="n">
-        <v>0.4</v>
+        <v>0.1</v>
       </c>
       <c r="W29" s="1" t="n">
-        <v>1.2</v>
+        <v>0.2</v>
       </c>
       <c r="X29" s="1" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y29" s="1" t="n">
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="Z29" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>27</v>
+        <v>61</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>122</v>
+        <v>62</v>
       </c>
       <c r="E30" s="1" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>31</v>
+        <v>64</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="I30" s="4" t="n">
-        <v>5.35416666666667</v>
+        <v>187</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>188</v>
       </c>
       <c r="J30" s="1" t="n">
-        <v>10100</v>
+        <v>10080</v>
       </c>
       <c r="K30" s="1" t="n">
         <v>44011</v>
       </c>
       <c r="L30" s="1" t="s">
-        <v>184</v>
+        <v>67</v>
       </c>
       <c r="M30" s="1" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="N30" s="1" t="n">
-        <v>286</v>
+        <v>1057</v>
       </c>
       <c r="O30" s="1" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="P30" s="1" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q30" s="1" t="s">
         <v>37</v>
       </c>
       <c r="R30" s="1" t="s">
-        <v>127</v>
+        <v>70</v>
       </c>
       <c r="S30" s="3" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="T30" s="1" t="s">
-        <v>188</v>
+        <v>40</v>
       </c>
       <c r="U30" s="1" t="s">
-        <v>41</v>
+        <v>73</v>
       </c>
       <c r="V30" s="1" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="W30" s="1" t="n">
+        <v>0.175</v>
+      </c>
+      <c r="X30" s="1" t="n">
         <v>0.3</v>
       </c>
-      <c r="W30" s="1" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="X30" s="1" t="n">
-        <v>1</v>
-      </c>
       <c r="Y30" s="1" t="n">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="Z30" s="1" t="s">
         <v>42</v>
@@ -4086,49 +4176,49 @@
     </row>
     <row r="31" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>27</v>
+        <v>61</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="E31" s="1" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>31</v>
+        <v>195</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>157</v>
+        <v>196</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>158</v>
+        <v>188</v>
       </c>
       <c r="J31" s="1" t="n">
-        <v>10110</v>
+        <v>10090</v>
       </c>
       <c r="K31" s="1" t="n">
         <v>44011</v>
       </c>
       <c r="L31" s="1" t="s">
-        <v>53</v>
+        <v>197</v>
       </c>
       <c r="M31" s="1" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="N31" s="1" t="n">
-        <v>100</v>
+        <v>320</v>
       </c>
       <c r="O31" s="1" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="P31" s="1" t="n">
         <v>2</v>
@@ -4137,28 +4227,25 @@
         <v>37</v>
       </c>
       <c r="R31" s="1" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="S31" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="T31" s="1" t="s">
-        <v>48</v>
+        <v>201</v>
       </c>
       <c r="U31" s="1" t="s">
-        <v>41</v>
+        <v>73</v>
       </c>
       <c r="V31" s="1" t="n">
-        <v>0.1</v>
+        <v>0.4</v>
       </c>
       <c r="W31" s="1" t="n">
-        <v>0.2</v>
+        <v>0.7</v>
       </c>
       <c r="X31" s="1" t="n">
-        <v>0.3</v>
+        <v>1.2</v>
       </c>
       <c r="Y31" s="1" t="n">
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="Z31" s="1" t="s">
         <v>42</v>
@@ -4166,49 +4253,49 @@
     </row>
     <row r="32" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>27</v>
+        <v>61</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="E32" s="1" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>31</v>
+        <v>195</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="I32" s="4" t="n">
-        <v>1.41666666666667</v>
+        <v>196</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>188</v>
       </c>
       <c r="J32" s="1" t="n">
-        <v>10120</v>
+        <v>10091</v>
       </c>
       <c r="K32" s="1" t="n">
         <v>44011</v>
       </c>
       <c r="L32" s="1" t="s">
-        <v>53</v>
+        <v>197</v>
       </c>
       <c r="M32" s="1" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="N32" s="1" t="n">
-        <v>305</v>
+        <v>389</v>
       </c>
       <c r="O32" s="1" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="P32" s="1" t="n">
         <v>1</v>
@@ -4217,16 +4304,16 @@
         <v>37</v>
       </c>
       <c r="R32" s="1" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="S32" s="3" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="T32" s="1" t="s">
-        <v>48</v>
+        <v>79</v>
       </c>
       <c r="U32" s="1" t="s">
-        <v>49</v>
+        <v>73</v>
       </c>
       <c r="V32" s="1" t="n">
         <v>0.1</v>
@@ -4235,90 +4322,87 @@
         <v>0.2</v>
       </c>
       <c r="X32" s="1" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="Y32" s="1" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="Z32" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>27</v>
+        <v>61</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="E33" s="1" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>31</v>
+        <v>195</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>52</v>
+        <v>196</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>33</v>
+        <v>188</v>
       </c>
       <c r="J33" s="1" t="n">
-        <v>10130</v>
+        <v>10092</v>
       </c>
       <c r="K33" s="1" t="n">
         <v>44011</v>
       </c>
       <c r="L33" s="1" t="s">
-        <v>53</v>
+        <v>197</v>
       </c>
       <c r="M33" s="1" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="N33" s="1" t="n">
-        <v>256</v>
+        <v>901</v>
       </c>
       <c r="O33" s="1" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="P33" s="1" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q33" s="1" t="s">
         <v>37</v>
       </c>
       <c r="R33" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="S33" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="T33" s="1" t="s">
-        <v>48</v>
+        <v>209</v>
+      </c>
+      <c r="S33" s="1" t="s">
+        <v>210</v>
       </c>
       <c r="U33" s="1" t="s">
-        <v>41</v>
+        <v>73</v>
       </c>
       <c r="V33" s="1" t="n">
-        <v>0.1</v>
+        <v>0.4</v>
       </c>
       <c r="W33" s="1" t="n">
-        <v>0.3</v>
+        <v>1.2</v>
       </c>
       <c r="X33" s="1" t="n">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="Y33" s="1" t="n">
-        <v>0.9</v>
+        <v>3.5</v>
       </c>
       <c r="Z33" s="1" t="s">
         <v>42</v>
@@ -4326,79 +4410,79 @@
     </row>
     <row r="34" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>27</v>
+        <v>61</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>190</v>
+        <v>152</v>
       </c>
       <c r="E34" s="1" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>202</v>
+        <v>212</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>31</v>
+        <v>64</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="I34" s="1" t="s">
-        <v>33</v>
+        <v>187</v>
+      </c>
+      <c r="I34" s="4" t="n">
+        <v>5.35416666666667</v>
       </c>
       <c r="J34" s="1" t="n">
-        <v>10132</v>
+        <v>10100</v>
       </c>
       <c r="K34" s="1" t="n">
         <v>44011</v>
       </c>
       <c r="L34" s="1" t="s">
-        <v>53</v>
+        <v>213</v>
       </c>
       <c r="M34" s="1" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="N34" s="1" t="n">
-        <v>63</v>
+        <v>286</v>
       </c>
       <c r="O34" s="1" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="P34" s="1" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q34" s="1" t="s">
         <v>37</v>
       </c>
       <c r="R34" s="1" t="s">
-        <v>205</v>
+        <v>157</v>
       </c>
       <c r="S34" s="3" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="T34" s="1" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="U34" s="1" t="s">
-        <v>41</v>
+        <v>73</v>
       </c>
       <c r="V34" s="1" t="n">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="W34" s="1" t="n">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
       <c r="X34" s="1" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="Y34" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z34" s="1" t="s">
         <v>42</v>
@@ -4406,49 +4490,49 @@
     </row>
     <row r="35" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>27</v>
+        <v>61</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>190</v>
+        <v>218</v>
       </c>
       <c r="E35" s="1" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>212</v>
+        <v>219</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>31</v>
+        <v>64</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>52</v>
+        <v>187</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>158</v>
+        <v>188</v>
       </c>
       <c r="J35" s="1" t="n">
-        <v>10140</v>
+        <v>10110</v>
       </c>
       <c r="K35" s="1" t="n">
         <v>44011</v>
       </c>
       <c r="L35" s="1" t="s">
-        <v>53</v>
+        <v>83</v>
       </c>
       <c r="M35" s="1" t="s">
-        <v>213</v>
+        <v>220</v>
       </c>
       <c r="N35" s="1" t="n">
-        <v>29</v>
+        <v>100</v>
       </c>
       <c r="O35" s="1" t="s">
-        <v>214</v>
+        <v>221</v>
       </c>
       <c r="P35" s="1" t="n">
         <v>2</v>
@@ -4457,108 +4541,108 @@
         <v>37</v>
       </c>
       <c r="R35" s="1" t="s">
-        <v>205</v>
+        <v>222</v>
       </c>
       <c r="S35" s="3" t="s">
-        <v>215</v>
+        <v>223</v>
       </c>
       <c r="T35" s="1" t="s">
-        <v>48</v>
+        <v>79</v>
       </c>
       <c r="U35" s="1" t="s">
-        <v>49</v>
+        <v>73</v>
       </c>
       <c r="V35" s="1" t="n">
         <v>0.1</v>
       </c>
       <c r="W35" s="1" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="X35" s="1" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="Y35" s="1" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="Z35" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
-        <v>216</v>
+        <v>224</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>27</v>
+        <v>61</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>190</v>
+        <v>218</v>
       </c>
       <c r="E36" s="1" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>217</v>
+        <v>225</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>31</v>
+        <v>64</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="I36" s="1" t="s">
-        <v>33</v>
+        <v>187</v>
+      </c>
+      <c r="I36" s="4" t="n">
+        <v>1.41666666666667</v>
       </c>
       <c r="J36" s="1" t="n">
-        <v>10150</v>
+        <v>10120</v>
       </c>
       <c r="K36" s="1" t="n">
         <v>44011</v>
       </c>
       <c r="L36" s="1" t="s">
-        <v>53</v>
+        <v>83</v>
       </c>
       <c r="M36" s="1" t="s">
-        <v>218</v>
+        <v>226</v>
       </c>
       <c r="N36" s="1" t="n">
-        <v>898</v>
+        <v>305</v>
       </c>
       <c r="O36" s="1" t="s">
-        <v>219</v>
+        <v>227</v>
       </c>
       <c r="P36" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q36" s="1" t="s">
         <v>37</v>
       </c>
       <c r="R36" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="S36" s="1" t="s">
-        <v>220</v>
+        <v>222</v>
+      </c>
+      <c r="S36" s="3" t="s">
+        <v>228</v>
       </c>
       <c r="T36" s="1" t="s">
-        <v>48</v>
+        <v>79</v>
       </c>
       <c r="U36" s="1" t="s">
         <v>41</v>
       </c>
       <c r="V36" s="1" t="n">
-        <v>1.5</v>
+        <v>0.1</v>
       </c>
       <c r="W36" s="1" t="n">
-        <v>3</v>
+        <v>0.2</v>
       </c>
       <c r="X36" s="1" t="n">
-        <v>6</v>
+        <v>0.3</v>
       </c>
       <c r="Y36" s="1" t="n">
-        <v>8</v>
+        <v>0.5</v>
       </c>
       <c r="Z36" s="1" t="s">
         <v>42</v>
@@ -4566,159 +4650,159 @@
     </row>
     <row r="37" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
-        <v>221</v>
+        <v>229</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>27</v>
+        <v>61</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>190</v>
+        <v>218</v>
       </c>
       <c r="E37" s="1" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>217</v>
+        <v>230</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>31</v>
+        <v>64</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>52</v>
+        <v>82</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>33</v>
+        <v>66</v>
       </c>
       <c r="J37" s="1" t="n">
-        <v>10152</v>
+        <v>10130</v>
       </c>
       <c r="K37" s="1" t="n">
         <v>44011</v>
       </c>
       <c r="L37" s="1" t="s">
-        <v>222</v>
+        <v>83</v>
       </c>
       <c r="M37" s="1" t="s">
-        <v>223</v>
+        <v>231</v>
       </c>
       <c r="N37" s="1" t="n">
-        <v>151</v>
+        <v>256</v>
       </c>
       <c r="O37" s="1" t="s">
-        <v>224</v>
+        <v>232</v>
       </c>
       <c r="P37" s="1" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q37" s="1" t="s">
         <v>37</v>
       </c>
       <c r="R37" s="1" t="s">
-        <v>205</v>
+        <v>233</v>
       </c>
       <c r="S37" s="3" t="s">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="T37" s="1" t="s">
-        <v>162</v>
+        <v>79</v>
       </c>
       <c r="U37" s="1" t="s">
-        <v>41</v>
+        <v>73</v>
       </c>
       <c r="V37" s="1" t="n">
-        <v>0.025</v>
+        <v>0.1</v>
       </c>
       <c r="W37" s="1" t="n">
-        <v>0.05</v>
+        <v>0.3</v>
       </c>
       <c r="X37" s="1" t="n">
-        <v>0.06</v>
+        <v>0.5</v>
       </c>
       <c r="Y37" s="1" t="n">
-        <v>0.1</v>
+        <v>0.9</v>
       </c>
       <c r="Z37" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
-        <v>226</v>
+        <v>235</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>27</v>
+        <v>61</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>190</v>
+        <v>218</v>
       </c>
       <c r="E38" s="1" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>217</v>
+        <v>230</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>31</v>
+        <v>64</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>52</v>
+        <v>82</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>33</v>
+        <v>66</v>
       </c>
       <c r="J38" s="1" t="n">
-        <v>10154</v>
+        <v>10132</v>
       </c>
       <c r="K38" s="1" t="n">
         <v>44011</v>
       </c>
       <c r="L38" s="1" t="s">
-        <v>53</v>
+        <v>83</v>
       </c>
       <c r="M38" s="1" t="s">
-        <v>227</v>
+        <v>236</v>
       </c>
       <c r="N38" s="1" t="n">
-        <v>885</v>
+        <v>63</v>
       </c>
       <c r="O38" s="1" t="s">
-        <v>228</v>
+        <v>237</v>
       </c>
       <c r="P38" s="1" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q38" s="1" t="s">
         <v>37</v>
       </c>
       <c r="R38" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="S38" s="1" t="s">
-        <v>229</v>
+        <v>233</v>
+      </c>
+      <c r="S38" s="3" t="s">
+        <v>238</v>
       </c>
       <c r="T38" s="1" t="s">
-        <v>48</v>
+        <v>79</v>
       </c>
       <c r="U38" s="1" t="s">
-        <v>41</v>
+        <v>73</v>
       </c>
       <c r="V38" s="1" t="n">
-        <v>0.8</v>
+        <v>0.2</v>
       </c>
       <c r="W38" s="1" t="n">
-        <v>2</v>
+        <v>0.3</v>
       </c>
       <c r="X38" s="1" t="n">
-        <v>4</v>
+        <v>0.5</v>
       </c>
       <c r="Y38" s="1" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="Z38" s="1" t="s">
         <v>42</v>
@@ -4726,79 +4810,79 @@
     </row>
     <row r="39" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="s">
-        <v>230</v>
+        <v>239</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>27</v>
+        <v>61</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>190</v>
+        <v>218</v>
       </c>
       <c r="E39" s="1" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>217</v>
+        <v>240</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>31</v>
+        <v>64</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>52</v>
+        <v>82</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>33</v>
+        <v>188</v>
       </c>
       <c r="J39" s="1" t="n">
-        <v>10156</v>
+        <v>10140</v>
       </c>
       <c r="K39" s="1" t="n">
         <v>44011</v>
       </c>
       <c r="L39" s="1" t="s">
-        <v>222</v>
+        <v>83</v>
       </c>
       <c r="M39" s="1" t="s">
-        <v>231</v>
+        <v>241</v>
       </c>
       <c r="N39" s="1" t="n">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="O39" s="1" t="s">
-        <v>232</v>
+        <v>242</v>
       </c>
       <c r="P39" s="1" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q39" s="1" t="s">
         <v>37</v>
       </c>
       <c r="R39" s="1" t="s">
-        <v>205</v>
+        <v>233</v>
       </c>
       <c r="S39" s="3" t="s">
-        <v>233</v>
+        <v>243</v>
       </c>
       <c r="T39" s="1" t="s">
-        <v>162</v>
+        <v>79</v>
       </c>
       <c r="U39" s="1" t="s">
         <v>41</v>
       </c>
       <c r="V39" s="1" t="n">
-        <v>0.015</v>
+        <v>0.1</v>
       </c>
       <c r="W39" s="1" t="n">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="X39" s="1" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="Y39" s="1" t="n">
-        <v>0.09</v>
+        <v>0</v>
       </c>
       <c r="Z39" s="1" t="s">
         <v>42</v>
@@ -4806,49 +4890,49 @@
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="s">
-        <v>234</v>
+        <v>244</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>27</v>
+        <v>61</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>190</v>
+        <v>218</v>
       </c>
       <c r="E40" s="1" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>235</v>
+        <v>245</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>31</v>
+        <v>64</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>124</v>
+        <v>82</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>158</v>
+        <v>66</v>
       </c>
       <c r="J40" s="1" t="n">
-        <v>10160</v>
+        <v>10150</v>
       </c>
       <c r="K40" s="1" t="n">
         <v>44011</v>
       </c>
       <c r="L40" s="1" t="s">
-        <v>53</v>
+        <v>83</v>
       </c>
       <c r="M40" s="1" t="s">
-        <v>236</v>
+        <v>246</v>
       </c>
       <c r="N40" s="1" t="n">
-        <v>896</v>
+        <v>898</v>
       </c>
       <c r="O40" s="1" t="s">
-        <v>237</v>
+        <v>247</v>
       </c>
       <c r="P40" s="1" t="n">
         <v>2</v>
@@ -4857,28 +4941,28 @@
         <v>37</v>
       </c>
       <c r="R40" s="1" t="s">
-        <v>153</v>
+        <v>183</v>
       </c>
       <c r="S40" s="1" t="s">
-        <v>238</v>
+        <v>248</v>
       </c>
       <c r="T40" s="1" t="s">
-        <v>48</v>
+        <v>79</v>
       </c>
       <c r="U40" s="1" t="s">
-        <v>41</v>
+        <v>73</v>
       </c>
       <c r="V40" s="1" t="n">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="W40" s="1" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="X40" s="1" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="Y40" s="1" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="Z40" s="1" t="s">
         <v>42</v>
@@ -4886,129 +4970,129 @@
     </row>
     <row r="41" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="s">
-        <v>239</v>
+        <v>249</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>27</v>
+        <v>61</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>190</v>
+        <v>218</v>
       </c>
       <c r="E41" s="1" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>235</v>
+        <v>245</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>31</v>
+        <v>64</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>124</v>
+        <v>82</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>158</v>
+        <v>66</v>
       </c>
       <c r="J41" s="1" t="n">
-        <v>10162</v>
+        <v>10152</v>
       </c>
       <c r="K41" s="1" t="n">
         <v>44011</v>
       </c>
       <c r="L41" s="1" t="s">
-        <v>34</v>
+        <v>250</v>
       </c>
       <c r="M41" s="1" t="s">
-        <v>240</v>
+        <v>251</v>
       </c>
       <c r="N41" s="1" t="n">
-        <v>222</v>
+        <v>151</v>
       </c>
       <c r="O41" s="1" t="s">
-        <v>241</v>
+        <v>252</v>
       </c>
       <c r="P41" s="1" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q41" s="1" t="s">
         <v>37</v>
       </c>
       <c r="R41" s="1" t="s">
-        <v>205</v>
+        <v>233</v>
       </c>
       <c r="S41" s="3" t="s">
-        <v>242</v>
+        <v>253</v>
       </c>
       <c r="T41" s="1" t="s">
         <v>40</v>
       </c>
       <c r="U41" s="1" t="s">
-        <v>41</v>
+        <v>73</v>
       </c>
       <c r="V41" s="1" t="n">
-        <v>15</v>
+        <v>0.025</v>
       </c>
       <c r="W41" s="1" t="n">
-        <v>35</v>
+        <v>0.05</v>
       </c>
       <c r="X41" s="1" t="n">
-        <v>50</v>
+        <v>0.06</v>
       </c>
       <c r="Y41" s="1" t="n">
-        <v>100</v>
+        <v>0.1</v>
       </c>
       <c r="Z41" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="s">
-        <v>243</v>
+        <v>254</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>27</v>
+        <v>61</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>190</v>
+        <v>218</v>
       </c>
       <c r="E42" s="1" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>31</v>
+        <v>64</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="I42" s="4" t="n">
-        <v>6.35416666666667</v>
+        <v>82</v>
+      </c>
+      <c r="I42" s="1" t="s">
+        <v>66</v>
       </c>
       <c r="J42" s="1" t="n">
-        <v>10170</v>
+        <v>10154</v>
       </c>
       <c r="K42" s="1" t="n">
         <v>44011</v>
       </c>
       <c r="L42" s="1" t="s">
-        <v>53</v>
+        <v>83</v>
       </c>
       <c r="M42" s="1" t="s">
-        <v>245</v>
+        <v>255</v>
       </c>
       <c r="N42" s="1" t="n">
-        <v>86</v>
+        <v>885</v>
       </c>
       <c r="O42" s="1" t="s">
-        <v>246</v>
+        <v>256</v>
       </c>
       <c r="P42" s="1" t="n">
         <v>2</v>
@@ -5017,28 +5101,28 @@
         <v>37</v>
       </c>
       <c r="R42" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="S42" s="3" t="s">
-        <v>247</v>
+        <v>183</v>
+      </c>
+      <c r="S42" s="1" t="s">
+        <v>257</v>
       </c>
       <c r="T42" s="1" t="s">
-        <v>48</v>
+        <v>79</v>
       </c>
       <c r="U42" s="1" t="s">
-        <v>41</v>
+        <v>73</v>
       </c>
       <c r="V42" s="1" t="n">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="W42" s="1" t="n">
-        <v>0.7</v>
+        <v>2</v>
       </c>
       <c r="X42" s="1" t="n">
-        <v>1.3</v>
+        <v>4</v>
       </c>
       <c r="Y42" s="1" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="Z42" s="1" t="s">
         <v>42</v>
@@ -5046,49 +5130,49 @@
     </row>
     <row r="43" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="s">
-        <v>248</v>
+        <v>258</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>27</v>
+        <v>61</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>190</v>
+        <v>218</v>
       </c>
       <c r="E43" s="1" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>31</v>
+        <v>64</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="I43" s="4" t="n">
-        <v>8.35416666666667</v>
+        <v>82</v>
+      </c>
+      <c r="I43" s="1" t="s">
+        <v>66</v>
       </c>
       <c r="J43" s="1" t="n">
-        <v>10172</v>
+        <v>10156</v>
       </c>
       <c r="K43" s="1" t="n">
         <v>44011</v>
       </c>
       <c r="L43" s="1" t="s">
-        <v>53</v>
+        <v>250</v>
       </c>
       <c r="M43" s="1" t="s">
-        <v>249</v>
+        <v>259</v>
       </c>
       <c r="N43" s="1" t="n">
-        <v>59</v>
+        <v>25</v>
       </c>
       <c r="O43" s="1" t="s">
-        <v>250</v>
+        <v>260</v>
       </c>
       <c r="P43" s="1" t="n">
         <v>3</v>
@@ -5097,78 +5181,78 @@
         <v>37</v>
       </c>
       <c r="R43" s="1" t="s">
-        <v>205</v>
+        <v>233</v>
       </c>
       <c r="S43" s="3" t="s">
-        <v>251</v>
+        <v>261</v>
       </c>
       <c r="T43" s="1" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="U43" s="1" t="s">
-        <v>41</v>
+        <v>73</v>
       </c>
       <c r="V43" s="1" t="n">
-        <v>0.1</v>
+        <v>0.015</v>
       </c>
       <c r="W43" s="1" t="n">
-        <v>0.2</v>
+        <v>0.03</v>
       </c>
       <c r="X43" s="1" t="n">
-        <v>0.4</v>
+        <v>0.05</v>
       </c>
       <c r="Y43" s="1" t="n">
-        <v>0.7</v>
+        <v>0.09</v>
       </c>
       <c r="Z43" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="s">
-        <v>252</v>
+        <v>262</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>27</v>
+        <v>61</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>122</v>
+        <v>218</v>
       </c>
       <c r="E44" s="1" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>253</v>
+        <v>263</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>31</v>
+        <v>64</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="I44" s="4" t="n">
-        <v>8.35416666666667</v>
+        <v>154</v>
+      </c>
+      <c r="I44" s="1" t="s">
+        <v>188</v>
       </c>
       <c r="J44" s="1" t="n">
-        <v>10190</v>
+        <v>10160</v>
       </c>
       <c r="K44" s="1" t="n">
         <v>44011</v>
       </c>
       <c r="L44" s="1" t="s">
-        <v>184</v>
+        <v>83</v>
       </c>
       <c r="M44" s="1" t="s">
-        <v>254</v>
+        <v>264</v>
       </c>
       <c r="N44" s="1" t="n">
-        <v>1650</v>
+        <v>896</v>
       </c>
       <c r="O44" s="1" t="s">
-        <v>255</v>
+        <v>265</v>
       </c>
       <c r="P44" s="1" t="n">
         <v>2</v>
@@ -5177,28 +5261,28 @@
         <v>37</v>
       </c>
       <c r="R44" s="1" t="s">
-        <v>127</v>
+        <v>183</v>
       </c>
       <c r="S44" s="1" t="s">
-        <v>256</v>
+        <v>266</v>
       </c>
       <c r="T44" s="1" t="s">
-        <v>188</v>
+        <v>79</v>
       </c>
       <c r="U44" s="1" t="s">
-        <v>41</v>
+        <v>73</v>
       </c>
       <c r="V44" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W44" s="1" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="X44" s="1" t="n">
-        <v>3.5</v>
+        <v>7</v>
       </c>
       <c r="Y44" s="1" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="Z44" s="1" t="s">
         <v>42</v>
@@ -5206,79 +5290,79 @@
     </row>
     <row r="45" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="s">
-        <v>257</v>
+        <v>267</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>27</v>
+        <v>61</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>190</v>
+        <v>218</v>
       </c>
       <c r="E45" s="1" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>31</v>
+        <v>64</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="I45" s="4" t="n">
-        <v>8.35416666666667</v>
+        <v>154</v>
+      </c>
+      <c r="I45" s="1" t="s">
+        <v>188</v>
       </c>
       <c r="J45" s="1" t="n">
-        <v>10200</v>
+        <v>10162</v>
       </c>
       <c r="K45" s="1" t="n">
         <v>44011</v>
       </c>
       <c r="L45" s="1" t="s">
-        <v>53</v>
+        <v>67</v>
       </c>
       <c r="M45" s="1" t="s">
-        <v>259</v>
+        <v>268</v>
       </c>
       <c r="N45" s="1" t="n">
-        <v>305</v>
+        <v>222</v>
       </c>
       <c r="O45" s="1" t="s">
-        <v>199</v>
+        <v>269</v>
       </c>
       <c r="P45" s="1" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q45" s="1" t="s">
         <v>37</v>
       </c>
       <c r="R45" s="1" t="s">
-        <v>194</v>
+        <v>233</v>
       </c>
       <c r="S45" s="3" t="s">
-        <v>200</v>
+        <v>270</v>
       </c>
       <c r="T45" s="1" t="s">
-        <v>48</v>
+        <v>72</v>
       </c>
       <c r="U45" s="1" t="s">
-        <v>49</v>
+        <v>73</v>
       </c>
       <c r="V45" s="1" t="n">
-        <v>0.1</v>
+        <v>15</v>
       </c>
       <c r="W45" s="1" t="n">
-        <v>0.2</v>
+        <v>35</v>
       </c>
       <c r="X45" s="1" t="n">
-        <v>0.3</v>
+        <v>50</v>
       </c>
       <c r="Y45" s="1" t="n">
-        <v>0.5</v>
+        <v>100</v>
       </c>
       <c r="Z45" s="1" t="s">
         <v>42</v>
@@ -5286,79 +5370,79 @@
     </row>
     <row r="46" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="s">
-        <v>260</v>
+        <v>271</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>27</v>
+        <v>61</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>190</v>
+        <v>218</v>
       </c>
       <c r="E46" s="1" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>261</v>
+        <v>272</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>31</v>
+        <v>64</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="I46" s="4" t="n">
-        <v>1.41666666666667</v>
+        <v>6.35416666666667</v>
       </c>
       <c r="J46" s="1" t="n">
-        <v>10210</v>
+        <v>10170</v>
       </c>
       <c r="K46" s="1" t="n">
         <v>44011</v>
       </c>
       <c r="L46" s="1" t="s">
-        <v>53</v>
+        <v>83</v>
       </c>
       <c r="M46" s="1" t="s">
-        <v>262</v>
+        <v>273</v>
       </c>
       <c r="N46" s="1" t="n">
-        <v>45</v>
+        <v>86</v>
       </c>
       <c r="O46" s="1" t="s">
-        <v>263</v>
+        <v>274</v>
       </c>
       <c r="P46" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q46" s="1" t="s">
         <v>37</v>
       </c>
       <c r="R46" s="1" t="s">
-        <v>205</v>
+        <v>233</v>
       </c>
       <c r="S46" s="3" t="s">
-        <v>264</v>
+        <v>275</v>
       </c>
       <c r="T46" s="1" t="s">
-        <v>48</v>
+        <v>79</v>
       </c>
       <c r="U46" s="1" t="s">
-        <v>41</v>
+        <v>73</v>
       </c>
       <c r="V46" s="1" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="W46" s="1" t="n">
-        <v>0.4</v>
+        <v>0.7</v>
       </c>
       <c r="X46" s="1" t="n">
-        <v>0.7</v>
+        <v>1.3</v>
       </c>
       <c r="Y46" s="1" t="n">
-        <v>1.2</v>
+        <v>2</v>
       </c>
       <c r="Z46" s="1" t="s">
         <v>42</v>
@@ -5366,67 +5450,67 @@
     </row>
     <row r="47" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="s">
-        <v>265</v>
+        <v>276</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>27</v>
+        <v>61</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>29</v>
+        <v>218</v>
       </c>
       <c r="E47" s="1" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>267</v>
+        <v>64</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>268</v>
+        <v>154</v>
       </c>
       <c r="I47" s="4" t="n">
-        <v>6.35416666666667</v>
+        <v>8.35416666666667</v>
       </c>
       <c r="J47" s="1" t="n">
-        <v>10220</v>
+        <v>10172</v>
       </c>
       <c r="K47" s="1" t="n">
         <v>44011</v>
       </c>
       <c r="L47" s="1" t="s">
-        <v>53</v>
+        <v>83</v>
       </c>
       <c r="M47" s="1" t="s">
-        <v>269</v>
+        <v>277</v>
       </c>
       <c r="N47" s="1" t="n">
-        <v>331</v>
+        <v>59</v>
       </c>
       <c r="O47" s="1" t="s">
-        <v>270</v>
+        <v>278</v>
       </c>
       <c r="P47" s="1" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q47" s="1" t="s">
         <v>37</v>
       </c>
       <c r="R47" s="1" t="s">
-        <v>38</v>
+        <v>233</v>
       </c>
       <c r="S47" s="3" t="s">
-        <v>271</v>
+        <v>279</v>
       </c>
       <c r="T47" s="1" t="s">
-        <v>48</v>
+        <v>79</v>
       </c>
       <c r="U47" s="1" t="s">
-        <v>41</v>
+        <v>73</v>
       </c>
       <c r="V47" s="1" t="n">
         <v>0.1</v>
@@ -5435,90 +5519,90 @@
         <v>0.2</v>
       </c>
       <c r="X47" s="1" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="Y47" s="1" t="n">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="Z47" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="s">
-        <v>272</v>
+        <v>280</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>27</v>
+        <v>61</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>273</v>
+        <v>152</v>
       </c>
       <c r="E48" s="1" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>274</v>
+        <v>281</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>275</v>
+        <v>64</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="I48" s="1" t="s">
-        <v>33</v>
+        <v>154</v>
+      </c>
+      <c r="I48" s="4" t="n">
+        <v>8.35416666666667</v>
       </c>
       <c r="J48" s="1" t="n">
-        <v>10230</v>
+        <v>10190</v>
       </c>
       <c r="K48" s="1" t="n">
         <v>44011</v>
       </c>
       <c r="L48" s="1" t="s">
-        <v>34</v>
+        <v>213</v>
       </c>
       <c r="M48" s="1" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="N48" s="1" t="n">
-        <v>294</v>
+        <v>1650</v>
       </c>
       <c r="O48" s="1" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="P48" s="1" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q48" s="1" t="s">
         <v>37</v>
       </c>
       <c r="R48" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="S48" s="3" t="s">
-        <v>280</v>
+        <v>157</v>
+      </c>
+      <c r="S48" s="1" t="s">
+        <v>284</v>
       </c>
       <c r="T48" s="1" t="s">
-        <v>40</v>
+        <v>59</v>
       </c>
       <c r="U48" s="1" t="s">
-        <v>49</v>
+        <v>73</v>
       </c>
       <c r="V48" s="1" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="W48" s="1" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="X48" s="1" t="n">
-        <v>12</v>
+        <v>3.5</v>
       </c>
       <c r="Y48" s="1" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="Z48" s="1" t="s">
         <v>42</v>
@@ -5526,64 +5610,64 @@
     </row>
     <row r="49" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>27</v>
+        <v>61</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>282</v>
+        <v>28</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>283</v>
+        <v>218</v>
       </c>
       <c r="E49" s="1" t="n">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>81</v>
+        <v>286</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>31</v>
+        <v>64</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="I49" s="1" t="s">
-        <v>33</v>
+        <v>154</v>
+      </c>
+      <c r="I49" s="4" t="n">
+        <v>8.35416666666667</v>
       </c>
       <c r="J49" s="1" t="n">
-        <v>10250</v>
+        <v>10200</v>
       </c>
       <c r="K49" s="1" t="n">
-        <v>44012</v>
+        <v>44011</v>
       </c>
       <c r="L49" s="1" t="s">
-        <v>53</v>
+        <v>83</v>
       </c>
       <c r="M49" s="1" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="N49" s="1" t="n">
-        <v>70</v>
+        <v>305</v>
       </c>
       <c r="O49" s="1" t="s">
-        <v>285</v>
+        <v>227</v>
       </c>
       <c r="P49" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q49" s="1" t="s">
-        <v>286</v>
+        <v>37</v>
       </c>
       <c r="R49" s="1" t="s">
-        <v>287</v>
+        <v>222</v>
       </c>
       <c r="S49" s="3" t="s">
-        <v>288</v>
+        <v>228</v>
       </c>
       <c r="T49" s="1" t="s">
-        <v>48</v>
+        <v>79</v>
       </c>
       <c r="U49" s="1" t="s">
         <v>41</v>
@@ -5598,90 +5682,90 @@
         <v>0.3</v>
       </c>
       <c r="Y49" s="1" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="Z49" s="1" t="s">
-        <v>289</v>
+        <v>42</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="E50" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="H50" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="I50" s="4" t="n">
+        <v>1.41666666666667</v>
+      </c>
+      <c r="J50" s="1" t="n">
+        <v>10210</v>
+      </c>
+      <c r="K50" s="1" t="n">
+        <v>44011</v>
+      </c>
+      <c r="L50" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="M50" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="B50" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="E50" s="1" t="n">
-        <v>28</v>
-      </c>
-      <c r="F50" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="G50" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="H50" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="I50" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="J50" s="1" t="n">
-        <v>10251</v>
-      </c>
-      <c r="K50" s="1" t="n">
-        <v>44012</v>
-      </c>
-      <c r="L50" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="M50" s="1" t="s">
+      <c r="N50" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="O50" s="1" t="s">
         <v>291</v>
-      </c>
-      <c r="N50" s="1" t="n">
-        <v>741</v>
-      </c>
-      <c r="O50" s="1" t="s">
-        <v>292</v>
       </c>
       <c r="P50" s="1" t="n">
         <v>1</v>
       </c>
       <c r="Q50" s="1" t="s">
-        <v>286</v>
+        <v>37</v>
       </c>
       <c r="R50" s="1" t="s">
-        <v>287</v>
+        <v>233</v>
       </c>
       <c r="S50" s="3" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="T50" s="1" t="s">
-        <v>48</v>
+        <v>79</v>
       </c>
       <c r="U50" s="1" t="s">
-        <v>41</v>
+        <v>73</v>
       </c>
       <c r="V50" s="1" t="n">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="W50" s="1" t="n">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="X50" s="1" t="n">
-        <v>0.3</v>
+        <v>0.7</v>
       </c>
       <c r="Y50" s="1" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="Z50" s="1" t="s">
-        <v>289</v>
+        <v>42</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5689,64 +5773,64 @@
         <v>293</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>27</v>
+        <v>61</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>282</v>
+        <v>28</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>283</v>
+        <v>62</v>
       </c>
       <c r="E51" s="1" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>81</v>
+        <v>294</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>31</v>
+        <v>295</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="I51" s="1" t="s">
-        <v>33</v>
+        <v>296</v>
+      </c>
+      <c r="I51" s="4" t="n">
+        <v>6.35416666666667</v>
       </c>
       <c r="J51" s="1" t="n">
-        <v>10252</v>
+        <v>10220</v>
       </c>
       <c r="K51" s="1" t="n">
-        <v>44012</v>
+        <v>44011</v>
       </c>
       <c r="L51" s="1" t="s">
-        <v>53</v>
+        <v>83</v>
       </c>
       <c r="M51" s="1" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="N51" s="1" t="n">
-        <v>57</v>
+        <v>331</v>
       </c>
       <c r="O51" s="1" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="P51" s="1" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q51" s="1" t="s">
-        <v>286</v>
+        <v>37</v>
       </c>
       <c r="R51" s="1" t="s">
-        <v>287</v>
+        <v>70</v>
       </c>
       <c r="S51" s="3" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="T51" s="1" t="s">
-        <v>48</v>
+        <v>79</v>
       </c>
       <c r="U51" s="1" t="s">
-        <v>41</v>
+        <v>73</v>
       </c>
       <c r="V51" s="1" t="n">
         <v>0.1</v>
@@ -5755,318 +5839,318 @@
         <v>0.2</v>
       </c>
       <c r="X51" s="1" t="n">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="Y51" s="1" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="Z51" s="1" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="1" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>27</v>
+        <v>61</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>282</v>
+        <v>28</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>283</v>
+        <v>301</v>
       </c>
       <c r="E52" s="1" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>81</v>
+        <v>302</v>
       </c>
       <c r="G52" s="1" t="s">
         <v>31</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="I52" s="1" t="s">
-        <v>33</v>
+        <v>66</v>
       </c>
       <c r="J52" s="1" t="n">
-        <v>10253</v>
+        <v>10230</v>
       </c>
       <c r="K52" s="1" t="n">
-        <v>44012</v>
+        <v>44011</v>
       </c>
       <c r="L52" s="1" t="s">
-        <v>53</v>
+        <v>67</v>
       </c>
       <c r="M52" s="1" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="N52" s="1" t="n">
-        <v>1020</v>
+        <v>294</v>
       </c>
       <c r="O52" s="1" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="P52" s="1" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q52" s="1" t="s">
-        <v>286</v>
+        <v>37</v>
       </c>
       <c r="R52" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="S52" s="1" t="s">
-        <v>301</v>
+        <v>305</v>
+      </c>
+      <c r="S52" s="3" t="s">
+        <v>306</v>
       </c>
       <c r="T52" s="1" t="s">
-        <v>48</v>
+        <v>72</v>
       </c>
       <c r="U52" s="1" t="s">
         <v>41</v>
       </c>
       <c r="V52" s="1" t="n">
-        <v>0.1</v>
+        <v>3</v>
       </c>
       <c r="W52" s="1" t="n">
-        <v>0.2</v>
+        <v>7</v>
       </c>
       <c r="X52" s="1" t="n">
-        <v>0.3</v>
+        <v>12</v>
       </c>
       <c r="Y52" s="1" t="n">
-        <v>0.5</v>
+        <v>25</v>
       </c>
       <c r="Z52" s="1" t="s">
-        <v>289</v>
+        <v>42</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="1" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>27</v>
+        <v>61</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>282</v>
+        <v>308</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>283</v>
+        <v>309</v>
       </c>
       <c r="E53" s="1" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>303</v>
+        <v>111</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>31</v>
+        <v>64</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>52</v>
+        <v>82</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>33</v>
+        <v>66</v>
       </c>
       <c r="J53" s="1" t="n">
-        <v>10260</v>
+        <v>10250</v>
       </c>
       <c r="K53" s="1" t="n">
         <v>44012</v>
       </c>
       <c r="L53" s="1" t="s">
-        <v>53</v>
+        <v>83</v>
       </c>
       <c r="M53" s="1" t="s">
-        <v>304</v>
+        <v>310</v>
       </c>
       <c r="N53" s="1" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="O53" s="1" t="s">
-        <v>305</v>
+        <v>311</v>
       </c>
       <c r="P53" s="1" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q53" s="1" t="s">
-        <v>286</v>
+        <v>312</v>
       </c>
       <c r="R53" s="1" t="s">
-        <v>287</v>
+        <v>313</v>
       </c>
       <c r="S53" s="3" t="s">
-        <v>306</v>
+        <v>314</v>
       </c>
       <c r="T53" s="1" t="s">
-        <v>48</v>
+        <v>79</v>
       </c>
       <c r="U53" s="1" t="s">
-        <v>41</v>
+        <v>73</v>
       </c>
       <c r="V53" s="1" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="W53" s="1" t="n">
         <v>0.2</v>
       </c>
-      <c r="W53" s="1" t="n">
+      <c r="X53" s="1" t="n">
         <v>0.3</v>
       </c>
-      <c r="X53" s="1" t="n">
-        <v>0.6</v>
-      </c>
       <c r="Y53" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z53" s="1" t="s">
-        <v>289</v>
+        <v>315</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="1" t="s">
-        <v>307</v>
+        <v>316</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>27</v>
+        <v>61</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>282</v>
+        <v>308</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>283</v>
+        <v>309</v>
       </c>
       <c r="E54" s="1" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>303</v>
+        <v>111</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>31</v>
+        <v>64</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>52</v>
+        <v>82</v>
       </c>
       <c r="I54" s="1" t="s">
-        <v>33</v>
+        <v>66</v>
       </c>
       <c r="J54" s="1" t="n">
-        <v>10261</v>
+        <v>10251</v>
       </c>
       <c r="K54" s="1" t="n">
         <v>44012</v>
       </c>
       <c r="L54" s="1" t="s">
-        <v>53</v>
+        <v>83</v>
       </c>
       <c r="M54" s="1" t="s">
-        <v>308</v>
+        <v>317</v>
       </c>
       <c r="N54" s="1" t="n">
-        <v>260</v>
+        <v>741</v>
       </c>
       <c r="O54" s="1" t="s">
-        <v>309</v>
+        <v>318</v>
       </c>
       <c r="P54" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q54" s="1" t="s">
-        <v>286</v>
+        <v>312</v>
       </c>
       <c r="R54" s="1" t="s">
-        <v>287</v>
+        <v>313</v>
       </c>
       <c r="S54" s="3" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="T54" s="1" t="s">
-        <v>48</v>
+        <v>79</v>
       </c>
       <c r="U54" s="1" t="s">
-        <v>41</v>
+        <v>73</v>
       </c>
       <c r="V54" s="1" t="n">
         <v>0.1</v>
       </c>
       <c r="W54" s="1" t="n">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="X54" s="1" t="n">
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
       <c r="Y54" s="1" t="n">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="Z54" s="1" t="s">
-        <v>289</v>
+        <v>315</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="1" t="s">
-        <v>311</v>
+        <v>319</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>27</v>
+        <v>61</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>282</v>
+        <v>308</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>283</v>
+        <v>309</v>
       </c>
       <c r="E55" s="1" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>31</v>
+        <v>64</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>124</v>
+        <v>82</v>
       </c>
       <c r="I55" s="1" t="s">
-        <v>33</v>
+        <v>66</v>
       </c>
       <c r="J55" s="1" t="n">
-        <v>10270</v>
+        <v>10252</v>
       </c>
       <c r="K55" s="1" t="n">
         <v>44012</v>
       </c>
       <c r="L55" s="1" t="s">
-        <v>53</v>
+        <v>83</v>
       </c>
       <c r="M55" s="1" t="s">
-        <v>312</v>
+        <v>320</v>
       </c>
       <c r="N55" s="1" t="n">
-        <v>123</v>
+        <v>57</v>
       </c>
       <c r="O55" s="1" t="s">
-        <v>313</v>
+        <v>321</v>
       </c>
       <c r="P55" s="1" t="n">
         <v>3</v>
       </c>
       <c r="Q55" s="1" t="s">
-        <v>286</v>
+        <v>312</v>
       </c>
       <c r="R55" s="1" t="s">
-        <v>287</v>
+        <v>313</v>
       </c>
       <c r="S55" s="3" t="s">
-        <v>314</v>
+        <v>322</v>
       </c>
       <c r="T55" s="1" t="s">
-        <v>48</v>
+        <v>79</v>
       </c>
       <c r="U55" s="1" t="s">
-        <v>41</v>
+        <v>73</v>
       </c>
       <c r="V55" s="1" t="n">
         <v>0.1</v>
@@ -6075,78 +6159,78 @@
         <v>0.2</v>
       </c>
       <c r="X55" s="1" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="Y55" s="1" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="Z55" s="1" t="s">
-        <v>289</v>
+        <v>315</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="1" t="s">
-        <v>315</v>
+        <v>323</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>27</v>
+        <v>61</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>282</v>
+        <v>308</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>283</v>
+        <v>309</v>
       </c>
       <c r="E56" s="1" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>31</v>
+        <v>64</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>124</v>
+        <v>82</v>
       </c>
       <c r="I56" s="1" t="s">
-        <v>33</v>
+        <v>66</v>
       </c>
       <c r="J56" s="1" t="n">
-        <v>10272</v>
+        <v>10253</v>
       </c>
       <c r="K56" s="1" t="n">
         <v>44012</v>
       </c>
       <c r="L56" s="1" t="s">
-        <v>53</v>
+        <v>83</v>
       </c>
       <c r="M56" s="1" t="s">
-        <v>316</v>
+        <v>324</v>
       </c>
       <c r="N56" s="1" t="n">
-        <v>1758</v>
+        <v>1020</v>
       </c>
       <c r="O56" s="1" t="s">
-        <v>317</v>
+        <v>325</v>
       </c>
       <c r="P56" s="1" t="n">
         <v>2</v>
       </c>
       <c r="Q56" s="1" t="s">
-        <v>286</v>
+        <v>312</v>
       </c>
       <c r="R56" s="1" t="s">
-        <v>287</v>
+        <v>326</v>
       </c>
       <c r="S56" s="1" t="s">
-        <v>318</v>
+        <v>327</v>
       </c>
       <c r="T56" s="1" t="s">
-        <v>48</v>
+        <v>79</v>
       </c>
       <c r="U56" s="1" t="s">
-        <v>41</v>
+        <v>73</v>
       </c>
       <c r="V56" s="1" t="n">
         <v>0.1</v>
@@ -6158,1340 +6242,1355 @@
         <v>0.3</v>
       </c>
       <c r="Y56" s="1" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="Z56" s="1" t="s">
-        <v>289</v>
+        <v>315</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="1" t="s">
-        <v>182</v>
+        <v>328</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>27</v>
+        <v>61</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>282</v>
+        <v>308</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>283</v>
+        <v>309</v>
       </c>
       <c r="E57" s="1" t="n">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>319</v>
+        <v>329</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>31</v>
+        <v>64</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>157</v>
+        <v>82</v>
       </c>
       <c r="I57" s="1" t="s">
-        <v>33</v>
+        <v>66</v>
       </c>
       <c r="J57" s="1" t="n">
-        <v>10280</v>
+        <v>10260</v>
       </c>
       <c r="K57" s="1" t="n">
         <v>44012</v>
       </c>
       <c r="L57" s="1" t="s">
-        <v>184</v>
+        <v>83</v>
       </c>
       <c r="M57" s="1" t="s">
-        <v>320</v>
+        <v>330</v>
       </c>
       <c r="N57" s="1" t="n">
-        <v>285</v>
+        <v>65</v>
       </c>
       <c r="O57" s="1" t="s">
-        <v>321</v>
+        <v>331</v>
       </c>
       <c r="P57" s="1" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q57" s="1" t="s">
-        <v>286</v>
+        <v>312</v>
       </c>
       <c r="R57" s="1" t="s">
-        <v>287</v>
+        <v>313</v>
       </c>
       <c r="S57" s="3" t="s">
-        <v>322</v>
+        <v>332</v>
       </c>
       <c r="T57" s="1" t="s">
-        <v>188</v>
+        <v>79</v>
       </c>
       <c r="U57" s="1" t="s">
-        <v>41</v>
+        <v>73</v>
       </c>
       <c r="V57" s="1" t="n">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="W57" s="1" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="X57" s="1" t="n">
         <v>0.6</v>
       </c>
-      <c r="X57" s="1" t="n">
-        <v>0.9</v>
-      </c>
       <c r="Y57" s="1" t="n">
-        <v>1.8</v>
+        <v>1</v>
       </c>
       <c r="Z57" s="1" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="1" t="s">
-        <v>323</v>
+        <v>333</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>27</v>
+        <v>61</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>282</v>
+        <v>308</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>283</v>
+        <v>309</v>
       </c>
       <c r="E58" s="1" t="n">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>319</v>
+        <v>329</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>31</v>
+        <v>64</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>157</v>
+        <v>82</v>
       </c>
       <c r="I58" s="1" t="s">
-        <v>33</v>
+        <v>66</v>
       </c>
       <c r="J58" s="1" t="n">
-        <v>10281</v>
+        <v>10261</v>
       </c>
       <c r="K58" s="1" t="n">
         <v>44012</v>
       </c>
       <c r="L58" s="1" t="s">
-        <v>184</v>
+        <v>83</v>
       </c>
       <c r="M58" s="1" t="s">
-        <v>324</v>
+        <v>334</v>
       </c>
       <c r="N58" s="1" t="n">
-        <v>1023</v>
+        <v>260</v>
       </c>
       <c r="O58" s="1" t="s">
-        <v>325</v>
+        <v>335</v>
       </c>
       <c r="P58" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q58" s="1" t="s">
-        <v>286</v>
+        <v>312</v>
       </c>
       <c r="R58" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="S58" s="1" t="s">
-        <v>327</v>
+        <v>313</v>
+      </c>
+      <c r="S58" s="3" t="s">
+        <v>336</v>
       </c>
       <c r="T58" s="1" t="s">
-        <v>188</v>
+        <v>79</v>
       </c>
       <c r="U58" s="1" t="s">
-        <v>41</v>
+        <v>73</v>
       </c>
       <c r="V58" s="1" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="W58" s="1" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="X58" s="1" t="n">
         <v>0.6</v>
       </c>
-      <c r="W58" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="X58" s="1" t="n">
-        <v>1.25</v>
-      </c>
       <c r="Y58" s="1" t="n">
-        <v>2.5</v>
+        <v>0.9</v>
       </c>
       <c r="Z58" s="1" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="1" t="s">
-        <v>328</v>
+        <v>337</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>27</v>
+        <v>61</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>282</v>
+        <v>308</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>283</v>
+        <v>309</v>
       </c>
       <c r="E59" s="1" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>319</v>
+        <v>153</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>31</v>
+        <v>64</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="I59" s="1" t="s">
-        <v>33</v>
+        <v>66</v>
       </c>
       <c r="J59" s="1" t="n">
-        <v>10282</v>
+        <v>10270</v>
       </c>
       <c r="K59" s="1" t="n">
         <v>44012</v>
       </c>
       <c r="L59" s="1" t="s">
-        <v>184</v>
+        <v>83</v>
       </c>
       <c r="M59" s="1" t="s">
-        <v>329</v>
+        <v>338</v>
       </c>
       <c r="N59" s="1" t="n">
-        <v>1026</v>
+        <v>123</v>
       </c>
       <c r="O59" s="1" t="s">
-        <v>330</v>
+        <v>339</v>
       </c>
       <c r="P59" s="1" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q59" s="1" t="s">
-        <v>286</v>
+        <v>312</v>
       </c>
       <c r="R59" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="S59" s="1" t="s">
-        <v>331</v>
+        <v>313</v>
+      </c>
+      <c r="S59" s="3" t="s">
+        <v>340</v>
       </c>
       <c r="T59" s="1" t="s">
-        <v>188</v>
+        <v>79</v>
       </c>
       <c r="U59" s="1" t="s">
-        <v>49</v>
+        <v>73</v>
       </c>
       <c r="V59" s="1" t="n">
-        <v>0.6</v>
+        <v>0.1</v>
       </c>
       <c r="W59" s="1" t="n">
-        <v>0.9</v>
+        <v>0.2</v>
       </c>
       <c r="X59" s="1" t="n">
-        <v>1.5</v>
+        <v>0.3</v>
       </c>
       <c r="Y59" s="1" t="n">
-        <v>3</v>
+        <v>0.4</v>
       </c>
       <c r="Z59" s="1" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="60" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="1" t="s">
-        <v>332</v>
+        <v>341</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>27</v>
+        <v>61</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>282</v>
+        <v>308</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>283</v>
+        <v>309</v>
       </c>
       <c r="E60" s="1" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>333</v>
+        <v>153</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>31</v>
+        <v>64</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="I60" s="1" t="s">
-        <v>33</v>
+        <v>66</v>
       </c>
       <c r="J60" s="1" t="n">
-        <v>10290</v>
+        <v>10272</v>
       </c>
       <c r="K60" s="1" t="n">
         <v>44012</v>
       </c>
       <c r="L60" s="1" t="s">
-        <v>34</v>
+        <v>83</v>
       </c>
       <c r="M60" s="1" t="s">
-        <v>334</v>
+        <v>342</v>
       </c>
       <c r="N60" s="1" t="n">
-        <v>95</v>
+        <v>1758</v>
       </c>
       <c r="O60" s="1" t="s">
-        <v>335</v>
+        <v>343</v>
       </c>
       <c r="P60" s="1" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q60" s="1" t="s">
-        <v>286</v>
+        <v>312</v>
       </c>
       <c r="R60" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="S60" s="3" t="s">
-        <v>336</v>
+        <v>313</v>
+      </c>
+      <c r="S60" s="1" t="s">
+        <v>344</v>
       </c>
       <c r="T60" s="1" t="s">
-        <v>40</v>
+        <v>79</v>
       </c>
       <c r="U60" s="1" t="s">
-        <v>41</v>
+        <v>73</v>
       </c>
       <c r="V60" s="1" t="n">
-        <v>10</v>
+        <v>0.1</v>
       </c>
       <c r="W60" s="1" t="n">
-        <v>25</v>
+        <v>0.2</v>
       </c>
       <c r="X60" s="1" t="n">
-        <v>50</v>
+        <v>0.3</v>
       </c>
       <c r="Y60" s="1" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="Z60" s="1" t="s">
-        <v>289</v>
+        <v>315</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="1" t="s">
-        <v>43</v>
+        <v>211</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>27</v>
+        <v>61</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>282</v>
+        <v>308</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>283</v>
+        <v>309</v>
       </c>
       <c r="E61" s="1" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>333</v>
+        <v>345</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>31</v>
+        <v>64</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>157</v>
+        <v>187</v>
       </c>
       <c r="I61" s="1" t="s">
-        <v>33</v>
+        <v>66</v>
       </c>
       <c r="J61" s="1" t="n">
-        <v>10291</v>
+        <v>10280</v>
       </c>
       <c r="K61" s="1" t="n">
         <v>44012</v>
       </c>
       <c r="L61" s="1" t="s">
-        <v>337</v>
+        <v>213</v>
       </c>
       <c r="M61" s="1" t="s">
-        <v>338</v>
+        <v>346</v>
       </c>
       <c r="N61" s="1" t="n">
-        <v>301</v>
+        <v>285</v>
       </c>
       <c r="O61" s="1" t="s">
-        <v>339</v>
+        <v>347</v>
       </c>
       <c r="P61" s="1" t="n">
         <v>2</v>
       </c>
       <c r="Q61" s="1" t="s">
-        <v>286</v>
+        <v>312</v>
       </c>
       <c r="R61" s="1" t="s">
-        <v>287</v>
+        <v>313</v>
       </c>
       <c r="S61" s="3" t="s">
-        <v>340</v>
+        <v>348</v>
       </c>
       <c r="T61" s="1" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="U61" s="1" t="s">
-        <v>49</v>
+        <v>73</v>
       </c>
       <c r="V61" s="1" t="n">
-        <v>0.1</v>
+        <v>0.25</v>
       </c>
       <c r="W61" s="1" t="n">
-        <v>0.2</v>
+        <v>0.6</v>
       </c>
       <c r="X61" s="1" t="n">
-        <v>0.3</v>
+        <v>0.9</v>
       </c>
       <c r="Y61" s="1" t="n">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="Z61" s="1" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="62" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="1" t="s">
-        <v>341</v>
+        <v>349</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>27</v>
+        <v>61</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>282</v>
+        <v>308</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>283</v>
+        <v>309</v>
       </c>
       <c r="E62" s="1" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>333</v>
+        <v>345</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>31</v>
+        <v>64</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>157</v>
+        <v>187</v>
       </c>
       <c r="I62" s="1" t="s">
-        <v>33</v>
+        <v>66</v>
       </c>
       <c r="J62" s="1" t="n">
-        <v>10294</v>
+        <v>10281</v>
       </c>
       <c r="K62" s="1" t="n">
         <v>44012</v>
       </c>
       <c r="L62" s="1" t="s">
-        <v>337</v>
+        <v>213</v>
       </c>
       <c r="M62" s="1" t="s">
-        <v>342</v>
+        <v>350</v>
       </c>
       <c r="N62" s="1" t="n">
-        <v>670</v>
+        <v>1023</v>
       </c>
       <c r="O62" s="1" t="s">
-        <v>343</v>
+        <v>351</v>
       </c>
       <c r="P62" s="1" t="n">
         <v>1</v>
       </c>
       <c r="Q62" s="1" t="s">
-        <v>286</v>
+        <v>312</v>
       </c>
       <c r="R62" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="S62" s="3" t="s">
-        <v>344</v>
+        <v>352</v>
+      </c>
+      <c r="S62" s="1" t="s">
+        <v>353</v>
       </c>
       <c r="T62" s="1" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="U62" s="1" t="s">
-        <v>41</v>
+        <v>73</v>
       </c>
       <c r="V62" s="1" t="n">
-        <v>0.1</v>
+        <v>0.6</v>
       </c>
       <c r="W62" s="1" t="n">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="X62" s="1" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="Y62" s="1" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="Z62" s="1" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="63" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="1" t="s">
-        <v>226</v>
+        <v>354</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>27</v>
+        <v>61</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>282</v>
+        <v>308</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>283</v>
+        <v>309</v>
       </c>
       <c r="E63" s="1" t="n">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>230</v>
+        <v>345</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>31</v>
+        <v>64</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>157</v>
+        <v>187</v>
       </c>
       <c r="I63" s="1" t="s">
-        <v>33</v>
+        <v>66</v>
       </c>
       <c r="J63" s="1" t="n">
-        <v>10300</v>
+        <v>10282</v>
       </c>
       <c r="K63" s="1" t="n">
         <v>44012</v>
       </c>
       <c r="L63" s="1" t="s">
-        <v>53</v>
+        <v>213</v>
       </c>
       <c r="M63" s="1" t="s">
-        <v>345</v>
+        <v>355</v>
       </c>
       <c r="N63" s="1" t="n">
-        <v>24</v>
+        <v>1026</v>
       </c>
       <c r="O63" s="1" t="s">
-        <v>346</v>
+        <v>356</v>
       </c>
       <c r="P63" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q63" s="1" t="s">
-        <v>286</v>
+        <v>312</v>
       </c>
       <c r="R63" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="S63" s="3" t="s">
-        <v>347</v>
+        <v>352</v>
+      </c>
+      <c r="S63" s="1" t="s">
+        <v>357</v>
       </c>
       <c r="T63" s="1" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="U63" s="1" t="s">
         <v>41</v>
       </c>
       <c r="V63" s="1" t="n">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="W63" s="1" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="X63" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="Y63" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="X63" s="1" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="Y63" s="1" t="n">
-        <v>7</v>
-      </c>
       <c r="Z63" s="1" t="s">
-        <v>289</v>
+        <v>315</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="1" t="s">
-        <v>348</v>
+        <v>358</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>27</v>
+        <v>61</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>282</v>
+        <v>308</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>283</v>
+        <v>309</v>
       </c>
       <c r="E64" s="1" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>349</v>
+        <v>359</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>31</v>
+        <v>64</v>
       </c>
       <c r="H64" s="1" t="s">
-        <v>52</v>
+        <v>187</v>
       </c>
       <c r="I64" s="1" t="s">
-        <v>33</v>
+        <v>66</v>
       </c>
       <c r="J64" s="1" t="n">
-        <v>10310</v>
+        <v>10290</v>
       </c>
       <c r="K64" s="1" t="n">
         <v>44012</v>
       </c>
       <c r="L64" s="1" t="s">
-        <v>53</v>
+        <v>67</v>
       </c>
       <c r="M64" s="1" t="s">
-        <v>350</v>
+        <v>360</v>
       </c>
       <c r="N64" s="1" t="n">
-        <v>223</v>
+        <v>95</v>
       </c>
       <c r="O64" s="1" t="s">
-        <v>351</v>
+        <v>361</v>
       </c>
       <c r="P64" s="1" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q64" s="1" t="s">
-        <v>286</v>
+        <v>312</v>
       </c>
       <c r="R64" s="1" t="s">
-        <v>287</v>
+        <v>313</v>
       </c>
       <c r="S64" s="3" t="s">
-        <v>352</v>
+        <v>362</v>
       </c>
       <c r="T64" s="1" t="s">
-        <v>48</v>
+        <v>72</v>
       </c>
       <c r="U64" s="1" t="s">
-        <v>41</v>
+        <v>73</v>
       </c>
       <c r="V64" s="1" t="n">
-        <v>0.1</v>
+        <v>10</v>
       </c>
       <c r="W64" s="1" t="n">
-        <v>0.2</v>
+        <v>25</v>
       </c>
       <c r="X64" s="1" t="n">
-        <v>0.3</v>
+        <v>50</v>
       </c>
       <c r="Y64" s="1" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="Z64" s="1" t="s">
-        <v>289</v>
+        <v>315</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="1" t="s">
-        <v>353</v>
+        <v>74</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>27</v>
+        <v>61</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>282</v>
+        <v>308</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>283</v>
+        <v>309</v>
       </c>
       <c r="E65" s="1" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>31</v>
+        <v>64</v>
       </c>
       <c r="H65" s="1" t="s">
-        <v>52</v>
+        <v>187</v>
       </c>
       <c r="I65" s="1" t="s">
-        <v>33</v>
+        <v>66</v>
       </c>
       <c r="J65" s="1" t="n">
-        <v>10320</v>
+        <v>10291</v>
       </c>
       <c r="K65" s="1" t="n">
         <v>44012</v>
       </c>
       <c r="L65" s="1" t="s">
-        <v>53</v>
+        <v>363</v>
       </c>
       <c r="M65" s="1" t="s">
-        <v>355</v>
+        <v>364</v>
       </c>
       <c r="N65" s="1" t="n">
-        <v>207</v>
+        <v>301</v>
       </c>
       <c r="O65" s="1" t="s">
-        <v>356</v>
+        <v>365</v>
       </c>
       <c r="P65" s="1" t="n">
         <v>2</v>
       </c>
       <c r="Q65" s="1" t="s">
-        <v>286</v>
+        <v>312</v>
       </c>
       <c r="R65" s="1" t="s">
-        <v>287</v>
+        <v>313</v>
       </c>
       <c r="S65" s="3" t="s">
-        <v>357</v>
+        <v>366</v>
       </c>
       <c r="T65" s="1" t="s">
-        <v>48</v>
+        <v>79</v>
       </c>
       <c r="U65" s="1" t="s">
         <v>41</v>
       </c>
       <c r="V65" s="1" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="W65" s="1" t="n">
         <v>0.2</v>
       </c>
-      <c r="W65" s="1" t="n">
-        <v>0.5</v>
-      </c>
       <c r="X65" s="1" t="n">
-        <v>0.7</v>
+        <v>0.3</v>
       </c>
       <c r="Y65" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z65" s="1" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="66" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="1" t="s">
-        <v>358</v>
+        <v>367</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>27</v>
+        <v>61</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>282</v>
+        <v>308</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>283</v>
+        <v>309</v>
       </c>
       <c r="E66" s="1" t="n">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="F66" s="1" t="s">
         <v>359</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>31</v>
+        <v>64</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>52</v>
+        <v>187</v>
       </c>
       <c r="I66" s="1" t="s">
-        <v>33</v>
+        <v>66</v>
       </c>
       <c r="J66" s="1" t="n">
-        <v>10330</v>
+        <v>10294</v>
       </c>
       <c r="K66" s="1" t="n">
         <v>44012</v>
       </c>
       <c r="L66" s="1" t="s">
-        <v>184</v>
+        <v>363</v>
       </c>
       <c r="M66" s="1" t="s">
-        <v>360</v>
+        <v>368</v>
       </c>
       <c r="N66" s="1" t="n">
-        <v>109</v>
+        <v>670</v>
       </c>
       <c r="O66" s="1" t="s">
-        <v>361</v>
+        <v>369</v>
       </c>
       <c r="P66" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q66" s="1" t="s">
-        <v>286</v>
+        <v>312</v>
       </c>
       <c r="R66" s="1" t="s">
-        <v>287</v>
+        <v>352</v>
       </c>
       <c r="S66" s="3" t="s">
-        <v>362</v>
+        <v>370</v>
       </c>
       <c r="T66" s="1" t="s">
-        <v>188</v>
+        <v>79</v>
       </c>
       <c r="U66" s="1" t="s">
-        <v>41</v>
+        <v>73</v>
       </c>
       <c r="V66" s="1" t="n">
-        <v>3</v>
+        <v>0.1</v>
       </c>
       <c r="W66" s="1" t="n">
-        <v>6.5</v>
+        <v>0.2</v>
       </c>
       <c r="X66" s="1" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="Y66" s="1" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="Z66" s="1" t="s">
-        <v>289</v>
+        <v>315</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="1" t="s">
-        <v>363</v>
+        <v>254</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>27</v>
+        <v>61</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>282</v>
+        <v>308</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>283</v>
+        <v>309</v>
       </c>
       <c r="E67" s="1" t="n">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>364</v>
+        <v>258</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>31</v>
+        <v>64</v>
       </c>
       <c r="H67" s="1" t="s">
-        <v>52</v>
+        <v>187</v>
       </c>
       <c r="I67" s="1" t="s">
-        <v>33</v>
+        <v>66</v>
       </c>
       <c r="J67" s="1" t="n">
-        <v>10340</v>
+        <v>10300</v>
       </c>
       <c r="K67" s="1" t="n">
         <v>44012</v>
       </c>
       <c r="L67" s="1" t="s">
-        <v>53</v>
+        <v>83</v>
       </c>
       <c r="M67" s="1" t="s">
-        <v>365</v>
+        <v>371</v>
       </c>
       <c r="N67" s="1" t="n">
-        <v>306</v>
+        <v>24</v>
       </c>
       <c r="O67" s="1" t="s">
-        <v>366</v>
+        <v>372</v>
       </c>
       <c r="P67" s="1" t="n">
         <v>2</v>
       </c>
       <c r="Q67" s="1" t="s">
-        <v>286</v>
+        <v>312</v>
       </c>
       <c r="R67" s="1" t="s">
-        <v>287</v>
+        <v>313</v>
       </c>
       <c r="S67" s="3" t="s">
-        <v>367</v>
+        <v>373</v>
       </c>
       <c r="T67" s="1" t="s">
-        <v>48</v>
+        <v>79</v>
       </c>
       <c r="U67" s="1" t="s">
-        <v>41</v>
+        <v>73</v>
       </c>
       <c r="V67" s="1" t="n">
-        <v>0.3</v>
+        <v>1</v>
       </c>
       <c r="W67" s="1" t="n">
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="X67" s="1" t="n">
-        <v>0.9</v>
+        <v>4.5</v>
       </c>
       <c r="Y67" s="1" t="n">
-        <v>1.5</v>
+        <v>7</v>
       </c>
       <c r="Z67" s="1" t="s">
-        <v>289</v>
+        <v>315</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="1" t="s">
-        <v>368</v>
+        <v>374</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>27</v>
+        <v>61</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>282</v>
+        <v>308</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>283</v>
+        <v>309</v>
       </c>
       <c r="E68" s="1" t="n">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>369</v>
+        <v>375</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>267</v>
+        <v>64</v>
       </c>
       <c r="H68" s="1" t="s">
-        <v>370</v>
+        <v>82</v>
       </c>
       <c r="I68" s="1" t="s">
-        <v>33</v>
+        <v>66</v>
       </c>
       <c r="J68" s="1" t="n">
-        <v>10350</v>
+        <v>10310</v>
       </c>
       <c r="K68" s="1" t="n">
         <v>44012</v>
       </c>
       <c r="L68" s="1" t="s">
-        <v>184</v>
+        <v>83</v>
       </c>
       <c r="M68" s="1" t="s">
-        <v>371</v>
+        <v>376</v>
       </c>
       <c r="N68" s="1" t="n">
-        <v>79</v>
+        <v>223</v>
       </c>
       <c r="O68" s="1" t="s">
-        <v>372</v>
+        <v>377</v>
       </c>
       <c r="P68" s="1" t="n">
         <v>2</v>
       </c>
       <c r="Q68" s="1" t="s">
-        <v>286</v>
+        <v>312</v>
       </c>
       <c r="R68" s="1" t="s">
-        <v>287</v>
+        <v>313</v>
       </c>
       <c r="S68" s="3" t="s">
-        <v>373</v>
+        <v>378</v>
       </c>
       <c r="T68" s="1" t="s">
-        <v>188</v>
+        <v>79</v>
       </c>
       <c r="U68" s="1" t="s">
-        <v>41</v>
+        <v>73</v>
       </c>
       <c r="V68" s="1" t="n">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="W68" s="1" t="n">
-        <v>1.4</v>
+        <v>0.2</v>
       </c>
       <c r="X68" s="1" t="n">
-        <v>2</v>
+        <v>0.3</v>
       </c>
       <c r="Y68" s="1" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="Z68" s="1" t="s">
-        <v>289</v>
+        <v>315</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="1" t="s">
-        <v>374</v>
+        <v>379</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>27</v>
+        <v>61</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>282</v>
+        <v>308</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>283</v>
+        <v>309</v>
       </c>
       <c r="E69" s="1" t="n">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>375</v>
+        <v>380</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>31</v>
+        <v>64</v>
       </c>
       <c r="H69" s="1" t="s">
-        <v>124</v>
+        <v>82</v>
       </c>
       <c r="I69" s="1" t="s">
-        <v>33</v>
+        <v>66</v>
       </c>
       <c r="J69" s="1" t="n">
-        <v>10360</v>
+        <v>10320</v>
       </c>
       <c r="K69" s="1" t="n">
         <v>44012</v>
       </c>
       <c r="L69" s="1" t="s">
-        <v>53</v>
+        <v>83</v>
       </c>
       <c r="M69" s="1" t="s">
-        <v>376</v>
+        <v>381</v>
       </c>
       <c r="N69" s="1" t="n">
-        <v>172</v>
+        <v>207</v>
       </c>
       <c r="O69" s="1" t="s">
-        <v>377</v>
+        <v>382</v>
       </c>
       <c r="P69" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q69" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="R69" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="S69" s="3" t="s">
+        <v>383</v>
+      </c>
+      <c r="T69" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="U69" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="V69" s="1" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="W69" s="1" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="X69" s="1" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="Y69" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="Q69" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="R69" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="S69" s="3" t="s">
-        <v>378</v>
-      </c>
-      <c r="T69" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="U69" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="V69" s="1" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="W69" s="1" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="X69" s="1" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="Y69" s="1" t="n">
-        <v>0.7</v>
-      </c>
       <c r="Z69" s="1" t="s">
-        <v>289</v>
+        <v>315</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="1" t="s">
-        <v>379</v>
+        <v>384</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>27</v>
+        <v>61</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>282</v>
+        <v>308</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>283</v>
+        <v>309</v>
       </c>
       <c r="E70" s="1" t="n">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>375</v>
+        <v>385</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>31</v>
+        <v>64</v>
       </c>
       <c r="H70" s="1" t="s">
-        <v>124</v>
+        <v>82</v>
       </c>
       <c r="I70" s="1" t="s">
-        <v>33</v>
+        <v>66</v>
       </c>
       <c r="J70" s="1" t="n">
-        <v>10370</v>
+        <v>10330</v>
       </c>
       <c r="K70" s="1" t="n">
         <v>44012</v>
       </c>
       <c r="L70" s="1" t="s">
-        <v>53</v>
+        <v>213</v>
       </c>
       <c r="M70" s="1" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
       <c r="N70" s="1" t="n">
-        <v>266</v>
+        <v>109</v>
       </c>
       <c r="O70" s="1" t="s">
-        <v>381</v>
+        <v>387</v>
       </c>
       <c r="P70" s="1" t="n">
         <v>2</v>
       </c>
       <c r="Q70" s="1" t="s">
-        <v>286</v>
+        <v>312</v>
       </c>
       <c r="R70" s="1" t="s">
-        <v>287</v>
+        <v>313</v>
       </c>
       <c r="S70" s="3" t="s">
-        <v>382</v>
+        <v>388</v>
       </c>
       <c r="T70" s="1" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="U70" s="1" t="s">
-        <v>41</v>
+        <v>73</v>
       </c>
       <c r="V70" s="1" t="n">
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="W70" s="1" t="n">
-        <v>1</v>
+        <v>6.5</v>
       </c>
       <c r="X70" s="1" t="n">
-        <v>1.8</v>
+        <v>15</v>
       </c>
       <c r="Y70" s="1" t="n">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="Z70" s="1" t="s">
-        <v>289</v>
+        <v>315</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="1" t="s">
-        <v>383</v>
+        <v>389</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>27</v>
+        <v>61</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>282</v>
+        <v>308</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>283</v>
+        <v>309</v>
       </c>
       <c r="E71" s="1" t="n">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>384</v>
+        <v>390</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>267</v>
+        <v>64</v>
       </c>
       <c r="H71" s="1" t="s">
-        <v>370</v>
+        <v>82</v>
       </c>
       <c r="I71" s="1" t="s">
-        <v>33</v>
+        <v>66</v>
       </c>
       <c r="J71" s="1" t="n">
-        <v>10380</v>
+        <v>10340</v>
       </c>
       <c r="K71" s="1" t="n">
         <v>44012</v>
       </c>
       <c r="L71" s="1" t="s">
-        <v>53</v>
+        <v>83</v>
       </c>
       <c r="M71" s="1" t="s">
-        <v>385</v>
+        <v>391</v>
       </c>
       <c r="N71" s="1" t="n">
-        <v>189</v>
+        <v>306</v>
       </c>
       <c r="O71" s="1" t="s">
-        <v>386</v>
+        <v>392</v>
       </c>
       <c r="P71" s="1" t="n">
         <v>2</v>
       </c>
       <c r="Q71" s="1" t="s">
-        <v>286</v>
+        <v>312</v>
       </c>
       <c r="R71" s="1" t="s">
-        <v>287</v>
+        <v>313</v>
       </c>
       <c r="S71" s="3" t="s">
-        <v>387</v>
+        <v>393</v>
       </c>
       <c r="T71" s="1" t="s">
-        <v>48</v>
+        <v>79</v>
       </c>
       <c r="U71" s="1" t="s">
-        <v>41</v>
+        <v>73</v>
       </c>
       <c r="V71" s="1" t="n">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="W71" s="1" t="n">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="X71" s="1" t="n">
-        <v>0.6</v>
+        <v>0.9</v>
       </c>
       <c r="Y71" s="1" t="n">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="Z71" s="1" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="1" t="s">
-        <v>388</v>
+        <v>394</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>27</v>
+        <v>61</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>282</v>
+        <v>308</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>283</v>
+        <v>309</v>
       </c>
       <c r="E72" s="1" t="n">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>389</v>
+        <v>395</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>267</v>
+        <v>295</v>
       </c>
       <c r="H72" s="1" t="s">
-        <v>370</v>
+        <v>396</v>
       </c>
       <c r="I72" s="1" t="s">
-        <v>33</v>
+        <v>66</v>
       </c>
       <c r="J72" s="1" t="n">
-        <v>10390</v>
+        <v>10350</v>
       </c>
       <c r="K72" s="1" t="n">
         <v>44012</v>
       </c>
       <c r="L72" s="1" t="s">
-        <v>53</v>
+        <v>213</v>
       </c>
       <c r="M72" s="1" t="s">
-        <v>390</v>
+        <v>397</v>
       </c>
       <c r="N72" s="1" t="n">
-        <v>1025</v>
+        <v>79</v>
       </c>
       <c r="O72" s="1" t="s">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="P72" s="1" t="n">
         <v>2</v>
       </c>
       <c r="Q72" s="1" t="s">
-        <v>286</v>
+        <v>312</v>
       </c>
       <c r="R72" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="S72" s="1" t="s">
-        <v>392</v>
+        <v>313</v>
+      </c>
+      <c r="S72" s="3" t="s">
+        <v>399</v>
       </c>
       <c r="T72" s="1" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="U72" s="1" t="s">
-        <v>41</v>
+        <v>73</v>
       </c>
       <c r="V72" s="1" t="n">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="W72" s="1" t="n">
-        <v>0.5</v>
+        <v>1.4</v>
       </c>
       <c r="X72" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y72" s="1" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="Z72" s="1" t="s">
-        <v>289</v>
+        <v>315</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="1" t="s">
-        <v>393</v>
+        <v>400</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>27</v>
+        <v>61</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>394</v>
+        <v>308</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>395</v>
+        <v>309</v>
+      </c>
+      <c r="E73" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="F73" s="1" t="s">
+        <v>401</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>267</v>
+        <v>64</v>
+      </c>
+      <c r="H73" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="I73" s="1" t="s">
+        <v>66</v>
       </c>
       <c r="J73" s="1" t="n">
-        <v>91</v>
+        <v>10360</v>
       </c>
       <c r="K73" s="1" t="n">
-        <v>44008</v>
+        <v>44012</v>
+      </c>
+      <c r="L73" s="1" t="s">
+        <v>83</v>
       </c>
       <c r="M73" s="1" t="s">
-        <v>396</v>
+        <v>402</v>
       </c>
       <c r="N73" s="1" t="n">
-        <v>443</v>
+        <v>172</v>
       </c>
       <c r="O73" s="1" t="s">
-        <v>397</v>
+        <v>403</v>
       </c>
       <c r="P73" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q73" s="1" t="s">
-        <v>398</v>
+        <v>312</v>
       </c>
       <c r="R73" s="1" t="s">
-        <v>399</v>
+        <v>313</v>
       </c>
       <c r="S73" s="3" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="T73" s="1" t="s">
-        <v>48</v>
+        <v>79</v>
       </c>
       <c r="U73" s="1" t="s">
-        <v>41</v>
+        <v>73</v>
       </c>
       <c r="V73" s="1" t="n">
         <v>0.1</v>
@@ -7500,258 +7599,303 @@
         <v>0.2</v>
       </c>
       <c r="X73" s="1" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="Y73" s="1" t="n">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="Z73" s="1" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="E74" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="F74" s="1" t="s">
         <v>401</v>
       </c>
-    </row>
-    <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="1" t="s">
-        <v>402</v>
-      </c>
-      <c r="B74" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C74" s="1" t="s">
-        <v>394</v>
-      </c>
-      <c r="D74" s="1" t="s">
-        <v>395</v>
-      </c>
       <c r="G74" s="1" t="s">
-        <v>267</v>
+        <v>64</v>
+      </c>
+      <c r="H74" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="I74" s="1" t="s">
+        <v>66</v>
       </c>
       <c r="J74" s="1" t="n">
-        <v>92</v>
+        <v>10370</v>
       </c>
       <c r="K74" s="1" t="n">
-        <v>44008</v>
+        <v>44012</v>
+      </c>
+      <c r="L74" s="1" t="s">
+        <v>83</v>
       </c>
       <c r="M74" s="1" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="N74" s="1" t="n">
-        <v>1257</v>
+        <v>266</v>
       </c>
       <c r="O74" s="1" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="P74" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q74" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="R74" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="S74" s="3" t="s">
+        <v>408</v>
+      </c>
+      <c r="T74" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="U74" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="V74" s="1" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="W74" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="Q74" s="1" t="s">
-        <v>398</v>
-      </c>
-      <c r="R74" s="1" t="s">
-        <v>405</v>
-      </c>
-      <c r="S74" s="1" t="s">
-        <v>406</v>
-      </c>
-      <c r="T74" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="U74" s="1" t="s">
+      <c r="X74" s="1" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="Y74" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z74" s="1" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="E75" s="1" t="n">
         <v>41</v>
       </c>
-      <c r="V74" s="1" t="n">
+      <c r="F75" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="G75" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="H75" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="I75" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="J75" s="1" t="n">
+        <v>10380</v>
+      </c>
+      <c r="K75" s="1" t="n">
+        <v>44012</v>
+      </c>
+      <c r="L75" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="M75" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="N75" s="1" t="n">
+        <v>189</v>
+      </c>
+      <c r="O75" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="P75" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q75" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="R75" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="S75" s="3" t="s">
+        <v>413</v>
+      </c>
+      <c r="T75" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="U75" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="V75" s="1" t="n">
         <v>0.1</v>
       </c>
-      <c r="W74" s="1" t="n">
+      <c r="W75" s="1" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="X75" s="1" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="Y75" s="1" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="Z75" s="1" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="E76" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="F76" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="G76" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="H76" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="I76" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="J76" s="1" t="n">
+        <v>10390</v>
+      </c>
+      <c r="K76" s="1" t="n">
+        <v>44012</v>
+      </c>
+      <c r="L76" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="M76" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="N76" s="1" t="n">
+        <v>1025</v>
+      </c>
+      <c r="O76" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="P76" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q76" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="R76" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="S76" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="T76" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="U76" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="V76" s="1" t="n">
         <v>0.2</v>
       </c>
-      <c r="X74" s="1" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="Y74" s="1" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="Z74" s="1" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="75" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="1" t="s">
-        <v>407</v>
-      </c>
-      <c r="B75" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C75" s="1" t="s">
-        <v>394</v>
-      </c>
-      <c r="D75" s="1" t="s">
-        <v>395</v>
-      </c>
-      <c r="G75" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="J75" s="1" t="n">
-        <v>47</v>
-      </c>
-      <c r="K75" s="1" t="n">
-        <v>44008</v>
-      </c>
-      <c r="M75" s="1" t="s">
-        <v>408</v>
-      </c>
-      <c r="N75" s="1" t="n">
-        <v>640</v>
-      </c>
-      <c r="O75" s="1" t="s">
-        <v>407</v>
-      </c>
-      <c r="P75" s="1" t="n">
+      <c r="W76" s="1" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="X76" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="Q75" s="1" t="s">
-        <v>398</v>
-      </c>
-      <c r="R75" s="1" t="s">
-        <v>405</v>
-      </c>
-      <c r="S75" s="3" t="s">
-        <v>409</v>
-      </c>
-      <c r="T75" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="U75" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="V75" s="1" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="W75" s="1" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="X75" s="1" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="Y75" s="1" t="n">
+      <c r="Y76" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="Z75" s="1" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="76" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="1" t="s">
-        <v>410</v>
-      </c>
-      <c r="B76" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C76" s="1" t="s">
-        <v>394</v>
-      </c>
-      <c r="D76" s="1" t="s">
-        <v>395</v>
-      </c>
-      <c r="G76" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="J76" s="1" t="n">
-        <v>49</v>
-      </c>
-      <c r="K76" s="1" t="n">
-        <v>44008</v>
-      </c>
-      <c r="M76" s="1" t="s">
-        <v>411</v>
-      </c>
-      <c r="N76" s="1" t="n">
-        <v>638</v>
-      </c>
-      <c r="O76" s="1" t="s">
-        <v>410</v>
-      </c>
-      <c r="P76" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q76" s="1" t="s">
-        <v>398</v>
-      </c>
-      <c r="R76" s="1" t="s">
-        <v>405</v>
-      </c>
-      <c r="S76" s="3" t="s">
-        <v>412</v>
-      </c>
-      <c r="T76" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="U76" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="V76" s="1" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="W76" s="1" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="X76" s="1" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="Y76" s="1" t="n">
-        <v>0.4</v>
-      </c>
       <c r="Z76" s="1" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="77" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="1" t="s">
-        <v>413</v>
+        <v>419</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>27</v>
+        <v>61</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>394</v>
+        <v>420</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>395</v>
+        <v>421</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>31</v>
+        <v>295</v>
       </c>
       <c r="J77" s="1" t="n">
-        <v>41</v>
+        <v>91</v>
       </c>
       <c r="K77" s="1" t="n">
         <v>44008</v>
       </c>
       <c r="M77" s="1" t="s">
-        <v>414</v>
+        <v>422</v>
       </c>
       <c r="N77" s="1" t="n">
-        <v>637</v>
+        <v>443</v>
       </c>
       <c r="O77" s="1" t="s">
-        <v>415</v>
+        <v>423</v>
       </c>
       <c r="P77" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q77" s="1" t="s">
-        <v>398</v>
+        <v>424</v>
       </c>
       <c r="R77" s="1" t="s">
-        <v>405</v>
+        <v>425</v>
       </c>
       <c r="S77" s="3" t="s">
-        <v>416</v>
+        <v>426</v>
       </c>
       <c r="T77" s="1" t="s">
-        <v>48</v>
+        <v>79</v>
       </c>
       <c r="U77" s="1" t="s">
-        <v>41</v>
+        <v>73</v>
       </c>
       <c r="V77" s="1" t="n">
         <v>0.1</v>
@@ -7760,63 +7904,63 @@
         <v>0.2</v>
       </c>
       <c r="X77" s="1" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="Y77" s="1" t="n">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="Z77" s="1" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="78" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="1" t="s">
-        <v>417</v>
+        <v>428</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>27</v>
+        <v>61</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>394</v>
+        <v>420</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>395</v>
+        <v>421</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>31</v>
+        <v>295</v>
       </c>
       <c r="J78" s="1" t="n">
-        <v>42</v>
+        <v>92</v>
       </c>
       <c r="K78" s="1" t="n">
         <v>44008</v>
       </c>
       <c r="M78" s="1" t="s">
-        <v>418</v>
+        <v>429</v>
       </c>
       <c r="N78" s="1" t="n">
-        <v>1179</v>
+        <v>1257</v>
       </c>
       <c r="O78" s="1" t="s">
-        <v>419</v>
+        <v>430</v>
       </c>
       <c r="P78" s="1" t="n">
         <v>1</v>
       </c>
       <c r="Q78" s="1" t="s">
-        <v>398</v>
+        <v>424</v>
       </c>
       <c r="R78" s="1" t="s">
-        <v>405</v>
-      </c>
-      <c r="S78" s="3" t="s">
-        <v>416</v>
+        <v>431</v>
+      </c>
+      <c r="S78" s="1" t="s">
+        <v>432</v>
       </c>
       <c r="T78" s="1" t="s">
-        <v>48</v>
+        <v>79</v>
       </c>
       <c r="U78" s="1" t="s">
-        <v>41</v>
+        <v>73</v>
       </c>
       <c r="V78" s="1" t="n">
         <v>0.1</v>
@@ -7828,122 +7972,122 @@
         <v>0.3</v>
       </c>
       <c r="Y78" s="1" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="Z78" s="1" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="79" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C79" s="1" t="s">
         <v>420</v>
-      </c>
-      <c r="B79" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C79" s="1" t="s">
-        <v>394</v>
       </c>
       <c r="D79" s="1" t="s">
         <v>421</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>31</v>
+        <v>64</v>
       </c>
       <c r="J79" s="1" t="n">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="K79" s="1" t="n">
         <v>44008</v>
       </c>
       <c r="M79" s="1" t="s">
-        <v>422</v>
+        <v>434</v>
       </c>
       <c r="N79" s="1" t="n">
-        <v>444</v>
+        <v>640</v>
       </c>
       <c r="O79" s="1" t="s">
-        <v>423</v>
+        <v>433</v>
       </c>
       <c r="P79" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q79" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="R79" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="S79" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="T79" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="U79" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="V79" s="1" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="W79" s="1" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="X79" s="1" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="Y79" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="Q79" s="1" t="s">
-        <v>398</v>
-      </c>
-      <c r="R79" s="1" t="s">
-        <v>424</v>
-      </c>
-      <c r="S79" s="3" t="s">
-        <v>425</v>
-      </c>
-      <c r="T79" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="U79" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="V79" s="1" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="W79" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="X79" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y79" s="1" t="n">
-        <v>0</v>
-      </c>
       <c r="Z79" s="1" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="1" t="s">
-        <v>426</v>
+        <v>436</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>27</v>
+        <v>61</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>427</v>
+        <v>420</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>428</v>
+        <v>421</v>
       </c>
       <c r="G80" s="1" t="s">
-        <v>267</v>
+        <v>64</v>
       </c>
       <c r="J80" s="1" t="n">
-        <v>71</v>
+        <v>49</v>
       </c>
       <c r="K80" s="1" t="n">
         <v>44008</v>
       </c>
       <c r="M80" s="1" t="s">
-        <v>429</v>
+        <v>437</v>
       </c>
       <c r="N80" s="1" t="n">
-        <v>426</v>
+        <v>638</v>
       </c>
       <c r="O80" s="1" t="s">
-        <v>430</v>
+        <v>436</v>
       </c>
       <c r="P80" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q80" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="R80" s="1" t="s">
         <v>431</v>
       </c>
-      <c r="R80" s="1" t="s">
-        <v>432</v>
-      </c>
-      <c r="S80" s="1" t="s">
-        <v>433</v>
+      <c r="S80" s="3" t="s">
+        <v>438</v>
       </c>
       <c r="T80" s="1" t="s">
-        <v>48</v>
+        <v>79</v>
       </c>
       <c r="U80" s="1" t="s">
         <v>41</v>
@@ -7952,518 +8096,518 @@
         <v>0.1</v>
       </c>
       <c r="W80" s="1" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="X80" s="1" t="n">
         <v>0.3</v>
       </c>
-      <c r="X80" s="1" t="n">
+      <c r="Y80" s="1" t="n">
         <v>0.4</v>
       </c>
-      <c r="Y80" s="1" t="n">
-        <v>0.6</v>
-      </c>
       <c r="Z80" s="1" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="1" t="s">
-        <v>435</v>
+        <v>439</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>27</v>
+        <v>61</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>427</v>
+        <v>420</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>428</v>
+        <v>421</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>267</v>
+        <v>64</v>
       </c>
       <c r="J81" s="1" t="n">
-        <v>72</v>
+        <v>41</v>
       </c>
       <c r="K81" s="1" t="n">
         <v>44008</v>
       </c>
       <c r="M81" s="1" t="s">
-        <v>436</v>
+        <v>440</v>
       </c>
       <c r="N81" s="1" t="n">
-        <v>1186</v>
+        <v>637</v>
       </c>
       <c r="O81" s="1" t="s">
-        <v>437</v>
+        <v>441</v>
       </c>
       <c r="P81" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q81" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="R81" s="1" t="s">
         <v>431</v>
       </c>
-      <c r="R81" s="1" t="s">
-        <v>432</v>
-      </c>
-      <c r="S81" s="1" t="s">
-        <v>438</v>
+      <c r="S81" s="3" t="s">
+        <v>442</v>
       </c>
       <c r="T81" s="1" t="s">
-        <v>48</v>
+        <v>79</v>
       </c>
       <c r="U81" s="1" t="s">
-        <v>41</v>
+        <v>73</v>
       </c>
       <c r="V81" s="1" t="n">
         <v>0.1</v>
       </c>
       <c r="W81" s="1" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="X81" s="1" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="Y81" s="1" t="n">
         <v>0.4</v>
       </c>
-      <c r="X81" s="1" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="Y81" s="1" t="n">
-        <v>1.1</v>
-      </c>
       <c r="Z81" s="1" t="s">
-        <v>434</v>
+        <v>427</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="1" t="s">
-        <v>439</v>
+        <v>443</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>27</v>
+        <v>61</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>427</v>
+        <v>420</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>428</v>
+        <v>421</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>31</v>
+        <v>64</v>
       </c>
       <c r="J82" s="1" t="n">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="K82" s="1" t="n">
         <v>44008</v>
       </c>
       <c r="M82" s="1" t="s">
-        <v>440</v>
+        <v>444</v>
       </c>
       <c r="N82" s="1" t="n">
-        <v>626</v>
+        <v>1179</v>
       </c>
       <c r="O82" s="1" t="s">
-        <v>439</v>
+        <v>445</v>
       </c>
       <c r="P82" s="1" t="n">
         <v>1</v>
       </c>
       <c r="Q82" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="R82" s="1" t="s">
         <v>431</v>
-      </c>
-      <c r="R82" s="1" t="s">
-        <v>441</v>
       </c>
       <c r="S82" s="3" t="s">
         <v>442</v>
       </c>
       <c r="T82" s="1" t="s">
-        <v>48</v>
+        <v>79</v>
       </c>
       <c r="U82" s="1" t="s">
-        <v>41</v>
+        <v>73</v>
       </c>
       <c r="V82" s="1" t="n">
         <v>0.1</v>
       </c>
       <c r="W82" s="1" t="n">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="X82" s="1" t="n">
-        <v>0.8</v>
+        <v>0.3</v>
       </c>
       <c r="Y82" s="1" t="n">
-        <v>1.6</v>
+        <v>0.5</v>
       </c>
       <c r="Z82" s="1" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="83" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="1" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>27</v>
+        <v>61</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>427</v>
+        <v>420</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>428</v>
+        <v>447</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>31</v>
+        <v>64</v>
       </c>
       <c r="J83" s="1" t="n">
-        <v>58</v>
+        <v>17</v>
       </c>
       <c r="K83" s="1" t="n">
         <v>44008</v>
       </c>
       <c r="M83" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="N83" s="1" t="n">
         <v>444</v>
       </c>
-      <c r="N83" s="1" t="n">
-        <v>1189</v>
-      </c>
       <c r="O83" s="1" t="s">
-        <v>443</v>
+        <v>449</v>
       </c>
       <c r="P83" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q83" s="1" t="s">
-        <v>431</v>
+        <v>424</v>
       </c>
       <c r="R83" s="1" t="s">
-        <v>441</v>
+        <v>450</v>
       </c>
       <c r="S83" s="3" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
       <c r="T83" s="1" t="s">
-        <v>48</v>
+        <v>79</v>
       </c>
       <c r="U83" s="1" t="s">
-        <v>41</v>
+        <v>73</v>
       </c>
       <c r="V83" s="1" t="n">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="W83" s="1" t="n">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="X83" s="1" t="n">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="Y83" s="1" t="n">
-        <v>1.7</v>
+        <v>0</v>
       </c>
       <c r="Z83" s="1" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="84" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="1" t="s">
-        <v>445</v>
+        <v>452</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>27</v>
+        <v>61</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>427</v>
+        <v>453</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>428</v>
+        <v>454</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>31</v>
+        <v>295</v>
       </c>
       <c r="J84" s="1" t="n">
-        <v>59</v>
+        <v>71</v>
       </c>
       <c r="K84" s="1" t="n">
         <v>44008</v>
       </c>
       <c r="M84" s="1" t="s">
-        <v>446</v>
+        <v>455</v>
       </c>
       <c r="N84" s="1" t="n">
-        <v>627</v>
+        <v>426</v>
       </c>
       <c r="O84" s="1" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
       <c r="P84" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q84" s="1" t="s">
-        <v>431</v>
+        <v>457</v>
       </c>
       <c r="R84" s="1" t="s">
-        <v>441</v>
-      </c>
-      <c r="S84" s="3" t="s">
-        <v>447</v>
+        <v>458</v>
+      </c>
+      <c r="S84" s="1" t="s">
+        <v>459</v>
       </c>
       <c r="T84" s="1" t="s">
-        <v>48</v>
+        <v>79</v>
       </c>
       <c r="U84" s="1" t="s">
-        <v>49</v>
+        <v>73</v>
       </c>
       <c r="V84" s="1" t="n">
         <v>0.1</v>
       </c>
       <c r="W84" s="1" t="n">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="X84" s="1" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="Y84" s="1" t="n">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="Z84" s="1" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="85" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="1" t="s">
-        <v>448</v>
+        <v>461</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>27</v>
+        <v>61</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>427</v>
+        <v>453</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>428</v>
+        <v>454</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>31</v>
+        <v>295</v>
       </c>
       <c r="J85" s="1" t="n">
-        <v>51</v>
+        <v>72</v>
       </c>
       <c r="K85" s="1" t="n">
         <v>44008</v>
       </c>
       <c r="M85" s="1" t="s">
-        <v>449</v>
+        <v>462</v>
       </c>
       <c r="N85" s="1" t="n">
-        <v>1185</v>
+        <v>1186</v>
       </c>
       <c r="O85" s="1" t="s">
-        <v>450</v>
+        <v>463</v>
       </c>
       <c r="P85" s="1" t="n">
         <v>2</v>
       </c>
       <c r="Q85" s="1" t="s">
-        <v>431</v>
+        <v>457</v>
       </c>
       <c r="R85" s="1" t="s">
-        <v>432</v>
-      </c>
-      <c r="S85" s="3" t="s">
-        <v>451</v>
+        <v>458</v>
+      </c>
+      <c r="S85" s="1" t="s">
+        <v>464</v>
       </c>
       <c r="T85" s="1" t="s">
-        <v>48</v>
+        <v>79</v>
       </c>
       <c r="U85" s="1" t="s">
-        <v>41</v>
+        <v>73</v>
       </c>
       <c r="V85" s="1" t="n">
         <v>0.1</v>
       </c>
       <c r="W85" s="1" t="n">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="X85" s="1" t="n">
-        <v>0.3</v>
+        <v>0.7</v>
       </c>
       <c r="Y85" s="1" t="n">
-        <v>0.4</v>
+        <v>1.1</v>
       </c>
       <c r="Z85" s="1" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="86" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="1" t="s">
-        <v>452</v>
+        <v>465</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>27</v>
+        <v>61</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>427</v>
+        <v>453</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>428</v>
+        <v>454</v>
       </c>
       <c r="G86" s="1" t="s">
-        <v>31</v>
+        <v>64</v>
       </c>
       <c r="J86" s="1" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="K86" s="1" t="n">
         <v>44008</v>
       </c>
       <c r="M86" s="1" t="s">
-        <v>453</v>
+        <v>466</v>
       </c>
       <c r="N86" s="1" t="n">
-        <v>425</v>
+        <v>626</v>
       </c>
       <c r="O86" s="1" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
       <c r="P86" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q86" s="1" t="s">
-        <v>431</v>
+        <v>457</v>
       </c>
       <c r="R86" s="1" t="s">
-        <v>432</v>
+        <v>467</v>
       </c>
       <c r="S86" s="3" t="s">
-        <v>451</v>
+        <v>468</v>
       </c>
       <c r="T86" s="1" t="s">
-        <v>48</v>
+        <v>79</v>
       </c>
       <c r="U86" s="1" t="s">
-        <v>41</v>
+        <v>73</v>
       </c>
       <c r="V86" s="1" t="n">
         <v>0.1</v>
       </c>
       <c r="W86" s="1" t="n">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="X86" s="1" t="n">
-        <v>0.3</v>
+        <v>0.8</v>
       </c>
       <c r="Y86" s="1" t="n">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="Z86" s="1" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="1" t="s">
-        <v>455</v>
+        <v>469</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>27</v>
+        <v>61</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>427</v>
+        <v>453</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>428</v>
+        <v>454</v>
       </c>
       <c r="G87" s="1" t="s">
-        <v>31</v>
+        <v>64</v>
       </c>
       <c r="J87" s="1" t="n">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="K87" s="1" t="n">
         <v>44008</v>
       </c>
       <c r="M87" s="1" t="s">
-        <v>456</v>
+        <v>470</v>
       </c>
       <c r="N87" s="1" t="n">
-        <v>1213</v>
+        <v>1189</v>
       </c>
       <c r="O87" s="1" t="s">
-        <v>457</v>
+        <v>469</v>
       </c>
       <c r="P87" s="1" t="n">
         <v>1</v>
       </c>
       <c r="Q87" s="1" t="s">
-        <v>431</v>
+        <v>457</v>
       </c>
       <c r="R87" s="1" t="s">
-        <v>441</v>
-      </c>
-      <c r="S87" s="1" t="s">
-        <v>458</v>
+        <v>467</v>
+      </c>
+      <c r="S87" s="3" t="s">
+        <v>468</v>
       </c>
       <c r="T87" s="1" t="s">
-        <v>48</v>
+        <v>79</v>
       </c>
       <c r="U87" s="1" t="s">
-        <v>41</v>
+        <v>73</v>
       </c>
       <c r="V87" s="1" t="n">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="W87" s="1" t="n">
-        <v>0.2</v>
+        <v>0.7</v>
       </c>
       <c r="X87" s="1" t="n">
-        <v>0.3</v>
+        <v>0.9</v>
       </c>
       <c r="Y87" s="1" t="n">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="Z87" s="1" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="1" t="s">
-        <v>459</v>
+        <v>471</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>27</v>
+        <v>61</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>427</v>
+        <v>453</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>428</v>
+        <v>454</v>
       </c>
       <c r="G88" s="1" t="s">
-        <v>31</v>
+        <v>64</v>
       </c>
       <c r="J88" s="1" t="n">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="K88" s="1" t="n">
         <v>44008</v>
       </c>
       <c r="M88" s="1" t="s">
-        <v>460</v>
+        <v>472</v>
       </c>
       <c r="N88" s="1" t="n">
-        <v>1214</v>
+        <v>627</v>
       </c>
       <c r="O88" s="1" t="s">
-        <v>461</v>
+        <v>471</v>
       </c>
       <c r="P88" s="1" t="n">
         <v>1</v>
       </c>
       <c r="Q88" s="1" t="s">
-        <v>431</v>
+        <v>457</v>
       </c>
       <c r="R88" s="1" t="s">
-        <v>441</v>
-      </c>
-      <c r="S88" s="1" t="s">
-        <v>458</v>
+        <v>467</v>
+      </c>
+      <c r="S88" s="3" t="s">
+        <v>473</v>
       </c>
       <c r="T88" s="1" t="s">
-        <v>48</v>
+        <v>79</v>
       </c>
       <c r="U88" s="1" t="s">
         <v>41</v>
@@ -8475,160 +8619,163 @@
         <v>0.2</v>
       </c>
       <c r="X88" s="1" t="n">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="Y88" s="1" t="n">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="Z88" s="1" t="s">
-        <v>434</v>
+        <v>460</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="1" t="s">
-        <v>462</v>
+        <v>474</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>27</v>
+        <v>61</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>463</v>
+        <v>453</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>464</v>
+        <v>454</v>
       </c>
       <c r="G89" s="1" t="s">
-        <v>31</v>
+        <v>64</v>
       </c>
       <c r="J89" s="1" t="n">
-        <v>141</v>
+        <v>51</v>
       </c>
       <c r="K89" s="1" t="n">
         <v>44008</v>
       </c>
       <c r="M89" s="1" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
       <c r="N89" s="1" t="n">
-        <v>447</v>
+        <v>1185</v>
       </c>
       <c r="O89" s="1" t="s">
-        <v>462</v>
+        <v>476</v>
       </c>
       <c r="P89" s="1" t="n">
         <v>2</v>
       </c>
       <c r="Q89" s="1" t="s">
-        <v>466</v>
+        <v>457</v>
       </c>
       <c r="R89" s="1" t="s">
-        <v>467</v>
+        <v>458</v>
       </c>
       <c r="S89" s="3" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
       <c r="T89" s="1" t="s">
-        <v>48</v>
+        <v>79</v>
       </c>
       <c r="U89" s="1" t="s">
-        <v>41</v>
+        <v>73</v>
       </c>
       <c r="V89" s="1" t="n">
         <v>0.1</v>
       </c>
       <c r="W89" s="1" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="X89" s="1" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="Y89" s="1" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="Z89" s="1" t="s">
-        <v>469</v>
+        <v>460</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="1" t="s">
-        <v>470</v>
+        <v>478</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>27</v>
+        <v>61</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>471</v>
+        <v>453</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>472</v>
+        <v>454</v>
+      </c>
+      <c r="G90" s="1" t="s">
+        <v>64</v>
       </c>
       <c r="J90" s="1" t="n">
-        <v>21</v>
+        <v>52</v>
       </c>
       <c r="K90" s="1" t="n">
         <v>44008</v>
       </c>
       <c r="M90" s="1" t="s">
-        <v>473</v>
+        <v>479</v>
       </c>
       <c r="N90" s="1" t="n">
-        <v>164</v>
+        <v>425</v>
       </c>
       <c r="O90" s="1" t="s">
-        <v>474</v>
+        <v>480</v>
       </c>
       <c r="P90" s="1" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q90" s="1" t="s">
-        <v>475</v>
+        <v>457</v>
       </c>
       <c r="R90" s="1" t="s">
-        <v>476</v>
+        <v>458</v>
       </c>
       <c r="S90" s="3" t="s">
         <v>477</v>
       </c>
       <c r="T90" s="1" t="s">
-        <v>48</v>
+        <v>79</v>
       </c>
       <c r="U90" s="1" t="s">
-        <v>41</v>
+        <v>73</v>
       </c>
       <c r="V90" s="1" t="n">
         <v>0.1</v>
       </c>
       <c r="W90" s="1" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="X90" s="1" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="Y90" s="1" t="n">
         <v>0</v>
       </c>
       <c r="Z90" s="1" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="91" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="1" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>27</v>
+        <v>61</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>480</v>
+        <v>453</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>481</v>
+        <v>454</v>
       </c>
       <c r="G91" s="1" t="s">
-        <v>31</v>
+        <v>64</v>
       </c>
       <c r="J91" s="1" t="n">
-        <v>13</v>
+        <v>53</v>
       </c>
       <c r="K91" s="1" t="n">
         <v>44008</v>
@@ -8637,56 +8784,301 @@
         <v>482</v>
       </c>
       <c r="N91" s="1" t="n">
-        <v>409</v>
+        <v>1213</v>
       </c>
       <c r="O91" s="1" t="s">
         <v>483</v>
       </c>
       <c r="P91" s="1" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q91" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="R91" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="S91" s="1" t="s">
         <v>484</v>
       </c>
-      <c r="R91" s="1" t="s">
-        <v>485</v>
-      </c>
-      <c r="S91" s="3" t="s">
-        <v>486</v>
-      </c>
       <c r="T91" s="1" t="s">
-        <v>48</v>
+        <v>79</v>
       </c>
       <c r="U91" s="1" t="s">
-        <v>41</v>
+        <v>73</v>
       </c>
       <c r="V91" s="1" t="n">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="W91" s="1" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="X91" s="1" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="Y91" s="1" t="n">
         <v>0</v>
       </c>
       <c r="Z91" s="1" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A92" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="G92" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="J92" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="K92" s="1" t="n">
+        <v>44008</v>
+      </c>
+      <c r="M92" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="N92" s="1" t="n">
+        <v>1214</v>
+      </c>
+      <c r="O92" s="1" t="s">
         <v>487</v>
       </c>
-    </row>
-    <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J92" s="5"/>
-    </row>
-    <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J93" s="5"/>
-    </row>
-    <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J94" s="5"/>
-    </row>
-    <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J95" s="5"/>
+      <c r="P92" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q92" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="R92" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="S92" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="T92" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="U92" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="V92" s="1" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="W92" s="1" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="X92" s="1" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="Y92" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z92" s="1" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="93" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A93" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="D93" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="G93" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="J93" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="K93" s="1" t="n">
+        <v>44008</v>
+      </c>
+      <c r="M93" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="N93" s="1" t="n">
+        <v>447</v>
+      </c>
+      <c r="O93" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="P93" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q93" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="R93" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="S93" s="3" t="s">
+        <v>494</v>
+      </c>
+      <c r="T93" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="U93" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="V93" s="1" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="W93" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X93" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y93" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z93" s="1" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="94" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A94" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="D94" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="J94" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="K94" s="1" t="n">
+        <v>44008</v>
+      </c>
+      <c r="M94" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="N94" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="O94" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="P94" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q94" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="R94" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="S94" s="3" t="s">
+        <v>503</v>
+      </c>
+      <c r="T94" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="U94" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="V94" s="1" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="W94" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X94" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y94" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z94" s="1" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="95" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A95" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="D95" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="G95" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="J95" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="K95" s="1" t="n">
+        <v>44008</v>
+      </c>
+      <c r="M95" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="N95" s="1" t="n">
+        <v>409</v>
+      </c>
+      <c r="O95" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="P95" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q95" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="R95" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="S95" s="3" t="s">
+        <v>512</v>
+      </c>
+      <c r="T95" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="U95" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="V95" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="W95" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X95" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y95" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z95" s="1" t="s">
+        <v>513</v>
+      </c>
     </row>
     <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J96" s="5"/>
@@ -8748,10 +9140,18 @@
     <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J115" s="5"/>
     </row>
-    <row r="1048536" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048537" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048538" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048539" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J116" s="5"/>
+    </row>
+    <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J117" s="5"/>
+    </row>
+    <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J118" s="5"/>
+    </row>
+    <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J119" s="5"/>
+    </row>
     <row r="1048540" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048541" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048542" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
